--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\open_source_rover\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\osr\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,14 +21,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Body!$A$1:$M$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$105</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$104</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1146" uniqueCount="378">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1149" uniqueCount="383">
   <si>
     <t>Part</t>
   </si>
@@ -1162,6 +1162,21 @@
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/bulgin/C3900BA/1091-1026-ND/2747857</t>
+  </si>
+  <si>
+    <t>Custom Acrylic Back plate</t>
+  </si>
+  <si>
+    <t>Sculpteo</t>
+  </si>
+  <si>
+    <t>S37B</t>
+  </si>
+  <si>
+    <t>https://www.sculpteo.com/</t>
+  </si>
+  <si>
+    <t>Custom Acrylic Electronics Board</t>
   </si>
 </sst>
 </file>
@@ -1535,7 +1550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="166">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1958,9 +1973,6 @@
     <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1986,6 +1998,11 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2267,11 +2284,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AA971"/>
+  <dimension ref="A1:AA970"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A98" sqref="A98"/>
+      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2376,7 +2393,7 @@
         <v>1.5</v>
       </c>
       <c r="K2" s="34">
-        <f>B2/D2*J2</f>
+        <f t="shared" ref="K2:K11" si="0">B2/D2*J2</f>
         <v>3</v>
       </c>
       <c r="L2" s="35" t="s">
@@ -2420,55 +2437,55 @@
         <v>34.99</v>
       </c>
       <c r="K3" s="42">
-        <f>B3/D3*J3</f>
+        <f t="shared" si="0"/>
         <v>34.99</v>
       </c>
       <c r="L3" s="43" t="s">
         <v>44</v>
       </c>
       <c r="M3" s="44"/>
-      <c r="N3" s="152" t="s">
+      <c r="N3" s="163" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="4" spans="1:27" ht="14.25" customHeight="1">
-      <c r="A4" s="154" t="s">
+      <c r="A4" s="153" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="155">
-        <v>1</v>
-      </c>
-      <c r="C4" s="155">
-        <v>1</v>
-      </c>
-      <c r="D4" s="155">
-        <v>1</v>
-      </c>
-      <c r="E4" s="155" t="s">
+      <c r="B4" s="154">
+        <v>1</v>
+      </c>
+      <c r="C4" s="154">
+        <v>1</v>
+      </c>
+      <c r="D4" s="154">
+        <v>1</v>
+      </c>
+      <c r="E4" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="155" t="s">
+      <c r="F4" s="154" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="156" t="s">
+      <c r="G4" s="155" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="155" t="s">
+      <c r="H4" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="155"/>
-      <c r="J4" s="157">
+      <c r="I4" s="154"/>
+      <c r="J4" s="156">
         <v>25</v>
       </c>
-      <c r="K4" s="157">
-        <f>B4/D4*J4</f>
+      <c r="K4" s="156">
+        <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="L4" s="158" t="s">
+      <c r="L4" s="157" t="s">
         <v>49</v>
       </c>
       <c r="M4" s="48"/>
-      <c r="N4" s="153"/>
+      <c r="N4" s="164"/>
       <c r="Y4" s="49"/>
       <c r="Z4" s="49"/>
       <c r="AA4" s="49"/>
@@ -2503,7 +2520,7 @@
         <v>13.24</v>
       </c>
       <c r="K5" s="42">
-        <f>B5/D5*J5</f>
+        <f t="shared" si="0"/>
         <v>13.24</v>
       </c>
       <c r="L5" s="43" t="s">
@@ -2541,7 +2558,7 @@
         <v>9.98</v>
       </c>
       <c r="K6" s="42">
-        <f>B6/D6*J6</f>
+        <f t="shared" si="0"/>
         <v>9.98</v>
       </c>
       <c r="L6" s="43" t="s">
@@ -2549,46 +2566,46 @@
       </c>
       <c r="M6" s="38"/>
     </row>
-    <row r="7" spans="1:27" s="161" customFormat="1" ht="14.25" customHeight="1">
-      <c r="A7" s="154" t="s">
+    <row r="7" spans="1:27" s="160" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A7" s="153" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="155">
-        <v>1</v>
-      </c>
-      <c r="C7" s="155">
-        <v>1</v>
-      </c>
-      <c r="D7" s="155">
-        <v>1</v>
-      </c>
-      <c r="E7" s="155" t="s">
+      <c r="B7" s="154">
+        <v>1</v>
+      </c>
+      <c r="C7" s="154">
+        <v>1</v>
+      </c>
+      <c r="D7" s="154">
+        <v>1</v>
+      </c>
+      <c r="E7" s="154" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="155" t="s">
+      <c r="F7" s="154" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="154" t="s">
+      <c r="G7" s="153" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="155" t="s">
+      <c r="H7" s="154" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="155"/>
-      <c r="J7" s="157">
+      <c r="I7" s="154"/>
+      <c r="J7" s="156">
         <v>6.79</v>
       </c>
-      <c r="K7" s="157">
-        <f>B7/D7*J7</f>
+      <c r="K7" s="156">
+        <f t="shared" si="0"/>
         <v>6.79</v>
       </c>
-      <c r="L7" s="159" t="s">
+      <c r="L7" s="158" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="160"/>
-      <c r="Y7" s="162"/>
-      <c r="Z7" s="162"/>
-      <c r="AA7" s="162"/>
+      <c r="M7" s="159"/>
+      <c r="Y7" s="161"/>
+      <c r="Z7" s="161"/>
+      <c r="AA7" s="161"/>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1">
       <c r="A8" s="50" t="s">
@@ -2620,7 +2637,7 @@
         <v>5.57</v>
       </c>
       <c r="K8" s="42">
-        <f>B8/D8*J8</f>
+        <f t="shared" si="0"/>
         <v>5.57</v>
       </c>
       <c r="L8" s="54" t="s">
@@ -2658,7 +2675,7 @@
         <v>21.66</v>
       </c>
       <c r="K9" s="42">
-        <f>B9/D9*J9</f>
+        <f t="shared" si="0"/>
         <v>21.66</v>
       </c>
       <c r="L9" s="43" t="s">
@@ -2701,7 +2718,7 @@
         <v>9.25</v>
       </c>
       <c r="K10" s="42">
-        <f>B10/D10*J10</f>
+        <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
       <c r="L10" s="43" t="s">
@@ -2739,7 +2756,7 @@
         <v>6.49</v>
       </c>
       <c r="K11" s="42">
-        <f>B11/D11*J11</f>
+        <f t="shared" si="0"/>
         <v>6.49</v>
       </c>
       <c r="L11" s="54" t="s">
@@ -2818,7 +2835,7 @@
         <v>86.95</v>
       </c>
       <c r="K13" s="42">
-        <f>B13/D13*J13</f>
+        <f t="shared" ref="K13:K57" si="1">B13/D13*J13</f>
         <v>86.95</v>
       </c>
       <c r="L13" s="43" t="s">
@@ -2856,7 +2873,7 @@
         <v>41.95</v>
       </c>
       <c r="K14" s="42">
-        <f>B14/D14*J14</f>
+        <f t="shared" si="1"/>
         <v>41.95</v>
       </c>
       <c r="L14" s="43" t="s">
@@ -2894,10 +2911,10 @@
         <v>2.8000000000000001E-2</v>
       </c>
       <c r="K15" s="42">
-        <f>B15/D15*J15</f>
+        <f t="shared" si="1"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="L15" s="163" t="s">
+      <c r="L15" s="162" t="s">
         <v>375</v>
       </c>
       <c r="M15" s="38"/>
@@ -2932,7 +2949,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
       <c r="K16" s="42">
-        <f>B16/D16*J16</f>
+        <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
       <c r="L16" s="43" t="s">
@@ -2970,7 +2987,7 @@
         <v>24.95</v>
       </c>
       <c r="K17" s="42">
-        <f>B17/D17*J17</f>
+        <f t="shared" si="1"/>
         <v>24.95</v>
       </c>
       <c r="L17" s="43" t="s">
@@ -3008,7 +3025,7 @@
         <v>4.49</v>
       </c>
       <c r="K18" s="42">
-        <f>B18/D18*J18</f>
+        <f t="shared" si="1"/>
         <v>4.49</v>
       </c>
       <c r="L18" s="54" t="s">
@@ -3048,7 +3065,7 @@
         <v>25.27</v>
       </c>
       <c r="K19" s="42">
-        <f>B19/D19*J19</f>
+        <f t="shared" si="1"/>
         <v>75.81</v>
       </c>
       <c r="L19" s="43" t="s">
@@ -3088,7 +3105,7 @@
         <v>12.9</v>
       </c>
       <c r="K20" s="42">
-        <f>B20/D20*J20</f>
+        <f t="shared" si="1"/>
         <v>51.6</v>
       </c>
       <c r="L20" s="43" t="s">
@@ -3129,7 +3146,7 @@
         <v>75.8</v>
       </c>
       <c r="K21" s="42">
-        <f>B21/D21*J21</f>
+        <f t="shared" si="1"/>
         <v>75.8</v>
       </c>
       <c r="L21" s="43" t="s">
@@ -3170,7 +3187,7 @@
         <v>3.45</v>
       </c>
       <c r="K22" s="131">
-        <f>B22/D22*J22</f>
+        <f t="shared" si="1"/>
         <v>10.350000000000001</v>
       </c>
       <c r="L22" s="132" t="s">
@@ -3210,7 +3227,7 @@
         <v>5.61</v>
       </c>
       <c r="K23" s="131">
-        <f>B23/D23*J23</f>
+        <f t="shared" si="1"/>
         <v>5.61</v>
       </c>
       <c r="L23" s="134" t="str">
@@ -3254,7 +3271,7 @@
         <v>2.72</v>
       </c>
       <c r="K24" s="131">
-        <f>B24/D24*J24</f>
+        <f t="shared" si="1"/>
         <v>5.44</v>
       </c>
       <c r="L24" s="135" t="s">
@@ -3297,7 +3314,7 @@
         <v>2.79</v>
       </c>
       <c r="K25" s="131">
-        <f>B25/D25*J25</f>
+        <f t="shared" si="1"/>
         <v>2.79</v>
       </c>
       <c r="L25" s="134" t="s">
@@ -3341,7 +3358,7 @@
         <v>3.72</v>
       </c>
       <c r="K26" s="131">
-        <f>B26/D26*J26</f>
+        <f t="shared" si="1"/>
         <v>3.72</v>
       </c>
       <c r="L26" s="135" t="s">
@@ -3384,7 +3401,7 @@
         <v>3.72</v>
       </c>
       <c r="K27" s="131">
-        <f>B27/D27*J27</f>
+        <f t="shared" si="1"/>
         <v>3.72</v>
       </c>
       <c r="L27" s="135" t="s">
@@ -3427,7 +3444,7 @@
         <v>4.07</v>
       </c>
       <c r="K28" s="131">
-        <f>B28/D28*J28</f>
+        <f t="shared" si="1"/>
         <v>4.07</v>
       </c>
       <c r="L28" s="134" t="s">
@@ -3467,7 +3484,7 @@
         <v>4.41</v>
       </c>
       <c r="K29" s="131">
-        <f>B29/D29*J29</f>
+        <f t="shared" si="1"/>
         <v>4.41</v>
       </c>
       <c r="L29" s="134" t="s">
@@ -3507,7 +3524,7 @@
         <v>5.42</v>
       </c>
       <c r="K30" s="131">
-        <f>B30/D30*J30</f>
+        <f t="shared" si="1"/>
         <v>5.42</v>
       </c>
       <c r="L30" s="134" t="s">
@@ -3547,7 +3564,7 @@
         <v>6.51</v>
       </c>
       <c r="K31" s="131">
-        <f>B31/D31*J31</f>
+        <f t="shared" si="1"/>
         <v>6.51</v>
       </c>
       <c r="L31" s="135" t="s">
@@ -3587,7 +3604,7 @@
         <v>2.87</v>
       </c>
       <c r="K32" s="131">
-        <f>B32/D32*J32</f>
+        <f t="shared" si="1"/>
         <v>2.87</v>
       </c>
       <c r="L32" s="135" t="s">
@@ -3627,7 +3644,7 @@
         <v>7.7</v>
       </c>
       <c r="K33" s="131">
-        <f>B33/D33*J33</f>
+        <f t="shared" si="1"/>
         <v>7.7</v>
       </c>
       <c r="L33" s="134" t="s">
@@ -3667,7 +3684,7 @@
         <v>22.57</v>
       </c>
       <c r="K34" s="42">
-        <f>B34/D34*J34</f>
+        <f t="shared" si="1"/>
         <v>22.57</v>
       </c>
       <c r="L34" s="43" t="s">
@@ -3707,7 +3724,7 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="K35" s="42">
-        <f>B35/D35*J35</f>
+        <f t="shared" si="1"/>
         <v>24.86</v>
       </c>
       <c r="L35" s="43" t="s">
@@ -3747,7 +3764,7 @@
         <v>4.92</v>
       </c>
       <c r="K36" s="42">
-        <f>B36/D36*J36</f>
+        <f t="shared" si="1"/>
         <v>4.92</v>
       </c>
       <c r="L36" s="43" t="s">
@@ -3787,7 +3804,7 @@
         <v>0.23</v>
       </c>
       <c r="K37" s="131">
-        <f>B37/D37*J37</f>
+        <f t="shared" si="1"/>
         <v>15.64</v>
       </c>
       <c r="L37" s="134" t="s">
@@ -3827,7 +3844,7 @@
         <v>0.3</v>
       </c>
       <c r="K38" s="131">
-        <f>B38/D38*J38</f>
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
       <c r="L38" s="136" t="str">
@@ -3868,7 +3885,7 @@
         <v>0.23</v>
       </c>
       <c r="K39" s="131">
-        <f>B39/D39*J39</f>
+        <f t="shared" si="1"/>
         <v>2.3000000000000003</v>
       </c>
       <c r="L39" s="134" t="s">
@@ -3908,7 +3925,7 @@
         <v>0.27</v>
       </c>
       <c r="K40" s="131">
-        <f>B40/D40*J40</f>
+        <f t="shared" si="1"/>
         <v>4.0500000000000007</v>
       </c>
       <c r="L40" s="134" t="s">
@@ -3951,7 +3968,7 @@
         <v>0.37</v>
       </c>
       <c r="K41" s="131">
-        <f>B41/D41*J41</f>
+        <f t="shared" si="1"/>
         <v>3.7</v>
       </c>
       <c r="L41" s="135" t="s">
@@ -3994,7 +4011,7 @@
         <v>0.48</v>
       </c>
       <c r="K42" s="131">
-        <f>B42/D42*J42</f>
+        <f t="shared" si="1"/>
         <v>4.8</v>
       </c>
       <c r="L42" s="136" t="s">
@@ -4037,7 +4054,7 @@
         <v>1.17</v>
       </c>
       <c r="K43" s="131">
-        <f>B43/D43*J43</f>
+        <f t="shared" si="1"/>
         <v>1.17</v>
       </c>
       <c r="L43" s="135" t="s">
@@ -4080,7 +4097,7 @@
         <v>1.4</v>
       </c>
       <c r="K44" s="131">
-        <f>B44/D44*J44</f>
+        <f t="shared" si="1"/>
         <v>1.4</v>
       </c>
       <c r="L44" s="138" t="s">
@@ -4120,7 +4137,7 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="K45" s="131">
-        <f>B45/D45*J45</f>
+        <f t="shared" si="1"/>
         <v>9.8800000000000008</v>
       </c>
       <c r="L45" s="135" t="s">
@@ -4130,53 +4147,51 @@
     </row>
     <row r="46" spans="1:27" ht="14.25" customHeight="1">
       <c r="A46" s="39" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B46" s="40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C46" s="40">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="D46" s="51">
         <v>1</v>
       </c>
       <c r="E46" s="40" t="s">
-        <v>196</v>
+        <v>127</v>
       </c>
       <c r="F46" s="40" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="G46" s="39" t="s">
-        <v>198</v>
+        <v>23</v>
       </c>
       <c r="H46" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="I46" s="41" t="s">
-        <v>341</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I46" s="41"/>
       <c r="J46" s="42">
-        <v>9.6999999999999993</v>
+        <v>69.95</v>
       </c>
       <c r="K46" s="42">
-        <f>B46/D46*J46</f>
-        <v>9.6999999999999993</v>
+        <f t="shared" si="1"/>
+        <v>349.75</v>
       </c>
       <c r="L46" s="43" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="M46" s="38"/>
     </row>
     <row r="47" spans="1:27" ht="14.25" customHeight="1">
       <c r="A47" s="39" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="B47" s="40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C47" s="40">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D47" s="51">
         <v>1</v>
@@ -4185,7 +4200,7 @@
         <v>127</v>
       </c>
       <c r="F47" s="40" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="G47" s="39" t="s">
         <v>23</v>
@@ -4195,26 +4210,26 @@
       </c>
       <c r="I47" s="41"/>
       <c r="J47" s="42">
-        <v>69.95</v>
+        <v>14.95</v>
       </c>
       <c r="K47" s="42">
-        <f>B47/D47*J47</f>
-        <v>349.75</v>
+        <f t="shared" si="1"/>
+        <v>14.95</v>
       </c>
       <c r="L47" s="43" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="M47" s="38"/>
     </row>
     <row r="48" spans="1:27" ht="14.25" customHeight="1">
       <c r="A48" s="39" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="B48" s="40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C48" s="40">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D48" s="51">
         <v>1</v>
@@ -4223,36 +4238,36 @@
         <v>127</v>
       </c>
       <c r="F48" s="40" t="s">
-        <v>202</v>
+        <v>128</v>
       </c>
       <c r="G48" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H48" s="41" t="s">
+      <c r="H48" s="40" t="s">
         <v>13</v>
       </c>
-      <c r="I48" s="41"/>
+      <c r="I48" s="40"/>
       <c r="J48" s="42">
-        <v>14.95</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="K48" s="42">
-        <f>B48/D48*J48</f>
-        <v>14.95</v>
+        <f t="shared" si="1"/>
+        <v>209.70000000000002</v>
       </c>
       <c r="L48" s="43" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="M48" s="38"/>
     </row>
     <row r="49" spans="1:13" ht="14.25" customHeight="1">
       <c r="A49" s="39" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="B49" s="40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C49" s="40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D49" s="51">
         <v>1</v>
@@ -4261,74 +4276,76 @@
         <v>127</v>
       </c>
       <c r="F49" s="40" t="s">
-        <v>128</v>
+        <v>206</v>
       </c>
       <c r="G49" s="39" t="s">
         <v>23</v>
       </c>
-      <c r="H49" s="40" t="s">
+      <c r="H49" s="41" t="s">
         <v>13</v>
       </c>
-      <c r="I49" s="40"/>
+      <c r="I49" s="41"/>
       <c r="J49" s="42">
-        <v>34.950000000000003</v>
+        <v>19.95</v>
       </c>
       <c r="K49" s="42">
-        <f>B49/D49*J49</f>
-        <v>209.70000000000002</v>
+        <f t="shared" si="1"/>
+        <v>79.8</v>
       </c>
       <c r="L49" s="43" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="M49" s="38"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
       <c r="A50" s="39" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="B50" s="40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C50" s="40">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D50" s="51">
         <v>1</v>
       </c>
       <c r="E50" s="40" t="s">
-        <v>127</v>
+        <v>209</v>
       </c>
       <c r="F50" s="40" t="s">
-        <v>206</v>
-      </c>
-      <c r="G50" s="39" t="s">
-        <v>23</v>
+        <v>210</v>
+      </c>
+      <c r="G50" s="39">
+        <v>585440</v>
       </c>
       <c r="H50" s="41" t="s">
-        <v>13</v>
-      </c>
-      <c r="I50" s="41"/>
+        <v>67</v>
+      </c>
+      <c r="I50" s="41" t="s">
+        <v>342</v>
+      </c>
       <c r="J50" s="42">
-        <v>19.95</v>
+        <v>2.99</v>
       </c>
       <c r="K50" s="42">
-        <f>B50/D50*J50</f>
-        <v>79.8</v>
+        <f t="shared" si="1"/>
+        <v>17.940000000000001</v>
       </c>
       <c r="L50" s="43" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="M50" s="38"/>
     </row>
     <row r="51" spans="1:13" ht="14.25" customHeight="1">
       <c r="A51" s="39" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B51" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C51" s="40">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="D51" s="51">
         <v>1</v>
@@ -4337,38 +4354,38 @@
         <v>209</v>
       </c>
       <c r="F51" s="40" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="G51" s="39">
-        <v>585440</v>
+        <v>535110</v>
       </c>
       <c r="H51" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I51" s="41" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="J51" s="42">
-        <v>2.99</v>
+        <v>5.99</v>
       </c>
       <c r="K51" s="42">
-        <f>B51/D51*J51</f>
-        <v>17.940000000000001</v>
+        <f t="shared" si="1"/>
+        <v>47.92</v>
       </c>
       <c r="L51" s="43" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M51" s="38"/>
     </row>
     <row r="52" spans="1:13" ht="14.25" customHeight="1">
       <c r="A52" s="39" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="B52" s="40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C52" s="40">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D52" s="51">
         <v>1</v>
@@ -4377,38 +4394,38 @@
         <v>209</v>
       </c>
       <c r="F52" s="40" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="G52" s="39">
-        <v>535110</v>
+        <v>535118</v>
       </c>
       <c r="H52" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I52" s="41" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="J52" s="42">
-        <v>5.99</v>
+        <v>6.99</v>
       </c>
       <c r="K52" s="42">
-        <f>B52/D52*J52</f>
-        <v>47.92</v>
+        <f t="shared" si="1"/>
+        <v>41.94</v>
       </c>
       <c r="L52" s="43" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="M52" s="38"/>
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1">
       <c r="A53" s="39" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="B53" s="40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C53" s="40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D53" s="51">
         <v>1</v>
@@ -4417,38 +4434,38 @@
         <v>209</v>
       </c>
       <c r="F53" s="40" t="s">
-        <v>215</v>
-      </c>
-      <c r="G53" s="39">
-        <v>535118</v>
+        <v>218</v>
+      </c>
+      <c r="G53" s="66">
+        <v>545588</v>
       </c>
       <c r="H53" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I53" s="41" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="J53" s="42">
-        <v>6.99</v>
+        <v>5.99</v>
       </c>
       <c r="K53" s="42">
-        <f>B53/D53*J53</f>
-        <v>41.94</v>
+        <f t="shared" si="1"/>
+        <v>23.96</v>
       </c>
       <c r="L53" s="43" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="M53" s="38"/>
     </row>
     <row r="54" spans="1:13" ht="14.25" customHeight="1">
       <c r="A54" s="39" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="B54" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C54" s="40">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D54" s="51">
         <v>1</v>
@@ -4457,38 +4474,38 @@
         <v>209</v>
       </c>
       <c r="F54" s="40" t="s">
-        <v>218</v>
-      </c>
-      <c r="G54" s="66">
-        <v>545588</v>
+        <v>221</v>
+      </c>
+      <c r="G54" s="39">
+        <v>545600</v>
       </c>
       <c r="H54" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I54" s="41" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J54" s="42">
         <v>5.99</v>
       </c>
       <c r="K54" s="42">
-        <f>B54/D54*J54</f>
-        <v>23.96</v>
+        <f t="shared" si="1"/>
+        <v>17.97</v>
       </c>
       <c r="L54" s="43" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="M54" s="38"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1">
       <c r="A55" s="39" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="B55" s="40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C55" s="40">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D55" s="51">
         <v>1</v>
@@ -4497,38 +4514,38 @@
         <v>209</v>
       </c>
       <c r="F55" s="40" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G55" s="39">
-        <v>545600</v>
+        <v>545608</v>
       </c>
       <c r="H55" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I55" s="41" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="J55" s="42">
         <v>5.99</v>
       </c>
       <c r="K55" s="42">
-        <f>B55/D55*J55</f>
-        <v>17.97</v>
+        <f t="shared" si="1"/>
+        <v>35.94</v>
       </c>
       <c r="L55" s="43" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="M55" s="38"/>
     </row>
     <row r="56" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A56" s="39" t="s">
-        <v>223</v>
+      <c r="A56" s="67" t="s">
+        <v>225</v>
       </c>
       <c r="B56" s="40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C56" s="40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D56" s="51">
         <v>1</v>
@@ -4537,116 +4554,116 @@
         <v>209</v>
       </c>
       <c r="F56" s="40" t="s">
-        <v>224</v>
-      </c>
-      <c r="G56" s="39">
-        <v>545608</v>
+        <v>226</v>
+      </c>
+      <c r="G56" s="67">
+        <v>634066</v>
       </c>
       <c r="H56" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I56" s="41" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J56" s="42">
+        <v>1.49</v>
+      </c>
+      <c r="K56" s="42">
+        <f t="shared" si="1"/>
+        <v>5.96</v>
+      </c>
+      <c r="L56" s="43" t="s">
+        <v>227</v>
+      </c>
+      <c r="M56" s="38"/>
+    </row>
+    <row r="57" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A57" s="39" t="s">
+        <v>228</v>
+      </c>
+      <c r="B57" s="52">
+        <v>16</v>
+      </c>
+      <c r="C57" s="52"/>
+      <c r="D57" s="51">
+        <v>2</v>
+      </c>
+      <c r="E57" s="52" t="s">
+        <v>209</v>
+      </c>
+      <c r="F57" s="52" t="s">
+        <v>229</v>
+      </c>
+      <c r="G57" s="50">
+        <v>585470</v>
+      </c>
+      <c r="H57" s="52" t="s">
+        <v>67</v>
+      </c>
+      <c r="I57" s="52" t="s">
+        <v>341</v>
+      </c>
+      <c r="J57" s="42">
         <v>5.99</v>
       </c>
-      <c r="K56" s="42">
-        <f>B56/D56*J56</f>
-        <v>35.94</v>
-      </c>
-      <c r="L56" s="43" t="s">
-        <v>223</v>
-      </c>
-      <c r="M56" s="38"/>
-    </row>
-    <row r="57" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A57" s="67" t="s">
-        <v>225</v>
-      </c>
-      <c r="B57" s="40">
+      <c r="K57" s="68">
+        <f t="shared" si="1"/>
+        <v>47.92</v>
+      </c>
+      <c r="L57" s="54" t="s">
+        <v>230</v>
+      </c>
+      <c r="M57" s="38"/>
+    </row>
+    <row r="58" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A58" s="50" t="s">
+        <v>231</v>
+      </c>
+      <c r="B58" s="52">
         <v>4</v>
       </c>
-      <c r="C57" s="40">
+      <c r="C58" s="52">
         <v>4</v>
       </c>
-      <c r="D57" s="51">
-        <v>1</v>
-      </c>
-      <c r="E57" s="40" t="s">
-        <v>209</v>
-      </c>
-      <c r="F57" s="40" t="s">
-        <v>226</v>
-      </c>
-      <c r="G57" s="67">
-        <v>634066</v>
-      </c>
-      <c r="H57" s="41" t="s">
-        <v>67</v>
-      </c>
-      <c r="I57" s="41" t="s">
-        <v>339</v>
-      </c>
-      <c r="J57" s="42">
-        <v>1.49</v>
-      </c>
-      <c r="K57" s="42">
-        <f>B57/D57*J57</f>
-        <v>5.96</v>
-      </c>
-      <c r="L57" s="43" t="s">
-        <v>227</v>
-      </c>
-      <c r="M57" s="38"/>
-    </row>
-    <row r="58" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A58" s="39" t="s">
-        <v>228</v>
-      </c>
-      <c r="B58" s="52">
-        <v>16</v>
-      </c>
-      <c r="C58" s="52"/>
       <c r="D58" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E58" s="52" t="s">
         <v>209</v>
       </c>
       <c r="F58" s="52" t="s">
-        <v>229</v>
-      </c>
-      <c r="G58" s="50">
-        <v>585470</v>
+        <v>232</v>
+      </c>
+      <c r="G58" s="53">
+        <v>635254</v>
       </c>
       <c r="H58" s="52" t="s">
         <v>67</v>
       </c>
       <c r="I58" s="52" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="J58" s="42">
-        <v>5.99</v>
-      </c>
-      <c r="K58" s="68">
-        <f>B58/D58*J58</f>
-        <v>47.92</v>
+        <v>2.09</v>
+      </c>
+      <c r="K58" s="42">
+        <f>B57/D58*J58</f>
+        <v>33.44</v>
       </c>
       <c r="L58" s="54" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="M58" s="38"/>
     </row>
     <row r="59" spans="1:13" ht="14.25" customHeight="1">
       <c r="A59" s="50" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="B59" s="52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C59" s="52">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D59" s="51">
         <v>1</v>
@@ -4655,78 +4672,78 @@
         <v>209</v>
       </c>
       <c r="F59" s="52" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="G59" s="53">
-        <v>635254</v>
+        <v>635252</v>
       </c>
       <c r="H59" s="52" t="s">
         <v>67</v>
       </c>
       <c r="I59" s="52" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="J59" s="42">
-        <v>2.09</v>
+        <v>1.49</v>
       </c>
       <c r="K59" s="42">
-        <f>B58/D59*J59</f>
-        <v>33.44</v>
+        <f t="shared" ref="K59:K104" si="2">B59/D59*J59</f>
+        <v>1.49</v>
       </c>
       <c r="L59" s="54" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="M59" s="38"/>
     </row>
     <row r="60" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A60" s="50" t="s">
-        <v>234</v>
-      </c>
-      <c r="B60" s="52">
-        <v>1</v>
-      </c>
-      <c r="C60" s="52">
-        <v>1</v>
+      <c r="A60" s="39" t="s">
+        <v>237</v>
+      </c>
+      <c r="B60" s="40">
+        <v>18</v>
+      </c>
+      <c r="C60" s="40">
+        <v>18</v>
       </c>
       <c r="D60" s="51">
         <v>1</v>
       </c>
-      <c r="E60" s="52" t="s">
+      <c r="E60" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="F60" s="52" t="s">
-        <v>235</v>
-      </c>
-      <c r="G60" s="53">
-        <v>635252</v>
-      </c>
-      <c r="H60" s="52" t="s">
+      <c r="F60" s="40" t="s">
+        <v>238</v>
+      </c>
+      <c r="G60" s="39">
+        <v>585442</v>
+      </c>
+      <c r="H60" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I60" s="52" t="s">
-        <v>341</v>
+      <c r="I60" s="41" t="s">
+        <v>343</v>
       </c>
       <c r="J60" s="42">
-        <v>1.49</v>
+        <v>3.99</v>
       </c>
       <c r="K60" s="42">
-        <f>B60/D60*J60</f>
-        <v>1.49</v>
-      </c>
-      <c r="L60" s="54" t="s">
-        <v>236</v>
+        <f t="shared" si="2"/>
+        <v>71.820000000000007</v>
+      </c>
+      <c r="L60" s="43" t="s">
+        <v>239</v>
       </c>
       <c r="M60" s="38"/>
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1">
       <c r="A61" s="39" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="B61" s="40">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="C61" s="40">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="D61" s="51">
         <v>1</v>
@@ -4735,118 +4752,118 @@
         <v>209</v>
       </c>
       <c r="F61" s="40" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="G61" s="39">
-        <v>585442</v>
+        <v>585546</v>
       </c>
       <c r="H61" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I61" s="41" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="J61" s="42">
-        <v>3.99</v>
+        <v>5.99</v>
       </c>
       <c r="K61" s="42">
-        <f>B61/D61*J61</f>
-        <v>71.820000000000007</v>
+        <f t="shared" si="2"/>
+        <v>11.98</v>
       </c>
       <c r="L61" s="43" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M61" s="38"/>
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1">
       <c r="A62" s="39" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="B62" s="40">
+        <v>8</v>
+      </c>
+      <c r="C62" s="40">
+        <v>8</v>
+      </c>
+      <c r="D62" s="51">
         <v>2</v>
-      </c>
-      <c r="C62" s="40">
-        <v>2</v>
-      </c>
-      <c r="D62" s="51">
-        <v>1</v>
       </c>
       <c r="E62" s="40" t="s">
         <v>209</v>
       </c>
       <c r="F62" s="40" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="G62" s="39">
-        <v>585546</v>
+        <v>585404</v>
       </c>
       <c r="H62" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I62" s="41" t="s">
-        <v>344</v>
+        <v>337</v>
       </c>
       <c r="J62" s="42">
-        <v>5.99</v>
+        <v>2.39</v>
       </c>
       <c r="K62" s="42">
-        <f>B62/D62*J62</f>
-        <v>11.98</v>
+        <f t="shared" si="2"/>
+        <v>9.56</v>
       </c>
       <c r="L62" s="43" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="M62" s="38"/>
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1">
       <c r="A63" s="39" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B63" s="40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C63" s="40">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="D63" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E63" s="40" t="s">
         <v>209</v>
       </c>
       <c r="F63" s="40" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="G63" s="39">
-        <v>585404</v>
+        <v>625049</v>
       </c>
       <c r="H63" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I63" s="41" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="J63" s="42">
-        <v>2.39</v>
+        <v>4.99</v>
       </c>
       <c r="K63" s="42">
-        <f>B63/D63*J63</f>
-        <v>9.56</v>
+        <f t="shared" si="2"/>
+        <v>19.96</v>
       </c>
       <c r="L63" s="43" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="M63" s="38"/>
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1">
       <c r="A64" s="39" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="B64" s="40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C64" s="40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" s="51">
         <v>1</v>
@@ -4855,38 +4872,38 @@
         <v>209</v>
       </c>
       <c r="F64" s="40" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="G64" s="39">
-        <v>625049</v>
+        <v>545512</v>
       </c>
       <c r="H64" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I64" s="41" t="s">
-        <v>339</v>
+        <v>345</v>
       </c>
       <c r="J64" s="42">
-        <v>4.99</v>
+        <v>9.99</v>
       </c>
       <c r="K64" s="42">
-        <f>B64/D64*J64</f>
-        <v>19.96</v>
+        <f t="shared" si="2"/>
+        <v>19.98</v>
       </c>
       <c r="L64" s="43" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="M64" s="38"/>
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1">
       <c r="A65" s="39" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="B65" s="40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="C65" s="40">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D65" s="51">
         <v>1</v>
@@ -4895,38 +4912,38 @@
         <v>209</v>
       </c>
       <c r="F65" s="40" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="G65" s="39">
-        <v>545512</v>
+        <v>545680</v>
       </c>
       <c r="H65" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I65" s="41" t="s">
-        <v>345</v>
+        <v>338</v>
       </c>
       <c r="J65" s="42">
-        <v>9.99</v>
+        <v>5.99</v>
       </c>
       <c r="K65" s="42">
-        <f>B65/D65*J65</f>
-        <v>19.98</v>
+        <f t="shared" si="2"/>
+        <v>35.94</v>
       </c>
       <c r="L65" s="43" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="M65" s="38"/>
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1">
       <c r="A66" s="39" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="B66" s="40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C66" s="40">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D66" s="51">
         <v>1</v>
@@ -4935,10 +4952,10 @@
         <v>209</v>
       </c>
       <c r="F66" s="40" t="s">
-        <v>250</v>
-      </c>
-      <c r="G66" s="39">
-        <v>545680</v>
+        <v>252</v>
+      </c>
+      <c r="G66" s="69" t="s">
+        <v>253</v>
       </c>
       <c r="H66" s="41" t="s">
         <v>67</v>
@@ -4947,20 +4964,20 @@
         <v>338</v>
       </c>
       <c r="J66" s="42">
-        <v>5.99</v>
+        <v>3.69</v>
       </c>
       <c r="K66" s="42">
-        <f>B66/D66*J66</f>
-        <v>35.94</v>
+        <f t="shared" si="2"/>
+        <v>14.76</v>
       </c>
       <c r="L66" s="43" t="s">
-        <v>249</v>
+        <v>254</v>
       </c>
       <c r="M66" s="38"/>
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1">
       <c r="A67" s="39" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B67" s="40">
         <v>4</v>
@@ -4975,32 +4992,32 @@
         <v>209</v>
       </c>
       <c r="F67" s="40" t="s">
-        <v>252</v>
-      </c>
-      <c r="G67" s="69" t="s">
-        <v>253</v>
+        <v>256</v>
+      </c>
+      <c r="G67" s="69">
+        <v>615362</v>
       </c>
       <c r="H67" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I67" s="41" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="J67" s="42">
-        <v>3.69</v>
+        <v>7.99</v>
       </c>
       <c r="K67" s="42">
-        <f>B67/D67*J67</f>
-        <v>14.76</v>
+        <f t="shared" si="2"/>
+        <v>31.96</v>
       </c>
       <c r="L67" s="43" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="M67" s="38"/>
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1">
       <c r="A68" s="39" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B68" s="40">
         <v>4</v>
@@ -5015,38 +5032,38 @@
         <v>209</v>
       </c>
       <c r="F68" s="40" t="s">
-        <v>256</v>
-      </c>
-      <c r="G68" s="69">
-        <v>615362</v>
+        <v>259</v>
+      </c>
+      <c r="G68" s="39">
+        <v>585443</v>
       </c>
       <c r="H68" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I68" s="41" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="J68" s="42">
-        <v>7.99</v>
+        <v>4.49</v>
       </c>
       <c r="K68" s="42">
-        <f>B68/D68*J68</f>
-        <v>31.96</v>
+        <f t="shared" si="2"/>
+        <v>17.96</v>
       </c>
       <c r="L68" s="43" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="M68" s="38"/>
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1">
       <c r="A69" s="39" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="B69" s="40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C69" s="40">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D69" s="51">
         <v>1</v>
@@ -5055,38 +5072,38 @@
         <v>209</v>
       </c>
       <c r="F69" s="40" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="G69" s="39">
-        <v>585443</v>
+        <v>585006</v>
       </c>
       <c r="H69" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I69" s="41" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="J69" s="42">
-        <v>4.49</v>
+        <v>16.989999999999998</v>
       </c>
       <c r="K69" s="42">
-        <f>B69/D69*J69</f>
-        <v>17.96</v>
+        <f t="shared" si="2"/>
+        <v>33.979999999999997</v>
       </c>
       <c r="L69" s="43" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="M69" s="38"/>
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1">
       <c r="A70" s="39" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="B70" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C70" s="40">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" s="51">
         <v>1</v>
@@ -5095,10 +5112,10 @@
         <v>209</v>
       </c>
       <c r="F70" s="40" t="s">
-        <v>262</v>
-      </c>
-      <c r="G70" s="39">
-        <v>585006</v>
+        <v>265</v>
+      </c>
+      <c r="G70" s="70">
+        <v>585004</v>
       </c>
       <c r="H70" s="41" t="s">
         <v>67</v>
@@ -5107,51 +5124,51 @@
         <v>341</v>
       </c>
       <c r="J70" s="42">
-        <v>16.989999999999998</v>
+        <v>13.99</v>
       </c>
       <c r="K70" s="42">
-        <f>B70/D70*J70</f>
-        <v>33.979999999999997</v>
+        <f t="shared" si="2"/>
+        <v>41.97</v>
       </c>
       <c r="L70" s="43" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="M70" s="38"/>
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A71" s="39" t="s">
-        <v>264</v>
-      </c>
-      <c r="B71" s="40">
+      <c r="A71" s="50" t="s">
+        <v>267</v>
+      </c>
+      <c r="B71" s="52">
         <v>4</v>
       </c>
-      <c r="C71" s="40">
+      <c r="C71" s="52">
         <v>4</v>
       </c>
       <c r="D71" s="51">
         <v>1</v>
       </c>
-      <c r="E71" s="40" t="s">
+      <c r="E71" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="F71" s="40" t="s">
-        <v>265</v>
-      </c>
-      <c r="G71" s="70">
-        <v>585004</v>
-      </c>
-      <c r="H71" s="41" t="s">
+      <c r="F71" s="52" t="s">
+        <v>268</v>
+      </c>
+      <c r="G71" s="50">
+        <v>585444</v>
+      </c>
+      <c r="H71" s="71" t="s">
         <v>67</v>
       </c>
-      <c r="I71" s="41" t="s">
-        <v>341</v>
+      <c r="I71" s="88" t="s">
+        <v>338</v>
       </c>
       <c r="J71" s="42">
-        <v>13.99</v>
+        <v>4.99</v>
       </c>
       <c r="K71" s="42">
-        <f>B71/D71*J71</f>
-        <v>55.96</v>
+        <f t="shared" si="2"/>
+        <v>19.96</v>
       </c>
       <c r="L71" s="43" t="s">
         <v>266</v>
@@ -5159,135 +5176,135 @@
       <c r="M71" s="38"/>
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A72" s="50" t="s">
-        <v>267</v>
-      </c>
-      <c r="B72" s="52">
-        <v>4</v>
-      </c>
-      <c r="C72" s="52">
-        <v>4</v>
+      <c r="A72" s="39" t="s">
+        <v>269</v>
+      </c>
+      <c r="B72" s="40">
+        <v>2</v>
+      </c>
+      <c r="C72" s="40">
+        <v>2</v>
       </c>
       <c r="D72" s="51">
         <v>1</v>
       </c>
-      <c r="E72" s="52" t="s">
+      <c r="E72" s="40" t="s">
         <v>209</v>
       </c>
-      <c r="F72" s="52" t="s">
-        <v>268</v>
-      </c>
-      <c r="G72" s="50">
-        <v>585444</v>
-      </c>
-      <c r="H72" s="71" t="s">
+      <c r="F72" s="40" t="s">
+        <v>270</v>
+      </c>
+      <c r="G72" s="39">
+        <v>585450</v>
+      </c>
+      <c r="H72" s="41" t="s">
         <v>67</v>
       </c>
-      <c r="I72" s="88" t="s">
-        <v>338</v>
+      <c r="I72" s="41" t="s">
+        <v>342</v>
       </c>
       <c r="J72" s="42">
-        <v>4.99</v>
+        <v>7.99</v>
       </c>
       <c r="K72" s="42">
-        <f>B72/D72*J72</f>
-        <v>19.96</v>
+        <f t="shared" si="2"/>
+        <v>15.98</v>
       </c>
       <c r="L72" s="43" t="s">
-        <v>266</v>
+        <v>271</v>
       </c>
       <c r="M72" s="38"/>
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1">
       <c r="A73" s="39" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="B73" s="40">
+        <v>34</v>
+      </c>
+      <c r="C73" s="40">
+        <f>16+6+8</f>
+        <v>30</v>
+      </c>
+      <c r="D73" s="51">
         <v>2</v>
-      </c>
-      <c r="C73" s="40">
-        <v>2</v>
-      </c>
-      <c r="D73" s="51">
-        <v>1</v>
       </c>
       <c r="E73" s="40" t="s">
         <v>209</v>
       </c>
       <c r="F73" s="40" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="G73" s="39">
-        <v>585450</v>
+        <v>545532</v>
       </c>
       <c r="H73" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I73" s="41" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="J73" s="42">
-        <v>7.99</v>
+        <v>3.99</v>
       </c>
       <c r="K73" s="42">
-        <f>B73/D73*J73</f>
-        <v>15.98</v>
+        <f t="shared" si="2"/>
+        <v>67.83</v>
       </c>
       <c r="L73" s="43" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="M73" s="38"/>
     </row>
     <row r="74" spans="1:13" ht="14.25" customHeight="1">
       <c r="A74" s="39" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="B74" s="40">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="C74" s="40">
-        <f>16+6+8</f>
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="D74" s="51">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E74" s="40" t="s">
         <v>209</v>
       </c>
       <c r="F74" s="40" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G74" s="39">
-        <v>545532</v>
+        <v>585592</v>
       </c>
       <c r="H74" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I74" s="41" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="J74" s="42">
-        <v>3.99</v>
+        <v>2.79</v>
       </c>
       <c r="K74" s="42">
-        <f>B74/D74*J74</f>
-        <v>67.83</v>
+        <f t="shared" si="2"/>
+        <v>22.32</v>
       </c>
       <c r="L74" s="43" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="M74" s="38"/>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1">
       <c r="A75" s="39" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="B75" s="40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C75" s="40">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D75" s="51">
         <v>1</v>
@@ -5296,151 +5313,148 @@
         <v>209</v>
       </c>
       <c r="F75" s="40" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="G75" s="39">
-        <v>585592</v>
+        <v>585468</v>
       </c>
       <c r="H75" s="41" t="s">
         <v>67</v>
       </c>
       <c r="I75" s="41" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="J75" s="42">
-        <v>2.79</v>
+        <v>1.29</v>
       </c>
       <c r="K75" s="42">
-        <f>B75/D75*J75</f>
-        <v>22.32</v>
+        <f t="shared" si="2"/>
+        <v>1.29</v>
       </c>
       <c r="L75" s="43" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="M75" s="38"/>
     </row>
     <row r="76" spans="1:13" ht="14.25" customHeight="1">
       <c r="A76" s="39" t="s">
-        <v>277</v>
-      </c>
-      <c r="B76" s="40">
-        <v>1</v>
-      </c>
-      <c r="C76" s="40">
-        <v>1</v>
+        <v>279</v>
+      </c>
+      <c r="B76" s="52">
+        <v>4</v>
+      </c>
+      <c r="C76" s="52">
+        <v>4</v>
       </c>
       <c r="D76" s="51">
         <v>1</v>
       </c>
-      <c r="E76" s="40" t="s">
+      <c r="E76" s="52" t="s">
         <v>209</v>
       </c>
-      <c r="F76" s="40" t="s">
-        <v>278</v>
-      </c>
-      <c r="G76" s="39">
-        <v>585468</v>
-      </c>
-      <c r="H76" s="41" t="s">
+      <c r="F76" s="52" t="s">
+        <v>280</v>
+      </c>
+      <c r="G76" s="50">
+        <v>555104</v>
+      </c>
+      <c r="H76" s="52" t="s">
         <v>67</v>
       </c>
-      <c r="I76" s="41" t="s">
-        <v>341</v>
+      <c r="I76" s="52" t="s">
+        <v>339</v>
       </c>
       <c r="J76" s="42">
-        <v>1.29</v>
+        <v>3.99</v>
       </c>
       <c r="K76" s="42">
-        <f>B76/D76*J76</f>
-        <v>1.29</v>
-      </c>
-      <c r="L76" s="43" t="s">
-        <v>277</v>
+        <f t="shared" si="2"/>
+        <v>15.96</v>
+      </c>
+      <c r="L76" s="54" t="s">
+        <v>281</v>
       </c>
       <c r="M76" s="38"/>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A77" s="39" t="s">
-        <v>279</v>
-      </c>
-      <c r="B77" s="52">
+      <c r="A77" s="137" t="s">
+        <v>282</v>
+      </c>
+      <c r="B77" s="133">
+        <v>16</v>
+      </c>
+      <c r="C77" s="133">
+        <v>20</v>
+      </c>
+      <c r="D77" s="130">
         <v>4</v>
       </c>
-      <c r="C77" s="52">
+      <c r="E77" s="133" t="s">
+        <v>209</v>
+      </c>
+      <c r="F77" s="133" t="s">
+        <v>283</v>
+      </c>
+      <c r="G77" s="139">
+        <v>633126</v>
+      </c>
+      <c r="H77" s="133" t="s">
+        <v>106</v>
+      </c>
+      <c r="I77" s="133" t="s">
+        <v>339</v>
+      </c>
+      <c r="J77" s="131">
+        <v>1.79</v>
+      </c>
+      <c r="K77" s="131">
+        <f t="shared" si="2"/>
+        <v>7.16</v>
+      </c>
+      <c r="L77" s="138" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A78" s="39" t="s">
+        <v>285</v>
+      </c>
+      <c r="B78" s="40">
         <v>4</v>
       </c>
-      <c r="D77" s="51">
-        <v>1</v>
-      </c>
-      <c r="E77" s="52" t="s">
-        <v>209</v>
-      </c>
-      <c r="F77" s="52" t="s">
-        <v>280</v>
-      </c>
-      <c r="G77" s="50">
-        <v>555104</v>
-      </c>
-      <c r="H77" s="52" t="s">
-        <v>67</v>
-      </c>
-      <c r="I77" s="52" t="s">
-        <v>339</v>
-      </c>
-      <c r="J77" s="42">
-        <v>3.99</v>
-      </c>
-      <c r="K77" s="42">
-        <f>B77/D77*J77</f>
-        <v>15.96</v>
-      </c>
-      <c r="L77" s="54" t="s">
-        <v>281</v>
-      </c>
-      <c r="M77" s="38"/>
-    </row>
-    <row r="78" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A78" s="137" t="s">
-        <v>282</v>
-      </c>
-      <c r="B78" s="133">
-        <v>16</v>
-      </c>
-      <c r="C78" s="133">
-        <v>20</v>
-      </c>
-      <c r="D78" s="130">
+      <c r="C78" s="40">
         <v>4</v>
       </c>
-      <c r="E78" s="133" t="s">
-        <v>209</v>
-      </c>
-      <c r="F78" s="133" t="s">
-        <v>283</v>
-      </c>
-      <c r="G78" s="139">
-        <v>633126</v>
-      </c>
-      <c r="H78" s="133" t="s">
-        <v>106</v>
-      </c>
-      <c r="I78" s="133" t="s">
-        <v>339</v>
-      </c>
-      <c r="J78" s="131">
-        <v>1.79</v>
-      </c>
-      <c r="K78" s="131">
-        <f>B78/D78*J78</f>
-        <v>7.16</v>
-      </c>
-      <c r="L78" s="138" t="s">
-        <v>284</v>
+      <c r="D78" s="51">
+        <v>1</v>
+      </c>
+      <c r="E78" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="F78" s="40" t="s">
+        <v>287</v>
+      </c>
+      <c r="G78" s="39" t="s">
+        <v>288</v>
+      </c>
+      <c r="H78" s="41" t="s">
+        <v>13</v>
+      </c>
+      <c r="I78" s="41"/>
+      <c r="J78" s="42">
+        <v>6.8</v>
+      </c>
+      <c r="K78" s="42">
+        <f t="shared" si="2"/>
+        <v>27.2</v>
+      </c>
+      <c r="L78" s="43" t="s">
+        <v>285</v>
       </c>
     </row>
     <row r="79" spans="1:13" ht="14.25" customHeight="1">
       <c r="A79" s="39" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B79" s="40">
         <v>4</v>
@@ -5454,67 +5468,68 @@
       <c r="E79" s="40" t="s">
         <v>286</v>
       </c>
-      <c r="F79" s="40" t="s">
-        <v>287</v>
+      <c r="F79" s="72" t="s">
+        <v>290</v>
       </c>
       <c r="G79" s="39" t="s">
-        <v>288</v>
+        <v>291</v>
       </c>
       <c r="H79" s="41" t="s">
         <v>13</v>
       </c>
       <c r="I79" s="41"/>
-      <c r="J79" s="42">
-        <v>6.8</v>
+      <c r="J79" s="73">
+        <v>55</v>
       </c>
       <c r="K79" s="42">
-        <f>B79/D79*J79</f>
-        <v>27.2</v>
+        <f t="shared" si="2"/>
+        <v>220</v>
       </c>
       <c r="L79" s="43" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A80" s="39" t="s">
-        <v>289</v>
-      </c>
-      <c r="B80" s="40">
-        <v>4</v>
-      </c>
-      <c r="C80" s="40">
-        <v>4</v>
+      <c r="A80" s="67" t="s">
+        <v>292</v>
+      </c>
+      <c r="B80" s="52">
+        <v>1</v>
+      </c>
+      <c r="C80" s="52">
+        <v>1</v>
       </c>
       <c r="D80" s="51">
         <v>1</v>
       </c>
-      <c r="E80" s="40" t="s">
-        <v>286</v>
-      </c>
-      <c r="F80" s="72" t="s">
-        <v>290</v>
-      </c>
-      <c r="G80" s="39" t="s">
-        <v>291</v>
-      </c>
-      <c r="H80" s="41" t="s">
+      <c r="E80" s="52" t="s">
+        <v>19</v>
+      </c>
+      <c r="F80" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G80" s="56" t="s">
+        <v>293</v>
+      </c>
+      <c r="H80" s="52" t="s">
         <v>13</v>
       </c>
-      <c r="I80" s="41"/>
-      <c r="J80" s="73">
-        <v>55</v>
+      <c r="I80" s="52"/>
+      <c r="J80" s="42">
+        <v>6.32</v>
       </c>
       <c r="K80" s="42">
-        <f>B80/D80*J80</f>
-        <v>220</v>
-      </c>
-      <c r="L80" s="43" t="s">
-        <v>289</v>
-      </c>
+        <f t="shared" si="2"/>
+        <v>6.32</v>
+      </c>
+      <c r="L80" s="54" t="s">
+        <v>294</v>
+      </c>
+      <c r="M80" s="74"/>
     </row>
     <row r="81" spans="1:13" ht="14.25" customHeight="1">
       <c r="A81" s="67" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="B81" s="52">
         <v>1</v>
@@ -5531,28 +5546,27 @@
       <c r="F81" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G81" s="56" t="s">
-        <v>293</v>
+      <c r="G81" s="75" t="s">
+        <v>296</v>
       </c>
       <c r="H81" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I81" s="52"/>
       <c r="J81" s="42">
-        <v>6.32</v>
+        <v>6.14</v>
       </c>
       <c r="K81" s="42">
-        <f>B81/D81*J81</f>
-        <v>6.32</v>
+        <f t="shared" si="2"/>
+        <v>6.14</v>
       </c>
       <c r="L81" s="54" t="s">
-        <v>294</v>
-      </c>
-      <c r="M81" s="74"/>
+        <v>297</v>
+      </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
       <c r="A82" s="67" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="B82" s="52">
         <v>1</v>
@@ -5569,27 +5583,27 @@
       <c r="F82" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="G82" s="75" t="s">
-        <v>296</v>
+      <c r="G82" s="56" t="s">
+        <v>299</v>
       </c>
       <c r="H82" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I82" s="52"/>
       <c r="J82" s="42">
-        <v>6.14</v>
+        <v>4.95</v>
       </c>
       <c r="K82" s="42">
-        <f>B82/D82*J82</f>
-        <v>6.14</v>
-      </c>
-      <c r="L82" s="54" t="s">
-        <v>297</v>
+        <f t="shared" si="2"/>
+        <v>4.95</v>
+      </c>
+      <c r="L82" s="61" t="s">
+        <v>300</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1">
       <c r="A83" s="67" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="B83" s="52">
         <v>1</v>
@@ -5607,7 +5621,7 @@
         <v>23</v>
       </c>
       <c r="G83" s="56" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="H83" s="52" t="s">
         <v>13</v>
@@ -5617,16 +5631,16 @@
         <v>4.95</v>
       </c>
       <c r="K83" s="42">
-        <f>B83/D83*J83</f>
+        <f t="shared" si="2"/>
         <v>4.95</v>
       </c>
       <c r="L83" s="61" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1">
       <c r="A84" s="67" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="B84" s="52">
         <v>1</v>
@@ -5644,7 +5658,7 @@
         <v>23</v>
       </c>
       <c r="G84" s="56" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="H84" s="52" t="s">
         <v>13</v>
@@ -5654,16 +5668,17 @@
         <v>4.95</v>
       </c>
       <c r="K84" s="42">
-        <f>B84/D84*J84</f>
+        <f t="shared" si="2"/>
         <v>4.95</v>
       </c>
       <c r="L84" s="61" t="s">
-        <v>303</v>
-      </c>
+        <v>306</v>
+      </c>
+      <c r="M84" s="74"/>
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1">
       <c r="A85" s="67" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="B85" s="52">
         <v>1</v>
@@ -5681,7 +5696,7 @@
         <v>23</v>
       </c>
       <c r="G85" s="56" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="H85" s="52" t="s">
         <v>13</v>
@@ -5691,23 +5706,26 @@
         <v>4.95</v>
       </c>
       <c r="K85" s="42">
-        <f>B85/D85*J85</f>
+        <f t="shared" si="2"/>
         <v>4.95</v>
       </c>
       <c r="L85" s="61" t="s">
-        <v>306</v>
-      </c>
-      <c r="M85" s="74"/>
+        <v>309</v>
+      </c>
+      <c r="M85" s="76">
+        <f>SUM(K2:K92)</f>
+        <v>2372.3599999999997</v>
+      </c>
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A86" s="67" t="s">
-        <v>307</v>
+      <c r="A86" s="77" t="s">
+        <v>310</v>
       </c>
       <c r="B86" s="52">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C86" s="52">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D86" s="51">
         <v>1</v>
@@ -5715,104 +5733,96 @@
       <c r="E86" s="52" t="s">
         <v>19</v>
       </c>
-      <c r="F86" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G86" s="56" t="s">
-        <v>308</v>
+      <c r="F86" s="52"/>
+      <c r="G86" s="78" t="s">
+        <v>311</v>
       </c>
       <c r="H86" s="52" t="s">
         <v>13</v>
       </c>
       <c r="I86" s="52"/>
       <c r="J86" s="42">
-        <v>4.95</v>
+        <v>0.36699999999999999</v>
       </c>
       <c r="K86" s="42">
-        <f>B86/D86*J86</f>
-        <v>4.95</v>
-      </c>
-      <c r="L86" s="61" t="s">
-        <v>309</v>
-      </c>
-      <c r="M86" s="76">
-        <f>SUM(K2:K93)</f>
-        <v>2396.0499999999997</v>
+        <f t="shared" si="2"/>
+        <v>3.67</v>
+      </c>
+      <c r="L86" s="79" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A87" s="77" t="s">
-        <v>310</v>
-      </c>
-      <c r="B87" s="52">
+      <c r="A87" s="80" t="s">
+        <v>313</v>
+      </c>
+      <c r="B87" s="71">
         <v>10</v>
       </c>
-      <c r="C87" s="52">
-        <v>4</v>
+      <c r="C87" s="71">
+        <v>1</v>
       </c>
       <c r="D87" s="51">
         <v>1</v>
       </c>
-      <c r="E87" s="52" t="s">
+      <c r="E87" s="71" t="s">
         <v>19</v>
       </c>
-      <c r="F87" s="52"/>
-      <c r="G87" s="78" t="s">
-        <v>311</v>
-      </c>
-      <c r="H87" s="52" t="s">
+      <c r="F87" s="71"/>
+      <c r="G87" s="81" t="s">
+        <v>314</v>
+      </c>
+      <c r="H87" s="71" t="s">
         <v>13</v>
       </c>
-      <c r="I87" s="52"/>
-      <c r="J87" s="42">
-        <v>0.36699999999999999</v>
-      </c>
-      <c r="K87" s="42">
-        <f>B87/D87*J87</f>
-        <v>3.67</v>
-      </c>
-      <c r="L87" s="79" t="s">
-        <v>312</v>
+      <c r="I87" s="88"/>
+      <c r="J87" s="82">
+        <v>0.04</v>
+      </c>
+      <c r="K87" s="82">
+        <f t="shared" si="2"/>
+        <v>0.4</v>
+      </c>
+      <c r="L87" s="83" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A88" s="80" t="s">
-        <v>313</v>
-      </c>
-      <c r="B88" s="71">
-        <v>10</v>
-      </c>
-      <c r="C88" s="71">
-        <v>1</v>
-      </c>
-      <c r="D88" s="51">
-        <v>1</v>
-      </c>
-      <c r="E88" s="71" t="s">
-        <v>19</v>
-      </c>
-      <c r="F88" s="71"/>
-      <c r="G88" s="81" t="s">
-        <v>314</v>
-      </c>
-      <c r="H88" s="71" t="s">
-        <v>13</v>
-      </c>
-      <c r="I88" s="88"/>
-      <c r="J88" s="82">
-        <v>0.04</v>
-      </c>
-      <c r="K88" s="82">
-        <f>B88/D88*J88</f>
-        <v>0.4</v>
-      </c>
-      <c r="L88" s="83" t="s">
-        <v>315</v>
+      <c r="A88" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="B88" s="84">
+        <v>0</v>
+      </c>
+      <c r="C88" s="84">
+        <v>1</v>
+      </c>
+      <c r="D88" s="84">
+        <v>1</v>
+      </c>
+      <c r="E88" s="84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" s="84"/>
+      <c r="G88" s="46"/>
+      <c r="H88" s="84" t="s">
+        <v>71</v>
+      </c>
+      <c r="I88" s="86"/>
+      <c r="J88" s="47">
+        <v>12.99</v>
+      </c>
+      <c r="K88" s="47">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="L88" s="85" t="s">
+        <v>317</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="14.25" customHeight="1">
       <c r="A89" s="45" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="B89" s="84">
         <v>0</v>
@@ -5833,52 +5843,54 @@
       </c>
       <c r="I89" s="86"/>
       <c r="J89" s="47">
-        <v>12.99</v>
+        <v>25.99</v>
       </c>
       <c r="K89" s="47">
-        <f>B89/D89*J89</f>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="L89" s="85" t="s">
-        <v>317</v>
+        <v>319</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A90" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="B90" s="84">
-        <v>0</v>
-      </c>
-      <c r="C90" s="84">
-        <v>1</v>
-      </c>
-      <c r="D90" s="84">
-        <v>1</v>
-      </c>
-      <c r="E90" s="84" t="s">
+      <c r="A90" s="87" t="s">
+        <v>320</v>
+      </c>
+      <c r="B90" s="88">
+        <v>1</v>
+      </c>
+      <c r="C90" s="88">
+        <v>1</v>
+      </c>
+      <c r="D90" s="89">
+        <v>1</v>
+      </c>
+      <c r="E90" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="F90" s="84"/>
-      <c r="G90" s="46"/>
-      <c r="H90" s="84" t="s">
-        <v>71</v>
-      </c>
-      <c r="I90" s="86"/>
-      <c r="J90" s="47">
-        <v>25.99</v>
-      </c>
-      <c r="K90" s="47">
-        <f>B90/D90*J90</f>
-        <v>0</v>
-      </c>
-      <c r="L90" s="85" t="s">
-        <v>319</v>
+      <c r="F90" s="71"/>
+      <c r="G90" s="90" t="s">
+        <v>321</v>
+      </c>
+      <c r="H90" s="88" t="s">
+        <v>13</v>
+      </c>
+      <c r="I90" s="88"/>
+      <c r="J90" s="91">
+        <v>7.99</v>
+      </c>
+      <c r="K90" s="82">
+        <f t="shared" si="2"/>
+        <v>7.99</v>
+      </c>
+      <c r="L90" s="92" t="s">
+        <v>322</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1">
       <c r="A91" s="87" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="B91" s="88">
         <v>1</v>
@@ -5890,30 +5902,30 @@
         <v>1</v>
       </c>
       <c r="E91" s="88" t="s">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="F91" s="71"/>
-      <c r="G91" s="90" t="s">
-        <v>321</v>
+      <c r="G91" s="93" t="s">
+        <v>324</v>
       </c>
       <c r="H91" s="88" t="s">
         <v>13</v>
       </c>
       <c r="I91" s="88"/>
       <c r="J91" s="91">
-        <v>7.99</v>
+        <v>15.59</v>
       </c>
       <c r="K91" s="82">
-        <f>B91/D91*J91</f>
-        <v>7.99</v>
+        <f t="shared" si="2"/>
+        <v>15.59</v>
       </c>
       <c r="L91" s="92" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1">
       <c r="A92" s="87" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="B92" s="88">
         <v>1</v>
@@ -5929,26 +5941,26 @@
       </c>
       <c r="F92" s="71"/>
       <c r="G92" s="93" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="H92" s="88" t="s">
         <v>13</v>
       </c>
       <c r="I92" s="88"/>
       <c r="J92" s="91">
-        <v>15.59</v>
+        <v>12.56</v>
       </c>
       <c r="K92" s="82">
-        <f>B92/D92*J92</f>
-        <v>15.59</v>
-      </c>
-      <c r="L92" s="92" t="s">
-        <v>325</v>
+        <f t="shared" si="2"/>
+        <v>12.56</v>
+      </c>
+      <c r="L92" s="94" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
       <c r="A93" s="87" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B93" s="88">
         <v>1</v>
@@ -5964,26 +5976,26 @@
       </c>
       <c r="F93" s="71"/>
       <c r="G93" s="93" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="H93" s="88" t="s">
         <v>13</v>
       </c>
       <c r="I93" s="88"/>
       <c r="J93" s="91">
-        <v>12.56</v>
+        <v>15.59</v>
       </c>
       <c r="K93" s="82">
-        <f>B93/D93*J93</f>
-        <v>12.56</v>
-      </c>
-      <c r="L93" s="94" t="s">
-        <v>328</v>
+        <f t="shared" si="2"/>
+        <v>15.59</v>
+      </c>
+      <c r="L93" s="92" t="s">
+        <v>331</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1">
       <c r="A94" s="87" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="B94" s="88">
         <v>1</v>
@@ -5999,7 +6011,7 @@
       </c>
       <c r="F94" s="71"/>
       <c r="G94" s="93" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="H94" s="88" t="s">
         <v>13</v>
@@ -6009,54 +6021,52 @@
         <v>15.59</v>
       </c>
       <c r="K94" s="82">
-        <f>B94/D94*J94</f>
+        <f t="shared" si="2"/>
         <v>15.59</v>
       </c>
       <c r="L94" s="92" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A95" s="87" t="s">
-        <v>332</v>
-      </c>
-      <c r="B95" s="88">
-        <v>1</v>
-      </c>
-      <c r="C95" s="88">
-        <v>1</v>
-      </c>
-      <c r="D95" s="89">
-        <v>1</v>
-      </c>
-      <c r="E95" s="88" t="s">
-        <v>19</v>
-      </c>
-      <c r="F95" s="71"/>
-      <c r="G95" s="93" t="s">
-        <v>333</v>
-      </c>
-      <c r="H95" s="88" t="s">
+      <c r="A95" s="95" t="s">
+        <v>11</v>
+      </c>
+      <c r="B95" s="7">
+        <v>5</v>
+      </c>
+      <c r="C95" s="7">
+        <v>1</v>
+      </c>
+      <c r="D95" s="7">
+        <v>1</v>
+      </c>
+      <c r="E95" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" s="8"/>
+      <c r="G95" s="48"/>
+      <c r="H95" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="I95" s="88"/>
-      <c r="J95" s="91">
-        <v>15.59</v>
-      </c>
-      <c r="K95" s="82">
-        <f>B95/D95*J95</f>
-        <v>15.59</v>
-      </c>
-      <c r="L95" s="92" t="s">
-        <v>334</v>
+      <c r="I95" s="8"/>
+      <c r="J95" s="9">
+        <v>7.99</v>
+      </c>
+      <c r="K95" s="10">
+        <f t="shared" si="2"/>
+        <v>39.950000000000003</v>
+      </c>
+      <c r="L95" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A96" s="95" t="s">
-        <v>11</v>
+      <c r="A96" s="96" t="s">
+        <v>15</v>
       </c>
       <c r="B96" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C96" s="7">
         <v>1</v>
@@ -6067,7 +6077,9 @@
       <c r="E96" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="F96" s="8"/>
+      <c r="F96" s="8" t="s">
+        <v>16</v>
+      </c>
       <c r="G96" s="48"/>
       <c r="H96" s="8" t="s">
         <v>13</v>
@@ -6077,121 +6089,123 @@
         <v>7.99</v>
       </c>
       <c r="K96" s="10">
-        <f>B96/D96*J96</f>
-        <v>39.950000000000003</v>
+        <f t="shared" si="2"/>
+        <v>7.99</v>
       </c>
       <c r="L96" s="11" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A97" s="96" t="s">
-        <v>15</v>
-      </c>
-      <c r="B97" s="7">
-        <v>1</v>
-      </c>
-      <c r="C97" s="7">
-        <v>1</v>
-      </c>
-      <c r="D97" s="7">
-        <v>1</v>
-      </c>
-      <c r="E97" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F97" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="G97" s="48"/>
-      <c r="H97" s="8" t="s">
+      <c r="A97" s="97" t="s">
+        <v>18</v>
+      </c>
+      <c r="B97" s="15">
+        <v>10</v>
+      </c>
+      <c r="C97" s="15">
+        <v>5</v>
+      </c>
+      <c r="D97" s="15">
+        <v>1</v>
+      </c>
+      <c r="E97" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="F97" s="15"/>
+      <c r="G97" s="98" t="s">
+        <v>20</v>
+      </c>
+      <c r="H97" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I97" s="8"/>
-      <c r="J97" s="9">
-        <v>7.99</v>
-      </c>
-      <c r="K97" s="10">
-        <f>B97/D97*J97</f>
-        <v>7.99</v>
-      </c>
-      <c r="L97" s="11" t="s">
-        <v>17</v>
+      <c r="I97" s="15"/>
+      <c r="J97" s="17">
+        <v>0.59</v>
+      </c>
+      <c r="K97" s="17">
+        <f t="shared" si="2"/>
+        <v>5.8999999999999995</v>
+      </c>
+      <c r="L97" s="18" t="s">
+        <v>21</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="14.25" customHeight="1">
       <c r="A98" s="97" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B98" s="15">
-        <v>10</v>
-      </c>
-      <c r="C98" s="15">
-        <v>5</v>
-      </c>
+        <v>20</v>
+      </c>
+      <c r="C98" s="15"/>
       <c r="D98" s="15">
         <v>1</v>
       </c>
       <c r="E98" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="F98" s="15"/>
+      <c r="F98" s="15" t="s">
+        <v>23</v>
+      </c>
       <c r="G98" s="98" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="H98" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I98" s="15"/>
       <c r="J98" s="17">
-        <v>0.59</v>
+        <v>0.35</v>
       </c>
       <c r="K98" s="17">
-        <f>B98/D98*J98</f>
-        <v>5.8999999999999995</v>
-      </c>
-      <c r="L98" s="18" t="s">
-        <v>21</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="L98" s="19" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="14.25" customHeight="1">
       <c r="A99" s="97" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B99" s="15">
-        <v>20</v>
-      </c>
-      <c r="C99" s="15"/>
+        <v>1</v>
+      </c>
+      <c r="C99" s="15">
+        <v>1</v>
+      </c>
       <c r="D99" s="15">
         <v>1</v>
       </c>
       <c r="E99" s="15" t="s">
-        <v>19</v>
+        <v>27</v>
       </c>
       <c r="F99" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="G99" s="99" t="s">
         <v>23</v>
-      </c>
-      <c r="G99" s="98" t="s">
-        <v>24</v>
       </c>
       <c r="H99" s="15" t="s">
         <v>13</v>
       </c>
       <c r="I99" s="15"/>
       <c r="J99" s="17">
-        <v>0.35</v>
+        <v>20.2</v>
       </c>
       <c r="K99" s="17">
-        <f>B99/D99*J99</f>
-        <v>7</v>
-      </c>
-      <c r="L99" s="19" t="s">
-        <v>25</v>
+        <f t="shared" si="2"/>
+        <v>20.2</v>
+      </c>
+      <c r="L99" s="20" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="14.25" customHeight="1">
       <c r="A100" s="97" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B100" s="15">
         <v>1</v>
@@ -6206,7 +6220,7 @@
         <v>27</v>
       </c>
       <c r="F100" s="15" t="s">
-        <v>16</v>
+        <v>30</v>
       </c>
       <c r="G100" s="99" t="s">
         <v>23</v>
@@ -6216,212 +6230,229 @@
       </c>
       <c r="I100" s="15"/>
       <c r="J100" s="17">
-        <v>20.2</v>
+        <v>19.649999999999999</v>
       </c>
       <c r="K100" s="17">
-        <f>B100/D100*J100</f>
-        <v>20.2</v>
+        <f t="shared" si="2"/>
+        <v>19.649999999999999</v>
       </c>
       <c r="L100" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="101" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A101" s="97" t="s">
-        <v>29</v>
-      </c>
-      <c r="B101" s="15">
-        <v>1</v>
-      </c>
-      <c r="C101" s="15">
-        <v>1</v>
+      <c r="A101" s="100" t="s">
+        <v>31</v>
+      </c>
+      <c r="B101" s="22">
+        <v>3</v>
+      </c>
+      <c r="C101" s="22">
+        <v>4</v>
       </c>
       <c r="D101" s="15">
         <v>1</v>
       </c>
-      <c r="E101" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="F101" s="15" t="s">
-        <v>30</v>
-      </c>
-      <c r="G101" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="H101" s="15" t="s">
+      <c r="E101" s="23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" s="24"/>
+      <c r="G101" s="44"/>
+      <c r="H101" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="I101" s="15"/>
-      <c r="J101" s="17">
-        <v>19.649999999999999</v>
+      <c r="I101" s="25"/>
+      <c r="J101" s="21">
+        <v>5.99</v>
       </c>
       <c r="K101" s="17">
-        <f>B101/D101*J101</f>
-        <v>19.649999999999999</v>
-      </c>
-      <c r="L101" s="20" t="s">
-        <v>28</v>
+        <f t="shared" si="2"/>
+        <v>17.97</v>
+      </c>
+      <c r="L101" s="26" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="102" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A102" s="100" t="s">
-        <v>31</v>
-      </c>
-      <c r="B102" s="22">
-        <v>3</v>
-      </c>
-      <c r="C102" s="22">
+      <c r="A102" s="119" t="s">
+        <v>33</v>
+      </c>
+      <c r="B102" s="120">
+        <v>1</v>
+      </c>
+      <c r="C102" s="120">
+        <v>1</v>
+      </c>
+      <c r="D102" s="121">
+        <v>1</v>
+      </c>
+      <c r="E102" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="F102" s="120" t="s">
+        <v>335</v>
+      </c>
+      <c r="G102" s="122"/>
+      <c r="H102" s="123" t="s">
+        <v>13</v>
+      </c>
+      <c r="I102" s="123"/>
+      <c r="J102" s="124">
+        <v>7.95</v>
+      </c>
+      <c r="K102" s="125">
+        <f t="shared" si="2"/>
+        <v>7.95</v>
+      </c>
+      <c r="L102" s="126" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="103" spans="1:12" ht="14.25">
+      <c r="A103" s="140" t="s">
+        <v>368</v>
+      </c>
+      <c r="B103" s="141">
+        <v>25</v>
+      </c>
+      <c r="C103" s="141">
         <v>4</v>
       </c>
-      <c r="D102" s="15">
-        <v>1</v>
-      </c>
-      <c r="E102" s="23" t="s">
-        <v>12</v>
-      </c>
-      <c r="F102" s="24"/>
-      <c r="G102" s="44"/>
-      <c r="H102" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="I102" s="25"/>
-      <c r="J102" s="21">
-        <v>5.99</v>
-      </c>
-      <c r="K102" s="17">
-        <f>B102/D102*J102</f>
-        <v>17.97</v>
-      </c>
-      <c r="L102" s="26" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="103" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A103" s="119" t="s">
-        <v>33</v>
-      </c>
-      <c r="B103" s="120">
-        <v>1</v>
-      </c>
-      <c r="C103" s="120">
-        <v>1</v>
-      </c>
-      <c r="D103" s="121">
-        <v>1</v>
-      </c>
-      <c r="E103" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="F103" s="120" t="s">
-        <v>335</v>
-      </c>
-      <c r="G103" s="122"/>
-      <c r="H103" s="123" t="s">
-        <v>13</v>
-      </c>
-      <c r="I103" s="123"/>
-      <c r="J103" s="124">
-        <v>7.95</v>
-      </c>
-      <c r="K103" s="125">
-        <f>B103/D103*J103</f>
-        <v>7.95</v>
-      </c>
-      <c r="L103" s="126" t="s">
-        <v>35</v>
+      <c r="D103" s="141">
+        <v>25</v>
+      </c>
+      <c r="E103" s="141" t="s">
+        <v>103</v>
+      </c>
+      <c r="F103" s="141" t="s">
+        <v>350</v>
+      </c>
+      <c r="G103" s="151" t="s">
+        <v>373</v>
+      </c>
+      <c r="H103" s="142" t="s">
+        <v>106</v>
+      </c>
+      <c r="I103" s="143" t="s">
+        <v>347</v>
+      </c>
+      <c r="J103" s="144">
+        <v>3.78</v>
+      </c>
+      <c r="K103" s="144">
+        <f t="shared" si="2"/>
+        <v>3.78</v>
+      </c>
+      <c r="L103" s="127" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="14.25">
-      <c r="A104" s="140" t="s">
-        <v>368</v>
+      <c r="A104" s="145" t="s">
+        <v>371</v>
       </c>
       <c r="B104" s="141">
-        <v>25</v>
+        <v>4</v>
       </c>
       <c r="C104" s="141">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D104" s="141">
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="E104" s="141" t="s">
         <v>103</v>
       </c>
       <c r="F104" s="141" t="s">
-        <v>350</v>
-      </c>
-      <c r="G104" s="151" t="s">
-        <v>373</v>
-      </c>
-      <c r="H104" s="142" t="s">
+        <v>369</v>
+      </c>
+      <c r="G104" s="150" t="s">
+        <v>352</v>
+      </c>
+      <c r="H104" s="143" t="s">
         <v>106</v>
       </c>
       <c r="I104" s="143" t="s">
         <v>347</v>
       </c>
       <c r="J104" s="144">
-        <v>3.78</v>
+        <v>0.96</v>
       </c>
       <c r="K104" s="144">
-        <f>B104/D104*J104</f>
-        <v>3.78</v>
+        <f t="shared" si="2"/>
+        <v>3.84</v>
       </c>
       <c r="L104" s="127" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" ht="14.25">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" s="152" customFormat="1" ht="14.25">
       <c r="A105" s="145" t="s">
-        <v>371</v>
+        <v>378</v>
       </c>
       <c r="B105" s="141">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C105" s="141">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D105" s="141">
         <v>1</v>
       </c>
       <c r="E105" s="141" t="s">
-        <v>103</v>
+        <v>379</v>
       </c>
       <c r="F105" s="141" t="s">
-        <v>369</v>
-      </c>
-      <c r="G105" s="150" t="s">
-        <v>352</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="G105" s="165"/>
       <c r="H105" s="143" t="s">
-        <v>106</v>
-      </c>
-      <c r="I105" s="143" t="s">
-        <v>347</v>
+        <v>67</v>
       </c>
       <c r="J105" s="144">
-        <v>0.96</v>
+        <v>11.75</v>
       </c>
       <c r="K105" s="144">
         <f>B105/D105*J105</f>
-        <v>3.84</v>
+        <v>11.75</v>
       </c>
       <c r="L105" s="127" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A106" s="101"/>
-      <c r="B106" s="102"/>
-      <c r="C106" s="102"/>
-      <c r="D106" s="103"/>
-      <c r="E106" s="102"/>
-      <c r="F106" s="102"/>
-      <c r="G106" s="104"/>
-      <c r="H106" s="102"/>
-      <c r="I106" s="102"/>
-      <c r="J106" s="105"/>
-      <c r="K106" s="105"/>
-      <c r="L106" s="106"/>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" s="152" customFormat="1" ht="14.25">
+      <c r="A106" s="145" t="s">
+        <v>382</v>
+      </c>
+      <c r="B106" s="141">
+        <v>1</v>
+      </c>
+      <c r="C106" s="141">
+        <v>1</v>
+      </c>
+      <c r="D106" s="141">
+        <v>1</v>
+      </c>
+      <c r="E106" s="141" t="s">
+        <v>379</v>
+      </c>
+      <c r="F106" s="141" t="s">
+        <v>197</v>
+      </c>
+      <c r="G106" s="165"/>
+      <c r="H106" s="143" t="s">
+        <v>67</v>
+      </c>
+      <c r="J106" s="144">
+        <v>15.25</v>
+      </c>
+      <c r="K106" s="144">
+        <f>B106/D106*J106</f>
+        <v>15.25</v>
+      </c>
+      <c r="L106" s="127" t="s">
+        <v>381</v>
+      </c>
     </row>
     <row r="107" spans="1:12" ht="14.25" customHeight="1">
       <c r="A107" s="101"/>
@@ -18519,22 +18550,8 @@
       <c r="K970" s="105"/>
       <c r="L970" s="106"/>
     </row>
-    <row r="971" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A971" s="101"/>
-      <c r="B971" s="102"/>
-      <c r="C971" s="102"/>
-      <c r="D971" s="103"/>
-      <c r="E971" s="102"/>
-      <c r="F971" s="102"/>
-      <c r="G971" s="104"/>
-      <c r="H971" s="102"/>
-      <c r="I971" s="102"/>
-      <c r="J971" s="105"/>
-      <c r="K971" s="105"/>
-      <c r="L971" s="106"/>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:L105"/>
+  <autoFilter ref="A1:L104"/>
   <mergeCells count="1">
     <mergeCell ref="N3:N4"/>
   </mergeCells>
@@ -18567,36 +18584,36 @@
     <hyperlink ref="L50" r:id="rId26"/>
     <hyperlink ref="L51" r:id="rId27"/>
     <hyperlink ref="L52" r:id="rId28"/>
-    <hyperlink ref="L53" r:id="rId29"/>
-    <hyperlink ref="L54" r:id="rId30" location="348=95"/>
-    <hyperlink ref="L55" r:id="rId31" location="348=107"/>
-    <hyperlink ref="L56" r:id="rId32" location="348=96"/>
-    <hyperlink ref="L57" r:id="rId33" location="371=276"/>
-    <hyperlink ref="L58" r:id="rId34"/>
-    <hyperlink ref="L59" r:id="rId35" location="371=455"/>
-    <hyperlink ref="L60" r:id="rId36" location="371=246"/>
+    <hyperlink ref="L53" r:id="rId29" location="348=95"/>
+    <hyperlink ref="L54" r:id="rId30" location="348=107"/>
+    <hyperlink ref="L55" r:id="rId31" location="348=96"/>
+    <hyperlink ref="L56" r:id="rId32" location="371=276"/>
+    <hyperlink ref="L57" r:id="rId33"/>
+    <hyperlink ref="L58" r:id="rId34" location="371=455"/>
+    <hyperlink ref="L59" r:id="rId35" location="371=246"/>
+    <hyperlink ref="L60" r:id="rId36"/>
     <hyperlink ref="L61" r:id="rId37"/>
     <hyperlink ref="L62" r:id="rId38"/>
-    <hyperlink ref="L63" r:id="rId39"/>
-    <hyperlink ref="L64" r:id="rId40" location="348=123"/>
+    <hyperlink ref="L63" r:id="rId39" location="348=123"/>
+    <hyperlink ref="L64" r:id="rId40"/>
     <hyperlink ref="L65" r:id="rId41"/>
-    <hyperlink ref="L66" r:id="rId42"/>
-    <hyperlink ref="L67" r:id="rId43" location="199=15"/>
+    <hyperlink ref="L66" r:id="rId42" location="199=15"/>
+    <hyperlink ref="L67" r:id="rId43"/>
     <hyperlink ref="L68" r:id="rId44"/>
     <hyperlink ref="L69" r:id="rId45"/>
     <hyperlink ref="L70" r:id="rId46"/>
-    <hyperlink ref="L71" r:id="rId47"/>
+    <hyperlink ref="L72" r:id="rId47"/>
     <hyperlink ref="L73" r:id="rId48"/>
     <hyperlink ref="L74" r:id="rId49"/>
     <hyperlink ref="L75" r:id="rId50"/>
     <hyperlink ref="L76" r:id="rId51"/>
-    <hyperlink ref="L77" r:id="rId52"/>
-    <hyperlink ref="L78" r:id="rId53" location="371=256"/>
+    <hyperlink ref="L77" r:id="rId52" location="371=256"/>
+    <hyperlink ref="L78" r:id="rId53"/>
     <hyperlink ref="L79" r:id="rId54"/>
     <hyperlink ref="L80" r:id="rId55"/>
-    <hyperlink ref="L81" r:id="rId56"/>
+    <hyperlink ref="L86" r:id="rId56"/>
     <hyperlink ref="L87" r:id="rId57"/>
-    <hyperlink ref="L88" r:id="rId58"/>
+    <hyperlink ref="L90" r:id="rId58"/>
     <hyperlink ref="L91" r:id="rId59"/>
     <hyperlink ref="L92" r:id="rId60"/>
     <hyperlink ref="L93" r:id="rId61"/>
@@ -18604,31 +18621,32 @@
     <hyperlink ref="L95" r:id="rId63"/>
     <hyperlink ref="L96" r:id="rId64"/>
     <hyperlink ref="L97" r:id="rId65"/>
-    <hyperlink ref="L98" r:id="rId66"/>
+    <hyperlink ref="L99" r:id="rId66"/>
     <hyperlink ref="L100" r:id="rId67"/>
     <hyperlink ref="L101" r:id="rId68"/>
     <hyperlink ref="L102" r:id="rId69"/>
-    <hyperlink ref="L103" r:id="rId70"/>
-    <hyperlink ref="L72" r:id="rId71"/>
-    <hyperlink ref="L22" r:id="rId72" location="92949a144/=18njs1n"/>
-    <hyperlink ref="L28" r:id="rId73" location="92949A150"/>
-    <hyperlink ref="L32" r:id="rId74" location="92949a106/=18njrx6"/>
-    <hyperlink ref="L105" r:id="rId75" location="93330A252"/>
-    <hyperlink ref="L25" r:id="rId76" location="90631A005"/>
-    <hyperlink ref="L26" r:id="rId77" location="92949A146"/>
-    <hyperlink ref="L27" r:id="rId78" location="92949A148"/>
-    <hyperlink ref="L29" r:id="rId79" location="92949A151"/>
-    <hyperlink ref="L30" r:id="rId80" location="92949A153"/>
-    <hyperlink ref="L31" r:id="rId81" location="92949A160"/>
-    <hyperlink ref="L37" r:id="rId82" location="92510A442"/>
-    <hyperlink ref="L39" r:id="rId83" location="91780A162"/>
-    <hyperlink ref="L40" r:id="rId84" location="91780A164"/>
-    <hyperlink ref="L41" r:id="rId85" location="91780A166"/>
-    <hyperlink ref="L45" r:id="rId86" location="91545A280"/>
-    <hyperlink ref="L43" r:id="rId87" location="92141A008"/>
+    <hyperlink ref="L71" r:id="rId70"/>
+    <hyperlink ref="L22" r:id="rId71" location="92949a144/=18njs1n"/>
+    <hyperlink ref="L28" r:id="rId72" location="92949A150"/>
+    <hyperlink ref="L32" r:id="rId73" location="92949a106/=18njrx6"/>
+    <hyperlink ref="L104" r:id="rId74" location="93330A252"/>
+    <hyperlink ref="L25" r:id="rId75" location="90631A005"/>
+    <hyperlink ref="L26" r:id="rId76" location="92949A146"/>
+    <hyperlink ref="L27" r:id="rId77" location="92949A148"/>
+    <hyperlink ref="L29" r:id="rId78" location="92949A151"/>
+    <hyperlink ref="L30" r:id="rId79" location="92949A153"/>
+    <hyperlink ref="L31" r:id="rId80" location="92949A160"/>
+    <hyperlink ref="L37" r:id="rId81" location="92510A442"/>
+    <hyperlink ref="L39" r:id="rId82" location="91780A162"/>
+    <hyperlink ref="L40" r:id="rId83" location="91780A164"/>
+    <hyperlink ref="L41" r:id="rId84" location="91780A166"/>
+    <hyperlink ref="L45" r:id="rId85" location="91545A280"/>
+    <hyperlink ref="L43" r:id="rId86" location="92141A008"/>
+    <hyperlink ref="L105" r:id="rId87"/>
+    <hyperlink ref="L106" r:id="rId88"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId88"/>
+  <pageSetup orientation="portrait" r:id="rId89"/>
 </worksheet>
 </file>
 

--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -1550,7 +1550,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="166">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1998,11 +1998,14 @@
     <xf numFmtId="0" fontId="28" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="28" fillId="5" borderId="2" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2286,9 +2289,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA970"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A41" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A49" sqref="A49"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A76" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2444,7 +2447,7 @@
         <v>44</v>
       </c>
       <c r="M3" s="44"/>
-      <c r="N3" s="163" t="s">
+      <c r="N3" s="164" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2485,7 +2488,7 @@
         <v>49</v>
       </c>
       <c r="M4" s="48"/>
-      <c r="N4" s="164"/>
+      <c r="N4" s="165"/>
       <c r="Y4" s="49"/>
       <c r="Z4" s="49"/>
       <c r="AA4" s="49"/>
@@ -5849,7 +5852,7 @@
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L89" s="85" t="s">
+      <c r="L89" s="166" t="s">
         <v>319</v>
       </c>
     </row>
@@ -6405,7 +6408,7 @@
       <c r="F105" s="141" t="s">
         <v>380</v>
       </c>
-      <c r="G105" s="165"/>
+      <c r="G105" s="163"/>
       <c r="H105" s="143" t="s">
         <v>67</v>
       </c>
@@ -6439,7 +6442,7 @@
       <c r="F106" s="141" t="s">
         <v>197</v>
       </c>
-      <c r="G106" s="165"/>
+      <c r="G106" s="163"/>
       <c r="H106" s="143" t="s">
         <v>67</v>
       </c>
@@ -18644,9 +18647,10 @@
     <hyperlink ref="L43" r:id="rId86" location="92141A008"/>
     <hyperlink ref="L105" r:id="rId87"/>
     <hyperlink ref="L106" r:id="rId88"/>
+    <hyperlink ref="L89" r:id="rId89"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId89"/>
+  <pageSetup orientation="portrait" r:id="rId90"/>
 </worksheet>
 </file>
 

--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -21,14 +21,14 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Body!$A$1:$M$17</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$L$103</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$4:$L$106</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1136" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="387">
   <si>
     <t>Part</t>
   </si>
@@ -1180,6 +1180,15 @@
   </si>
   <si>
     <t>https://www.mcmaster.com/#89965K364</t>
+  </si>
+  <si>
+    <t>The cost information contained in this document is of a budgetary and planning nature and is intended for informational purposes only.  It does not constitute a commitment on the part of JPL and/or Caltech.</t>
+  </si>
+  <si>
+    <t>Author: Eric Junkins, Jet Propulsion Laboratory, California Institute of Technology</t>
+  </si>
+  <si>
+    <t>© 2018 California Institute of Technology. Government sponsorship acknowledged</t>
   </si>
 </sst>
 </file>
@@ -1189,7 +1198,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1380,6 +1389,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1425,7 +1441,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -1511,12 +1527,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="170">
+  <cellXfs count="180">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1974,12 +2008,38 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2262,12 +2322,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="A1:AA967"/>
+  <dimension ref="A1:AA970"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A33" sqref="A33:XFD33"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A1:XFD3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2289,1033 +2348,951 @@
     <col min="15" max="27" width="20.265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="45" customHeight="1">
-      <c r="A1" s="27" t="s">
+    <row r="1" spans="1:27" s="167" customFormat="1" ht="32.65" customHeight="1">
+      <c r="A1" s="177" t="s">
+        <v>384</v>
+      </c>
+      <c r="B1" s="178"/>
+      <c r="C1" s="178"/>
+      <c r="D1" s="178"/>
+      <c r="E1" s="178"/>
+      <c r="F1" s="178"/>
+      <c r="G1" s="178"/>
+      <c r="H1" s="178"/>
+      <c r="I1" s="179"/>
+      <c r="J1" s="178"/>
+      <c r="K1" s="178"/>
+      <c r="L1" s="178"/>
+    </row>
+    <row r="2" spans="1:27" s="169" customFormat="1" ht="27.4" customHeight="1">
+      <c r="A2" s="174" t="s">
+        <v>385</v>
+      </c>
+      <c r="B2" s="174"/>
+      <c r="C2" s="174"/>
+      <c r="D2" s="174"/>
+      <c r="E2" s="174"/>
+      <c r="F2" s="174"/>
+      <c r="G2" s="175"/>
+      <c r="H2" s="175"/>
+      <c r="I2" s="175"/>
+      <c r="J2" s="175"/>
+      <c r="K2" s="175"/>
+      <c r="L2" s="175"/>
+    </row>
+    <row r="3" spans="1:27" s="169" customFormat="1" ht="27" customHeight="1">
+      <c r="A3" s="176" t="s">
+        <v>386</v>
+      </c>
+      <c r="B3" s="176"/>
+      <c r="C3" s="176"/>
+      <c r="D3" s="176"/>
+      <c r="E3" s="176"/>
+      <c r="F3" s="176"/>
+      <c r="G3" s="172"/>
+      <c r="H3" s="172"/>
+      <c r="I3" s="173"/>
+      <c r="J3" s="172"/>
+      <c r="K3" s="172"/>
+      <c r="L3" s="172"/>
+    </row>
+    <row r="4" spans="1:27" ht="45" customHeight="1">
+      <c r="A4" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="27" t="s">
+      <c r="B4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C1" s="27" t="s">
+      <c r="C4" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="27" t="s">
+      <c r="D4" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F4" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="27" t="s">
+      <c r="G4" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="27" t="s">
+      <c r="H4" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="27" t="s">
+      <c r="I4" s="27" t="s">
         <v>329</v>
       </c>
-      <c r="J1" s="4" t="s">
+      <c r="J4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="L4" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="29"/>
-      <c r="Z1" s="29"/>
-      <c r="AA1" s="29"/>
-    </row>
-    <row r="2" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A2" s="111" t="s">
+      <c r="M4" s="28"/>
+      <c r="N4" s="28"/>
+      <c r="O4" s="28"/>
+      <c r="P4" s="28"/>
+      <c r="Q4" s="28"/>
+      <c r="R4" s="28"/>
+      <c r="S4" s="28"/>
+      <c r="T4" s="28"/>
+      <c r="U4" s="28"/>
+      <c r="V4" s="28"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="28"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+    </row>
+    <row r="5" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A5" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="112">
+      <c r="B5" s="112">
         <v>2</v>
       </c>
-      <c r="C2" s="112">
+      <c r="C5" s="112">
         <v>2</v>
       </c>
-      <c r="D2" s="112">
-        <v>1</v>
-      </c>
-      <c r="E2" s="112" t="s">
+      <c r="D5" s="112">
+        <v>1</v>
+      </c>
+      <c r="E5" s="112" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="112" t="s">
+      <c r="F5" s="112" t="s">
         <v>39</v>
       </c>
-      <c r="G2" s="113">
+      <c r="G5" s="113">
         <v>735</v>
       </c>
-      <c r="H2" s="114" t="s">
+      <c r="H5" s="114" t="s">
         <v>13</v>
       </c>
-      <c r="I2" s="115"/>
-      <c r="J2" s="116">
+      <c r="I5" s="115"/>
+      <c r="J5" s="116">
         <v>1.5</v>
       </c>
-      <c r="K2" s="116">
-        <f t="shared" ref="K2:K10" si="0">B2/D2*J2</f>
+      <c r="K5" s="116">
+        <f t="shared" ref="K5:K13" si="0">B5/D5*J5</f>
         <v>3</v>
       </c>
-      <c r="L2" s="117" t="s">
+      <c r="L5" s="117" t="s">
         <v>38</v>
       </c>
-      <c r="M2" s="32"/>
-      <c r="N2" s="33" t="s">
+      <c r="M5" s="32"/>
+      <c r="N5" s="33" t="s">
         <v>40</v>
       </c>
-      <c r="Y2" s="34"/>
-      <c r="Z2" s="34"/>
-      <c r="AA2" s="34"/>
-    </row>
-    <row r="3" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A3" s="79" t="s">
+      <c r="Y5" s="34"/>
+      <c r="Z5" s="34"/>
+      <c r="AA5" s="34"/>
+    </row>
+    <row r="6" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A6" s="79" t="s">
         <v>41</v>
       </c>
-      <c r="B3" s="97">
-        <v>1</v>
-      </c>
-      <c r="C3" s="97">
-        <v>1</v>
-      </c>
-      <c r="D3" s="97">
-        <v>1</v>
-      </c>
-      <c r="E3" s="97" t="s">
+      <c r="B6" s="97">
+        <v>1</v>
+      </c>
+      <c r="C6" s="97">
+        <v>1</v>
+      </c>
+      <c r="D6" s="97">
+        <v>1</v>
+      </c>
+      <c r="E6" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F3" s="97" t="s">
+      <c r="F6" s="97" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="101" t="s">
+      <c r="G6" s="101" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="118" t="s">
+      <c r="H6" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="119"/>
-      <c r="J3" s="81">
+      <c r="I6" s="119"/>
+      <c r="J6" s="81">
         <v>34.99</v>
       </c>
-      <c r="K3" s="81">
+      <c r="K6" s="81">
         <f t="shared" si="0"/>
         <v>34.99</v>
       </c>
-      <c r="L3" s="86" t="s">
+      <c r="L6" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="M3" s="39"/>
-      <c r="N3" s="167" t="s">
+      <c r="M6" s="39"/>
+      <c r="N6" s="170" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A4" s="120" t="s">
+    <row r="7" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A7" s="120" t="s">
         <v>46</v>
       </c>
-      <c r="B4" s="121">
-        <v>1</v>
-      </c>
-      <c r="C4" s="121">
-        <v>1</v>
-      </c>
-      <c r="D4" s="121">
-        <v>1</v>
-      </c>
-      <c r="E4" s="121" t="s">
+      <c r="B7" s="121">
+        <v>1</v>
+      </c>
+      <c r="C7" s="121">
+        <v>1</v>
+      </c>
+      <c r="D7" s="121">
+        <v>1</v>
+      </c>
+      <c r="E7" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="121" t="s">
+      <c r="F7" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="G4" s="122" t="s">
+      <c r="G7" s="122" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="121" t="s">
+      <c r="H7" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="123"/>
-      <c r="J4" s="124">
+      <c r="I7" s="123"/>
+      <c r="J7" s="124">
         <v>25</v>
       </c>
-      <c r="K4" s="124">
+      <c r="K7" s="124">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="L4" s="125" t="s">
+      <c r="L7" s="125" t="s">
         <v>49</v>
       </c>
-      <c r="M4" s="40"/>
-      <c r="N4" s="168"/>
-      <c r="Y4" s="41"/>
-      <c r="Z4" s="41"/>
-      <c r="AA4" s="41"/>
-    </row>
-    <row r="5" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A5" s="79" t="s">
+      <c r="M7" s="40"/>
+      <c r="N7" s="171"/>
+      <c r="Y7" s="41"/>
+      <c r="Z7" s="41"/>
+      <c r="AA7" s="41"/>
+    </row>
+    <row r="8" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A8" s="79" t="s">
         <v>50</v>
       </c>
-      <c r="B5" s="97">
-        <v>1</v>
-      </c>
-      <c r="C5" s="97">
-        <v>1</v>
-      </c>
-      <c r="D5" s="97">
-        <v>1</v>
-      </c>
-      <c r="E5" s="97" t="s">
+      <c r="B8" s="97">
+        <v>1</v>
+      </c>
+      <c r="C8" s="97">
+        <v>1</v>
+      </c>
+      <c r="D8" s="97">
+        <v>1</v>
+      </c>
+      <c r="E8" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="97" t="s">
+      <c r="F8" s="97" t="s">
         <v>51</v>
       </c>
-      <c r="G5" s="101" t="s">
+      <c r="G8" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="118" t="s">
+      <c r="H8" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="I5" s="119"/>
-      <c r="J5" s="81">
+      <c r="I8" s="119"/>
+      <c r="J8" s="81">
         <v>13.24</v>
       </c>
-      <c r="K5" s="81">
+      <c r="K8" s="81">
         <f t="shared" si="0"/>
         <v>13.24</v>
       </c>
-      <c r="L5" s="86" t="s">
+      <c r="L8" s="86" t="s">
         <v>50</v>
       </c>
-      <c r="M5" s="34"/>
-    </row>
-    <row r="6" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A6" s="79" t="s">
+      <c r="M8" s="34"/>
+    </row>
+    <row r="9" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A9" s="79" t="s">
         <v>52</v>
       </c>
-      <c r="B6" s="97">
-        <v>1</v>
-      </c>
-      <c r="C6" s="97">
-        <v>1</v>
-      </c>
-      <c r="D6" s="97">
-        <v>1</v>
-      </c>
-      <c r="E6" s="97" t="s">
+      <c r="B9" s="97">
+        <v>1</v>
+      </c>
+      <c r="C9" s="97">
+        <v>1</v>
+      </c>
+      <c r="D9" s="97">
+        <v>1</v>
+      </c>
+      <c r="E9" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F6" s="97" t="s">
+      <c r="F9" s="97" t="s">
         <v>53</v>
       </c>
-      <c r="G6" s="101" t="s">
+      <c r="G9" s="101" t="s">
         <v>54</v>
       </c>
-      <c r="H6" s="118" t="s">
+      <c r="H9" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="I6" s="119"/>
-      <c r="J6" s="81">
+      <c r="I9" s="119"/>
+      <c r="J9" s="81">
         <v>9.98</v>
       </c>
-      <c r="K6" s="81">
+      <c r="K9" s="81">
         <f t="shared" si="0"/>
         <v>9.98</v>
       </c>
-      <c r="L6" s="86" t="s">
+      <c r="L9" s="86" t="s">
         <v>55</v>
       </c>
-      <c r="M6" s="34"/>
-    </row>
-    <row r="7" spans="1:27" s="95" customFormat="1" ht="14.25" hidden="1" customHeight="1">
-      <c r="A7" s="120" t="s">
+      <c r="M9" s="34"/>
+    </row>
+    <row r="10" spans="1:27" s="95" customFormat="1" ht="14.25" customHeight="1">
+      <c r="A10" s="120" t="s">
         <v>56</v>
       </c>
-      <c r="B7" s="121">
-        <v>1</v>
-      </c>
-      <c r="C7" s="121">
-        <v>1</v>
-      </c>
-      <c r="D7" s="121">
-        <v>1</v>
-      </c>
-      <c r="E7" s="121" t="s">
+      <c r="B10" s="121">
+        <v>1</v>
+      </c>
+      <c r="C10" s="121">
+        <v>1</v>
+      </c>
+      <c r="D10" s="121">
+        <v>1</v>
+      </c>
+      <c r="E10" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="F7" s="121" t="s">
+      <c r="F10" s="121" t="s">
         <v>57</v>
       </c>
-      <c r="G7" s="126" t="s">
+      <c r="G10" s="126" t="s">
         <v>23</v>
       </c>
-      <c r="H7" s="121" t="s">
+      <c r="H10" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="123"/>
-      <c r="J7" s="124">
+      <c r="I10" s="123"/>
+      <c r="J10" s="124">
         <v>6.79</v>
       </c>
-      <c r="K7" s="124">
+      <c r="K10" s="124">
         <f t="shared" si="0"/>
         <v>6.79</v>
       </c>
-      <c r="L7" s="127" t="s">
+      <c r="L10" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="M7" s="94"/>
-      <c r="Y7" s="96"/>
-      <c r="Z7" s="96"/>
-      <c r="AA7" s="96"/>
-    </row>
-    <row r="8" spans="1:27" ht="14.25" hidden="1">
-      <c r="A8" s="87" t="s">
+      <c r="M10" s="94"/>
+      <c r="Y10" s="96"/>
+      <c r="Z10" s="96"/>
+      <c r="AA10" s="96"/>
+    </row>
+    <row r="11" spans="1:27" ht="14.25">
+      <c r="A11" s="87" t="s">
         <v>59</v>
       </c>
-      <c r="B8" s="97">
-        <v>1</v>
-      </c>
-      <c r="C8" s="97">
-        <v>1</v>
-      </c>
-      <c r="D8" s="98">
-        <v>1</v>
-      </c>
-      <c r="E8" s="99" t="s">
+      <c r="B11" s="97">
+        <v>1</v>
+      </c>
+      <c r="C11" s="97">
+        <v>1</v>
+      </c>
+      <c r="D11" s="98">
+        <v>1</v>
+      </c>
+      <c r="E11" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="F8" s="99" t="s">
+      <c r="F11" s="99" t="s">
         <v>60</v>
       </c>
-      <c r="G8" s="106" t="s">
+      <c r="G11" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="H8" s="99" t="s">
+      <c r="H11" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="83"/>
-      <c r="J8" s="81">
+      <c r="I11" s="83"/>
+      <c r="J11" s="81">
         <v>5.57</v>
       </c>
-      <c r="K8" s="81">
+      <c r="K11" s="81">
         <f t="shared" si="0"/>
         <v>5.57</v>
       </c>
-      <c r="L8" s="88" t="s">
+      <c r="L11" s="88" t="s">
         <v>61</v>
       </c>
-      <c r="M8" s="34"/>
-    </row>
-    <row r="9" spans="1:27" ht="14.25">
-      <c r="A9" s="79" t="s">
+      <c r="M11" s="34"/>
+    </row>
+    <row r="12" spans="1:27" ht="14.25">
+      <c r="A12" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="B9" s="97">
+      <c r="B12" s="97">
         <v>2</v>
       </c>
-      <c r="C9" s="97">
+      <c r="C12" s="97">
         <v>2</v>
       </c>
-      <c r="D9" s="98">
+      <c r="D12" s="98">
         <v>2</v>
       </c>
-      <c r="E9" s="97" t="s">
+      <c r="E12" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F9" s="97" t="s">
+      <c r="F12" s="97" t="s">
         <v>63</v>
       </c>
-      <c r="G9" s="101" t="s">
+      <c r="G12" s="101" t="s">
         <v>64</v>
       </c>
-      <c r="H9" s="118" t="s">
+      <c r="H12" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I9" s="119" t="s">
+      <c r="I12" s="119" t="s">
         <v>330</v>
       </c>
-      <c r="J9" s="81">
+      <c r="J12" s="81">
         <v>9.25</v>
       </c>
-      <c r="K9" s="81">
+      <c r="K12" s="81">
         <f t="shared" si="0"/>
         <v>9.25</v>
       </c>
-      <c r="L9" s="86" t="s">
+      <c r="L12" s="86" t="s">
         <v>66</v>
       </c>
-      <c r="M9" s="46"/>
-    </row>
-    <row r="10" spans="1:27" ht="14.25" hidden="1">
-      <c r="A10" s="79" t="s">
+      <c r="M12" s="46"/>
+    </row>
+    <row r="13" spans="1:27" ht="14.25">
+      <c r="A13" s="79" t="s">
         <v>67</v>
       </c>
-      <c r="B10" s="99">
-        <v>1</v>
-      </c>
-      <c r="C10" s="99">
-        <v>1</v>
-      </c>
-      <c r="D10" s="98">
-        <v>1</v>
-      </c>
-      <c r="E10" s="99" t="s">
+      <c r="B13" s="99">
+        <v>1</v>
+      </c>
+      <c r="C13" s="99">
+        <v>1</v>
+      </c>
+      <c r="D13" s="98">
+        <v>1</v>
+      </c>
+      <c r="E13" s="99" t="s">
         <v>12</v>
       </c>
-      <c r="F10" s="99" t="s">
+      <c r="F13" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="G10" s="105" t="s">
+      <c r="G13" s="105" t="s">
         <v>23</v>
       </c>
-      <c r="H10" s="99" t="s">
+      <c r="H13" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="I10" s="83"/>
-      <c r="J10" s="81">
+      <c r="I13" s="83"/>
+      <c r="J13" s="81">
         <v>6.49</v>
       </c>
-      <c r="K10" s="81">
+      <c r="K13" s="81">
         <f t="shared" si="0"/>
         <v>6.49</v>
       </c>
-      <c r="L10" s="88" t="s">
+      <c r="L13" s="88" t="s">
         <v>70</v>
       </c>
-      <c r="M10" s="34"/>
-      <c r="Y10" s="41"/>
-      <c r="Z10" s="41"/>
-      <c r="AA10" s="41"/>
-    </row>
-    <row r="11" spans="1:27" ht="14.25" hidden="1">
-      <c r="A11" s="79" t="s">
+      <c r="M13" s="34"/>
+      <c r="Y13" s="41"/>
+      <c r="Z13" s="41"/>
+      <c r="AA13" s="41"/>
+    </row>
+    <row r="14" spans="1:27" ht="14.25">
+      <c r="A14" s="79" t="s">
         <v>71</v>
       </c>
-      <c r="B11" s="97">
-        <v>1</v>
-      </c>
-      <c r="C11" s="97">
-        <v>1</v>
-      </c>
-      <c r="D11" s="98">
-        <v>1</v>
-      </c>
-      <c r="E11" s="97" t="s">
+      <c r="B14" s="97">
+        <v>1</v>
+      </c>
+      <c r="C14" s="97">
+        <v>1</v>
+      </c>
+      <c r="D14" s="98">
+        <v>1</v>
+      </c>
+      <c r="E14" s="97" t="s">
         <v>12</v>
       </c>
-      <c r="F11" s="97" t="s">
+      <c r="F14" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="G11" s="101" t="s">
+      <c r="G14" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="H11" s="118" t="s">
+      <c r="H14" s="118" t="s">
         <v>69</v>
       </c>
-      <c r="I11" s="119"/>
-      <c r="J11" s="81">
+      <c r="I14" s="119"/>
+      <c r="J14" s="81">
         <v>5.42</v>
       </c>
-      <c r="K11" s="81">
-        <f>J11</f>
+      <c r="K14" s="81">
+        <f>J14</f>
         <v>5.42</v>
       </c>
-      <c r="L11" s="86" t="s">
+      <c r="L14" s="86" t="s">
         <v>73</v>
       </c>
-      <c r="M11" s="34"/>
-    </row>
-    <row r="12" spans="1:27" ht="28.5" hidden="1">
-      <c r="A12" s="79" t="s">
+      <c r="M14" s="34"/>
+    </row>
+    <row r="15" spans="1:27" ht="28.5">
+      <c r="A15" s="79" t="s">
         <v>74</v>
       </c>
-      <c r="B12" s="97">
-        <v>1</v>
-      </c>
-      <c r="C12" s="97">
-        <v>1</v>
-      </c>
-      <c r="D12" s="98">
-        <v>1</v>
-      </c>
-      <c r="E12" s="97" t="s">
+      <c r="B15" s="97">
+        <v>1</v>
+      </c>
+      <c r="C15" s="97">
+        <v>1</v>
+      </c>
+      <c r="D15" s="98">
+        <v>1</v>
+      </c>
+      <c r="E15" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="F12" s="97" t="s">
+      <c r="F15" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="G12" s="101" t="s">
+      <c r="G15" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="H12" s="118" t="s">
+      <c r="H15" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="I12" s="119"/>
-      <c r="J12" s="81">
+      <c r="I15" s="119"/>
+      <c r="J15" s="81">
         <v>86.95</v>
       </c>
-      <c r="K12" s="81">
-        <f t="shared" ref="K12:K56" si="1">B12/D12*J12</f>
+      <c r="K15" s="81">
+        <f t="shared" ref="K15:K59" si="1">B15/D15*J15</f>
         <v>86.95</v>
       </c>
-      <c r="L12" s="86" t="s">
+      <c r="L15" s="86" t="s">
         <v>78</v>
       </c>
-      <c r="M12" s="34"/>
-    </row>
-    <row r="13" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A13" s="79" t="s">
+      <c r="M15" s="34"/>
+    </row>
+    <row r="16" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A16" s="79" t="s">
         <v>79</v>
       </c>
-      <c r="B13" s="97">
-        <v>1</v>
-      </c>
-      <c r="C13" s="97">
-        <v>1</v>
-      </c>
-      <c r="D13" s="98">
-        <v>1</v>
-      </c>
-      <c r="E13" s="97" t="s">
+      <c r="B16" s="97">
+        <v>1</v>
+      </c>
+      <c r="C16" s="97">
+        <v>1</v>
+      </c>
+      <c r="D16" s="98">
+        <v>1</v>
+      </c>
+      <c r="E16" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="F13" s="97" t="s">
+      <c r="F16" s="97" t="s">
         <v>80</v>
       </c>
-      <c r="G13" s="101" t="s">
+      <c r="G16" s="101" t="s">
         <v>77</v>
       </c>
-      <c r="H13" s="118" t="s">
+      <c r="H16" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="I13" s="119"/>
-      <c r="J13" s="81">
+      <c r="I16" s="119"/>
+      <c r="J16" s="81">
         <v>41.95</v>
       </c>
-      <c r="K13" s="81">
+      <c r="K16" s="81">
         <f t="shared" si="1"/>
         <v>41.95</v>
       </c>
-      <c r="L13" s="86" t="s">
+      <c r="L16" s="86" t="s">
         <v>79</v>
       </c>
-      <c r="M13" s="34"/>
-    </row>
-    <row r="14" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A14" s="79" t="s">
+      <c r="M16" s="34"/>
+    </row>
+    <row r="17" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A17" s="79" t="s">
         <v>367</v>
       </c>
-      <c r="B14" s="97">
+      <c r="B17" s="97">
         <v>25</v>
       </c>
-      <c r="C14" s="97">
+      <c r="C17" s="97">
         <v>4</v>
       </c>
-      <c r="D14" s="98">
-        <v>1</v>
-      </c>
-      <c r="E14" s="97" t="s">
+      <c r="D17" s="98">
+        <v>1</v>
+      </c>
+      <c r="E17" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="F14" s="97" t="s">
+      <c r="F17" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="G14" s="101" t="s">
+      <c r="G17" s="101" t="s">
         <v>82</v>
       </c>
-      <c r="H14" s="97" t="s">
+      <c r="H17" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="I14" s="80"/>
-      <c r="J14" s="81">
+      <c r="I17" s="80"/>
+      <c r="J17" s="81">
         <v>2.8000000000000001E-2</v>
       </c>
-      <c r="K14" s="81">
+      <c r="K17" s="81">
         <f t="shared" si="1"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="L14" s="85" t="s">
+      <c r="L17" s="85" t="s">
         <v>368</v>
       </c>
-      <c r="M14" s="34"/>
-    </row>
-    <row r="15" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A15" s="79" t="s">
+      <c r="M17" s="34"/>
+    </row>
+    <row r="18" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A18" s="79" t="s">
         <v>376</v>
       </c>
-      <c r="B15" s="97">
+      <c r="B18" s="97">
         <v>25</v>
       </c>
-      <c r="C15" s="97">
+      <c r="C18" s="97">
         <v>4</v>
       </c>
-      <c r="D15" s="98">
-        <v>1</v>
-      </c>
-      <c r="E15" s="97" t="s">
+      <c r="D18" s="98">
+        <v>1</v>
+      </c>
+      <c r="E18" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="F15" s="97" t="s">
+      <c r="F18" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="G15" s="105" t="s">
+      <c r="G18" s="105" t="s">
         <v>83</v>
       </c>
-      <c r="H15" s="97" t="s">
+      <c r="H18" s="97" t="s">
         <v>13</v>
       </c>
-      <c r="I15" s="80"/>
-      <c r="J15" s="81">
+      <c r="I18" s="80"/>
+      <c r="J18" s="81">
         <v>3.5999999999999997E-2</v>
       </c>
-      <c r="K15" s="81">
+      <c r="K18" s="81">
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="L15" s="86" t="s">
+      <c r="L18" s="86" t="s">
         <v>369</v>
       </c>
-      <c r="M15" s="34"/>
-    </row>
-    <row r="16" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A16" s="79" t="s">
+      <c r="M18" s="34"/>
+    </row>
+    <row r="19" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A19" s="79" t="s">
         <v>84</v>
       </c>
-      <c r="B16" s="97">
-        <v>1</v>
-      </c>
-      <c r="C16" s="97">
-        <v>1</v>
-      </c>
-      <c r="D16" s="98">
-        <v>1</v>
-      </c>
-      <c r="E16" s="97" t="s">
+      <c r="B19" s="97">
+        <v>1</v>
+      </c>
+      <c r="C19" s="97">
+        <v>1</v>
+      </c>
+      <c r="D19" s="98">
+        <v>1</v>
+      </c>
+      <c r="E19" s="97" t="s">
         <v>19</v>
       </c>
-      <c r="F16" s="97" t="s">
+      <c r="F19" s="97" t="s">
         <v>85</v>
       </c>
-      <c r="G16" s="101" t="s">
+      <c r="G19" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="H16" s="118" t="s">
+      <c r="H19" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="I16" s="119"/>
-      <c r="J16" s="81">
+      <c r="I19" s="119"/>
+      <c r="J19" s="81">
         <v>24.95</v>
       </c>
-      <c r="K16" s="81">
+      <c r="K19" s="81">
         <f t="shared" si="1"/>
         <v>24.95</v>
       </c>
-      <c r="L16" s="86" t="s">
+      <c r="L19" s="86" t="s">
         <v>86</v>
       </c>
-      <c r="M16" s="34"/>
-    </row>
-    <row r="17" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A17" s="79" t="s">
+      <c r="M19" s="34"/>
+    </row>
+    <row r="20" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A20" s="79" t="s">
         <v>87</v>
       </c>
-      <c r="B17" s="99">
-        <v>1</v>
-      </c>
-      <c r="C17" s="99">
-        <v>1</v>
-      </c>
-      <c r="D17" s="98">
-        <v>1</v>
-      </c>
-      <c r="E17" s="99" t="s">
+      <c r="B20" s="99">
+        <v>1</v>
+      </c>
+      <c r="C20" s="99">
+        <v>1</v>
+      </c>
+      <c r="D20" s="98">
+        <v>1</v>
+      </c>
+      <c r="E20" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="F17" s="99" t="s">
+      <c r="F20" s="99" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="101" t="s">
+      <c r="G20" s="101" t="s">
         <v>88</v>
       </c>
-      <c r="H17" s="99" t="s">
+      <c r="H20" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="I17" s="83"/>
-      <c r="J17" s="81">
+      <c r="I20" s="83"/>
+      <c r="J20" s="81">
         <v>4.49</v>
       </c>
-      <c r="K17" s="81">
+      <c r="K20" s="81">
         <f t="shared" si="1"/>
         <v>4.49</v>
       </c>
-      <c r="L17" s="88" t="s">
+      <c r="L20" s="88" t="s">
         <v>370</v>
       </c>
-      <c r="M17" s="34"/>
-    </row>
-    <row r="18" spans="1:27" ht="14.25" customHeight="1">
-      <c r="A18" s="79" t="s">
+      <c r="M20" s="34"/>
+    </row>
+    <row r="21" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A21" s="79" t="s">
         <v>89</v>
       </c>
-      <c r="B18" s="97">
+      <c r="B21" s="97">
         <v>6</v>
       </c>
-      <c r="C18" s="97">
+      <c r="C21" s="97">
         <v>6</v>
       </c>
-      <c r="D18" s="98">
+      <c r="D21" s="98">
         <v>2</v>
       </c>
-      <c r="E18" s="97" t="s">
+      <c r="E21" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="F18" s="97" t="s">
+      <c r="F21" s="97" t="s">
         <v>91</v>
       </c>
-      <c r="G18" s="101" t="s">
+      <c r="G21" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="H18" s="118" t="s">
+      <c r="H21" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I18" s="119" t="s">
+      <c r="I21" s="119" t="s">
         <v>331</v>
       </c>
-      <c r="J18" s="81">
+      <c r="J21" s="81">
         <v>25.27</v>
       </c>
-      <c r="K18" s="81">
+      <c r="K21" s="81">
         <f t="shared" si="1"/>
         <v>75.81</v>
       </c>
-      <c r="L18" s="86" t="s">
+      <c r="L21" s="86" t="s">
         <v>92</v>
       </c>
-      <c r="M18" s="34"/>
-    </row>
-    <row r="19" spans="1:27" ht="14.25" customHeight="1">
-      <c r="A19" s="79" t="s">
+      <c r="M21" s="34"/>
+    </row>
+    <row r="22" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A22" s="79" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="97">
+      <c r="B22" s="97">
         <v>4</v>
       </c>
-      <c r="C19" s="97">
+      <c r="C22" s="97">
         <v>4</v>
       </c>
-      <c r="D19" s="98">
-        <v>1</v>
-      </c>
-      <c r="E19" s="97" t="s">
+      <c r="D22" s="98">
+        <v>1</v>
+      </c>
+      <c r="E22" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="F19" s="97" t="s">
+      <c r="F22" s="97" t="s">
         <v>95</v>
       </c>
-      <c r="G19" s="101" t="s">
+      <c r="G22" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="H19" s="118" t="s">
+      <c r="H22" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I19" s="119" t="s">
+      <c r="I22" s="119" t="s">
         <v>332</v>
       </c>
-      <c r="J19" s="81">
+      <c r="J22" s="81">
         <v>12.9</v>
       </c>
-      <c r="K19" s="81">
+      <c r="K22" s="81">
         <f t="shared" si="1"/>
         <v>51.6</v>
       </c>
-      <c r="L19" s="86" t="s">
+      <c r="L22" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="M19" s="34"/>
-    </row>
-    <row r="20" spans="1:27" ht="14.25" customHeight="1">
-      <c r="A20" s="79" t="s">
+      <c r="M22" s="34"/>
+    </row>
+    <row r="23" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A23" s="79" t="s">
         <v>97</v>
       </c>
-      <c r="B20" s="97">
-        <v>1</v>
-      </c>
-      <c r="C20" s="97">
-        <v>1</v>
-      </c>
-      <c r="D20" s="98">
-        <v>1</v>
-      </c>
-      <c r="E20" s="97" t="s">
+      <c r="B23" s="97">
+        <v>1</v>
+      </c>
+      <c r="C23" s="97">
+        <v>1</v>
+      </c>
+      <c r="D23" s="98">
+        <v>1</v>
+      </c>
+      <c r="E23" s="97" t="s">
         <v>94</v>
       </c>
-      <c r="F20" s="97" t="s">
+      <c r="F23" s="97" t="s">
         <v>98</v>
       </c>
-      <c r="G20" s="101" t="s">
+      <c r="G23" s="101" t="s">
         <v>23</v>
       </c>
-      <c r="H20" s="118" t="s">
+      <c r="H23" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I20" s="119" t="s">
+      <c r="I23" s="119" t="s">
         <v>330</v>
       </c>
-      <c r="J20" s="81">
+      <c r="J23" s="81">
         <f>38.9+36.9</f>
         <v>75.8</v>
       </c>
-      <c r="K20" s="81">
+      <c r="K23" s="81">
         <f t="shared" si="1"/>
         <v>75.8</v>
       </c>
-      <c r="L20" s="86" t="s">
+      <c r="L23" s="86" t="s">
         <v>96</v>
       </c>
-      <c r="M20" s="34"/>
-    </row>
-    <row r="21" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A21" s="79" t="s">
+      <c r="M23" s="34"/>
+    </row>
+    <row r="24" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A24" s="79" t="s">
         <v>346</v>
       </c>
-      <c r="B21" s="97">
+      <c r="B24" s="97">
         <v>300</v>
       </c>
-      <c r="C21" s="97">
+      <c r="C24" s="97">
         <f>8+20+6+24+24+76+24</f>
         <v>182</v>
       </c>
-      <c r="D21" s="98">
+      <c r="D24" s="98">
         <v>100</v>
       </c>
-      <c r="E21" s="97" t="s">
+      <c r="E24" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="F21" s="97" t="s">
+      <c r="F24" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="G21" s="101" t="s">
+      <c r="G24" s="101" t="s">
         <v>102</v>
       </c>
-      <c r="H21" s="97" t="s">
+      <c r="H24" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="I21" s="80" t="s">
+      <c r="I24" s="80" t="s">
         <v>340</v>
       </c>
-      <c r="J21" s="81">
+      <c r="J24" s="81">
         <v>3.45</v>
       </c>
-      <c r="K21" s="81">
+      <c r="K24" s="81">
         <f t="shared" si="1"/>
         <v>10.350000000000001</v>
       </c>
-      <c r="L21" s="82" t="s">
+      <c r="L24" s="82" t="s">
         <v>104</v>
       </c>
-      <c r="M21" s="34"/>
-    </row>
-    <row r="22" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A22" s="79" t="s">
+      <c r="M24" s="34"/>
+    </row>
+    <row r="25" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A25" s="79" t="s">
         <v>105</v>
       </c>
-      <c r="B22" s="99">
+      <c r="B25" s="99">
         <v>25</v>
       </c>
-      <c r="C22" s="99">
+      <c r="C25" s="99">
         <v>12</v>
       </c>
-      <c r="D22" s="98">
+      <c r="D25" s="98">
         <v>25</v>
       </c>
-      <c r="E22" s="99" t="s">
+      <c r="E25" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F22" s="99" t="s">
+      <c r="F25" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="G22" s="102" t="s">
+      <c r="G25" s="102" t="s">
         <v>107</v>
       </c>
-      <c r="H22" s="97" t="s">
+      <c r="H25" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="I22" s="80" t="s">
+      <c r="I25" s="80" t="s">
         <v>340</v>
       </c>
-      <c r="J22" s="81">
+      <c r="J25" s="81">
         <v>5.61</v>
       </c>
-      <c r="K22" s="81">
+      <c r="K25" s="81">
         <f t="shared" si="1"/>
         <v>5.61</v>
       </c>
-      <c r="L22" s="84" t="str">
+      <c r="L25" s="84" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/#91292A015","https://www.mcmaster.com/#91292A015")</f>
         <v>https://www.mcmaster.com/#91292A015</v>
       </c>
-      <c r="M22" s="46"/>
-      <c r="Y22" s="34"/>
-      <c r="Z22" s="34"/>
-      <c r="AA22" s="34"/>
-    </row>
-    <row r="23" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A23" s="79" t="s">
-        <v>108</v>
-      </c>
-      <c r="B23" s="97">
-        <v>200</v>
-      </c>
-      <c r="C23" s="97">
-        <v>80</v>
-      </c>
-      <c r="D23" s="98">
-        <v>100</v>
-      </c>
-      <c r="E23" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="F23" s="97" t="s">
-        <v>109</v>
-      </c>
-      <c r="G23" s="101" t="s">
-        <v>110</v>
-      </c>
-      <c r="H23" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="I23" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="J23" s="81">
-        <v>2.72</v>
-      </c>
-      <c r="K23" s="81">
-        <f t="shared" si="1"/>
-        <v>5.44</v>
-      </c>
-      <c r="L23" s="85" t="s">
-        <v>111</v>
-      </c>
-      <c r="M23" s="34"/>
-      <c r="Y23" s="34"/>
-      <c r="Z23" s="34"/>
-      <c r="AA23" s="34"/>
-    </row>
-    <row r="24" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A24" s="79" t="s">
-        <v>112</v>
-      </c>
-      <c r="B24" s="99">
-        <v>100</v>
-      </c>
-      <c r="C24" s="99">
-        <v>4</v>
-      </c>
-      <c r="D24" s="98">
-        <v>100</v>
-      </c>
-      <c r="E24" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="99" t="s">
-        <v>113</v>
-      </c>
-      <c r="G24" s="103" t="s">
-        <v>114</v>
-      </c>
-      <c r="H24" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="I24" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="J24" s="81">
-        <v>2.79</v>
-      </c>
-      <c r="K24" s="81">
-        <f t="shared" si="1"/>
-        <v>2.79</v>
-      </c>
-      <c r="L24" s="84" t="s">
-        <v>115</v>
-      </c>
-      <c r="M24" s="34"/>
-      <c r="Y24" s="34"/>
-      <c r="Z24" s="34"/>
-      <c r="AA24" s="34"/>
-    </row>
-    <row r="25" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A25" s="79" t="s">
-        <v>349</v>
-      </c>
-      <c r="B25" s="97">
-        <v>100</v>
-      </c>
-      <c r="C25" s="97">
-        <f>16+8+8+32</f>
-        <v>64</v>
-      </c>
-      <c r="D25" s="98">
-        <v>100</v>
-      </c>
-      <c r="E25" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="F25" s="97" t="s">
-        <v>117</v>
-      </c>
-      <c r="G25" s="101" t="s">
-        <v>118</v>
-      </c>
-      <c r="H25" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="I25" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="J25" s="81">
-        <v>3.72</v>
-      </c>
-      <c r="K25" s="81">
-        <f t="shared" si="1"/>
-        <v>3.72</v>
-      </c>
-      <c r="L25" s="85" t="s">
-        <v>351</v>
-      </c>
-      <c r="M25" s="34"/>
+      <c r="M25" s="46"/>
       <c r="Y25" s="34"/>
       <c r="Z25" s="34"/>
       <c r="AA25" s="34"/>
     </row>
-    <row r="26" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="26" spans="1:27" ht="14.25" customHeight="1">
       <c r="A26" s="79" t="s">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="B26" s="97">
-        <v>100</v>
+        <v>200</v>
       </c>
       <c r="C26" s="97">
-        <v>40</v>
+        <v>80</v>
       </c>
       <c r="D26" s="98">
         <v>100</v>
@@ -3324,10 +3301,10 @@
         <v>100</v>
       </c>
       <c r="F26" s="97" t="s">
-        <v>121</v>
-      </c>
-      <c r="G26" s="103" t="s">
-        <v>122</v>
+        <v>109</v>
+      </c>
+      <c r="G26" s="101" t="s">
+        <v>110</v>
       </c>
       <c r="H26" s="97" t="s">
         <v>103</v>
@@ -3336,23 +3313,23 @@
         <v>340</v>
       </c>
       <c r="J26" s="81">
-        <v>3.72</v>
+        <v>2.72</v>
       </c>
       <c r="K26" s="81">
         <f t="shared" si="1"/>
-        <v>3.72</v>
+        <v>5.44</v>
       </c>
       <c r="L26" s="85" t="s">
-        <v>348</v>
+        <v>111</v>
       </c>
       <c r="M26" s="34"/>
       <c r="Y26" s="34"/>
       <c r="Z26" s="34"/>
       <c r="AA26" s="34"/>
     </row>
-    <row r="27" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="27" spans="1:27" ht="14.25" customHeight="1">
       <c r="A27" s="79" t="s">
-        <v>353</v>
+        <v>112</v>
       </c>
       <c r="B27" s="99">
         <v>100</v>
@@ -3367,10 +3344,10 @@
         <v>100</v>
       </c>
       <c r="F27" s="99" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="G27" s="103" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="H27" s="97" t="s">
         <v>103</v>
@@ -3379,38 +3356,42 @@
         <v>340</v>
       </c>
       <c r="J27" s="81">
-        <v>4.07</v>
+        <v>2.79</v>
       </c>
       <c r="K27" s="81">
         <f t="shared" si="1"/>
-        <v>4.07</v>
+        <v>2.79</v>
       </c>
       <c r="L27" s="84" t="s">
-        <v>352</v>
+        <v>115</v>
       </c>
       <c r="M27" s="34"/>
-    </row>
-    <row r="28" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+      <c r="Y27" s="34"/>
+      <c r="Z27" s="34"/>
+      <c r="AA27" s="34"/>
+    </row>
+    <row r="28" spans="1:27" ht="14.25" customHeight="1">
       <c r="A28" s="79" t="s">
-        <v>354</v>
-      </c>
-      <c r="B28" s="99">
+        <v>349</v>
+      </c>
+      <c r="B28" s="97">
         <v>100</v>
       </c>
-      <c r="C28" s="99">
-        <v>16</v>
+      <c r="C28" s="97">
+        <f>16+8+8+32</f>
+        <v>64</v>
       </c>
       <c r="D28" s="98">
         <v>100</v>
       </c>
-      <c r="E28" s="99" t="s">
+      <c r="E28" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="G28" s="103" t="s">
-        <v>130</v>
+      <c r="F28" s="97" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="101" t="s">
+        <v>118</v>
       </c>
       <c r="H28" s="97" t="s">
         <v>103</v>
@@ -3419,38 +3400,41 @@
         <v>340</v>
       </c>
       <c r="J28" s="81">
-        <v>4.41</v>
+        <v>3.72</v>
       </c>
       <c r="K28" s="81">
         <f t="shared" si="1"/>
-        <v>4.41</v>
-      </c>
-      <c r="L28" s="84" t="s">
-        <v>347</v>
+        <v>3.72</v>
+      </c>
+      <c r="L28" s="85" t="s">
+        <v>351</v>
       </c>
       <c r="M28" s="34"/>
-    </row>
-    <row r="29" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+    </row>
+    <row r="29" spans="1:27" ht="14.25" customHeight="1">
       <c r="A29" s="79" t="s">
-        <v>356</v>
-      </c>
-      <c r="B29" s="99">
-        <v>50</v>
-      </c>
-      <c r="C29" s="99">
-        <v>4</v>
+        <v>350</v>
+      </c>
+      <c r="B29" s="97">
+        <v>100</v>
+      </c>
+      <c r="C29" s="97">
+        <v>40</v>
       </c>
       <c r="D29" s="98">
-        <v>50</v>
-      </c>
-      <c r="E29" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F29" s="99" t="s">
-        <v>133</v>
+      <c r="E29" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="F29" s="97" t="s">
+        <v>121</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>134</v>
+        <v>122</v>
       </c>
       <c r="H29" s="97" t="s">
         <v>103</v>
@@ -3459,38 +3443,41 @@
         <v>340</v>
       </c>
       <c r="J29" s="81">
-        <v>5.42</v>
+        <v>3.72</v>
       </c>
       <c r="K29" s="81">
         <f t="shared" si="1"/>
-        <v>5.42</v>
-      </c>
-      <c r="L29" s="84" t="s">
-        <v>355</v>
+        <v>3.72</v>
+      </c>
+      <c r="L29" s="85" t="s">
+        <v>348</v>
       </c>
       <c r="M29" s="34"/>
-    </row>
-    <row r="30" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+    </row>
+    <row r="30" spans="1:27" ht="14.25" customHeight="1">
       <c r="A30" s="79" t="s">
-        <v>358</v>
-      </c>
-      <c r="B30" s="97">
-        <v>50</v>
-      </c>
-      <c r="C30" s="97">
-        <v>20</v>
+        <v>353</v>
+      </c>
+      <c r="B30" s="99">
+        <v>100</v>
+      </c>
+      <c r="C30" s="99">
+        <v>4</v>
       </c>
       <c r="D30" s="98">
-        <v>50</v>
-      </c>
-      <c r="E30" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="F30" s="97" t="s">
-        <v>137</v>
-      </c>
-      <c r="G30" s="101" t="s">
-        <v>138</v>
+      <c r="E30" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="F30" s="99" t="s">
+        <v>126</v>
+      </c>
+      <c r="G30" s="103" t="s">
+        <v>127</v>
       </c>
       <c r="H30" s="97" t="s">
         <v>103</v>
@@ -3499,38 +3486,38 @@
         <v>340</v>
       </c>
       <c r="J30" s="81">
-        <v>6.51</v>
+        <v>4.07</v>
       </c>
       <c r="K30" s="81">
         <f t="shared" si="1"/>
-        <v>6.51</v>
-      </c>
-      <c r="L30" s="85" t="s">
-        <v>357</v>
+        <v>4.07</v>
+      </c>
+      <c r="L30" s="84" t="s">
+        <v>352</v>
       </c>
       <c r="M30" s="34"/>
     </row>
-    <row r="31" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="31" spans="1:27" ht="14.25" customHeight="1">
       <c r="A31" s="79" t="s">
-        <v>359</v>
-      </c>
-      <c r="B31" s="97">
+        <v>354</v>
+      </c>
+      <c r="B31" s="99">
         <v>100</v>
       </c>
-      <c r="C31" s="97">
-        <v>72</v>
+      <c r="C31" s="99">
+        <v>16</v>
       </c>
       <c r="D31" s="98">
         <v>100</v>
       </c>
-      <c r="E31" s="97" t="s">
+      <c r="E31" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F31" s="97" t="s">
-        <v>140</v>
-      </c>
-      <c r="G31" s="101" t="s">
-        <v>141</v>
+      <c r="F31" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="G31" s="103" t="s">
+        <v>130</v>
       </c>
       <c r="H31" s="97" t="s">
         <v>103</v>
@@ -3539,38 +3526,38 @@
         <v>340</v>
       </c>
       <c r="J31" s="81">
-        <v>2.87</v>
+        <v>4.41</v>
       </c>
       <c r="K31" s="81">
         <f t="shared" si="1"/>
-        <v>2.87</v>
-      </c>
-      <c r="L31" s="85" t="s">
-        <v>142</v>
+        <v>4.41</v>
+      </c>
+      <c r="L31" s="84" t="s">
+        <v>347</v>
       </c>
       <c r="M31" s="34"/>
     </row>
-    <row r="32" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="32" spans="1:27" ht="14.25" customHeight="1">
       <c r="A32" s="79" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="B32" s="99">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="C32" s="99">
         <v>4</v>
       </c>
       <c r="D32" s="98">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="E32" s="99" t="s">
         <v>100</v>
       </c>
       <c r="F32" s="99" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="G32" s="103" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="H32" s="97" t="s">
         <v>103</v>
@@ -3579,186 +3566,186 @@
         <v>340</v>
       </c>
       <c r="J32" s="81">
-        <v>7.7</v>
+        <v>5.42</v>
       </c>
       <c r="K32" s="81">
         <f t="shared" si="1"/>
-        <v>7.7</v>
+        <v>5.42</v>
       </c>
       <c r="L32" s="84" t="s">
-        <v>363</v>
+        <v>355</v>
       </c>
       <c r="M32" s="34"/>
     </row>
     <row r="33" spans="1:27" ht="14.25" customHeight="1">
       <c r="A33" s="79" t="s">
-        <v>145</v>
+        <v>358</v>
       </c>
       <c r="B33" s="97">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="C33" s="97">
-        <v>1</v>
+        <v>20</v>
       </c>
       <c r="D33" s="98">
-        <v>1</v>
+        <v>50</v>
       </c>
       <c r="E33" s="97" t="s">
         <v>100</v>
       </c>
       <c r="F33" s="97" t="s">
-        <v>146</v>
+        <v>137</v>
       </c>
       <c r="G33" s="101" t="s">
-        <v>382</v>
+        <v>138</v>
       </c>
       <c r="H33" s="97" t="s">
-        <v>65</v>
+        <v>103</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>330</v>
+        <v>340</v>
       </c>
       <c r="J33" s="81">
-        <v>23.16</v>
+        <v>6.51</v>
       </c>
       <c r="K33" s="81">
         <f t="shared" si="1"/>
-        <v>23.16</v>
-      </c>
-      <c r="L33" s="169" t="s">
-        <v>383</v>
+        <v>6.51</v>
+      </c>
+      <c r="L33" s="85" t="s">
+        <v>357</v>
       </c>
       <c r="M33" s="34"/>
     </row>
     <row r="34" spans="1:27" ht="14.25" customHeight="1">
       <c r="A34" s="79" t="s">
-        <v>147</v>
+        <v>359</v>
       </c>
       <c r="B34" s="97">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="C34" s="97">
-        <v>11</v>
+        <v>72</v>
       </c>
       <c r="D34" s="98">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E34" s="97" t="s">
         <v>100</v>
       </c>
       <c r="F34" s="97" t="s">
-        <v>148</v>
+        <v>140</v>
       </c>
       <c r="G34" s="101" t="s">
-        <v>149</v>
-      </c>
-      <c r="H34" s="118" t="s">
-        <v>65</v>
-      </c>
-      <c r="I34" s="119" t="s">
-        <v>333</v>
+        <v>141</v>
+      </c>
+      <c r="H34" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="I34" s="80" t="s">
+        <v>340</v>
       </c>
       <c r="J34" s="81">
-        <v>2.2599999999999998</v>
+        <v>2.87</v>
       </c>
       <c r="K34" s="81">
         <f t="shared" si="1"/>
-        <v>24.86</v>
-      </c>
-      <c r="L34" s="86" t="s">
-        <v>150</v>
+        <v>2.87</v>
+      </c>
+      <c r="L34" s="85" t="s">
+        <v>142</v>
       </c>
       <c r="M34" s="34"/>
     </row>
     <row r="35" spans="1:27" ht="14.25" customHeight="1">
       <c r="A35" s="79" t="s">
-        <v>151</v>
-      </c>
-      <c r="B35" s="97">
-        <v>1</v>
-      </c>
-      <c r="C35" s="97">
-        <v>1</v>
+        <v>360</v>
+      </c>
+      <c r="B35" s="99">
+        <v>100</v>
+      </c>
+      <c r="C35" s="99">
+        <v>4</v>
       </c>
       <c r="D35" s="98">
-        <v>1</v>
-      </c>
-      <c r="E35" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="F35" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="G35" s="101" t="s">
-        <v>153</v>
-      </c>
-      <c r="H35" s="118" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" s="119" t="s">
-        <v>330</v>
+      <c r="E35" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="F35" s="99" t="s">
+        <v>143</v>
+      </c>
+      <c r="G35" s="103" t="s">
+        <v>144</v>
+      </c>
+      <c r="H35" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="I35" s="80" t="s">
+        <v>340</v>
       </c>
       <c r="J35" s="81">
-        <v>4.92</v>
+        <v>7.7</v>
       </c>
       <c r="K35" s="81">
         <f t="shared" si="1"/>
-        <v>4.92</v>
-      </c>
-      <c r="L35" s="86" t="s">
-        <v>154</v>
+        <v>7.7</v>
+      </c>
+      <c r="L35" s="84" t="s">
+        <v>363</v>
       </c>
       <c r="M35" s="34"/>
     </row>
-    <row r="36" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="36" spans="1:27" ht="14.25" customHeight="1">
       <c r="A36" s="79" t="s">
-        <v>155</v>
-      </c>
-      <c r="B36" s="99">
-        <v>68</v>
-      </c>
-      <c r="C36" s="99">
-        <v>60</v>
+        <v>145</v>
+      </c>
+      <c r="B36" s="97">
+        <v>1</v>
+      </c>
+      <c r="C36" s="97">
+        <v>1</v>
       </c>
       <c r="D36" s="98">
         <v>1</v>
       </c>
-      <c r="E36" s="99" t="s">
+      <c r="E36" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="F36" s="99" t="s">
-        <v>156</v>
-      </c>
-      <c r="G36" s="103" t="s">
-        <v>157</v>
+      <c r="F36" s="97" t="s">
+        <v>146</v>
+      </c>
+      <c r="G36" s="101" t="s">
+        <v>382</v>
       </c>
       <c r="H36" s="97" t="s">
-        <v>103</v>
+        <v>65</v>
       </c>
       <c r="I36" s="80" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
       <c r="J36" s="81">
-        <v>0.23</v>
+        <v>23.16</v>
       </c>
       <c r="K36" s="81">
         <f t="shared" si="1"/>
-        <v>15.64</v>
-      </c>
-      <c r="L36" s="84" t="s">
-        <v>158</v>
+        <v>23.16</v>
+      </c>
+      <c r="L36" s="168" t="s">
+        <v>383</v>
       </c>
       <c r="M36" s="34"/>
     </row>
-    <row r="37" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="37" spans="1:27" ht="14.25" customHeight="1">
       <c r="A37" s="79" t="s">
-        <v>159</v>
+        <v>147</v>
       </c>
       <c r="B37" s="97">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C37" s="97">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="D37" s="98">
         <v>1</v>
@@ -3767,263 +3754,254 @@
         <v>100</v>
       </c>
       <c r="F37" s="97" t="s">
-        <v>160</v>
-      </c>
-      <c r="G37" s="104" t="s">
-        <v>161</v>
-      </c>
-      <c r="H37" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="I37" s="80" t="s">
-        <v>340</v>
+        <v>148</v>
+      </c>
+      <c r="G37" s="101" t="s">
+        <v>149</v>
+      </c>
+      <c r="H37" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="I37" s="119" t="s">
+        <v>333</v>
       </c>
       <c r="J37" s="81">
-        <v>0.3</v>
+        <v>2.2599999999999998</v>
       </c>
       <c r="K37" s="81">
         <f t="shared" si="1"/>
+        <v>24.86</v>
+      </c>
+      <c r="L37" s="86" t="s">
+        <v>150</v>
+      </c>
+      <c r="M37" s="34"/>
+    </row>
+    <row r="38" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A38" s="79" t="s">
+        <v>151</v>
+      </c>
+      <c r="B38" s="97">
+        <v>1</v>
+      </c>
+      <c r="C38" s="97">
+        <v>1</v>
+      </c>
+      <c r="D38" s="98">
+        <v>1</v>
+      </c>
+      <c r="E38" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="F38" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="G38" s="101" t="s">
+        <v>153</v>
+      </c>
+      <c r="H38" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="I38" s="119" t="s">
+        <v>330</v>
+      </c>
+      <c r="J38" s="81">
+        <v>4.92</v>
+      </c>
+      <c r="K38" s="81">
+        <f t="shared" si="1"/>
+        <v>4.92</v>
+      </c>
+      <c r="L38" s="86" t="s">
+        <v>154</v>
+      </c>
+      <c r="M38" s="34"/>
+    </row>
+    <row r="39" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A39" s="79" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="99">
+        <v>68</v>
+      </c>
+      <c r="C39" s="99">
+        <v>60</v>
+      </c>
+      <c r="D39" s="98">
+        <v>1</v>
+      </c>
+      <c r="E39" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="F39" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="G39" s="103" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="I39" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="J39" s="81">
+        <v>0.23</v>
+      </c>
+      <c r="K39" s="81">
+        <f t="shared" si="1"/>
+        <v>15.64</v>
+      </c>
+      <c r="L39" s="84" t="s">
+        <v>158</v>
+      </c>
+      <c r="M39" s="34"/>
+    </row>
+    <row r="40" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A40" s="79" t="s">
+        <v>159</v>
+      </c>
+      <c r="B40" s="97">
+        <v>4</v>
+      </c>
+      <c r="C40" s="97">
+        <v>4</v>
+      </c>
+      <c r="D40" s="98">
+        <v>1</v>
+      </c>
+      <c r="E40" s="97" t="s">
+        <v>100</v>
+      </c>
+      <c r="F40" s="97" t="s">
+        <v>160</v>
+      </c>
+      <c r="G40" s="104" t="s">
+        <v>161</v>
+      </c>
+      <c r="H40" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="I40" s="80" t="s">
+        <v>340</v>
+      </c>
+      <c r="J40" s="81">
+        <v>0.3</v>
+      </c>
+      <c r="K40" s="81">
+        <f t="shared" si="1"/>
         <v>1.2</v>
       </c>
-      <c r="L37" s="86" t="str">
+      <c r="L40" s="86" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/#93330A443","https://www.mcmaster.com/#93330A443")</f>
         <v>https://www.mcmaster.com/#93330A443</v>
       </c>
-      <c r="M37" s="34"/>
-    </row>
-    <row r="38" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A38" s="79" t="s">
+      <c r="M40" s="34"/>
+    </row>
+    <row r="41" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A41" s="79" t="s">
         <v>162</v>
       </c>
-      <c r="B38" s="99">
+      <c r="B41" s="99">
         <v>10</v>
       </c>
-      <c r="C38" s="99">
+      <c r="C41" s="99">
         <v>8</v>
       </c>
-      <c r="D38" s="98">
-        <v>1</v>
-      </c>
-      <c r="E38" s="99" t="s">
+      <c r="D41" s="98">
+        <v>1</v>
+      </c>
+      <c r="E41" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F38" s="99" t="s">
+      <c r="F41" s="99" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="103" t="s">
+      <c r="G41" s="103" t="s">
         <v>164</v>
       </c>
-      <c r="H38" s="97" t="s">
+      <c r="H41" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="I38" s="80" t="s">
+      <c r="I41" s="80" t="s">
         <v>340</v>
       </c>
-      <c r="J38" s="81">
+      <c r="J41" s="81">
         <v>0.23</v>
       </c>
-      <c r="K38" s="81">
+      <c r="K41" s="81">
         <f t="shared" si="1"/>
         <v>2.3000000000000003</v>
       </c>
-      <c r="L38" s="84" t="s">
+      <c r="L41" s="84" t="s">
         <v>165</v>
       </c>
-      <c r="M38" s="34"/>
-    </row>
-    <row r="39" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A39" s="79" t="s">
+      <c r="M41" s="34"/>
+    </row>
+    <row r="42" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A42" s="79" t="s">
         <v>166</v>
       </c>
-      <c r="B39" s="99">
+      <c r="B42" s="99">
         <v>15</v>
       </c>
-      <c r="C39" s="99">
+      <c r="C42" s="99">
         <v>12</v>
       </c>
-      <c r="D39" s="98">
-        <v>1</v>
-      </c>
-      <c r="E39" s="99" t="s">
+      <c r="D42" s="98">
+        <v>1</v>
+      </c>
+      <c r="E42" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F39" s="99" t="s">
+      <c r="F42" s="99" t="s">
         <v>167</v>
       </c>
-      <c r="G39" s="103" t="s">
+      <c r="G42" s="103" t="s">
         <v>168</v>
       </c>
-      <c r="H39" s="97" t="s">
+      <c r="H42" s="97" t="s">
         <v>103</v>
       </c>
-      <c r="I39" s="80" t="s">
+      <c r="I42" s="80" t="s">
         <v>340</v>
       </c>
-      <c r="J39" s="81">
+      <c r="J42" s="81">
         <v>0.27</v>
       </c>
-      <c r="K39" s="81">
+      <c r="K42" s="81">
         <f t="shared" si="1"/>
         <v>4.0500000000000007</v>
       </c>
-      <c r="L39" s="84" t="s">
+      <c r="L42" s="84" t="s">
         <v>169</v>
-      </c>
-      <c r="M39" s="34"/>
-      <c r="Y39" s="34"/>
-      <c r="Z39" s="34"/>
-      <c r="AA39" s="34"/>
-    </row>
-    <row r="40" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A40" s="79" t="s">
-        <v>170</v>
-      </c>
-      <c r="B40" s="97">
-        <v>10</v>
-      </c>
-      <c r="C40" s="97">
-        <v>8</v>
-      </c>
-      <c r="D40" s="98">
-        <v>1</v>
-      </c>
-      <c r="E40" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="F40" s="97" t="s">
-        <v>171</v>
-      </c>
-      <c r="G40" s="103" t="s">
-        <v>172</v>
-      </c>
-      <c r="H40" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="I40" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="J40" s="81">
-        <v>0.37</v>
-      </c>
-      <c r="K40" s="81">
-        <f t="shared" si="1"/>
-        <v>3.7</v>
-      </c>
-      <c r="L40" s="85" t="s">
-        <v>173</v>
-      </c>
-      <c r="M40" s="34"/>
-      <c r="Y40" s="34"/>
-      <c r="Z40" s="34"/>
-      <c r="AA40" s="34"/>
-    </row>
-    <row r="41" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A41" s="79" t="s">
-        <v>174</v>
-      </c>
-      <c r="B41" s="99">
-        <v>10</v>
-      </c>
-      <c r="C41" s="99">
-        <v>6</v>
-      </c>
-      <c r="D41" s="98">
-        <v>1</v>
-      </c>
-      <c r="E41" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="F41" s="99" t="s">
-        <v>175</v>
-      </c>
-      <c r="G41" s="105" t="s">
-        <v>176</v>
-      </c>
-      <c r="H41" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="I41" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="J41" s="81">
-        <v>0.48</v>
-      </c>
-      <c r="K41" s="81">
-        <f t="shared" si="1"/>
-        <v>4.8</v>
-      </c>
-      <c r="L41" s="86" t="s">
-        <v>177</v>
-      </c>
-      <c r="M41" s="34"/>
-      <c r="Y41" s="34"/>
-      <c r="Z41" s="34"/>
-      <c r="AA41" s="34"/>
-    </row>
-    <row r="42" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A42" s="79" t="s">
-        <v>178</v>
-      </c>
-      <c r="B42" s="97">
-        <v>100</v>
-      </c>
-      <c r="C42" s="97">
-        <v>28</v>
-      </c>
-      <c r="D42" s="98">
-        <v>100</v>
-      </c>
-      <c r="E42" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="F42" s="97" t="s">
-        <v>179</v>
-      </c>
-      <c r="G42" s="103" t="s">
-        <v>180</v>
-      </c>
-      <c r="H42" s="97" t="s">
-        <v>103</v>
-      </c>
-      <c r="I42" s="80" t="s">
-        <v>340</v>
-      </c>
-      <c r="J42" s="81">
-        <v>1.17</v>
-      </c>
-      <c r="K42" s="81">
-        <f t="shared" si="1"/>
-        <v>1.17</v>
-      </c>
-      <c r="L42" s="85" t="s">
-        <v>181</v>
       </c>
       <c r="M42" s="34"/>
       <c r="Y42" s="34"/>
       <c r="Z42" s="34"/>
       <c r="AA42" s="34"/>
     </row>
-    <row r="43" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="43" spans="1:27" ht="14.25" customHeight="1">
       <c r="A43" s="79" t="s">
-        <v>182</v>
-      </c>
-      <c r="B43" s="99">
+        <v>170</v>
+      </c>
+      <c r="B43" s="97">
+        <v>10</v>
+      </c>
+      <c r="C43" s="97">
+        <v>8</v>
+      </c>
+      <c r="D43" s="98">
+        <v>1</v>
+      </c>
+      <c r="E43" s="97" t="s">
         <v>100</v>
       </c>
-      <c r="C43" s="99">
-        <v>24</v>
-      </c>
-      <c r="D43" s="98">
-        <v>100</v>
-      </c>
-      <c r="E43" s="99" t="s">
-        <v>100</v>
-      </c>
-      <c r="F43" s="99" t="s">
-        <v>183</v>
+      <c r="F43" s="97" t="s">
+        <v>171</v>
       </c>
       <c r="G43" s="103" t="s">
-        <v>184</v>
+        <v>172</v>
       </c>
       <c r="H43" s="97" t="s">
         <v>103</v>
@@ -4032,38 +4010,41 @@
         <v>340</v>
       </c>
       <c r="J43" s="81">
-        <v>1.4</v>
+        <v>0.37</v>
       </c>
       <c r="K43" s="81">
         <f t="shared" si="1"/>
-        <v>1.4</v>
-      </c>
-      <c r="L43" s="88" t="s">
-        <v>185</v>
+        <v>3.7</v>
+      </c>
+      <c r="L43" s="85" t="s">
+        <v>173</v>
       </c>
       <c r="M43" s="34"/>
-    </row>
-    <row r="44" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+      <c r="Y43" s="34"/>
+      <c r="Z43" s="34"/>
+      <c r="AA43" s="34"/>
+    </row>
+    <row r="44" spans="1:27" ht="14.25" customHeight="1">
       <c r="A44" s="79" t="s">
-        <v>186</v>
-      </c>
-      <c r="B44" s="97">
-        <v>20</v>
-      </c>
-      <c r="C44" s="97">
-        <v>15</v>
+        <v>174</v>
+      </c>
+      <c r="B44" s="99">
+        <v>10</v>
+      </c>
+      <c r="C44" s="99">
+        <v>6</v>
       </c>
       <c r="D44" s="98">
-        <v>5</v>
-      </c>
-      <c r="E44" s="97" t="s">
+        <v>1</v>
+      </c>
+      <c r="E44" s="99" t="s">
         <v>100</v>
       </c>
-      <c r="F44" s="97" t="s">
-        <v>187</v>
-      </c>
-      <c r="G44" s="101" t="s">
-        <v>188</v>
+      <c r="F44" s="99" t="s">
+        <v>175</v>
+      </c>
+      <c r="G44" s="105" t="s">
+        <v>176</v>
       </c>
       <c r="H44" s="97" t="s">
         <v>103</v>
@@ -4072,140 +4053,152 @@
         <v>340</v>
       </c>
       <c r="J44" s="81">
-        <v>2.4700000000000002</v>
+        <v>0.48</v>
       </c>
       <c r="K44" s="81">
         <f t="shared" si="1"/>
-        <v>9.8800000000000008</v>
-      </c>
-      <c r="L44" s="85" t="s">
-        <v>189</v>
+        <v>4.8</v>
+      </c>
+      <c r="L44" s="86" t="s">
+        <v>177</v>
       </c>
       <c r="M44" s="34"/>
-    </row>
-    <row r="45" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+      <c r="Y44" s="34"/>
+      <c r="Z44" s="34"/>
+      <c r="AA44" s="34"/>
+    </row>
+    <row r="45" spans="1:27" ht="14.25" customHeight="1">
       <c r="A45" s="79" t="s">
-        <v>194</v>
+        <v>178</v>
       </c>
       <c r="B45" s="97">
-        <v>5</v>
+        <v>100</v>
       </c>
       <c r="C45" s="97">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="D45" s="98">
-        <v>1</v>
+        <v>100</v>
       </c>
       <c r="E45" s="97" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F45" s="97" t="s">
-        <v>195</v>
-      </c>
-      <c r="G45" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="H45" s="118" t="s">
-        <v>13</v>
-      </c>
-      <c r="I45" s="119"/>
+        <v>179</v>
+      </c>
+      <c r="G45" s="103" t="s">
+        <v>180</v>
+      </c>
+      <c r="H45" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="I45" s="80" t="s">
+        <v>340</v>
+      </c>
       <c r="J45" s="81">
-        <v>69.95</v>
+        <v>1.17</v>
       </c>
       <c r="K45" s="81">
         <f t="shared" si="1"/>
-        <v>349.75</v>
-      </c>
-      <c r="L45" s="86" t="s">
-        <v>194</v>
+        <v>1.17</v>
+      </c>
+      <c r="L45" s="85" t="s">
+        <v>181</v>
       </c>
       <c r="M45" s="34"/>
-    </row>
-    <row r="46" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+      <c r="Y45" s="34"/>
+      <c r="Z45" s="34"/>
+      <c r="AA45" s="34"/>
+    </row>
+    <row r="46" spans="1:27" ht="14.25" customHeight="1">
       <c r="A46" s="79" t="s">
-        <v>196</v>
-      </c>
-      <c r="B46" s="97">
-        <v>1</v>
-      </c>
-      <c r="C46" s="97">
-        <v>1</v>
+        <v>182</v>
+      </c>
+      <c r="B46" s="99">
+        <v>100</v>
+      </c>
+      <c r="C46" s="99">
+        <v>24</v>
       </c>
       <c r="D46" s="98">
-        <v>1</v>
-      </c>
-      <c r="E46" s="97" t="s">
-        <v>124</v>
-      </c>
-      <c r="F46" s="97" t="s">
-        <v>197</v>
-      </c>
-      <c r="G46" s="101" t="s">
-        <v>23</v>
-      </c>
-      <c r="H46" s="118" t="s">
-        <v>13</v>
-      </c>
-      <c r="I46" s="119"/>
+        <v>100</v>
+      </c>
+      <c r="E46" s="99" t="s">
+        <v>100</v>
+      </c>
+      <c r="F46" s="99" t="s">
+        <v>183</v>
+      </c>
+      <c r="G46" s="103" t="s">
+        <v>184</v>
+      </c>
+      <c r="H46" s="97" t="s">
+        <v>103</v>
+      </c>
+      <c r="I46" s="80" t="s">
+        <v>340</v>
+      </c>
       <c r="J46" s="81">
-        <v>14.95</v>
+        <v>1.4</v>
       </c>
       <c r="K46" s="81">
         <f t="shared" si="1"/>
-        <v>14.95</v>
-      </c>
-      <c r="L46" s="86" t="s">
-        <v>196</v>
+        <v>1.4</v>
+      </c>
+      <c r="L46" s="88" t="s">
+        <v>185</v>
       </c>
       <c r="M46" s="34"/>
     </row>
-    <row r="47" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="47" spans="1:27" ht="14.25" customHeight="1">
       <c r="A47" s="79" t="s">
-        <v>198</v>
+        <v>186</v>
       </c>
       <c r="B47" s="97">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="C47" s="97">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D47" s="98">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="E47" s="97" t="s">
-        <v>124</v>
+        <v>100</v>
       </c>
       <c r="F47" s="97" t="s">
-        <v>125</v>
+        <v>187</v>
       </c>
       <c r="G47" s="101" t="s">
-        <v>23</v>
+        <v>188</v>
       </c>
       <c r="H47" s="97" t="s">
-        <v>13</v>
-      </c>
-      <c r="I47" s="80"/>
+        <v>103</v>
+      </c>
+      <c r="I47" s="80" t="s">
+        <v>340</v>
+      </c>
       <c r="J47" s="81">
-        <v>34.950000000000003</v>
+        <v>2.4700000000000002</v>
       </c>
       <c r="K47" s="81">
         <f t="shared" si="1"/>
-        <v>209.70000000000002</v>
-      </c>
-      <c r="L47" s="86" t="s">
-        <v>199</v>
+        <v>9.8800000000000008</v>
+      </c>
+      <c r="L47" s="85" t="s">
+        <v>189</v>
       </c>
       <c r="M47" s="34"/>
     </row>
-    <row r="48" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="48" spans="1:27" ht="14.25" customHeight="1">
       <c r="A48" s="79" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="B48" s="97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C48" s="97">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D48" s="98">
         <v>1</v>
@@ -4214,7 +4207,7 @@
         <v>124</v>
       </c>
       <c r="F48" s="97" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="G48" s="101" t="s">
         <v>23</v>
@@ -4224,146 +4217,140 @@
       </c>
       <c r="I48" s="119"/>
       <c r="J48" s="81">
-        <v>19.95</v>
+        <v>69.95</v>
       </c>
       <c r="K48" s="81">
         <f t="shared" si="1"/>
-        <v>79.8</v>
+        <v>349.75</v>
       </c>
       <c r="L48" s="86" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="M48" s="34"/>
     </row>
     <row r="49" spans="1:13" ht="14.25" customHeight="1">
       <c r="A49" s="79" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B49" s="97">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C49" s="97">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D49" s="98">
         <v>1</v>
       </c>
       <c r="E49" s="97" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="F49" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="G49" s="101">
-        <v>585440</v>
+        <v>197</v>
+      </c>
+      <c r="G49" s="101" t="s">
+        <v>23</v>
       </c>
       <c r="H49" s="118" t="s">
-        <v>65</v>
-      </c>
-      <c r="I49" s="119" t="s">
-        <v>335</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I49" s="119"/>
       <c r="J49" s="81">
-        <v>2.99</v>
+        <v>14.95</v>
       </c>
       <c r="K49" s="81">
         <f t="shared" si="1"/>
-        <v>17.940000000000001</v>
+        <v>14.95</v>
       </c>
       <c r="L49" s="86" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="M49" s="34"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1">
       <c r="A50" s="79" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="B50" s="97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C50" s="97">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D50" s="98">
         <v>1</v>
       </c>
       <c r="E50" s="97" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="F50" s="97" t="s">
-        <v>207</v>
-      </c>
-      <c r="G50" s="101">
-        <v>535110</v>
-      </c>
-      <c r="H50" s="118" t="s">
-        <v>65</v>
-      </c>
-      <c r="I50" s="119" t="s">
-        <v>332</v>
-      </c>
+        <v>125</v>
+      </c>
+      <c r="G50" s="101" t="s">
+        <v>23</v>
+      </c>
+      <c r="H50" s="97" t="s">
+        <v>13</v>
+      </c>
+      <c r="I50" s="80"/>
       <c r="J50" s="81">
-        <v>5.99</v>
+        <v>34.950000000000003</v>
       </c>
       <c r="K50" s="81">
         <f t="shared" si="1"/>
-        <v>47.92</v>
+        <v>209.70000000000002</v>
       </c>
       <c r="L50" s="86" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="M50" s="34"/>
     </row>
     <row r="51" spans="1:13" ht="14.25" customHeight="1">
       <c r="A51" s="79" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="B51" s="97">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C51" s="97">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D51" s="98">
         <v>1</v>
       </c>
       <c r="E51" s="97" t="s">
-        <v>204</v>
+        <v>124</v>
       </c>
       <c r="F51" s="97" t="s">
-        <v>210</v>
-      </c>
-      <c r="G51" s="101">
-        <v>535118</v>
+        <v>201</v>
+      </c>
+      <c r="G51" s="101" t="s">
+        <v>23</v>
       </c>
       <c r="H51" s="118" t="s">
-        <v>65</v>
-      </c>
-      <c r="I51" s="119" t="s">
-        <v>335</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="I51" s="119"/>
       <c r="J51" s="81">
-        <v>6.99</v>
+        <v>19.95</v>
       </c>
       <c r="K51" s="81">
         <f t="shared" si="1"/>
-        <v>41.94</v>
+        <v>79.8</v>
       </c>
       <c r="L51" s="86" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
       <c r="M51" s="34"/>
     </row>
     <row r="52" spans="1:13" ht="14.25" customHeight="1">
       <c r="A52" s="79" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B52" s="97">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C52" s="97">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D52" s="98">
         <v>1</v>
@@ -4372,38 +4359,38 @@
         <v>204</v>
       </c>
       <c r="F52" s="97" t="s">
-        <v>213</v>
-      </c>
-      <c r="G52" s="106">
-        <v>545588</v>
+        <v>205</v>
+      </c>
+      <c r="G52" s="101">
+        <v>585440</v>
       </c>
       <c r="H52" s="118" t="s">
         <v>65</v>
       </c>
       <c r="I52" s="119" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J52" s="81">
-        <v>5.99</v>
+        <v>2.99</v>
       </c>
       <c r="K52" s="81">
         <f t="shared" si="1"/>
-        <v>23.96</v>
+        <v>17.940000000000001</v>
       </c>
       <c r="L52" s="86" t="s">
-        <v>214</v>
+        <v>203</v>
       </c>
       <c r="M52" s="34"/>
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1">
       <c r="A53" s="79" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B53" s="97">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C53" s="97">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="D53" s="98">
         <v>1</v>
@@ -4412,32 +4399,32 @@
         <v>204</v>
       </c>
       <c r="F53" s="97" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="G53" s="101">
-        <v>545600</v>
+        <v>535110</v>
       </c>
       <c r="H53" s="118" t="s">
         <v>65</v>
       </c>
       <c r="I53" s="119" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J53" s="81">
         <v>5.99</v>
       </c>
       <c r="K53" s="81">
         <f t="shared" si="1"/>
-        <v>17.97</v>
+        <v>47.92</v>
       </c>
       <c r="L53" s="86" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
       <c r="M53" s="34"/>
     </row>
     <row r="54" spans="1:13" ht="14.25" customHeight="1">
       <c r="A54" s="79" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="B54" s="97">
         <v>6</v>
@@ -4452,32 +4439,32 @@
         <v>204</v>
       </c>
       <c r="F54" s="97" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="G54" s="101">
-        <v>545608</v>
+        <v>535118</v>
       </c>
       <c r="H54" s="118" t="s">
         <v>65</v>
       </c>
       <c r="I54" s="119" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="J54" s="81">
-        <v>5.99</v>
+        <v>6.99</v>
       </c>
       <c r="K54" s="81">
         <f t="shared" si="1"/>
-        <v>35.94</v>
+        <v>41.94</v>
       </c>
       <c r="L54" s="86" t="s">
-        <v>218</v>
+        <v>211</v>
       </c>
       <c r="M54" s="34"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1">
       <c r="A55" s="79" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="B55" s="97">
         <v>4</v>
@@ -4492,1131 +4479,1139 @@
         <v>204</v>
       </c>
       <c r="F55" s="97" t="s">
-        <v>221</v>
-      </c>
-      <c r="G55" s="101">
-        <v>634066</v>
+        <v>213</v>
+      </c>
+      <c r="G55" s="106">
+        <v>545588</v>
       </c>
       <c r="H55" s="118" t="s">
         <v>65</v>
       </c>
       <c r="I55" s="119" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="J55" s="81">
-        <v>1.49</v>
+        <v>5.99</v>
       </c>
       <c r="K55" s="81">
         <f t="shared" si="1"/>
-        <v>5.96</v>
+        <v>23.96</v>
       </c>
       <c r="L55" s="86" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="M55" s="34"/>
     </row>
     <row r="56" spans="1:13" ht="14.25" customHeight="1">
       <c r="A56" s="79" t="s">
-        <v>223</v>
-      </c>
-      <c r="B56" s="99">
-        <v>16</v>
-      </c>
-      <c r="C56" s="99"/>
+        <v>215</v>
+      </c>
+      <c r="B56" s="97">
+        <v>3</v>
+      </c>
+      <c r="C56" s="97">
+        <v>3</v>
+      </c>
       <c r="D56" s="98">
-        <v>2</v>
-      </c>
-      <c r="E56" s="99" t="s">
+        <v>1</v>
+      </c>
+      <c r="E56" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F56" s="99" t="s">
-        <v>224</v>
-      </c>
-      <c r="G56" s="105">
-        <v>585470</v>
-      </c>
-      <c r="H56" s="99" t="s">
+      <c r="F56" s="97" t="s">
+        <v>216</v>
+      </c>
+      <c r="G56" s="101">
+        <v>545600</v>
+      </c>
+      <c r="H56" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I56" s="83" t="s">
+      <c r="I56" s="119" t="s">
         <v>334</v>
       </c>
       <c r="J56" s="81">
         <v>5.99</v>
       </c>
-      <c r="K56" s="99">
+      <c r="K56" s="81">
+        <f t="shared" si="1"/>
+        <v>17.97</v>
+      </c>
+      <c r="L56" s="86" t="s">
+        <v>217</v>
+      </c>
+      <c r="M56" s="34"/>
+    </row>
+    <row r="57" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A57" s="79" t="s">
+        <v>218</v>
+      </c>
+      <c r="B57" s="97">
+        <v>6</v>
+      </c>
+      <c r="C57" s="97">
+        <v>6</v>
+      </c>
+      <c r="D57" s="98">
+        <v>1</v>
+      </c>
+      <c r="E57" s="97" t="s">
+        <v>204</v>
+      </c>
+      <c r="F57" s="97" t="s">
+        <v>219</v>
+      </c>
+      <c r="G57" s="101">
+        <v>545608</v>
+      </c>
+      <c r="H57" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="I57" s="119" t="s">
+        <v>331</v>
+      </c>
+      <c r="J57" s="81">
+        <v>5.99</v>
+      </c>
+      <c r="K57" s="81">
+        <f t="shared" si="1"/>
+        <v>35.94</v>
+      </c>
+      <c r="L57" s="86" t="s">
+        <v>218</v>
+      </c>
+      <c r="M57" s="34"/>
+    </row>
+    <row r="58" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A58" s="79" t="s">
+        <v>220</v>
+      </c>
+      <c r="B58" s="97">
+        <v>4</v>
+      </c>
+      <c r="C58" s="97">
+        <v>4</v>
+      </c>
+      <c r="D58" s="98">
+        <v>1</v>
+      </c>
+      <c r="E58" s="97" t="s">
+        <v>204</v>
+      </c>
+      <c r="F58" s="97" t="s">
+        <v>221</v>
+      </c>
+      <c r="G58" s="101">
+        <v>634066</v>
+      </c>
+      <c r="H58" s="118" t="s">
+        <v>65</v>
+      </c>
+      <c r="I58" s="119" t="s">
+        <v>332</v>
+      </c>
+      <c r="J58" s="81">
+        <v>1.49</v>
+      </c>
+      <c r="K58" s="81">
+        <f t="shared" si="1"/>
+        <v>5.96</v>
+      </c>
+      <c r="L58" s="86" t="s">
+        <v>222</v>
+      </c>
+      <c r="M58" s="34"/>
+    </row>
+    <row r="59" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A59" s="79" t="s">
+        <v>223</v>
+      </c>
+      <c r="B59" s="99">
+        <v>16</v>
+      </c>
+      <c r="C59" s="99"/>
+      <c r="D59" s="98">
+        <v>2</v>
+      </c>
+      <c r="E59" s="99" t="s">
+        <v>204</v>
+      </c>
+      <c r="F59" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="G59" s="105">
+        <v>585470</v>
+      </c>
+      <c r="H59" s="99" t="s">
+        <v>65</v>
+      </c>
+      <c r="I59" s="83" t="s">
+        <v>334</v>
+      </c>
+      <c r="J59" s="81">
+        <v>5.99</v>
+      </c>
+      <c r="K59" s="99">
         <f t="shared" si="1"/>
         <v>47.92</v>
       </c>
-      <c r="L56" s="88" t="s">
+      <c r="L59" s="88" t="s">
         <v>225</v>
       </c>
-      <c r="M56" s="34"/>
-    </row>
-    <row r="57" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A57" s="87" t="s">
+      <c r="M59" s="34"/>
+    </row>
+    <row r="60" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A60" s="87" t="s">
         <v>226</v>
       </c>
-      <c r="B57" s="99">
+      <c r="B60" s="99">
         <v>4</v>
       </c>
-      <c r="C57" s="99">
+      <c r="C60" s="99">
         <v>4</v>
       </c>
-      <c r="D57" s="98">
-        <v>1</v>
-      </c>
-      <c r="E57" s="99" t="s">
+      <c r="D60" s="98">
+        <v>1</v>
+      </c>
+      <c r="E60" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="F57" s="99" t="s">
+      <c r="F60" s="99" t="s">
         <v>227</v>
       </c>
-      <c r="G57" s="106">
+      <c r="G60" s="106">
         <v>635254</v>
       </c>
-      <c r="H57" s="99" t="s">
+      <c r="H60" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="I57" s="83" t="s">
+      <c r="I60" s="83" t="s">
         <v>330</v>
       </c>
-      <c r="J57" s="81">
+      <c r="J60" s="81">
         <v>2.09</v>
       </c>
-      <c r="K57" s="81">
-        <f>B56/D57*J57</f>
+      <c r="K60" s="81">
+        <f>B59/D60*J60</f>
         <v>33.44</v>
       </c>
-      <c r="L57" s="88" t="s">
+      <c r="L60" s="88" t="s">
         <v>228</v>
       </c>
-      <c r="M57" s="34"/>
-    </row>
-    <row r="58" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A58" s="87" t="s">
+      <c r="M60" s="34"/>
+    </row>
+    <row r="61" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A61" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="B58" s="99">
-        <v>1</v>
-      </c>
-      <c r="C58" s="99">
-        <v>1</v>
-      </c>
-      <c r="D58" s="98">
-        <v>1</v>
-      </c>
-      <c r="E58" s="99" t="s">
+      <c r="B61" s="99">
+        <v>1</v>
+      </c>
+      <c r="C61" s="99">
+        <v>1</v>
+      </c>
+      <c r="D61" s="98">
+        <v>1</v>
+      </c>
+      <c r="E61" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="F58" s="99" t="s">
+      <c r="F61" s="99" t="s">
         <v>230</v>
       </c>
-      <c r="G58" s="106">
+      <c r="G61" s="106">
         <v>635252</v>
       </c>
-      <c r="H58" s="99" t="s">
+      <c r="H61" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="I58" s="83" t="s">
+      <c r="I61" s="83" t="s">
         <v>334</v>
       </c>
-      <c r="J58" s="81">
+      <c r="J61" s="81">
         <v>1.49</v>
       </c>
-      <c r="K58" s="81">
-        <f t="shared" ref="K58:K101" si="2">B58/D58*J58</f>
+      <c r="K61" s="81">
+        <f t="shared" ref="K61:K104" si="2">B61/D61*J61</f>
         <v>1.49</v>
       </c>
-      <c r="L58" s="88" t="s">
+      <c r="L61" s="88" t="s">
         <v>231</v>
       </c>
-      <c r="M58" s="34"/>
-    </row>
-    <row r="59" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A59" s="79" t="s">
+      <c r="M61" s="34"/>
+    </row>
+    <row r="62" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A62" s="79" t="s">
         <v>232</v>
       </c>
-      <c r="B59" s="97">
+      <c r="B62" s="97">
         <v>18</v>
       </c>
-      <c r="C59" s="97">
+      <c r="C62" s="97">
         <v>18</v>
       </c>
-      <c r="D59" s="98">
-        <v>1</v>
-      </c>
-      <c r="E59" s="97" t="s">
+      <c r="D62" s="98">
+        <v>1</v>
+      </c>
+      <c r="E62" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F59" s="97" t="s">
+      <c r="F62" s="97" t="s">
         <v>233</v>
       </c>
-      <c r="G59" s="101">
+      <c r="G62" s="101">
         <v>585442</v>
       </c>
-      <c r="H59" s="118" t="s">
+      <c r="H62" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I59" s="119" t="s">
+      <c r="I62" s="119" t="s">
         <v>336</v>
       </c>
-      <c r="J59" s="81">
+      <c r="J62" s="81">
         <v>3.99</v>
       </c>
-      <c r="K59" s="81">
+      <c r="K62" s="81">
         <f t="shared" si="2"/>
         <v>71.820000000000007</v>
       </c>
-      <c r="L59" s="86" t="s">
+      <c r="L62" s="86" t="s">
         <v>234</v>
       </c>
-      <c r="M59" s="34"/>
-    </row>
-    <row r="60" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A60" s="79" t="s">
+      <c r="M62" s="34"/>
+    </row>
+    <row r="63" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A63" s="79" t="s">
         <v>235</v>
       </c>
-      <c r="B60" s="97">
+      <c r="B63" s="97">
         <v>2</v>
       </c>
-      <c r="C60" s="97">
+      <c r="C63" s="97">
         <v>2</v>
       </c>
-      <c r="D60" s="98">
-        <v>1</v>
-      </c>
-      <c r="E60" s="97" t="s">
+      <c r="D63" s="98">
+        <v>1</v>
+      </c>
+      <c r="E63" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F60" s="97" t="s">
+      <c r="F63" s="97" t="s">
         <v>236</v>
       </c>
-      <c r="G60" s="101">
+      <c r="G63" s="101">
         <v>585546</v>
       </c>
-      <c r="H60" s="118" t="s">
+      <c r="H63" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I60" s="119" t="s">
+      <c r="I63" s="119" t="s">
         <v>337</v>
       </c>
-      <c r="J60" s="81">
+      <c r="J63" s="81">
         <v>5.99</v>
       </c>
-      <c r="K60" s="81">
+      <c r="K63" s="81">
         <f t="shared" si="2"/>
         <v>11.98</v>
       </c>
-      <c r="L60" s="86" t="s">
+      <c r="L63" s="86" t="s">
         <v>235</v>
       </c>
-      <c r="M60" s="34"/>
-    </row>
-    <row r="61" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A61" s="79" t="s">
+      <c r="M63" s="34"/>
+    </row>
+    <row r="64" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A64" s="79" t="s">
         <v>237</v>
       </c>
-      <c r="B61" s="97">
+      <c r="B64" s="97">
         <v>8</v>
       </c>
-      <c r="C61" s="97">
+      <c r="C64" s="97">
         <v>8</v>
       </c>
-      <c r="D61" s="98">
+      <c r="D64" s="98">
         <v>2</v>
       </c>
-      <c r="E61" s="97" t="s">
+      <c r="E64" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F61" s="97" t="s">
+      <c r="F64" s="97" t="s">
         <v>238</v>
       </c>
-      <c r="G61" s="101">
+      <c r="G64" s="101">
         <v>585404</v>
       </c>
-      <c r="H61" s="118" t="s">
+      <c r="H64" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I61" s="119" t="s">
+      <c r="I64" s="119" t="s">
         <v>330</v>
       </c>
-      <c r="J61" s="81">
+      <c r="J64" s="81">
         <v>2.39</v>
       </c>
-      <c r="K61" s="81">
+      <c r="K64" s="81">
         <f t="shared" si="2"/>
         <v>9.56</v>
       </c>
-      <c r="L61" s="86" t="s">
+      <c r="L64" s="86" t="s">
         <v>239</v>
       </c>
-      <c r="M61" s="34"/>
-    </row>
-    <row r="62" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A62" s="79" t="s">
+      <c r="M64" s="34"/>
+    </row>
+    <row r="65" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A65" s="79" t="s">
         <v>240</v>
       </c>
-      <c r="B62" s="97">
+      <c r="B65" s="97">
         <v>4</v>
       </c>
-      <c r="C62" s="97">
+      <c r="C65" s="97">
         <v>4</v>
       </c>
-      <c r="D62" s="98">
-        <v>1</v>
-      </c>
-      <c r="E62" s="97" t="s">
+      <c r="D65" s="98">
+        <v>1</v>
+      </c>
+      <c r="E65" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F62" s="97" t="s">
+      <c r="F65" s="97" t="s">
         <v>241</v>
       </c>
-      <c r="G62" s="101">
+      <c r="G65" s="101">
         <v>625049</v>
       </c>
-      <c r="H62" s="118" t="s">
+      <c r="H65" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I62" s="119" t="s">
+      <c r="I65" s="119" t="s">
         <v>332</v>
       </c>
-      <c r="J62" s="81">
+      <c r="J65" s="81">
         <v>4.99</v>
       </c>
-      <c r="K62" s="81">
+      <c r="K65" s="81">
         <f t="shared" si="2"/>
         <v>19.96</v>
       </c>
-      <c r="L62" s="86" t="s">
+      <c r="L65" s="86" t="s">
         <v>240</v>
       </c>
-      <c r="M62" s="34"/>
-    </row>
-    <row r="63" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A63" s="79" t="s">
+      <c r="M65" s="34"/>
+    </row>
+    <row r="66" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A66" s="79" t="s">
         <v>242</v>
       </c>
-      <c r="B63" s="97">
+      <c r="B66" s="97">
         <v>2</v>
       </c>
-      <c r="C63" s="97">
+      <c r="C66" s="97">
         <v>2</v>
       </c>
-      <c r="D63" s="98">
-        <v>1</v>
-      </c>
-      <c r="E63" s="97" t="s">
+      <c r="D66" s="98">
+        <v>1</v>
+      </c>
+      <c r="E66" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F63" s="97" t="s">
+      <c r="F66" s="97" t="s">
         <v>243</v>
       </c>
-      <c r="G63" s="101">
+      <c r="G66" s="101">
         <v>545512</v>
       </c>
-      <c r="H63" s="118" t="s">
+      <c r="H66" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I63" s="119" t="s">
+      <c r="I66" s="119" t="s">
         <v>338</v>
       </c>
-      <c r="J63" s="81">
+      <c r="J66" s="81">
         <v>9.99</v>
       </c>
-      <c r="K63" s="81">
+      <c r="K66" s="81">
         <f t="shared" si="2"/>
         <v>19.98</v>
       </c>
-      <c r="L63" s="86" t="s">
+      <c r="L66" s="86" t="s">
         <v>242</v>
       </c>
-      <c r="M63" s="34"/>
-    </row>
-    <row r="64" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A64" s="79" t="s">
+      <c r="M66" s="34"/>
+    </row>
+    <row r="67" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A67" s="79" t="s">
         <v>244</v>
       </c>
-      <c r="B64" s="97">
+      <c r="B67" s="97">
         <v>6</v>
       </c>
-      <c r="C64" s="97">
+      <c r="C67" s="97">
         <v>6</v>
       </c>
-      <c r="D64" s="98">
-        <v>1</v>
-      </c>
-      <c r="E64" s="97" t="s">
+      <c r="D67" s="98">
+        <v>1</v>
+      </c>
+      <c r="E67" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F64" s="97" t="s">
+      <c r="F67" s="97" t="s">
         <v>245</v>
       </c>
-      <c r="G64" s="101">
+      <c r="G67" s="101">
         <v>545680</v>
       </c>
-      <c r="H64" s="118" t="s">
+      <c r="H67" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I64" s="119" t="s">
+      <c r="I67" s="119" t="s">
         <v>331</v>
       </c>
-      <c r="J64" s="81">
+      <c r="J67" s="81">
         <v>5.99</v>
       </c>
-      <c r="K64" s="81">
+      <c r="K67" s="81">
         <f t="shared" si="2"/>
         <v>35.94</v>
       </c>
-      <c r="L64" s="86" t="s">
+      <c r="L67" s="86" t="s">
         <v>244</v>
       </c>
-      <c r="M64" s="34"/>
-    </row>
-    <row r="65" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A65" s="79" t="s">
+      <c r="M67" s="34"/>
+    </row>
+    <row r="68" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A68" s="79" t="s">
         <v>246</v>
       </c>
-      <c r="B65" s="97">
+      <c r="B68" s="97">
         <v>4</v>
       </c>
-      <c r="C65" s="97">
+      <c r="C68" s="97">
         <v>4</v>
       </c>
-      <c r="D65" s="98">
-        <v>1</v>
-      </c>
-      <c r="E65" s="97" t="s">
+      <c r="D68" s="98">
+        <v>1</v>
+      </c>
+      <c r="E68" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F65" s="97" t="s">
+      <c r="F68" s="97" t="s">
         <v>247</v>
       </c>
-      <c r="G65" s="128" t="s">
+      <c r="G68" s="128" t="s">
         <v>248</v>
       </c>
-      <c r="H65" s="118" t="s">
+      <c r="H68" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I65" s="119" t="s">
+      <c r="I68" s="119" t="s">
         <v>331</v>
       </c>
-      <c r="J65" s="81">
+      <c r="J68" s="81">
         <v>3.69</v>
       </c>
-      <c r="K65" s="81">
+      <c r="K68" s="81">
         <f t="shared" si="2"/>
         <v>14.76</v>
       </c>
-      <c r="L65" s="86" t="s">
+      <c r="L68" s="86" t="s">
         <v>249</v>
       </c>
-      <c r="M65" s="34"/>
-    </row>
-    <row r="66" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A66" s="79" t="s">
+      <c r="M68" s="34"/>
+    </row>
+    <row r="69" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A69" s="79" t="s">
         <v>250</v>
       </c>
-      <c r="B66" s="97">
+      <c r="B69" s="97">
         <v>4</v>
       </c>
-      <c r="C66" s="97">
+      <c r="C69" s="97">
         <v>4</v>
       </c>
-      <c r="D66" s="98">
-        <v>1</v>
-      </c>
-      <c r="E66" s="97" t="s">
+      <c r="D69" s="98">
+        <v>1</v>
+      </c>
+      <c r="E69" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F66" s="97" t="s">
+      <c r="F69" s="97" t="s">
         <v>251</v>
       </c>
-      <c r="G66" s="128">
+      <c r="G69" s="128">
         <v>615362</v>
       </c>
-      <c r="H66" s="118" t="s">
+      <c r="H69" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I66" s="119" t="s">
+      <c r="I69" s="119" t="s">
         <v>332</v>
       </c>
-      <c r="J66" s="81">
+      <c r="J69" s="81">
         <v>7.99</v>
       </c>
-      <c r="K66" s="81">
+      <c r="K69" s="81">
         <f t="shared" si="2"/>
         <v>31.96</v>
       </c>
-      <c r="L66" s="86" t="s">
+      <c r="L69" s="86" t="s">
         <v>252</v>
       </c>
-      <c r="M66" s="34"/>
-    </row>
-    <row r="67" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A67" s="79" t="s">
+      <c r="M69" s="34"/>
+    </row>
+    <row r="70" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A70" s="79" t="s">
         <v>253</v>
       </c>
-      <c r="B67" s="97">
+      <c r="B70" s="97">
         <v>4</v>
       </c>
-      <c r="C67" s="97">
+      <c r="C70" s="97">
         <v>4</v>
       </c>
-      <c r="D67" s="98">
-        <v>1</v>
-      </c>
-      <c r="E67" s="97" t="s">
+      <c r="D70" s="98">
+        <v>1</v>
+      </c>
+      <c r="E70" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F67" s="97" t="s">
+      <c r="F70" s="97" t="s">
         <v>254</v>
       </c>
-      <c r="G67" s="101">
+      <c r="G70" s="101">
         <v>585443</v>
       </c>
-      <c r="H67" s="118" t="s">
+      <c r="H70" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I67" s="119" t="s">
+      <c r="I70" s="119" t="s">
         <v>331</v>
       </c>
-      <c r="J67" s="81">
+      <c r="J70" s="81">
         <v>4.49</v>
       </c>
-      <c r="K67" s="81">
+      <c r="K70" s="81">
         <f t="shared" si="2"/>
         <v>17.96</v>
       </c>
-      <c r="L67" s="86" t="s">
+      <c r="L70" s="86" t="s">
         <v>255</v>
       </c>
-      <c r="M67" s="34"/>
-    </row>
-    <row r="68" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A68" s="79" t="s">
+      <c r="M70" s="34"/>
+    </row>
+    <row r="71" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A71" s="79" t="s">
         <v>256</v>
       </c>
-      <c r="B68" s="97">
+      <c r="B71" s="97">
         <v>2</v>
       </c>
-      <c r="C68" s="97">
+      <c r="C71" s="97">
         <v>2</v>
       </c>
-      <c r="D68" s="98">
-        <v>1</v>
-      </c>
-      <c r="E68" s="97" t="s">
+      <c r="D71" s="98">
+        <v>1</v>
+      </c>
+      <c r="E71" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F68" s="97" t="s">
+      <c r="F71" s="97" t="s">
         <v>257</v>
       </c>
-      <c r="G68" s="101">
+      <c r="G71" s="101">
         <v>585006</v>
       </c>
-      <c r="H68" s="118" t="s">
+      <c r="H71" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I68" s="119" t="s">
+      <c r="I71" s="119" t="s">
         <v>334</v>
       </c>
-      <c r="J68" s="81">
+      <c r="J71" s="81">
         <v>16.989999999999998</v>
       </c>
-      <c r="K68" s="81">
+      <c r="K71" s="81">
         <f t="shared" si="2"/>
         <v>33.979999999999997</v>
       </c>
-      <c r="L68" s="86" t="s">
+      <c r="L71" s="86" t="s">
         <v>258</v>
       </c>
-      <c r="M68" s="34"/>
-    </row>
-    <row r="69" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A69" s="79" t="s">
+      <c r="M71" s="34"/>
+    </row>
+    <row r="72" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A72" s="79" t="s">
         <v>259</v>
       </c>
-      <c r="B69" s="97">
+      <c r="B72" s="97">
         <v>3</v>
       </c>
-      <c r="C69" s="97">
+      <c r="C72" s="97">
         <v>3</v>
       </c>
-      <c r="D69" s="98">
-        <v>1</v>
-      </c>
-      <c r="E69" s="97" t="s">
+      <c r="D72" s="98">
+        <v>1</v>
+      </c>
+      <c r="E72" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F69" s="97" t="s">
+      <c r="F72" s="97" t="s">
         <v>260</v>
       </c>
-      <c r="G69" s="129">
+      <c r="G72" s="129">
         <v>585004</v>
       </c>
-      <c r="H69" s="118" t="s">
+      <c r="H72" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I69" s="119" t="s">
+      <c r="I72" s="119" t="s">
         <v>334</v>
       </c>
-      <c r="J69" s="81">
+      <c r="J72" s="81">
         <v>13.99</v>
       </c>
-      <c r="K69" s="81">
+      <c r="K72" s="81">
         <f t="shared" si="2"/>
         <v>41.97</v>
       </c>
-      <c r="L69" s="86" t="s">
+      <c r="L72" s="86" t="s">
         <v>261</v>
       </c>
-      <c r="M69" s="34"/>
-    </row>
-    <row r="70" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A70" s="87" t="s">
+      <c r="M72" s="34"/>
+    </row>
+    <row r="73" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A73" s="87" t="s">
         <v>262</v>
       </c>
-      <c r="B70" s="99">
+      <c r="B73" s="99">
         <v>4</v>
       </c>
-      <c r="C70" s="99">
+      <c r="C73" s="99">
         <v>4</v>
       </c>
-      <c r="D70" s="98">
-        <v>1</v>
-      </c>
-      <c r="E70" s="99" t="s">
+      <c r="D73" s="98">
+        <v>1</v>
+      </c>
+      <c r="E73" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="F70" s="99" t="s">
+      <c r="F73" s="99" t="s">
         <v>263</v>
       </c>
-      <c r="G70" s="105">
+      <c r="G73" s="105">
         <v>585444</v>
       </c>
-      <c r="H70" s="130" t="s">
+      <c r="H73" s="130" t="s">
         <v>65</v>
       </c>
-      <c r="I70" s="131" t="s">
+      <c r="I73" s="131" t="s">
         <v>331</v>
       </c>
-      <c r="J70" s="81">
+      <c r="J73" s="81">
         <v>4.99</v>
       </c>
-      <c r="K70" s="81">
+      <c r="K73" s="81">
         <f t="shared" si="2"/>
         <v>19.96</v>
       </c>
-      <c r="L70" s="86" t="s">
+      <c r="L73" s="86" t="s">
         <v>261</v>
       </c>
-      <c r="M70" s="34"/>
-    </row>
-    <row r="71" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A71" s="79" t="s">
+      <c r="M73" s="34"/>
+    </row>
+    <row r="74" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A74" s="79" t="s">
         <v>264</v>
       </c>
-      <c r="B71" s="97">
+      <c r="B74" s="97">
         <v>2</v>
       </c>
-      <c r="C71" s="97">
+      <c r="C74" s="97">
         <v>2</v>
       </c>
-      <c r="D71" s="98">
-        <v>1</v>
-      </c>
-      <c r="E71" s="97" t="s">
+      <c r="D74" s="98">
+        <v>1</v>
+      </c>
+      <c r="E74" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F71" s="97" t="s">
+      <c r="F74" s="97" t="s">
         <v>265</v>
       </c>
-      <c r="G71" s="101">
+      <c r="G74" s="101">
         <v>585450</v>
       </c>
-      <c r="H71" s="118" t="s">
+      <c r="H74" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I71" s="119" t="s">
+      <c r="I74" s="119" t="s">
         <v>335</v>
       </c>
-      <c r="J71" s="81">
+      <c r="J74" s="81">
         <v>7.99</v>
       </c>
-      <c r="K71" s="81">
+      <c r="K74" s="81">
         <f t="shared" si="2"/>
         <v>15.98</v>
       </c>
-      <c r="L71" s="86" t="s">
+      <c r="L74" s="86" t="s">
         <v>266</v>
       </c>
-      <c r="M71" s="34"/>
-    </row>
-    <row r="72" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A72" s="79" t="s">
+      <c r="M74" s="34"/>
+    </row>
+    <row r="75" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A75" s="79" t="s">
         <v>267</v>
       </c>
-      <c r="B72" s="97">
+      <c r="B75" s="97">
         <v>34</v>
       </c>
-      <c r="C72" s="97">
+      <c r="C75" s="97">
         <f>16+6+8</f>
         <v>30</v>
       </c>
-      <c r="D72" s="98">
+      <c r="D75" s="98">
         <v>2</v>
       </c>
-      <c r="E72" s="97" t="s">
+      <c r="E75" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F72" s="97" t="s">
+      <c r="F75" s="97" t="s">
         <v>268</v>
       </c>
-      <c r="G72" s="101">
+      <c r="G75" s="101">
         <v>545532</v>
       </c>
-      <c r="H72" s="118" t="s">
+      <c r="H75" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I72" s="119" t="s">
+      <c r="I75" s="119" t="s">
         <v>339</v>
       </c>
-      <c r="J72" s="81">
+      <c r="J75" s="81">
         <v>3.99</v>
       </c>
-      <c r="K72" s="81">
+      <c r="K75" s="81">
         <f t="shared" si="2"/>
         <v>67.83</v>
       </c>
-      <c r="L72" s="86" t="s">
+      <c r="L75" s="86" t="s">
         <v>267</v>
       </c>
-      <c r="M72" s="34"/>
-    </row>
-    <row r="73" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A73" s="79" t="s">
+      <c r="M75" s="34"/>
+    </row>
+    <row r="76" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A76" s="79" t="s">
         <v>269</v>
       </c>
-      <c r="B73" s="97">
+      <c r="B76" s="97">
         <v>8</v>
       </c>
-      <c r="C73" s="97">
+      <c r="C76" s="97">
         <v>8</v>
       </c>
-      <c r="D73" s="98">
-        <v>1</v>
-      </c>
-      <c r="E73" s="97" t="s">
+      <c r="D76" s="98">
+        <v>1</v>
+      </c>
+      <c r="E76" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F73" s="97" t="s">
+      <c r="F76" s="97" t="s">
         <v>270</v>
       </c>
-      <c r="G73" s="101">
+      <c r="G76" s="101">
         <v>585592</v>
       </c>
-      <c r="H73" s="118" t="s">
+      <c r="H76" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I73" s="119" t="s">
+      <c r="I76" s="119" t="s">
         <v>335</v>
       </c>
-      <c r="J73" s="81">
+      <c r="J76" s="81">
         <v>2.79</v>
       </c>
-      <c r="K73" s="81">
+      <c r="K76" s="81">
         <f t="shared" si="2"/>
         <v>22.32</v>
       </c>
-      <c r="L73" s="86" t="s">
+      <c r="L76" s="86" t="s">
         <v>271</v>
       </c>
-      <c r="M73" s="34"/>
-    </row>
-    <row r="74" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A74" s="79" t="s">
+      <c r="M76" s="34"/>
+    </row>
+    <row r="77" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A77" s="79" t="s">
         <v>272</v>
       </c>
-      <c r="B74" s="97">
-        <v>1</v>
-      </c>
-      <c r="C74" s="97">
-        <v>1</v>
-      </c>
-      <c r="D74" s="98">
-        <v>1</v>
-      </c>
-      <c r="E74" s="97" t="s">
+      <c r="B77" s="97">
+        <v>1</v>
+      </c>
+      <c r="C77" s="97">
+        <v>1</v>
+      </c>
+      <c r="D77" s="98">
+        <v>1</v>
+      </c>
+      <c r="E77" s="97" t="s">
         <v>204</v>
       </c>
-      <c r="F74" s="97" t="s">
+      <c r="F77" s="97" t="s">
         <v>273</v>
       </c>
-      <c r="G74" s="101">
+      <c r="G77" s="101">
         <v>585468</v>
       </c>
-      <c r="H74" s="118" t="s">
+      <c r="H77" s="118" t="s">
         <v>65</v>
       </c>
-      <c r="I74" s="119" t="s">
+      <c r="I77" s="119" t="s">
         <v>334</v>
       </c>
-      <c r="J74" s="81">
+      <c r="J77" s="81">
         <v>1.29</v>
       </c>
-      <c r="K74" s="81">
+      <c r="K77" s="81">
         <f t="shared" si="2"/>
         <v>1.29</v>
       </c>
-      <c r="L74" s="86" t="s">
+      <c r="L77" s="86" t="s">
         <v>272</v>
       </c>
-      <c r="M74" s="34"/>
-    </row>
-    <row r="75" spans="1:13" ht="14.25" customHeight="1">
-      <c r="A75" s="79" t="s">
+      <c r="M77" s="34"/>
+    </row>
+    <row r="78" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A78" s="79" t="s">
         <v>274</v>
       </c>
-      <c r="B75" s="99">
+      <c r="B78" s="99">
         <v>4</v>
       </c>
-      <c r="C75" s="99">
+      <c r="C78" s="99">
         <v>4</v>
       </c>
-      <c r="D75" s="98">
-        <v>1</v>
-      </c>
-      <c r="E75" s="99" t="s">
+      <c r="D78" s="98">
+        <v>1</v>
+      </c>
+      <c r="E78" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="F75" s="99" t="s">
+      <c r="F78" s="99" t="s">
         <v>275</v>
       </c>
-      <c r="G75" s="105">
+      <c r="G78" s="105">
         <v>555104</v>
       </c>
-      <c r="H75" s="99" t="s">
+      <c r="H78" s="99" t="s">
         <v>65</v>
       </c>
-      <c r="I75" s="83" t="s">
+      <c r="I78" s="83" t="s">
         <v>332</v>
       </c>
-      <c r="J75" s="81">
+      <c r="J78" s="81">
         <v>3.99</v>
       </c>
-      <c r="K75" s="81">
+      <c r="K78" s="81">
         <f t="shared" si="2"/>
         <v>15.96</v>
       </c>
-      <c r="L75" s="88" t="s">
+      <c r="L78" s="88" t="s">
         <v>276</v>
       </c>
-      <c r="M75" s="34"/>
-    </row>
-    <row r="76" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A76" s="87" t="s">
+      <c r="M78" s="34"/>
+    </row>
+    <row r="79" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A79" s="87" t="s">
         <v>277</v>
       </c>
-      <c r="B76" s="99">
+      <c r="B79" s="99">
         <v>16</v>
       </c>
-      <c r="C76" s="99">
+      <c r="C79" s="99">
         <v>20</v>
       </c>
-      <c r="D76" s="98">
+      <c r="D79" s="98">
         <v>4</v>
       </c>
-      <c r="E76" s="99" t="s">
+      <c r="E79" s="99" t="s">
         <v>204</v>
       </c>
-      <c r="F76" s="99" t="s">
+      <c r="F79" s="99" t="s">
         <v>278</v>
       </c>
-      <c r="G76" s="106">
+      <c r="G79" s="106">
         <v>633126</v>
       </c>
-      <c r="H76" s="99" t="s">
+      <c r="H79" s="99" t="s">
         <v>103</v>
       </c>
-      <c r="I76" s="83" t="s">
+      <c r="I79" s="83" t="s">
         <v>332</v>
       </c>
-      <c r="J76" s="81">
+      <c r="J79" s="81">
         <v>1.79</v>
       </c>
-      <c r="K76" s="81">
+      <c r="K79" s="81">
         <f t="shared" si="2"/>
         <v>7.16</v>
       </c>
-      <c r="L76" s="88" t="s">
+      <c r="L79" s="88" t="s">
         <v>279</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A77" s="79" t="s">
+    <row r="80" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A80" s="79" t="s">
         <v>280</v>
       </c>
-      <c r="B77" s="97">
+      <c r="B80" s="97">
         <v>4</v>
       </c>
-      <c r="C77" s="97">
+      <c r="C80" s="97">
         <v>4</v>
       </c>
-      <c r="D77" s="98">
-        <v>1</v>
-      </c>
-      <c r="E77" s="97" t="s">
+      <c r="D80" s="98">
+        <v>1</v>
+      </c>
+      <c r="E80" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="F77" s="97" t="s">
+      <c r="F80" s="97" t="s">
         <v>282</v>
       </c>
-      <c r="G77" s="101" t="s">
+      <c r="G80" s="101" t="s">
         <v>377</v>
       </c>
-      <c r="H77" s="118" t="s">
+      <c r="H80" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="I77" s="119"/>
-      <c r="J77" s="81">
+      <c r="I80" s="119"/>
+      <c r="J80" s="81">
         <v>6.8</v>
       </c>
-      <c r="K77" s="81">
+      <c r="K80" s="81">
         <f t="shared" si="2"/>
         <v>27.2</v>
       </c>
-      <c r="L77" s="86" t="s">
+      <c r="L80" s="86" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A78" s="79" t="s">
+    <row r="81" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A81" s="79" t="s">
         <v>283</v>
       </c>
-      <c r="B78" s="97">
+      <c r="B81" s="97">
         <v>4</v>
       </c>
-      <c r="C78" s="97">
+      <c r="C81" s="97">
         <v>4</v>
       </c>
-      <c r="D78" s="98">
-        <v>1</v>
-      </c>
-      <c r="E78" s="97" t="s">
+      <c r="D81" s="98">
+        <v>1</v>
+      </c>
+      <c r="E81" s="97" t="s">
         <v>281</v>
       </c>
-      <c r="F78" s="132" t="s">
+      <c r="F81" s="132" t="s">
         <v>284</v>
       </c>
-      <c r="G78" s="101" t="s">
+      <c r="G81" s="101" t="s">
         <v>285</v>
       </c>
-      <c r="H78" s="118" t="s">
+      <c r="H81" s="118" t="s">
         <v>13</v>
       </c>
-      <c r="I78" s="119"/>
-      <c r="J78" s="133">
+      <c r="I81" s="119"/>
+      <c r="J81" s="133">
         <v>55</v>
       </c>
-      <c r="K78" s="81">
+      <c r="K81" s="81">
         <f t="shared" si="2"/>
         <v>220</v>
       </c>
-      <c r="L78" s="86" t="s">
+      <c r="L81" s="86" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A79" s="79" t="s">
+    <row r="82" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A82" s="79" t="s">
         <v>286</v>
       </c>
-      <c r="B79" s="99">
-        <v>1</v>
-      </c>
-      <c r="C79" s="99">
-        <v>1</v>
-      </c>
-      <c r="D79" s="98">
-        <v>1</v>
-      </c>
-      <c r="E79" s="99" t="s">
+      <c r="B82" s="99">
+        <v>1</v>
+      </c>
+      <c r="C82" s="99">
+        <v>1</v>
+      </c>
+      <c r="D82" s="98">
+        <v>1</v>
+      </c>
+      <c r="E82" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="F79" s="99" t="s">
+      <c r="F82" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="G79" s="105" t="s">
+      <c r="G82" s="105" t="s">
         <v>287</v>
       </c>
-      <c r="H79" s="99" t="s">
+      <c r="H82" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="I79" s="83"/>
-      <c r="J79" s="81">
+      <c r="I82" s="83"/>
+      <c r="J82" s="81">
         <v>6.32</v>
       </c>
-      <c r="K79" s="81">
+      <c r="K82" s="81">
         <f t="shared" si="2"/>
         <v>6.32</v>
       </c>
-      <c r="L79" s="88" t="s">
+      <c r="L82" s="88" t="s">
         <v>288</v>
       </c>
-      <c r="M79" s="58"/>
-    </row>
-    <row r="80" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A80" s="79" t="s">
+      <c r="M82" s="58"/>
+    </row>
+    <row r="83" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A83" s="79" t="s">
         <v>289</v>
       </c>
-      <c r="B80" s="99">
-        <v>1</v>
-      </c>
-      <c r="C80" s="99">
-        <v>1</v>
-      </c>
-      <c r="D80" s="98">
-        <v>1</v>
-      </c>
-      <c r="E80" s="99" t="s">
+      <c r="B83" s="99">
+        <v>1</v>
+      </c>
+      <c r="C83" s="99">
+        <v>1</v>
+      </c>
+      <c r="D83" s="98">
+        <v>1</v>
+      </c>
+      <c r="E83" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="F80" s="99" t="s">
+      <c r="F83" s="99" t="s">
         <v>23</v>
       </c>
-      <c r="G80" s="101" t="s">
+      <c r="G83" s="101" t="s">
         <v>290</v>
       </c>
-      <c r="H80" s="99" t="s">
+      <c r="H83" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="I80" s="83"/>
-      <c r="J80" s="81">
+      <c r="I83" s="83"/>
+      <c r="J83" s="81">
         <v>6.14</v>
       </c>
-      <c r="K80" s="81">
+      <c r="K83" s="81">
         <f t="shared" si="2"/>
         <v>6.14</v>
       </c>
-      <c r="L80" s="88" t="s">
+      <c r="L83" s="88" t="s">
         <v>291</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A81" s="79" t="s">
+    <row r="84" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A84" s="79" t="s">
         <v>292</v>
-      </c>
-      <c r="B81" s="99">
-        <v>1</v>
-      </c>
-      <c r="C81" s="99">
-        <v>1</v>
-      </c>
-      <c r="D81" s="98">
-        <v>1</v>
-      </c>
-      <c r="E81" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="F81" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G81" s="105" t="s">
-        <v>293</v>
-      </c>
-      <c r="H81" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="I81" s="83"/>
-      <c r="J81" s="81">
-        <v>4.95</v>
-      </c>
-      <c r="K81" s="81">
-        <f t="shared" si="2"/>
-        <v>4.95</v>
-      </c>
-      <c r="L81" s="99" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="82" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A82" s="79" t="s">
-        <v>295</v>
-      </c>
-      <c r="B82" s="99">
-        <v>1</v>
-      </c>
-      <c r="C82" s="99">
-        <v>1</v>
-      </c>
-      <c r="D82" s="98">
-        <v>1</v>
-      </c>
-      <c r="E82" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="F82" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G82" s="105" t="s">
-        <v>296</v>
-      </c>
-      <c r="H82" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="I82" s="83"/>
-      <c r="J82" s="81">
-        <v>4.95</v>
-      </c>
-      <c r="K82" s="81">
-        <f t="shared" si="2"/>
-        <v>4.95</v>
-      </c>
-      <c r="L82" s="99" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="83" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A83" s="79" t="s">
-        <v>298</v>
-      </c>
-      <c r="B83" s="99">
-        <v>1</v>
-      </c>
-      <c r="C83" s="99">
-        <v>1</v>
-      </c>
-      <c r="D83" s="98">
-        <v>1</v>
-      </c>
-      <c r="E83" s="99" t="s">
-        <v>19</v>
-      </c>
-      <c r="F83" s="99" t="s">
-        <v>23</v>
-      </c>
-      <c r="G83" s="105" t="s">
-        <v>299</v>
-      </c>
-      <c r="H83" s="99" t="s">
-        <v>13</v>
-      </c>
-      <c r="I83" s="83"/>
-      <c r="J83" s="81">
-        <v>4.95</v>
-      </c>
-      <c r="K83" s="81">
-        <f t="shared" si="2"/>
-        <v>4.95</v>
-      </c>
-      <c r="L83" s="99" t="s">
-        <v>300</v>
-      </c>
-      <c r="M83" s="58"/>
-    </row>
-    <row r="84" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A84" s="79" t="s">
-        <v>301</v>
       </c>
       <c r="B84" s="99">
         <v>1</v>
@@ -5634,7 +5629,7 @@
         <v>23</v>
       </c>
       <c r="G84" s="105" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H84" s="99" t="s">
         <v>13</v>
@@ -5648,22 +5643,18 @@
         <v>4.95</v>
       </c>
       <c r="L84" s="99" t="s">
-        <v>303</v>
-      </c>
-      <c r="M84" s="59">
-        <f>SUM(K2:K91)</f>
-        <v>2351.29</v>
-      </c>
-    </row>
-    <row r="85" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A85" s="134" t="s">
-        <v>304</v>
+        <v>294</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A85" s="79" t="s">
+        <v>295</v>
       </c>
       <c r="B85" s="99">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C85" s="99">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D85" s="98">
         <v>1</v>
@@ -5671,269 +5662,280 @@
       <c r="E85" s="99" t="s">
         <v>19</v>
       </c>
-      <c r="F85" s="99"/>
-      <c r="G85" s="164" t="s">
-        <v>305</v>
+      <c r="F85" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G85" s="105" t="s">
+        <v>296</v>
       </c>
       <c r="H85" s="99" t="s">
         <v>13</v>
       </c>
       <c r="I85" s="83"/>
       <c r="J85" s="81">
-        <v>0.36699999999999999</v>
+        <v>4.95</v>
       </c>
       <c r="K85" s="81">
         <f t="shared" si="2"/>
+        <v>4.95</v>
+      </c>
+      <c r="L85" s="99" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A86" s="79" t="s">
+        <v>298</v>
+      </c>
+      <c r="B86" s="99">
+        <v>1</v>
+      </c>
+      <c r="C86" s="99">
+        <v>1</v>
+      </c>
+      <c r="D86" s="98">
+        <v>1</v>
+      </c>
+      <c r="E86" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="F86" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G86" s="105" t="s">
+        <v>299</v>
+      </c>
+      <c r="H86" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I86" s="83"/>
+      <c r="J86" s="81">
+        <v>4.95</v>
+      </c>
+      <c r="K86" s="81">
+        <f t="shared" si="2"/>
+        <v>4.95</v>
+      </c>
+      <c r="L86" s="99" t="s">
+        <v>300</v>
+      </c>
+      <c r="M86" s="58"/>
+    </row>
+    <row r="87" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A87" s="79" t="s">
+        <v>301</v>
+      </c>
+      <c r="B87" s="99">
+        <v>1</v>
+      </c>
+      <c r="C87" s="99">
+        <v>1</v>
+      </c>
+      <c r="D87" s="98">
+        <v>1</v>
+      </c>
+      <c r="E87" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="F87" s="99" t="s">
+        <v>23</v>
+      </c>
+      <c r="G87" s="105" t="s">
+        <v>302</v>
+      </c>
+      <c r="H87" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I87" s="83"/>
+      <c r="J87" s="81">
+        <v>4.95</v>
+      </c>
+      <c r="K87" s="81">
+        <f t="shared" si="2"/>
+        <v>4.95</v>
+      </c>
+      <c r="L87" s="99" t="s">
+        <v>303</v>
+      </c>
+      <c r="M87" s="59">
+        <f>SUM(K5:K94)</f>
+        <v>2351.29</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A88" s="134" t="s">
+        <v>304</v>
+      </c>
+      <c r="B88" s="99">
+        <v>10</v>
+      </c>
+      <c r="C88" s="99">
+        <v>4</v>
+      </c>
+      <c r="D88" s="98">
+        <v>1</v>
+      </c>
+      <c r="E88" s="99" t="s">
+        <v>19</v>
+      </c>
+      <c r="F88" s="99"/>
+      <c r="G88" s="164" t="s">
+        <v>305</v>
+      </c>
+      <c r="H88" s="99" t="s">
+        <v>13</v>
+      </c>
+      <c r="I88" s="83"/>
+      <c r="J88" s="81">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="K88" s="81">
+        <f t="shared" si="2"/>
         <v>3.67</v>
       </c>
-      <c r="L85" s="135" t="s">
+      <c r="L88" s="135" t="s">
         <v>306</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A86" s="136" t="s">
+    <row r="89" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A89" s="136" t="s">
         <v>307</v>
       </c>
-      <c r="B86" s="130">
+      <c r="B89" s="130">
         <v>10</v>
       </c>
-      <c r="C86" s="130">
-        <v>1</v>
-      </c>
-      <c r="D86" s="98">
-        <v>1</v>
-      </c>
-      <c r="E86" s="130" t="s">
+      <c r="C89" s="130">
+        <v>1</v>
+      </c>
+      <c r="D89" s="98">
+        <v>1</v>
+      </c>
+      <c r="E89" s="130" t="s">
         <v>19</v>
       </c>
-      <c r="F86" s="130"/>
-      <c r="G86" s="165" t="s">
+      <c r="F89" s="130"/>
+      <c r="G89" s="165" t="s">
         <v>308</v>
       </c>
-      <c r="H86" s="130" t="s">
+      <c r="H89" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="I86" s="131"/>
-      <c r="J86" s="137">
+      <c r="I89" s="131"/>
+      <c r="J89" s="137">
         <v>0.04</v>
       </c>
-      <c r="K86" s="137">
+      <c r="K89" s="137">
         <f t="shared" si="2"/>
         <v>0.4</v>
       </c>
-      <c r="L86" s="138" t="s">
+      <c r="L89" s="138" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A87" s="139" t="s">
+    <row r="90" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A90" s="139" t="s">
         <v>310</v>
       </c>
-      <c r="B87" s="140">
+      <c r="B90" s="140">
         <v>0</v>
       </c>
-      <c r="C87" s="140">
-        <v>1</v>
-      </c>
-      <c r="D87" s="140">
-        <v>1</v>
-      </c>
-      <c r="E87" s="140" t="s">
+      <c r="C90" s="140">
+        <v>1</v>
+      </c>
+      <c r="D90" s="140">
+        <v>1</v>
+      </c>
+      <c r="E90" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="F87" s="140"/>
-      <c r="G87" s="141"/>
-      <c r="H87" s="140" t="s">
+      <c r="F90" s="140"/>
+      <c r="G90" s="141"/>
+      <c r="H90" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="I87" s="142"/>
-      <c r="J87" s="143">
+      <c r="I90" s="142"/>
+      <c r="J90" s="143">
         <v>12.99</v>
       </c>
-      <c r="K87" s="143">
+      <c r="K90" s="143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L87" s="140" t="s">
+      <c r="L90" s="140" t="s">
         <v>311</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A88" s="139" t="s">
+    <row r="91" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A91" s="139" t="s">
         <v>312</v>
       </c>
-      <c r="B88" s="140">
+      <c r="B91" s="140">
         <v>0</v>
       </c>
-      <c r="C88" s="140">
-        <v>1</v>
-      </c>
-      <c r="D88" s="140">
-        <v>1</v>
-      </c>
-      <c r="E88" s="140" t="s">
+      <c r="C91" s="140">
+        <v>1</v>
+      </c>
+      <c r="D91" s="140">
+        <v>1</v>
+      </c>
+      <c r="E91" s="140" t="s">
         <v>12</v>
       </c>
-      <c r="F88" s="140"/>
-      <c r="G88" s="141"/>
-      <c r="H88" s="140" t="s">
+      <c r="F91" s="140"/>
+      <c r="G91" s="141"/>
+      <c r="H91" s="140" t="s">
         <v>69</v>
       </c>
-      <c r="I88" s="142"/>
-      <c r="J88" s="143">
+      <c r="I91" s="142"/>
+      <c r="J91" s="143">
         <v>25.99</v>
       </c>
-      <c r="K88" s="143">
+      <c r="K91" s="143">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L88" s="144" t="s">
+      <c r="L91" s="144" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A89" s="145" t="s">
+    <row r="92" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A92" s="145" t="s">
         <v>314</v>
       </c>
-      <c r="B89" s="130">
-        <v>1</v>
-      </c>
-      <c r="C89" s="130">
-        <v>1</v>
-      </c>
-      <c r="D89" s="98">
-        <v>1</v>
-      </c>
-      <c r="E89" s="130" t="s">
+      <c r="B92" s="130">
+        <v>1</v>
+      </c>
+      <c r="C92" s="130">
+        <v>1</v>
+      </c>
+      <c r="D92" s="98">
+        <v>1</v>
+      </c>
+      <c r="E92" s="130" t="s">
         <v>12</v>
       </c>
-      <c r="F89" s="130"/>
-      <c r="G89" s="146" t="s">
+      <c r="F92" s="130"/>
+      <c r="G92" s="146" t="s">
         <v>315</v>
       </c>
-      <c r="H89" s="130" t="s">
+      <c r="H92" s="130" t="s">
         <v>13</v>
       </c>
-      <c r="I89" s="131"/>
-      <c r="J89" s="137">
+      <c r="I92" s="131"/>
+      <c r="J92" s="137">
         <v>7.99</v>
       </c>
-      <c r="K89" s="137">
+      <c r="K92" s="137">
         <f t="shared" si="2"/>
         <v>7.99</v>
       </c>
-      <c r="L89" s="147" t="s">
+      <c r="L92" s="147" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A90" s="145" t="s">
+    <row r="93" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A93" s="145" t="s">
         <v>317</v>
-      </c>
-      <c r="B90" s="130">
-        <v>1</v>
-      </c>
-      <c r="C90" s="130">
-        <v>1</v>
-      </c>
-      <c r="D90" s="98">
-        <v>1</v>
-      </c>
-      <c r="E90" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="F90" s="130"/>
-      <c r="G90" s="146" t="s">
-        <v>318</v>
-      </c>
-      <c r="H90" s="130" t="s">
-        <v>13</v>
-      </c>
-      <c r="I90" s="131"/>
-      <c r="J90" s="137">
-        <v>15.59</v>
-      </c>
-      <c r="K90" s="137">
-        <f t="shared" si="2"/>
-        <v>15.59</v>
-      </c>
-      <c r="L90" s="147" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A91" s="145" t="s">
-        <v>320</v>
-      </c>
-      <c r="B91" s="130">
-        <v>1</v>
-      </c>
-      <c r="C91" s="130">
-        <v>1</v>
-      </c>
-      <c r="D91" s="98">
-        <v>1</v>
-      </c>
-      <c r="E91" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="F91" s="130"/>
-      <c r="G91" s="146" t="s">
-        <v>321</v>
-      </c>
-      <c r="H91" s="130" t="s">
-        <v>13</v>
-      </c>
-      <c r="I91" s="131"/>
-      <c r="J91" s="137">
-        <v>12.56</v>
-      </c>
-      <c r="K91" s="137">
-        <f t="shared" si="2"/>
-        <v>12.56</v>
-      </c>
-      <c r="L91" s="148" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A92" s="145" t="s">
-        <v>323</v>
-      </c>
-      <c r="B92" s="130">
-        <v>1</v>
-      </c>
-      <c r="C92" s="130">
-        <v>1</v>
-      </c>
-      <c r="D92" s="98">
-        <v>1</v>
-      </c>
-      <c r="E92" s="130" t="s">
-        <v>19</v>
-      </c>
-      <c r="F92" s="130"/>
-      <c r="G92" s="146" t="s">
-        <v>324</v>
-      </c>
-      <c r="H92" s="130" t="s">
-        <v>13</v>
-      </c>
-      <c r="I92" s="131"/>
-      <c r="J92" s="137">
-        <v>15.59</v>
-      </c>
-      <c r="K92" s="137">
-        <f t="shared" si="2"/>
-        <v>15.59</v>
-      </c>
-      <c r="L92" s="147" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="93" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A93" s="145" t="s">
-        <v>326</v>
       </c>
       <c r="B93" s="130">
         <v>1</v>
@@ -5949,7 +5951,7 @@
       </c>
       <c r="F93" s="130"/>
       <c r="G93" s="146" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="H93" s="130" t="s">
         <v>13</v>
@@ -5963,419 +5965,479 @@
         <v>15.59</v>
       </c>
       <c r="L93" s="147" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A94" s="145" t="s">
+        <v>320</v>
+      </c>
+      <c r="B94" s="130">
+        <v>1</v>
+      </c>
+      <c r="C94" s="130">
+        <v>1</v>
+      </c>
+      <c r="D94" s="98">
+        <v>1</v>
+      </c>
+      <c r="E94" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="F94" s="130"/>
+      <c r="G94" s="146" t="s">
+        <v>321</v>
+      </c>
+      <c r="H94" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="I94" s="131"/>
+      <c r="J94" s="137">
+        <v>12.56</v>
+      </c>
+      <c r="K94" s="137">
+        <f t="shared" si="2"/>
+        <v>12.56</v>
+      </c>
+      <c r="L94" s="148" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A95" s="145" t="s">
+        <v>323</v>
+      </c>
+      <c r="B95" s="130">
+        <v>1</v>
+      </c>
+      <c r="C95" s="130">
+        <v>1</v>
+      </c>
+      <c r="D95" s="98">
+        <v>1</v>
+      </c>
+      <c r="E95" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="F95" s="130"/>
+      <c r="G95" s="146" t="s">
+        <v>324</v>
+      </c>
+      <c r="H95" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="I95" s="131"/>
+      <c r="J95" s="137">
+        <v>15.59</v>
+      </c>
+      <c r="K95" s="137">
+        <f t="shared" si="2"/>
+        <v>15.59</v>
+      </c>
+      <c r="L95" s="147" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A96" s="145" t="s">
+        <v>326</v>
+      </c>
+      <c r="B96" s="130">
+        <v>1</v>
+      </c>
+      <c r="C96" s="130">
+        <v>1</v>
+      </c>
+      <c r="D96" s="98">
+        <v>1</v>
+      </c>
+      <c r="E96" s="130" t="s">
+        <v>19</v>
+      </c>
+      <c r="F96" s="130"/>
+      <c r="G96" s="146" t="s">
+        <v>327</v>
+      </c>
+      <c r="H96" s="130" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="131"/>
+      <c r="J96" s="137">
+        <v>15.59</v>
+      </c>
+      <c r="K96" s="137">
+        <f t="shared" si="2"/>
+        <v>15.59</v>
+      </c>
+      <c r="L96" s="147" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A94" s="120" t="s">
+    <row r="97" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A97" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="B94" s="121">
+      <c r="B97" s="121">
         <v>5</v>
       </c>
-      <c r="C94" s="121">
-        <v>1</v>
-      </c>
-      <c r="D94" s="121">
-        <v>1</v>
-      </c>
-      <c r="E94" s="121" t="s">
+      <c r="C97" s="121">
+        <v>1</v>
+      </c>
+      <c r="D97" s="121">
+        <v>1</v>
+      </c>
+      <c r="E97" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="F94" s="121"/>
-      <c r="G94" s="126" t="s">
+      <c r="F97" s="121"/>
+      <c r="G97" s="126" t="s">
         <v>381</v>
       </c>
-      <c r="H94" s="121" t="s">
+      <c r="H97" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="I94" s="149"/>
-      <c r="J94" s="124">
+      <c r="I97" s="149"/>
+      <c r="J97" s="124">
         <v>3.95</v>
       </c>
-      <c r="K94" s="124">
+      <c r="K97" s="124">
         <f t="shared" si="2"/>
         <v>19.75</v>
       </c>
-      <c r="L94" s="127" t="s">
+      <c r="L97" s="127" t="s">
         <v>380</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A95" s="150" t="s">
+    <row r="98" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A98" s="150" t="s">
         <v>18</v>
       </c>
-      <c r="B95" s="151">
+      <c r="B98" s="151">
         <v>10</v>
       </c>
-      <c r="C95" s="151">
+      <c r="C98" s="151">
         <v>5</v>
       </c>
-      <c r="D95" s="151">
-        <v>1</v>
-      </c>
-      <c r="E95" s="151" t="s">
+      <c r="D98" s="151">
+        <v>1</v>
+      </c>
+      <c r="E98" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="F95" s="151"/>
-      <c r="G95" s="122" t="s">
+      <c r="F98" s="151"/>
+      <c r="G98" s="122" t="s">
         <v>20</v>
       </c>
-      <c r="H95" s="151" t="s">
+      <c r="H98" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="I95" s="152"/>
-      <c r="J95" s="153">
+      <c r="I98" s="152"/>
+      <c r="J98" s="153">
         <v>0.59</v>
       </c>
-      <c r="K95" s="153">
+      <c r="K98" s="153">
         <f t="shared" si="2"/>
         <v>5.8999999999999995</v>
       </c>
-      <c r="L95" s="154" t="s">
+      <c r="L98" s="154" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A96" s="150" t="s">
+    <row r="99" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A99" s="150" t="s">
         <v>22</v>
       </c>
-      <c r="B96" s="151">
+      <c r="B99" s="151">
         <v>20</v>
       </c>
-      <c r="C96" s="151"/>
-      <c r="D96" s="151">
-        <v>1</v>
-      </c>
-      <c r="E96" s="151" t="s">
+      <c r="C99" s="151"/>
+      <c r="D99" s="151">
+        <v>1</v>
+      </c>
+      <c r="E99" s="151" t="s">
         <v>19</v>
       </c>
-      <c r="F96" s="151" t="s">
+      <c r="F99" s="151" t="s">
         <v>23</v>
       </c>
-      <c r="G96" s="122" t="s">
+      <c r="G99" s="122" t="s">
         <v>24</v>
       </c>
-      <c r="H96" s="151" t="s">
+      <c r="H99" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="I96" s="152"/>
-      <c r="J96" s="153">
+      <c r="I99" s="152"/>
+      <c r="J99" s="153">
         <v>0.35</v>
       </c>
-      <c r="K96" s="153">
+      <c r="K99" s="153">
         <f t="shared" si="2"/>
         <v>7</v>
       </c>
-      <c r="L96" s="151" t="s">
+      <c r="L99" s="151" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.25" hidden="1" customHeight="1">
-      <c r="A97" s="150" t="s">
+    <row r="100" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A100" s="150" t="s">
         <v>26</v>
       </c>
-      <c r="B97" s="151">
-        <v>1</v>
-      </c>
-      <c r="C97" s="151">
-        <v>1</v>
-      </c>
-      <c r="D97" s="151">
-        <v>1</v>
-      </c>
-      <c r="E97" s="151" t="s">
+      <c r="B100" s="151">
+        <v>1</v>
+      </c>
+      <c r="C100" s="151">
+        <v>1</v>
+      </c>
+      <c r="D100" s="151">
+        <v>1</v>
+      </c>
+      <c r="E100" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="F97" s="151" t="s">
+      <c r="F100" s="151" t="s">
         <v>16</v>
       </c>
-      <c r="G97" s="122" t="s">
+      <c r="G100" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="H97" s="151" t="s">
+      <c r="H100" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="I97" s="152"/>
-      <c r="J97" s="153">
+      <c r="I100" s="152"/>
+      <c r="J100" s="153">
         <v>20.2</v>
       </c>
-      <c r="K97" s="153">
+      <c r="K100" s="153">
         <f t="shared" si="2"/>
         <v>20.2</v>
       </c>
-      <c r="L97" s="125" t="s">
+      <c r="L100" s="125" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14.25" hidden="1" customHeight="1">
-      <c r="A98" s="150" t="s">
+    <row r="101" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A101" s="150" t="s">
         <v>29</v>
       </c>
-      <c r="B98" s="151">
-        <v>1</v>
-      </c>
-      <c r="C98" s="151">
-        <v>1</v>
-      </c>
-      <c r="D98" s="151">
-        <v>1</v>
-      </c>
-      <c r="E98" s="151" t="s">
+      <c r="B101" s="151">
+        <v>1</v>
+      </c>
+      <c r="C101" s="151">
+        <v>1</v>
+      </c>
+      <c r="D101" s="151">
+        <v>1</v>
+      </c>
+      <c r="E101" s="151" t="s">
         <v>27</v>
       </c>
-      <c r="F98" s="151" t="s">
+      <c r="F101" s="151" t="s">
         <v>30</v>
       </c>
-      <c r="G98" s="122" t="s">
+      <c r="G101" s="122" t="s">
         <v>23</v>
       </c>
-      <c r="H98" s="151" t="s">
+      <c r="H101" s="151" t="s">
         <v>13</v>
       </c>
-      <c r="I98" s="152"/>
-      <c r="J98" s="153">
+      <c r="I101" s="152"/>
+      <c r="J101" s="153">
         <v>19.649999999999999</v>
       </c>
-      <c r="K98" s="153">
+      <c r="K101" s="153">
         <f t="shared" si="2"/>
         <v>19.649999999999999</v>
       </c>
-      <c r="L98" s="125" t="s">
+      <c r="L101" s="125" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14.25" hidden="1" customHeight="1">
-      <c r="A99" s="155" t="s">
+    <row r="102" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A102" s="155" t="s">
         <v>31</v>
       </c>
-      <c r="B99" s="156">
+      <c r="B102" s="156">
         <v>5</v>
       </c>
-      <c r="C99" s="156">
+      <c r="C102" s="156">
         <v>5</v>
       </c>
-      <c r="D99" s="151">
-        <v>1</v>
-      </c>
-      <c r="E99" s="121" t="s">
+      <c r="D102" s="151">
+        <v>1</v>
+      </c>
+      <c r="E102" s="121" t="s">
         <v>12</v>
       </c>
-      <c r="F99" s="156"/>
-      <c r="G99" s="157"/>
-      <c r="H99" s="121" t="s">
+      <c r="F102" s="156"/>
+      <c r="G102" s="157"/>
+      <c r="H102" s="121" t="s">
         <v>13</v>
       </c>
-      <c r="I99" s="158"/>
-      <c r="J99" s="159">
+      <c r="I102" s="158"/>
+      <c r="J102" s="159">
         <v>5.99</v>
       </c>
-      <c r="K99" s="153">
+      <c r="K102" s="153">
         <f t="shared" si="2"/>
         <v>29.950000000000003</v>
       </c>
-      <c r="L99" s="160" t="s">
+      <c r="L102" s="160" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.25" hidden="1">
-      <c r="A100" s="89" t="s">
+    <row r="103" spans="1:12" ht="14.25">
+      <c r="A103" s="89" t="s">
         <v>361</v>
       </c>
-      <c r="B100" s="100">
+      <c r="B103" s="100">
         <v>25</v>
       </c>
-      <c r="C100" s="100">
+      <c r="C103" s="100">
         <v>4</v>
       </c>
-      <c r="D100" s="100">
+      <c r="D103" s="100">
         <v>25</v>
       </c>
-      <c r="E100" s="100" t="s">
+      <c r="E103" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="F100" s="100" t="s">
+      <c r="F103" s="100" t="s">
         <v>343</v>
       </c>
-      <c r="G100" s="166" t="s">
+      <c r="G103" s="166" t="s">
         <v>366</v>
       </c>
-      <c r="H100" s="107" t="s">
+      <c r="H103" s="107" t="s">
         <v>103</v>
       </c>
-      <c r="I100" s="90" t="s">
+      <c r="I103" s="90" t="s">
         <v>340</v>
       </c>
-      <c r="J100" s="91">
+      <c r="J103" s="91">
         <v>3.78</v>
       </c>
-      <c r="K100" s="91">
+      <c r="K103" s="91">
         <f t="shared" si="2"/>
         <v>3.78</v>
       </c>
-      <c r="L100" s="161" t="s">
+      <c r="L103" s="161" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.25" hidden="1">
-      <c r="A101" s="92" t="s">
+    <row r="104" spans="1:12" ht="14.25">
+      <c r="A104" s="92" t="s">
         <v>364</v>
       </c>
-      <c r="B101" s="100">
+      <c r="B104" s="100">
         <v>4</v>
       </c>
-      <c r="C101" s="100">
+      <c r="C104" s="100">
         <v>2</v>
       </c>
-      <c r="D101" s="100">
-        <v>1</v>
-      </c>
-      <c r="E101" s="100" t="s">
+      <c r="D104" s="100">
+        <v>1</v>
+      </c>
+      <c r="E104" s="100" t="s">
         <v>100</v>
       </c>
-      <c r="F101" s="100" t="s">
+      <c r="F104" s="100" t="s">
         <v>362</v>
       </c>
-      <c r="G101" s="108" t="s">
+      <c r="G104" s="108" t="s">
         <v>345</v>
       </c>
-      <c r="H101" s="109" t="s">
+      <c r="H104" s="109" t="s">
         <v>103</v>
       </c>
-      <c r="I101" s="90" t="s">
+      <c r="I104" s="90" t="s">
         <v>340</v>
       </c>
-      <c r="J101" s="91">
+      <c r="J104" s="91">
         <v>0.96</v>
       </c>
-      <c r="K101" s="91">
+      <c r="K104" s="91">
         <f t="shared" si="2"/>
         <v>3.84</v>
       </c>
-      <c r="L101" s="161" t="s">
+      <c r="L104" s="161" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="102" spans="1:12" s="93" customFormat="1" ht="14.25">
-      <c r="A102" s="92" t="s">
+    <row r="105" spans="1:12" s="93" customFormat="1" ht="14.25">
+      <c r="A105" s="92" t="s">
         <v>371</v>
       </c>
-      <c r="B102" s="100">
-        <v>1</v>
-      </c>
-      <c r="C102" s="100">
-        <v>1</v>
-      </c>
-      <c r="D102" s="100">
-        <v>1</v>
-      </c>
-      <c r="E102" s="100" t="s">
+      <c r="B105" s="100">
+        <v>1</v>
+      </c>
+      <c r="C105" s="100">
+        <v>1</v>
+      </c>
+      <c r="D105" s="100">
+        <v>1</v>
+      </c>
+      <c r="E105" s="100" t="s">
         <v>372</v>
       </c>
-      <c r="F102" s="100" t="s">
+      <c r="F105" s="100" t="s">
         <v>373</v>
       </c>
-      <c r="G102" s="162"/>
-      <c r="H102" s="109" t="s">
+      <c r="G105" s="162"/>
+      <c r="H105" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="I102" s="163"/>
-      <c r="J102" s="91">
+      <c r="I105" s="163"/>
+      <c r="J105" s="91">
         <v>11.75</v>
       </c>
-      <c r="K102" s="91">
-        <f>B102/D102*J102</f>
+      <c r="K105" s="91">
+        <f>B105/D105*J105</f>
         <v>11.75</v>
       </c>
-      <c r="L102" s="161" t="s">
+      <c r="L105" s="161" t="s">
         <v>374</v>
       </c>
     </row>
-    <row r="103" spans="1:12" s="93" customFormat="1" ht="14.25">
-      <c r="A103" s="92" t="s">
+    <row r="106" spans="1:12" s="93" customFormat="1" ht="14.25">
+      <c r="A106" s="92" t="s">
         <v>375</v>
       </c>
-      <c r="B103" s="100">
-        <v>1</v>
-      </c>
-      <c r="C103" s="100">
-        <v>1</v>
-      </c>
-      <c r="D103" s="100">
-        <v>1</v>
-      </c>
-      <c r="E103" s="100" t="s">
+      <c r="B106" s="100">
+        <v>1</v>
+      </c>
+      <c r="C106" s="100">
+        <v>1</v>
+      </c>
+      <c r="D106" s="100">
+        <v>1</v>
+      </c>
+      <c r="E106" s="100" t="s">
         <v>372</v>
       </c>
-      <c r="F103" s="100" t="s">
+      <c r="F106" s="100" t="s">
         <v>192</v>
       </c>
-      <c r="G103" s="162"/>
-      <c r="H103" s="109" t="s">
+      <c r="G106" s="162"/>
+      <c r="H106" s="109" t="s">
         <v>65</v>
       </c>
-      <c r="I103" s="163"/>
-      <c r="J103" s="91">
+      <c r="I106" s="163"/>
+      <c r="J106" s="91">
         <v>15.25</v>
       </c>
-      <c r="K103" s="91">
-        <f>B103/D103*J103</f>
+      <c r="K106" s="91">
+        <f>B106/D106*J106</f>
         <v>15.25</v>
       </c>
-      <c r="L103" s="161" t="s">
+      <c r="L106" s="161" t="s">
         <v>374</v>
       </c>
-    </row>
-    <row r="104" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A104" s="62"/>
-      <c r="B104" s="63"/>
-      <c r="C104" s="63"/>
-      <c r="D104" s="64"/>
-      <c r="G104" s="110"/>
-      <c r="I104" s="63"/>
-      <c r="J104" s="65"/>
-      <c r="K104" s="65"/>
-      <c r="L104" s="66"/>
-    </row>
-    <row r="105" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A105" s="62"/>
-      <c r="B105" s="63"/>
-      <c r="C105" s="63"/>
-      <c r="D105" s="64"/>
-      <c r="G105" s="110"/>
-      <c r="I105" s="63"/>
-      <c r="J105" s="65"/>
-      <c r="K105" s="65"/>
-      <c r="L105" s="66"/>
-    </row>
-    <row r="106" spans="1:12" ht="14.25" customHeight="1">
-      <c r="A106" s="62"/>
-      <c r="B106" s="63"/>
-      <c r="C106" s="63"/>
-      <c r="D106" s="64"/>
-      <c r="E106" s="66" t="s">
-        <v>378</v>
-      </c>
-      <c r="F106" s="66">
-        <v>10</v>
-      </c>
-      <c r="G106" s="110"/>
-      <c r="I106" s="63"/>
-      <c r="J106" s="65"/>
-      <c r="K106" s="65"/>
-      <c r="L106" s="66"/>
     </row>
     <row r="107" spans="1:12" ht="14.25" customHeight="1">
       <c r="A107" s="62"/>
       <c r="B107" s="63"/>
       <c r="C107" s="63"/>
       <c r="D107" s="64"/>
-      <c r="E107" s="66" t="s">
-        <v>379</v>
-      </c>
-      <c r="F107" s="66">
-        <v>10</v>
-      </c>
       <c r="G107" s="110"/>
       <c r="I107" s="63"/>
       <c r="J107" s="65"/>
@@ -6398,6 +6460,12 @@
       <c r="B109" s="63"/>
       <c r="C109" s="63"/>
       <c r="D109" s="64"/>
+      <c r="E109" s="66" t="s">
+        <v>378</v>
+      </c>
+      <c r="F109" s="66">
+        <v>10</v>
+      </c>
       <c r="G109" s="110"/>
       <c r="I109" s="63"/>
       <c r="J109" s="65"/>
@@ -6409,6 +6477,12 @@
       <c r="B110" s="63"/>
       <c r="C110" s="63"/>
       <c r="D110" s="64"/>
+      <c r="E110" s="66" t="s">
+        <v>379</v>
+      </c>
+      <c r="F110" s="66">
+        <v>10</v>
+      </c>
       <c r="G110" s="110"/>
       <c r="I110" s="63"/>
       <c r="J110" s="65"/>
@@ -15842,102 +15916,131 @@
       <c r="K967" s="65"/>
       <c r="L967" s="66"/>
     </row>
+    <row r="968" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A968" s="62"/>
+      <c r="B968" s="63"/>
+      <c r="C968" s="63"/>
+      <c r="D968" s="64"/>
+      <c r="G968" s="110"/>
+      <c r="I968" s="63"/>
+      <c r="J968" s="65"/>
+      <c r="K968" s="65"/>
+      <c r="L968" s="66"/>
+    </row>
+    <row r="969" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A969" s="62"/>
+      <c r="B969" s="63"/>
+      <c r="C969" s="63"/>
+      <c r="D969" s="64"/>
+      <c r="G969" s="110"/>
+      <c r="I969" s="63"/>
+      <c r="J969" s="65"/>
+      <c r="K969" s="65"/>
+      <c r="L969" s="66"/>
+    </row>
+    <row r="970" spans="1:12" ht="14.25" customHeight="1">
+      <c r="A970" s="62"/>
+      <c r="B970" s="63"/>
+      <c r="C970" s="63"/>
+      <c r="D970" s="64"/>
+      <c r="G970" s="110"/>
+      <c r="I970" s="63"/>
+      <c r="J970" s="65"/>
+      <c r="K970" s="65"/>
+      <c r="L970" s="66"/>
+    </row>
   </sheetData>
-  <autoFilter ref="A1:L103">
-    <filterColumn colId="7">
-      <filters>
-        <filter val="Structural"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
-  <mergeCells count="1">
-    <mergeCell ref="N3:N4"/>
+  <autoFilter ref="A4:L106"/>
+  <mergeCells count="3">
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="A1:L1"/>
+    <mergeCell ref="A2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L2" r:id="rId1"/>
-    <hyperlink ref="L3" r:id="rId2"/>
-    <hyperlink ref="L4" r:id="rId3"/>
-    <hyperlink ref="L5" r:id="rId4"/>
-    <hyperlink ref="L6" r:id="rId5"/>
-    <hyperlink ref="L7" r:id="rId6"/>
-    <hyperlink ref="L8" r:id="rId7"/>
-    <hyperlink ref="L9" r:id="rId8"/>
-    <hyperlink ref="L10" r:id="rId9"/>
-    <hyperlink ref="L11" r:id="rId10" location="Ask"/>
-    <hyperlink ref="L12" r:id="rId11"/>
-    <hyperlink ref="L13" r:id="rId12"/>
-    <hyperlink ref="L18" r:id="rId13"/>
-    <hyperlink ref="L19" r:id="rId14"/>
-    <hyperlink ref="L23" r:id="rId15" location="90631A007"/>
-    <hyperlink ref="L34" r:id="rId16" location="368=229"/>
-    <hyperlink ref="L35" r:id="rId17" location="48925k93/=18nja2z"/>
-    <hyperlink ref="L41" r:id="rId18" location="95947A007"/>
-    <hyperlink ref="L43" r:id="rId19" location="92141A005"/>
-    <hyperlink ref="L45" r:id="rId20"/>
-    <hyperlink ref="L46" r:id="rId21"/>
-    <hyperlink ref="L47" r:id="rId22"/>
-    <hyperlink ref="L48" r:id="rId23"/>
-    <hyperlink ref="L49" r:id="rId24"/>
-    <hyperlink ref="L50" r:id="rId25"/>
-    <hyperlink ref="L51" r:id="rId26"/>
-    <hyperlink ref="L52" r:id="rId27" location="348=95"/>
-    <hyperlink ref="L53" r:id="rId28" location="348=107"/>
-    <hyperlink ref="L54" r:id="rId29" location="348=96"/>
-    <hyperlink ref="L55" r:id="rId30" location="371=276"/>
-    <hyperlink ref="L56" r:id="rId31"/>
-    <hyperlink ref="L57" r:id="rId32" location="371=455"/>
-    <hyperlink ref="L58" r:id="rId33" location="371=246"/>
-    <hyperlink ref="L59" r:id="rId34"/>
-    <hyperlink ref="L60" r:id="rId35"/>
-    <hyperlink ref="L61" r:id="rId36"/>
-    <hyperlink ref="L62" r:id="rId37" location="348=123"/>
-    <hyperlink ref="L63" r:id="rId38"/>
-    <hyperlink ref="L64" r:id="rId39"/>
-    <hyperlink ref="L65" r:id="rId40" location="199=15"/>
-    <hyperlink ref="L66" r:id="rId41"/>
-    <hyperlink ref="L67" r:id="rId42"/>
-    <hyperlink ref="L68" r:id="rId43"/>
-    <hyperlink ref="L69" r:id="rId44"/>
-    <hyperlink ref="L71" r:id="rId45"/>
-    <hyperlink ref="L72" r:id="rId46"/>
-    <hyperlink ref="L73" r:id="rId47"/>
-    <hyperlink ref="L74" r:id="rId48"/>
-    <hyperlink ref="L75" r:id="rId49"/>
-    <hyperlink ref="L76" r:id="rId50" location="371=256"/>
-    <hyperlink ref="L77" r:id="rId51"/>
-    <hyperlink ref="L78" r:id="rId52"/>
-    <hyperlink ref="L79" r:id="rId53"/>
-    <hyperlink ref="L85" r:id="rId54"/>
-    <hyperlink ref="L86" r:id="rId55"/>
-    <hyperlink ref="L89" r:id="rId56"/>
-    <hyperlink ref="L90" r:id="rId57"/>
-    <hyperlink ref="L91" r:id="rId58"/>
-    <hyperlink ref="L92" r:id="rId59"/>
-    <hyperlink ref="L93" r:id="rId60"/>
-    <hyperlink ref="L95" r:id="rId61"/>
-    <hyperlink ref="L97" r:id="rId62"/>
-    <hyperlink ref="L98" r:id="rId63"/>
-    <hyperlink ref="L99" r:id="rId64"/>
-    <hyperlink ref="L70" r:id="rId65"/>
-    <hyperlink ref="L21" r:id="rId66" location="92949a144/=18njs1n"/>
-    <hyperlink ref="L27" r:id="rId67" location="92949A150"/>
-    <hyperlink ref="L31" r:id="rId68" location="92949a106/=18njrx6"/>
-    <hyperlink ref="L101" r:id="rId69" location="93330A252"/>
-    <hyperlink ref="L24" r:id="rId70" location="90631A005"/>
-    <hyperlink ref="L25" r:id="rId71" location="92949A146"/>
-    <hyperlink ref="L26" r:id="rId72" location="92949A148"/>
-    <hyperlink ref="L28" r:id="rId73" location="92949A151"/>
-    <hyperlink ref="L29" r:id="rId74" location="92949A153"/>
-    <hyperlink ref="L30" r:id="rId75" location="92949A160"/>
-    <hyperlink ref="L36" r:id="rId76" location="92510A442"/>
-    <hyperlink ref="L38" r:id="rId77" location="91780A162"/>
-    <hyperlink ref="L39" r:id="rId78" location="91780A164"/>
-    <hyperlink ref="L40" r:id="rId79" location="91780A166"/>
-    <hyperlink ref="L44" r:id="rId80" location="91545A280"/>
-    <hyperlink ref="L42" r:id="rId81" location="92141A008"/>
-    <hyperlink ref="L102" r:id="rId82"/>
-    <hyperlink ref="L103" r:id="rId83"/>
-    <hyperlink ref="L88" r:id="rId84"/>
+    <hyperlink ref="L5" r:id="rId1"/>
+    <hyperlink ref="L6" r:id="rId2"/>
+    <hyperlink ref="L7" r:id="rId3"/>
+    <hyperlink ref="L8" r:id="rId4"/>
+    <hyperlink ref="L9" r:id="rId5"/>
+    <hyperlink ref="L10" r:id="rId6"/>
+    <hyperlink ref="L11" r:id="rId7"/>
+    <hyperlink ref="L12" r:id="rId8"/>
+    <hyperlink ref="L13" r:id="rId9"/>
+    <hyperlink ref="L14" r:id="rId10" location="Ask"/>
+    <hyperlink ref="L15" r:id="rId11"/>
+    <hyperlink ref="L16" r:id="rId12"/>
+    <hyperlink ref="L21" r:id="rId13"/>
+    <hyperlink ref="L22" r:id="rId14"/>
+    <hyperlink ref="L26" r:id="rId15" location="90631A007"/>
+    <hyperlink ref="L37" r:id="rId16" location="368=229"/>
+    <hyperlink ref="L38" r:id="rId17" location="48925k93/=18nja2z"/>
+    <hyperlink ref="L44" r:id="rId18" location="95947A007"/>
+    <hyperlink ref="L46" r:id="rId19" location="92141A005"/>
+    <hyperlink ref="L48" r:id="rId20"/>
+    <hyperlink ref="L49" r:id="rId21"/>
+    <hyperlink ref="L50" r:id="rId22"/>
+    <hyperlink ref="L51" r:id="rId23"/>
+    <hyperlink ref="L52" r:id="rId24"/>
+    <hyperlink ref="L53" r:id="rId25"/>
+    <hyperlink ref="L54" r:id="rId26"/>
+    <hyperlink ref="L55" r:id="rId27" location="348=95"/>
+    <hyperlink ref="L56" r:id="rId28" location="348=107"/>
+    <hyperlink ref="L57" r:id="rId29" location="348=96"/>
+    <hyperlink ref="L58" r:id="rId30" location="371=276"/>
+    <hyperlink ref="L59" r:id="rId31"/>
+    <hyperlink ref="L60" r:id="rId32" location="371=455"/>
+    <hyperlink ref="L61" r:id="rId33" location="371=246"/>
+    <hyperlink ref="L62" r:id="rId34"/>
+    <hyperlink ref="L63" r:id="rId35"/>
+    <hyperlink ref="L64" r:id="rId36"/>
+    <hyperlink ref="L65" r:id="rId37" location="348=123"/>
+    <hyperlink ref="L66" r:id="rId38"/>
+    <hyperlink ref="L67" r:id="rId39"/>
+    <hyperlink ref="L68" r:id="rId40" location="199=15"/>
+    <hyperlink ref="L69" r:id="rId41"/>
+    <hyperlink ref="L70" r:id="rId42"/>
+    <hyperlink ref="L71" r:id="rId43"/>
+    <hyperlink ref="L72" r:id="rId44"/>
+    <hyperlink ref="L74" r:id="rId45"/>
+    <hyperlink ref="L75" r:id="rId46"/>
+    <hyperlink ref="L76" r:id="rId47"/>
+    <hyperlink ref="L77" r:id="rId48"/>
+    <hyperlink ref="L78" r:id="rId49"/>
+    <hyperlink ref="L79" r:id="rId50" location="371=256"/>
+    <hyperlink ref="L80" r:id="rId51"/>
+    <hyperlink ref="L81" r:id="rId52"/>
+    <hyperlink ref="L82" r:id="rId53"/>
+    <hyperlink ref="L88" r:id="rId54"/>
+    <hyperlink ref="L89" r:id="rId55"/>
+    <hyperlink ref="L92" r:id="rId56"/>
+    <hyperlink ref="L93" r:id="rId57"/>
+    <hyperlink ref="L94" r:id="rId58"/>
+    <hyperlink ref="L95" r:id="rId59"/>
+    <hyperlink ref="L96" r:id="rId60"/>
+    <hyperlink ref="L98" r:id="rId61"/>
+    <hyperlink ref="L100" r:id="rId62"/>
+    <hyperlink ref="L101" r:id="rId63"/>
+    <hyperlink ref="L102" r:id="rId64"/>
+    <hyperlink ref="L73" r:id="rId65"/>
+    <hyperlink ref="L24" r:id="rId66" location="92949a144/=18njs1n"/>
+    <hyperlink ref="L30" r:id="rId67" location="92949A150"/>
+    <hyperlink ref="L34" r:id="rId68" location="92949a106/=18njrx6"/>
+    <hyperlink ref="L104" r:id="rId69" location="93330A252"/>
+    <hyperlink ref="L27" r:id="rId70" location="90631A005"/>
+    <hyperlink ref="L28" r:id="rId71" location="92949A146"/>
+    <hyperlink ref="L29" r:id="rId72" location="92949A148"/>
+    <hyperlink ref="L31" r:id="rId73" location="92949A151"/>
+    <hyperlink ref="L32" r:id="rId74" location="92949A153"/>
+    <hyperlink ref="L33" r:id="rId75" location="92949A160"/>
+    <hyperlink ref="L39" r:id="rId76" location="92510A442"/>
+    <hyperlink ref="L41" r:id="rId77" location="91780A162"/>
+    <hyperlink ref="L42" r:id="rId78" location="91780A164"/>
+    <hyperlink ref="L43" r:id="rId79" location="91780A166"/>
+    <hyperlink ref="L47" r:id="rId80" location="91545A280"/>
+    <hyperlink ref="L45" r:id="rId81" location="92141A008"/>
+    <hyperlink ref="L105" r:id="rId82"/>
+    <hyperlink ref="L106" r:id="rId83"/>
+    <hyperlink ref="L91" r:id="rId84"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId85"/>

--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="387">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1139" uniqueCount="388">
   <si>
     <t>Part</t>
   </si>
@@ -1189,6 +1189,9 @@
   </si>
   <si>
     <t>© 2018 California Institute of Technology. Government sponsorship acknowledged</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/category/115/25d-mm-metal-gearmotors</t>
   </si>
 </sst>
 </file>
@@ -2013,10 +2016,6 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2024,14 +2023,15 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="31" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2040,6 +2040,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2324,9 +2327,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA970"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A3" sqref="A1:XFD3"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2349,52 +2352,52 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="167" customFormat="1" ht="32.65" customHeight="1">
-      <c r="A1" s="177" t="s">
+      <c r="A1" s="176" t="s">
         <v>384</v>
       </c>
-      <c r="B1" s="178"/>
-      <c r="C1" s="178"/>
-      <c r="D1" s="178"/>
-      <c r="E1" s="178"/>
-      <c r="F1" s="178"/>
-      <c r="G1" s="178"/>
-      <c r="H1" s="178"/>
-      <c r="I1" s="179"/>
-      <c r="J1" s="178"/>
-      <c r="K1" s="178"/>
-      <c r="L1" s="178"/>
+      <c r="B1" s="177"/>
+      <c r="C1" s="177"/>
+      <c r="D1" s="177"/>
+      <c r="E1" s="177"/>
+      <c r="F1" s="177"/>
+      <c r="G1" s="177"/>
+      <c r="H1" s="177"/>
+      <c r="I1" s="178"/>
+      <c r="J1" s="177"/>
+      <c r="K1" s="177"/>
+      <c r="L1" s="177"/>
     </row>
     <row r="2" spans="1:27" s="169" customFormat="1" ht="27.4" customHeight="1">
-      <c r="A2" s="174" t="s">
+      <c r="A2" s="179" t="s">
         <v>385</v>
       </c>
-      <c r="B2" s="174"/>
-      <c r="C2" s="174"/>
-      <c r="D2" s="174"/>
-      <c r="E2" s="174"/>
-      <c r="F2" s="174"/>
-      <c r="G2" s="175"/>
-      <c r="H2" s="175"/>
-      <c r="I2" s="175"/>
-      <c r="J2" s="175"/>
-      <c r="K2" s="175"/>
-      <c r="L2" s="175"/>
+      <c r="B2" s="179"/>
+      <c r="C2" s="179"/>
+      <c r="D2" s="179"/>
+      <c r="E2" s="179"/>
+      <c r="F2" s="179"/>
+      <c r="G2" s="172"/>
+      <c r="H2" s="172"/>
+      <c r="I2" s="172"/>
+      <c r="J2" s="172"/>
+      <c r="K2" s="172"/>
+      <c r="L2" s="172"/>
     </row>
     <row r="3" spans="1:27" s="169" customFormat="1" ht="27" customHeight="1">
-      <c r="A3" s="176" t="s">
+      <c r="A3" s="173" t="s">
         <v>386</v>
       </c>
-      <c r="B3" s="176"/>
-      <c r="C3" s="176"/>
-      <c r="D3" s="176"/>
-      <c r="E3" s="176"/>
-      <c r="F3" s="176"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="172"/>
-      <c r="I3" s="173"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="172"/>
-      <c r="L3" s="172"/>
+      <c r="B3" s="173"/>
+      <c r="C3" s="173"/>
+      <c r="D3" s="173"/>
+      <c r="E3" s="173"/>
+      <c r="F3" s="173"/>
+      <c r="G3" s="170"/>
+      <c r="H3" s="170"/>
+      <c r="I3" s="171"/>
+      <c r="J3" s="170"/>
+      <c r="K3" s="170"/>
+      <c r="L3" s="170"/>
     </row>
     <row r="4" spans="1:27" ht="45" customHeight="1">
       <c r="A4" s="27" t="s">
@@ -2530,7 +2533,7 @@
         <v>44</v>
       </c>
       <c r="M6" s="39"/>
-      <c r="N6" s="170" t="s">
+      <c r="N6" s="174" t="s">
         <v>45</v>
       </c>
     </row>
@@ -2571,7 +2574,7 @@
         <v>49</v>
       </c>
       <c r="M7" s="40"/>
-      <c r="N7" s="171"/>
+      <c r="N7" s="175"/>
       <c r="Y7" s="41"/>
       <c r="Z7" s="41"/>
       <c r="AA7" s="41"/>
@@ -4300,7 +4303,7 @@
         <v>209.70000000000002</v>
       </c>
       <c r="L50" s="86" t="s">
-        <v>199</v>
+        <v>387</v>
       </c>
       <c r="M50" s="34"/>
     </row>
@@ -15978,72 +15981,71 @@
     <hyperlink ref="L46" r:id="rId19" location="92141A005"/>
     <hyperlink ref="L48" r:id="rId20"/>
     <hyperlink ref="L49" r:id="rId21"/>
-    <hyperlink ref="L50" r:id="rId22"/>
-    <hyperlink ref="L51" r:id="rId23"/>
-    <hyperlink ref="L52" r:id="rId24"/>
-    <hyperlink ref="L53" r:id="rId25"/>
-    <hyperlink ref="L54" r:id="rId26"/>
-    <hyperlink ref="L55" r:id="rId27" location="348=95"/>
-    <hyperlink ref="L56" r:id="rId28" location="348=107"/>
-    <hyperlink ref="L57" r:id="rId29" location="348=96"/>
-    <hyperlink ref="L58" r:id="rId30" location="371=276"/>
-    <hyperlink ref="L59" r:id="rId31"/>
-    <hyperlink ref="L60" r:id="rId32" location="371=455"/>
-    <hyperlink ref="L61" r:id="rId33" location="371=246"/>
-    <hyperlink ref="L62" r:id="rId34"/>
-    <hyperlink ref="L63" r:id="rId35"/>
-    <hyperlink ref="L64" r:id="rId36"/>
-    <hyperlink ref="L65" r:id="rId37" location="348=123"/>
-    <hyperlink ref="L66" r:id="rId38"/>
-    <hyperlink ref="L67" r:id="rId39"/>
-    <hyperlink ref="L68" r:id="rId40" location="199=15"/>
-    <hyperlink ref="L69" r:id="rId41"/>
-    <hyperlink ref="L70" r:id="rId42"/>
-    <hyperlink ref="L71" r:id="rId43"/>
-    <hyperlink ref="L72" r:id="rId44"/>
-    <hyperlink ref="L74" r:id="rId45"/>
-    <hyperlink ref="L75" r:id="rId46"/>
-    <hyperlink ref="L76" r:id="rId47"/>
-    <hyperlink ref="L77" r:id="rId48"/>
-    <hyperlink ref="L78" r:id="rId49"/>
-    <hyperlink ref="L79" r:id="rId50" location="371=256"/>
-    <hyperlink ref="L80" r:id="rId51"/>
-    <hyperlink ref="L81" r:id="rId52"/>
-    <hyperlink ref="L82" r:id="rId53"/>
-    <hyperlink ref="L88" r:id="rId54"/>
-    <hyperlink ref="L89" r:id="rId55"/>
-    <hyperlink ref="L92" r:id="rId56"/>
-    <hyperlink ref="L93" r:id="rId57"/>
-    <hyperlink ref="L94" r:id="rId58"/>
-    <hyperlink ref="L95" r:id="rId59"/>
-    <hyperlink ref="L96" r:id="rId60"/>
-    <hyperlink ref="L98" r:id="rId61"/>
-    <hyperlink ref="L100" r:id="rId62"/>
-    <hyperlink ref="L101" r:id="rId63"/>
-    <hyperlink ref="L102" r:id="rId64"/>
-    <hyperlink ref="L73" r:id="rId65"/>
-    <hyperlink ref="L24" r:id="rId66" location="92949a144/=18njs1n"/>
-    <hyperlink ref="L30" r:id="rId67" location="92949A150"/>
-    <hyperlink ref="L34" r:id="rId68" location="92949a106/=18njrx6"/>
-    <hyperlink ref="L104" r:id="rId69" location="93330A252"/>
-    <hyperlink ref="L27" r:id="rId70" location="90631A005"/>
-    <hyperlink ref="L28" r:id="rId71" location="92949A146"/>
-    <hyperlink ref="L29" r:id="rId72" location="92949A148"/>
-    <hyperlink ref="L31" r:id="rId73" location="92949A151"/>
-    <hyperlink ref="L32" r:id="rId74" location="92949A153"/>
-    <hyperlink ref="L33" r:id="rId75" location="92949A160"/>
-    <hyperlink ref="L39" r:id="rId76" location="92510A442"/>
-    <hyperlink ref="L41" r:id="rId77" location="91780A162"/>
-    <hyperlink ref="L42" r:id="rId78" location="91780A164"/>
-    <hyperlink ref="L43" r:id="rId79" location="91780A166"/>
-    <hyperlink ref="L47" r:id="rId80" location="91545A280"/>
-    <hyperlink ref="L45" r:id="rId81" location="92141A008"/>
-    <hyperlink ref="L105" r:id="rId82"/>
-    <hyperlink ref="L106" r:id="rId83"/>
-    <hyperlink ref="L91" r:id="rId84"/>
+    <hyperlink ref="L51" r:id="rId22"/>
+    <hyperlink ref="L52" r:id="rId23"/>
+    <hyperlink ref="L53" r:id="rId24"/>
+    <hyperlink ref="L54" r:id="rId25"/>
+    <hyperlink ref="L55" r:id="rId26" location="348=95"/>
+    <hyperlink ref="L56" r:id="rId27" location="348=107"/>
+    <hyperlink ref="L57" r:id="rId28" location="348=96"/>
+    <hyperlink ref="L58" r:id="rId29" location="371=276"/>
+    <hyperlink ref="L59" r:id="rId30"/>
+    <hyperlink ref="L60" r:id="rId31" location="371=455"/>
+    <hyperlink ref="L61" r:id="rId32" location="371=246"/>
+    <hyperlink ref="L62" r:id="rId33"/>
+    <hyperlink ref="L63" r:id="rId34"/>
+    <hyperlink ref="L64" r:id="rId35"/>
+    <hyperlink ref="L65" r:id="rId36" location="348=123"/>
+    <hyperlink ref="L66" r:id="rId37"/>
+    <hyperlink ref="L67" r:id="rId38"/>
+    <hyperlink ref="L68" r:id="rId39" location="199=15"/>
+    <hyperlink ref="L69" r:id="rId40"/>
+    <hyperlink ref="L70" r:id="rId41"/>
+    <hyperlink ref="L71" r:id="rId42"/>
+    <hyperlink ref="L72" r:id="rId43"/>
+    <hyperlink ref="L74" r:id="rId44"/>
+    <hyperlink ref="L75" r:id="rId45"/>
+    <hyperlink ref="L76" r:id="rId46"/>
+    <hyperlink ref="L77" r:id="rId47"/>
+    <hyperlink ref="L78" r:id="rId48"/>
+    <hyperlink ref="L79" r:id="rId49" location="371=256"/>
+    <hyperlink ref="L80" r:id="rId50"/>
+    <hyperlink ref="L81" r:id="rId51"/>
+    <hyperlink ref="L82" r:id="rId52"/>
+    <hyperlink ref="L88" r:id="rId53"/>
+    <hyperlink ref="L89" r:id="rId54"/>
+    <hyperlink ref="L92" r:id="rId55"/>
+    <hyperlink ref="L93" r:id="rId56"/>
+    <hyperlink ref="L94" r:id="rId57"/>
+    <hyperlink ref="L95" r:id="rId58"/>
+    <hyperlink ref="L96" r:id="rId59"/>
+    <hyperlink ref="L98" r:id="rId60"/>
+    <hyperlink ref="L100" r:id="rId61"/>
+    <hyperlink ref="L101" r:id="rId62"/>
+    <hyperlink ref="L102" r:id="rId63"/>
+    <hyperlink ref="L73" r:id="rId64"/>
+    <hyperlink ref="L24" r:id="rId65" location="92949a144/=18njs1n"/>
+    <hyperlink ref="L30" r:id="rId66" location="92949A150"/>
+    <hyperlink ref="L34" r:id="rId67" location="92949a106/=18njrx6"/>
+    <hyperlink ref="L104" r:id="rId68" location="93330A252"/>
+    <hyperlink ref="L27" r:id="rId69" location="90631A005"/>
+    <hyperlink ref="L28" r:id="rId70" location="92949A146"/>
+    <hyperlink ref="L29" r:id="rId71" location="92949A148"/>
+    <hyperlink ref="L31" r:id="rId72" location="92949A151"/>
+    <hyperlink ref="L32" r:id="rId73" location="92949A153"/>
+    <hyperlink ref="L33" r:id="rId74" location="92949A160"/>
+    <hyperlink ref="L39" r:id="rId75" location="92510A442"/>
+    <hyperlink ref="L41" r:id="rId76" location="91780A162"/>
+    <hyperlink ref="L42" r:id="rId77" location="91780A164"/>
+    <hyperlink ref="L43" r:id="rId78" location="91780A166"/>
+    <hyperlink ref="L47" r:id="rId79" location="91545A280"/>
+    <hyperlink ref="L45" r:id="rId80" location="92141A008"/>
+    <hyperlink ref="L105" r:id="rId81"/>
+    <hyperlink ref="L106" r:id="rId82"/>
+    <hyperlink ref="L91" r:id="rId83"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId85"/>
+  <pageSetup orientation="portrait" r:id="rId84"/>
 </worksheet>
 </file>
 

--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -2325,11 +2325,12 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L89" sqref="L89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2452,7 +2453,7 @@
       <c r="Z4" s="29"/>
       <c r="AA4" s="29"/>
     </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1">
+    <row r="5" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A5" s="111" t="s">
         <v>38</v>
       </c>
@@ -2496,7 +2497,7 @@
       <c r="Z5" s="34"/>
       <c r="AA5" s="34"/>
     </row>
-    <row r="6" spans="1:27" ht="14.25" customHeight="1">
+    <row r="6" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A6" s="79" t="s">
         <v>41</v>
       </c>
@@ -2537,7 +2538,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14.25" customHeight="1">
+    <row r="7" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A7" s="120" t="s">
         <v>46</v>
       </c>
@@ -2579,7 +2580,7 @@
       <c r="Z7" s="41"/>
       <c r="AA7" s="41"/>
     </row>
-    <row r="8" spans="1:27" ht="14.25" customHeight="1">
+    <row r="8" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A8" s="79" t="s">
         <v>50</v>
       </c>
@@ -2617,7 +2618,7 @@
       </c>
       <c r="M8" s="34"/>
     </row>
-    <row r="9" spans="1:27" ht="14.25" customHeight="1">
+    <row r="9" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A9" s="79" t="s">
         <v>52</v>
       </c>
@@ -2655,7 +2656,7 @@
       </c>
       <c r="M9" s="34"/>
     </row>
-    <row r="10" spans="1:27" s="95" customFormat="1" ht="14.25" customHeight="1">
+    <row r="10" spans="1:27" s="95" customFormat="1" ht="14.25" hidden="1" customHeight="1">
       <c r="A10" s="120" t="s">
         <v>56</v>
       </c>
@@ -2696,7 +2697,7 @@
       <c r="Z10" s="96"/>
       <c r="AA10" s="96"/>
     </row>
-    <row r="11" spans="1:27" ht="14.25">
+    <row r="11" spans="1:27" ht="14.25" hidden="1">
       <c r="A11" s="87" t="s">
         <v>59</v>
       </c>
@@ -2734,7 +2735,7 @@
       </c>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="1:27" ht="14.25">
+    <row r="12" spans="1:27" ht="14.25" hidden="1">
       <c r="A12" s="79" t="s">
         <v>62</v>
       </c>
@@ -2774,7 +2775,7 @@
       </c>
       <c r="M12" s="46"/>
     </row>
-    <row r="13" spans="1:27" ht="14.25">
+    <row r="13" spans="1:27" ht="14.25" hidden="1">
       <c r="A13" s="79" t="s">
         <v>67</v>
       </c>
@@ -2815,7 +2816,7 @@
       <c r="Z13" s="41"/>
       <c r="AA13" s="41"/>
     </row>
-    <row r="14" spans="1:27" ht="14.25">
+    <row r="14" spans="1:27" ht="14.25" hidden="1">
       <c r="A14" s="79" t="s">
         <v>71</v>
       </c>
@@ -2853,7 +2854,7 @@
       </c>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:27" ht="28.5">
+    <row r="15" spans="1:27" ht="28.5" hidden="1">
       <c r="A15" s="79" t="s">
         <v>74</v>
       </c>
@@ -2891,7 +2892,7 @@
       </c>
       <c r="M15" s="34"/>
     </row>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1">
+    <row r="16" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A16" s="79" t="s">
         <v>79</v>
       </c>
@@ -2962,7 +2963,7 @@
         <f t="shared" si="1"/>
         <v>0.70000000000000007</v>
       </c>
-      <c r="L17" s="85" t="s">
+      <c r="L17" s="168" t="s">
         <v>368</v>
       </c>
       <c r="M17" s="34"/>
@@ -3000,7 +3001,7 @@
         <f t="shared" si="1"/>
         <v>0.89999999999999991</v>
       </c>
-      <c r="L18" s="86" t="s">
+      <c r="L18" s="168" t="s">
         <v>369</v>
       </c>
       <c r="M18" s="34"/>
@@ -3081,7 +3082,7 @@
       </c>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="1:27" ht="14.25" customHeight="1">
+    <row r="21" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A21" s="79" t="s">
         <v>89</v>
       </c>
@@ -3121,7 +3122,7 @@
       </c>
       <c r="M21" s="34"/>
     </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1">
+    <row r="22" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A22" s="79" t="s">
         <v>93</v>
       </c>
@@ -3161,7 +3162,7 @@
       </c>
       <c r="M22" s="34"/>
     </row>
-    <row r="23" spans="1:27" ht="14.25" customHeight="1">
+    <row r="23" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A23" s="79" t="s">
         <v>97</v>
       </c>
@@ -3202,7 +3203,7 @@
       </c>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:27" ht="14.25" customHeight="1">
+    <row r="24" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A24" s="79" t="s">
         <v>346</v>
       </c>
@@ -3243,7 +3244,7 @@
       </c>
       <c r="M24" s="34"/>
     </row>
-    <row r="25" spans="1:27" ht="14.25" customHeight="1">
+    <row r="25" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A25" s="79" t="s">
         <v>105</v>
       </c>
@@ -3287,7 +3288,7 @@
       <c r="Z25" s="34"/>
       <c r="AA25" s="34"/>
     </row>
-    <row r="26" spans="1:27" ht="14.25" customHeight="1">
+    <row r="26" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A26" s="79" t="s">
         <v>108</v>
       </c>
@@ -3330,7 +3331,7 @@
       <c r="Z26" s="34"/>
       <c r="AA26" s="34"/>
     </row>
-    <row r="27" spans="1:27" ht="14.25" customHeight="1">
+    <row r="27" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A27" s="79" t="s">
         <v>112</v>
       </c>
@@ -3373,7 +3374,7 @@
       <c r="Z27" s="34"/>
       <c r="AA27" s="34"/>
     </row>
-    <row r="28" spans="1:27" ht="14.25" customHeight="1">
+    <row r="28" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A28" s="79" t="s">
         <v>349</v>
       </c>
@@ -3417,7 +3418,7 @@
       <c r="Z28" s="34"/>
       <c r="AA28" s="34"/>
     </row>
-    <row r="29" spans="1:27" ht="14.25" customHeight="1">
+    <row r="29" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A29" s="79" t="s">
         <v>350</v>
       </c>
@@ -3460,7 +3461,7 @@
       <c r="Z29" s="34"/>
       <c r="AA29" s="34"/>
     </row>
-    <row r="30" spans="1:27" ht="14.25" customHeight="1">
+    <row r="30" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A30" s="79" t="s">
         <v>353</v>
       </c>
@@ -3500,7 +3501,7 @@
       </c>
       <c r="M30" s="34"/>
     </row>
-    <row r="31" spans="1:27" ht="14.25" customHeight="1">
+    <row r="31" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A31" s="79" t="s">
         <v>354</v>
       </c>
@@ -3540,7 +3541,7 @@
       </c>
       <c r="M31" s="34"/>
     </row>
-    <row r="32" spans="1:27" ht="14.25" customHeight="1">
+    <row r="32" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A32" s="79" t="s">
         <v>356</v>
       </c>
@@ -3580,7 +3581,7 @@
       </c>
       <c r="M32" s="34"/>
     </row>
-    <row r="33" spans="1:27" ht="14.25" customHeight="1">
+    <row r="33" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A33" s="79" t="s">
         <v>358</v>
       </c>
@@ -3620,7 +3621,7 @@
       </c>
       <c r="M33" s="34"/>
     </row>
-    <row r="34" spans="1:27" ht="14.25" customHeight="1">
+    <row r="34" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A34" s="79" t="s">
         <v>359</v>
       </c>
@@ -3660,7 +3661,7 @@
       </c>
       <c r="M34" s="34"/>
     </row>
-    <row r="35" spans="1:27" ht="14.25" customHeight="1">
+    <row r="35" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A35" s="79" t="s">
         <v>360</v>
       </c>
@@ -3700,7 +3701,7 @@
       </c>
       <c r="M35" s="34"/>
     </row>
-    <row r="36" spans="1:27" ht="14.25" customHeight="1">
+    <row r="36" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A36" s="79" t="s">
         <v>145</v>
       </c>
@@ -3740,7 +3741,7 @@
       </c>
       <c r="M36" s="34"/>
     </row>
-    <row r="37" spans="1:27" ht="14.25" customHeight="1">
+    <row r="37" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A37" s="79" t="s">
         <v>147</v>
       </c>
@@ -3780,7 +3781,7 @@
       </c>
       <c r="M37" s="34"/>
     </row>
-    <row r="38" spans="1:27" ht="14.25" customHeight="1">
+    <row r="38" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A38" s="79" t="s">
         <v>151</v>
       </c>
@@ -3820,7 +3821,7 @@
       </c>
       <c r="M38" s="34"/>
     </row>
-    <row r="39" spans="1:27" ht="14.25" customHeight="1">
+    <row r="39" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A39" s="79" t="s">
         <v>155</v>
       </c>
@@ -3860,7 +3861,7 @@
       </c>
       <c r="M39" s="34"/>
     </row>
-    <row r="40" spans="1:27" ht="14.25" customHeight="1">
+    <row r="40" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A40" s="79" t="s">
         <v>159</v>
       </c>
@@ -3901,7 +3902,7 @@
       </c>
       <c r="M40" s="34"/>
     </row>
-    <row r="41" spans="1:27" ht="14.25" customHeight="1">
+    <row r="41" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A41" s="79" t="s">
         <v>162</v>
       </c>
@@ -3941,7 +3942,7 @@
       </c>
       <c r="M41" s="34"/>
     </row>
-    <row r="42" spans="1:27" ht="14.25" customHeight="1">
+    <row r="42" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A42" s="79" t="s">
         <v>166</v>
       </c>
@@ -3984,7 +3985,7 @@
       <c r="Z42" s="34"/>
       <c r="AA42" s="34"/>
     </row>
-    <row r="43" spans="1:27" ht="14.25" customHeight="1">
+    <row r="43" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A43" s="79" t="s">
         <v>170</v>
       </c>
@@ -4027,7 +4028,7 @@
       <c r="Z43" s="34"/>
       <c r="AA43" s="34"/>
     </row>
-    <row r="44" spans="1:27" ht="14.25" customHeight="1">
+    <row r="44" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A44" s="79" t="s">
         <v>174</v>
       </c>
@@ -4070,7 +4071,7 @@
       <c r="Z44" s="34"/>
       <c r="AA44" s="34"/>
     </row>
-    <row r="45" spans="1:27" ht="14.25" customHeight="1">
+    <row r="45" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A45" s="79" t="s">
         <v>178</v>
       </c>
@@ -4113,7 +4114,7 @@
       <c r="Z45" s="34"/>
       <c r="AA45" s="34"/>
     </row>
-    <row r="46" spans="1:27" ht="14.25" customHeight="1">
+    <row r="46" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A46" s="79" t="s">
         <v>182</v>
       </c>
@@ -4153,7 +4154,7 @@
       </c>
       <c r="M46" s="34"/>
     </row>
-    <row r="47" spans="1:27" ht="14.25" customHeight="1">
+    <row r="47" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A47" s="79" t="s">
         <v>186</v>
       </c>
@@ -4193,7 +4194,7 @@
       </c>
       <c r="M47" s="34"/>
     </row>
-    <row r="48" spans="1:27" ht="14.25" customHeight="1">
+    <row r="48" spans="1:27" ht="14.25" hidden="1" customHeight="1">
       <c r="A48" s="79" t="s">
         <v>194</v>
       </c>
@@ -4231,7 +4232,7 @@
       </c>
       <c r="M48" s="34"/>
     </row>
-    <row r="49" spans="1:13" ht="14.25" customHeight="1">
+    <row r="49" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A49" s="79" t="s">
         <v>196</v>
       </c>
@@ -4269,7 +4270,7 @@
       </c>
       <c r="M49" s="34"/>
     </row>
-    <row r="50" spans="1:13" ht="14.25" customHeight="1">
+    <row r="50" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A50" s="79" t="s">
         <v>198</v>
       </c>
@@ -4307,7 +4308,7 @@
       </c>
       <c r="M50" s="34"/>
     </row>
-    <row r="51" spans="1:13" ht="14.25" customHeight="1">
+    <row r="51" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A51" s="79" t="s">
         <v>200</v>
       </c>
@@ -4345,7 +4346,7 @@
       </c>
       <c r="M51" s="34"/>
     </row>
-    <row r="52" spans="1:13" ht="14.25" customHeight="1">
+    <row r="52" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A52" s="79" t="s">
         <v>203</v>
       </c>
@@ -4385,7 +4386,7 @@
       </c>
       <c r="M52" s="34"/>
     </row>
-    <row r="53" spans="1:13" ht="14.25" customHeight="1">
+    <row r="53" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A53" s="79" t="s">
         <v>206</v>
       </c>
@@ -4425,7 +4426,7 @@
       </c>
       <c r="M53" s="34"/>
     </row>
-    <row r="54" spans="1:13" ht="14.25" customHeight="1">
+    <row r="54" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A54" s="79" t="s">
         <v>209</v>
       </c>
@@ -4465,7 +4466,7 @@
       </c>
       <c r="M54" s="34"/>
     </row>
-    <row r="55" spans="1:13" ht="14.25" customHeight="1">
+    <row r="55" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A55" s="79" t="s">
         <v>212</v>
       </c>
@@ -4505,7 +4506,7 @@
       </c>
       <c r="M55" s="34"/>
     </row>
-    <row r="56" spans="1:13" ht="14.25" customHeight="1">
+    <row r="56" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A56" s="79" t="s">
         <v>215</v>
       </c>
@@ -4545,7 +4546,7 @@
       </c>
       <c r="M56" s="34"/>
     </row>
-    <row r="57" spans="1:13" ht="14.25" customHeight="1">
+    <row r="57" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A57" s="79" t="s">
         <v>218</v>
       </c>
@@ -4585,7 +4586,7 @@
       </c>
       <c r="M57" s="34"/>
     </row>
-    <row r="58" spans="1:13" ht="14.25" customHeight="1">
+    <row r="58" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A58" s="79" t="s">
         <v>220</v>
       </c>
@@ -4625,7 +4626,7 @@
       </c>
       <c r="M58" s="34"/>
     </row>
-    <row r="59" spans="1:13" ht="14.25" customHeight="1">
+    <row r="59" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A59" s="79" t="s">
         <v>223</v>
       </c>
@@ -4663,7 +4664,7 @@
       </c>
       <c r="M59" s="34"/>
     </row>
-    <row r="60" spans="1:13" ht="14.25" customHeight="1">
+    <row r="60" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A60" s="87" t="s">
         <v>226</v>
       </c>
@@ -4703,7 +4704,7 @@
       </c>
       <c r="M60" s="34"/>
     </row>
-    <row r="61" spans="1:13" ht="14.25" customHeight="1">
+    <row r="61" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A61" s="87" t="s">
         <v>229</v>
       </c>
@@ -4743,7 +4744,7 @@
       </c>
       <c r="M61" s="34"/>
     </row>
-    <row r="62" spans="1:13" ht="14.25" customHeight="1">
+    <row r="62" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A62" s="79" t="s">
         <v>232</v>
       </c>
@@ -4783,7 +4784,7 @@
       </c>
       <c r="M62" s="34"/>
     </row>
-    <row r="63" spans="1:13" ht="14.25" customHeight="1">
+    <row r="63" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A63" s="79" t="s">
         <v>235</v>
       </c>
@@ -4823,7 +4824,7 @@
       </c>
       <c r="M63" s="34"/>
     </row>
-    <row r="64" spans="1:13" ht="14.25" customHeight="1">
+    <row r="64" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A64" s="79" t="s">
         <v>237</v>
       </c>
@@ -4863,7 +4864,7 @@
       </c>
       <c r="M64" s="34"/>
     </row>
-    <row r="65" spans="1:13" ht="14.25" customHeight="1">
+    <row r="65" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A65" s="79" t="s">
         <v>240</v>
       </c>
@@ -4903,7 +4904,7 @@
       </c>
       <c r="M65" s="34"/>
     </row>
-    <row r="66" spans="1:13" ht="14.25" customHeight="1">
+    <row r="66" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A66" s="79" t="s">
         <v>242</v>
       </c>
@@ -4943,7 +4944,7 @@
       </c>
       <c r="M66" s="34"/>
     </row>
-    <row r="67" spans="1:13" ht="14.25" customHeight="1">
+    <row r="67" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A67" s="79" t="s">
         <v>244</v>
       </c>
@@ -4983,7 +4984,7 @@
       </c>
       <c r="M67" s="34"/>
     </row>
-    <row r="68" spans="1:13" ht="14.25" customHeight="1">
+    <row r="68" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A68" s="79" t="s">
         <v>246</v>
       </c>
@@ -5023,7 +5024,7 @@
       </c>
       <c r="M68" s="34"/>
     </row>
-    <row r="69" spans="1:13" ht="14.25" customHeight="1">
+    <row r="69" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A69" s="79" t="s">
         <v>250</v>
       </c>
@@ -5063,7 +5064,7 @@
       </c>
       <c r="M69" s="34"/>
     </row>
-    <row r="70" spans="1:13" ht="14.25" customHeight="1">
+    <row r="70" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A70" s="79" t="s">
         <v>253</v>
       </c>
@@ -5103,7 +5104,7 @@
       </c>
       <c r="M70" s="34"/>
     </row>
-    <row r="71" spans="1:13" ht="14.25" customHeight="1">
+    <row r="71" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A71" s="79" t="s">
         <v>256</v>
       </c>
@@ -5143,7 +5144,7 @@
       </c>
       <c r="M71" s="34"/>
     </row>
-    <row r="72" spans="1:13" ht="14.25" customHeight="1">
+    <row r="72" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A72" s="79" t="s">
         <v>259</v>
       </c>
@@ -5183,7 +5184,7 @@
       </c>
       <c r="M72" s="34"/>
     </row>
-    <row r="73" spans="1:13" ht="14.25" customHeight="1">
+    <row r="73" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A73" s="87" t="s">
         <v>262</v>
       </c>
@@ -5223,7 +5224,7 @@
       </c>
       <c r="M73" s="34"/>
     </row>
-    <row r="74" spans="1:13" ht="14.25" customHeight="1">
+    <row r="74" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A74" s="79" t="s">
         <v>264</v>
       </c>
@@ -5263,7 +5264,7 @@
       </c>
       <c r="M74" s="34"/>
     </row>
-    <row r="75" spans="1:13" ht="14.25" customHeight="1">
+    <row r="75" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A75" s="79" t="s">
         <v>267</v>
       </c>
@@ -5304,7 +5305,7 @@
       </c>
       <c r="M75" s="34"/>
     </row>
-    <row r="76" spans="1:13" ht="14.25" customHeight="1">
+    <row r="76" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A76" s="79" t="s">
         <v>269</v>
       </c>
@@ -5344,7 +5345,7 @@
       </c>
       <c r="M76" s="34"/>
     </row>
-    <row r="77" spans="1:13" ht="14.25" customHeight="1">
+    <row r="77" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A77" s="79" t="s">
         <v>272</v>
       </c>
@@ -5384,7 +5385,7 @@
       </c>
       <c r="M77" s="34"/>
     </row>
-    <row r="78" spans="1:13" ht="14.25" customHeight="1">
+    <row r="78" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A78" s="79" t="s">
         <v>274</v>
       </c>
@@ -5424,7 +5425,7 @@
       </c>
       <c r="M78" s="34"/>
     </row>
-    <row r="79" spans="1:13" ht="14.25" customHeight="1">
+    <row r="79" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A79" s="87" t="s">
         <v>277</v>
       </c>
@@ -5463,7 +5464,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="14.25" customHeight="1">
+    <row r="80" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A80" s="79" t="s">
         <v>280</v>
       </c>
@@ -5500,7 +5501,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="14.25" customHeight="1">
+    <row r="81" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A81" s="79" t="s">
         <v>283</v>
       </c>
@@ -5835,7 +5836,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="14.25" customHeight="1">
+    <row r="90" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A90" s="139" t="s">
         <v>310</v>
       </c>
@@ -5868,7 +5869,7 @@
         <v>311</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="14.25" customHeight="1">
+    <row r="91" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A91" s="139" t="s">
         <v>312</v>
       </c>
@@ -5901,7 +5902,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="14.25" customHeight="1">
+    <row r="92" spans="1:13" ht="14.25" hidden="1" customHeight="1">
       <c r="A92" s="145" t="s">
         <v>314</v>
       </c>
@@ -6076,7 +6077,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.25" customHeight="1">
+    <row r="97" spans="1:12" ht="14.25" hidden="1" customHeight="1">
       <c r="A97" s="120" t="s">
         <v>11</v>
       </c>
@@ -6181,7 +6182,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.25" customHeight="1">
+    <row r="100" spans="1:12" ht="14.25" hidden="1" customHeight="1">
       <c r="A100" s="150" t="s">
         <v>26</v>
       </c>
@@ -6218,7 +6219,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.25" customHeight="1">
+    <row r="101" spans="1:12" ht="14.25" hidden="1" customHeight="1">
       <c r="A101" s="150" t="s">
         <v>29</v>
       </c>
@@ -6255,7 +6256,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.25" customHeight="1">
+    <row r="102" spans="1:12" ht="14.25" hidden="1" customHeight="1">
       <c r="A102" s="155" t="s">
         <v>31</v>
       </c>
@@ -6288,7 +6289,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14.25">
+    <row r="103" spans="1:12" ht="14.25" hidden="1">
       <c r="A103" s="89" t="s">
         <v>361</v>
       </c>
@@ -6327,7 +6328,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="14.25">
+    <row r="104" spans="1:12" ht="14.25" hidden="1">
       <c r="A104" s="92" t="s">
         <v>364</v>
       </c>
@@ -6366,7 +6367,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="93" customFormat="1" ht="14.25">
+    <row r="105" spans="1:12" s="93" customFormat="1" ht="14.25" hidden="1">
       <c r="A105" s="92" t="s">
         <v>371</v>
       </c>
@@ -6401,7 +6402,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="93" customFormat="1" ht="14.25">
+    <row r="106" spans="1:12" s="93" customFormat="1" ht="14.25" hidden="1">
       <c r="A106" s="92" t="s">
         <v>375</v>
       </c>
@@ -15953,7 +15954,13 @@
       <c r="L970" s="66"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L106"/>
+  <autoFilter ref="A4:L106">
+    <filterColumn colId="4">
+      <filters>
+        <filter val="Digikey"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <mergeCells count="3">
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="A1:L1"/>
@@ -16043,9 +16050,11 @@
     <hyperlink ref="L105" r:id="rId81"/>
     <hyperlink ref="L106" r:id="rId82"/>
     <hyperlink ref="L91" r:id="rId83"/>
+    <hyperlink ref="L17" r:id="rId84"/>
+    <hyperlink ref="L18" r:id="rId85"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId84"/>
+  <pageSetup orientation="portrait" r:id="rId86"/>
 </worksheet>
 </file>
 

--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -276,12 +276,6 @@
     <t>E22</t>
   </si>
   <si>
-    <t>CF14JT200KCT-ND</t>
-  </si>
-  <si>
-    <t>301KXBK-ND</t>
-  </si>
-  <si>
     <t>LED Array</t>
   </si>
   <si>
@@ -1134,12 +1128,6 @@
     <t>Resistors 10K</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/vishay-bc-components/MRS25000C2102FRP00/PPC21.0KZCT-ND/594966</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF18JT20K0/CF18JT20K0CT-ND/2022773</t>
-  </si>
-  <si>
     <t>https://www.digikey.com/product-detail/en/bulgin/C3900BA/1091-1026-ND/2747857</t>
   </si>
   <si>
@@ -1192,6 +1180,18 @@
   </si>
   <si>
     <t>https://www.pololu.com/category/115/25d-mm-metal-gearmotors</t>
+  </si>
+  <si>
+    <t>CF14JT10K0CT-ND</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT10K0/CF14JT10K0CT-ND/1830374</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/CF14JT22K0/CF14JT22K0CT-ND/1830383</t>
+  </si>
+  <si>
+    <t>CF14JT22K0CT-ND</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1201,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="32">
+  <fonts count="33">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1399,6 +1399,12 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1553,7 +1559,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="180">
+  <cellXfs count="183">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2044,6 +2050,11 @@
     <xf numFmtId="0" fontId="31" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2325,12 +2336,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:AA970"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L89" sqref="L89"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.3984375" defaultRowHeight="15" customHeight="1"/>
@@ -2354,7 +2364,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="167" customFormat="1" ht="32.65" customHeight="1">
       <c r="A1" s="176" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
       <c r="B1" s="177"/>
       <c r="C1" s="177"/>
@@ -2370,7 +2380,7 @@
     </row>
     <row r="2" spans="1:27" s="169" customFormat="1" ht="27.4" customHeight="1">
       <c r="A2" s="179" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="B2" s="179"/>
       <c r="C2" s="179"/>
@@ -2386,7 +2396,7 @@
     </row>
     <row r="3" spans="1:27" s="169" customFormat="1" ht="27" customHeight="1">
       <c r="A3" s="173" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
       <c r="B3" s="173"/>
       <c r="C3" s="173"/>
@@ -2426,7 +2436,7 @@
         <v>7</v>
       </c>
       <c r="I4" s="27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J4" s="4" t="s">
         <v>8</v>
@@ -2453,7 +2463,7 @@
       <c r="Z4" s="29"/>
       <c r="AA4" s="29"/>
     </row>
-    <row r="5" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="5" spans="1:27" ht="14.25" customHeight="1">
       <c r="A5" s="111" t="s">
         <v>38</v>
       </c>
@@ -2497,7 +2507,7 @@
       <c r="Z5" s="34"/>
       <c r="AA5" s="34"/>
     </row>
-    <row r="6" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="6" spans="1:27" ht="14.25" customHeight="1">
       <c r="A6" s="79" t="s">
         <v>41</v>
       </c>
@@ -2538,7 +2548,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="7" spans="1:27" ht="14.25" customHeight="1">
       <c r="A7" s="120" t="s">
         <v>46</v>
       </c>
@@ -2580,7 +2590,7 @@
       <c r="Z7" s="41"/>
       <c r="AA7" s="41"/>
     </row>
-    <row r="8" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="8" spans="1:27" ht="14.25" customHeight="1">
       <c r="A8" s="79" t="s">
         <v>50</v>
       </c>
@@ -2618,7 +2628,7 @@
       </c>
       <c r="M8" s="34"/>
     </row>
-    <row r="9" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="9" spans="1:27" ht="14.25" customHeight="1">
       <c r="A9" s="79" t="s">
         <v>52</v>
       </c>
@@ -2656,7 +2666,7 @@
       </c>
       <c r="M9" s="34"/>
     </row>
-    <row r="10" spans="1:27" s="95" customFormat="1" ht="14.25" hidden="1" customHeight="1">
+    <row r="10" spans="1:27" s="95" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="120" t="s">
         <v>56</v>
       </c>
@@ -2697,7 +2707,7 @@
       <c r="Z10" s="96"/>
       <c r="AA10" s="96"/>
     </row>
-    <row r="11" spans="1:27" ht="14.25" hidden="1">
+    <row r="11" spans="1:27" ht="14.25">
       <c r="A11" s="87" t="s">
         <v>59</v>
       </c>
@@ -2735,7 +2745,7 @@
       </c>
       <c r="M11" s="34"/>
     </row>
-    <row r="12" spans="1:27" ht="14.25" hidden="1">
+    <row r="12" spans="1:27" ht="14.25">
       <c r="A12" s="79" t="s">
         <v>62</v>
       </c>
@@ -2761,7 +2771,7 @@
         <v>65</v>
       </c>
       <c r="I12" s="119" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J12" s="81">
         <v>9.25</v>
@@ -2775,7 +2785,7 @@
       </c>
       <c r="M12" s="46"/>
     </row>
-    <row r="13" spans="1:27" ht="14.25" hidden="1">
+    <row r="13" spans="1:27" ht="14.25">
       <c r="A13" s="79" t="s">
         <v>67</v>
       </c>
@@ -2816,7 +2826,7 @@
       <c r="Z13" s="41"/>
       <c r="AA13" s="41"/>
     </row>
-    <row r="14" spans="1:27" ht="14.25" hidden="1">
+    <row r="14" spans="1:27" ht="14.25">
       <c r="A14" s="79" t="s">
         <v>71</v>
       </c>
@@ -2854,7 +2864,7 @@
       </c>
       <c r="M14" s="34"/>
     </row>
-    <row r="15" spans="1:27" ht="28.5" hidden="1">
+    <row r="15" spans="1:27" ht="28.5">
       <c r="A15" s="79" t="s">
         <v>74</v>
       </c>
@@ -2892,7 +2902,7 @@
       </c>
       <c r="M15" s="34"/>
     </row>
-    <row r="16" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="16" spans="1:27" ht="14.25" customHeight="1">
       <c r="A16" s="79" t="s">
         <v>79</v>
       </c>
@@ -2932,7 +2942,7 @@
     </row>
     <row r="17" spans="1:27" ht="14.25" customHeight="1">
       <c r="A17" s="79" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B17" s="97">
         <v>25</v>
@@ -2949,28 +2959,28 @@
       <c r="F17" s="97" t="s">
         <v>81</v>
       </c>
-      <c r="G17" s="101" t="s">
-        <v>82</v>
+      <c r="G17" s="181" t="s">
+        <v>384</v>
       </c>
       <c r="H17" s="97" t="s">
         <v>13</v>
       </c>
       <c r="I17" s="80"/>
       <c r="J17" s="81">
-        <v>2.8000000000000001E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="K17" s="81">
         <f t="shared" si="1"/>
-        <v>0.70000000000000007</v>
-      </c>
-      <c r="L17" s="168" t="s">
-        <v>368</v>
+        <v>0.72</v>
+      </c>
+      <c r="L17" s="182" t="s">
+        <v>385</v>
       </c>
       <c r="M17" s="34"/>
     </row>
     <row r="18" spans="1:27" ht="14.25" customHeight="1">
       <c r="A18" s="79" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="B18" s="97">
         <v>25</v>
@@ -2987,28 +2997,28 @@
       <c r="F18" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="G18" s="105" t="s">
-        <v>83</v>
+      <c r="G18" s="180" t="s">
+        <v>387</v>
       </c>
       <c r="H18" s="97" t="s">
         <v>13</v>
       </c>
       <c r="I18" s="80"/>
       <c r="J18" s="81">
-        <v>3.5999999999999997E-2</v>
+        <v>2.8799999999999999E-2</v>
       </c>
       <c r="K18" s="81">
         <f t="shared" si="1"/>
-        <v>0.89999999999999991</v>
+        <v>0.72</v>
       </c>
       <c r="L18" s="168" t="s">
-        <v>369</v>
+        <v>386</v>
       </c>
       <c r="M18" s="34"/>
     </row>
     <row r="19" spans="1:27" ht="14.25" customHeight="1">
       <c r="A19" s="79" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B19" s="97">
         <v>1</v>
@@ -3023,7 +3033,7 @@
         <v>19</v>
       </c>
       <c r="F19" s="97" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="G19" s="101" t="s">
         <v>23</v>
@@ -3040,13 +3050,13 @@
         <v>24.95</v>
       </c>
       <c r="L19" s="86" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="M19" s="34"/>
     </row>
     <row r="20" spans="1:27" ht="14.25" customHeight="1">
       <c r="A20" s="79" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="B20" s="99">
         <v>1</v>
@@ -3064,7 +3074,7 @@
         <v>16</v>
       </c>
       <c r="G20" s="101" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="H20" s="99" t="s">
         <v>13</v>
@@ -3078,13 +3088,13 @@
         <v>4.49</v>
       </c>
       <c r="L20" s="88" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="M20" s="34"/>
     </row>
-    <row r="21" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="21" spans="1:27" ht="14.25" customHeight="1">
       <c r="A21" s="79" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B21" s="97">
         <v>6</v>
@@ -3096,10 +3106,10 @@
         <v>2</v>
       </c>
       <c r="E21" s="97" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F21" s="97" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G21" s="101" t="s">
         <v>23</v>
@@ -3108,7 +3118,7 @@
         <v>65</v>
       </c>
       <c r="I21" s="119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J21" s="81">
         <v>25.27</v>
@@ -3118,13 +3128,13 @@
         <v>75.81</v>
       </c>
       <c r="L21" s="86" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="M21" s="34"/>
     </row>
-    <row r="22" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="22" spans="1:27" ht="14.25" customHeight="1">
       <c r="A22" s="79" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B22" s="97">
         <v>4</v>
@@ -3136,10 +3146,10 @@
         <v>1</v>
       </c>
       <c r="E22" s="97" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F22" s="97" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G22" s="101" t="s">
         <v>23</v>
@@ -3148,7 +3158,7 @@
         <v>65</v>
       </c>
       <c r="I22" s="119" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J22" s="81">
         <v>12.9</v>
@@ -3158,28 +3168,28 @@
         <v>51.6</v>
       </c>
       <c r="L22" s="86" t="s">
+        <v>94</v>
+      </c>
+      <c r="M22" s="34"/>
+    </row>
+    <row r="23" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A23" s="79" t="s">
+        <v>95</v>
+      </c>
+      <c r="B23" s="97">
+        <v>1</v>
+      </c>
+      <c r="C23" s="97">
+        <v>1</v>
+      </c>
+      <c r="D23" s="98">
+        <v>1</v>
+      </c>
+      <c r="E23" s="97" t="s">
+        <v>92</v>
+      </c>
+      <c r="F23" s="97" t="s">
         <v>96</v>
-      </c>
-      <c r="M22" s="34"/>
-    </row>
-    <row r="23" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A23" s="79" t="s">
-        <v>97</v>
-      </c>
-      <c r="B23" s="97">
-        <v>1</v>
-      </c>
-      <c r="C23" s="97">
-        <v>1</v>
-      </c>
-      <c r="D23" s="98">
-        <v>1</v>
-      </c>
-      <c r="E23" s="97" t="s">
-        <v>94</v>
-      </c>
-      <c r="F23" s="97" t="s">
-        <v>98</v>
       </c>
       <c r="G23" s="101" t="s">
         <v>23</v>
@@ -3188,7 +3198,7 @@
         <v>65</v>
       </c>
       <c r="I23" s="119" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J23" s="81">
         <f>38.9+36.9</f>
@@ -3199,13 +3209,13 @@
         <v>75.8</v>
       </c>
       <c r="L23" s="86" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="M23" s="34"/>
     </row>
-    <row r="24" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="24" spans="1:27" ht="14.25" customHeight="1">
       <c r="A24" s="79" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B24" s="97">
         <v>300</v>
@@ -3218,19 +3228,19 @@
         <v>100</v>
       </c>
       <c r="E24" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F24" s="97" t="s">
+        <v>99</v>
+      </c>
+      <c r="G24" s="101" t="s">
         <v>100</v>
       </c>
-      <c r="F24" s="97" t="s">
+      <c r="H24" s="97" t="s">
         <v>101</v>
       </c>
-      <c r="G24" s="101" t="s">
-        <v>102</v>
-      </c>
-      <c r="H24" s="97" t="s">
-        <v>103</v>
-      </c>
       <c r="I24" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J24" s="81">
         <v>3.45</v>
@@ -3240,13 +3250,13 @@
         <v>10.350000000000001</v>
       </c>
       <c r="L24" s="82" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="M24" s="34"/>
     </row>
-    <row r="25" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="25" spans="1:27" ht="14.25" customHeight="1">
       <c r="A25" s="79" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B25" s="99">
         <v>25</v>
@@ -3258,19 +3268,19 @@
         <v>25</v>
       </c>
       <c r="E25" s="99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F25" s="99" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G25" s="102" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H25" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I25" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J25" s="81">
         <v>5.61</v>
@@ -3288,9 +3298,9 @@
       <c r="Z25" s="34"/>
       <c r="AA25" s="34"/>
     </row>
-    <row r="26" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="26" spans="1:27" ht="14.25" customHeight="1">
       <c r="A26" s="79" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B26" s="97">
         <v>200</v>
@@ -3302,19 +3312,19 @@
         <v>100</v>
       </c>
       <c r="E26" s="97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F26" s="97" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G26" s="101" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H26" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I26" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J26" s="81">
         <v>2.72</v>
@@ -3324,16 +3334,16 @@
         <v>5.44</v>
       </c>
       <c r="L26" s="85" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="M26" s="34"/>
       <c r="Y26" s="34"/>
       <c r="Z26" s="34"/>
       <c r="AA26" s="34"/>
     </row>
-    <row r="27" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="27" spans="1:27" ht="14.25" customHeight="1">
       <c r="A27" s="79" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" s="99">
         <v>100</v>
@@ -3345,19 +3355,19 @@
         <v>100</v>
       </c>
       <c r="E27" s="99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F27" s="99" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G27" s="103" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H27" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I27" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J27" s="81">
         <v>2.79</v>
@@ -3367,16 +3377,16 @@
         <v>2.79</v>
       </c>
       <c r="L27" s="84" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="M27" s="34"/>
       <c r="Y27" s="34"/>
       <c r="Z27" s="34"/>
       <c r="AA27" s="34"/>
     </row>
-    <row r="28" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="28" spans="1:27" ht="14.25" customHeight="1">
       <c r="A28" s="79" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B28" s="97">
         <v>100</v>
@@ -3389,19 +3399,19 @@
         <v>100</v>
       </c>
       <c r="E28" s="97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F28" s="97" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G28" s="101" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H28" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I28" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J28" s="81">
         <v>3.72</v>
@@ -3411,16 +3421,16 @@
         <v>3.72</v>
       </c>
       <c r="L28" s="85" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M28" s="34"/>
       <c r="Y28" s="34"/>
       <c r="Z28" s="34"/>
       <c r="AA28" s="34"/>
     </row>
-    <row r="29" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="29" spans="1:27" ht="14.25" customHeight="1">
       <c r="A29" s="79" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B29" s="97">
         <v>100</v>
@@ -3432,19 +3442,19 @@
         <v>100</v>
       </c>
       <c r="E29" s="97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F29" s="97" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G29" s="103" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H29" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I29" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J29" s="81">
         <v>3.72</v>
@@ -3454,16 +3464,16 @@
         <v>3.72</v>
       </c>
       <c r="L29" s="85" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="M29" s="34"/>
       <c r="Y29" s="34"/>
       <c r="Z29" s="34"/>
       <c r="AA29" s="34"/>
     </row>
-    <row r="30" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="30" spans="1:27" ht="14.25" customHeight="1">
       <c r="A30" s="79" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B30" s="99">
         <v>100</v>
@@ -3475,19 +3485,19 @@
         <v>100</v>
       </c>
       <c r="E30" s="99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F30" s="99" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G30" s="103" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="H30" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I30" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J30" s="81">
         <v>4.07</v>
@@ -3497,13 +3507,13 @@
         <v>4.07</v>
       </c>
       <c r="L30" s="84" t="s">
+        <v>350</v>
+      </c>
+      <c r="M30" s="34"/>
+    </row>
+    <row r="31" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A31" s="79" t="s">
         <v>352</v>
-      </c>
-      <c r="M30" s="34"/>
-    </row>
-    <row r="31" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A31" s="79" t="s">
-        <v>354</v>
       </c>
       <c r="B31" s="99">
         <v>100</v>
@@ -3515,19 +3525,19 @@
         <v>100</v>
       </c>
       <c r="E31" s="99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F31" s="99" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G31" s="103" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H31" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I31" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J31" s="81">
         <v>4.41</v>
@@ -3537,13 +3547,13 @@
         <v>4.41</v>
       </c>
       <c r="L31" s="84" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="M31" s="34"/>
     </row>
-    <row r="32" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="32" spans="1:27" ht="14.25" customHeight="1">
       <c r="A32" s="79" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B32" s="99">
         <v>50</v>
@@ -3555,19 +3565,19 @@
         <v>50</v>
       </c>
       <c r="E32" s="99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F32" s="99" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="G32" s="103" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="H32" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I32" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J32" s="81">
         <v>5.42</v>
@@ -3577,13 +3587,13 @@
         <v>5.42</v>
       </c>
       <c r="L32" s="84" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="M32" s="34"/>
     </row>
-    <row r="33" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="33" spans="1:27" ht="14.25" customHeight="1">
       <c r="A33" s="79" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B33" s="97">
         <v>50</v>
@@ -3595,19 +3605,19 @@
         <v>50</v>
       </c>
       <c r="E33" s="97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F33" s="97" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G33" s="101" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H33" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I33" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J33" s="81">
         <v>6.51</v>
@@ -3617,13 +3627,13 @@
         <v>6.51</v>
       </c>
       <c r="L33" s="85" t="s">
+        <v>355</v>
+      </c>
+      <c r="M33" s="34"/>
+    </row>
+    <row r="34" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A34" s="79" t="s">
         <v>357</v>
-      </c>
-      <c r="M33" s="34"/>
-    </row>
-    <row r="34" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A34" s="79" t="s">
-        <v>359</v>
       </c>
       <c r="B34" s="97">
         <v>100</v>
@@ -3635,19 +3645,19 @@
         <v>100</v>
       </c>
       <c r="E34" s="97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F34" s="97" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G34" s="101" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="H34" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I34" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J34" s="81">
         <v>2.87</v>
@@ -3657,13 +3667,13 @@
         <v>2.87</v>
       </c>
       <c r="L34" s="85" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="M34" s="34"/>
     </row>
-    <row r="35" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="35" spans="1:27" ht="14.25" customHeight="1">
       <c r="A35" s="79" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B35" s="99">
         <v>100</v>
@@ -3675,19 +3685,19 @@
         <v>100</v>
       </c>
       <c r="E35" s="99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F35" s="99" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="G35" s="103" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="H35" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I35" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J35" s="81">
         <v>7.7</v>
@@ -3697,13 +3707,13 @@
         <v>7.7</v>
       </c>
       <c r="L35" s="84" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M35" s="34"/>
     </row>
-    <row r="36" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="36" spans="1:27" ht="14.25" customHeight="1">
       <c r="A36" s="79" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B36" s="97">
         <v>1</v>
@@ -3715,19 +3725,19 @@
         <v>1</v>
       </c>
       <c r="E36" s="97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F36" s="97" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G36" s="101" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="H36" s="97" t="s">
         <v>65</v>
       </c>
       <c r="I36" s="80" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J36" s="81">
         <v>23.16</v>
@@ -3737,13 +3747,13 @@
         <v>23.16</v>
       </c>
       <c r="L36" s="168" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="M36" s="34"/>
     </row>
-    <row r="37" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="37" spans="1:27" ht="14.25" customHeight="1">
       <c r="A37" s="79" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B37" s="97">
         <v>11</v>
@@ -3755,19 +3765,19 @@
         <v>1</v>
       </c>
       <c r="E37" s="97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F37" s="97" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G37" s="101" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H37" s="118" t="s">
         <v>65</v>
       </c>
       <c r="I37" s="119" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="J37" s="81">
         <v>2.2599999999999998</v>
@@ -3777,37 +3787,37 @@
         <v>24.86</v>
       </c>
       <c r="L37" s="86" t="s">
+        <v>148</v>
+      </c>
+      <c r="M37" s="34"/>
+    </row>
+    <row r="38" spans="1:27" ht="14.25" customHeight="1">
+      <c r="A38" s="79" t="s">
+        <v>149</v>
+      </c>
+      <c r="B38" s="97">
+        <v>1</v>
+      </c>
+      <c r="C38" s="97">
+        <v>1</v>
+      </c>
+      <c r="D38" s="98">
+        <v>1</v>
+      </c>
+      <c r="E38" s="97" t="s">
+        <v>98</v>
+      </c>
+      <c r="F38" s="97" t="s">
         <v>150</v>
       </c>
-      <c r="M37" s="34"/>
-    </row>
-    <row r="38" spans="1:27" ht="14.25" hidden="1" customHeight="1">
-      <c r="A38" s="79" t="s">
+      <c r="G38" s="101" t="s">
         <v>151</v>
-      </c>
-      <c r="B38" s="97">
-        <v>1</v>
-      </c>
-      <c r="C38" s="97">
-        <v>1</v>
-      </c>
-      <c r="D38" s="98">
-        <v>1</v>
-      </c>
-      <c r="E38" s="97" t="s">
-        <v>100</v>
-      </c>
-      <c r="F38" s="97" t="s">
-        <v>152</v>
-      </c>
-      <c r="G38" s="101" t="s">
-        <v>153</v>
       </c>
       <c r="H38" s="118" t="s">
         <v>65</v>
       </c>
       <c r="I38" s="119" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J38" s="81">
         <v>4.92</v>
@@ -3817,13 +3827,13 @@
         <v>4.92</v>
       </c>
       <c r="L38" s="86" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="M38" s="34"/>
     </row>
-    <row r="39" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="39" spans="1:27" ht="14.25" customHeight="1">
       <c r="A39" s="79" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B39" s="99">
         <v>68</v>
@@ -3835,19 +3845,19 @@
         <v>1</v>
       </c>
       <c r="E39" s="99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F39" s="99" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G39" s="103" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H39" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I39" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J39" s="81">
         <v>0.23</v>
@@ -3857,13 +3867,13 @@
         <v>15.64</v>
       </c>
       <c r="L39" s="84" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="M39" s="34"/>
     </row>
-    <row r="40" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="40" spans="1:27" ht="14.25" customHeight="1">
       <c r="A40" s="79" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B40" s="97">
         <v>4</v>
@@ -3875,19 +3885,19 @@
         <v>1</v>
       </c>
       <c r="E40" s="97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F40" s="97" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G40" s="104" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="H40" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I40" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J40" s="81">
         <v>0.3</v>
@@ -3902,9 +3912,9 @@
       </c>
       <c r="M40" s="34"/>
     </row>
-    <row r="41" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="41" spans="1:27" ht="14.25" customHeight="1">
       <c r="A41" s="79" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B41" s="99">
         <v>10</v>
@@ -3916,19 +3926,19 @@
         <v>1</v>
       </c>
       <c r="E41" s="99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F41" s="99" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="G41" s="103" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="H41" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I41" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J41" s="81">
         <v>0.23</v>
@@ -3938,13 +3948,13 @@
         <v>2.3000000000000003</v>
       </c>
       <c r="L41" s="84" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="M41" s="34"/>
     </row>
-    <row r="42" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="42" spans="1:27" ht="14.25" customHeight="1">
       <c r="A42" s="79" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B42" s="99">
         <v>15</v>
@@ -3956,19 +3966,19 @@
         <v>1</v>
       </c>
       <c r="E42" s="99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F42" s="99" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="G42" s="103" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="H42" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I42" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J42" s="81">
         <v>0.27</v>
@@ -3978,16 +3988,16 @@
         <v>4.0500000000000007</v>
       </c>
       <c r="L42" s="84" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="M42" s="34"/>
       <c r="Y42" s="34"/>
       <c r="Z42" s="34"/>
       <c r="AA42" s="34"/>
     </row>
-    <row r="43" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="43" spans="1:27" ht="14.25" customHeight="1">
       <c r="A43" s="79" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B43" s="97">
         <v>10</v>
@@ -3999,19 +4009,19 @@
         <v>1</v>
       </c>
       <c r="E43" s="97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F43" s="97" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="G43" s="103" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="H43" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I43" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J43" s="81">
         <v>0.37</v>
@@ -4021,16 +4031,16 @@
         <v>3.7</v>
       </c>
       <c r="L43" s="85" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="M43" s="34"/>
       <c r="Y43" s="34"/>
       <c r="Z43" s="34"/>
       <c r="AA43" s="34"/>
     </row>
-    <row r="44" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="44" spans="1:27" ht="14.25" customHeight="1">
       <c r="A44" s="79" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B44" s="99">
         <v>10</v>
@@ -4042,19 +4052,19 @@
         <v>1</v>
       </c>
       <c r="E44" s="99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F44" s="99" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="G44" s="105" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="H44" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I44" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J44" s="81">
         <v>0.48</v>
@@ -4064,16 +4074,16 @@
         <v>4.8</v>
       </c>
       <c r="L44" s="86" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M44" s="34"/>
       <c r="Y44" s="34"/>
       <c r="Z44" s="34"/>
       <c r="AA44" s="34"/>
     </row>
-    <row r="45" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="45" spans="1:27" ht="14.25" customHeight="1">
       <c r="A45" s="79" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B45" s="97">
         <v>100</v>
@@ -4085,19 +4095,19 @@
         <v>100</v>
       </c>
       <c r="E45" s="97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F45" s="97" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G45" s="103" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H45" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I45" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J45" s="81">
         <v>1.17</v>
@@ -4107,16 +4117,16 @@
         <v>1.17</v>
       </c>
       <c r="L45" s="85" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="M45" s="34"/>
       <c r="Y45" s="34"/>
       <c r="Z45" s="34"/>
       <c r="AA45" s="34"/>
     </row>
-    <row r="46" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="46" spans="1:27" ht="14.25" customHeight="1">
       <c r="A46" s="79" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="B46" s="99">
         <v>100</v>
@@ -4128,19 +4138,19 @@
         <v>100</v>
       </c>
       <c r="E46" s="99" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F46" s="99" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="G46" s="103" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="H46" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I46" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J46" s="81">
         <v>1.4</v>
@@ -4150,13 +4160,13 @@
         <v>1.4</v>
       </c>
       <c r="L46" s="88" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="M46" s="34"/>
     </row>
-    <row r="47" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="47" spans="1:27" ht="14.25" customHeight="1">
       <c r="A47" s="79" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B47" s="97">
         <v>20</v>
@@ -4168,19 +4178,19 @@
         <v>5</v>
       </c>
       <c r="E47" s="97" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F47" s="97" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G47" s="101" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H47" s="97" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I47" s="80" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J47" s="81">
         <v>2.4700000000000002</v>
@@ -4190,13 +4200,13 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="L47" s="85" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="M47" s="34"/>
     </row>
-    <row r="48" spans="1:27" ht="14.25" hidden="1" customHeight="1">
+    <row r="48" spans="1:27" ht="14.25" customHeight="1">
       <c r="A48" s="79" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B48" s="97">
         <v>5</v>
@@ -4208,10 +4218,10 @@
         <v>1</v>
       </c>
       <c r="E48" s="97" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F48" s="97" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="G48" s="101" t="s">
         <v>23</v>
@@ -4228,14 +4238,14 @@
         <v>349.75</v>
       </c>
       <c r="L48" s="86" t="s">
+        <v>192</v>
+      </c>
+      <c r="M48" s="34"/>
+    </row>
+    <row r="49" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A49" s="79" t="s">
         <v>194</v>
       </c>
-      <c r="M48" s="34"/>
-    </row>
-    <row r="49" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A49" s="79" t="s">
-        <v>196</v>
-      </c>
       <c r="B49" s="97">
         <v>1</v>
       </c>
@@ -4246,10 +4256,10 @@
         <v>1</v>
       </c>
       <c r="E49" s="97" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F49" s="97" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="G49" s="101" t="s">
         <v>23</v>
@@ -4266,13 +4276,13 @@
         <v>14.95</v>
       </c>
       <c r="L49" s="86" t="s">
+        <v>194</v>
+      </c>
+      <c r="M49" s="34"/>
+    </row>
+    <row r="50" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A50" s="79" t="s">
         <v>196</v>
-      </c>
-      <c r="M49" s="34"/>
-    </row>
-    <row r="50" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A50" s="79" t="s">
-        <v>198</v>
       </c>
       <c r="B50" s="97">
         <v>6</v>
@@ -4284,10 +4294,10 @@
         <v>1</v>
       </c>
       <c r="E50" s="97" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F50" s="97" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G50" s="101" t="s">
         <v>23</v>
@@ -4304,13 +4314,13 @@
         <v>209.70000000000002</v>
       </c>
       <c r="L50" s="86" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="M50" s="34"/>
     </row>
-    <row r="51" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="51" spans="1:13" ht="14.25" customHeight="1">
       <c r="A51" s="79" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B51" s="97">
         <v>4</v>
@@ -4322,10 +4332,10 @@
         <v>1</v>
       </c>
       <c r="E51" s="97" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F51" s="97" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="G51" s="101" t="s">
         <v>23</v>
@@ -4342,13 +4352,13 @@
         <v>79.8</v>
       </c>
       <c r="L51" s="86" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="M51" s="34"/>
     </row>
-    <row r="52" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="52" spans="1:13" ht="14.25" customHeight="1">
       <c r="A52" s="79" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B52" s="97">
         <v>6</v>
@@ -4360,10 +4370,10 @@
         <v>1</v>
       </c>
       <c r="E52" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F52" s="97" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G52" s="101">
         <v>585440</v>
@@ -4372,7 +4382,7 @@
         <v>65</v>
       </c>
       <c r="I52" s="119" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J52" s="81">
         <v>2.99</v>
@@ -4382,13 +4392,13 @@
         <v>17.940000000000001</v>
       </c>
       <c r="L52" s="86" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="M52" s="34"/>
     </row>
-    <row r="53" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="53" spans="1:13" ht="14.25" customHeight="1">
       <c r="A53" s="79" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B53" s="97">
         <v>8</v>
@@ -4400,10 +4410,10 @@
         <v>1</v>
       </c>
       <c r="E53" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F53" s="97" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G53" s="101">
         <v>535110</v>
@@ -4412,7 +4422,7 @@
         <v>65</v>
       </c>
       <c r="I53" s="119" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J53" s="81">
         <v>5.99</v>
@@ -4422,13 +4432,13 @@
         <v>47.92</v>
       </c>
       <c r="L53" s="86" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="M53" s="34"/>
     </row>
-    <row r="54" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="54" spans="1:13" ht="14.25" customHeight="1">
       <c r="A54" s="79" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B54" s="97">
         <v>6</v>
@@ -4440,10 +4450,10 @@
         <v>1</v>
       </c>
       <c r="E54" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F54" s="97" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G54" s="101">
         <v>535118</v>
@@ -4452,7 +4462,7 @@
         <v>65</v>
       </c>
       <c r="I54" s="119" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J54" s="81">
         <v>6.99</v>
@@ -4462,13 +4472,13 @@
         <v>41.94</v>
       </c>
       <c r="L54" s="86" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="M54" s="34"/>
     </row>
-    <row r="55" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="55" spans="1:13" ht="14.25" customHeight="1">
       <c r="A55" s="79" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B55" s="97">
         <v>4</v>
@@ -4480,10 +4490,10 @@
         <v>1</v>
       </c>
       <c r="E55" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F55" s="97" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G55" s="106">
         <v>545588</v>
@@ -4492,7 +4502,7 @@
         <v>65</v>
       </c>
       <c r="I55" s="119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J55" s="81">
         <v>5.99</v>
@@ -4502,13 +4512,13 @@
         <v>23.96</v>
       </c>
       <c r="L55" s="86" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="M55" s="34"/>
     </row>
-    <row r="56" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="56" spans="1:13" ht="14.25" customHeight="1">
       <c r="A56" s="79" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B56" s="97">
         <v>3</v>
@@ -4520,10 +4530,10 @@
         <v>1</v>
       </c>
       <c r="E56" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F56" s="97" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G56" s="101">
         <v>545600</v>
@@ -4532,7 +4542,7 @@
         <v>65</v>
       </c>
       <c r="I56" s="119" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J56" s="81">
         <v>5.99</v>
@@ -4542,13 +4552,13 @@
         <v>17.97</v>
       </c>
       <c r="L56" s="86" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="M56" s="34"/>
     </row>
-    <row r="57" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="57" spans="1:13" ht="14.25" customHeight="1">
       <c r="A57" s="79" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B57" s="97">
         <v>6</v>
@@ -4560,10 +4570,10 @@
         <v>1</v>
       </c>
       <c r="E57" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F57" s="97" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G57" s="101">
         <v>545608</v>
@@ -4572,7 +4582,7 @@
         <v>65</v>
       </c>
       <c r="I57" s="119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J57" s="81">
         <v>5.99</v>
@@ -4582,13 +4592,13 @@
         <v>35.94</v>
       </c>
       <c r="L57" s="86" t="s">
+        <v>216</v>
+      </c>
+      <c r="M57" s="34"/>
+    </row>
+    <row r="58" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A58" s="79" t="s">
         <v>218</v>
-      </c>
-      <c r="M57" s="34"/>
-    </row>
-    <row r="58" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A58" s="79" t="s">
-        <v>220</v>
       </c>
       <c r="B58" s="97">
         <v>4</v>
@@ -4600,10 +4610,10 @@
         <v>1</v>
       </c>
       <c r="E58" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F58" s="97" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G58" s="101">
         <v>634066</v>
@@ -4612,7 +4622,7 @@
         <v>65</v>
       </c>
       <c r="I58" s="119" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J58" s="81">
         <v>1.49</v>
@@ -4622,13 +4632,13 @@
         <v>5.96</v>
       </c>
       <c r="L58" s="86" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="M58" s="34"/>
     </row>
-    <row r="59" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="59" spans="1:13" ht="14.25" customHeight="1">
       <c r="A59" s="79" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B59" s="99">
         <v>16</v>
@@ -4638,10 +4648,10 @@
         <v>2</v>
       </c>
       <c r="E59" s="99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F59" s="99" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="G59" s="105">
         <v>585470</v>
@@ -4650,7 +4660,7 @@
         <v>65</v>
       </c>
       <c r="I59" s="83" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J59" s="81">
         <v>5.99</v>
@@ -4660,13 +4670,13 @@
         <v>47.92</v>
       </c>
       <c r="L59" s="88" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="M59" s="34"/>
     </row>
-    <row r="60" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="60" spans="1:13" ht="14.25" customHeight="1">
       <c r="A60" s="87" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B60" s="99">
         <v>4</v>
@@ -4678,10 +4688,10 @@
         <v>1</v>
       </c>
       <c r="E60" s="99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F60" s="99" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G60" s="106">
         <v>635254</v>
@@ -4690,7 +4700,7 @@
         <v>65</v>
       </c>
       <c r="I60" s="83" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J60" s="81">
         <v>2.09</v>
@@ -4700,28 +4710,28 @@
         <v>33.44</v>
       </c>
       <c r="L60" s="88" t="s">
+        <v>226</v>
+      </c>
+      <c r="M60" s="34"/>
+    </row>
+    <row r="61" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A61" s="87" t="s">
+        <v>227</v>
+      </c>
+      <c r="B61" s="99">
+        <v>1</v>
+      </c>
+      <c r="C61" s="99">
+        <v>1</v>
+      </c>
+      <c r="D61" s="98">
+        <v>1</v>
+      </c>
+      <c r="E61" s="99" t="s">
+        <v>202</v>
+      </c>
+      <c r="F61" s="99" t="s">
         <v>228</v>
-      </c>
-      <c r="M60" s="34"/>
-    </row>
-    <row r="61" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A61" s="87" t="s">
-        <v>229</v>
-      </c>
-      <c r="B61" s="99">
-        <v>1</v>
-      </c>
-      <c r="C61" s="99">
-        <v>1</v>
-      </c>
-      <c r="D61" s="98">
-        <v>1</v>
-      </c>
-      <c r="E61" s="99" t="s">
-        <v>204</v>
-      </c>
-      <c r="F61" s="99" t="s">
-        <v>230</v>
       </c>
       <c r="G61" s="106">
         <v>635252</v>
@@ -4730,7 +4740,7 @@
         <v>65</v>
       </c>
       <c r="I61" s="83" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J61" s="81">
         <v>1.49</v>
@@ -4740,13 +4750,13 @@
         <v>1.49</v>
       </c>
       <c r="L61" s="88" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="M61" s="34"/>
     </row>
-    <row r="62" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="62" spans="1:13" ht="14.25" customHeight="1">
       <c r="A62" s="79" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B62" s="97">
         <v>18</v>
@@ -4758,10 +4768,10 @@
         <v>1</v>
       </c>
       <c r="E62" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F62" s="97" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G62" s="101">
         <v>585442</v>
@@ -4770,7 +4780,7 @@
         <v>65</v>
       </c>
       <c r="I62" s="119" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="J62" s="81">
         <v>3.99</v>
@@ -4780,13 +4790,13 @@
         <v>71.820000000000007</v>
       </c>
       <c r="L62" s="86" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="M62" s="34"/>
     </row>
-    <row r="63" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="63" spans="1:13" ht="14.25" customHeight="1">
       <c r="A63" s="79" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B63" s="97">
         <v>2</v>
@@ -4798,10 +4808,10 @@
         <v>1</v>
       </c>
       <c r="E63" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F63" s="97" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G63" s="101">
         <v>585546</v>
@@ -4810,7 +4820,7 @@
         <v>65</v>
       </c>
       <c r="I63" s="119" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="J63" s="81">
         <v>5.99</v>
@@ -4820,13 +4830,13 @@
         <v>11.98</v>
       </c>
       <c r="L63" s="86" t="s">
+        <v>233</v>
+      </c>
+      <c r="M63" s="34"/>
+    </row>
+    <row r="64" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A64" s="79" t="s">
         <v>235</v>
-      </c>
-      <c r="M63" s="34"/>
-    </row>
-    <row r="64" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A64" s="79" t="s">
-        <v>237</v>
       </c>
       <c r="B64" s="97">
         <v>8</v>
@@ -4838,10 +4848,10 @@
         <v>2</v>
       </c>
       <c r="E64" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F64" s="97" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G64" s="101">
         <v>585404</v>
@@ -4850,7 +4860,7 @@
         <v>65</v>
       </c>
       <c r="I64" s="119" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="J64" s="81">
         <v>2.39</v>
@@ -4860,13 +4870,13 @@
         <v>9.56</v>
       </c>
       <c r="L64" s="86" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="M64" s="34"/>
     </row>
-    <row r="65" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="65" spans="1:13" ht="14.25" customHeight="1">
       <c r="A65" s="79" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B65" s="97">
         <v>4</v>
@@ -4878,10 +4888,10 @@
         <v>1</v>
       </c>
       <c r="E65" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F65" s="97" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G65" s="101">
         <v>625049</v>
@@ -4890,7 +4900,7 @@
         <v>65</v>
       </c>
       <c r="I65" s="119" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J65" s="81">
         <v>4.99</v>
@@ -4900,13 +4910,13 @@
         <v>19.96</v>
       </c>
       <c r="L65" s="86" t="s">
+        <v>238</v>
+      </c>
+      <c r="M65" s="34"/>
+    </row>
+    <row r="66" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A66" s="79" t="s">
         <v>240</v>
-      </c>
-      <c r="M65" s="34"/>
-    </row>
-    <row r="66" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A66" s="79" t="s">
-        <v>242</v>
       </c>
       <c r="B66" s="97">
         <v>2</v>
@@ -4918,10 +4928,10 @@
         <v>1</v>
       </c>
       <c r="E66" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F66" s="97" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="G66" s="101">
         <v>545512</v>
@@ -4930,7 +4940,7 @@
         <v>65</v>
       </c>
       <c r="I66" s="119" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="J66" s="81">
         <v>9.99</v>
@@ -4940,13 +4950,13 @@
         <v>19.98</v>
       </c>
       <c r="L66" s="86" t="s">
+        <v>240</v>
+      </c>
+      <c r="M66" s="34"/>
+    </row>
+    <row r="67" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A67" s="79" t="s">
         <v>242</v>
-      </c>
-      <c r="M66" s="34"/>
-    </row>
-    <row r="67" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A67" s="79" t="s">
-        <v>244</v>
       </c>
       <c r="B67" s="97">
         <v>6</v>
@@ -4958,10 +4968,10 @@
         <v>1</v>
       </c>
       <c r="E67" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F67" s="97" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G67" s="101">
         <v>545680</v>
@@ -4970,7 +4980,7 @@
         <v>65</v>
       </c>
       <c r="I67" s="119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J67" s="81">
         <v>5.99</v>
@@ -4980,13 +4990,13 @@
         <v>35.94</v>
       </c>
       <c r="L67" s="86" t="s">
+        <v>242</v>
+      </c>
+      <c r="M67" s="34"/>
+    </row>
+    <row r="68" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A68" s="79" t="s">
         <v>244</v>
-      </c>
-      <c r="M67" s="34"/>
-    </row>
-    <row r="68" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A68" s="79" t="s">
-        <v>246</v>
       </c>
       <c r="B68" s="97">
         <v>4</v>
@@ -4998,19 +5008,19 @@
         <v>1</v>
       </c>
       <c r="E68" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F68" s="97" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G68" s="128" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H68" s="118" t="s">
         <v>65</v>
       </c>
       <c r="I68" s="119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J68" s="81">
         <v>3.69</v>
@@ -5020,13 +5030,13 @@
         <v>14.76</v>
       </c>
       <c r="L68" s="86" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="M68" s="34"/>
     </row>
-    <row r="69" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="69" spans="1:13" ht="14.25" customHeight="1">
       <c r="A69" s="79" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B69" s="97">
         <v>4</v>
@@ -5038,10 +5048,10 @@
         <v>1</v>
       </c>
       <c r="E69" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F69" s="97" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G69" s="128">
         <v>615362</v>
@@ -5050,7 +5060,7 @@
         <v>65</v>
       </c>
       <c r="I69" s="119" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J69" s="81">
         <v>7.99</v>
@@ -5060,13 +5070,13 @@
         <v>31.96</v>
       </c>
       <c r="L69" s="86" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="M69" s="34"/>
     </row>
-    <row r="70" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="70" spans="1:13" ht="14.25" customHeight="1">
       <c r="A70" s="79" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B70" s="97">
         <v>4</v>
@@ -5078,10 +5088,10 @@
         <v>1</v>
       </c>
       <c r="E70" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F70" s="97" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G70" s="101">
         <v>585443</v>
@@ -5090,7 +5100,7 @@
         <v>65</v>
       </c>
       <c r="I70" s="119" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J70" s="81">
         <v>4.49</v>
@@ -5100,13 +5110,13 @@
         <v>17.96</v>
       </c>
       <c r="L70" s="86" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="M70" s="34"/>
     </row>
-    <row r="71" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="71" spans="1:13" ht="14.25" customHeight="1">
       <c r="A71" s="79" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B71" s="97">
         <v>2</v>
@@ -5118,10 +5128,10 @@
         <v>1</v>
       </c>
       <c r="E71" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F71" s="97" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="G71" s="101">
         <v>585006</v>
@@ -5130,7 +5140,7 @@
         <v>65</v>
       </c>
       <c r="I71" s="119" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J71" s="81">
         <v>16.989999999999998</v>
@@ -5140,13 +5150,13 @@
         <v>33.979999999999997</v>
       </c>
       <c r="L71" s="86" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="M71" s="34"/>
     </row>
-    <row r="72" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="72" spans="1:13" ht="14.25" customHeight="1">
       <c r="A72" s="79" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B72" s="97">
         <v>3</v>
@@ -5158,10 +5168,10 @@
         <v>1</v>
       </c>
       <c r="E72" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F72" s="97" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="G72" s="129">
         <v>585004</v>
@@ -5170,7 +5180,7 @@
         <v>65</v>
       </c>
       <c r="I72" s="119" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J72" s="81">
         <v>13.99</v>
@@ -5180,13 +5190,13 @@
         <v>41.97</v>
       </c>
       <c r="L72" s="86" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M72" s="34"/>
     </row>
-    <row r="73" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="73" spans="1:13" ht="14.25" customHeight="1">
       <c r="A73" s="87" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B73" s="99">
         <v>4</v>
@@ -5198,10 +5208,10 @@
         <v>1</v>
       </c>
       <c r="E73" s="99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F73" s="99" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G73" s="105">
         <v>585444</v>
@@ -5210,7 +5220,7 @@
         <v>65</v>
       </c>
       <c r="I73" s="131" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="J73" s="81">
         <v>4.99</v>
@@ -5220,13 +5230,13 @@
         <v>19.96</v>
       </c>
       <c r="L73" s="86" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="M73" s="34"/>
     </row>
-    <row r="74" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="74" spans="1:13" ht="14.25" customHeight="1">
       <c r="A74" s="79" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B74" s="97">
         <v>2</v>
@@ -5238,10 +5248,10 @@
         <v>1</v>
       </c>
       <c r="E74" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F74" s="97" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G74" s="101">
         <v>585450</v>
@@ -5250,7 +5260,7 @@
         <v>65</v>
       </c>
       <c r="I74" s="119" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J74" s="81">
         <v>7.99</v>
@@ -5260,13 +5270,13 @@
         <v>15.98</v>
       </c>
       <c r="L74" s="86" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="M74" s="34"/>
     </row>
-    <row r="75" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="75" spans="1:13" ht="14.25" customHeight="1">
       <c r="A75" s="79" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B75" s="97">
         <v>34</v>
@@ -5279,10 +5289,10 @@
         <v>2</v>
       </c>
       <c r="E75" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F75" s="97" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G75" s="101">
         <v>545532</v>
@@ -5291,7 +5301,7 @@
         <v>65</v>
       </c>
       <c r="I75" s="119" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="J75" s="81">
         <v>3.99</v>
@@ -5301,13 +5311,13 @@
         <v>67.83</v>
       </c>
       <c r="L75" s="86" t="s">
+        <v>265</v>
+      </c>
+      <c r="M75" s="34"/>
+    </row>
+    <row r="76" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A76" s="79" t="s">
         <v>267</v>
-      </c>
-      <c r="M75" s="34"/>
-    </row>
-    <row r="76" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A76" s="79" t="s">
-        <v>269</v>
       </c>
       <c r="B76" s="97">
         <v>8</v>
@@ -5319,10 +5329,10 @@
         <v>1</v>
       </c>
       <c r="E76" s="97" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F76" s="97" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G76" s="101">
         <v>585592</v>
@@ -5331,7 +5341,7 @@
         <v>65</v>
       </c>
       <c r="I76" s="119" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="J76" s="81">
         <v>2.79</v>
@@ -5341,28 +5351,28 @@
         <v>22.32</v>
       </c>
       <c r="L76" s="86" t="s">
+        <v>269</v>
+      </c>
+      <c r="M76" s="34"/>
+    </row>
+    <row r="77" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A77" s="79" t="s">
+        <v>270</v>
+      </c>
+      <c r="B77" s="97">
+        <v>1</v>
+      </c>
+      <c r="C77" s="97">
+        <v>1</v>
+      </c>
+      <c r="D77" s="98">
+        <v>1</v>
+      </c>
+      <c r="E77" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="F77" s="97" t="s">
         <v>271</v>
-      </c>
-      <c r="M76" s="34"/>
-    </row>
-    <row r="77" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A77" s="79" t="s">
-        <v>272</v>
-      </c>
-      <c r="B77" s="97">
-        <v>1</v>
-      </c>
-      <c r="C77" s="97">
-        <v>1</v>
-      </c>
-      <c r="D77" s="98">
-        <v>1</v>
-      </c>
-      <c r="E77" s="97" t="s">
-        <v>204</v>
-      </c>
-      <c r="F77" s="97" t="s">
-        <v>273</v>
       </c>
       <c r="G77" s="101">
         <v>585468</v>
@@ -5371,7 +5381,7 @@
         <v>65</v>
       </c>
       <c r="I77" s="119" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="J77" s="81">
         <v>1.29</v>
@@ -5381,13 +5391,13 @@
         <v>1.29</v>
       </c>
       <c r="L77" s="86" t="s">
+        <v>270</v>
+      </c>
+      <c r="M77" s="34"/>
+    </row>
+    <row r="78" spans="1:13" ht="14.25" customHeight="1">
+      <c r="A78" s="79" t="s">
         <v>272</v>
-      </c>
-      <c r="M77" s="34"/>
-    </row>
-    <row r="78" spans="1:13" ht="14.25" hidden="1" customHeight="1">
-      <c r="A78" s="79" t="s">
-        <v>274</v>
       </c>
       <c r="B78" s="99">
         <v>4</v>
@@ -5399,10 +5409,10 @@
         <v>1</v>
       </c>
       <c r="E78" s="99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F78" s="99" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G78" s="105">
         <v>555104</v>
@@ -5411,7 +5421,7 @@
         <v>65</v>
       </c>
       <c r="I78" s="83" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J78" s="81">
         <v>3.99</v>
@@ -5421,13 +5431,13 @@
         <v>15.96</v>
       </c>
       <c r="L78" s="88" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="M78" s="34"/>
     </row>
-    <row r="79" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+    <row r="79" spans="1:13" ht="14.25" customHeight="1">
       <c r="A79" s="87" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B79" s="99">
         <v>16</v>
@@ -5439,19 +5449,19 @@
         <v>4</v>
       </c>
       <c r="E79" s="99" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F79" s="99" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G79" s="106">
         <v>633126</v>
       </c>
       <c r="H79" s="99" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I79" s="83" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="J79" s="81">
         <v>1.79</v>
@@ -5461,12 +5471,12 @@
         <v>7.16</v>
       </c>
       <c r="L79" s="88" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="80" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" ht="14.25" customHeight="1">
       <c r="A80" s="79" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B80" s="97">
         <v>4</v>
@@ -5478,13 +5488,13 @@
         <v>1</v>
       </c>
       <c r="E80" s="97" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F80" s="97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="G80" s="101" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="H80" s="118" t="s">
         <v>13</v>
@@ -5498,12 +5508,12 @@
         <v>27.2</v>
       </c>
       <c r="L80" s="86" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="81" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="14.25" customHeight="1">
       <c r="A81" s="79" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B81" s="97">
         <v>4</v>
@@ -5515,13 +5525,13 @@
         <v>1</v>
       </c>
       <c r="E81" s="97" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="F81" s="132" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="G81" s="101" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="H81" s="118" t="s">
         <v>13</v>
@@ -5535,12 +5545,12 @@
         <v>220</v>
       </c>
       <c r="L81" s="86" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1">
       <c r="A82" s="79" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B82" s="99">
         <v>1</v>
@@ -5558,7 +5568,7 @@
         <v>23</v>
       </c>
       <c r="G82" s="105" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H82" s="99" t="s">
         <v>13</v>
@@ -5572,13 +5582,13 @@
         <v>6.32</v>
       </c>
       <c r="L82" s="88" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="M82" s="58"/>
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1">
       <c r="A83" s="79" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B83" s="99">
         <v>1</v>
@@ -5596,7 +5606,7 @@
         <v>23</v>
       </c>
       <c r="G83" s="101" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H83" s="99" t="s">
         <v>13</v>
@@ -5610,12 +5620,12 @@
         <v>6.14</v>
       </c>
       <c r="L83" s="88" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1">
       <c r="A84" s="79" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B84" s="99">
         <v>1</v>
@@ -5633,7 +5643,7 @@
         <v>23</v>
       </c>
       <c r="G84" s="105" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H84" s="99" t="s">
         <v>13</v>
@@ -5647,12 +5657,12 @@
         <v>4.95</v>
       </c>
       <c r="L84" s="99" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1">
       <c r="A85" s="79" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B85" s="99">
         <v>1</v>
@@ -5670,7 +5680,7 @@
         <v>23</v>
       </c>
       <c r="G85" s="105" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H85" s="99" t="s">
         <v>13</v>
@@ -5684,12 +5694,12 @@
         <v>4.95</v>
       </c>
       <c r="L85" s="99" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1">
       <c r="A86" s="79" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B86" s="99">
         <v>1</v>
@@ -5707,7 +5717,7 @@
         <v>23</v>
       </c>
       <c r="G86" s="105" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H86" s="99" t="s">
         <v>13</v>
@@ -5721,13 +5731,13 @@
         <v>4.95</v>
       </c>
       <c r="L86" s="99" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="M86" s="58"/>
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1">
       <c r="A87" s="79" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B87" s="99">
         <v>1</v>
@@ -5745,7 +5755,7 @@
         <v>23</v>
       </c>
       <c r="G87" s="105" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="H87" s="99" t="s">
         <v>13</v>
@@ -5759,16 +5769,16 @@
         <v>4.95</v>
       </c>
       <c r="L87" s="99" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="M87" s="59">
         <f>SUM(K5:K94)</f>
-        <v>2351.29</v>
+        <v>2351.1299999999997</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="14.25" customHeight="1">
       <c r="A88" s="134" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B88" s="99">
         <v>10</v>
@@ -5784,7 +5794,7 @@
       </c>
       <c r="F88" s="99"/>
       <c r="G88" s="164" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="H88" s="99" t="s">
         <v>13</v>
@@ -5798,12 +5808,12 @@
         <v>3.67</v>
       </c>
       <c r="L88" s="135" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="14.25" customHeight="1">
       <c r="A89" s="136" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B89" s="130">
         <v>10</v>
@@ -5819,7 +5829,7 @@
       </c>
       <c r="F89" s="130"/>
       <c r="G89" s="165" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="H89" s="130" t="s">
         <v>13</v>
@@ -5833,12 +5843,12 @@
         <v>0.4</v>
       </c>
       <c r="L89" s="138" t="s">
-        <v>309</v>
-      </c>
-    </row>
-    <row r="90" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="14.25" customHeight="1">
       <c r="A90" s="139" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B90" s="140">
         <v>0</v>
@@ -5866,12 +5876,12 @@
         <v>0</v>
       </c>
       <c r="L90" s="140" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="91" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="14.25" customHeight="1">
       <c r="A91" s="139" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B91" s="140">
         <v>0</v>
@@ -5899,12 +5909,12 @@
         <v>0</v>
       </c>
       <c r="L91" s="144" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="92" spans="1:13" ht="14.25" hidden="1" customHeight="1">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="14.25" customHeight="1">
       <c r="A92" s="145" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B92" s="130">
         <v>1</v>
@@ -5920,7 +5930,7 @@
       </c>
       <c r="F92" s="130"/>
       <c r="G92" s="146" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H92" s="130" t="s">
         <v>13</v>
@@ -5934,12 +5944,12 @@
         <v>7.99</v>
       </c>
       <c r="L92" s="147" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1">
       <c r="A93" s="145" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B93" s="130">
         <v>1</v>
@@ -5955,7 +5965,7 @@
       </c>
       <c r="F93" s="130"/>
       <c r="G93" s="146" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="H93" s="130" t="s">
         <v>13</v>
@@ -5969,12 +5979,12 @@
         <v>15.59</v>
       </c>
       <c r="L93" s="147" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1">
       <c r="A94" s="145" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B94" s="130">
         <v>1</v>
@@ -5990,7 +6000,7 @@
       </c>
       <c r="F94" s="130"/>
       <c r="G94" s="146" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="H94" s="130" t="s">
         <v>13</v>
@@ -6004,12 +6014,12 @@
         <v>12.56</v>
       </c>
       <c r="L94" s="148" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="14.25" customHeight="1">
       <c r="A95" s="145" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B95" s="130">
         <v>1</v>
@@ -6025,7 +6035,7 @@
       </c>
       <c r="F95" s="130"/>
       <c r="G95" s="146" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="H95" s="130" t="s">
         <v>13</v>
@@ -6039,12 +6049,12 @@
         <v>15.59</v>
       </c>
       <c r="L95" s="147" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1">
       <c r="A96" s="145" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B96" s="130">
         <v>1</v>
@@ -6060,7 +6070,7 @@
       </c>
       <c r="F96" s="130"/>
       <c r="G96" s="146" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="H96" s="130" t="s">
         <v>13</v>
@@ -6074,10 +6084,10 @@
         <v>15.59</v>
       </c>
       <c r="L96" s="147" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="97" spans="1:12" ht="14.25" hidden="1" customHeight="1">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="97" spans="1:12" ht="14.25" customHeight="1">
       <c r="A97" s="120" t="s">
         <v>11</v>
       </c>
@@ -6095,7 +6105,7 @@
       </c>
       <c r="F97" s="121"/>
       <c r="G97" s="126" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="H97" s="121" t="s">
         <v>13</v>
@@ -6109,7 +6119,7 @@
         <v>19.75</v>
       </c>
       <c r="L97" s="127" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="14.25" customHeight="1">
@@ -6182,7 +6192,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.25" hidden="1" customHeight="1">
+    <row r="100" spans="1:12" ht="14.25" customHeight="1">
       <c r="A100" s="150" t="s">
         <v>26</v>
       </c>
@@ -6219,7 +6229,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.25" hidden="1" customHeight="1">
+    <row r="101" spans="1:12" ht="14.25" customHeight="1">
       <c r="A101" s="150" t="s">
         <v>29</v>
       </c>
@@ -6256,7 +6266,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.25" hidden="1" customHeight="1">
+    <row r="102" spans="1:12" ht="14.25" customHeight="1">
       <c r="A102" s="155" t="s">
         <v>31</v>
       </c>
@@ -6289,9 +6299,9 @@
         <v>32</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14.25" hidden="1">
+    <row r="103" spans="1:12" ht="14.25">
       <c r="A103" s="89" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B103" s="100">
         <v>25</v>
@@ -6303,19 +6313,19 @@
         <v>25</v>
       </c>
       <c r="E103" s="100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F103" s="100" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G103" s="166" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="H103" s="107" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I103" s="90" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J103" s="91">
         <v>3.78</v>
@@ -6325,12 +6335,12 @@
         <v>3.78</v>
       </c>
       <c r="L103" s="161" t="s">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="104" spans="1:12" ht="14.25" hidden="1">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="104" spans="1:12" ht="14.25">
       <c r="A104" s="92" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B104" s="100">
         <v>4</v>
@@ -6342,19 +6352,19 @@
         <v>1</v>
       </c>
       <c r="E104" s="100" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F104" s="100" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="G104" s="108" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H104" s="109" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I104" s="90" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="J104" s="91">
         <v>0.96</v>
@@ -6364,12 +6374,12 @@
         <v>3.84</v>
       </c>
       <c r="L104" s="161" t="s">
-        <v>344</v>
-      </c>
-    </row>
-    <row r="105" spans="1:12" s="93" customFormat="1" ht="14.25" hidden="1">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="105" spans="1:12" s="93" customFormat="1" ht="14.25">
       <c r="A105" s="92" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B105" s="100">
         <v>1</v>
@@ -6381,10 +6391,10 @@
         <v>1</v>
       </c>
       <c r="E105" s="100" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F105" s="100" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="G105" s="162"/>
       <c r="H105" s="109" t="s">
@@ -6399,12 +6409,12 @@
         <v>11.75</v>
       </c>
       <c r="L105" s="161" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="106" spans="1:12" s="93" customFormat="1" ht="14.25" hidden="1">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="106" spans="1:12" s="93" customFormat="1" ht="14.25">
       <c r="A106" s="92" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="B106" s="100">
         <v>1</v>
@@ -6416,10 +6426,10 @@
         <v>1</v>
       </c>
       <c r="E106" s="100" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F106" s="100" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G106" s="162"/>
       <c r="H106" s="109" t="s">
@@ -6434,7 +6444,7 @@
         <v>15.25</v>
       </c>
       <c r="L106" s="161" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="14.25" customHeight="1">
@@ -6465,7 +6475,7 @@
       <c r="C109" s="63"/>
       <c r="D109" s="64"/>
       <c r="E109" s="66" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="F109" s="66">
         <v>10</v>
@@ -6482,7 +6492,7 @@
       <c r="C110" s="63"/>
       <c r="D110" s="64"/>
       <c r="E110" s="66" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="F110" s="66">
         <v>10</v>
@@ -15954,13 +15964,7 @@
       <c r="L970" s="66"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L106">
-    <filterColumn colId="4">
-      <filters>
-        <filter val="Digikey"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A4:L106"/>
   <mergeCells count="3">
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="A1:L1"/>
@@ -16117,7 +16121,7 @@
     </row>
     <row r="2" spans="1:26">
       <c r="A2" s="55" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B2" s="35">
         <v>6</v>
@@ -16129,10 +16133,10 @@
         <v>2</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>23</v>
@@ -16147,12 +16151,12 @@
         <v>75.81</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="3" spans="1:26">
       <c r="A3" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B3" s="35">
         <v>100</v>
@@ -16164,16 +16168,16 @@
         <v>100</v>
       </c>
       <c r="E3" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I3" s="37">
         <v>5.2</v>
@@ -16182,12 +16186,12 @@
         <v>5.2</v>
       </c>
       <c r="K3" s="38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:26">
       <c r="A4" s="55" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B4" s="35">
         <v>50</v>
@@ -16199,16 +16203,16 @@
         <v>50</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I4" s="37">
         <v>6.16</v>
@@ -16217,12 +16221,12 @@
         <v>6.16</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="17.649999999999999">
       <c r="A5" s="55" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B5" s="35">
         <v>4</v>
@@ -16234,10 +16238,10 @@
         <v>1</v>
       </c>
       <c r="E5" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F5" s="35" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G5" s="54">
         <v>545588</v>
@@ -16252,12 +16256,12 @@
         <v>23.96</v>
       </c>
       <c r="K5" s="38" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:26">
       <c r="A6" s="55" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B6" s="35">
         <v>6</v>
@@ -16269,10 +16273,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="G6" s="55">
         <v>545608</v>
@@ -16287,12 +16291,12 @@
         <v>35.94</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="28.5">
       <c r="A7" s="55" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B7" s="35">
         <v>6</v>
@@ -16304,10 +16308,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="G7" s="55">
         <v>545680</v>
@@ -16322,12 +16326,12 @@
         <v>35.94</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:26">
       <c r="A8" s="55" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B8" s="35">
         <v>4</v>
@@ -16339,13 +16343,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="G8" s="57" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>65</v>
@@ -16357,12 +16361,12 @@
         <v>14.76</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="9" spans="1:26">
       <c r="A9" s="42" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B9" s="43">
         <v>4</v>
@@ -16374,10 +16378,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="G9" s="42">
         <v>585444</v>
@@ -16392,7 +16396,7 @@
         <v>19.96</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="10" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
@@ -16472,7 +16476,7 @@
     </row>
     <row r="12" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="55" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B12" s="35">
         <v>6</v>
@@ -16484,10 +16488,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="G12" s="55" t="s">
         <v>23</v>
@@ -16503,13 +16507,13 @@
         <v>209.70000000000002</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B13" s="35">
         <v>10</v>
@@ -16521,10 +16525,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G13" s="55">
         <v>585442</v>
@@ -16540,13 +16544,13 @@
         <v>39.900000000000006</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="55" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B14" s="35">
         <v>16</v>
@@ -16558,10 +16562,10 @@
         <v>2</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G14" s="55">
         <v>545532</v>
@@ -16577,7 +16581,7 @@
         <v>31.92</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L14" s="34"/>
     </row>
@@ -16659,7 +16663,7 @@
     </row>
     <row r="2" spans="1:14">
       <c r="A2" s="55" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B2" s="35">
         <v>4</v>
@@ -16671,10 +16675,10 @@
         <v>1</v>
       </c>
       <c r="E2" s="35" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="F2" s="35" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G2" s="55" t="s">
         <v>23</v>
@@ -16690,12 +16694,12 @@
         <v>51.6</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" s="69" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B3" s="70">
         <v>0</v>
@@ -16707,16 +16711,16 @@
         <v>100</v>
       </c>
       <c r="E3" s="70" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" s="70" t="s">
+        <v>99</v>
+      </c>
+      <c r="G3" s="69" t="s">
         <v>100</v>
       </c>
-      <c r="F3" s="70" t="s">
+      <c r="H3" s="70" t="s">
         <v>101</v>
-      </c>
-      <c r="G3" s="69" t="s">
-        <v>102</v>
-      </c>
-      <c r="H3" s="70" t="s">
-        <v>103</v>
       </c>
       <c r="I3" s="72">
         <v>4.49</v>
@@ -16726,12 +16730,12 @@
         <v>0</v>
       </c>
       <c r="K3" s="75" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="A4" s="69" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B4" s="73">
         <v>0</v>
@@ -16743,16 +16747,16 @@
         <v>100</v>
       </c>
       <c r="E4" s="73" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="73" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="G4" s="74" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="H4" s="70" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I4" s="72">
         <v>5.83</v>
@@ -16762,12 +16766,12 @@
         <v>0</v>
       </c>
       <c r="K4" s="76" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="A5" s="55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B5" s="43">
         <v>16</v>
@@ -16779,16 +16783,16 @@
         <v>1</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G5" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I5" s="37">
         <v>0.23</v>
@@ -16798,12 +16802,12 @@
         <v>3.68</v>
       </c>
       <c r="K5" s="45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" s="55" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B6" s="35">
         <v>8</v>
@@ -16815,10 +16819,10 @@
         <v>1</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="G6" s="55">
         <v>535110</v>
@@ -16834,12 +16838,12 @@
         <v>47.92</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" s="55" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B7" s="35">
         <v>4</v>
@@ -16851,10 +16855,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="G7" s="55">
         <v>634066</v>
@@ -16870,12 +16874,12 @@
         <v>5.96</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" s="55" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B8" s="35">
         <v>4</v>
@@ -16887,10 +16891,10 @@
         <v>1</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="G8" s="55">
         <v>625049</v>
@@ -16906,12 +16910,12 @@
         <v>19.96</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="A9" s="55" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B9" s="35">
         <v>4</v>
@@ -16923,10 +16927,10 @@
         <v>1</v>
       </c>
       <c r="E9" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="G9" s="57">
         <v>615362</v>
@@ -16942,12 +16946,12 @@
         <v>31.96</v>
       </c>
       <c r="K9" s="38" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="A10" s="55" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B10" s="43">
         <v>4</v>
@@ -16959,10 +16963,10 @@
         <v>1</v>
       </c>
       <c r="E10" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="G10" s="42">
         <v>555104</v>
@@ -16978,12 +16982,12 @@
         <v>15.96</v>
       </c>
       <c r="K10" s="45" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="11" spans="1:14">
       <c r="A11" s="42" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B11" s="43">
         <v>16</v>
@@ -16995,16 +16999,16 @@
         <v>4</v>
       </c>
       <c r="E11" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F11" s="43" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="G11" s="44">
         <v>633126</v>
       </c>
       <c r="H11" s="43" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I11" s="37">
         <v>1.79</v>
@@ -17014,12 +17018,12 @@
         <v>7.16</v>
       </c>
       <c r="K11" s="45" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="53" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B12" s="35">
         <v>4</v>
@@ -17031,10 +17035,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G12" s="55">
         <v>585442</v>
@@ -17050,7 +17054,7 @@
         <v>15.96</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="N12" s="34"/>
     </row>
@@ -17129,7 +17133,7 @@
     </row>
     <row r="2" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A2" s="55" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="35">
         <v>100</v>
@@ -17141,16 +17145,16 @@
         <v>100</v>
       </c>
       <c r="E2" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="G2" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="F2" s="35" t="s">
+      <c r="H2" s="35" t="s">
         <v>101</v>
-      </c>
-      <c r="G2" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>103</v>
       </c>
       <c r="I2" s="37">
         <v>4.49</v>
@@ -17159,13 +17163,13 @@
         <v>13.47</v>
       </c>
       <c r="K2" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="L2" s="34"/>
     </row>
     <row r="3" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A3" s="55" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B3" s="43">
         <v>50</v>
@@ -17177,16 +17181,16 @@
         <v>25</v>
       </c>
       <c r="E3" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F3" s="43" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G3" s="47" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="H3" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I3" s="37">
         <v>5.61</v>
@@ -17195,7 +17199,7 @@
         <v>5.61</v>
       </c>
       <c r="K3" s="48" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="L3" s="46"/>
       <c r="X3" s="34"/>
@@ -17204,7 +17208,7 @@
     </row>
     <row r="4" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A4" s="55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B4" s="35">
         <v>100</v>
@@ -17216,16 +17220,16 @@
         <v>100</v>
       </c>
       <c r="E4" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="G4" s="55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="H4" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I4" s="37">
         <v>2.61</v>
@@ -17234,7 +17238,7 @@
         <v>5.22</v>
       </c>
       <c r="K4" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L4" s="34"/>
       <c r="X4" s="34"/>
@@ -17243,7 +17247,7 @@
     </row>
     <row r="5" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A5" s="55" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B5" s="43">
         <v>100</v>
@@ -17255,16 +17259,16 @@
         <v>100</v>
       </c>
       <c r="E5" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="G5" s="49" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="H5" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I5" s="37">
         <v>2.67</v>
@@ -17273,7 +17277,7 @@
         <v>2.67</v>
       </c>
       <c r="K5" s="56" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="L5" s="34"/>
       <c r="X5" s="34"/>
@@ -17282,7 +17286,7 @@
     </row>
     <row r="6" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A6" s="55" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B6" s="35">
         <v>100</v>
@@ -17294,16 +17298,16 @@
         <v>100</v>
       </c>
       <c r="E6" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G6" s="55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="H6" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I6" s="37">
         <v>4.71</v>
@@ -17312,7 +17316,7 @@
         <v>4.71</v>
       </c>
       <c r="K6" s="38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="L6" s="34"/>
       <c r="X6" s="34"/>
@@ -17321,7 +17325,7 @@
     </row>
     <row r="7" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A7" s="55" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B7" s="35">
         <v>100</v>
@@ -17333,16 +17337,16 @@
         <v>100</v>
       </c>
       <c r="E7" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="G7" s="49" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="H7" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I7" s="37">
         <v>5.2</v>
@@ -17351,7 +17355,7 @@
         <v>5.2</v>
       </c>
       <c r="K7" s="38" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="L7" s="34"/>
       <c r="X7" s="34"/>
@@ -17360,7 +17364,7 @@
     </row>
     <row r="8" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A8" s="55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B8" s="35">
         <v>11</v>
@@ -17372,13 +17376,13 @@
         <v>1</v>
       </c>
       <c r="E8" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H8" s="36" t="s">
         <v>65</v>
@@ -17390,13 +17394,13 @@
         <v>24.86</v>
       </c>
       <c r="K8" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="L8" s="34"/>
     </row>
     <row r="9" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A9" s="55" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B9" s="43">
         <v>36</v>
@@ -17408,16 +17412,16 @@
         <v>1</v>
       </c>
       <c r="E9" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G9" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="H9" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I9" s="37">
         <v>0.23</v>
@@ -17426,13 +17430,13 @@
         <v>15.64</v>
       </c>
       <c r="K9" s="45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="L9" s="34"/>
     </row>
     <row r="10" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A10" s="55" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B10" s="35">
         <v>100</v>
@@ -17444,16 +17448,16 @@
         <v>100</v>
       </c>
       <c r="E10" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F10" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="G10" s="49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="H10" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I10" s="37">
         <v>1.17</v>
@@ -17462,7 +17466,7 @@
         <v>1.17</v>
       </c>
       <c r="K10" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="L10" s="34"/>
       <c r="X10" s="34"/>
@@ -17471,7 +17475,7 @@
     </row>
     <row r="11" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A11" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B11" s="35">
         <v>20</v>
@@ -17483,16 +17487,16 @@
         <v>5</v>
       </c>
       <c r="E11" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="G11" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="H11" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="I11" s="37">
         <v>2.4700000000000002</v>
@@ -17501,13 +17505,13 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="K11" s="38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="L11" s="34"/>
     </row>
     <row r="12" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A12" s="55" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B12" s="35">
         <v>6</v>
@@ -17519,10 +17523,10 @@
         <v>1</v>
       </c>
       <c r="E12" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="G12" s="55">
         <v>585440</v>
@@ -17537,13 +17541,13 @@
         <v>17.940000000000001</v>
       </c>
       <c r="K12" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L12" s="34"/>
     </row>
     <row r="13" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A13" s="55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B13" s="35">
         <v>4</v>
@@ -17555,10 +17559,10 @@
         <v>1</v>
       </c>
       <c r="E13" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="G13" s="55">
         <v>535118</v>
@@ -17573,13 +17577,13 @@
         <v>41.94</v>
       </c>
       <c r="K13" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="L13" s="34"/>
     </row>
     <row r="14" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A14" s="55" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B14" s="35">
         <v>4</v>
@@ -17591,10 +17595,10 @@
         <v>1</v>
       </c>
       <c r="E14" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F14" s="35" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="G14" s="55">
         <v>585442</v>
@@ -17609,13 +17613,13 @@
         <v>71.820000000000007</v>
       </c>
       <c r="K14" s="38" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="L14" s="34"/>
     </row>
     <row r="15" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A15" s="55" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B15" s="35">
         <v>2</v>
@@ -17627,10 +17631,10 @@
         <v>1</v>
       </c>
       <c r="E15" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="G15" s="55">
         <v>585450</v>
@@ -17645,13 +17649,13 @@
         <v>15.98</v>
       </c>
       <c r="K15" s="38" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="L15" s="34"/>
     </row>
     <row r="16" spans="1:26" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A16" s="55" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B16" s="35">
         <v>6</v>
@@ -17663,10 +17667,10 @@
         <v>2</v>
       </c>
       <c r="E16" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="G16" s="55">
         <v>545532</v>
@@ -17681,13 +17685,13 @@
         <v>67.83</v>
       </c>
       <c r="K16" s="38" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="L16" s="34"/>
     </row>
     <row r="17" spans="1:12" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A17" s="55" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B17" s="35">
         <v>8</v>
@@ -17699,10 +17703,10 @@
         <v>1</v>
       </c>
       <c r="E17" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="G17" s="55">
         <v>585592</v>
@@ -17717,13 +17721,13 @@
         <v>22.32</v>
       </c>
       <c r="K17" s="38" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="L17" s="34"/>
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="55" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B18" s="35">
         <v>4</v>
@@ -17735,10 +17739,10 @@
         <v>1</v>
       </c>
       <c r="E18" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="G18" s="55">
         <v>585443</v>
@@ -17754,12 +17758,12 @@
         <v>17.96</v>
       </c>
       <c r="K18" s="38" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="55" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B19" s="35">
         <v>2</v>
@@ -17771,10 +17775,10 @@
         <v>1</v>
       </c>
       <c r="E19" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F19" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G19" s="55">
         <v>545600</v>
@@ -17790,12 +17794,12 @@
         <v>11.98</v>
       </c>
       <c r="K19" s="38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="20" spans="1:12" s="67" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="42" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B20" s="43">
         <v>2</v>
@@ -17807,10 +17811,10 @@
         <v>1</v>
       </c>
       <c r="E20" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="F20" s="43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="G20" s="44">
         <v>635254</v>
@@ -17826,7 +17830,7 @@
         <v>4.18</v>
       </c>
       <c r="K20" s="45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="L20" s="34"/>
     </row>
@@ -17904,7 +17908,7 @@
         <v>7</v>
       </c>
       <c r="J1" s="27" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="K1" s="4" t="s">
         <v>8</v>
@@ -17918,7 +17922,7 @@
     </row>
     <row r="2" spans="1:13">
       <c r="A2" s="35" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="B2" s="35">
         <v>100</v>
@@ -17933,19 +17937,19 @@
         <v>3</v>
       </c>
       <c r="F2" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H2" s="55" t="s">
         <v>100</v>
       </c>
-      <c r="G2" s="35" t="s">
+      <c r="I2" s="35" t="s">
         <v>101</v>
       </c>
-      <c r="H2" s="55" t="s">
-        <v>102</v>
-      </c>
-      <c r="I2" s="35" t="s">
-        <v>103</v>
-      </c>
       <c r="J2" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K2" s="37">
         <v>4.49</v>
@@ -17955,12 +17959,12 @@
         <v>4.49</v>
       </c>
       <c r="M2" s="38" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" s="35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B3" s="35">
         <v>100</v>
@@ -17975,19 +17979,19 @@
         <v>2</v>
       </c>
       <c r="F3" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G3" s="35" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="H3" s="78" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="I3" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J3" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K3" s="37">
         <v>2.61</v>
@@ -17997,12 +18001,12 @@
         <v>2.61</v>
       </c>
       <c r="M3" s="38" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" s="35" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B4" s="35">
         <v>100</v>
@@ -18017,19 +18021,19 @@
         <v>1</v>
       </c>
       <c r="F4" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G4" s="35" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="H4" s="55" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="I4" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J4" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K4" s="37">
         <v>4.71</v>
@@ -18039,12 +18043,12 @@
         <v>4.71</v>
       </c>
       <c r="M4" s="38" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" s="35" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B5" s="43">
         <v>50</v>
@@ -18059,19 +18063,19 @@
         <v>1</v>
       </c>
       <c r="F5" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G5" s="43" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I5" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J5" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K5" s="37">
         <v>5.85</v>
@@ -18081,12 +18085,12 @@
         <v>5.85</v>
       </c>
       <c r="M5" s="45" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" s="55" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B6" s="35">
         <v>4</v>
@@ -18102,10 +18106,10 @@
         <v>4</v>
       </c>
       <c r="F6" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G6" s="35" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="H6" s="55">
         <v>585440</v>
@@ -18114,7 +18118,7 @@
         <v>65</v>
       </c>
       <c r="J6" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K6" s="37">
         <v>2.99</v>
@@ -18124,12 +18128,12 @@
         <v>11.96</v>
       </c>
       <c r="M6" s="38" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" s="55" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B7" s="35">
         <v>2</v>
@@ -18145,10 +18149,10 @@
         <v>2</v>
       </c>
       <c r="F7" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G7" s="35" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="H7" s="55">
         <v>535118</v>
@@ -18157,7 +18161,7 @@
         <v>65</v>
       </c>
       <c r="J7" s="36" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="K7" s="37">
         <v>6.99</v>
@@ -18167,12 +18171,12 @@
         <v>13.98</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" s="35" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B8" s="35">
         <v>1</v>
@@ -18187,10 +18191,10 @@
         <v>3</v>
       </c>
       <c r="F8" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G8" s="35" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="H8" s="55">
         <v>545600</v>
@@ -18199,7 +18203,7 @@
         <v>65</v>
       </c>
       <c r="J8" s="36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K8" s="37">
         <v>5.99</v>
@@ -18209,12 +18213,12 @@
         <v>5.99</v>
       </c>
       <c r="M8" s="38" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" s="35" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B9" s="43">
         <v>16</v>
@@ -18229,10 +18233,10 @@
         <v>8</v>
       </c>
       <c r="F9" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G9" s="43" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="H9" s="42">
         <v>585470</v>
@@ -18241,7 +18245,7 @@
         <v>65</v>
       </c>
       <c r="J9" s="43" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K9" s="37">
         <v>5.99</v>
@@ -18251,12 +18255,12 @@
         <v>47.92</v>
       </c>
       <c r="M9" s="45" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="13.5" customHeight="1">
       <c r="A10" s="43" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B10" s="43">
         <v>1</v>
@@ -18271,10 +18275,10 @@
         <v>1</v>
       </c>
       <c r="F10" s="43" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G10" s="43" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="H10" s="44">
         <v>635252</v>
@@ -18283,7 +18287,7 @@
         <v>65</v>
       </c>
       <c r="J10" s="43" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K10" s="37">
         <v>1.49</v>
@@ -18293,12 +18297,12 @@
         <v>1.49</v>
       </c>
       <c r="M10" s="45" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" s="35" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B11" s="35">
         <v>2</v>
@@ -18313,10 +18317,10 @@
         <v>2</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G11" s="35" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H11" s="55">
         <v>585546</v>
@@ -18325,7 +18329,7 @@
         <v>65</v>
       </c>
       <c r="J11" s="36" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="K11" s="37">
         <v>5.99</v>
@@ -18335,12 +18339,12 @@
         <v>11.98</v>
       </c>
       <c r="M11" s="38" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="12" spans="1:13">
       <c r="A12" s="55" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B12" s="35">
         <v>1</v>
@@ -18356,19 +18360,19 @@
         <v>1</v>
       </c>
       <c r="F12" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G12" s="35" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H12" s="55" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I12" s="36" t="s">
         <v>65</v>
       </c>
       <c r="J12" s="36" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K12" s="37">
         <v>2.2599999999999998</v>
@@ -18378,12 +18382,12 @@
         <v>2.2599999999999998</v>
       </c>
       <c r="M12" s="38" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="13" spans="1:13">
       <c r="A13" s="35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B13" s="35">
         <v>1</v>
@@ -18398,10 +18402,10 @@
         <v>2</v>
       </c>
       <c r="F13" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G13" s="35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="H13" s="55">
         <v>545512</v>
@@ -18410,7 +18414,7 @@
         <v>65</v>
       </c>
       <c r="J13" s="36" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="K13" s="37">
         <v>9.99</v>
@@ -18420,12 +18424,12 @@
         <v>9.99</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="28.5">
       <c r="A14" s="35" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B14" s="35">
         <v>1</v>
@@ -18441,19 +18445,19 @@
         <v>1</v>
       </c>
       <c r="F14" s="35" t="s">
+        <v>189</v>
+      </c>
+      <c r="G14" s="35" t="s">
+        <v>190</v>
+      </c>
+      <c r="H14" s="55" t="s">
         <v>191</v>
-      </c>
-      <c r="G14" s="35" t="s">
-        <v>192</v>
-      </c>
-      <c r="H14" s="55" t="s">
-        <v>193</v>
       </c>
       <c r="I14" s="36" t="s">
         <v>65</v>
       </c>
       <c r="J14" s="36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K14" s="37">
         <v>9.6999999999999993</v>
@@ -18463,12 +18467,12 @@
         <v>9.6999999999999993</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:13">
       <c r="A15" s="35" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B15" s="35">
         <v>2</v>
@@ -18483,10 +18487,10 @@
         <v>2</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G15" s="35" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="H15" s="55">
         <v>585006</v>
@@ -18495,7 +18499,7 @@
         <v>65</v>
       </c>
       <c r="J15" s="36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K15" s="37">
         <v>16.989999999999998</v>
@@ -18505,12 +18509,12 @@
         <v>33.979999999999997</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="16" spans="1:13">
       <c r="A16" s="35" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B16" s="35">
         <v>4</v>
@@ -18525,10 +18529,10 @@
         <v>4</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G16" s="35" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="H16" s="55">
         <v>585004</v>
@@ -18537,7 +18541,7 @@
         <v>65</v>
       </c>
       <c r="J16" s="36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K16" s="37">
         <v>13.99</v>
@@ -18547,12 +18551,12 @@
         <v>55.96</v>
       </c>
       <c r="M16" s="68" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:28">
       <c r="A17" s="35" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B17" s="35">
         <v>1</v>
@@ -18567,10 +18571,10 @@
         <v>1</v>
       </c>
       <c r="F17" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G17" s="35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H17" s="55">
         <v>585468</v>
@@ -18579,7 +18583,7 @@
         <v>65</v>
       </c>
       <c r="J17" s="36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K17" s="37">
         <v>1.29</v>
@@ -18589,12 +18593,12 @@
         <v>1.29</v>
       </c>
       <c r="M17" s="38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:28">
       <c r="A18" s="55" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B18" s="35">
         <v>1</v>
@@ -18610,10 +18614,10 @@
         <v>1</v>
       </c>
       <c r="F18" s="35" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G18" s="35" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="H18" s="55">
         <v>585468</v>
@@ -18622,7 +18626,7 @@
         <v>65</v>
       </c>
       <c r="J18" s="36" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="K18" s="37">
         <v>1.29</v>
@@ -18632,12 +18636,12 @@
         <v>1.29</v>
       </c>
       <c r="M18" s="38" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:28">
       <c r="A19" s="35" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B19" s="43">
         <v>12</v>
@@ -18652,19 +18656,19 @@
         <v>68</v>
       </c>
       <c r="F19" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G19" s="43" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="H19" s="50" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="I19" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J19" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K19" s="37">
         <v>0.23</v>
@@ -18674,12 +18678,12 @@
         <v>2.7600000000000002</v>
       </c>
       <c r="M19" s="45" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="20" spans="1:28" s="77" customFormat="1" ht="14.25" customHeight="1">
       <c r="A20" s="35" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B20" s="35">
         <v>4</v>
@@ -18694,19 +18698,19 @@
         <v>4</v>
       </c>
       <c r="F20" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G20" s="35" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="H20" s="51" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="I20" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J20" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K20" s="37">
         <v>0.3</v>
@@ -18716,13 +18720,13 @@
         <v>1.2</v>
       </c>
       <c r="M20" s="52" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="N20" s="34"/>
     </row>
     <row r="21" spans="1:28" s="77" customFormat="1" ht="14.25" customHeight="1">
       <c r="A21" s="35" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B21" s="35">
         <v>100</v>
@@ -18737,19 +18741,19 @@
         <v>1</v>
       </c>
       <c r="F21" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G21" s="35" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="H21" s="49" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="I21" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J21" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K21" s="37">
         <v>1.17</v>
@@ -18759,13 +18763,13 @@
         <v>1.17</v>
       </c>
       <c r="M21" s="38" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="N21" s="34"/>
     </row>
     <row r="22" spans="1:28" s="77" customFormat="1" ht="14.25" customHeight="1">
       <c r="A22" s="55" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="B22" s="35">
         <v>5</v>
@@ -18781,19 +18785,19 @@
         <v>1</v>
       </c>
       <c r="F22" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G22" s="35" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H22" s="55" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="I22" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J22" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K22" s="37">
         <v>2.4700000000000002</v>
@@ -18803,13 +18807,13 @@
         <v>2.4700000000000002</v>
       </c>
       <c r="M22" s="38" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="N22" s="34"/>
     </row>
     <row r="23" spans="1:28" s="77" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="55" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B23" s="43">
         <v>12</v>
@@ -18825,19 +18829,19 @@
         <v>12</v>
       </c>
       <c r="F23" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G23" s="43" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="H23" s="49" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="I23" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J23" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K23" s="37">
         <v>0.23</v>
@@ -18847,13 +18851,13 @@
         <v>2.7600000000000002</v>
       </c>
       <c r="M23" s="56" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N23" s="34"/>
     </row>
     <row r="24" spans="1:28" s="77" customFormat="1" ht="14.25" customHeight="1">
       <c r="A24" s="55" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B24" s="43">
         <v>16</v>
@@ -18869,19 +18873,19 @@
         <v>16</v>
       </c>
       <c r="F24" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G24" s="43" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="H24" s="49" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="I24" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J24" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K24" s="37">
         <v>0.27</v>
@@ -18891,7 +18895,7 @@
         <v>4.32</v>
       </c>
       <c r="M24" s="56" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="N24" s="34"/>
       <c r="Z24" s="34"/>
@@ -18900,7 +18904,7 @@
     </row>
     <row r="25" spans="1:28" s="77" customFormat="1" ht="14.25" customHeight="1">
       <c r="A25" s="55" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B25" s="35">
         <v>12</v>
@@ -18916,19 +18920,19 @@
         <v>12</v>
       </c>
       <c r="F25" s="35" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G25" s="35" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="H25" s="49" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="I25" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J25" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K25" s="37">
         <v>0.37</v>
@@ -18938,7 +18942,7 @@
         <v>4.4399999999999995</v>
       </c>
       <c r="M25" s="38" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="N25" s="34"/>
       <c r="Z25" s="34"/>
@@ -18947,7 +18951,7 @@
     </row>
     <row r="26" spans="1:28" s="77" customFormat="1" ht="14.25" customHeight="1">
       <c r="A26" s="55" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B26" s="43">
         <v>6</v>
@@ -18963,19 +18967,19 @@
         <v>6</v>
       </c>
       <c r="F26" s="43" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G26" s="43" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="H26" s="42" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="I26" s="35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="J26" s="35" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="K26" s="37">
         <v>0.48</v>
@@ -18985,7 +18989,7 @@
         <v>2.88</v>
       </c>
       <c r="M26" s="38" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="N26" s="34"/>
       <c r="Z26" s="34"/>

--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eddy/Documents/Development/Personal/open-source-rover/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{711ADF74-5CED-174D-A631-869662F04C2A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3A65A5E0-8394-F64C-AB3B-35DFED3225DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -808,9 +808,6 @@
     <t>E7</t>
   </si>
   <si>
-    <t>1/8 inch, 10 Bit Analog, Ball bearing</t>
-  </si>
-  <si>
     <t>Black Wire 30AWG</t>
   </si>
   <si>
@@ -1118,6 +1115,9 @@
   </si>
   <si>
     <t>Total</t>
+  </si>
+  <si>
+    <t>1/8 inch, 10 Bit Analog, Sleeve Bushing (N)</t>
   </si>
 </sst>
 </file>
@@ -1138,26 +1138,31 @@
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0563C1"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color theme="10"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
@@ -1237,6 +1242,7 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="7">
@@ -1277,7 +1283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -1336,19 +1342,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -1387,7 +1380,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="128">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1469,16 +1462,16 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1494,7 +1487,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1515,13 +1508,13 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1669,10 +1662,10 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -1696,36 +1689,39 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="44" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -2038,45 +2034,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="109" customFormat="1" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="120" t="s">
+      <c r="A1" s="121" t="s">
+        <v>355</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="122"/>
+      <c r="E1" s="122"/>
+      <c r="F1" s="122"/>
+      <c r="G1" s="122"/>
+      <c r="H1" s="122"/>
+      <c r="I1" s="123"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="122"/>
+    </row>
+    <row r="2" spans="1:27" s="111" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="124" t="s">
         <v>356</v>
       </c>
-      <c r="B1" s="121"/>
-      <c r="C1" s="121"/>
-      <c r="D1" s="121"/>
-      <c r="E1" s="121"/>
-      <c r="F1" s="121"/>
-      <c r="G1" s="121"/>
-      <c r="H1" s="121"/>
-      <c r="I1" s="122"/>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-    </row>
-    <row r="2" spans="1:27" s="111" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="123" t="s">
-        <v>357</v>
-      </c>
-      <c r="B2" s="123"/>
-      <c r="C2" s="123"/>
-      <c r="D2" s="123"/>
-      <c r="E2" s="123"/>
-      <c r="F2" s="123"/>
+      <c r="B2" s="124"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
       <c r="I2" s="114"/>
-      <c r="J2" s="125" t="s">
-        <v>364</v>
-      </c>
-      <c r="K2" s="126">
+      <c r="J2" s="126" t="s">
+        <v>363</v>
+      </c>
+      <c r="K2" s="127">
         <f>SUM(K5:K150)</f>
-        <v>2519.5</v>
+        <v>2494.3000000000002</v>
       </c>
       <c r="L2" s="114"/>
     </row>
     <row r="3" spans="1:27" s="111" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="115" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B3" s="115"/>
       <c r="C3" s="115"/>
@@ -2114,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>7</v>
@@ -2222,7 +2218,7 @@
         <v>37</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="118" t="s">
+      <c r="N6" s="119" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2263,7 +2259,7 @@
         <v>42</v>
       </c>
       <c r="M7" s="11"/>
-      <c r="N7" s="119"/>
+      <c r="N7" s="120"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
@@ -2449,7 +2445,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J12" s="23">
         <v>9.25</v>
@@ -2620,7 +2616,7 @@
     </row>
     <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B17" s="39">
         <v>25</v>
@@ -2638,7 +2634,7 @@
         <v>74</v>
       </c>
       <c r="G17" s="116" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>12</v>
@@ -2652,13 +2648,13 @@
         <v>0.72</v>
       </c>
       <c r="L17" s="117" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B18" s="39">
         <v>25</v>
@@ -2676,7 +2672,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="116" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>12</v>
@@ -2690,7 +2686,7 @@
         <v>0.72</v>
       </c>
       <c r="L18" s="110" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2766,7 +2762,7 @@
         <v>4.49</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2796,7 +2792,7 @@
         <v>58</v>
       </c>
       <c r="I21" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J21" s="23">
         <v>25.27</v>
@@ -2836,7 +2832,7 @@
         <v>58</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J22" s="23">
         <v>12.9</v>
@@ -2876,7 +2872,7 @@
         <v>58</v>
       </c>
       <c r="I23" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J23" s="23">
         <f>38.9+36.9</f>
@@ -2893,7 +2889,7 @@
     </row>
     <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B24" s="39">
         <v>300</v>
@@ -2918,7 +2914,7 @@
         <v>93</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J24" s="23">
         <v>3.45</v>
@@ -2958,7 +2954,7 @@
         <v>93</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J25" s="23">
         <v>5.61</v>
@@ -3002,7 +2998,7 @@
         <v>93</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J26" s="23">
         <v>2.72</v>
@@ -3045,7 +3041,7 @@
         <v>93</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J27" s="23">
         <v>2.79</v>
@@ -3064,7 +3060,7 @@
     </row>
     <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B28" s="39">
         <v>100</v>
@@ -3089,7 +3085,7 @@
         <v>93</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J28" s="23">
         <v>3.72</v>
@@ -3099,7 +3095,7 @@
         <v>3.72</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="M28" s="9"/>
       <c r="Y28" s="9"/>
@@ -3108,7 +3104,7 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B29" s="39">
         <v>100</v>
@@ -3132,7 +3128,7 @@
         <v>93</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J29" s="23">
         <v>3.72</v>
@@ -3142,7 +3138,7 @@
         <v>3.72</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M29" s="9"/>
       <c r="Y29" s="9"/>
@@ -3151,7 +3147,7 @@
     </row>
     <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B30" s="41">
         <v>100</v>
@@ -3175,7 +3171,7 @@
         <v>93</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J30" s="23">
         <v>4.07</v>
@@ -3185,13 +3181,13 @@
         <v>4.07</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B31" s="41">
         <v>100</v>
@@ -3215,7 +3211,7 @@
         <v>93</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J31" s="23">
         <v>4.41</v>
@@ -3225,13 +3221,13 @@
         <v>4.41</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B32" s="41">
         <v>50</v>
@@ -3255,7 +3251,7 @@
         <v>93</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J32" s="23">
         <v>5.42</v>
@@ -3265,13 +3261,13 @@
         <v>5.42</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B33" s="39">
         <v>50</v>
@@ -3295,7 +3291,7 @@
         <v>93</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J33" s="23">
         <v>6.51</v>
@@ -3305,13 +3301,13 @@
         <v>6.51</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B34" s="39">
         <v>100</v>
@@ -3335,7 +3331,7 @@
         <v>93</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J34" s="23">
         <v>2.87</v>
@@ -3351,7 +3347,7 @@
     </row>
     <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B35" s="41">
         <v>100</v>
@@ -3375,7 +3371,7 @@
         <v>93</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J35" s="23">
         <v>7.7</v>
@@ -3385,7 +3381,7 @@
         <v>7.7</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="M35" s="9"/>
     </row>
@@ -3409,13 +3405,13 @@
         <v>126</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="H36" s="39" t="s">
         <v>58</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J36" s="23">
         <v>23.16</v>
@@ -3425,7 +3421,7 @@
         <v>23.16</v>
       </c>
       <c r="L36" s="110" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="M36" s="9"/>
     </row>
@@ -3455,7 +3451,7 @@
         <v>58</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J37" s="23">
         <v>2.2599999999999998</v>
@@ -3495,7 +3491,7 @@
         <v>58</v>
       </c>
       <c r="I38" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J38" s="23">
         <v>4.92</v>
@@ -3535,7 +3531,7 @@
         <v>93</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J39" s="23">
         <v>0.23</v>
@@ -3575,7 +3571,7 @@
         <v>93</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J40" s="23">
         <v>0.3</v>
@@ -3616,7 +3612,7 @@
         <v>93</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J41" s="23">
         <v>0.23</v>
@@ -3656,7 +3652,7 @@
         <v>93</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J42" s="23">
         <v>0.27</v>
@@ -3699,7 +3695,7 @@
         <v>93</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J43" s="23">
         <v>0.37</v>
@@ -3742,7 +3738,7 @@
         <v>93</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J44" s="23">
         <v>0.48</v>
@@ -3785,7 +3781,7 @@
         <v>93</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J45" s="23">
         <v>1.17</v>
@@ -3828,7 +3824,7 @@
         <v>93</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J46" s="23">
         <v>1.4</v>
@@ -3868,7 +3864,7 @@
         <v>93</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J47" s="23">
         <v>2.4700000000000002</v>
@@ -3992,7 +3988,7 @@
         <v>209.70000000000002</v>
       </c>
       <c r="L50" s="28" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="M50" s="9"/>
     </row>
@@ -4060,7 +4056,7 @@
         <v>58</v>
       </c>
       <c r="I52" s="61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J52" s="23">
         <v>2.99</v>
@@ -4100,7 +4096,7 @@
         <v>58</v>
       </c>
       <c r="I53" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J53" s="23">
         <v>5.99</v>
@@ -4140,7 +4136,7 @@
         <v>58</v>
       </c>
       <c r="I54" s="61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J54" s="23">
         <v>6.99</v>
@@ -4180,7 +4176,7 @@
         <v>58</v>
       </c>
       <c r="I55" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J55" s="23">
         <v>5.99</v>
@@ -4220,7 +4216,7 @@
         <v>58</v>
       </c>
       <c r="I56" s="61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J56" s="23">
         <v>5.99</v>
@@ -4260,7 +4256,7 @@
         <v>58</v>
       </c>
       <c r="I57" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J57" s="23">
         <v>5.99</v>
@@ -4300,7 +4296,7 @@
         <v>58</v>
       </c>
       <c r="I58" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J58" s="23">
         <v>1.49</v>
@@ -4340,12 +4336,12 @@
         <v>58</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J59" s="23">
         <v>5.99</v>
       </c>
-      <c r="K59" s="124">
+      <c r="K59" s="118">
         <f t="shared" si="1"/>
         <v>47.92</v>
       </c>
@@ -4380,7 +4376,7 @@
         <v>58</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J60" s="23">
         <v>2.09</v>
@@ -4420,7 +4416,7 @@
         <v>58</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J61" s="23">
         <v>1.49</v>
@@ -4460,7 +4456,7 @@
         <v>58</v>
       </c>
       <c r="I62" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J62" s="23">
         <v>3.99</v>
@@ -4500,7 +4496,7 @@
         <v>58</v>
       </c>
       <c r="I63" s="61" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J63" s="23">
         <v>5.99</v>
@@ -4540,7 +4536,7 @@
         <v>58</v>
       </c>
       <c r="I64" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J64" s="23">
         <v>2.39</v>
@@ -4580,7 +4576,7 @@
         <v>58</v>
       </c>
       <c r="I65" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J65" s="23">
         <v>4.99</v>
@@ -4620,7 +4616,7 @@
         <v>58</v>
       </c>
       <c r="I66" s="61" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="J66" s="23">
         <v>9.99</v>
@@ -4660,7 +4656,7 @@
         <v>58</v>
       </c>
       <c r="I67" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J67" s="23">
         <v>5.99</v>
@@ -4700,7 +4696,7 @@
         <v>58</v>
       </c>
       <c r="I68" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J68" s="23">
         <v>3.69</v>
@@ -4740,7 +4736,7 @@
         <v>58</v>
       </c>
       <c r="I69" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J69" s="23">
         <v>7.99</v>
@@ -4780,7 +4776,7 @@
         <v>58</v>
       </c>
       <c r="I70" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J70" s="23">
         <v>4.49</v>
@@ -4820,7 +4816,7 @@
         <v>58</v>
       </c>
       <c r="I71" s="61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J71" s="23">
         <v>16.989999999999998</v>
@@ -4860,7 +4856,7 @@
         <v>58</v>
       </c>
       <c r="I72" s="61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J72" s="23">
         <v>13.99</v>
@@ -4900,7 +4896,7 @@
         <v>58</v>
       </c>
       <c r="I73" s="73" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J73" s="23">
         <v>4.99</v>
@@ -4940,7 +4936,7 @@
         <v>58</v>
       </c>
       <c r="I74" s="61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J74" s="23">
         <v>7.99</v>
@@ -4981,7 +4977,7 @@
         <v>58</v>
       </c>
       <c r="I75" s="61" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="J75" s="23">
         <v>3.99</v>
@@ -5021,7 +5017,7 @@
         <v>58</v>
       </c>
       <c r="I76" s="61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J76" s="23">
         <v>2.79</v>
@@ -5061,7 +5057,7 @@
         <v>58</v>
       </c>
       <c r="I77" s="61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J77" s="23">
         <v>1.29</v>
@@ -5101,7 +5097,7 @@
         <v>58</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J78" s="23">
         <v>3.99</v>
@@ -5141,7 +5137,7 @@
         <v>93</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J79" s="23">
         <v>1.79</v>
@@ -5174,7 +5170,7 @@
         <v>258</v>
       </c>
       <c r="G80" s="43" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="H80" s="60" t="s">
         <v>12</v>
@@ -5211,18 +5207,18 @@
         <v>260</v>
       </c>
       <c r="G81" s="43" t="s">
-        <v>261</v>
+        <v>364</v>
       </c>
       <c r="H81" s="60" t="s">
         <v>12</v>
       </c>
       <c r="I81" s="61"/>
       <c r="J81" s="75">
-        <v>61.3</v>
+        <v>55</v>
       </c>
       <c r="K81" s="23">
         <f t="shared" si="2"/>
-        <v>245.2</v>
+        <v>220</v>
       </c>
       <c r="L81" s="28" t="s">
         <v>259</v>
@@ -5230,7 +5226,7 @@
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B82" s="41">
         <v>1</v>
@@ -5248,7 +5244,7 @@
         <v>19</v>
       </c>
       <c r="G82" s="47" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H82" s="41" t="s">
         <v>12</v>
@@ -5262,13 +5258,13 @@
         <v>6.32</v>
       </c>
       <c r="L82" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="M82" s="15"/>
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B83" s="41">
         <v>1</v>
@@ -5286,7 +5282,7 @@
         <v>19</v>
       </c>
       <c r="G83" s="43" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H83" s="41" t="s">
         <v>12</v>
@@ -5300,12 +5296,12 @@
         <v>6.14</v>
       </c>
       <c r="L83" s="30" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B84" s="41">
         <v>1</v>
@@ -5323,7 +5319,7 @@
         <v>19</v>
       </c>
       <c r="G84" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H84" s="41" t="s">
         <v>12</v>
@@ -5337,12 +5333,12 @@
         <v>4.95</v>
       </c>
       <c r="L84" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B85" s="41">
         <v>1</v>
@@ -5360,7 +5356,7 @@
         <v>19</v>
       </c>
       <c r="G85" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H85" s="41" t="s">
         <v>12</v>
@@ -5374,12 +5370,12 @@
         <v>4.95</v>
       </c>
       <c r="L85" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B86" s="41">
         <v>1</v>
@@ -5397,7 +5393,7 @@
         <v>19</v>
       </c>
       <c r="G86" s="47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H86" s="41" t="s">
         <v>12</v>
@@ -5411,13 +5407,13 @@
         <v>4.95</v>
       </c>
       <c r="L86" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="M86" s="15"/>
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B87" s="41">
         <v>1</v>
@@ -5435,7 +5431,7 @@
         <v>19</v>
       </c>
       <c r="G87" s="47" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H87" s="41" t="s">
         <v>12</v>
@@ -5449,12 +5445,12 @@
         <v>4.95</v>
       </c>
       <c r="L87" s="41" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="76" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B88" s="41">
         <v>10</v>
@@ -5470,7 +5466,7 @@
       </c>
       <c r="F88" s="41"/>
       <c r="G88" s="106" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H88" s="41" t="s">
         <v>12</v>
@@ -5484,12 +5480,12 @@
         <v>3.67</v>
       </c>
       <c r="L88" s="77" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="78" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B89" s="72">
         <v>10</v>
@@ -5505,7 +5501,7 @@
       </c>
       <c r="F89" s="72"/>
       <c r="G89" s="107" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="H89" s="72" t="s">
         <v>12</v>
@@ -5519,12 +5515,12 @@
         <v>0.4</v>
       </c>
       <c r="L89" s="80" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="81" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B90" s="82">
         <v>0</v>
@@ -5552,12 +5548,12 @@
         <v>0</v>
       </c>
       <c r="L90" s="82" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="81" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B91" s="82">
         <v>0</v>
@@ -5585,12 +5581,12 @@
         <v>0</v>
       </c>
       <c r="L91" s="86" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B92" s="72">
         <v>1</v>
@@ -5606,7 +5602,7 @@
       </c>
       <c r="F92" s="72"/>
       <c r="G92" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H92" s="72" t="s">
         <v>12</v>
@@ -5620,12 +5616,12 @@
         <v>7.99</v>
       </c>
       <c r="L92" s="89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B93" s="72">
         <v>1</v>
@@ -5641,7 +5637,7 @@
       </c>
       <c r="F93" s="72"/>
       <c r="G93" s="88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H93" s="72" t="s">
         <v>12</v>
@@ -5655,12 +5651,12 @@
         <v>15.59</v>
       </c>
       <c r="L93" s="89" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B94" s="72">
         <v>1</v>
@@ -5676,7 +5672,7 @@
       </c>
       <c r="F94" s="72"/>
       <c r="G94" s="88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H94" s="72" t="s">
         <v>12</v>
@@ -5690,12 +5686,12 @@
         <v>12.56</v>
       </c>
       <c r="L94" s="90" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="87" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B95" s="72">
         <v>1</v>
@@ -5711,7 +5707,7 @@
       </c>
       <c r="F95" s="72"/>
       <c r="G95" s="88" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H95" s="72" t="s">
         <v>12</v>
@@ -5725,12 +5721,12 @@
         <v>15.59</v>
       </c>
       <c r="L95" s="89" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="87" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B96" s="72">
         <v>1</v>
@@ -5746,7 +5742,7 @@
       </c>
       <c r="F96" s="72"/>
       <c r="G96" s="88" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="H96" s="72" t="s">
         <v>12</v>
@@ -5760,7 +5756,7 @@
         <v>15.59</v>
       </c>
       <c r="L96" s="89" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5781,7 +5777,7 @@
       </c>
       <c r="F97" s="63"/>
       <c r="G97" s="68" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="H97" s="63" t="s">
         <v>12</v>
@@ -5795,7 +5791,7 @@
         <v>19.75</v>
       </c>
       <c r="L97" s="69" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5977,7 +5973,7 @@
     </row>
     <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="31" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B103" s="42">
         <v>25</v>
@@ -5992,16 +5988,16 @@
         <v>90</v>
       </c>
       <c r="F103" s="42" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="G103" s="108" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H103" s="49" t="s">
         <v>93</v>
       </c>
       <c r="I103" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J103" s="33">
         <v>3.78</v>
@@ -6011,12 +6007,12 @@
         <v>3.78</v>
       </c>
       <c r="L103" s="103" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
     </row>
     <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="34" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B104" s="42">
         <v>4</v>
@@ -6031,16 +6027,16 @@
         <v>90</v>
       </c>
       <c r="F104" s="42" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G104" s="50" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="H104" s="51" t="s">
         <v>93</v>
       </c>
       <c r="I104" s="32" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="J104" s="33">
         <v>0.96</v>
@@ -6050,12 +6046,12 @@
         <v>3.84</v>
       </c>
       <c r="L104" s="103" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="105" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="34" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B105" s="42">
         <v>1</v>
@@ -6067,10 +6063,10 @@
         <v>1</v>
       </c>
       <c r="E105" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="F105" s="42" t="s">
         <v>344</v>
-      </c>
-      <c r="F105" s="42" t="s">
-        <v>345</v>
       </c>
       <c r="G105" s="104"/>
       <c r="H105" s="51" t="s">
@@ -6085,12 +6081,12 @@
         <v>11.75</v>
       </c>
       <c r="L105" s="103" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="106" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="34" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B106" s="42">
         <v>1</v>
@@ -6102,7 +6098,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="42" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F106" s="42" t="s">
         <v>170</v>
@@ -6120,7 +6116,7 @@
         <v>15.25</v>
       </c>
       <c r="L106" s="103" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6151,7 +6147,7 @@
       <c r="C109" s="17"/>
       <c r="D109" s="18"/>
       <c r="E109" s="20" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F109" s="20">
         <v>10</v>
@@ -6168,7 +6164,7 @@
       <c r="C110" s="17"/>
       <c r="D110" s="18"/>
       <c r="E110" s="20" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F110" s="20">
         <v>10</v>

--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eddy/Documents/Development/Personal/open-source-rover/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{3A65A5E0-8394-F64C-AB3B-35DFED3225DB}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C562BB8E-8300-8744-888A-186717FFB17D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1702,6 +1702,10 @@
     <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1715,16 +1719,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2034,39 +2034,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27" s="109" customFormat="1" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="121" t="s">
+      <c r="A1" s="123" t="s">
         <v>355</v>
       </c>
-      <c r="B1" s="122"/>
-      <c r="C1" s="122"/>
-      <c r="D1" s="122"/>
-      <c r="E1" s="122"/>
-      <c r="F1" s="122"/>
-      <c r="G1" s="122"/>
-      <c r="H1" s="122"/>
-      <c r="I1" s="123"/>
-      <c r="J1" s="125"/>
-      <c r="K1" s="125"/>
-      <c r="L1" s="122"/>
+      <c r="B1" s="124"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
+      <c r="H1" s="124"/>
+      <c r="I1" s="125"/>
+      <c r="J1" s="126"/>
+      <c r="K1" s="126"/>
+      <c r="L1" s="124"/>
     </row>
     <row r="2" spans="1:27" s="111" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="124" t="s">
+      <c r="A2" s="127" t="s">
         <v>356</v>
       </c>
-      <c r="B2" s="124"/>
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
+      <c r="B2" s="127"/>
+      <c r="C2" s="127"/>
+      <c r="D2" s="127"/>
+      <c r="E2" s="127"/>
+      <c r="F2" s="127"/>
       <c r="G2" s="114"/>
       <c r="H2" s="114"/>
       <c r="I2" s="114"/>
-      <c r="J2" s="126" t="s">
+      <c r="J2" s="119" t="s">
         <v>363</v>
       </c>
-      <c r="K2" s="127">
+      <c r="K2" s="120">
         <f>SUM(K5:K150)</f>
-        <v>2494.3000000000002</v>
+        <v>2496.3000000000002</v>
       </c>
       <c r="L2" s="114"/>
     </row>
@@ -2218,7 +2218,7 @@
         <v>37</v>
       </c>
       <c r="M6" s="10"/>
-      <c r="N6" s="119" t="s">
+      <c r="N6" s="121" t="s">
         <v>38</v>
       </c>
     </row>
@@ -2259,7 +2259,7 @@
         <v>42</v>
       </c>
       <c r="M7" s="11"/>
-      <c r="N7" s="120"/>
+      <c r="N7" s="122"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
@@ -5214,11 +5214,11 @@
       </c>
       <c r="I81" s="61"/>
       <c r="J81" s="75">
-        <v>55</v>
+        <v>55.5</v>
       </c>
       <c r="K81" s="23">
         <f t="shared" si="2"/>
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="L81" s="28" t="s">
         <v>259</v>

--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eddy/Documents/Development/Personal/open-source-rover/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\JPL Open Source Rover\open-source-rover\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C562BB8E-8300-8744-888A-186717FFB17D}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="458" windowWidth="33600" windowHeight="19560"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1099,9 +1098,6 @@
     <t>© 2018 California Institute of Technology. Government sponsorship acknowledged</t>
   </si>
   <si>
-    <t>https://www.pololu.com/category/115/25d-mm-metal-gearmotors</t>
-  </si>
-  <si>
     <t>CF14JT10K0CT-ND</t>
   </si>
   <si>
@@ -1118,12 +1114,15 @@
   </si>
   <si>
     <t>1/8 inch, 10 Bit Analog, Sleeve Bushing (N)</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/3268</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -2006,15 +2005,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AA970"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
@@ -2024,16 +2023,16 @@
     <col min="6" max="6" width="8.6640625" style="20" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="20" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="26.1640625" style="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.1328125" style="14" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="86.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.83203125" customWidth="1"/>
+    <col min="13" max="13" width="12.796875" customWidth="1"/>
     <col min="14" max="14" width="58.6640625" customWidth="1"/>
     <col min="15" max="27" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="109" customFormat="1" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="109" customFormat="1" ht="32.75" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A1" s="123" t="s">
         <v>355</v>
       </c>
@@ -2049,7 +2048,7 @@
       <c r="K1" s="126"/>
       <c r="L1" s="124"/>
     </row>
-    <row r="2" spans="1:27" s="111" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="111" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="127" t="s">
         <v>356</v>
       </c>
@@ -2062,7 +2061,7 @@
       <c r="H2" s="114"/>
       <c r="I2" s="114"/>
       <c r="J2" s="119" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="K2" s="120">
         <f>SUM(K5:K150)</f>
@@ -2070,7 +2069,7 @@
       </c>
       <c r="L2" s="114"/>
     </row>
-    <row r="3" spans="1:27" s="111" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:27" s="111" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A3" s="115" t="s">
         <v>357</v>
       </c>
@@ -2084,7 +2083,7 @@
       <c r="I3" s="113"/>
       <c r="J3" s="112"/>
     </row>
-    <row r="4" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2137,7 +2136,7 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A5" s="53" t="s">
         <v>31</v>
       </c>
@@ -2181,7 +2180,7 @@
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
     </row>
-    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A6" s="21" t="s">
         <v>34</v>
       </c>
@@ -2222,7 +2221,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A7" s="62" t="s">
         <v>39</v>
       </c>
@@ -2264,7 +2263,7 @@
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="21" t="s">
         <v>43</v>
       </c>
@@ -2302,7 +2301,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="21" t="s">
         <v>45</v>
       </c>
@@ -2340,7 +2339,7 @@
       </c>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:27" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:27" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="62" t="s">
         <v>49</v>
       </c>
@@ -2381,7 +2380,7 @@
       <c r="Z10" s="38"/>
       <c r="AA10" s="38"/>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A11" s="29" t="s">
         <v>52</v>
       </c>
@@ -2419,7 +2418,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A12" s="21" t="s">
         <v>55</v>
       </c>
@@ -2459,7 +2458,7 @@
       </c>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A13" s="21" t="s">
         <v>60</v>
       </c>
@@ -2500,7 +2499,7 @@
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A14" s="21" t="s">
         <v>64</v>
       </c>
@@ -2538,7 +2537,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A15" s="21" t="s">
         <v>67</v>
       </c>
@@ -2576,7 +2575,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A16" s="21" t="s">
         <v>72</v>
       </c>
@@ -2614,7 +2613,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A17" s="21" t="s">
         <v>340</v>
       </c>
@@ -2634,7 +2633,7 @@
         <v>74</v>
       </c>
       <c r="G17" s="116" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>12</v>
@@ -2648,11 +2647,11 @@
         <v>0.72</v>
       </c>
       <c r="L17" s="117" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A18" s="21" t="s">
         <v>347</v>
       </c>
@@ -2672,7 +2671,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="116" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>12</v>
@@ -2686,11 +2685,11 @@
         <v>0.72</v>
       </c>
       <c r="L18" s="110" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A19" s="21" t="s">
         <v>75</v>
       </c>
@@ -2728,7 +2727,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A20" s="21" t="s">
         <v>78</v>
       </c>
@@ -2766,7 +2765,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A21" s="21" t="s">
         <v>80</v>
       </c>
@@ -2806,7 +2805,7 @@
       </c>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A22" s="21" t="s">
         <v>84</v>
       </c>
@@ -2846,7 +2845,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A23" s="21" t="s">
         <v>88</v>
       </c>
@@ -2887,7 +2886,7 @@
       </c>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A24" s="21" t="s">
         <v>319</v>
       </c>
@@ -2928,7 +2927,7 @@
       </c>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A25" s="21" t="s">
         <v>95</v>
       </c>
@@ -2972,7 +2971,7 @@
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
     </row>
-    <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A26" s="21" t="s">
         <v>98</v>
       </c>
@@ -3015,7 +3014,7 @@
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
     </row>
-    <row r="27" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A27" s="21" t="s">
         <v>102</v>
       </c>
@@ -3058,7 +3057,7 @@
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
     </row>
-    <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A28" s="21" t="s">
         <v>322</v>
       </c>
@@ -3102,7 +3101,7 @@
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A29" s="21" t="s">
         <v>323</v>
       </c>
@@ -3145,7 +3144,7 @@
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A30" s="21" t="s">
         <v>326</v>
       </c>
@@ -3185,7 +3184,7 @@
       </c>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A31" s="21" t="s">
         <v>327</v>
       </c>
@@ -3225,7 +3224,7 @@
       </c>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A32" s="21" t="s">
         <v>329</v>
       </c>
@@ -3265,7 +3264,7 @@
       </c>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A33" s="21" t="s">
         <v>331</v>
       </c>
@@ -3305,7 +3304,7 @@
       </c>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A34" s="21" t="s">
         <v>332</v>
       </c>
@@ -3345,7 +3344,7 @@
       </c>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A35" s="21" t="s">
         <v>333</v>
       </c>
@@ -3385,7 +3384,7 @@
       </c>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A36" s="21" t="s">
         <v>125</v>
       </c>
@@ -3425,7 +3424,7 @@
       </c>
       <c r="M36" s="9"/>
     </row>
-    <row r="37" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A37" s="21" t="s">
         <v>127</v>
       </c>
@@ -3465,7 +3464,7 @@
       </c>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A38" s="21" t="s">
         <v>131</v>
       </c>
@@ -3505,7 +3504,7 @@
       </c>
       <c r="M38" s="9"/>
     </row>
-    <row r="39" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A39" s="21" t="s">
         <v>135</v>
       </c>
@@ -3545,7 +3544,7 @@
       </c>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A40" s="21" t="s">
         <v>139</v>
       </c>
@@ -3586,7 +3585,7 @@
       </c>
       <c r="M40" s="9"/>
     </row>
-    <row r="41" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A41" s="21" t="s">
         <v>142</v>
       </c>
@@ -3626,7 +3625,7 @@
       </c>
       <c r="M41" s="9"/>
     </row>
-    <row r="42" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A42" s="21" t="s">
         <v>146</v>
       </c>
@@ -3669,7 +3668,7 @@
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
     </row>
-    <row r="43" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A43" s="21" t="s">
         <v>150</v>
       </c>
@@ -3712,7 +3711,7 @@
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
     </row>
-    <row r="44" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A44" s="21" t="s">
         <v>154</v>
       </c>
@@ -3755,7 +3754,7 @@
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
     </row>
-    <row r="45" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A45" s="21" t="s">
         <v>158</v>
       </c>
@@ -3798,7 +3797,7 @@
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
     </row>
-    <row r="46" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A46" s="21" t="s">
         <v>162</v>
       </c>
@@ -3838,7 +3837,7 @@
       </c>
       <c r="M46" s="9"/>
     </row>
-    <row r="47" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A47" s="21" t="s">
         <v>166</v>
       </c>
@@ -3878,7 +3877,7 @@
       </c>
       <c r="M47" s="9"/>
     </row>
-    <row r="48" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A48" s="21" t="s">
         <v>171</v>
       </c>
@@ -3916,7 +3915,7 @@
       </c>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A49" s="21" t="s">
         <v>173</v>
       </c>
@@ -3954,7 +3953,7 @@
       </c>
       <c r="M49" s="9"/>
     </row>
-    <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A50" s="21" t="s">
         <v>175</v>
       </c>
@@ -3987,12 +3986,12 @@
         <f t="shared" si="1"/>
         <v>209.70000000000002</v>
       </c>
-      <c r="L50" s="28" t="s">
-        <v>358</v>
+      <c r="L50" s="110" t="s">
+        <v>364</v>
       </c>
       <c r="M50" s="9"/>
     </row>
-    <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A51" s="21" t="s">
         <v>176</v>
       </c>
@@ -4030,7 +4029,7 @@
       </c>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A52" s="21" t="s">
         <v>179</v>
       </c>
@@ -4070,7 +4069,7 @@
       </c>
       <c r="M52" s="9"/>
     </row>
-    <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A53" s="21" t="s">
         <v>182</v>
       </c>
@@ -4110,7 +4109,7 @@
       </c>
       <c r="M53" s="9"/>
     </row>
-    <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A54" s="21" t="s">
         <v>185</v>
       </c>
@@ -4150,7 +4149,7 @@
       </c>
       <c r="M54" s="9"/>
     </row>
-    <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A55" s="21" t="s">
         <v>188</v>
       </c>
@@ -4190,7 +4189,7 @@
       </c>
       <c r="M55" s="9"/>
     </row>
-    <row r="56" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A56" s="21" t="s">
         <v>191</v>
       </c>
@@ -4230,7 +4229,7 @@
       </c>
       <c r="M56" s="9"/>
     </row>
-    <row r="57" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A57" s="21" t="s">
         <v>194</v>
       </c>
@@ -4270,7 +4269,7 @@
       </c>
       <c r="M57" s="9"/>
     </row>
-    <row r="58" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A58" s="21" t="s">
         <v>196</v>
       </c>
@@ -4310,7 +4309,7 @@
       </c>
       <c r="M58" s="9"/>
     </row>
-    <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A59" s="21" t="s">
         <v>199</v>
       </c>
@@ -4350,7 +4349,7 @@
       </c>
       <c r="M59" s="9"/>
     </row>
-    <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A60" s="29" t="s">
         <v>202</v>
       </c>
@@ -4390,7 +4389,7 @@
       </c>
       <c r="M60" s="9"/>
     </row>
-    <row r="61" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A61" s="29" t="s">
         <v>205</v>
       </c>
@@ -4430,7 +4429,7 @@
       </c>
       <c r="M61" s="9"/>
     </row>
-    <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A62" s="21" t="s">
         <v>208</v>
       </c>
@@ -4470,7 +4469,7 @@
       </c>
       <c r="M62" s="9"/>
     </row>
-    <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A63" s="21" t="s">
         <v>211</v>
       </c>
@@ -4510,7 +4509,7 @@
       </c>
       <c r="M63" s="9"/>
     </row>
-    <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A64" s="21" t="s">
         <v>213</v>
       </c>
@@ -4550,7 +4549,7 @@
       </c>
       <c r="M64" s="9"/>
     </row>
-    <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A65" s="21" t="s">
         <v>216</v>
       </c>
@@ -4590,7 +4589,7 @@
       </c>
       <c r="M65" s="9"/>
     </row>
-    <row r="66" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A66" s="21" t="s">
         <v>218</v>
       </c>
@@ -4630,7 +4629,7 @@
       </c>
       <c r="M66" s="9"/>
     </row>
-    <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A67" s="21" t="s">
         <v>220</v>
       </c>
@@ -4670,7 +4669,7 @@
       </c>
       <c r="M67" s="9"/>
     </row>
-    <row r="68" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A68" s="21" t="s">
         <v>222</v>
       </c>
@@ -4710,7 +4709,7 @@
       </c>
       <c r="M68" s="9"/>
     </row>
-    <row r="69" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A69" s="21" t="s">
         <v>226</v>
       </c>
@@ -4750,7 +4749,7 @@
       </c>
       <c r="M69" s="9"/>
     </row>
-    <row r="70" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A70" s="21" t="s">
         <v>229</v>
       </c>
@@ -4790,7 +4789,7 @@
       </c>
       <c r="M70" s="9"/>
     </row>
-    <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A71" s="21" t="s">
         <v>232</v>
       </c>
@@ -4830,7 +4829,7 @@
       </c>
       <c r="M71" s="9"/>
     </row>
-    <row r="72" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A72" s="21" t="s">
         <v>235</v>
       </c>
@@ -4870,7 +4869,7 @@
       </c>
       <c r="M72" s="9"/>
     </row>
-    <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A73" s="29" t="s">
         <v>238</v>
       </c>
@@ -4910,7 +4909,7 @@
       </c>
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A74" s="21" t="s">
         <v>240</v>
       </c>
@@ -4950,7 +4949,7 @@
       </c>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A75" s="21" t="s">
         <v>243</v>
       </c>
@@ -4991,7 +4990,7 @@
       </c>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A76" s="21" t="s">
         <v>245</v>
       </c>
@@ -5031,7 +5030,7 @@
       </c>
       <c r="M76" s="9"/>
     </row>
-    <row r="77" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A77" s="21" t="s">
         <v>248</v>
       </c>
@@ -5071,7 +5070,7 @@
       </c>
       <c r="M77" s="9"/>
     </row>
-    <row r="78" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A78" s="21" t="s">
         <v>250</v>
       </c>
@@ -5111,7 +5110,7 @@
       </c>
       <c r="M78" s="9"/>
     </row>
-    <row r="79" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A79" s="29" t="s">
         <v>253</v>
       </c>
@@ -5150,7 +5149,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A80" s="21" t="s">
         <v>256</v>
       </c>
@@ -5187,7 +5186,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A81" s="21" t="s">
         <v>259</v>
       </c>
@@ -5207,7 +5206,7 @@
         <v>260</v>
       </c>
       <c r="G81" s="43" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="H81" s="60" t="s">
         <v>12</v>
@@ -5224,7 +5223,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A82" s="21" t="s">
         <v>261</v>
       </c>
@@ -5262,7 +5261,7 @@
       </c>
       <c r="M82" s="15"/>
     </row>
-    <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A83" s="21" t="s">
         <v>264</v>
       </c>
@@ -5299,7 +5298,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A84" s="21" t="s">
         <v>267</v>
       </c>
@@ -5336,7 +5335,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A85" s="21" t="s">
         <v>270</v>
       </c>
@@ -5373,7 +5372,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A86" s="21" t="s">
         <v>273</v>
       </c>
@@ -5411,7 +5410,7 @@
       </c>
       <c r="M86" s="15"/>
     </row>
-    <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A87" s="21" t="s">
         <v>276</v>
       </c>
@@ -5448,7 +5447,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A88" s="76" t="s">
         <v>279</v>
       </c>
@@ -5483,7 +5482,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A89" s="78" t="s">
         <v>282</v>
       </c>
@@ -5518,7 +5517,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A90" s="81" t="s">
         <v>285</v>
       </c>
@@ -5551,7 +5550,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A91" s="81" t="s">
         <v>287</v>
       </c>
@@ -5584,7 +5583,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A92" s="87" t="s">
         <v>289</v>
       </c>
@@ -5619,7 +5618,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A93" s="87" t="s">
         <v>292</v>
       </c>
@@ -5654,7 +5653,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A94" s="87" t="s">
         <v>295</v>
       </c>
@@ -5689,7 +5688,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A95" s="87" t="s">
         <v>298</v>
       </c>
@@ -5724,7 +5723,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A96" s="87" t="s">
         <v>301</v>
       </c>
@@ -5759,7 +5758,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A97" s="62" t="s">
         <v>10</v>
       </c>
@@ -5794,7 +5793,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A98" s="92" t="s">
         <v>14</v>
       </c>
@@ -5829,7 +5828,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A99" s="92" t="s">
         <v>18</v>
       </c>
@@ -5864,7 +5863,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A100" s="92" t="s">
         <v>22</v>
       </c>
@@ -5901,7 +5900,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A101" s="92" t="s">
         <v>25</v>
       </c>
@@ -5938,7 +5937,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A102" s="97" t="s">
         <v>27</v>
       </c>
@@ -5971,7 +5970,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A103" s="31" t="s">
         <v>334</v>
       </c>
@@ -6010,7 +6009,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A104" s="34" t="s">
         <v>337</v>
       </c>
@@ -6049,7 +6048,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:12" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A105" s="34" t="s">
         <v>342</v>
       </c>
@@ -6084,7 +6083,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:12" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
       <c r="A106" s="34" t="s">
         <v>346</v>
       </c>
@@ -6119,7 +6118,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A107" s="16"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -6130,7 +6129,7 @@
       <c r="K107" s="19"/>
       <c r="L107" s="20"/>
     </row>
-    <row r="108" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A108" s="16"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -6141,7 +6140,7 @@
       <c r="K108" s="19"/>
       <c r="L108" s="20"/>
     </row>
-    <row r="109" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A109" s="16"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -6158,7 +6157,7 @@
       <c r="K109" s="19"/>
       <c r="L109" s="20"/>
     </row>
-    <row r="110" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A110" s="16"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -6175,7 +6174,7 @@
       <c r="K110" s="19"/>
       <c r="L110" s="20"/>
     </row>
-    <row r="111" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A111" s="16"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -6186,7 +6185,7 @@
       <c r="K111" s="19"/>
       <c r="L111" s="20"/>
     </row>
-    <row r="112" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A112" s="16"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
@@ -6197,7 +6196,7 @@
       <c r="K112" s="19"/>
       <c r="L112" s="20"/>
     </row>
-    <row r="113" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A113" s="16"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -6208,7 +6207,7 @@
       <c r="K113" s="19"/>
       <c r="L113" s="20"/>
     </row>
-    <row r="114" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A114" s="16"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
@@ -6219,7 +6218,7 @@
       <c r="K114" s="19"/>
       <c r="L114" s="20"/>
     </row>
-    <row r="115" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A115" s="16"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
@@ -6230,7 +6229,7 @@
       <c r="K115" s="19"/>
       <c r="L115" s="20"/>
     </row>
-    <row r="116" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A116" s="16"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -6241,7 +6240,7 @@
       <c r="K116" s="19"/>
       <c r="L116" s="20"/>
     </row>
-    <row r="117" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A117" s="16"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -6252,7 +6251,7 @@
       <c r="K117" s="19"/>
       <c r="L117" s="20"/>
     </row>
-    <row r="118" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A118" s="16"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
@@ -6263,7 +6262,7 @@
       <c r="K118" s="19"/>
       <c r="L118" s="20"/>
     </row>
-    <row r="119" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A119" s="16"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
@@ -6274,7 +6273,7 @@
       <c r="K119" s="19"/>
       <c r="L119" s="20"/>
     </row>
-    <row r="120" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A120" s="16"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -6285,7 +6284,7 @@
       <c r="K120" s="19"/>
       <c r="L120" s="20"/>
     </row>
-    <row r="121" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A121" s="16"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -6296,7 +6295,7 @@
       <c r="K121" s="19"/>
       <c r="L121" s="20"/>
     </row>
-    <row r="122" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A122" s="16"/>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
@@ -6307,7 +6306,7 @@
       <c r="K122" s="19"/>
       <c r="L122" s="20"/>
     </row>
-    <row r="123" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A123" s="16"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -6318,7 +6317,7 @@
       <c r="K123" s="19"/>
       <c r="L123" s="20"/>
     </row>
-    <row r="124" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A124" s="16"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
@@ -6329,7 +6328,7 @@
       <c r="K124" s="19"/>
       <c r="L124" s="20"/>
     </row>
-    <row r="125" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A125" s="16"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
@@ -6340,7 +6339,7 @@
       <c r="K125" s="19"/>
       <c r="L125" s="20"/>
     </row>
-    <row r="126" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A126" s="16"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
@@ -6351,7 +6350,7 @@
       <c r="K126" s="19"/>
       <c r="L126" s="20"/>
     </row>
-    <row r="127" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A127" s="16"/>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
@@ -6362,7 +6361,7 @@
       <c r="K127" s="19"/>
       <c r="L127" s="20"/>
     </row>
-    <row r="128" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A128" s="16"/>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
@@ -6373,7 +6372,7 @@
       <c r="K128" s="19"/>
       <c r="L128" s="20"/>
     </row>
-    <row r="129" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A129" s="16"/>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -6384,7 +6383,7 @@
       <c r="K129" s="19"/>
       <c r="L129" s="20"/>
     </row>
-    <row r="130" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A130" s="16"/>
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
@@ -6395,7 +6394,7 @@
       <c r="K130" s="19"/>
       <c r="L130" s="20"/>
     </row>
-    <row r="131" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A131" s="16"/>
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
@@ -6406,7 +6405,7 @@
       <c r="K131" s="19"/>
       <c r="L131" s="20"/>
     </row>
-    <row r="132" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A132" s="16"/>
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
@@ -6417,7 +6416,7 @@
       <c r="K132" s="19"/>
       <c r="L132" s="20"/>
     </row>
-    <row r="133" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A133" s="16"/>
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
@@ -6428,7 +6427,7 @@
       <c r="K133" s="19"/>
       <c r="L133" s="20"/>
     </row>
-    <row r="134" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A134" s="16"/>
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
@@ -6439,7 +6438,7 @@
       <c r="K134" s="19"/>
       <c r="L134" s="20"/>
     </row>
-    <row r="135" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A135" s="16"/>
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
@@ -6450,7 +6449,7 @@
       <c r="K135" s="19"/>
       <c r="L135" s="20"/>
     </row>
-    <row r="136" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A136" s="16"/>
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
@@ -6461,7 +6460,7 @@
       <c r="K136" s="19"/>
       <c r="L136" s="20"/>
     </row>
-    <row r="137" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A137" s="16"/>
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
@@ -6472,7 +6471,7 @@
       <c r="K137" s="19"/>
       <c r="L137" s="20"/>
     </row>
-    <row r="138" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A138" s="16"/>
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
@@ -6483,7 +6482,7 @@
       <c r="K138" s="19"/>
       <c r="L138" s="20"/>
     </row>
-    <row r="139" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A139" s="16"/>
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
@@ -6494,7 +6493,7 @@
       <c r="K139" s="19"/>
       <c r="L139" s="20"/>
     </row>
-    <row r="140" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A140" s="16"/>
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
@@ -6505,7 +6504,7 @@
       <c r="K140" s="19"/>
       <c r="L140" s="20"/>
     </row>
-    <row r="141" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A141" s="16"/>
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
@@ -6516,7 +6515,7 @@
       <c r="K141" s="19"/>
       <c r="L141" s="20"/>
     </row>
-    <row r="142" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A142" s="16"/>
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
@@ -6527,7 +6526,7 @@
       <c r="K142" s="19"/>
       <c r="L142" s="20"/>
     </row>
-    <row r="143" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A143" s="16"/>
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
@@ -6538,7 +6537,7 @@
       <c r="K143" s="19"/>
       <c r="L143" s="20"/>
     </row>
-    <row r="144" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A144" s="16"/>
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
@@ -6549,7 +6548,7 @@
       <c r="K144" s="19"/>
       <c r="L144" s="20"/>
     </row>
-    <row r="145" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A145" s="16"/>
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
@@ -6560,7 +6559,7 @@
       <c r="K145" s="19"/>
       <c r="L145" s="20"/>
     </row>
-    <row r="146" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A146" s="16"/>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
@@ -6571,7 +6570,7 @@
       <c r="K146" s="19"/>
       <c r="L146" s="20"/>
     </row>
-    <row r="147" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A147" s="16"/>
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
@@ -6582,7 +6581,7 @@
       <c r="K147" s="19"/>
       <c r="L147" s="20"/>
     </row>
-    <row r="148" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A148" s="16"/>
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
@@ -6593,7 +6592,7 @@
       <c r="K148" s="19"/>
       <c r="L148" s="20"/>
     </row>
-    <row r="149" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A149" s="16"/>
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
@@ -6604,7 +6603,7 @@
       <c r="K149" s="19"/>
       <c r="L149" s="20"/>
     </row>
-    <row r="150" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A150" s="16"/>
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
@@ -6615,7 +6614,7 @@
       <c r="K150" s="19"/>
       <c r="L150" s="20"/>
     </row>
-    <row r="151" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A151" s="16"/>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
@@ -6626,7 +6625,7 @@
       <c r="K151" s="19"/>
       <c r="L151" s="20"/>
     </row>
-    <row r="152" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A152" s="16"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -6637,7 +6636,7 @@
       <c r="K152" s="19"/>
       <c r="L152" s="20"/>
     </row>
-    <row r="153" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A153" s="16"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
@@ -6648,7 +6647,7 @@
       <c r="K153" s="19"/>
       <c r="L153" s="20"/>
     </row>
-    <row r="154" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A154" s="16"/>
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
@@ -6659,7 +6658,7 @@
       <c r="K154" s="19"/>
       <c r="L154" s="20"/>
     </row>
-    <row r="155" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A155" s="16"/>
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
@@ -6670,7 +6669,7 @@
       <c r="K155" s="19"/>
       <c r="L155" s="20"/>
     </row>
-    <row r="156" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A156" s="16"/>
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
@@ -6681,7 +6680,7 @@
       <c r="K156" s="19"/>
       <c r="L156" s="20"/>
     </row>
-    <row r="157" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A157" s="16"/>
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
@@ -6692,7 +6691,7 @@
       <c r="K157" s="19"/>
       <c r="L157" s="20"/>
     </row>
-    <row r="158" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A158" s="16"/>
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
@@ -6703,7 +6702,7 @@
       <c r="K158" s="19"/>
       <c r="L158" s="20"/>
     </row>
-    <row r="159" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A159" s="16"/>
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
@@ -6714,7 +6713,7 @@
       <c r="K159" s="19"/>
       <c r="L159" s="20"/>
     </row>
-    <row r="160" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A160" s="16"/>
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
@@ -6725,7 +6724,7 @@
       <c r="K160" s="19"/>
       <c r="L160" s="20"/>
     </row>
-    <row r="161" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A161" s="16"/>
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
@@ -6736,7 +6735,7 @@
       <c r="K161" s="19"/>
       <c r="L161" s="20"/>
     </row>
-    <row r="162" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A162" s="16"/>
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
@@ -6747,7 +6746,7 @@
       <c r="K162" s="19"/>
       <c r="L162" s="20"/>
     </row>
-    <row r="163" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A163" s="16"/>
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
@@ -6758,7 +6757,7 @@
       <c r="K163" s="19"/>
       <c r="L163" s="20"/>
     </row>
-    <row r="164" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A164" s="16"/>
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
@@ -6769,7 +6768,7 @@
       <c r="K164" s="19"/>
       <c r="L164" s="20"/>
     </row>
-    <row r="165" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A165" s="16"/>
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
@@ -6780,7 +6779,7 @@
       <c r="K165" s="19"/>
       <c r="L165" s="20"/>
     </row>
-    <row r="166" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A166" s="16"/>
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
@@ -6791,7 +6790,7 @@
       <c r="K166" s="19"/>
       <c r="L166" s="20"/>
     </row>
-    <row r="167" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A167" s="16"/>
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
@@ -6802,7 +6801,7 @@
       <c r="K167" s="19"/>
       <c r="L167" s="20"/>
     </row>
-    <row r="168" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A168" s="16"/>
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
@@ -6813,7 +6812,7 @@
       <c r="K168" s="19"/>
       <c r="L168" s="20"/>
     </row>
-    <row r="169" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A169" s="16"/>
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
@@ -6824,7 +6823,7 @@
       <c r="K169" s="19"/>
       <c r="L169" s="20"/>
     </row>
-    <row r="170" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A170" s="16"/>
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
@@ -6835,7 +6834,7 @@
       <c r="K170" s="19"/>
       <c r="L170" s="20"/>
     </row>
-    <row r="171" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A171" s="16"/>
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
@@ -6846,7 +6845,7 @@
       <c r="K171" s="19"/>
       <c r="L171" s="20"/>
     </row>
-    <row r="172" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A172" s="16"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
@@ -6857,7 +6856,7 @@
       <c r="K172" s="19"/>
       <c r="L172" s="20"/>
     </row>
-    <row r="173" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A173" s="16"/>
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
@@ -6868,7 +6867,7 @@
       <c r="K173" s="19"/>
       <c r="L173" s="20"/>
     </row>
-    <row r="174" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A174" s="16"/>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
@@ -6879,7 +6878,7 @@
       <c r="K174" s="19"/>
       <c r="L174" s="20"/>
     </row>
-    <row r="175" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A175" s="16"/>
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
@@ -6890,7 +6889,7 @@
       <c r="K175" s="19"/>
       <c r="L175" s="20"/>
     </row>
-    <row r="176" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A176" s="16"/>
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
@@ -6901,7 +6900,7 @@
       <c r="K176" s="19"/>
       <c r="L176" s="20"/>
     </row>
-    <row r="177" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A177" s="16"/>
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
@@ -6912,7 +6911,7 @@
       <c r="K177" s="19"/>
       <c r="L177" s="20"/>
     </row>
-    <row r="178" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A178" s="16"/>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
@@ -6923,7 +6922,7 @@
       <c r="K178" s="19"/>
       <c r="L178" s="20"/>
     </row>
-    <row r="179" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A179" s="16"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
@@ -6934,7 +6933,7 @@
       <c r="K179" s="19"/>
       <c r="L179" s="20"/>
     </row>
-    <row r="180" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A180" s="16"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
@@ -6945,7 +6944,7 @@
       <c r="K180" s="19"/>
       <c r="L180" s="20"/>
     </row>
-    <row r="181" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A181" s="16"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
@@ -6956,7 +6955,7 @@
       <c r="K181" s="19"/>
       <c r="L181" s="20"/>
     </row>
-    <row r="182" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A182" s="16"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
@@ -6967,7 +6966,7 @@
       <c r="K182" s="19"/>
       <c r="L182" s="20"/>
     </row>
-    <row r="183" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A183" s="16"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
@@ -6978,7 +6977,7 @@
       <c r="K183" s="19"/>
       <c r="L183" s="20"/>
     </row>
-    <row r="184" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A184" s="16"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
@@ -6989,7 +6988,7 @@
       <c r="K184" s="19"/>
       <c r="L184" s="20"/>
     </row>
-    <row r="185" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A185" s="16"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
@@ -7000,7 +6999,7 @@
       <c r="K185" s="19"/>
       <c r="L185" s="20"/>
     </row>
-    <row r="186" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A186" s="16"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
@@ -7011,7 +7010,7 @@
       <c r="K186" s="19"/>
       <c r="L186" s="20"/>
     </row>
-    <row r="187" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A187" s="16"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
@@ -7022,7 +7021,7 @@
       <c r="K187" s="19"/>
       <c r="L187" s="20"/>
     </row>
-    <row r="188" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A188" s="16"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
@@ -7033,7 +7032,7 @@
       <c r="K188" s="19"/>
       <c r="L188" s="20"/>
     </row>
-    <row r="189" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A189" s="16"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
@@ -7044,7 +7043,7 @@
       <c r="K189" s="19"/>
       <c r="L189" s="20"/>
     </row>
-    <row r="190" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A190" s="16"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
@@ -7055,7 +7054,7 @@
       <c r="K190" s="19"/>
       <c r="L190" s="20"/>
     </row>
-    <row r="191" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A191" s="16"/>
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
@@ -7066,7 +7065,7 @@
       <c r="K191" s="19"/>
       <c r="L191" s="20"/>
     </row>
-    <row r="192" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A192" s="16"/>
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
@@ -7077,7 +7076,7 @@
       <c r="K192" s="19"/>
       <c r="L192" s="20"/>
     </row>
-    <row r="193" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A193" s="16"/>
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
@@ -7088,7 +7087,7 @@
       <c r="K193" s="19"/>
       <c r="L193" s="20"/>
     </row>
-    <row r="194" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A194" s="16"/>
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
@@ -7099,7 +7098,7 @@
       <c r="K194" s="19"/>
       <c r="L194" s="20"/>
     </row>
-    <row r="195" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A195" s="16"/>
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
@@ -7110,7 +7109,7 @@
       <c r="K195" s="19"/>
       <c r="L195" s="20"/>
     </row>
-    <row r="196" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A196" s="16"/>
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
@@ -7121,7 +7120,7 @@
       <c r="K196" s="19"/>
       <c r="L196" s="20"/>
     </row>
-    <row r="197" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A197" s="16"/>
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
@@ -7132,7 +7131,7 @@
       <c r="K197" s="19"/>
       <c r="L197" s="20"/>
     </row>
-    <row r="198" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A198" s="16"/>
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
@@ -7143,7 +7142,7 @@
       <c r="K198" s="19"/>
       <c r="L198" s="20"/>
     </row>
-    <row r="199" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A199" s="16"/>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -7154,7 +7153,7 @@
       <c r="K199" s="19"/>
       <c r="L199" s="20"/>
     </row>
-    <row r="200" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A200" s="16"/>
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
@@ -7165,7 +7164,7 @@
       <c r="K200" s="19"/>
       <c r="L200" s="20"/>
     </row>
-    <row r="201" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A201" s="16"/>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
@@ -7176,7 +7175,7 @@
       <c r="K201" s="19"/>
       <c r="L201" s="20"/>
     </row>
-    <row r="202" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A202" s="16"/>
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
@@ -7187,7 +7186,7 @@
       <c r="K202" s="19"/>
       <c r="L202" s="20"/>
     </row>
-    <row r="203" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A203" s="16"/>
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
@@ -7198,7 +7197,7 @@
       <c r="K203" s="19"/>
       <c r="L203" s="20"/>
     </row>
-    <row r="204" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A204" s="16"/>
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
@@ -7209,7 +7208,7 @@
       <c r="K204" s="19"/>
       <c r="L204" s="20"/>
     </row>
-    <row r="205" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A205" s="16"/>
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
@@ -7220,7 +7219,7 @@
       <c r="K205" s="19"/>
       <c r="L205" s="20"/>
     </row>
-    <row r="206" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A206" s="16"/>
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
@@ -7231,7 +7230,7 @@
       <c r="K206" s="19"/>
       <c r="L206" s="20"/>
     </row>
-    <row r="207" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A207" s="16"/>
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
@@ -7242,7 +7241,7 @@
       <c r="K207" s="19"/>
       <c r="L207" s="20"/>
     </row>
-    <row r="208" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A208" s="16"/>
       <c r="B208" s="17"/>
       <c r="C208" s="17"/>
@@ -7253,7 +7252,7 @@
       <c r="K208" s="19"/>
       <c r="L208" s="20"/>
     </row>
-    <row r="209" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A209" s="16"/>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
@@ -7264,7 +7263,7 @@
       <c r="K209" s="19"/>
       <c r="L209" s="20"/>
     </row>
-    <row r="210" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A210" s="16"/>
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
@@ -7275,7 +7274,7 @@
       <c r="K210" s="19"/>
       <c r="L210" s="20"/>
     </row>
-    <row r="211" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A211" s="16"/>
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
@@ -7286,7 +7285,7 @@
       <c r="K211" s="19"/>
       <c r="L211" s="20"/>
     </row>
-    <row r="212" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A212" s="16"/>
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
@@ -7297,7 +7296,7 @@
       <c r="K212" s="19"/>
       <c r="L212" s="20"/>
     </row>
-    <row r="213" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A213" s="16"/>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
@@ -7308,7 +7307,7 @@
       <c r="K213" s="19"/>
       <c r="L213" s="20"/>
     </row>
-    <row r="214" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A214" s="16"/>
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
@@ -7319,7 +7318,7 @@
       <c r="K214" s="19"/>
       <c r="L214" s="20"/>
     </row>
-    <row r="215" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A215" s="16"/>
       <c r="B215" s="17"/>
       <c r="C215" s="17"/>
@@ -7330,7 +7329,7 @@
       <c r="K215" s="19"/>
       <c r="L215" s="20"/>
     </row>
-    <row r="216" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A216" s="16"/>
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
@@ -7341,7 +7340,7 @@
       <c r="K216" s="19"/>
       <c r="L216" s="20"/>
     </row>
-    <row r="217" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A217" s="16"/>
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
@@ -7352,7 +7351,7 @@
       <c r="K217" s="19"/>
       <c r="L217" s="20"/>
     </row>
-    <row r="218" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A218" s="16"/>
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
@@ -7363,7 +7362,7 @@
       <c r="K218" s="19"/>
       <c r="L218" s="20"/>
     </row>
-    <row r="219" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A219" s="16"/>
       <c r="B219" s="17"/>
       <c r="C219" s="17"/>
@@ -7374,7 +7373,7 @@
       <c r="K219" s="19"/>
       <c r="L219" s="20"/>
     </row>
-    <row r="220" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A220" s="16"/>
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
@@ -7385,7 +7384,7 @@
       <c r="K220" s="19"/>
       <c r="L220" s="20"/>
     </row>
-    <row r="221" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A221" s="16"/>
       <c r="B221" s="17"/>
       <c r="C221" s="17"/>
@@ -7396,7 +7395,7 @@
       <c r="K221" s="19"/>
       <c r="L221" s="20"/>
     </row>
-    <row r="222" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A222" s="16"/>
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
@@ -7407,7 +7406,7 @@
       <c r="K222" s="19"/>
       <c r="L222" s="20"/>
     </row>
-    <row r="223" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A223" s="16"/>
       <c r="B223" s="17"/>
       <c r="C223" s="17"/>
@@ -7418,7 +7417,7 @@
       <c r="K223" s="19"/>
       <c r="L223" s="20"/>
     </row>
-    <row r="224" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A224" s="16"/>
       <c r="B224" s="17"/>
       <c r="C224" s="17"/>
@@ -7429,7 +7428,7 @@
       <c r="K224" s="19"/>
       <c r="L224" s="20"/>
     </row>
-    <row r="225" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A225" s="16"/>
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
@@ -7440,7 +7439,7 @@
       <c r="K225" s="19"/>
       <c r="L225" s="20"/>
     </row>
-    <row r="226" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A226" s="16"/>
       <c r="B226" s="17"/>
       <c r="C226" s="17"/>
@@ -7451,7 +7450,7 @@
       <c r="K226" s="19"/>
       <c r="L226" s="20"/>
     </row>
-    <row r="227" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A227" s="16"/>
       <c r="B227" s="17"/>
       <c r="C227" s="17"/>
@@ -7462,7 +7461,7 @@
       <c r="K227" s="19"/>
       <c r="L227" s="20"/>
     </row>
-    <row r="228" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A228" s="16"/>
       <c r="B228" s="17"/>
       <c r="C228" s="17"/>
@@ -7473,7 +7472,7 @@
       <c r="K228" s="19"/>
       <c r="L228" s="20"/>
     </row>
-    <row r="229" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A229" s="16"/>
       <c r="B229" s="17"/>
       <c r="C229" s="17"/>
@@ -7484,7 +7483,7 @@
       <c r="K229" s="19"/>
       <c r="L229" s="20"/>
     </row>
-    <row r="230" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A230" s="16"/>
       <c r="B230" s="17"/>
       <c r="C230" s="17"/>
@@ -7495,7 +7494,7 @@
       <c r="K230" s="19"/>
       <c r="L230" s="20"/>
     </row>
-    <row r="231" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A231" s="16"/>
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
@@ -7506,7 +7505,7 @@
       <c r="K231" s="19"/>
       <c r="L231" s="20"/>
     </row>
-    <row r="232" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A232" s="16"/>
       <c r="B232" s="17"/>
       <c r="C232" s="17"/>
@@ -7517,7 +7516,7 @@
       <c r="K232" s="19"/>
       <c r="L232" s="20"/>
     </row>
-    <row r="233" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A233" s="16"/>
       <c r="B233" s="17"/>
       <c r="C233" s="17"/>
@@ -7528,7 +7527,7 @@
       <c r="K233" s="19"/>
       <c r="L233" s="20"/>
     </row>
-    <row r="234" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A234" s="16"/>
       <c r="B234" s="17"/>
       <c r="C234" s="17"/>
@@ -7539,7 +7538,7 @@
       <c r="K234" s="19"/>
       <c r="L234" s="20"/>
     </row>
-    <row r="235" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A235" s="16"/>
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
@@ -7550,7 +7549,7 @@
       <c r="K235" s="19"/>
       <c r="L235" s="20"/>
     </row>
-    <row r="236" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A236" s="16"/>
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
@@ -7561,7 +7560,7 @@
       <c r="K236" s="19"/>
       <c r="L236" s="20"/>
     </row>
-    <row r="237" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A237" s="16"/>
       <c r="B237" s="17"/>
       <c r="C237" s="17"/>
@@ -7572,7 +7571,7 @@
       <c r="K237" s="19"/>
       <c r="L237" s="20"/>
     </row>
-    <row r="238" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A238" s="16"/>
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
@@ -7583,7 +7582,7 @@
       <c r="K238" s="19"/>
       <c r="L238" s="20"/>
     </row>
-    <row r="239" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A239" s="16"/>
       <c r="B239" s="17"/>
       <c r="C239" s="17"/>
@@ -7594,7 +7593,7 @@
       <c r="K239" s="19"/>
       <c r="L239" s="20"/>
     </row>
-    <row r="240" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A240" s="16"/>
       <c r="B240" s="17"/>
       <c r="C240" s="17"/>
@@ -7605,7 +7604,7 @@
       <c r="K240" s="19"/>
       <c r="L240" s="20"/>
     </row>
-    <row r="241" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A241" s="16"/>
       <c r="B241" s="17"/>
       <c r="C241" s="17"/>
@@ -7616,7 +7615,7 @@
       <c r="K241" s="19"/>
       <c r="L241" s="20"/>
     </row>
-    <row r="242" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A242" s="16"/>
       <c r="B242" s="17"/>
       <c r="C242" s="17"/>
@@ -7627,7 +7626,7 @@
       <c r="K242" s="19"/>
       <c r="L242" s="20"/>
     </row>
-    <row r="243" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A243" s="16"/>
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
@@ -7638,7 +7637,7 @@
       <c r="K243" s="19"/>
       <c r="L243" s="20"/>
     </row>
-    <row r="244" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A244" s="16"/>
       <c r="B244" s="17"/>
       <c r="C244" s="17"/>
@@ -7649,7 +7648,7 @@
       <c r="K244" s="19"/>
       <c r="L244" s="20"/>
     </row>
-    <row r="245" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A245" s="16"/>
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
@@ -7660,7 +7659,7 @@
       <c r="K245" s="19"/>
       <c r="L245" s="20"/>
     </row>
-    <row r="246" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A246" s="16"/>
       <c r="B246" s="17"/>
       <c r="C246" s="17"/>
@@ -7671,7 +7670,7 @@
       <c r="K246" s="19"/>
       <c r="L246" s="20"/>
     </row>
-    <row r="247" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A247" s="16"/>
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
@@ -7682,7 +7681,7 @@
       <c r="K247" s="19"/>
       <c r="L247" s="20"/>
     </row>
-    <row r="248" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A248" s="16"/>
       <c r="B248" s="17"/>
       <c r="C248" s="17"/>
@@ -7693,7 +7692,7 @@
       <c r="K248" s="19"/>
       <c r="L248" s="20"/>
     </row>
-    <row r="249" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A249" s="16"/>
       <c r="B249" s="17"/>
       <c r="C249" s="17"/>
@@ -7704,7 +7703,7 @@
       <c r="K249" s="19"/>
       <c r="L249" s="20"/>
     </row>
-    <row r="250" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A250" s="16"/>
       <c r="B250" s="17"/>
       <c r="C250" s="17"/>
@@ -7715,7 +7714,7 @@
       <c r="K250" s="19"/>
       <c r="L250" s="20"/>
     </row>
-    <row r="251" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A251" s="16"/>
       <c r="B251" s="17"/>
       <c r="C251" s="17"/>
@@ -7726,7 +7725,7 @@
       <c r="K251" s="19"/>
       <c r="L251" s="20"/>
     </row>
-    <row r="252" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A252" s="16"/>
       <c r="B252" s="17"/>
       <c r="C252" s="17"/>
@@ -7737,7 +7736,7 @@
       <c r="K252" s="19"/>
       <c r="L252" s="20"/>
     </row>
-    <row r="253" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A253" s="16"/>
       <c r="B253" s="17"/>
       <c r="C253" s="17"/>
@@ -7748,7 +7747,7 @@
       <c r="K253" s="19"/>
       <c r="L253" s="20"/>
     </row>
-    <row r="254" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A254" s="16"/>
       <c r="B254" s="17"/>
       <c r="C254" s="17"/>
@@ -7759,7 +7758,7 @@
       <c r="K254" s="19"/>
       <c r="L254" s="20"/>
     </row>
-    <row r="255" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A255" s="16"/>
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
@@ -7770,7 +7769,7 @@
       <c r="K255" s="19"/>
       <c r="L255" s="20"/>
     </row>
-    <row r="256" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A256" s="16"/>
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
@@ -7781,7 +7780,7 @@
       <c r="K256" s="19"/>
       <c r="L256" s="20"/>
     </row>
-    <row r="257" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A257" s="16"/>
       <c r="B257" s="17"/>
       <c r="C257" s="17"/>
@@ -7792,7 +7791,7 @@
       <c r="K257" s="19"/>
       <c r="L257" s="20"/>
     </row>
-    <row r="258" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A258" s="16"/>
       <c r="B258" s="17"/>
       <c r="C258" s="17"/>
@@ -7803,7 +7802,7 @@
       <c r="K258" s="19"/>
       <c r="L258" s="20"/>
     </row>
-    <row r="259" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A259" s="16"/>
       <c r="B259" s="17"/>
       <c r="C259" s="17"/>
@@ -7814,7 +7813,7 @@
       <c r="K259" s="19"/>
       <c r="L259" s="20"/>
     </row>
-    <row r="260" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A260" s="16"/>
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
@@ -7825,7 +7824,7 @@
       <c r="K260" s="19"/>
       <c r="L260" s="20"/>
     </row>
-    <row r="261" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A261" s="16"/>
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
@@ -7836,7 +7835,7 @@
       <c r="K261" s="19"/>
       <c r="L261" s="20"/>
     </row>
-    <row r="262" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A262" s="16"/>
       <c r="B262" s="17"/>
       <c r="C262" s="17"/>
@@ -7847,7 +7846,7 @@
       <c r="K262" s="19"/>
       <c r="L262" s="20"/>
     </row>
-    <row r="263" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A263" s="16"/>
       <c r="B263" s="17"/>
       <c r="C263" s="17"/>
@@ -7858,7 +7857,7 @@
       <c r="K263" s="19"/>
       <c r="L263" s="20"/>
     </row>
-    <row r="264" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A264" s="16"/>
       <c r="B264" s="17"/>
       <c r="C264" s="17"/>
@@ -7869,7 +7868,7 @@
       <c r="K264" s="19"/>
       <c r="L264" s="20"/>
     </row>
-    <row r="265" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A265" s="16"/>
       <c r="B265" s="17"/>
       <c r="C265" s="17"/>
@@ -7880,7 +7879,7 @@
       <c r="K265" s="19"/>
       <c r="L265" s="20"/>
     </row>
-    <row r="266" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A266" s="16"/>
       <c r="B266" s="17"/>
       <c r="C266" s="17"/>
@@ -7891,7 +7890,7 @@
       <c r="K266" s="19"/>
       <c r="L266" s="20"/>
     </row>
-    <row r="267" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A267" s="16"/>
       <c r="B267" s="17"/>
       <c r="C267" s="17"/>
@@ -7902,7 +7901,7 @@
       <c r="K267" s="19"/>
       <c r="L267" s="20"/>
     </row>
-    <row r="268" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A268" s="16"/>
       <c r="B268" s="17"/>
       <c r="C268" s="17"/>
@@ -7913,7 +7912,7 @@
       <c r="K268" s="19"/>
       <c r="L268" s="20"/>
     </row>
-    <row r="269" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A269" s="16"/>
       <c r="B269" s="17"/>
       <c r="C269" s="17"/>
@@ -7924,7 +7923,7 @@
       <c r="K269" s="19"/>
       <c r="L269" s="20"/>
     </row>
-    <row r="270" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A270" s="16"/>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
@@ -7935,7 +7934,7 @@
       <c r="K270" s="19"/>
       <c r="L270" s="20"/>
     </row>
-    <row r="271" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A271" s="16"/>
       <c r="B271" s="17"/>
       <c r="C271" s="17"/>
@@ -7946,7 +7945,7 @@
       <c r="K271" s="19"/>
       <c r="L271" s="20"/>
     </row>
-    <row r="272" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A272" s="16"/>
       <c r="B272" s="17"/>
       <c r="C272" s="17"/>
@@ -7957,7 +7956,7 @@
       <c r="K272" s="19"/>
       <c r="L272" s="20"/>
     </row>
-    <row r="273" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A273" s="16"/>
       <c r="B273" s="17"/>
       <c r="C273" s="17"/>
@@ -7968,7 +7967,7 @@
       <c r="K273" s="19"/>
       <c r="L273" s="20"/>
     </row>
-    <row r="274" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A274" s="16"/>
       <c r="B274" s="17"/>
       <c r="C274" s="17"/>
@@ -7979,7 +7978,7 @@
       <c r="K274" s="19"/>
       <c r="L274" s="20"/>
     </row>
-    <row r="275" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A275" s="16"/>
       <c r="B275" s="17"/>
       <c r="C275" s="17"/>
@@ -7990,7 +7989,7 @@
       <c r="K275" s="19"/>
       <c r="L275" s="20"/>
     </row>
-    <row r="276" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A276" s="16"/>
       <c r="B276" s="17"/>
       <c r="C276" s="17"/>
@@ -8001,7 +8000,7 @@
       <c r="K276" s="19"/>
       <c r="L276" s="20"/>
     </row>
-    <row r="277" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A277" s="16"/>
       <c r="B277" s="17"/>
       <c r="C277" s="17"/>
@@ -8012,7 +8011,7 @@
       <c r="K277" s="19"/>
       <c r="L277" s="20"/>
     </row>
-    <row r="278" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A278" s="16"/>
       <c r="B278" s="17"/>
       <c r="C278" s="17"/>
@@ -8023,7 +8022,7 @@
       <c r="K278" s="19"/>
       <c r="L278" s="20"/>
     </row>
-    <row r="279" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A279" s="16"/>
       <c r="B279" s="17"/>
       <c r="C279" s="17"/>
@@ -8034,7 +8033,7 @@
       <c r="K279" s="19"/>
       <c r="L279" s="20"/>
     </row>
-    <row r="280" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A280" s="16"/>
       <c r="B280" s="17"/>
       <c r="C280" s="17"/>
@@ -8045,7 +8044,7 @@
       <c r="K280" s="19"/>
       <c r="L280" s="20"/>
     </row>
-    <row r="281" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A281" s="16"/>
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
@@ -8056,7 +8055,7 @@
       <c r="K281" s="19"/>
       <c r="L281" s="20"/>
     </row>
-    <row r="282" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A282" s="16"/>
       <c r="B282" s="17"/>
       <c r="C282" s="17"/>
@@ -8067,7 +8066,7 @@
       <c r="K282" s="19"/>
       <c r="L282" s="20"/>
     </row>
-    <row r="283" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A283" s="16"/>
       <c r="B283" s="17"/>
       <c r="C283" s="17"/>
@@ -8078,7 +8077,7 @@
       <c r="K283" s="19"/>
       <c r="L283" s="20"/>
     </row>
-    <row r="284" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A284" s="16"/>
       <c r="B284" s="17"/>
       <c r="C284" s="17"/>
@@ -8089,7 +8088,7 @@
       <c r="K284" s="19"/>
       <c r="L284" s="20"/>
     </row>
-    <row r="285" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A285" s="16"/>
       <c r="B285" s="17"/>
       <c r="C285" s="17"/>
@@ -8100,7 +8099,7 @@
       <c r="K285" s="19"/>
       <c r="L285" s="20"/>
     </row>
-    <row r="286" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A286" s="16"/>
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
@@ -8111,7 +8110,7 @@
       <c r="K286" s="19"/>
       <c r="L286" s="20"/>
     </row>
-    <row r="287" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A287" s="16"/>
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
@@ -8122,7 +8121,7 @@
       <c r="K287" s="19"/>
       <c r="L287" s="20"/>
     </row>
-    <row r="288" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A288" s="16"/>
       <c r="B288" s="17"/>
       <c r="C288" s="17"/>
@@ -8133,7 +8132,7 @@
       <c r="K288" s="19"/>
       <c r="L288" s="20"/>
     </row>
-    <row r="289" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A289" s="16"/>
       <c r="B289" s="17"/>
       <c r="C289" s="17"/>
@@ -8144,7 +8143,7 @@
       <c r="K289" s="19"/>
       <c r="L289" s="20"/>
     </row>
-    <row r="290" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A290" s="16"/>
       <c r="B290" s="17"/>
       <c r="C290" s="17"/>
@@ -8155,7 +8154,7 @@
       <c r="K290" s="19"/>
       <c r="L290" s="20"/>
     </row>
-    <row r="291" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A291" s="16"/>
       <c r="B291" s="17"/>
       <c r="C291" s="17"/>
@@ -8166,7 +8165,7 @@
       <c r="K291" s="19"/>
       <c r="L291" s="20"/>
     </row>
-    <row r="292" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A292" s="16"/>
       <c r="B292" s="17"/>
       <c r="C292" s="17"/>
@@ -8177,7 +8176,7 @@
       <c r="K292" s="19"/>
       <c r="L292" s="20"/>
     </row>
-    <row r="293" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A293" s="16"/>
       <c r="B293" s="17"/>
       <c r="C293" s="17"/>
@@ -8188,7 +8187,7 @@
       <c r="K293" s="19"/>
       <c r="L293" s="20"/>
     </row>
-    <row r="294" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A294" s="16"/>
       <c r="B294" s="17"/>
       <c r="C294" s="17"/>
@@ -8199,7 +8198,7 @@
       <c r="K294" s="19"/>
       <c r="L294" s="20"/>
     </row>
-    <row r="295" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A295" s="16"/>
       <c r="B295" s="17"/>
       <c r="C295" s="17"/>
@@ -8210,7 +8209,7 @@
       <c r="K295" s="19"/>
       <c r="L295" s="20"/>
     </row>
-    <row r="296" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A296" s="16"/>
       <c r="B296" s="17"/>
       <c r="C296" s="17"/>
@@ -8221,7 +8220,7 @@
       <c r="K296" s="19"/>
       <c r="L296" s="20"/>
     </row>
-    <row r="297" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A297" s="16"/>
       <c r="B297" s="17"/>
       <c r="C297" s="17"/>
@@ -8232,7 +8231,7 @@
       <c r="K297" s="19"/>
       <c r="L297" s="20"/>
     </row>
-    <row r="298" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A298" s="16"/>
       <c r="B298" s="17"/>
       <c r="C298" s="17"/>
@@ -8243,7 +8242,7 @@
       <c r="K298" s="19"/>
       <c r="L298" s="20"/>
     </row>
-    <row r="299" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A299" s="16"/>
       <c r="B299" s="17"/>
       <c r="C299" s="17"/>
@@ -8254,7 +8253,7 @@
       <c r="K299" s="19"/>
       <c r="L299" s="20"/>
     </row>
-    <row r="300" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A300" s="16"/>
       <c r="B300" s="17"/>
       <c r="C300" s="17"/>
@@ -8265,7 +8264,7 @@
       <c r="K300" s="19"/>
       <c r="L300" s="20"/>
     </row>
-    <row r="301" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A301" s="16"/>
       <c r="B301" s="17"/>
       <c r="C301" s="17"/>
@@ -8276,7 +8275,7 @@
       <c r="K301" s="19"/>
       <c r="L301" s="20"/>
     </row>
-    <row r="302" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A302" s="16"/>
       <c r="B302" s="17"/>
       <c r="C302" s="17"/>
@@ -8287,7 +8286,7 @@
       <c r="K302" s="19"/>
       <c r="L302" s="20"/>
     </row>
-    <row r="303" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A303" s="16"/>
       <c r="B303" s="17"/>
       <c r="C303" s="17"/>
@@ -8298,7 +8297,7 @@
       <c r="K303" s="19"/>
       <c r="L303" s="20"/>
     </row>
-    <row r="304" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A304" s="16"/>
       <c r="B304" s="17"/>
       <c r="C304" s="17"/>
@@ -8309,7 +8308,7 @@
       <c r="K304" s="19"/>
       <c r="L304" s="20"/>
     </row>
-    <row r="305" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A305" s="16"/>
       <c r="B305" s="17"/>
       <c r="C305" s="17"/>
@@ -8320,7 +8319,7 @@
       <c r="K305" s="19"/>
       <c r="L305" s="20"/>
     </row>
-    <row r="306" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A306" s="16"/>
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
@@ -8331,7 +8330,7 @@
       <c r="K306" s="19"/>
       <c r="L306" s="20"/>
     </row>
-    <row r="307" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A307" s="16"/>
       <c r="B307" s="17"/>
       <c r="C307" s="17"/>
@@ -8342,7 +8341,7 @@
       <c r="K307" s="19"/>
       <c r="L307" s="20"/>
     </row>
-    <row r="308" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A308" s="16"/>
       <c r="B308" s="17"/>
       <c r="C308" s="17"/>
@@ -8353,7 +8352,7 @@
       <c r="K308" s="19"/>
       <c r="L308" s="20"/>
     </row>
-    <row r="309" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A309" s="16"/>
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
@@ -8364,7 +8363,7 @@
       <c r="K309" s="19"/>
       <c r="L309" s="20"/>
     </row>
-    <row r="310" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A310" s="16"/>
       <c r="B310" s="17"/>
       <c r="C310" s="17"/>
@@ -8375,7 +8374,7 @@
       <c r="K310" s="19"/>
       <c r="L310" s="20"/>
     </row>
-    <row r="311" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A311" s="16"/>
       <c r="B311" s="17"/>
       <c r="C311" s="17"/>
@@ -8386,7 +8385,7 @@
       <c r="K311" s="19"/>
       <c r="L311" s="20"/>
     </row>
-    <row r="312" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A312" s="16"/>
       <c r="B312" s="17"/>
       <c r="C312" s="17"/>
@@ -8397,7 +8396,7 @@
       <c r="K312" s="19"/>
       <c r="L312" s="20"/>
     </row>
-    <row r="313" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A313" s="16"/>
       <c r="B313" s="17"/>
       <c r="C313" s="17"/>
@@ -8408,7 +8407,7 @@
       <c r="K313" s="19"/>
       <c r="L313" s="20"/>
     </row>
-    <row r="314" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A314" s="16"/>
       <c r="B314" s="17"/>
       <c r="C314" s="17"/>
@@ -8419,7 +8418,7 @@
       <c r="K314" s="19"/>
       <c r="L314" s="20"/>
     </row>
-    <row r="315" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A315" s="16"/>
       <c r="B315" s="17"/>
       <c r="C315" s="17"/>
@@ -8430,7 +8429,7 @@
       <c r="K315" s="19"/>
       <c r="L315" s="20"/>
     </row>
-    <row r="316" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A316" s="16"/>
       <c r="B316" s="17"/>
       <c r="C316" s="17"/>
@@ -8441,7 +8440,7 @@
       <c r="K316" s="19"/>
       <c r="L316" s="20"/>
     </row>
-    <row r="317" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A317" s="16"/>
       <c r="B317" s="17"/>
       <c r="C317" s="17"/>
@@ -8452,7 +8451,7 @@
       <c r="K317" s="19"/>
       <c r="L317" s="20"/>
     </row>
-    <row r="318" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A318" s="16"/>
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
@@ -8463,7 +8462,7 @@
       <c r="K318" s="19"/>
       <c r="L318" s="20"/>
     </row>
-    <row r="319" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A319" s="16"/>
       <c r="B319" s="17"/>
       <c r="C319" s="17"/>
@@ -8474,7 +8473,7 @@
       <c r="K319" s="19"/>
       <c r="L319" s="20"/>
     </row>
-    <row r="320" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A320" s="16"/>
       <c r="B320" s="17"/>
       <c r="C320" s="17"/>
@@ -8485,7 +8484,7 @@
       <c r="K320" s="19"/>
       <c r="L320" s="20"/>
     </row>
-    <row r="321" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A321" s="16"/>
       <c r="B321" s="17"/>
       <c r="C321" s="17"/>
@@ -8496,7 +8495,7 @@
       <c r="K321" s="19"/>
       <c r="L321" s="20"/>
     </row>
-    <row r="322" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A322" s="16"/>
       <c r="B322" s="17"/>
       <c r="C322" s="17"/>
@@ -8507,7 +8506,7 @@
       <c r="K322" s="19"/>
       <c r="L322" s="20"/>
     </row>
-    <row r="323" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A323" s="16"/>
       <c r="B323" s="17"/>
       <c r="C323" s="17"/>
@@ -8518,7 +8517,7 @@
       <c r="K323" s="19"/>
       <c r="L323" s="20"/>
     </row>
-    <row r="324" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A324" s="16"/>
       <c r="B324" s="17"/>
       <c r="C324" s="17"/>
@@ -8529,7 +8528,7 @@
       <c r="K324" s="19"/>
       <c r="L324" s="20"/>
     </row>
-    <row r="325" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A325" s="16"/>
       <c r="B325" s="17"/>
       <c r="C325" s="17"/>
@@ -8540,7 +8539,7 @@
       <c r="K325" s="19"/>
       <c r="L325" s="20"/>
     </row>
-    <row r="326" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A326" s="16"/>
       <c r="B326" s="17"/>
       <c r="C326" s="17"/>
@@ -8551,7 +8550,7 @@
       <c r="K326" s="19"/>
       <c r="L326" s="20"/>
     </row>
-    <row r="327" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A327" s="16"/>
       <c r="B327" s="17"/>
       <c r="C327" s="17"/>
@@ -8562,7 +8561,7 @@
       <c r="K327" s="19"/>
       <c r="L327" s="20"/>
     </row>
-    <row r="328" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A328" s="16"/>
       <c r="B328" s="17"/>
       <c r="C328" s="17"/>
@@ -8573,7 +8572,7 @@
       <c r="K328" s="19"/>
       <c r="L328" s="20"/>
     </row>
-    <row r="329" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A329" s="16"/>
       <c r="B329" s="17"/>
       <c r="C329" s="17"/>
@@ -8584,7 +8583,7 @@
       <c r="K329" s="19"/>
       <c r="L329" s="20"/>
     </row>
-    <row r="330" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A330" s="16"/>
       <c r="B330" s="17"/>
       <c r="C330" s="17"/>
@@ -8595,7 +8594,7 @@
       <c r="K330" s="19"/>
       <c r="L330" s="20"/>
     </row>
-    <row r="331" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A331" s="16"/>
       <c r="B331" s="17"/>
       <c r="C331" s="17"/>
@@ -8606,7 +8605,7 @@
       <c r="K331" s="19"/>
       <c r="L331" s="20"/>
     </row>
-    <row r="332" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A332" s="16"/>
       <c r="B332" s="17"/>
       <c r="C332" s="17"/>
@@ -8617,7 +8616,7 @@
       <c r="K332" s="19"/>
       <c r="L332" s="20"/>
     </row>
-    <row r="333" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A333" s="16"/>
       <c r="B333" s="17"/>
       <c r="C333" s="17"/>
@@ -8628,7 +8627,7 @@
       <c r="K333" s="19"/>
       <c r="L333" s="20"/>
     </row>
-    <row r="334" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A334" s="16"/>
       <c r="B334" s="17"/>
       <c r="C334" s="17"/>
@@ -8639,7 +8638,7 @@
       <c r="K334" s="19"/>
       <c r="L334" s="20"/>
     </row>
-    <row r="335" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A335" s="16"/>
       <c r="B335" s="17"/>
       <c r="C335" s="17"/>
@@ -8650,7 +8649,7 @@
       <c r="K335" s="19"/>
       <c r="L335" s="20"/>
     </row>
-    <row r="336" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A336" s="16"/>
       <c r="B336" s="17"/>
       <c r="C336" s="17"/>
@@ -8661,7 +8660,7 @@
       <c r="K336" s="19"/>
       <c r="L336" s="20"/>
     </row>
-    <row r="337" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A337" s="16"/>
       <c r="B337" s="17"/>
       <c r="C337" s="17"/>
@@ -8672,7 +8671,7 @@
       <c r="K337" s="19"/>
       <c r="L337" s="20"/>
     </row>
-    <row r="338" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A338" s="16"/>
       <c r="B338" s="17"/>
       <c r="C338" s="17"/>
@@ -8683,7 +8682,7 @@
       <c r="K338" s="19"/>
       <c r="L338" s="20"/>
     </row>
-    <row r="339" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A339" s="16"/>
       <c r="B339" s="17"/>
       <c r="C339" s="17"/>
@@ -8694,7 +8693,7 @@
       <c r="K339" s="19"/>
       <c r="L339" s="20"/>
     </row>
-    <row r="340" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A340" s="16"/>
       <c r="B340" s="17"/>
       <c r="C340" s="17"/>
@@ -8705,7 +8704,7 @@
       <c r="K340" s="19"/>
       <c r="L340" s="20"/>
     </row>
-    <row r="341" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A341" s="16"/>
       <c r="B341" s="17"/>
       <c r="C341" s="17"/>
@@ -8716,7 +8715,7 @@
       <c r="K341" s="19"/>
       <c r="L341" s="20"/>
     </row>
-    <row r="342" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A342" s="16"/>
       <c r="B342" s="17"/>
       <c r="C342" s="17"/>
@@ -8727,7 +8726,7 @@
       <c r="K342" s="19"/>
       <c r="L342" s="20"/>
     </row>
-    <row r="343" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A343" s="16"/>
       <c r="B343" s="17"/>
       <c r="C343" s="17"/>
@@ -8738,7 +8737,7 @@
       <c r="K343" s="19"/>
       <c r="L343" s="20"/>
     </row>
-    <row r="344" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A344" s="16"/>
       <c r="B344" s="17"/>
       <c r="C344" s="17"/>
@@ -8749,7 +8748,7 @@
       <c r="K344" s="19"/>
       <c r="L344" s="20"/>
     </row>
-    <row r="345" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A345" s="16"/>
       <c r="B345" s="17"/>
       <c r="C345" s="17"/>
@@ -8760,7 +8759,7 @@
       <c r="K345" s="19"/>
       <c r="L345" s="20"/>
     </row>
-    <row r="346" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A346" s="16"/>
       <c r="B346" s="17"/>
       <c r="C346" s="17"/>
@@ -8771,7 +8770,7 @@
       <c r="K346" s="19"/>
       <c r="L346" s="20"/>
     </row>
-    <row r="347" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A347" s="16"/>
       <c r="B347" s="17"/>
       <c r="C347" s="17"/>
@@ -8782,7 +8781,7 @@
       <c r="K347" s="19"/>
       <c r="L347" s="20"/>
     </row>
-    <row r="348" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A348" s="16"/>
       <c r="B348" s="17"/>
       <c r="C348" s="17"/>
@@ -8793,7 +8792,7 @@
       <c r="K348" s="19"/>
       <c r="L348" s="20"/>
     </row>
-    <row r="349" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A349" s="16"/>
       <c r="B349" s="17"/>
       <c r="C349" s="17"/>
@@ -8804,7 +8803,7 @@
       <c r="K349" s="19"/>
       <c r="L349" s="20"/>
     </row>
-    <row r="350" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A350" s="16"/>
       <c r="B350" s="17"/>
       <c r="C350" s="17"/>
@@ -8815,7 +8814,7 @@
       <c r="K350" s="19"/>
       <c r="L350" s="20"/>
     </row>
-    <row r="351" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A351" s="16"/>
       <c r="B351" s="17"/>
       <c r="C351" s="17"/>
@@ -8826,7 +8825,7 @@
       <c r="K351" s="19"/>
       <c r="L351" s="20"/>
     </row>
-    <row r="352" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A352" s="16"/>
       <c r="B352" s="17"/>
       <c r="C352" s="17"/>
@@ -8837,7 +8836,7 @@
       <c r="K352" s="19"/>
       <c r="L352" s="20"/>
     </row>
-    <row r="353" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A353" s="16"/>
       <c r="B353" s="17"/>
       <c r="C353" s="17"/>
@@ -8848,7 +8847,7 @@
       <c r="K353" s="19"/>
       <c r="L353" s="20"/>
     </row>
-    <row r="354" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A354" s="16"/>
       <c r="B354" s="17"/>
       <c r="C354" s="17"/>
@@ -8859,7 +8858,7 @@
       <c r="K354" s="19"/>
       <c r="L354" s="20"/>
     </row>
-    <row r="355" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A355" s="16"/>
       <c r="B355" s="17"/>
       <c r="C355" s="17"/>
@@ -8870,7 +8869,7 @@
       <c r="K355" s="19"/>
       <c r="L355" s="20"/>
     </row>
-    <row r="356" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A356" s="16"/>
       <c r="B356" s="17"/>
       <c r="C356" s="17"/>
@@ -8881,7 +8880,7 @@
       <c r="K356" s="19"/>
       <c r="L356" s="20"/>
     </row>
-    <row r="357" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A357" s="16"/>
       <c r="B357" s="17"/>
       <c r="C357" s="17"/>
@@ -8892,7 +8891,7 @@
       <c r="K357" s="19"/>
       <c r="L357" s="20"/>
     </row>
-    <row r="358" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A358" s="16"/>
       <c r="B358" s="17"/>
       <c r="C358" s="17"/>
@@ -8903,7 +8902,7 @@
       <c r="K358" s="19"/>
       <c r="L358" s="20"/>
     </row>
-    <row r="359" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A359" s="16"/>
       <c r="B359" s="17"/>
       <c r="C359" s="17"/>
@@ -8914,7 +8913,7 @@
       <c r="K359" s="19"/>
       <c r="L359" s="20"/>
     </row>
-    <row r="360" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A360" s="16"/>
       <c r="B360" s="17"/>
       <c r="C360" s="17"/>
@@ -8925,7 +8924,7 @@
       <c r="K360" s="19"/>
       <c r="L360" s="20"/>
     </row>
-    <row r="361" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A361" s="16"/>
       <c r="B361" s="17"/>
       <c r="C361" s="17"/>
@@ -8936,7 +8935,7 @@
       <c r="K361" s="19"/>
       <c r="L361" s="20"/>
     </row>
-    <row r="362" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A362" s="16"/>
       <c r="B362" s="17"/>
       <c r="C362" s="17"/>
@@ -8947,7 +8946,7 @@
       <c r="K362" s="19"/>
       <c r="L362" s="20"/>
     </row>
-    <row r="363" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A363" s="16"/>
       <c r="B363" s="17"/>
       <c r="C363" s="17"/>
@@ -8958,7 +8957,7 @@
       <c r="K363" s="19"/>
       <c r="L363" s="20"/>
     </row>
-    <row r="364" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A364" s="16"/>
       <c r="B364" s="17"/>
       <c r="C364" s="17"/>
@@ -8969,7 +8968,7 @@
       <c r="K364" s="19"/>
       <c r="L364" s="20"/>
     </row>
-    <row r="365" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A365" s="16"/>
       <c r="B365" s="17"/>
       <c r="C365" s="17"/>
@@ -8980,7 +8979,7 @@
       <c r="K365" s="19"/>
       <c r="L365" s="20"/>
     </row>
-    <row r="366" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A366" s="16"/>
       <c r="B366" s="17"/>
       <c r="C366" s="17"/>
@@ -8991,7 +8990,7 @@
       <c r="K366" s="19"/>
       <c r="L366" s="20"/>
     </row>
-    <row r="367" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A367" s="16"/>
       <c r="B367" s="17"/>
       <c r="C367" s="17"/>
@@ -9002,7 +9001,7 @@
       <c r="K367" s="19"/>
       <c r="L367" s="20"/>
     </row>
-    <row r="368" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A368" s="16"/>
       <c r="B368" s="17"/>
       <c r="C368" s="17"/>
@@ -9013,7 +9012,7 @@
       <c r="K368" s="19"/>
       <c r="L368" s="20"/>
     </row>
-    <row r="369" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A369" s="16"/>
       <c r="B369" s="17"/>
       <c r="C369" s="17"/>
@@ -9024,7 +9023,7 @@
       <c r="K369" s="19"/>
       <c r="L369" s="20"/>
     </row>
-    <row r="370" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A370" s="16"/>
       <c r="B370" s="17"/>
       <c r="C370" s="17"/>
@@ -9035,7 +9034,7 @@
       <c r="K370" s="19"/>
       <c r="L370" s="20"/>
     </row>
-    <row r="371" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A371" s="16"/>
       <c r="B371" s="17"/>
       <c r="C371" s="17"/>
@@ -9046,7 +9045,7 @@
       <c r="K371" s="19"/>
       <c r="L371" s="20"/>
     </row>
-    <row r="372" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A372" s="16"/>
       <c r="B372" s="17"/>
       <c r="C372" s="17"/>
@@ -9057,7 +9056,7 @@
       <c r="K372" s="19"/>
       <c r="L372" s="20"/>
     </row>
-    <row r="373" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A373" s="16"/>
       <c r="B373" s="17"/>
       <c r="C373" s="17"/>
@@ -9068,7 +9067,7 @@
       <c r="K373" s="19"/>
       <c r="L373" s="20"/>
     </row>
-    <row r="374" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A374" s="16"/>
       <c r="B374" s="17"/>
       <c r="C374" s="17"/>
@@ -9079,7 +9078,7 @@
       <c r="K374" s="19"/>
       <c r="L374" s="20"/>
     </row>
-    <row r="375" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A375" s="16"/>
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
@@ -9090,7 +9089,7 @@
       <c r="K375" s="19"/>
       <c r="L375" s="20"/>
     </row>
-    <row r="376" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A376" s="16"/>
       <c r="B376" s="17"/>
       <c r="C376" s="17"/>
@@ -9101,7 +9100,7 @@
       <c r="K376" s="19"/>
       <c r="L376" s="20"/>
     </row>
-    <row r="377" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A377" s="16"/>
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
@@ -9112,7 +9111,7 @@
       <c r="K377" s="19"/>
       <c r="L377" s="20"/>
     </row>
-    <row r="378" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A378" s="16"/>
       <c r="B378" s="17"/>
       <c r="C378" s="17"/>
@@ -9123,7 +9122,7 @@
       <c r="K378" s="19"/>
       <c r="L378" s="20"/>
     </row>
-    <row r="379" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A379" s="16"/>
       <c r="B379" s="17"/>
       <c r="C379" s="17"/>
@@ -9134,7 +9133,7 @@
       <c r="K379" s="19"/>
       <c r="L379" s="20"/>
     </row>
-    <row r="380" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A380" s="16"/>
       <c r="B380" s="17"/>
       <c r="C380" s="17"/>
@@ -9145,7 +9144,7 @@
       <c r="K380" s="19"/>
       <c r="L380" s="20"/>
     </row>
-    <row r="381" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A381" s="16"/>
       <c r="B381" s="17"/>
       <c r="C381" s="17"/>
@@ -9156,7 +9155,7 @@
       <c r="K381" s="19"/>
       <c r="L381" s="20"/>
     </row>
-    <row r="382" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A382" s="16"/>
       <c r="B382" s="17"/>
       <c r="C382" s="17"/>
@@ -9167,7 +9166,7 @@
       <c r="K382" s="19"/>
       <c r="L382" s="20"/>
     </row>
-    <row r="383" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A383" s="16"/>
       <c r="B383" s="17"/>
       <c r="C383" s="17"/>
@@ -9178,7 +9177,7 @@
       <c r="K383" s="19"/>
       <c r="L383" s="20"/>
     </row>
-    <row r="384" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A384" s="16"/>
       <c r="B384" s="17"/>
       <c r="C384" s="17"/>
@@ -9189,7 +9188,7 @@
       <c r="K384" s="19"/>
       <c r="L384" s="20"/>
     </row>
-    <row r="385" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A385" s="16"/>
       <c r="B385" s="17"/>
       <c r="C385" s="17"/>
@@ -9200,7 +9199,7 @@
       <c r="K385" s="19"/>
       <c r="L385" s="20"/>
     </row>
-    <row r="386" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A386" s="16"/>
       <c r="B386" s="17"/>
       <c r="C386" s="17"/>
@@ -9211,7 +9210,7 @@
       <c r="K386" s="19"/>
       <c r="L386" s="20"/>
     </row>
-    <row r="387" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A387" s="16"/>
       <c r="B387" s="17"/>
       <c r="C387" s="17"/>
@@ -9222,7 +9221,7 @@
       <c r="K387" s="19"/>
       <c r="L387" s="20"/>
     </row>
-    <row r="388" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A388" s="16"/>
       <c r="B388" s="17"/>
       <c r="C388" s="17"/>
@@ -9233,7 +9232,7 @@
       <c r="K388" s="19"/>
       <c r="L388" s="20"/>
     </row>
-    <row r="389" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A389" s="16"/>
       <c r="B389" s="17"/>
       <c r="C389" s="17"/>
@@ -9244,7 +9243,7 @@
       <c r="K389" s="19"/>
       <c r="L389" s="20"/>
     </row>
-    <row r="390" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A390" s="16"/>
       <c r="B390" s="17"/>
       <c r="C390" s="17"/>
@@ -9255,7 +9254,7 @@
       <c r="K390" s="19"/>
       <c r="L390" s="20"/>
     </row>
-    <row r="391" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A391" s="16"/>
       <c r="B391" s="17"/>
       <c r="C391" s="17"/>
@@ -9266,7 +9265,7 @@
       <c r="K391" s="19"/>
       <c r="L391" s="20"/>
     </row>
-    <row r="392" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A392" s="16"/>
       <c r="B392" s="17"/>
       <c r="C392" s="17"/>
@@ -9277,7 +9276,7 @@
       <c r="K392" s="19"/>
       <c r="L392" s="20"/>
     </row>
-    <row r="393" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A393" s="16"/>
       <c r="B393" s="17"/>
       <c r="C393" s="17"/>
@@ -9288,7 +9287,7 @@
       <c r="K393" s="19"/>
       <c r="L393" s="20"/>
     </row>
-    <row r="394" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A394" s="16"/>
       <c r="B394" s="17"/>
       <c r="C394" s="17"/>
@@ -9299,7 +9298,7 @@
       <c r="K394" s="19"/>
       <c r="L394" s="20"/>
     </row>
-    <row r="395" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A395" s="16"/>
       <c r="B395" s="17"/>
       <c r="C395" s="17"/>
@@ -9310,7 +9309,7 @@
       <c r="K395" s="19"/>
       <c r="L395" s="20"/>
     </row>
-    <row r="396" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A396" s="16"/>
       <c r="B396" s="17"/>
       <c r="C396" s="17"/>
@@ -9321,7 +9320,7 @@
       <c r="K396" s="19"/>
       <c r="L396" s="20"/>
     </row>
-    <row r="397" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A397" s="16"/>
       <c r="B397" s="17"/>
       <c r="C397" s="17"/>
@@ -9332,7 +9331,7 @@
       <c r="K397" s="19"/>
       <c r="L397" s="20"/>
     </row>
-    <row r="398" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A398" s="16"/>
       <c r="B398" s="17"/>
       <c r="C398" s="17"/>
@@ -9343,7 +9342,7 @@
       <c r="K398" s="19"/>
       <c r="L398" s="20"/>
     </row>
-    <row r="399" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A399" s="16"/>
       <c r="B399" s="17"/>
       <c r="C399" s="17"/>
@@ -9354,7 +9353,7 @@
       <c r="K399" s="19"/>
       <c r="L399" s="20"/>
     </row>
-    <row r="400" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A400" s="16"/>
       <c r="B400" s="17"/>
       <c r="C400" s="17"/>
@@ -9365,7 +9364,7 @@
       <c r="K400" s="19"/>
       <c r="L400" s="20"/>
     </row>
-    <row r="401" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A401" s="16"/>
       <c r="B401" s="17"/>
       <c r="C401" s="17"/>
@@ -9376,7 +9375,7 @@
       <c r="K401" s="19"/>
       <c r="L401" s="20"/>
     </row>
-    <row r="402" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A402" s="16"/>
       <c r="B402" s="17"/>
       <c r="C402" s="17"/>
@@ -9387,7 +9386,7 @@
       <c r="K402" s="19"/>
       <c r="L402" s="20"/>
     </row>
-    <row r="403" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A403" s="16"/>
       <c r="B403" s="17"/>
       <c r="C403" s="17"/>
@@ -9398,7 +9397,7 @@
       <c r="K403" s="19"/>
       <c r="L403" s="20"/>
     </row>
-    <row r="404" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A404" s="16"/>
       <c r="B404" s="17"/>
       <c r="C404" s="17"/>
@@ -9409,7 +9408,7 @@
       <c r="K404" s="19"/>
       <c r="L404" s="20"/>
     </row>
-    <row r="405" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A405" s="16"/>
       <c r="B405" s="17"/>
       <c r="C405" s="17"/>
@@ -9420,7 +9419,7 @@
       <c r="K405" s="19"/>
       <c r="L405" s="20"/>
     </row>
-    <row r="406" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A406" s="16"/>
       <c r="B406" s="17"/>
       <c r="C406" s="17"/>
@@ -9431,7 +9430,7 @@
       <c r="K406" s="19"/>
       <c r="L406" s="20"/>
     </row>
-    <row r="407" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A407" s="16"/>
       <c r="B407" s="17"/>
       <c r="C407" s="17"/>
@@ -9442,7 +9441,7 @@
       <c r="K407" s="19"/>
       <c r="L407" s="20"/>
     </row>
-    <row r="408" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A408" s="16"/>
       <c r="B408" s="17"/>
       <c r="C408" s="17"/>
@@ -9453,7 +9452,7 @@
       <c r="K408" s="19"/>
       <c r="L408" s="20"/>
     </row>
-    <row r="409" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A409" s="16"/>
       <c r="B409" s="17"/>
       <c r="C409" s="17"/>
@@ -9464,7 +9463,7 @@
       <c r="K409" s="19"/>
       <c r="L409" s="20"/>
     </row>
-    <row r="410" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A410" s="16"/>
       <c r="B410" s="17"/>
       <c r="C410" s="17"/>
@@ -9475,7 +9474,7 @@
       <c r="K410" s="19"/>
       <c r="L410" s="20"/>
     </row>
-    <row r="411" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A411" s="16"/>
       <c r="B411" s="17"/>
       <c r="C411" s="17"/>
@@ -9486,7 +9485,7 @@
       <c r="K411" s="19"/>
       <c r="L411" s="20"/>
     </row>
-    <row r="412" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A412" s="16"/>
       <c r="B412" s="17"/>
       <c r="C412" s="17"/>
@@ -9497,7 +9496,7 @@
       <c r="K412" s="19"/>
       <c r="L412" s="20"/>
     </row>
-    <row r="413" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A413" s="16"/>
       <c r="B413" s="17"/>
       <c r="C413" s="17"/>
@@ -9508,7 +9507,7 @@
       <c r="K413" s="19"/>
       <c r="L413" s="20"/>
     </row>
-    <row r="414" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A414" s="16"/>
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
@@ -9519,7 +9518,7 @@
       <c r="K414" s="19"/>
       <c r="L414" s="20"/>
     </row>
-    <row r="415" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A415" s="16"/>
       <c r="B415" s="17"/>
       <c r="C415" s="17"/>
@@ -9530,7 +9529,7 @@
       <c r="K415" s="19"/>
       <c r="L415" s="20"/>
     </row>
-    <row r="416" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A416" s="16"/>
       <c r="B416" s="17"/>
       <c r="C416" s="17"/>
@@ -9541,7 +9540,7 @@
       <c r="K416" s="19"/>
       <c r="L416" s="20"/>
     </row>
-    <row r="417" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A417" s="16"/>
       <c r="B417" s="17"/>
       <c r="C417" s="17"/>
@@ -9552,7 +9551,7 @@
       <c r="K417" s="19"/>
       <c r="L417" s="20"/>
     </row>
-    <row r="418" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A418" s="16"/>
       <c r="B418" s="17"/>
       <c r="C418" s="17"/>
@@ -9563,7 +9562,7 @@
       <c r="K418" s="19"/>
       <c r="L418" s="20"/>
     </row>
-    <row r="419" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A419" s="16"/>
       <c r="B419" s="17"/>
       <c r="C419" s="17"/>
@@ -9574,7 +9573,7 @@
       <c r="K419" s="19"/>
       <c r="L419" s="20"/>
     </row>
-    <row r="420" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A420" s="16"/>
       <c r="B420" s="17"/>
       <c r="C420" s="17"/>
@@ -9585,7 +9584,7 @@
       <c r="K420" s="19"/>
       <c r="L420" s="20"/>
     </row>
-    <row r="421" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A421" s="16"/>
       <c r="B421" s="17"/>
       <c r="C421" s="17"/>
@@ -9596,7 +9595,7 @@
       <c r="K421" s="19"/>
       <c r="L421" s="20"/>
     </row>
-    <row r="422" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A422" s="16"/>
       <c r="B422" s="17"/>
       <c r="C422" s="17"/>
@@ -9607,7 +9606,7 @@
       <c r="K422" s="19"/>
       <c r="L422" s="20"/>
     </row>
-    <row r="423" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A423" s="16"/>
       <c r="B423" s="17"/>
       <c r="C423" s="17"/>
@@ -9618,7 +9617,7 @@
       <c r="K423" s="19"/>
       <c r="L423" s="20"/>
     </row>
-    <row r="424" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A424" s="16"/>
       <c r="B424" s="17"/>
       <c r="C424" s="17"/>
@@ -9629,7 +9628,7 @@
       <c r="K424" s="19"/>
       <c r="L424" s="20"/>
     </row>
-    <row r="425" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A425" s="16"/>
       <c r="B425" s="17"/>
       <c r="C425" s="17"/>
@@ -9640,7 +9639,7 @@
       <c r="K425" s="19"/>
       <c r="L425" s="20"/>
     </row>
-    <row r="426" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A426" s="16"/>
       <c r="B426" s="17"/>
       <c r="C426" s="17"/>
@@ -9651,7 +9650,7 @@
       <c r="K426" s="19"/>
       <c r="L426" s="20"/>
     </row>
-    <row r="427" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A427" s="16"/>
       <c r="B427" s="17"/>
       <c r="C427" s="17"/>
@@ -9662,7 +9661,7 @@
       <c r="K427" s="19"/>
       <c r="L427" s="20"/>
     </row>
-    <row r="428" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A428" s="16"/>
       <c r="B428" s="17"/>
       <c r="C428" s="17"/>
@@ -9673,7 +9672,7 @@
       <c r="K428" s="19"/>
       <c r="L428" s="20"/>
     </row>
-    <row r="429" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A429" s="16"/>
       <c r="B429" s="17"/>
       <c r="C429" s="17"/>
@@ -9684,7 +9683,7 @@
       <c r="K429" s="19"/>
       <c r="L429" s="20"/>
     </row>
-    <row r="430" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A430" s="16"/>
       <c r="B430" s="17"/>
       <c r="C430" s="17"/>
@@ -9695,7 +9694,7 @@
       <c r="K430" s="19"/>
       <c r="L430" s="20"/>
     </row>
-    <row r="431" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A431" s="16"/>
       <c r="B431" s="17"/>
       <c r="C431" s="17"/>
@@ -9706,7 +9705,7 @@
       <c r="K431" s="19"/>
       <c r="L431" s="20"/>
     </row>
-    <row r="432" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A432" s="16"/>
       <c r="B432" s="17"/>
       <c r="C432" s="17"/>
@@ -9717,7 +9716,7 @@
       <c r="K432" s="19"/>
       <c r="L432" s="20"/>
     </row>
-    <row r="433" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A433" s="16"/>
       <c r="B433" s="17"/>
       <c r="C433" s="17"/>
@@ -9728,7 +9727,7 @@
       <c r="K433" s="19"/>
       <c r="L433" s="20"/>
     </row>
-    <row r="434" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="434" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A434" s="16"/>
       <c r="B434" s="17"/>
       <c r="C434" s="17"/>
@@ -9739,7 +9738,7 @@
       <c r="K434" s="19"/>
       <c r="L434" s="20"/>
     </row>
-    <row r="435" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A435" s="16"/>
       <c r="B435" s="17"/>
       <c r="C435" s="17"/>
@@ -9750,7 +9749,7 @@
       <c r="K435" s="19"/>
       <c r="L435" s="20"/>
     </row>
-    <row r="436" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A436" s="16"/>
       <c r="B436" s="17"/>
       <c r="C436" s="17"/>
@@ -9761,7 +9760,7 @@
       <c r="K436" s="19"/>
       <c r="L436" s="20"/>
     </row>
-    <row r="437" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A437" s="16"/>
       <c r="B437" s="17"/>
       <c r="C437" s="17"/>
@@ -9772,7 +9771,7 @@
       <c r="K437" s="19"/>
       <c r="L437" s="20"/>
     </row>
-    <row r="438" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A438" s="16"/>
       <c r="B438" s="17"/>
       <c r="C438" s="17"/>
@@ -9783,7 +9782,7 @@
       <c r="K438" s="19"/>
       <c r="L438" s="20"/>
     </row>
-    <row r="439" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A439" s="16"/>
       <c r="B439" s="17"/>
       <c r="C439" s="17"/>
@@ -9794,7 +9793,7 @@
       <c r="K439" s="19"/>
       <c r="L439" s="20"/>
     </row>
-    <row r="440" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A440" s="16"/>
       <c r="B440" s="17"/>
       <c r="C440" s="17"/>
@@ -9805,7 +9804,7 @@
       <c r="K440" s="19"/>
       <c r="L440" s="20"/>
     </row>
-    <row r="441" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A441" s="16"/>
       <c r="B441" s="17"/>
       <c r="C441" s="17"/>
@@ -9816,7 +9815,7 @@
       <c r="K441" s="19"/>
       <c r="L441" s="20"/>
     </row>
-    <row r="442" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A442" s="16"/>
       <c r="B442" s="17"/>
       <c r="C442" s="17"/>
@@ -9827,7 +9826,7 @@
       <c r="K442" s="19"/>
       <c r="L442" s="20"/>
     </row>
-    <row r="443" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A443" s="16"/>
       <c r="B443" s="17"/>
       <c r="C443" s="17"/>
@@ -9838,7 +9837,7 @@
       <c r="K443" s="19"/>
       <c r="L443" s="20"/>
     </row>
-    <row r="444" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A444" s="16"/>
       <c r="B444" s="17"/>
       <c r="C444" s="17"/>
@@ -9849,7 +9848,7 @@
       <c r="K444" s="19"/>
       <c r="L444" s="20"/>
     </row>
-    <row r="445" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A445" s="16"/>
       <c r="B445" s="17"/>
       <c r="C445" s="17"/>
@@ -9860,7 +9859,7 @@
       <c r="K445" s="19"/>
       <c r="L445" s="20"/>
     </row>
-    <row r="446" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A446" s="16"/>
       <c r="B446" s="17"/>
       <c r="C446" s="17"/>
@@ -9871,7 +9870,7 @@
       <c r="K446" s="19"/>
       <c r="L446" s="20"/>
     </row>
-    <row r="447" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A447" s="16"/>
       <c r="B447" s="17"/>
       <c r="C447" s="17"/>
@@ -9882,7 +9881,7 @@
       <c r="K447" s="19"/>
       <c r="L447" s="20"/>
     </row>
-    <row r="448" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A448" s="16"/>
       <c r="B448" s="17"/>
       <c r="C448" s="17"/>
@@ -9893,7 +9892,7 @@
       <c r="K448" s="19"/>
       <c r="L448" s="20"/>
     </row>
-    <row r="449" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A449" s="16"/>
       <c r="B449" s="17"/>
       <c r="C449" s="17"/>
@@ -9904,7 +9903,7 @@
       <c r="K449" s="19"/>
       <c r="L449" s="20"/>
     </row>
-    <row r="450" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A450" s="16"/>
       <c r="B450" s="17"/>
       <c r="C450" s="17"/>
@@ -9915,7 +9914,7 @@
       <c r="K450" s="19"/>
       <c r="L450" s="20"/>
     </row>
-    <row r="451" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A451" s="16"/>
       <c r="B451" s="17"/>
       <c r="C451" s="17"/>
@@ -9926,7 +9925,7 @@
       <c r="K451" s="19"/>
       <c r="L451" s="20"/>
     </row>
-    <row r="452" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A452" s="16"/>
       <c r="B452" s="17"/>
       <c r="C452" s="17"/>
@@ -9937,7 +9936,7 @@
       <c r="K452" s="19"/>
       <c r="L452" s="20"/>
     </row>
-    <row r="453" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A453" s="16"/>
       <c r="B453" s="17"/>
       <c r="C453" s="17"/>
@@ -9948,7 +9947,7 @@
       <c r="K453" s="19"/>
       <c r="L453" s="20"/>
     </row>
-    <row r="454" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A454" s="16"/>
       <c r="B454" s="17"/>
       <c r="C454" s="17"/>
@@ -9959,7 +9958,7 @@
       <c r="K454" s="19"/>
       <c r="L454" s="20"/>
     </row>
-    <row r="455" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A455" s="16"/>
       <c r="B455" s="17"/>
       <c r="C455" s="17"/>
@@ -9970,7 +9969,7 @@
       <c r="K455" s="19"/>
       <c r="L455" s="20"/>
     </row>
-    <row r="456" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A456" s="16"/>
       <c r="B456" s="17"/>
       <c r="C456" s="17"/>
@@ -9981,7 +9980,7 @@
       <c r="K456" s="19"/>
       <c r="L456" s="20"/>
     </row>
-    <row r="457" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A457" s="16"/>
       <c r="B457" s="17"/>
       <c r="C457" s="17"/>
@@ -9992,7 +9991,7 @@
       <c r="K457" s="19"/>
       <c r="L457" s="20"/>
     </row>
-    <row r="458" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A458" s="16"/>
       <c r="B458" s="17"/>
       <c r="C458" s="17"/>
@@ -10003,7 +10002,7 @@
       <c r="K458" s="19"/>
       <c r="L458" s="20"/>
     </row>
-    <row r="459" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A459" s="16"/>
       <c r="B459" s="17"/>
       <c r="C459" s="17"/>
@@ -10014,7 +10013,7 @@
       <c r="K459" s="19"/>
       <c r="L459" s="20"/>
     </row>
-    <row r="460" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A460" s="16"/>
       <c r="B460" s="17"/>
       <c r="C460" s="17"/>
@@ -10025,7 +10024,7 @@
       <c r="K460" s="19"/>
       <c r="L460" s="20"/>
     </row>
-    <row r="461" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A461" s="16"/>
       <c r="B461" s="17"/>
       <c r="C461" s="17"/>
@@ -10036,7 +10035,7 @@
       <c r="K461" s="19"/>
       <c r="L461" s="20"/>
     </row>
-    <row r="462" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A462" s="16"/>
       <c r="B462" s="17"/>
       <c r="C462" s="17"/>
@@ -10047,7 +10046,7 @@
       <c r="K462" s="19"/>
       <c r="L462" s="20"/>
     </row>
-    <row r="463" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A463" s="16"/>
       <c r="B463" s="17"/>
       <c r="C463" s="17"/>
@@ -10058,7 +10057,7 @@
       <c r="K463" s="19"/>
       <c r="L463" s="20"/>
     </row>
-    <row r="464" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A464" s="16"/>
       <c r="B464" s="17"/>
       <c r="C464" s="17"/>
@@ -10069,7 +10068,7 @@
       <c r="K464" s="19"/>
       <c r="L464" s="20"/>
     </row>
-    <row r="465" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A465" s="16"/>
       <c r="B465" s="17"/>
       <c r="C465" s="17"/>
@@ -10080,7 +10079,7 @@
       <c r="K465" s="19"/>
       <c r="L465" s="20"/>
     </row>
-    <row r="466" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A466" s="16"/>
       <c r="B466" s="17"/>
       <c r="C466" s="17"/>
@@ -10091,7 +10090,7 @@
       <c r="K466" s="19"/>
       <c r="L466" s="20"/>
     </row>
-    <row r="467" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A467" s="16"/>
       <c r="B467" s="17"/>
       <c r="C467" s="17"/>
@@ -10102,7 +10101,7 @@
       <c r="K467" s="19"/>
       <c r="L467" s="20"/>
     </row>
-    <row r="468" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A468" s="16"/>
       <c r="B468" s="17"/>
       <c r="C468" s="17"/>
@@ -10113,7 +10112,7 @@
       <c r="K468" s="19"/>
       <c r="L468" s="20"/>
     </row>
-    <row r="469" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A469" s="16"/>
       <c r="B469" s="17"/>
       <c r="C469" s="17"/>
@@ -10124,7 +10123,7 @@
       <c r="K469" s="19"/>
       <c r="L469" s="20"/>
     </row>
-    <row r="470" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A470" s="16"/>
       <c r="B470" s="17"/>
       <c r="C470" s="17"/>
@@ -10135,7 +10134,7 @@
       <c r="K470" s="19"/>
       <c r="L470" s="20"/>
     </row>
-    <row r="471" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A471" s="16"/>
       <c r="B471" s="17"/>
       <c r="C471" s="17"/>
@@ -10146,7 +10145,7 @@
       <c r="K471" s="19"/>
       <c r="L471" s="20"/>
     </row>
-    <row r="472" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A472" s="16"/>
       <c r="B472" s="17"/>
       <c r="C472" s="17"/>
@@ -10157,7 +10156,7 @@
       <c r="K472" s="19"/>
       <c r="L472" s="20"/>
     </row>
-    <row r="473" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A473" s="16"/>
       <c r="B473" s="17"/>
       <c r="C473" s="17"/>
@@ -10168,7 +10167,7 @@
       <c r="K473" s="19"/>
       <c r="L473" s="20"/>
     </row>
-    <row r="474" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A474" s="16"/>
       <c r="B474" s="17"/>
       <c r="C474" s="17"/>
@@ -10179,7 +10178,7 @@
       <c r="K474" s="19"/>
       <c r="L474" s="20"/>
     </row>
-    <row r="475" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A475" s="16"/>
       <c r="B475" s="17"/>
       <c r="C475" s="17"/>
@@ -10190,7 +10189,7 @@
       <c r="K475" s="19"/>
       <c r="L475" s="20"/>
     </row>
-    <row r="476" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A476" s="16"/>
       <c r="B476" s="17"/>
       <c r="C476" s="17"/>
@@ -10201,7 +10200,7 @@
       <c r="K476" s="19"/>
       <c r="L476" s="20"/>
     </row>
-    <row r="477" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A477" s="16"/>
       <c r="B477" s="17"/>
       <c r="C477" s="17"/>
@@ -10212,7 +10211,7 @@
       <c r="K477" s="19"/>
       <c r="L477" s="20"/>
     </row>
-    <row r="478" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A478" s="16"/>
       <c r="B478" s="17"/>
       <c r="C478" s="17"/>
@@ -10223,7 +10222,7 @@
       <c r="K478" s="19"/>
       <c r="L478" s="20"/>
     </row>
-    <row r="479" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A479" s="16"/>
       <c r="B479" s="17"/>
       <c r="C479" s="17"/>
@@ -10234,7 +10233,7 @@
       <c r="K479" s="19"/>
       <c r="L479" s="20"/>
     </row>
-    <row r="480" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A480" s="16"/>
       <c r="B480" s="17"/>
       <c r="C480" s="17"/>
@@ -10245,7 +10244,7 @@
       <c r="K480" s="19"/>
       <c r="L480" s="20"/>
     </row>
-    <row r="481" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A481" s="16"/>
       <c r="B481" s="17"/>
       <c r="C481" s="17"/>
@@ -10256,7 +10255,7 @@
       <c r="K481" s="19"/>
       <c r="L481" s="20"/>
     </row>
-    <row r="482" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A482" s="16"/>
       <c r="B482" s="17"/>
       <c r="C482" s="17"/>
@@ -10267,7 +10266,7 @@
       <c r="K482" s="19"/>
       <c r="L482" s="20"/>
     </row>
-    <row r="483" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A483" s="16"/>
       <c r="B483" s="17"/>
       <c r="C483" s="17"/>
@@ -10278,7 +10277,7 @@
       <c r="K483" s="19"/>
       <c r="L483" s="20"/>
     </row>
-    <row r="484" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A484" s="16"/>
       <c r="B484" s="17"/>
       <c r="C484" s="17"/>
@@ -10289,7 +10288,7 @@
       <c r="K484" s="19"/>
       <c r="L484" s="20"/>
     </row>
-    <row r="485" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A485" s="16"/>
       <c r="B485" s="17"/>
       <c r="C485" s="17"/>
@@ -10300,7 +10299,7 @@
       <c r="K485" s="19"/>
       <c r="L485" s="20"/>
     </row>
-    <row r="486" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A486" s="16"/>
       <c r="B486" s="17"/>
       <c r="C486" s="17"/>
@@ -10311,7 +10310,7 @@
       <c r="K486" s="19"/>
       <c r="L486" s="20"/>
     </row>
-    <row r="487" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A487" s="16"/>
       <c r="B487" s="17"/>
       <c r="C487" s="17"/>
@@ -10322,7 +10321,7 @@
       <c r="K487" s="19"/>
       <c r="L487" s="20"/>
     </row>
-    <row r="488" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A488" s="16"/>
       <c r="B488" s="17"/>
       <c r="C488" s="17"/>
@@ -10333,7 +10332,7 @@
       <c r="K488" s="19"/>
       <c r="L488" s="20"/>
     </row>
-    <row r="489" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A489" s="16"/>
       <c r="B489" s="17"/>
       <c r="C489" s="17"/>
@@ -10344,7 +10343,7 @@
       <c r="K489" s="19"/>
       <c r="L489" s="20"/>
     </row>
-    <row r="490" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A490" s="16"/>
       <c r="B490" s="17"/>
       <c r="C490" s="17"/>
@@ -10355,7 +10354,7 @@
       <c r="K490" s="19"/>
       <c r="L490" s="20"/>
     </row>
-    <row r="491" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A491" s="16"/>
       <c r="B491" s="17"/>
       <c r="C491" s="17"/>
@@ -10366,7 +10365,7 @@
       <c r="K491" s="19"/>
       <c r="L491" s="20"/>
     </row>
-    <row r="492" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A492" s="16"/>
       <c r="B492" s="17"/>
       <c r="C492" s="17"/>
@@ -10377,7 +10376,7 @@
       <c r="K492" s="19"/>
       <c r="L492" s="20"/>
     </row>
-    <row r="493" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A493" s="16"/>
       <c r="B493" s="17"/>
       <c r="C493" s="17"/>
@@ -10388,7 +10387,7 @@
       <c r="K493" s="19"/>
       <c r="L493" s="20"/>
     </row>
-    <row r="494" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A494" s="16"/>
       <c r="B494" s="17"/>
       <c r="C494" s="17"/>
@@ -10399,7 +10398,7 @@
       <c r="K494" s="19"/>
       <c r="L494" s="20"/>
     </row>
-    <row r="495" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A495" s="16"/>
       <c r="B495" s="17"/>
       <c r="C495" s="17"/>
@@ -10410,7 +10409,7 @@
       <c r="K495" s="19"/>
       <c r="L495" s="20"/>
     </row>
-    <row r="496" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A496" s="16"/>
       <c r="B496" s="17"/>
       <c r="C496" s="17"/>
@@ -10421,7 +10420,7 @@
       <c r="K496" s="19"/>
       <c r="L496" s="20"/>
     </row>
-    <row r="497" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A497" s="16"/>
       <c r="B497" s="17"/>
       <c r="C497" s="17"/>
@@ -10432,7 +10431,7 @@
       <c r="K497" s="19"/>
       <c r="L497" s="20"/>
     </row>
-    <row r="498" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A498" s="16"/>
       <c r="B498" s="17"/>
       <c r="C498" s="17"/>
@@ -10443,7 +10442,7 @@
       <c r="K498" s="19"/>
       <c r="L498" s="20"/>
     </row>
-    <row r="499" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A499" s="16"/>
       <c r="B499" s="17"/>
       <c r="C499" s="17"/>
@@ -10454,7 +10453,7 @@
       <c r="K499" s="19"/>
       <c r="L499" s="20"/>
     </row>
-    <row r="500" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A500" s="16"/>
       <c r="B500" s="17"/>
       <c r="C500" s="17"/>
@@ -10465,7 +10464,7 @@
       <c r="K500" s="19"/>
       <c r="L500" s="20"/>
     </row>
-    <row r="501" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A501" s="16"/>
       <c r="B501" s="17"/>
       <c r="C501" s="17"/>
@@ -10476,7 +10475,7 @@
       <c r="K501" s="19"/>
       <c r="L501" s="20"/>
     </row>
-    <row r="502" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A502" s="16"/>
       <c r="B502" s="17"/>
       <c r="C502" s="17"/>
@@ -10487,7 +10486,7 @@
       <c r="K502" s="19"/>
       <c r="L502" s="20"/>
     </row>
-    <row r="503" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A503" s="16"/>
       <c r="B503" s="17"/>
       <c r="C503" s="17"/>
@@ -10498,7 +10497,7 @@
       <c r="K503" s="19"/>
       <c r="L503" s="20"/>
     </row>
-    <row r="504" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A504" s="16"/>
       <c r="B504" s="17"/>
       <c r="C504" s="17"/>
@@ -10509,7 +10508,7 @@
       <c r="K504" s="19"/>
       <c r="L504" s="20"/>
     </row>
-    <row r="505" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A505" s="16"/>
       <c r="B505" s="17"/>
       <c r="C505" s="17"/>
@@ -10520,7 +10519,7 @@
       <c r="K505" s="19"/>
       <c r="L505" s="20"/>
     </row>
-    <row r="506" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A506" s="16"/>
       <c r="B506" s="17"/>
       <c r="C506" s="17"/>
@@ -10531,7 +10530,7 @@
       <c r="K506" s="19"/>
       <c r="L506" s="20"/>
     </row>
-    <row r="507" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A507" s="16"/>
       <c r="B507" s="17"/>
       <c r="C507" s="17"/>
@@ -10542,7 +10541,7 @@
       <c r="K507" s="19"/>
       <c r="L507" s="20"/>
     </row>
-    <row r="508" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A508" s="16"/>
       <c r="B508" s="17"/>
       <c r="C508" s="17"/>
@@ -10553,7 +10552,7 @@
       <c r="K508" s="19"/>
       <c r="L508" s="20"/>
     </row>
-    <row r="509" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A509" s="16"/>
       <c r="B509" s="17"/>
       <c r="C509" s="17"/>
@@ -10564,7 +10563,7 @@
       <c r="K509" s="19"/>
       <c r="L509" s="20"/>
     </row>
-    <row r="510" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A510" s="16"/>
       <c r="B510" s="17"/>
       <c r="C510" s="17"/>
@@ -10575,7 +10574,7 @@
       <c r="K510" s="19"/>
       <c r="L510" s="20"/>
     </row>
-    <row r="511" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A511" s="16"/>
       <c r="B511" s="17"/>
       <c r="C511" s="17"/>
@@ -10586,7 +10585,7 @@
       <c r="K511" s="19"/>
       <c r="L511" s="20"/>
     </row>
-    <row r="512" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A512" s="16"/>
       <c r="B512" s="17"/>
       <c r="C512" s="17"/>
@@ -10597,7 +10596,7 @@
       <c r="K512" s="19"/>
       <c r="L512" s="20"/>
     </row>
-    <row r="513" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A513" s="16"/>
       <c r="B513" s="17"/>
       <c r="C513" s="17"/>
@@ -10608,7 +10607,7 @@
       <c r="K513" s="19"/>
       <c r="L513" s="20"/>
     </row>
-    <row r="514" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A514" s="16"/>
       <c r="B514" s="17"/>
       <c r="C514" s="17"/>
@@ -10619,7 +10618,7 @@
       <c r="K514" s="19"/>
       <c r="L514" s="20"/>
     </row>
-    <row r="515" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A515" s="16"/>
       <c r="B515" s="17"/>
       <c r="C515" s="17"/>
@@ -10630,7 +10629,7 @@
       <c r="K515" s="19"/>
       <c r="L515" s="20"/>
     </row>
-    <row r="516" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A516" s="16"/>
       <c r="B516" s="17"/>
       <c r="C516" s="17"/>
@@ -10641,7 +10640,7 @@
       <c r="K516" s="19"/>
       <c r="L516" s="20"/>
     </row>
-    <row r="517" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A517" s="16"/>
       <c r="B517" s="17"/>
       <c r="C517" s="17"/>
@@ -10652,7 +10651,7 @@
       <c r="K517" s="19"/>
       <c r="L517" s="20"/>
     </row>
-    <row r="518" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A518" s="16"/>
       <c r="B518" s="17"/>
       <c r="C518" s="17"/>
@@ -10663,7 +10662,7 @@
       <c r="K518" s="19"/>
       <c r="L518" s="20"/>
     </row>
-    <row r="519" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A519" s="16"/>
       <c r="B519" s="17"/>
       <c r="C519" s="17"/>
@@ -10674,7 +10673,7 @@
       <c r="K519" s="19"/>
       <c r="L519" s="20"/>
     </row>
-    <row r="520" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A520" s="16"/>
       <c r="B520" s="17"/>
       <c r="C520" s="17"/>
@@ -10685,7 +10684,7 @@
       <c r="K520" s="19"/>
       <c r="L520" s="20"/>
     </row>
-    <row r="521" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A521" s="16"/>
       <c r="B521" s="17"/>
       <c r="C521" s="17"/>
@@ -10696,7 +10695,7 @@
       <c r="K521" s="19"/>
       <c r="L521" s="20"/>
     </row>
-    <row r="522" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A522" s="16"/>
       <c r="B522" s="17"/>
       <c r="C522" s="17"/>
@@ -10707,7 +10706,7 @@
       <c r="K522" s="19"/>
       <c r="L522" s="20"/>
     </row>
-    <row r="523" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A523" s="16"/>
       <c r="B523" s="17"/>
       <c r="C523" s="17"/>
@@ -10718,7 +10717,7 @@
       <c r="K523" s="19"/>
       <c r="L523" s="20"/>
     </row>
-    <row r="524" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A524" s="16"/>
       <c r="B524" s="17"/>
       <c r="C524" s="17"/>
@@ -10729,7 +10728,7 @@
       <c r="K524" s="19"/>
       <c r="L524" s="20"/>
     </row>
-    <row r="525" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A525" s="16"/>
       <c r="B525" s="17"/>
       <c r="C525" s="17"/>
@@ -10740,7 +10739,7 @@
       <c r="K525" s="19"/>
       <c r="L525" s="20"/>
     </row>
-    <row r="526" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A526" s="16"/>
       <c r="B526" s="17"/>
       <c r="C526" s="17"/>
@@ -10751,7 +10750,7 @@
       <c r="K526" s="19"/>
       <c r="L526" s="20"/>
     </row>
-    <row r="527" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A527" s="16"/>
       <c r="B527" s="17"/>
       <c r="C527" s="17"/>
@@ -10762,7 +10761,7 @@
       <c r="K527" s="19"/>
       <c r="L527" s="20"/>
     </row>
-    <row r="528" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A528" s="16"/>
       <c r="B528" s="17"/>
       <c r="C528" s="17"/>
@@ -10773,7 +10772,7 @@
       <c r="K528" s="19"/>
       <c r="L528" s="20"/>
     </row>
-    <row r="529" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A529" s="16"/>
       <c r="B529" s="17"/>
       <c r="C529" s="17"/>
@@ -10784,7 +10783,7 @@
       <c r="K529" s="19"/>
       <c r="L529" s="20"/>
     </row>
-    <row r="530" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A530" s="16"/>
       <c r="B530" s="17"/>
       <c r="C530" s="17"/>
@@ -10795,7 +10794,7 @@
       <c r="K530" s="19"/>
       <c r="L530" s="20"/>
     </row>
-    <row r="531" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A531" s="16"/>
       <c r="B531" s="17"/>
       <c r="C531" s="17"/>
@@ -10806,7 +10805,7 @@
       <c r="K531" s="19"/>
       <c r="L531" s="20"/>
     </row>
-    <row r="532" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A532" s="16"/>
       <c r="B532" s="17"/>
       <c r="C532" s="17"/>
@@ -10817,7 +10816,7 @@
       <c r="K532" s="19"/>
       <c r="L532" s="20"/>
     </row>
-    <row r="533" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A533" s="16"/>
       <c r="B533" s="17"/>
       <c r="C533" s="17"/>
@@ -10828,7 +10827,7 @@
       <c r="K533" s="19"/>
       <c r="L533" s="20"/>
     </row>
-    <row r="534" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A534" s="16"/>
       <c r="B534" s="17"/>
       <c r="C534" s="17"/>
@@ -10839,7 +10838,7 @@
       <c r="K534" s="19"/>
       <c r="L534" s="20"/>
     </row>
-    <row r="535" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A535" s="16"/>
       <c r="B535" s="17"/>
       <c r="C535" s="17"/>
@@ -10850,7 +10849,7 @@
       <c r="K535" s="19"/>
       <c r="L535" s="20"/>
     </row>
-    <row r="536" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A536" s="16"/>
       <c r="B536" s="17"/>
       <c r="C536" s="17"/>
@@ -10861,7 +10860,7 @@
       <c r="K536" s="19"/>
       <c r="L536" s="20"/>
     </row>
-    <row r="537" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A537" s="16"/>
       <c r="B537" s="17"/>
       <c r="C537" s="17"/>
@@ -10872,7 +10871,7 @@
       <c r="K537" s="19"/>
       <c r="L537" s="20"/>
     </row>
-    <row r="538" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A538" s="16"/>
       <c r="B538" s="17"/>
       <c r="C538" s="17"/>
@@ -10883,7 +10882,7 @@
       <c r="K538" s="19"/>
       <c r="L538" s="20"/>
     </row>
-    <row r="539" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A539" s="16"/>
       <c r="B539" s="17"/>
       <c r="C539" s="17"/>
@@ -10894,7 +10893,7 @@
       <c r="K539" s="19"/>
       <c r="L539" s="20"/>
     </row>
-    <row r="540" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A540" s="16"/>
       <c r="B540" s="17"/>
       <c r="C540" s="17"/>
@@ -10905,7 +10904,7 @@
       <c r="K540" s="19"/>
       <c r="L540" s="20"/>
     </row>
-    <row r="541" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A541" s="16"/>
       <c r="B541" s="17"/>
       <c r="C541" s="17"/>
@@ -10916,7 +10915,7 @@
       <c r="K541" s="19"/>
       <c r="L541" s="20"/>
     </row>
-    <row r="542" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A542" s="16"/>
       <c r="B542" s="17"/>
       <c r="C542" s="17"/>
@@ -10927,7 +10926,7 @@
       <c r="K542" s="19"/>
       <c r="L542" s="20"/>
     </row>
-    <row r="543" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A543" s="16"/>
       <c r="B543" s="17"/>
       <c r="C543" s="17"/>
@@ -10938,7 +10937,7 @@
       <c r="K543" s="19"/>
       <c r="L543" s="20"/>
     </row>
-    <row r="544" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A544" s="16"/>
       <c r="B544" s="17"/>
       <c r="C544" s="17"/>
@@ -10949,7 +10948,7 @@
       <c r="K544" s="19"/>
       <c r="L544" s="20"/>
     </row>
-    <row r="545" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A545" s="16"/>
       <c r="B545" s="17"/>
       <c r="C545" s="17"/>
@@ -10960,7 +10959,7 @@
       <c r="K545" s="19"/>
       <c r="L545" s="20"/>
     </row>
-    <row r="546" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A546" s="16"/>
       <c r="B546" s="17"/>
       <c r="C546" s="17"/>
@@ -10971,7 +10970,7 @@
       <c r="K546" s="19"/>
       <c r="L546" s="20"/>
     </row>
-    <row r="547" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A547" s="16"/>
       <c r="B547" s="17"/>
       <c r="C547" s="17"/>
@@ -10982,7 +10981,7 @@
       <c r="K547" s="19"/>
       <c r="L547" s="20"/>
     </row>
-    <row r="548" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A548" s="16"/>
       <c r="B548" s="17"/>
       <c r="C548" s="17"/>
@@ -10993,7 +10992,7 @@
       <c r="K548" s="19"/>
       <c r="L548" s="20"/>
     </row>
-    <row r="549" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A549" s="16"/>
       <c r="B549" s="17"/>
       <c r="C549" s="17"/>
@@ -11004,7 +11003,7 @@
       <c r="K549" s="19"/>
       <c r="L549" s="20"/>
     </row>
-    <row r="550" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A550" s="16"/>
       <c r="B550" s="17"/>
       <c r="C550" s="17"/>
@@ -11015,7 +11014,7 @@
       <c r="K550" s="19"/>
       <c r="L550" s="20"/>
     </row>
-    <row r="551" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A551" s="16"/>
       <c r="B551" s="17"/>
       <c r="C551" s="17"/>
@@ -11026,7 +11025,7 @@
       <c r="K551" s="19"/>
       <c r="L551" s="20"/>
     </row>
-    <row r="552" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A552" s="16"/>
       <c r="B552" s="17"/>
       <c r="C552" s="17"/>
@@ -11037,7 +11036,7 @@
       <c r="K552" s="19"/>
       <c r="L552" s="20"/>
     </row>
-    <row r="553" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A553" s="16"/>
       <c r="B553" s="17"/>
       <c r="C553" s="17"/>
@@ -11048,7 +11047,7 @@
       <c r="K553" s="19"/>
       <c r="L553" s="20"/>
     </row>
-    <row r="554" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A554" s="16"/>
       <c r="B554" s="17"/>
       <c r="C554" s="17"/>
@@ -11059,7 +11058,7 @@
       <c r="K554" s="19"/>
       <c r="L554" s="20"/>
     </row>
-    <row r="555" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A555" s="16"/>
       <c r="B555" s="17"/>
       <c r="C555" s="17"/>
@@ -11070,7 +11069,7 @@
       <c r="K555" s="19"/>
       <c r="L555" s="20"/>
     </row>
-    <row r="556" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A556" s="16"/>
       <c r="B556" s="17"/>
       <c r="C556" s="17"/>
@@ -11081,7 +11080,7 @@
       <c r="K556" s="19"/>
       <c r="L556" s="20"/>
     </row>
-    <row r="557" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A557" s="16"/>
       <c r="B557" s="17"/>
       <c r="C557" s="17"/>
@@ -11092,7 +11091,7 @@
       <c r="K557" s="19"/>
       <c r="L557" s="20"/>
     </row>
-    <row r="558" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A558" s="16"/>
       <c r="B558" s="17"/>
       <c r="C558" s="17"/>
@@ -11103,7 +11102,7 @@
       <c r="K558" s="19"/>
       <c r="L558" s="20"/>
     </row>
-    <row r="559" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A559" s="16"/>
       <c r="B559" s="17"/>
       <c r="C559" s="17"/>
@@ -11114,7 +11113,7 @@
       <c r="K559" s="19"/>
       <c r="L559" s="20"/>
     </row>
-    <row r="560" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A560" s="16"/>
       <c r="B560" s="17"/>
       <c r="C560" s="17"/>
@@ -11125,7 +11124,7 @@
       <c r="K560" s="19"/>
       <c r="L560" s="20"/>
     </row>
-    <row r="561" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A561" s="16"/>
       <c r="B561" s="17"/>
       <c r="C561" s="17"/>
@@ -11136,7 +11135,7 @@
       <c r="K561" s="19"/>
       <c r="L561" s="20"/>
     </row>
-    <row r="562" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A562" s="16"/>
       <c r="B562" s="17"/>
       <c r="C562" s="17"/>
@@ -11147,7 +11146,7 @@
       <c r="K562" s="19"/>
       <c r="L562" s="20"/>
     </row>
-    <row r="563" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A563" s="16"/>
       <c r="B563" s="17"/>
       <c r="C563" s="17"/>
@@ -11158,7 +11157,7 @@
       <c r="K563" s="19"/>
       <c r="L563" s="20"/>
     </row>
-    <row r="564" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A564" s="16"/>
       <c r="B564" s="17"/>
       <c r="C564" s="17"/>
@@ -11169,7 +11168,7 @@
       <c r="K564" s="19"/>
       <c r="L564" s="20"/>
     </row>
-    <row r="565" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A565" s="16"/>
       <c r="B565" s="17"/>
       <c r="C565" s="17"/>
@@ -11180,7 +11179,7 @@
       <c r="K565" s="19"/>
       <c r="L565" s="20"/>
     </row>
-    <row r="566" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A566" s="16"/>
       <c r="B566" s="17"/>
       <c r="C566" s="17"/>
@@ -11191,7 +11190,7 @@
       <c r="K566" s="19"/>
       <c r="L566" s="20"/>
     </row>
-    <row r="567" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A567" s="16"/>
       <c r="B567" s="17"/>
       <c r="C567" s="17"/>
@@ -11202,7 +11201,7 @@
       <c r="K567" s="19"/>
       <c r="L567" s="20"/>
     </row>
-    <row r="568" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A568" s="16"/>
       <c r="B568" s="17"/>
       <c r="C568" s="17"/>
@@ -11213,7 +11212,7 @@
       <c r="K568" s="19"/>
       <c r="L568" s="20"/>
     </row>
-    <row r="569" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A569" s="16"/>
       <c r="B569" s="17"/>
       <c r="C569" s="17"/>
@@ -11224,7 +11223,7 @@
       <c r="K569" s="19"/>
       <c r="L569" s="20"/>
     </row>
-    <row r="570" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A570" s="16"/>
       <c r="B570" s="17"/>
       <c r="C570" s="17"/>
@@ -11235,7 +11234,7 @@
       <c r="K570" s="19"/>
       <c r="L570" s="20"/>
     </row>
-    <row r="571" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A571" s="16"/>
       <c r="B571" s="17"/>
       <c r="C571" s="17"/>
@@ -11246,7 +11245,7 @@
       <c r="K571" s="19"/>
       <c r="L571" s="20"/>
     </row>
-    <row r="572" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A572" s="16"/>
       <c r="B572" s="17"/>
       <c r="C572" s="17"/>
@@ -11257,7 +11256,7 @@
       <c r="K572" s="19"/>
       <c r="L572" s="20"/>
     </row>
-    <row r="573" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A573" s="16"/>
       <c r="B573" s="17"/>
       <c r="C573" s="17"/>
@@ -11268,7 +11267,7 @@
       <c r="K573" s="19"/>
       <c r="L573" s="20"/>
     </row>
-    <row r="574" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A574" s="16"/>
       <c r="B574" s="17"/>
       <c r="C574" s="17"/>
@@ -11279,7 +11278,7 @@
       <c r="K574" s="19"/>
       <c r="L574" s="20"/>
     </row>
-    <row r="575" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A575" s="16"/>
       <c r="B575" s="17"/>
       <c r="C575" s="17"/>
@@ -11290,7 +11289,7 @@
       <c r="K575" s="19"/>
       <c r="L575" s="20"/>
     </row>
-    <row r="576" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A576" s="16"/>
       <c r="B576" s="17"/>
       <c r="C576" s="17"/>
@@ -11301,7 +11300,7 @@
       <c r="K576" s="19"/>
       <c r="L576" s="20"/>
     </row>
-    <row r="577" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A577" s="16"/>
       <c r="B577" s="17"/>
       <c r="C577" s="17"/>
@@ -11312,7 +11311,7 @@
       <c r="K577" s="19"/>
       <c r="L577" s="20"/>
     </row>
-    <row r="578" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A578" s="16"/>
       <c r="B578" s="17"/>
       <c r="C578" s="17"/>
@@ -11323,7 +11322,7 @@
       <c r="K578" s="19"/>
       <c r="L578" s="20"/>
     </row>
-    <row r="579" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A579" s="16"/>
       <c r="B579" s="17"/>
       <c r="C579" s="17"/>
@@ -11334,7 +11333,7 @@
       <c r="K579" s="19"/>
       <c r="L579" s="20"/>
     </row>
-    <row r="580" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A580" s="16"/>
       <c r="B580" s="17"/>
       <c r="C580" s="17"/>
@@ -11345,7 +11344,7 @@
       <c r="K580" s="19"/>
       <c r="L580" s="20"/>
     </row>
-    <row r="581" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A581" s="16"/>
       <c r="B581" s="17"/>
       <c r="C581" s="17"/>
@@ -11356,7 +11355,7 @@
       <c r="K581" s="19"/>
       <c r="L581" s="20"/>
     </row>
-    <row r="582" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A582" s="16"/>
       <c r="B582" s="17"/>
       <c r="C582" s="17"/>
@@ -11367,7 +11366,7 @@
       <c r="K582" s="19"/>
       <c r="L582" s="20"/>
     </row>
-    <row r="583" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A583" s="16"/>
       <c r="B583" s="17"/>
       <c r="C583" s="17"/>
@@ -11378,7 +11377,7 @@
       <c r="K583" s="19"/>
       <c r="L583" s="20"/>
     </row>
-    <row r="584" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A584" s="16"/>
       <c r="B584" s="17"/>
       <c r="C584" s="17"/>
@@ -11389,7 +11388,7 @@
       <c r="K584" s="19"/>
       <c r="L584" s="20"/>
     </row>
-    <row r="585" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A585" s="16"/>
       <c r="B585" s="17"/>
       <c r="C585" s="17"/>
@@ -11400,7 +11399,7 @@
       <c r="K585" s="19"/>
       <c r="L585" s="20"/>
     </row>
-    <row r="586" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A586" s="16"/>
       <c r="B586" s="17"/>
       <c r="C586" s="17"/>
@@ -11411,7 +11410,7 @@
       <c r="K586" s="19"/>
       <c r="L586" s="20"/>
     </row>
-    <row r="587" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A587" s="16"/>
       <c r="B587" s="17"/>
       <c r="C587" s="17"/>
@@ -11422,7 +11421,7 @@
       <c r="K587" s="19"/>
       <c r="L587" s="20"/>
     </row>
-    <row r="588" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A588" s="16"/>
       <c r="B588" s="17"/>
       <c r="C588" s="17"/>
@@ -11433,7 +11432,7 @@
       <c r="K588" s="19"/>
       <c r="L588" s="20"/>
     </row>
-    <row r="589" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A589" s="16"/>
       <c r="B589" s="17"/>
       <c r="C589" s="17"/>
@@ -11444,7 +11443,7 @@
       <c r="K589" s="19"/>
       <c r="L589" s="20"/>
     </row>
-    <row r="590" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A590" s="16"/>
       <c r="B590" s="17"/>
       <c r="C590" s="17"/>
@@ -11455,7 +11454,7 @@
       <c r="K590" s="19"/>
       <c r="L590" s="20"/>
     </row>
-    <row r="591" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A591" s="16"/>
       <c r="B591" s="17"/>
       <c r="C591" s="17"/>
@@ -11466,7 +11465,7 @@
       <c r="K591" s="19"/>
       <c r="L591" s="20"/>
     </row>
-    <row r="592" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A592" s="16"/>
       <c r="B592" s="17"/>
       <c r="C592" s="17"/>
@@ -11477,7 +11476,7 @@
       <c r="K592" s="19"/>
       <c r="L592" s="20"/>
     </row>
-    <row r="593" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A593" s="16"/>
       <c r="B593" s="17"/>
       <c r="C593" s="17"/>
@@ -11488,7 +11487,7 @@
       <c r="K593" s="19"/>
       <c r="L593" s="20"/>
     </row>
-    <row r="594" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A594" s="16"/>
       <c r="B594" s="17"/>
       <c r="C594" s="17"/>
@@ -11499,7 +11498,7 @@
       <c r="K594" s="19"/>
       <c r="L594" s="20"/>
     </row>
-    <row r="595" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A595" s="16"/>
       <c r="B595" s="17"/>
       <c r="C595" s="17"/>
@@ -11510,7 +11509,7 @@
       <c r="K595" s="19"/>
       <c r="L595" s="20"/>
     </row>
-    <row r="596" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A596" s="16"/>
       <c r="B596" s="17"/>
       <c r="C596" s="17"/>
@@ -11521,7 +11520,7 @@
       <c r="K596" s="19"/>
       <c r="L596" s="20"/>
     </row>
-    <row r="597" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A597" s="16"/>
       <c r="B597" s="17"/>
       <c r="C597" s="17"/>
@@ -11532,7 +11531,7 @@
       <c r="K597" s="19"/>
       <c r="L597" s="20"/>
     </row>
-    <row r="598" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A598" s="16"/>
       <c r="B598" s="17"/>
       <c r="C598" s="17"/>
@@ -11543,7 +11542,7 @@
       <c r="K598" s="19"/>
       <c r="L598" s="20"/>
     </row>
-    <row r="599" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A599" s="16"/>
       <c r="B599" s="17"/>
       <c r="C599" s="17"/>
@@ -11554,7 +11553,7 @@
       <c r="K599" s="19"/>
       <c r="L599" s="20"/>
     </row>
-    <row r="600" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A600" s="16"/>
       <c r="B600" s="17"/>
       <c r="C600" s="17"/>
@@ -11565,7 +11564,7 @@
       <c r="K600" s="19"/>
       <c r="L600" s="20"/>
     </row>
-    <row r="601" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A601" s="16"/>
       <c r="B601" s="17"/>
       <c r="C601" s="17"/>
@@ -11576,7 +11575,7 @@
       <c r="K601" s="19"/>
       <c r="L601" s="20"/>
     </row>
-    <row r="602" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A602" s="16"/>
       <c r="B602" s="17"/>
       <c r="C602" s="17"/>
@@ -11587,7 +11586,7 @@
       <c r="K602" s="19"/>
       <c r="L602" s="20"/>
     </row>
-    <row r="603" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A603" s="16"/>
       <c r="B603" s="17"/>
       <c r="C603" s="17"/>
@@ -11598,7 +11597,7 @@
       <c r="K603" s="19"/>
       <c r="L603" s="20"/>
     </row>
-    <row r="604" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A604" s="16"/>
       <c r="B604" s="17"/>
       <c r="C604" s="17"/>
@@ -11609,7 +11608,7 @@
       <c r="K604" s="19"/>
       <c r="L604" s="20"/>
     </row>
-    <row r="605" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A605" s="16"/>
       <c r="B605" s="17"/>
       <c r="C605" s="17"/>
@@ -11620,7 +11619,7 @@
       <c r="K605" s="19"/>
       <c r="L605" s="20"/>
     </row>
-    <row r="606" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A606" s="16"/>
       <c r="B606" s="17"/>
       <c r="C606" s="17"/>
@@ -11631,7 +11630,7 @@
       <c r="K606" s="19"/>
       <c r="L606" s="20"/>
     </row>
-    <row r="607" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A607" s="16"/>
       <c r="B607" s="17"/>
       <c r="C607" s="17"/>
@@ -11642,7 +11641,7 @@
       <c r="K607" s="19"/>
       <c r="L607" s="20"/>
     </row>
-    <row r="608" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A608" s="16"/>
       <c r="B608" s="17"/>
       <c r="C608" s="17"/>
@@ -11653,7 +11652,7 @@
       <c r="K608" s="19"/>
       <c r="L608" s="20"/>
     </row>
-    <row r="609" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A609" s="16"/>
       <c r="B609" s="17"/>
       <c r="C609" s="17"/>
@@ -11664,7 +11663,7 @@
       <c r="K609" s="19"/>
       <c r="L609" s="20"/>
     </row>
-    <row r="610" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A610" s="16"/>
       <c r="B610" s="17"/>
       <c r="C610" s="17"/>
@@ -11675,7 +11674,7 @@
       <c r="K610" s="19"/>
       <c r="L610" s="20"/>
     </row>
-    <row r="611" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A611" s="16"/>
       <c r="B611" s="17"/>
       <c r="C611" s="17"/>
@@ -11686,7 +11685,7 @@
       <c r="K611" s="19"/>
       <c r="L611" s="20"/>
     </row>
-    <row r="612" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A612" s="16"/>
       <c r="B612" s="17"/>
       <c r="C612" s="17"/>
@@ -11697,7 +11696,7 @@
       <c r="K612" s="19"/>
       <c r="L612" s="20"/>
     </row>
-    <row r="613" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A613" s="16"/>
       <c r="B613" s="17"/>
       <c r="C613" s="17"/>
@@ -11708,7 +11707,7 @@
       <c r="K613" s="19"/>
       <c r="L613" s="20"/>
     </row>
-    <row r="614" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A614" s="16"/>
       <c r="B614" s="17"/>
       <c r="C614" s="17"/>
@@ -11719,7 +11718,7 @@
       <c r="K614" s="19"/>
       <c r="L614" s="20"/>
     </row>
-    <row r="615" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A615" s="16"/>
       <c r="B615" s="17"/>
       <c r="C615" s="17"/>
@@ -11730,7 +11729,7 @@
       <c r="K615" s="19"/>
       <c r="L615" s="20"/>
     </row>
-    <row r="616" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A616" s="16"/>
       <c r="B616" s="17"/>
       <c r="C616" s="17"/>
@@ -11741,7 +11740,7 @@
       <c r="K616" s="19"/>
       <c r="L616" s="20"/>
     </row>
-    <row r="617" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A617" s="16"/>
       <c r="B617" s="17"/>
       <c r="C617" s="17"/>
@@ -11752,7 +11751,7 @@
       <c r="K617" s="19"/>
       <c r="L617" s="20"/>
     </row>
-    <row r="618" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A618" s="16"/>
       <c r="B618" s="17"/>
       <c r="C618" s="17"/>
@@ -11763,7 +11762,7 @@
       <c r="K618" s="19"/>
       <c r="L618" s="20"/>
     </row>
-    <row r="619" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A619" s="16"/>
       <c r="B619" s="17"/>
       <c r="C619" s="17"/>
@@ -11774,7 +11773,7 @@
       <c r="K619" s="19"/>
       <c r="L619" s="20"/>
     </row>
-    <row r="620" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A620" s="16"/>
       <c r="B620" s="17"/>
       <c r="C620" s="17"/>
@@ -11785,7 +11784,7 @@
       <c r="K620" s="19"/>
       <c r="L620" s="20"/>
     </row>
-    <row r="621" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A621" s="16"/>
       <c r="B621" s="17"/>
       <c r="C621" s="17"/>
@@ -11796,7 +11795,7 @@
       <c r="K621" s="19"/>
       <c r="L621" s="20"/>
     </row>
-    <row r="622" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A622" s="16"/>
       <c r="B622" s="17"/>
       <c r="C622" s="17"/>
@@ -11807,7 +11806,7 @@
       <c r="K622" s="19"/>
       <c r="L622" s="20"/>
     </row>
-    <row r="623" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A623" s="16"/>
       <c r="B623" s="17"/>
       <c r="C623" s="17"/>
@@ -11818,7 +11817,7 @@
       <c r="K623" s="19"/>
       <c r="L623" s="20"/>
     </row>
-    <row r="624" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A624" s="16"/>
       <c r="B624" s="17"/>
       <c r="C624" s="17"/>
@@ -11829,7 +11828,7 @@
       <c r="K624" s="19"/>
       <c r="L624" s="20"/>
     </row>
-    <row r="625" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A625" s="16"/>
       <c r="B625" s="17"/>
       <c r="C625" s="17"/>
@@ -11840,7 +11839,7 @@
       <c r="K625" s="19"/>
       <c r="L625" s="20"/>
     </row>
-    <row r="626" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A626" s="16"/>
       <c r="B626" s="17"/>
       <c r="C626" s="17"/>
@@ -11851,7 +11850,7 @@
       <c r="K626" s="19"/>
       <c r="L626" s="20"/>
     </row>
-    <row r="627" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A627" s="16"/>
       <c r="B627" s="17"/>
       <c r="C627" s="17"/>
@@ -11862,7 +11861,7 @@
       <c r="K627" s="19"/>
       <c r="L627" s="20"/>
     </row>
-    <row r="628" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A628" s="16"/>
       <c r="B628" s="17"/>
       <c r="C628" s="17"/>
@@ -11873,7 +11872,7 @@
       <c r="K628" s="19"/>
       <c r="L628" s="20"/>
     </row>
-    <row r="629" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A629" s="16"/>
       <c r="B629" s="17"/>
       <c r="C629" s="17"/>
@@ -11884,7 +11883,7 @@
       <c r="K629" s="19"/>
       <c r="L629" s="20"/>
     </row>
-    <row r="630" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A630" s="16"/>
       <c r="B630" s="17"/>
       <c r="C630" s="17"/>
@@ -11895,7 +11894,7 @@
       <c r="K630" s="19"/>
       <c r="L630" s="20"/>
     </row>
-    <row r="631" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A631" s="16"/>
       <c r="B631" s="17"/>
       <c r="C631" s="17"/>
@@ -11906,7 +11905,7 @@
       <c r="K631" s="19"/>
       <c r="L631" s="20"/>
     </row>
-    <row r="632" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A632" s="16"/>
       <c r="B632" s="17"/>
       <c r="C632" s="17"/>
@@ -11917,7 +11916,7 @@
       <c r="K632" s="19"/>
       <c r="L632" s="20"/>
     </row>
-    <row r="633" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A633" s="16"/>
       <c r="B633" s="17"/>
       <c r="C633" s="17"/>
@@ -11928,7 +11927,7 @@
       <c r="K633" s="19"/>
       <c r="L633" s="20"/>
     </row>
-    <row r="634" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A634" s="16"/>
       <c r="B634" s="17"/>
       <c r="C634" s="17"/>
@@ -11939,7 +11938,7 @@
       <c r="K634" s="19"/>
       <c r="L634" s="20"/>
     </row>
-    <row r="635" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A635" s="16"/>
       <c r="B635" s="17"/>
       <c r="C635" s="17"/>
@@ -11950,7 +11949,7 @@
       <c r="K635" s="19"/>
       <c r="L635" s="20"/>
     </row>
-    <row r="636" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A636" s="16"/>
       <c r="B636" s="17"/>
       <c r="C636" s="17"/>
@@ -11961,7 +11960,7 @@
       <c r="K636" s="19"/>
       <c r="L636" s="20"/>
     </row>
-    <row r="637" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A637" s="16"/>
       <c r="B637" s="17"/>
       <c r="C637" s="17"/>
@@ -11972,7 +11971,7 @@
       <c r="K637" s="19"/>
       <c r="L637" s="20"/>
     </row>
-    <row r="638" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A638" s="16"/>
       <c r="B638" s="17"/>
       <c r="C638" s="17"/>
@@ -11983,7 +11982,7 @@
       <c r="K638" s="19"/>
       <c r="L638" s="20"/>
     </row>
-    <row r="639" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A639" s="16"/>
       <c r="B639" s="17"/>
       <c r="C639" s="17"/>
@@ -11994,7 +11993,7 @@
       <c r="K639" s="19"/>
       <c r="L639" s="20"/>
     </row>
-    <row r="640" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A640" s="16"/>
       <c r="B640" s="17"/>
       <c r="C640" s="17"/>
@@ -12005,7 +12004,7 @@
       <c r="K640" s="19"/>
       <c r="L640" s="20"/>
     </row>
-    <row r="641" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A641" s="16"/>
       <c r="B641" s="17"/>
       <c r="C641" s="17"/>
@@ -12016,7 +12015,7 @@
       <c r="K641" s="19"/>
       <c r="L641" s="20"/>
     </row>
-    <row r="642" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A642" s="16"/>
       <c r="B642" s="17"/>
       <c r="C642" s="17"/>
@@ -12027,7 +12026,7 @@
       <c r="K642" s="19"/>
       <c r="L642" s="20"/>
     </row>
-    <row r="643" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A643" s="16"/>
       <c r="B643" s="17"/>
       <c r="C643" s="17"/>
@@ -12038,7 +12037,7 @@
       <c r="K643" s="19"/>
       <c r="L643" s="20"/>
     </row>
-    <row r="644" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A644" s="16"/>
       <c r="B644" s="17"/>
       <c r="C644" s="17"/>
@@ -12049,7 +12048,7 @@
       <c r="K644" s="19"/>
       <c r="L644" s="20"/>
     </row>
-    <row r="645" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A645" s="16"/>
       <c r="B645" s="17"/>
       <c r="C645" s="17"/>
@@ -12060,7 +12059,7 @@
       <c r="K645" s="19"/>
       <c r="L645" s="20"/>
     </row>
-    <row r="646" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A646" s="16"/>
       <c r="B646" s="17"/>
       <c r="C646" s="17"/>
@@ -12071,7 +12070,7 @@
       <c r="K646" s="19"/>
       <c r="L646" s="20"/>
     </row>
-    <row r="647" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A647" s="16"/>
       <c r="B647" s="17"/>
       <c r="C647" s="17"/>
@@ -12082,7 +12081,7 @@
       <c r="K647" s="19"/>
       <c r="L647" s="20"/>
     </row>
-    <row r="648" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A648" s="16"/>
       <c r="B648" s="17"/>
       <c r="C648" s="17"/>
@@ -12093,7 +12092,7 @@
       <c r="K648" s="19"/>
       <c r="L648" s="20"/>
     </row>
-    <row r="649" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A649" s="16"/>
       <c r="B649" s="17"/>
       <c r="C649" s="17"/>
@@ -12104,7 +12103,7 @@
       <c r="K649" s="19"/>
       <c r="L649" s="20"/>
     </row>
-    <row r="650" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A650" s="16"/>
       <c r="B650" s="17"/>
       <c r="C650" s="17"/>
@@ -12115,7 +12114,7 @@
       <c r="K650" s="19"/>
       <c r="L650" s="20"/>
     </row>
-    <row r="651" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A651" s="16"/>
       <c r="B651" s="17"/>
       <c r="C651" s="17"/>
@@ -12126,7 +12125,7 @@
       <c r="K651" s="19"/>
       <c r="L651" s="20"/>
     </row>
-    <row r="652" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A652" s="16"/>
       <c r="B652" s="17"/>
       <c r="C652" s="17"/>
@@ -12137,7 +12136,7 @@
       <c r="K652" s="19"/>
       <c r="L652" s="20"/>
     </row>
-    <row r="653" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A653" s="16"/>
       <c r="B653" s="17"/>
       <c r="C653" s="17"/>
@@ -12148,7 +12147,7 @@
       <c r="K653" s="19"/>
       <c r="L653" s="20"/>
     </row>
-    <row r="654" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A654" s="16"/>
       <c r="B654" s="17"/>
       <c r="C654" s="17"/>
@@ -12159,7 +12158,7 @@
       <c r="K654" s="19"/>
       <c r="L654" s="20"/>
     </row>
-    <row r="655" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A655" s="16"/>
       <c r="B655" s="17"/>
       <c r="C655" s="17"/>
@@ -12170,7 +12169,7 @@
       <c r="K655" s="19"/>
       <c r="L655" s="20"/>
     </row>
-    <row r="656" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A656" s="16"/>
       <c r="B656" s="17"/>
       <c r="C656" s="17"/>
@@ -12181,7 +12180,7 @@
       <c r="K656" s="19"/>
       <c r="L656" s="20"/>
     </row>
-    <row r="657" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A657" s="16"/>
       <c r="B657" s="17"/>
       <c r="C657" s="17"/>
@@ -12192,7 +12191,7 @@
       <c r="K657" s="19"/>
       <c r="L657" s="20"/>
     </row>
-    <row r="658" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A658" s="16"/>
       <c r="B658" s="17"/>
       <c r="C658" s="17"/>
@@ -12203,7 +12202,7 @@
       <c r="K658" s="19"/>
       <c r="L658" s="20"/>
     </row>
-    <row r="659" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A659" s="16"/>
       <c r="B659" s="17"/>
       <c r="C659" s="17"/>
@@ -12214,7 +12213,7 @@
       <c r="K659" s="19"/>
       <c r="L659" s="20"/>
     </row>
-    <row r="660" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A660" s="16"/>
       <c r="B660" s="17"/>
       <c r="C660" s="17"/>
@@ -12225,7 +12224,7 @@
       <c r="K660" s="19"/>
       <c r="L660" s="20"/>
     </row>
-    <row r="661" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A661" s="16"/>
       <c r="B661" s="17"/>
       <c r="C661" s="17"/>
@@ -12236,7 +12235,7 @@
       <c r="K661" s="19"/>
       <c r="L661" s="20"/>
     </row>
-    <row r="662" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A662" s="16"/>
       <c r="B662" s="17"/>
       <c r="C662" s="17"/>
@@ -12247,7 +12246,7 @@
       <c r="K662" s="19"/>
       <c r="L662" s="20"/>
     </row>
-    <row r="663" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A663" s="16"/>
       <c r="B663" s="17"/>
       <c r="C663" s="17"/>
@@ -12258,7 +12257,7 @@
       <c r="K663" s="19"/>
       <c r="L663" s="20"/>
     </row>
-    <row r="664" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A664" s="16"/>
       <c r="B664" s="17"/>
       <c r="C664" s="17"/>
@@ -12269,7 +12268,7 @@
       <c r="K664" s="19"/>
       <c r="L664" s="20"/>
     </row>
-    <row r="665" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A665" s="16"/>
       <c r="B665" s="17"/>
       <c r="C665" s="17"/>
@@ -12280,7 +12279,7 @@
       <c r="K665" s="19"/>
       <c r="L665" s="20"/>
     </row>
-    <row r="666" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A666" s="16"/>
       <c r="B666" s="17"/>
       <c r="C666" s="17"/>
@@ -12291,7 +12290,7 @@
       <c r="K666" s="19"/>
       <c r="L666" s="20"/>
     </row>
-    <row r="667" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A667" s="16"/>
       <c r="B667" s="17"/>
       <c r="C667" s="17"/>
@@ -12302,7 +12301,7 @@
       <c r="K667" s="19"/>
       <c r="L667" s="20"/>
     </row>
-    <row r="668" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A668" s="16"/>
       <c r="B668" s="17"/>
       <c r="C668" s="17"/>
@@ -12313,7 +12312,7 @@
       <c r="K668" s="19"/>
       <c r="L668" s="20"/>
     </row>
-    <row r="669" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A669" s="16"/>
       <c r="B669" s="17"/>
       <c r="C669" s="17"/>
@@ -12324,7 +12323,7 @@
       <c r="K669" s="19"/>
       <c r="L669" s="20"/>
     </row>
-    <row r="670" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A670" s="16"/>
       <c r="B670" s="17"/>
       <c r="C670" s="17"/>
@@ -12335,7 +12334,7 @@
       <c r="K670" s="19"/>
       <c r="L670" s="20"/>
     </row>
-    <row r="671" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A671" s="16"/>
       <c r="B671" s="17"/>
       <c r="C671" s="17"/>
@@ -12346,7 +12345,7 @@
       <c r="K671" s="19"/>
       <c r="L671" s="20"/>
     </row>
-    <row r="672" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A672" s="16"/>
       <c r="B672" s="17"/>
       <c r="C672" s="17"/>
@@ -12357,7 +12356,7 @@
       <c r="K672" s="19"/>
       <c r="L672" s="20"/>
     </row>
-    <row r="673" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A673" s="16"/>
       <c r="B673" s="17"/>
       <c r="C673" s="17"/>
@@ -12368,7 +12367,7 @@
       <c r="K673" s="19"/>
       <c r="L673" s="20"/>
     </row>
-    <row r="674" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A674" s="16"/>
       <c r="B674" s="17"/>
       <c r="C674" s="17"/>
@@ -12379,7 +12378,7 @@
       <c r="K674" s="19"/>
       <c r="L674" s="20"/>
     </row>
-    <row r="675" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A675" s="16"/>
       <c r="B675" s="17"/>
       <c r="C675" s="17"/>
@@ -12390,7 +12389,7 @@
       <c r="K675" s="19"/>
       <c r="L675" s="20"/>
     </row>
-    <row r="676" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A676" s="16"/>
       <c r="B676" s="17"/>
       <c r="C676" s="17"/>
@@ -12401,7 +12400,7 @@
       <c r="K676" s="19"/>
       <c r="L676" s="20"/>
     </row>
-    <row r="677" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A677" s="16"/>
       <c r="B677" s="17"/>
       <c r="C677" s="17"/>
@@ -12412,7 +12411,7 @@
       <c r="K677" s="19"/>
       <c r="L677" s="20"/>
     </row>
-    <row r="678" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A678" s="16"/>
       <c r="B678" s="17"/>
       <c r="C678" s="17"/>
@@ -12423,7 +12422,7 @@
       <c r="K678" s="19"/>
       <c r="L678" s="20"/>
     </row>
-    <row r="679" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A679" s="16"/>
       <c r="B679" s="17"/>
       <c r="C679" s="17"/>
@@ -12434,7 +12433,7 @@
       <c r="K679" s="19"/>
       <c r="L679" s="20"/>
     </row>
-    <row r="680" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A680" s="16"/>
       <c r="B680" s="17"/>
       <c r="C680" s="17"/>
@@ -12445,7 +12444,7 @@
       <c r="K680" s="19"/>
       <c r="L680" s="20"/>
     </row>
-    <row r="681" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A681" s="16"/>
       <c r="B681" s="17"/>
       <c r="C681" s="17"/>
@@ -12456,7 +12455,7 @@
       <c r="K681" s="19"/>
       <c r="L681" s="20"/>
     </row>
-    <row r="682" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A682" s="16"/>
       <c r="B682" s="17"/>
       <c r="C682" s="17"/>
@@ -12467,7 +12466,7 @@
       <c r="K682" s="19"/>
       <c r="L682" s="20"/>
     </row>
-    <row r="683" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A683" s="16"/>
       <c r="B683" s="17"/>
       <c r="C683" s="17"/>
@@ -12478,7 +12477,7 @@
       <c r="K683" s="19"/>
       <c r="L683" s="20"/>
     </row>
-    <row r="684" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A684" s="16"/>
       <c r="B684" s="17"/>
       <c r="C684" s="17"/>
@@ -12489,7 +12488,7 @@
       <c r="K684" s="19"/>
       <c r="L684" s="20"/>
     </row>
-    <row r="685" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A685" s="16"/>
       <c r="B685" s="17"/>
       <c r="C685" s="17"/>
@@ -12500,7 +12499,7 @@
       <c r="K685" s="19"/>
       <c r="L685" s="20"/>
     </row>
-    <row r="686" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A686" s="16"/>
       <c r="B686" s="17"/>
       <c r="C686" s="17"/>
@@ -12511,7 +12510,7 @@
       <c r="K686" s="19"/>
       <c r="L686" s="20"/>
     </row>
-    <row r="687" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A687" s="16"/>
       <c r="B687" s="17"/>
       <c r="C687" s="17"/>
@@ -12522,7 +12521,7 @@
       <c r="K687" s="19"/>
       <c r="L687" s="20"/>
     </row>
-    <row r="688" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A688" s="16"/>
       <c r="B688" s="17"/>
       <c r="C688" s="17"/>
@@ -12533,7 +12532,7 @@
       <c r="K688" s="19"/>
       <c r="L688" s="20"/>
     </row>
-    <row r="689" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A689" s="16"/>
       <c r="B689" s="17"/>
       <c r="C689" s="17"/>
@@ -12544,7 +12543,7 @@
       <c r="K689" s="19"/>
       <c r="L689" s="20"/>
     </row>
-    <row r="690" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A690" s="16"/>
       <c r="B690" s="17"/>
       <c r="C690" s="17"/>
@@ -12555,7 +12554,7 @@
       <c r="K690" s="19"/>
       <c r="L690" s="20"/>
     </row>
-    <row r="691" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A691" s="16"/>
       <c r="B691" s="17"/>
       <c r="C691" s="17"/>
@@ -12566,7 +12565,7 @@
       <c r="K691" s="19"/>
       <c r="L691" s="20"/>
     </row>
-    <row r="692" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A692" s="16"/>
       <c r="B692" s="17"/>
       <c r="C692" s="17"/>
@@ -12577,7 +12576,7 @@
       <c r="K692" s="19"/>
       <c r="L692" s="20"/>
     </row>
-    <row r="693" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A693" s="16"/>
       <c r="B693" s="17"/>
       <c r="C693" s="17"/>
@@ -12588,7 +12587,7 @@
       <c r="K693" s="19"/>
       <c r="L693" s="20"/>
     </row>
-    <row r="694" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A694" s="16"/>
       <c r="B694" s="17"/>
       <c r="C694" s="17"/>
@@ -12599,7 +12598,7 @@
       <c r="K694" s="19"/>
       <c r="L694" s="20"/>
     </row>
-    <row r="695" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A695" s="16"/>
       <c r="B695" s="17"/>
       <c r="C695" s="17"/>
@@ -12610,7 +12609,7 @@
       <c r="K695" s="19"/>
       <c r="L695" s="20"/>
     </row>
-    <row r="696" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A696" s="16"/>
       <c r="B696" s="17"/>
       <c r="C696" s="17"/>
@@ -12621,7 +12620,7 @@
       <c r="K696" s="19"/>
       <c r="L696" s="20"/>
     </row>
-    <row r="697" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A697" s="16"/>
       <c r="B697" s="17"/>
       <c r="C697" s="17"/>
@@ -12632,7 +12631,7 @@
       <c r="K697" s="19"/>
       <c r="L697" s="20"/>
     </row>
-    <row r="698" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A698" s="16"/>
       <c r="B698" s="17"/>
       <c r="C698" s="17"/>
@@ -12643,7 +12642,7 @@
       <c r="K698" s="19"/>
       <c r="L698" s="20"/>
     </row>
-    <row r="699" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A699" s="16"/>
       <c r="B699" s="17"/>
       <c r="C699" s="17"/>
@@ -12654,7 +12653,7 @@
       <c r="K699" s="19"/>
       <c r="L699" s="20"/>
     </row>
-    <row r="700" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A700" s="16"/>
       <c r="B700" s="17"/>
       <c r="C700" s="17"/>
@@ -12665,7 +12664,7 @@
       <c r="K700" s="19"/>
       <c r="L700" s="20"/>
     </row>
-    <row r="701" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A701" s="16"/>
       <c r="B701" s="17"/>
       <c r="C701" s="17"/>
@@ -12676,7 +12675,7 @@
       <c r="K701" s="19"/>
       <c r="L701" s="20"/>
     </row>
-    <row r="702" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A702" s="16"/>
       <c r="B702" s="17"/>
       <c r="C702" s="17"/>
@@ -12687,7 +12686,7 @@
       <c r="K702" s="19"/>
       <c r="L702" s="20"/>
     </row>
-    <row r="703" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A703" s="16"/>
       <c r="B703" s="17"/>
       <c r="C703" s="17"/>
@@ -12698,7 +12697,7 @@
       <c r="K703" s="19"/>
       <c r="L703" s="20"/>
     </row>
-    <row r="704" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A704" s="16"/>
       <c r="B704" s="17"/>
       <c r="C704" s="17"/>
@@ -12709,7 +12708,7 @@
       <c r="K704" s="19"/>
       <c r="L704" s="20"/>
     </row>
-    <row r="705" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A705" s="16"/>
       <c r="B705" s="17"/>
       <c r="C705" s="17"/>
@@ -12720,7 +12719,7 @@
       <c r="K705" s="19"/>
       <c r="L705" s="20"/>
     </row>
-    <row r="706" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A706" s="16"/>
       <c r="B706" s="17"/>
       <c r="C706" s="17"/>
@@ -12731,7 +12730,7 @@
       <c r="K706" s="19"/>
       <c r="L706" s="20"/>
     </row>
-    <row r="707" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A707" s="16"/>
       <c r="B707" s="17"/>
       <c r="C707" s="17"/>
@@ -12742,7 +12741,7 @@
       <c r="K707" s="19"/>
       <c r="L707" s="20"/>
     </row>
-    <row r="708" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A708" s="16"/>
       <c r="B708" s="17"/>
       <c r="C708" s="17"/>
@@ -12753,7 +12752,7 @@
       <c r="K708" s="19"/>
       <c r="L708" s="20"/>
     </row>
-    <row r="709" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A709" s="16"/>
       <c r="B709" s="17"/>
       <c r="C709" s="17"/>
@@ -12764,7 +12763,7 @@
       <c r="K709" s="19"/>
       <c r="L709" s="20"/>
     </row>
-    <row r="710" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A710" s="16"/>
       <c r="B710" s="17"/>
       <c r="C710" s="17"/>
@@ -12775,7 +12774,7 @@
       <c r="K710" s="19"/>
       <c r="L710" s="20"/>
     </row>
-    <row r="711" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A711" s="16"/>
       <c r="B711" s="17"/>
       <c r="C711" s="17"/>
@@ -12786,7 +12785,7 @@
       <c r="K711" s="19"/>
       <c r="L711" s="20"/>
     </row>
-    <row r="712" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A712" s="16"/>
       <c r="B712" s="17"/>
       <c r="C712" s="17"/>
@@ -12797,7 +12796,7 @@
       <c r="K712" s="19"/>
       <c r="L712" s="20"/>
     </row>
-    <row r="713" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A713" s="16"/>
       <c r="B713" s="17"/>
       <c r="C713" s="17"/>
@@ -12808,7 +12807,7 @@
       <c r="K713" s="19"/>
       <c r="L713" s="20"/>
     </row>
-    <row r="714" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A714" s="16"/>
       <c r="B714" s="17"/>
       <c r="C714" s="17"/>
@@ -12819,7 +12818,7 @@
       <c r="K714" s="19"/>
       <c r="L714" s="20"/>
     </row>
-    <row r="715" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A715" s="16"/>
       <c r="B715" s="17"/>
       <c r="C715" s="17"/>
@@ -12830,7 +12829,7 @@
       <c r="K715" s="19"/>
       <c r="L715" s="20"/>
     </row>
-    <row r="716" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A716" s="16"/>
       <c r="B716" s="17"/>
       <c r="C716" s="17"/>
@@ -12841,7 +12840,7 @@
       <c r="K716" s="19"/>
       <c r="L716" s="20"/>
     </row>
-    <row r="717" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A717" s="16"/>
       <c r="B717" s="17"/>
       <c r="C717" s="17"/>
@@ -12852,7 +12851,7 @@
       <c r="K717" s="19"/>
       <c r="L717" s="20"/>
     </row>
-    <row r="718" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A718" s="16"/>
       <c r="B718" s="17"/>
       <c r="C718" s="17"/>
@@ -12863,7 +12862,7 @@
       <c r="K718" s="19"/>
       <c r="L718" s="20"/>
     </row>
-    <row r="719" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A719" s="16"/>
       <c r="B719" s="17"/>
       <c r="C719" s="17"/>
@@ -12874,7 +12873,7 @@
       <c r="K719" s="19"/>
       <c r="L719" s="20"/>
     </row>
-    <row r="720" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A720" s="16"/>
       <c r="B720" s="17"/>
       <c r="C720" s="17"/>
@@ -12885,7 +12884,7 @@
       <c r="K720" s="19"/>
       <c r="L720" s="20"/>
     </row>
-    <row r="721" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A721" s="16"/>
       <c r="B721" s="17"/>
       <c r="C721" s="17"/>
@@ -12896,7 +12895,7 @@
       <c r="K721" s="19"/>
       <c r="L721" s="20"/>
     </row>
-    <row r="722" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A722" s="16"/>
       <c r="B722" s="17"/>
       <c r="C722" s="17"/>
@@ -12907,7 +12906,7 @@
       <c r="K722" s="19"/>
       <c r="L722" s="20"/>
     </row>
-    <row r="723" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A723" s="16"/>
       <c r="B723" s="17"/>
       <c r="C723" s="17"/>
@@ -12918,7 +12917,7 @@
       <c r="K723" s="19"/>
       <c r="L723" s="20"/>
     </row>
-    <row r="724" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A724" s="16"/>
       <c r="B724" s="17"/>
       <c r="C724" s="17"/>
@@ -12929,7 +12928,7 @@
       <c r="K724" s="19"/>
       <c r="L724" s="20"/>
     </row>
-    <row r="725" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A725" s="16"/>
       <c r="B725" s="17"/>
       <c r="C725" s="17"/>
@@ -12940,7 +12939,7 @@
       <c r="K725" s="19"/>
       <c r="L725" s="20"/>
     </row>
-    <row r="726" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A726" s="16"/>
       <c r="B726" s="17"/>
       <c r="C726" s="17"/>
@@ -12951,7 +12950,7 @@
       <c r="K726" s="19"/>
       <c r="L726" s="20"/>
     </row>
-    <row r="727" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A727" s="16"/>
       <c r="B727" s="17"/>
       <c r="C727" s="17"/>
@@ -12962,7 +12961,7 @@
       <c r="K727" s="19"/>
       <c r="L727" s="20"/>
     </row>
-    <row r="728" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A728" s="16"/>
       <c r="B728" s="17"/>
       <c r="C728" s="17"/>
@@ -12973,7 +12972,7 @@
       <c r="K728" s="19"/>
       <c r="L728" s="20"/>
     </row>
-    <row r="729" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A729" s="16"/>
       <c r="B729" s="17"/>
       <c r="C729" s="17"/>
@@ -12984,7 +12983,7 @@
       <c r="K729" s="19"/>
       <c r="L729" s="20"/>
     </row>
-    <row r="730" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A730" s="16"/>
       <c r="B730" s="17"/>
       <c r="C730" s="17"/>
@@ -12995,7 +12994,7 @@
       <c r="K730" s="19"/>
       <c r="L730" s="20"/>
     </row>
-    <row r="731" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A731" s="16"/>
       <c r="B731" s="17"/>
       <c r="C731" s="17"/>
@@ -13006,7 +13005,7 @@
       <c r="K731" s="19"/>
       <c r="L731" s="20"/>
     </row>
-    <row r="732" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A732" s="16"/>
       <c r="B732" s="17"/>
       <c r="C732" s="17"/>
@@ -13017,7 +13016,7 @@
       <c r="K732" s="19"/>
       <c r="L732" s="20"/>
     </row>
-    <row r="733" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A733" s="16"/>
       <c r="B733" s="17"/>
       <c r="C733" s="17"/>
@@ -13028,7 +13027,7 @@
       <c r="K733" s="19"/>
       <c r="L733" s="20"/>
     </row>
-    <row r="734" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A734" s="16"/>
       <c r="B734" s="17"/>
       <c r="C734" s="17"/>
@@ -13039,7 +13038,7 @@
       <c r="K734" s="19"/>
       <c r="L734" s="20"/>
     </row>
-    <row r="735" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A735" s="16"/>
       <c r="B735" s="17"/>
       <c r="C735" s="17"/>
@@ -13050,7 +13049,7 @@
       <c r="K735" s="19"/>
       <c r="L735" s="20"/>
     </row>
-    <row r="736" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A736" s="16"/>
       <c r="B736" s="17"/>
       <c r="C736" s="17"/>
@@ -13061,7 +13060,7 @@
       <c r="K736" s="19"/>
       <c r="L736" s="20"/>
     </row>
-    <row r="737" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A737" s="16"/>
       <c r="B737" s="17"/>
       <c r="C737" s="17"/>
@@ -13072,7 +13071,7 @@
       <c r="K737" s="19"/>
       <c r="L737" s="20"/>
     </row>
-    <row r="738" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A738" s="16"/>
       <c r="B738" s="17"/>
       <c r="C738" s="17"/>
@@ -13083,7 +13082,7 @@
       <c r="K738" s="19"/>
       <c r="L738" s="20"/>
     </row>
-    <row r="739" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A739" s="16"/>
       <c r="B739" s="17"/>
       <c r="C739" s="17"/>
@@ -13094,7 +13093,7 @@
       <c r="K739" s="19"/>
       <c r="L739" s="20"/>
     </row>
-    <row r="740" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A740" s="16"/>
       <c r="B740" s="17"/>
       <c r="C740" s="17"/>
@@ -13105,7 +13104,7 @@
       <c r="K740" s="19"/>
       <c r="L740" s="20"/>
     </row>
-    <row r="741" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A741" s="16"/>
       <c r="B741" s="17"/>
       <c r="C741" s="17"/>
@@ -13116,7 +13115,7 @@
       <c r="K741" s="19"/>
       <c r="L741" s="20"/>
     </row>
-    <row r="742" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A742" s="16"/>
       <c r="B742" s="17"/>
       <c r="C742" s="17"/>
@@ -13127,7 +13126,7 @@
       <c r="K742" s="19"/>
       <c r="L742" s="20"/>
     </row>
-    <row r="743" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A743" s="16"/>
       <c r="B743" s="17"/>
       <c r="C743" s="17"/>
@@ -13138,7 +13137,7 @@
       <c r="K743" s="19"/>
       <c r="L743" s="20"/>
     </row>
-    <row r="744" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A744" s="16"/>
       <c r="B744" s="17"/>
       <c r="C744" s="17"/>
@@ -13149,7 +13148,7 @@
       <c r="K744" s="19"/>
       <c r="L744" s="20"/>
     </row>
-    <row r="745" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A745" s="16"/>
       <c r="B745" s="17"/>
       <c r="C745" s="17"/>
@@ -13160,7 +13159,7 @@
       <c r="K745" s="19"/>
       <c r="L745" s="20"/>
     </row>
-    <row r="746" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A746" s="16"/>
       <c r="B746" s="17"/>
       <c r="C746" s="17"/>
@@ -13171,7 +13170,7 @@
       <c r="K746" s="19"/>
       <c r="L746" s="20"/>
     </row>
-    <row r="747" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A747" s="16"/>
       <c r="B747" s="17"/>
       <c r="C747" s="17"/>
@@ -13182,7 +13181,7 @@
       <c r="K747" s="19"/>
       <c r="L747" s="20"/>
     </row>
-    <row r="748" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A748" s="16"/>
       <c r="B748" s="17"/>
       <c r="C748" s="17"/>
@@ -13193,7 +13192,7 @@
       <c r="K748" s="19"/>
       <c r="L748" s="20"/>
     </row>
-    <row r="749" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A749" s="16"/>
       <c r="B749" s="17"/>
       <c r="C749" s="17"/>
@@ -13204,7 +13203,7 @@
       <c r="K749" s="19"/>
       <c r="L749" s="20"/>
     </row>
-    <row r="750" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A750" s="16"/>
       <c r="B750" s="17"/>
       <c r="C750" s="17"/>
@@ -13215,7 +13214,7 @@
       <c r="K750" s="19"/>
       <c r="L750" s="20"/>
     </row>
-    <row r="751" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A751" s="16"/>
       <c r="B751" s="17"/>
       <c r="C751" s="17"/>
@@ -13226,7 +13225,7 @@
       <c r="K751" s="19"/>
       <c r="L751" s="20"/>
     </row>
-    <row r="752" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A752" s="16"/>
       <c r="B752" s="17"/>
       <c r="C752" s="17"/>
@@ -13237,7 +13236,7 @@
       <c r="K752" s="19"/>
       <c r="L752" s="20"/>
     </row>
-    <row r="753" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A753" s="16"/>
       <c r="B753" s="17"/>
       <c r="C753" s="17"/>
@@ -13248,7 +13247,7 @@
       <c r="K753" s="19"/>
       <c r="L753" s="20"/>
     </row>
-    <row r="754" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A754" s="16"/>
       <c r="B754" s="17"/>
       <c r="C754" s="17"/>
@@ -13259,7 +13258,7 @@
       <c r="K754" s="19"/>
       <c r="L754" s="20"/>
     </row>
-    <row r="755" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A755" s="16"/>
       <c r="B755" s="17"/>
       <c r="C755" s="17"/>
@@ -13270,7 +13269,7 @@
       <c r="K755" s="19"/>
       <c r="L755" s="20"/>
     </row>
-    <row r="756" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A756" s="16"/>
       <c r="B756" s="17"/>
       <c r="C756" s="17"/>
@@ -13281,7 +13280,7 @@
       <c r="K756" s="19"/>
       <c r="L756" s="20"/>
     </row>
-    <row r="757" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A757" s="16"/>
       <c r="B757" s="17"/>
       <c r="C757" s="17"/>
@@ -13292,7 +13291,7 @@
       <c r="K757" s="19"/>
       <c r="L757" s="20"/>
     </row>
-    <row r="758" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A758" s="16"/>
       <c r="B758" s="17"/>
       <c r="C758" s="17"/>
@@ -13303,7 +13302,7 @@
       <c r="K758" s="19"/>
       <c r="L758" s="20"/>
     </row>
-    <row r="759" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A759" s="16"/>
       <c r="B759" s="17"/>
       <c r="C759" s="17"/>
@@ -13314,7 +13313,7 @@
       <c r="K759" s="19"/>
       <c r="L759" s="20"/>
     </row>
-    <row r="760" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A760" s="16"/>
       <c r="B760" s="17"/>
       <c r="C760" s="17"/>
@@ -13325,7 +13324,7 @@
       <c r="K760" s="19"/>
       <c r="L760" s="20"/>
     </row>
-    <row r="761" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A761" s="16"/>
       <c r="B761" s="17"/>
       <c r="C761" s="17"/>
@@ -13336,7 +13335,7 @@
       <c r="K761" s="19"/>
       <c r="L761" s="20"/>
     </row>
-    <row r="762" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A762" s="16"/>
       <c r="B762" s="17"/>
       <c r="C762" s="17"/>
@@ -13347,7 +13346,7 @@
       <c r="K762" s="19"/>
       <c r="L762" s="20"/>
     </row>
-    <row r="763" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A763" s="16"/>
       <c r="B763" s="17"/>
       <c r="C763" s="17"/>
@@ -13358,7 +13357,7 @@
       <c r="K763" s="19"/>
       <c r="L763" s="20"/>
     </row>
-    <row r="764" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A764" s="16"/>
       <c r="B764" s="17"/>
       <c r="C764" s="17"/>
@@ -13369,7 +13368,7 @@
       <c r="K764" s="19"/>
       <c r="L764" s="20"/>
     </row>
-    <row r="765" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A765" s="16"/>
       <c r="B765" s="17"/>
       <c r="C765" s="17"/>
@@ -13380,7 +13379,7 @@
       <c r="K765" s="19"/>
       <c r="L765" s="20"/>
     </row>
-    <row r="766" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A766" s="16"/>
       <c r="B766" s="17"/>
       <c r="C766" s="17"/>
@@ -13391,7 +13390,7 @@
       <c r="K766" s="19"/>
       <c r="L766" s="20"/>
     </row>
-    <row r="767" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A767" s="16"/>
       <c r="B767" s="17"/>
       <c r="C767" s="17"/>
@@ -13402,7 +13401,7 @@
       <c r="K767" s="19"/>
       <c r="L767" s="20"/>
     </row>
-    <row r="768" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A768" s="16"/>
       <c r="B768" s="17"/>
       <c r="C768" s="17"/>
@@ -13413,7 +13412,7 @@
       <c r="K768" s="19"/>
       <c r="L768" s="20"/>
     </row>
-    <row r="769" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A769" s="16"/>
       <c r="B769" s="17"/>
       <c r="C769" s="17"/>
@@ -13424,7 +13423,7 @@
       <c r="K769" s="19"/>
       <c r="L769" s="20"/>
     </row>
-    <row r="770" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A770" s="16"/>
       <c r="B770" s="17"/>
       <c r="C770" s="17"/>
@@ -13435,7 +13434,7 @@
       <c r="K770" s="19"/>
       <c r="L770" s="20"/>
     </row>
-    <row r="771" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A771" s="16"/>
       <c r="B771" s="17"/>
       <c r="C771" s="17"/>
@@ -13446,7 +13445,7 @@
       <c r="K771" s="19"/>
       <c r="L771" s="20"/>
     </row>
-    <row r="772" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A772" s="16"/>
       <c r="B772" s="17"/>
       <c r="C772" s="17"/>
@@ -13457,7 +13456,7 @@
       <c r="K772" s="19"/>
       <c r="L772" s="20"/>
     </row>
-    <row r="773" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A773" s="16"/>
       <c r="B773" s="17"/>
       <c r="C773" s="17"/>
@@ -13468,7 +13467,7 @@
       <c r="K773" s="19"/>
       <c r="L773" s="20"/>
     </row>
-    <row r="774" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A774" s="16"/>
       <c r="B774" s="17"/>
       <c r="C774" s="17"/>
@@ -13479,7 +13478,7 @@
       <c r="K774" s="19"/>
       <c r="L774" s="20"/>
     </row>
-    <row r="775" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A775" s="16"/>
       <c r="B775" s="17"/>
       <c r="C775" s="17"/>
@@ -13490,7 +13489,7 @@
       <c r="K775" s="19"/>
       <c r="L775" s="20"/>
     </row>
-    <row r="776" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A776" s="16"/>
       <c r="B776" s="17"/>
       <c r="C776" s="17"/>
@@ -13501,7 +13500,7 @@
       <c r="K776" s="19"/>
       <c r="L776" s="20"/>
     </row>
-    <row r="777" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A777" s="16"/>
       <c r="B777" s="17"/>
       <c r="C777" s="17"/>
@@ -13512,7 +13511,7 @@
       <c r="K777" s="19"/>
       <c r="L777" s="20"/>
     </row>
-    <row r="778" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A778" s="16"/>
       <c r="B778" s="17"/>
       <c r="C778" s="17"/>
@@ -13523,7 +13522,7 @@
       <c r="K778" s="19"/>
       <c r="L778" s="20"/>
     </row>
-    <row r="779" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A779" s="16"/>
       <c r="B779" s="17"/>
       <c r="C779" s="17"/>
@@ -13534,7 +13533,7 @@
       <c r="K779" s="19"/>
       <c r="L779" s="20"/>
     </row>
-    <row r="780" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A780" s="16"/>
       <c r="B780" s="17"/>
       <c r="C780" s="17"/>
@@ -13545,7 +13544,7 @@
       <c r="K780" s="19"/>
       <c r="L780" s="20"/>
     </row>
-    <row r="781" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A781" s="16"/>
       <c r="B781" s="17"/>
       <c r="C781" s="17"/>
@@ -13556,7 +13555,7 @@
       <c r="K781" s="19"/>
       <c r="L781" s="20"/>
     </row>
-    <row r="782" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A782" s="16"/>
       <c r="B782" s="17"/>
       <c r="C782" s="17"/>
@@ -13567,7 +13566,7 @@
       <c r="K782" s="19"/>
       <c r="L782" s="20"/>
     </row>
-    <row r="783" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A783" s="16"/>
       <c r="B783" s="17"/>
       <c r="C783" s="17"/>
@@ -13578,7 +13577,7 @@
       <c r="K783" s="19"/>
       <c r="L783" s="20"/>
     </row>
-    <row r="784" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A784" s="16"/>
       <c r="B784" s="17"/>
       <c r="C784" s="17"/>
@@ -13589,7 +13588,7 @@
       <c r="K784" s="19"/>
       <c r="L784" s="20"/>
     </row>
-    <row r="785" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A785" s="16"/>
       <c r="B785" s="17"/>
       <c r="C785" s="17"/>
@@ -13600,7 +13599,7 @@
       <c r="K785" s="19"/>
       <c r="L785" s="20"/>
     </row>
-    <row r="786" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A786" s="16"/>
       <c r="B786" s="17"/>
       <c r="C786" s="17"/>
@@ -13611,7 +13610,7 @@
       <c r="K786" s="19"/>
       <c r="L786" s="20"/>
     </row>
-    <row r="787" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A787" s="16"/>
       <c r="B787" s="17"/>
       <c r="C787" s="17"/>
@@ -13622,7 +13621,7 @@
       <c r="K787" s="19"/>
       <c r="L787" s="20"/>
     </row>
-    <row r="788" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A788" s="16"/>
       <c r="B788" s="17"/>
       <c r="C788" s="17"/>
@@ -13633,7 +13632,7 @@
       <c r="K788" s="19"/>
       <c r="L788" s="20"/>
     </row>
-    <row r="789" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A789" s="16"/>
       <c r="B789" s="17"/>
       <c r="C789" s="17"/>
@@ -13644,7 +13643,7 @@
       <c r="K789" s="19"/>
       <c r="L789" s="20"/>
     </row>
-    <row r="790" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A790" s="16"/>
       <c r="B790" s="17"/>
       <c r="C790" s="17"/>
@@ -13655,7 +13654,7 @@
       <c r="K790" s="19"/>
       <c r="L790" s="20"/>
     </row>
-    <row r="791" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A791" s="16"/>
       <c r="B791" s="17"/>
       <c r="C791" s="17"/>
@@ -13666,7 +13665,7 @@
       <c r="K791" s="19"/>
       <c r="L791" s="20"/>
     </row>
-    <row r="792" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A792" s="16"/>
       <c r="B792" s="17"/>
       <c r="C792" s="17"/>
@@ -13677,7 +13676,7 @@
       <c r="K792" s="19"/>
       <c r="L792" s="20"/>
     </row>
-    <row r="793" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A793" s="16"/>
       <c r="B793" s="17"/>
       <c r="C793" s="17"/>
@@ -13688,7 +13687,7 @@
       <c r="K793" s="19"/>
       <c r="L793" s="20"/>
     </row>
-    <row r="794" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A794" s="16"/>
       <c r="B794" s="17"/>
       <c r="C794" s="17"/>
@@ -13699,7 +13698,7 @@
       <c r="K794" s="19"/>
       <c r="L794" s="20"/>
     </row>
-    <row r="795" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A795" s="16"/>
       <c r="B795" s="17"/>
       <c r="C795" s="17"/>
@@ -13710,7 +13709,7 @@
       <c r="K795" s="19"/>
       <c r="L795" s="20"/>
     </row>
-    <row r="796" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A796" s="16"/>
       <c r="B796" s="17"/>
       <c r="C796" s="17"/>
@@ -13721,7 +13720,7 @@
       <c r="K796" s="19"/>
       <c r="L796" s="20"/>
     </row>
-    <row r="797" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A797" s="16"/>
       <c r="B797" s="17"/>
       <c r="C797" s="17"/>
@@ -13732,7 +13731,7 @@
       <c r="K797" s="19"/>
       <c r="L797" s="20"/>
     </row>
-    <row r="798" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A798" s="16"/>
       <c r="B798" s="17"/>
       <c r="C798" s="17"/>
@@ -13743,7 +13742,7 @@
       <c r="K798" s="19"/>
       <c r="L798" s="20"/>
     </row>
-    <row r="799" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A799" s="16"/>
       <c r="B799" s="17"/>
       <c r="C799" s="17"/>
@@ -13754,7 +13753,7 @@
       <c r="K799" s="19"/>
       <c r="L799" s="20"/>
     </row>
-    <row r="800" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A800" s="16"/>
       <c r="B800" s="17"/>
       <c r="C800" s="17"/>
@@ -13765,7 +13764,7 @@
       <c r="K800" s="19"/>
       <c r="L800" s="20"/>
     </row>
-    <row r="801" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A801" s="16"/>
       <c r="B801" s="17"/>
       <c r="C801" s="17"/>
@@ -13776,7 +13775,7 @@
       <c r="K801" s="19"/>
       <c r="L801" s="20"/>
     </row>
-    <row r="802" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A802" s="16"/>
       <c r="B802" s="17"/>
       <c r="C802" s="17"/>
@@ -13787,7 +13786,7 @@
       <c r="K802" s="19"/>
       <c r="L802" s="20"/>
     </row>
-    <row r="803" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A803" s="16"/>
       <c r="B803" s="17"/>
       <c r="C803" s="17"/>
@@ -13798,7 +13797,7 @@
       <c r="K803" s="19"/>
       <c r="L803" s="20"/>
     </row>
-    <row r="804" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A804" s="16"/>
       <c r="B804" s="17"/>
       <c r="C804" s="17"/>
@@ -13809,7 +13808,7 @@
       <c r="K804" s="19"/>
       <c r="L804" s="20"/>
     </row>
-    <row r="805" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A805" s="16"/>
       <c r="B805" s="17"/>
       <c r="C805" s="17"/>
@@ -13820,7 +13819,7 @@
       <c r="K805" s="19"/>
       <c r="L805" s="20"/>
     </row>
-    <row r="806" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A806" s="16"/>
       <c r="B806" s="17"/>
       <c r="C806" s="17"/>
@@ -13831,7 +13830,7 @@
       <c r="K806" s="19"/>
       <c r="L806" s="20"/>
     </row>
-    <row r="807" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A807" s="16"/>
       <c r="B807" s="17"/>
       <c r="C807" s="17"/>
@@ -13842,7 +13841,7 @@
       <c r="K807" s="19"/>
       <c r="L807" s="20"/>
     </row>
-    <row r="808" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A808" s="16"/>
       <c r="B808" s="17"/>
       <c r="C808" s="17"/>
@@ -13853,7 +13852,7 @@
       <c r="K808" s="19"/>
       <c r="L808" s="20"/>
     </row>
-    <row r="809" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A809" s="16"/>
       <c r="B809" s="17"/>
       <c r="C809" s="17"/>
@@ -13864,7 +13863,7 @@
       <c r="K809" s="19"/>
       <c r="L809" s="20"/>
     </row>
-    <row r="810" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A810" s="16"/>
       <c r="B810" s="17"/>
       <c r="C810" s="17"/>
@@ -13875,7 +13874,7 @@
       <c r="K810" s="19"/>
       <c r="L810" s="20"/>
     </row>
-    <row r="811" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A811" s="16"/>
       <c r="B811" s="17"/>
       <c r="C811" s="17"/>
@@ -13886,7 +13885,7 @@
       <c r="K811" s="19"/>
       <c r="L811" s="20"/>
     </row>
-    <row r="812" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A812" s="16"/>
       <c r="B812" s="17"/>
       <c r="C812" s="17"/>
@@ -13897,7 +13896,7 @@
       <c r="K812" s="19"/>
       <c r="L812" s="20"/>
     </row>
-    <row r="813" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A813" s="16"/>
       <c r="B813" s="17"/>
       <c r="C813" s="17"/>
@@ -13908,7 +13907,7 @@
       <c r="K813" s="19"/>
       <c r="L813" s="20"/>
     </row>
-    <row r="814" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A814" s="16"/>
       <c r="B814" s="17"/>
       <c r="C814" s="17"/>
@@ -13919,7 +13918,7 @@
       <c r="K814" s="19"/>
       <c r="L814" s="20"/>
     </row>
-    <row r="815" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A815" s="16"/>
       <c r="B815" s="17"/>
       <c r="C815" s="17"/>
@@ -13930,7 +13929,7 @@
       <c r="K815" s="19"/>
       <c r="L815" s="20"/>
     </row>
-    <row r="816" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A816" s="16"/>
       <c r="B816" s="17"/>
       <c r="C816" s="17"/>
@@ -13941,7 +13940,7 @@
       <c r="K816" s="19"/>
       <c r="L816" s="20"/>
     </row>
-    <row r="817" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A817" s="16"/>
       <c r="B817" s="17"/>
       <c r="C817" s="17"/>
@@ -13952,7 +13951,7 @@
       <c r="K817" s="19"/>
       <c r="L817" s="20"/>
     </row>
-    <row r="818" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A818" s="16"/>
       <c r="B818" s="17"/>
       <c r="C818" s="17"/>
@@ -13963,7 +13962,7 @@
       <c r="K818" s="19"/>
       <c r="L818" s="20"/>
     </row>
-    <row r="819" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A819" s="16"/>
       <c r="B819" s="17"/>
       <c r="C819" s="17"/>
@@ -13974,7 +13973,7 @@
       <c r="K819" s="19"/>
       <c r="L819" s="20"/>
     </row>
-    <row r="820" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A820" s="16"/>
       <c r="B820" s="17"/>
       <c r="C820" s="17"/>
@@ -13985,7 +13984,7 @@
       <c r="K820" s="19"/>
       <c r="L820" s="20"/>
     </row>
-    <row r="821" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A821" s="16"/>
       <c r="B821" s="17"/>
       <c r="C821" s="17"/>
@@ -13996,7 +13995,7 @@
       <c r="K821" s="19"/>
       <c r="L821" s="20"/>
     </row>
-    <row r="822" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A822" s="16"/>
       <c r="B822" s="17"/>
       <c r="C822" s="17"/>
@@ -14007,7 +14006,7 @@
       <c r="K822" s="19"/>
       <c r="L822" s="20"/>
     </row>
-    <row r="823" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A823" s="16"/>
       <c r="B823" s="17"/>
       <c r="C823" s="17"/>
@@ -14018,7 +14017,7 @@
       <c r="K823" s="19"/>
       <c r="L823" s="20"/>
     </row>
-    <row r="824" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A824" s="16"/>
       <c r="B824" s="17"/>
       <c r="C824" s="17"/>
@@ -14029,7 +14028,7 @@
       <c r="K824" s="19"/>
       <c r="L824" s="20"/>
     </row>
-    <row r="825" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A825" s="16"/>
       <c r="B825" s="17"/>
       <c r="C825" s="17"/>
@@ -14040,7 +14039,7 @@
       <c r="K825" s="19"/>
       <c r="L825" s="20"/>
     </row>
-    <row r="826" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A826" s="16"/>
       <c r="B826" s="17"/>
       <c r="C826" s="17"/>
@@ -14051,7 +14050,7 @@
       <c r="K826" s="19"/>
       <c r="L826" s="20"/>
     </row>
-    <row r="827" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A827" s="16"/>
       <c r="B827" s="17"/>
       <c r="C827" s="17"/>
@@ -14062,7 +14061,7 @@
       <c r="K827" s="19"/>
       <c r="L827" s="20"/>
     </row>
-    <row r="828" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A828" s="16"/>
       <c r="B828" s="17"/>
       <c r="C828" s="17"/>
@@ -14073,7 +14072,7 @@
       <c r="K828" s="19"/>
       <c r="L828" s="20"/>
     </row>
-    <row r="829" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A829" s="16"/>
       <c r="B829" s="17"/>
       <c r="C829" s="17"/>
@@ -14084,7 +14083,7 @@
       <c r="K829" s="19"/>
       <c r="L829" s="20"/>
     </row>
-    <row r="830" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A830" s="16"/>
       <c r="B830" s="17"/>
       <c r="C830" s="17"/>
@@ -14095,7 +14094,7 @@
       <c r="K830" s="19"/>
       <c r="L830" s="20"/>
     </row>
-    <row r="831" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A831" s="16"/>
       <c r="B831" s="17"/>
       <c r="C831" s="17"/>
@@ -14106,7 +14105,7 @@
       <c r="K831" s="19"/>
       <c r="L831" s="20"/>
     </row>
-    <row r="832" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A832" s="16"/>
       <c r="B832" s="17"/>
       <c r="C832" s="17"/>
@@ -14117,7 +14116,7 @@
       <c r="K832" s="19"/>
       <c r="L832" s="20"/>
     </row>
-    <row r="833" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A833" s="16"/>
       <c r="B833" s="17"/>
       <c r="C833" s="17"/>
@@ -14128,7 +14127,7 @@
       <c r="K833" s="19"/>
       <c r="L833" s="20"/>
     </row>
-    <row r="834" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A834" s="16"/>
       <c r="B834" s="17"/>
       <c r="C834" s="17"/>
@@ -14139,7 +14138,7 @@
       <c r="K834" s="19"/>
       <c r="L834" s="20"/>
     </row>
-    <row r="835" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A835" s="16"/>
       <c r="B835" s="17"/>
       <c r="C835" s="17"/>
@@ -14150,7 +14149,7 @@
       <c r="K835" s="19"/>
       <c r="L835" s="20"/>
     </row>
-    <row r="836" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A836" s="16"/>
       <c r="B836" s="17"/>
       <c r="C836" s="17"/>
@@ -14161,7 +14160,7 @@
       <c r="K836" s="19"/>
       <c r="L836" s="20"/>
     </row>
-    <row r="837" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A837" s="16"/>
       <c r="B837" s="17"/>
       <c r="C837" s="17"/>
@@ -14172,7 +14171,7 @@
       <c r="K837" s="19"/>
       <c r="L837" s="20"/>
     </row>
-    <row r="838" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A838" s="16"/>
       <c r="B838" s="17"/>
       <c r="C838" s="17"/>
@@ -14183,7 +14182,7 @@
       <c r="K838" s="19"/>
       <c r="L838" s="20"/>
     </row>
-    <row r="839" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A839" s="16"/>
       <c r="B839" s="17"/>
       <c r="C839" s="17"/>
@@ -14194,7 +14193,7 @@
       <c r="K839" s="19"/>
       <c r="L839" s="20"/>
     </row>
-    <row r="840" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="840" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A840" s="16"/>
       <c r="B840" s="17"/>
       <c r="C840" s="17"/>
@@ -14205,7 +14204,7 @@
       <c r="K840" s="19"/>
       <c r="L840" s="20"/>
     </row>
-    <row r="841" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="841" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A841" s="16"/>
       <c r="B841" s="17"/>
       <c r="C841" s="17"/>
@@ -14216,7 +14215,7 @@
       <c r="K841" s="19"/>
       <c r="L841" s="20"/>
     </row>
-    <row r="842" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="842" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A842" s="16"/>
       <c r="B842" s="17"/>
       <c r="C842" s="17"/>
@@ -14227,7 +14226,7 @@
       <c r="K842" s="19"/>
       <c r="L842" s="20"/>
     </row>
-    <row r="843" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="843" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A843" s="16"/>
       <c r="B843" s="17"/>
       <c r="C843" s="17"/>
@@ -14238,7 +14237,7 @@
       <c r="K843" s="19"/>
       <c r="L843" s="20"/>
     </row>
-    <row r="844" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="844" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A844" s="16"/>
       <c r="B844" s="17"/>
       <c r="C844" s="17"/>
@@ -14249,7 +14248,7 @@
       <c r="K844" s="19"/>
       <c r="L844" s="20"/>
     </row>
-    <row r="845" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="845" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A845" s="16"/>
       <c r="B845" s="17"/>
       <c r="C845" s="17"/>
@@ -14260,7 +14259,7 @@
       <c r="K845" s="19"/>
       <c r="L845" s="20"/>
     </row>
-    <row r="846" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="846" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A846" s="16"/>
       <c r="B846" s="17"/>
       <c r="C846" s="17"/>
@@ -14271,7 +14270,7 @@
       <c r="K846" s="19"/>
       <c r="L846" s="20"/>
     </row>
-    <row r="847" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="847" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A847" s="16"/>
       <c r="B847" s="17"/>
       <c r="C847" s="17"/>
@@ -14282,7 +14281,7 @@
       <c r="K847" s="19"/>
       <c r="L847" s="20"/>
     </row>
-    <row r="848" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="848" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A848" s="16"/>
       <c r="B848" s="17"/>
       <c r="C848" s="17"/>
@@ -14293,7 +14292,7 @@
       <c r="K848" s="19"/>
       <c r="L848" s="20"/>
     </row>
-    <row r="849" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="849" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A849" s="16"/>
       <c r="B849" s="17"/>
       <c r="C849" s="17"/>
@@ -14304,7 +14303,7 @@
       <c r="K849" s="19"/>
       <c r="L849" s="20"/>
     </row>
-    <row r="850" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="850" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A850" s="16"/>
       <c r="B850" s="17"/>
       <c r="C850" s="17"/>
@@ -14315,7 +14314,7 @@
       <c r="K850" s="19"/>
       <c r="L850" s="20"/>
     </row>
-    <row r="851" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="851" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A851" s="16"/>
       <c r="B851" s="17"/>
       <c r="C851" s="17"/>
@@ -14326,7 +14325,7 @@
       <c r="K851" s="19"/>
       <c r="L851" s="20"/>
     </row>
-    <row r="852" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="852" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A852" s="16"/>
       <c r="B852" s="17"/>
       <c r="C852" s="17"/>
@@ -14337,7 +14336,7 @@
       <c r="K852" s="19"/>
       <c r="L852" s="20"/>
     </row>
-    <row r="853" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="853" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A853" s="16"/>
       <c r="B853" s="17"/>
       <c r="C853" s="17"/>
@@ -14348,7 +14347,7 @@
       <c r="K853" s="19"/>
       <c r="L853" s="20"/>
     </row>
-    <row r="854" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="854" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A854" s="16"/>
       <c r="B854" s="17"/>
       <c r="C854" s="17"/>
@@ -14359,7 +14358,7 @@
       <c r="K854" s="19"/>
       <c r="L854" s="20"/>
     </row>
-    <row r="855" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="855" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A855" s="16"/>
       <c r="B855" s="17"/>
       <c r="C855" s="17"/>
@@ -14370,7 +14369,7 @@
       <c r="K855" s="19"/>
       <c r="L855" s="20"/>
     </row>
-    <row r="856" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="856" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A856" s="16"/>
       <c r="B856" s="17"/>
       <c r="C856" s="17"/>
@@ -14381,7 +14380,7 @@
       <c r="K856" s="19"/>
       <c r="L856" s="20"/>
     </row>
-    <row r="857" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="857" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A857" s="16"/>
       <c r="B857" s="17"/>
       <c r="C857" s="17"/>
@@ -14392,7 +14391,7 @@
       <c r="K857" s="19"/>
       <c r="L857" s="20"/>
     </row>
-    <row r="858" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="858" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A858" s="16"/>
       <c r="B858" s="17"/>
       <c r="C858" s="17"/>
@@ -14403,7 +14402,7 @@
       <c r="K858" s="19"/>
       <c r="L858" s="20"/>
     </row>
-    <row r="859" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="859" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A859" s="16"/>
       <c r="B859" s="17"/>
       <c r="C859" s="17"/>
@@ -14414,7 +14413,7 @@
       <c r="K859" s="19"/>
       <c r="L859" s="20"/>
     </row>
-    <row r="860" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="860" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A860" s="16"/>
       <c r="B860" s="17"/>
       <c r="C860" s="17"/>
@@ -14425,7 +14424,7 @@
       <c r="K860" s="19"/>
       <c r="L860" s="20"/>
     </row>
-    <row r="861" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="861" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A861" s="16"/>
       <c r="B861" s="17"/>
       <c r="C861" s="17"/>
@@ -14436,7 +14435,7 @@
       <c r="K861" s="19"/>
       <c r="L861" s="20"/>
     </row>
-    <row r="862" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="862" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A862" s="16"/>
       <c r="B862" s="17"/>
       <c r="C862" s="17"/>
@@ -14447,7 +14446,7 @@
       <c r="K862" s="19"/>
       <c r="L862" s="20"/>
     </row>
-    <row r="863" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="863" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A863" s="16"/>
       <c r="B863" s="17"/>
       <c r="C863" s="17"/>
@@ -14458,7 +14457,7 @@
       <c r="K863" s="19"/>
       <c r="L863" s="20"/>
     </row>
-    <row r="864" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="864" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A864" s="16"/>
       <c r="B864" s="17"/>
       <c r="C864" s="17"/>
@@ -14469,7 +14468,7 @@
       <c r="K864" s="19"/>
       <c r="L864" s="20"/>
     </row>
-    <row r="865" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="865" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A865" s="16"/>
       <c r="B865" s="17"/>
       <c r="C865" s="17"/>
@@ -14480,7 +14479,7 @@
       <c r="K865" s="19"/>
       <c r="L865" s="20"/>
     </row>
-    <row r="866" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="866" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A866" s="16"/>
       <c r="B866" s="17"/>
       <c r="C866" s="17"/>
@@ -14491,7 +14490,7 @@
       <c r="K866" s="19"/>
       <c r="L866" s="20"/>
     </row>
-    <row r="867" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="867" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A867" s="16"/>
       <c r="B867" s="17"/>
       <c r="C867" s="17"/>
@@ -14502,7 +14501,7 @@
       <c r="K867" s="19"/>
       <c r="L867" s="20"/>
     </row>
-    <row r="868" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="868" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A868" s="16"/>
       <c r="B868" s="17"/>
       <c r="C868" s="17"/>
@@ -14513,7 +14512,7 @@
       <c r="K868" s="19"/>
       <c r="L868" s="20"/>
     </row>
-    <row r="869" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="869" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A869" s="16"/>
       <c r="B869" s="17"/>
       <c r="C869" s="17"/>
@@ -14524,7 +14523,7 @@
       <c r="K869" s="19"/>
       <c r="L869" s="20"/>
     </row>
-    <row r="870" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="870" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A870" s="16"/>
       <c r="B870" s="17"/>
       <c r="C870" s="17"/>
@@ -14535,7 +14534,7 @@
       <c r="K870" s="19"/>
       <c r="L870" s="20"/>
     </row>
-    <row r="871" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="871" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A871" s="16"/>
       <c r="B871" s="17"/>
       <c r="C871" s="17"/>
@@ -14546,7 +14545,7 @@
       <c r="K871" s="19"/>
       <c r="L871" s="20"/>
     </row>
-    <row r="872" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="872" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A872" s="16"/>
       <c r="B872" s="17"/>
       <c r="C872" s="17"/>
@@ -14557,7 +14556,7 @@
       <c r="K872" s="19"/>
       <c r="L872" s="20"/>
     </row>
-    <row r="873" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="873" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A873" s="16"/>
       <c r="B873" s="17"/>
       <c r="C873" s="17"/>
@@ -14568,7 +14567,7 @@
       <c r="K873" s="19"/>
       <c r="L873" s="20"/>
     </row>
-    <row r="874" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="874" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A874" s="16"/>
       <c r="B874" s="17"/>
       <c r="C874" s="17"/>
@@ -14579,7 +14578,7 @@
       <c r="K874" s="19"/>
       <c r="L874" s="20"/>
     </row>
-    <row r="875" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="875" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A875" s="16"/>
       <c r="B875" s="17"/>
       <c r="C875" s="17"/>
@@ -14590,7 +14589,7 @@
       <c r="K875" s="19"/>
       <c r="L875" s="20"/>
     </row>
-    <row r="876" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="876" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A876" s="16"/>
       <c r="B876" s="17"/>
       <c r="C876" s="17"/>
@@ -14601,7 +14600,7 @@
       <c r="K876" s="19"/>
       <c r="L876" s="20"/>
     </row>
-    <row r="877" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="877" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A877" s="16"/>
       <c r="B877" s="17"/>
       <c r="C877" s="17"/>
@@ -14612,7 +14611,7 @@
       <c r="K877" s="19"/>
       <c r="L877" s="20"/>
     </row>
-    <row r="878" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="878" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A878" s="16"/>
       <c r="B878" s="17"/>
       <c r="C878" s="17"/>
@@ -14623,7 +14622,7 @@
       <c r="K878" s="19"/>
       <c r="L878" s="20"/>
     </row>
-    <row r="879" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="879" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A879" s="16"/>
       <c r="B879" s="17"/>
       <c r="C879" s="17"/>
@@ -14634,7 +14633,7 @@
       <c r="K879" s="19"/>
       <c r="L879" s="20"/>
     </row>
-    <row r="880" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="880" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A880" s="16"/>
       <c r="B880" s="17"/>
       <c r="C880" s="17"/>
@@ -14645,7 +14644,7 @@
       <c r="K880" s="19"/>
       <c r="L880" s="20"/>
     </row>
-    <row r="881" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="881" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A881" s="16"/>
       <c r="B881" s="17"/>
       <c r="C881" s="17"/>
@@ -14656,7 +14655,7 @@
       <c r="K881" s="19"/>
       <c r="L881" s="20"/>
     </row>
-    <row r="882" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="882" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A882" s="16"/>
       <c r="B882" s="17"/>
       <c r="C882" s="17"/>
@@ -14667,7 +14666,7 @@
       <c r="K882" s="19"/>
       <c r="L882" s="20"/>
     </row>
-    <row r="883" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="883" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A883" s="16"/>
       <c r="B883" s="17"/>
       <c r="C883" s="17"/>
@@ -14678,7 +14677,7 @@
       <c r="K883" s="19"/>
       <c r="L883" s="20"/>
     </row>
-    <row r="884" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="884" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A884" s="16"/>
       <c r="B884" s="17"/>
       <c r="C884" s="17"/>
@@ -14689,7 +14688,7 @@
       <c r="K884" s="19"/>
       <c r="L884" s="20"/>
     </row>
-    <row r="885" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="885" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A885" s="16"/>
       <c r="B885" s="17"/>
       <c r="C885" s="17"/>
@@ -14700,7 +14699,7 @@
       <c r="K885" s="19"/>
       <c r="L885" s="20"/>
     </row>
-    <row r="886" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="886" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A886" s="16"/>
       <c r="B886" s="17"/>
       <c r="C886" s="17"/>
@@ -14711,7 +14710,7 @@
       <c r="K886" s="19"/>
       <c r="L886" s="20"/>
     </row>
-    <row r="887" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="887" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A887" s="16"/>
       <c r="B887" s="17"/>
       <c r="C887" s="17"/>
@@ -14722,7 +14721,7 @@
       <c r="K887" s="19"/>
       <c r="L887" s="20"/>
     </row>
-    <row r="888" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="888" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A888" s="16"/>
       <c r="B888" s="17"/>
       <c r="C888" s="17"/>
@@ -14733,7 +14732,7 @@
       <c r="K888" s="19"/>
       <c r="L888" s="20"/>
     </row>
-    <row r="889" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="889" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A889" s="16"/>
       <c r="B889" s="17"/>
       <c r="C889" s="17"/>
@@ -14744,7 +14743,7 @@
       <c r="K889" s="19"/>
       <c r="L889" s="20"/>
     </row>
-    <row r="890" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="890" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A890" s="16"/>
       <c r="B890" s="17"/>
       <c r="C890" s="17"/>
@@ -14755,7 +14754,7 @@
       <c r="K890" s="19"/>
       <c r="L890" s="20"/>
     </row>
-    <row r="891" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="891" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A891" s="16"/>
       <c r="B891" s="17"/>
       <c r="C891" s="17"/>
@@ -14766,7 +14765,7 @@
       <c r="K891" s="19"/>
       <c r="L891" s="20"/>
     </row>
-    <row r="892" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="892" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A892" s="16"/>
       <c r="B892" s="17"/>
       <c r="C892" s="17"/>
@@ -14777,7 +14776,7 @@
       <c r="K892" s="19"/>
       <c r="L892" s="20"/>
     </row>
-    <row r="893" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="893" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A893" s="16"/>
       <c r="B893" s="17"/>
       <c r="C893" s="17"/>
@@ -14788,7 +14787,7 @@
       <c r="K893" s="19"/>
       <c r="L893" s="20"/>
     </row>
-    <row r="894" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="894" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A894" s="16"/>
       <c r="B894" s="17"/>
       <c r="C894" s="17"/>
@@ -14799,7 +14798,7 @@
       <c r="K894" s="19"/>
       <c r="L894" s="20"/>
     </row>
-    <row r="895" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="895" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A895" s="16"/>
       <c r="B895" s="17"/>
       <c r="C895" s="17"/>
@@ -14810,7 +14809,7 @@
       <c r="K895" s="19"/>
       <c r="L895" s="20"/>
     </row>
-    <row r="896" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="896" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A896" s="16"/>
       <c r="B896" s="17"/>
       <c r="C896" s="17"/>
@@ -14821,7 +14820,7 @@
       <c r="K896" s="19"/>
       <c r="L896" s="20"/>
     </row>
-    <row r="897" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="897" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A897" s="16"/>
       <c r="B897" s="17"/>
       <c r="C897" s="17"/>
@@ -14832,7 +14831,7 @@
       <c r="K897" s="19"/>
       <c r="L897" s="20"/>
     </row>
-    <row r="898" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="898" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A898" s="16"/>
       <c r="B898" s="17"/>
       <c r="C898" s="17"/>
@@ -14843,7 +14842,7 @@
       <c r="K898" s="19"/>
       <c r="L898" s="20"/>
     </row>
-    <row r="899" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="899" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A899" s="16"/>
       <c r="B899" s="17"/>
       <c r="C899" s="17"/>
@@ -14854,7 +14853,7 @@
       <c r="K899" s="19"/>
       <c r="L899" s="20"/>
     </row>
-    <row r="900" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="900" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A900" s="16"/>
       <c r="B900" s="17"/>
       <c r="C900" s="17"/>
@@ -14865,7 +14864,7 @@
       <c r="K900" s="19"/>
       <c r="L900" s="20"/>
     </row>
-    <row r="901" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="901" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A901" s="16"/>
       <c r="B901" s="17"/>
       <c r="C901" s="17"/>
@@ -14876,7 +14875,7 @@
       <c r="K901" s="19"/>
       <c r="L901" s="20"/>
     </row>
-    <row r="902" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="902" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A902" s="16"/>
       <c r="B902" s="17"/>
       <c r="C902" s="17"/>
@@ -14887,7 +14886,7 @@
       <c r="K902" s="19"/>
       <c r="L902" s="20"/>
     </row>
-    <row r="903" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="903" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A903" s="16"/>
       <c r="B903" s="17"/>
       <c r="C903" s="17"/>
@@ -14898,7 +14897,7 @@
       <c r="K903" s="19"/>
       <c r="L903" s="20"/>
     </row>
-    <row r="904" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="904" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A904" s="16"/>
       <c r="B904" s="17"/>
       <c r="C904" s="17"/>
@@ -14909,7 +14908,7 @@
       <c r="K904" s="19"/>
       <c r="L904" s="20"/>
     </row>
-    <row r="905" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="905" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A905" s="16"/>
       <c r="B905" s="17"/>
       <c r="C905" s="17"/>
@@ -14920,7 +14919,7 @@
       <c r="K905" s="19"/>
       <c r="L905" s="20"/>
     </row>
-    <row r="906" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="906" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A906" s="16"/>
       <c r="B906" s="17"/>
       <c r="C906" s="17"/>
@@ -14931,7 +14930,7 @@
       <c r="K906" s="19"/>
       <c r="L906" s="20"/>
     </row>
-    <row r="907" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="907" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A907" s="16"/>
       <c r="B907" s="17"/>
       <c r="C907" s="17"/>
@@ -14942,7 +14941,7 @@
       <c r="K907" s="19"/>
       <c r="L907" s="20"/>
     </row>
-    <row r="908" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="908" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A908" s="16"/>
       <c r="B908" s="17"/>
       <c r="C908" s="17"/>
@@ -14953,7 +14952,7 @@
       <c r="K908" s="19"/>
       <c r="L908" s="20"/>
     </row>
-    <row r="909" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="909" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A909" s="16"/>
       <c r="B909" s="17"/>
       <c r="C909" s="17"/>
@@ -14964,7 +14963,7 @@
       <c r="K909" s="19"/>
       <c r="L909" s="20"/>
     </row>
-    <row r="910" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="910" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A910" s="16"/>
       <c r="B910" s="17"/>
       <c r="C910" s="17"/>
@@ -14975,7 +14974,7 @@
       <c r="K910" s="19"/>
       <c r="L910" s="20"/>
     </row>
-    <row r="911" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="911" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A911" s="16"/>
       <c r="B911" s="17"/>
       <c r="C911" s="17"/>
@@ -14986,7 +14985,7 @@
       <c r="K911" s="19"/>
       <c r="L911" s="20"/>
     </row>
-    <row r="912" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="912" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A912" s="16"/>
       <c r="B912" s="17"/>
       <c r="C912" s="17"/>
@@ -14997,7 +14996,7 @@
       <c r="K912" s="19"/>
       <c r="L912" s="20"/>
     </row>
-    <row r="913" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="913" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A913" s="16"/>
       <c r="B913" s="17"/>
       <c r="C913" s="17"/>
@@ -15008,7 +15007,7 @@
       <c r="K913" s="19"/>
       <c r="L913" s="20"/>
     </row>
-    <row r="914" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="914" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A914" s="16"/>
       <c r="B914" s="17"/>
       <c r="C914" s="17"/>
@@ -15019,7 +15018,7 @@
       <c r="K914" s="19"/>
       <c r="L914" s="20"/>
     </row>
-    <row r="915" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="915" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A915" s="16"/>
       <c r="B915" s="17"/>
       <c r="C915" s="17"/>
@@ -15030,7 +15029,7 @@
       <c r="K915" s="19"/>
       <c r="L915" s="20"/>
     </row>
-    <row r="916" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="916" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A916" s="16"/>
       <c r="B916" s="17"/>
       <c r="C916" s="17"/>
@@ -15041,7 +15040,7 @@
       <c r="K916" s="19"/>
       <c r="L916" s="20"/>
     </row>
-    <row r="917" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="917" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A917" s="16"/>
       <c r="B917" s="17"/>
       <c r="C917" s="17"/>
@@ -15052,7 +15051,7 @@
       <c r="K917" s="19"/>
       <c r="L917" s="20"/>
     </row>
-    <row r="918" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="918" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A918" s="16"/>
       <c r="B918" s="17"/>
       <c r="C918" s="17"/>
@@ -15063,7 +15062,7 @@
       <c r="K918" s="19"/>
       <c r="L918" s="20"/>
     </row>
-    <row r="919" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="919" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A919" s="16"/>
       <c r="B919" s="17"/>
       <c r="C919" s="17"/>
@@ -15074,7 +15073,7 @@
       <c r="K919" s="19"/>
       <c r="L919" s="20"/>
     </row>
-    <row r="920" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="920" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A920" s="16"/>
       <c r="B920" s="17"/>
       <c r="C920" s="17"/>
@@ -15085,7 +15084,7 @@
       <c r="K920" s="19"/>
       <c r="L920" s="20"/>
     </row>
-    <row r="921" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="921" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A921" s="16"/>
       <c r="B921" s="17"/>
       <c r="C921" s="17"/>
@@ -15096,7 +15095,7 @@
       <c r="K921" s="19"/>
       <c r="L921" s="20"/>
     </row>
-    <row r="922" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="922" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A922" s="16"/>
       <c r="B922" s="17"/>
       <c r="C922" s="17"/>
@@ -15107,7 +15106,7 @@
       <c r="K922" s="19"/>
       <c r="L922" s="20"/>
     </row>
-    <row r="923" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="923" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A923" s="16"/>
       <c r="B923" s="17"/>
       <c r="C923" s="17"/>
@@ -15118,7 +15117,7 @@
       <c r="K923" s="19"/>
       <c r="L923" s="20"/>
     </row>
-    <row r="924" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="924" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A924" s="16"/>
       <c r="B924" s="17"/>
       <c r="C924" s="17"/>
@@ -15129,7 +15128,7 @@
       <c r="K924" s="19"/>
       <c r="L924" s="20"/>
     </row>
-    <row r="925" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="925" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A925" s="16"/>
       <c r="B925" s="17"/>
       <c r="C925" s="17"/>
@@ -15140,7 +15139,7 @@
       <c r="K925" s="19"/>
       <c r="L925" s="20"/>
     </row>
-    <row r="926" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="926" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A926" s="16"/>
       <c r="B926" s="17"/>
       <c r="C926" s="17"/>
@@ -15151,7 +15150,7 @@
       <c r="K926" s="19"/>
       <c r="L926" s="20"/>
     </row>
-    <row r="927" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="927" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A927" s="16"/>
       <c r="B927" s="17"/>
       <c r="C927" s="17"/>
@@ -15162,7 +15161,7 @@
       <c r="K927" s="19"/>
       <c r="L927" s="20"/>
     </row>
-    <row r="928" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="928" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A928" s="16"/>
       <c r="B928" s="17"/>
       <c r="C928" s="17"/>
@@ -15173,7 +15172,7 @@
       <c r="K928" s="19"/>
       <c r="L928" s="20"/>
     </row>
-    <row r="929" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="929" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A929" s="16"/>
       <c r="B929" s="17"/>
       <c r="C929" s="17"/>
@@ -15184,7 +15183,7 @@
       <c r="K929" s="19"/>
       <c r="L929" s="20"/>
     </row>
-    <row r="930" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="930" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A930" s="16"/>
       <c r="B930" s="17"/>
       <c r="C930" s="17"/>
@@ -15195,7 +15194,7 @@
       <c r="K930" s="19"/>
       <c r="L930" s="20"/>
     </row>
-    <row r="931" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="931" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A931" s="16"/>
       <c r="B931" s="17"/>
       <c r="C931" s="17"/>
@@ -15206,7 +15205,7 @@
       <c r="K931" s="19"/>
       <c r="L931" s="20"/>
     </row>
-    <row r="932" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="932" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A932" s="16"/>
       <c r="B932" s="17"/>
       <c r="C932" s="17"/>
@@ -15217,7 +15216,7 @@
       <c r="K932" s="19"/>
       <c r="L932" s="20"/>
     </row>
-    <row r="933" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="933" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A933" s="16"/>
       <c r="B933" s="17"/>
       <c r="C933" s="17"/>
@@ -15228,7 +15227,7 @@
       <c r="K933" s="19"/>
       <c r="L933" s="20"/>
     </row>
-    <row r="934" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="934" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A934" s="16"/>
       <c r="B934" s="17"/>
       <c r="C934" s="17"/>
@@ -15239,7 +15238,7 @@
       <c r="K934" s="19"/>
       <c r="L934" s="20"/>
     </row>
-    <row r="935" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="935" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A935" s="16"/>
       <c r="B935" s="17"/>
       <c r="C935" s="17"/>
@@ -15250,7 +15249,7 @@
       <c r="K935" s="19"/>
       <c r="L935" s="20"/>
     </row>
-    <row r="936" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="936" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A936" s="16"/>
       <c r="B936" s="17"/>
       <c r="C936" s="17"/>
@@ -15261,7 +15260,7 @@
       <c r="K936" s="19"/>
       <c r="L936" s="20"/>
     </row>
-    <row r="937" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="937" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A937" s="16"/>
       <c r="B937" s="17"/>
       <c r="C937" s="17"/>
@@ -15272,7 +15271,7 @@
       <c r="K937" s="19"/>
       <c r="L937" s="20"/>
     </row>
-    <row r="938" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="938" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A938" s="16"/>
       <c r="B938" s="17"/>
       <c r="C938" s="17"/>
@@ -15283,7 +15282,7 @@
       <c r="K938" s="19"/>
       <c r="L938" s="20"/>
     </row>
-    <row r="939" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="939" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A939" s="16"/>
       <c r="B939" s="17"/>
       <c r="C939" s="17"/>
@@ -15294,7 +15293,7 @@
       <c r="K939" s="19"/>
       <c r="L939" s="20"/>
     </row>
-    <row r="940" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="940" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A940" s="16"/>
       <c r="B940" s="17"/>
       <c r="C940" s="17"/>
@@ -15305,7 +15304,7 @@
       <c r="K940" s="19"/>
       <c r="L940" s="20"/>
     </row>
-    <row r="941" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="941" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A941" s="16"/>
       <c r="B941" s="17"/>
       <c r="C941" s="17"/>
@@ -15316,7 +15315,7 @@
       <c r="K941" s="19"/>
       <c r="L941" s="20"/>
     </row>
-    <row r="942" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="942" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A942" s="16"/>
       <c r="B942" s="17"/>
       <c r="C942" s="17"/>
@@ -15327,7 +15326,7 @@
       <c r="K942" s="19"/>
       <c r="L942" s="20"/>
     </row>
-    <row r="943" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="943" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A943" s="16"/>
       <c r="B943" s="17"/>
       <c r="C943" s="17"/>
@@ -15338,7 +15337,7 @@
       <c r="K943" s="19"/>
       <c r="L943" s="20"/>
     </row>
-    <row r="944" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="944" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A944" s="16"/>
       <c r="B944" s="17"/>
       <c r="C944" s="17"/>
@@ -15349,7 +15348,7 @@
       <c r="K944" s="19"/>
       <c r="L944" s="20"/>
     </row>
-    <row r="945" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="945" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A945" s="16"/>
       <c r="B945" s="17"/>
       <c r="C945" s="17"/>
@@ -15360,7 +15359,7 @@
       <c r="K945" s="19"/>
       <c r="L945" s="20"/>
     </row>
-    <row r="946" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="946" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A946" s="16"/>
       <c r="B946" s="17"/>
       <c r="C946" s="17"/>
@@ -15371,7 +15370,7 @@
       <c r="K946" s="19"/>
       <c r="L946" s="20"/>
     </row>
-    <row r="947" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="947" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A947" s="16"/>
       <c r="B947" s="17"/>
       <c r="C947" s="17"/>
@@ -15382,7 +15381,7 @@
       <c r="K947" s="19"/>
       <c r="L947" s="20"/>
     </row>
-    <row r="948" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="948" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A948" s="16"/>
       <c r="B948" s="17"/>
       <c r="C948" s="17"/>
@@ -15393,7 +15392,7 @@
       <c r="K948" s="19"/>
       <c r="L948" s="20"/>
     </row>
-    <row r="949" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="949" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A949" s="16"/>
       <c r="B949" s="17"/>
       <c r="C949" s="17"/>
@@ -15404,7 +15403,7 @@
       <c r="K949" s="19"/>
       <c r="L949" s="20"/>
     </row>
-    <row r="950" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="950" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A950" s="16"/>
       <c r="B950" s="17"/>
       <c r="C950" s="17"/>
@@ -15415,7 +15414,7 @@
       <c r="K950" s="19"/>
       <c r="L950" s="20"/>
     </row>
-    <row r="951" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="951" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A951" s="16"/>
       <c r="B951" s="17"/>
       <c r="C951" s="17"/>
@@ -15426,7 +15425,7 @@
       <c r="K951" s="19"/>
       <c r="L951" s="20"/>
     </row>
-    <row r="952" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="952" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A952" s="16"/>
       <c r="B952" s="17"/>
       <c r="C952" s="17"/>
@@ -15437,7 +15436,7 @@
       <c r="K952" s="19"/>
       <c r="L952" s="20"/>
     </row>
-    <row r="953" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="953" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A953" s="16"/>
       <c r="B953" s="17"/>
       <c r="C953" s="17"/>
@@ -15448,7 +15447,7 @@
       <c r="K953" s="19"/>
       <c r="L953" s="20"/>
     </row>
-    <row r="954" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="954" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A954" s="16"/>
       <c r="B954" s="17"/>
       <c r="C954" s="17"/>
@@ -15459,7 +15458,7 @@
       <c r="K954" s="19"/>
       <c r="L954" s="20"/>
     </row>
-    <row r="955" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="955" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A955" s="16"/>
       <c r="B955" s="17"/>
       <c r="C955" s="17"/>
@@ -15470,7 +15469,7 @@
       <c r="K955" s="19"/>
       <c r="L955" s="20"/>
     </row>
-    <row r="956" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="956" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A956" s="16"/>
       <c r="B956" s="17"/>
       <c r="C956" s="17"/>
@@ -15481,7 +15480,7 @@
       <c r="K956" s="19"/>
       <c r="L956" s="20"/>
     </row>
-    <row r="957" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="957" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A957" s="16"/>
       <c r="B957" s="17"/>
       <c r="C957" s="17"/>
@@ -15492,7 +15491,7 @@
       <c r="K957" s="19"/>
       <c r="L957" s="20"/>
     </row>
-    <row r="958" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="958" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A958" s="16"/>
       <c r="B958" s="17"/>
       <c r="C958" s="17"/>
@@ -15503,7 +15502,7 @@
       <c r="K958" s="19"/>
       <c r="L958" s="20"/>
     </row>
-    <row r="959" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="959" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A959" s="16"/>
       <c r="B959" s="17"/>
       <c r="C959" s="17"/>
@@ -15514,7 +15513,7 @@
       <c r="K959" s="19"/>
       <c r="L959" s="20"/>
     </row>
-    <row r="960" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="960" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A960" s="16"/>
       <c r="B960" s="17"/>
       <c r="C960" s="17"/>
@@ -15525,7 +15524,7 @@
       <c r="K960" s="19"/>
       <c r="L960" s="20"/>
     </row>
-    <row r="961" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="961" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A961" s="16"/>
       <c r="B961" s="17"/>
       <c r="C961" s="17"/>
@@ -15536,7 +15535,7 @@
       <c r="K961" s="19"/>
       <c r="L961" s="20"/>
     </row>
-    <row r="962" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="962" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A962" s="16"/>
       <c r="B962" s="17"/>
       <c r="C962" s="17"/>
@@ -15547,7 +15546,7 @@
       <c r="K962" s="19"/>
       <c r="L962" s="20"/>
     </row>
-    <row r="963" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="963" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A963" s="16"/>
       <c r="B963" s="17"/>
       <c r="C963" s="17"/>
@@ -15558,7 +15557,7 @@
       <c r="K963" s="19"/>
       <c r="L963" s="20"/>
     </row>
-    <row r="964" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="964" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A964" s="16"/>
       <c r="B964" s="17"/>
       <c r="C964" s="17"/>
@@ -15569,7 +15568,7 @@
       <c r="K964" s="19"/>
       <c r="L964" s="20"/>
     </row>
-    <row r="965" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="965" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A965" s="16"/>
       <c r="B965" s="17"/>
       <c r="C965" s="17"/>
@@ -15580,7 +15579,7 @@
       <c r="K965" s="19"/>
       <c r="L965" s="20"/>
     </row>
-    <row r="966" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="966" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A966" s="16"/>
       <c r="B966" s="17"/>
       <c r="C966" s="17"/>
@@ -15591,7 +15590,7 @@
       <c r="K966" s="19"/>
       <c r="L966" s="20"/>
     </row>
-    <row r="967" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="967" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A967" s="16"/>
       <c r="B967" s="17"/>
       <c r="C967" s="17"/>
@@ -15602,7 +15601,7 @@
       <c r="K967" s="19"/>
       <c r="L967" s="20"/>
     </row>
-    <row r="968" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="968" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A968" s="16"/>
       <c r="B968" s="17"/>
       <c r="C968" s="17"/>
@@ -15613,7 +15612,7 @@
       <c r="K968" s="19"/>
       <c r="L968" s="20"/>
     </row>
-    <row r="969" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="969" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A969" s="16"/>
       <c r="B969" s="17"/>
       <c r="C969" s="17"/>
@@ -15624,7 +15623,7 @@
       <c r="K969" s="19"/>
       <c r="L969" s="20"/>
     </row>
-    <row r="970" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="970" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A970" s="16"/>
       <c r="B970" s="17"/>
       <c r="C970" s="17"/>
@@ -15636,100 +15635,101 @@
       <c r="L970" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A4:L106"/>
   <mergeCells count="3">
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="L6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="L7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="L8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="L9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="L10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="L11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="L12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="L13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="L14" r:id="rId10" location="Ask" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="L15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="L16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="L21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="L22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="L26" r:id="rId15" location="90631A007" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L37" r:id="rId16" location="368=229" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="L38" r:id="rId17" location="48925k93/=18nja2z" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="L44" r:id="rId18" location="95947A007" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="L46" r:id="rId19" location="92141A005" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="L48" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="L49" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="L51" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="L52" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="L53" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="L54" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="L55" r:id="rId26" location="348=95" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="L56" r:id="rId27" location="348=107" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="L57" r:id="rId28" location="348=96" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
-    <hyperlink ref="L58" r:id="rId29" location="371=276" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
-    <hyperlink ref="L59" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
-    <hyperlink ref="L60" r:id="rId31" location="371=455" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
-    <hyperlink ref="L61" r:id="rId32" location="371=246" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
-    <hyperlink ref="L62" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
-    <hyperlink ref="L63" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
-    <hyperlink ref="L64" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
-    <hyperlink ref="L65" r:id="rId36" location="348=123" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
-    <hyperlink ref="L66" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
-    <hyperlink ref="L67" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
-    <hyperlink ref="L68" r:id="rId39" location="199=15" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
-    <hyperlink ref="L69" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
-    <hyperlink ref="L70" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
-    <hyperlink ref="L71" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
-    <hyperlink ref="L72" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
-    <hyperlink ref="L74" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
-    <hyperlink ref="L75" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
-    <hyperlink ref="L76" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
-    <hyperlink ref="L77" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
-    <hyperlink ref="L78" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
-    <hyperlink ref="L79" r:id="rId49" location="371=256" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
-    <hyperlink ref="L80" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
-    <hyperlink ref="L81" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="L82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="L88" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="L89" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="L92" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="L93" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="L94" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="L95" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="L96" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="L98" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="L100" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="L101" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="L102" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="L73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="L24" r:id="rId65" location="92949a144/=18njs1n" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="L30" r:id="rId66" location="92949A150" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="L34" r:id="rId67" location="92949a106/=18njrx6" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="L104" r:id="rId68" location="93330A252" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="L27" r:id="rId69" location="90631A005" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="L28" r:id="rId70" location="92949A146" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="L29" r:id="rId71" location="92949A148" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="L31" r:id="rId72" location="92949A151" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="L32" r:id="rId73" location="92949A153" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="L33" r:id="rId74" location="92949A160" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="L39" r:id="rId75" location="92510A442" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="L41" r:id="rId76" location="91780A162" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="L42" r:id="rId77" location="91780A164" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="L43" r:id="rId78" location="91780A166" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="L47" r:id="rId79" location="91545A280" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="L45" r:id="rId80" location="92141A008" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="L105" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="L106" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="L91" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="L17" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="L18" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="L5" r:id="rId1"/>
+    <hyperlink ref="L6" r:id="rId2"/>
+    <hyperlink ref="L7" r:id="rId3"/>
+    <hyperlink ref="L8" r:id="rId4"/>
+    <hyperlink ref="L9" r:id="rId5"/>
+    <hyperlink ref="L10" r:id="rId6"/>
+    <hyperlink ref="L11" r:id="rId7"/>
+    <hyperlink ref="L12" r:id="rId8"/>
+    <hyperlink ref="L13" r:id="rId9"/>
+    <hyperlink ref="L14" r:id="rId10" location="Ask"/>
+    <hyperlink ref="L15" r:id="rId11"/>
+    <hyperlink ref="L16" r:id="rId12"/>
+    <hyperlink ref="L21" r:id="rId13"/>
+    <hyperlink ref="L22" r:id="rId14"/>
+    <hyperlink ref="L26" r:id="rId15" location="90631A007"/>
+    <hyperlink ref="L37" r:id="rId16" location="368=229"/>
+    <hyperlink ref="L38" r:id="rId17" location="48925k93/=18nja2z"/>
+    <hyperlink ref="L44" r:id="rId18" location="95947A007"/>
+    <hyperlink ref="L46" r:id="rId19" location="92141A005"/>
+    <hyperlink ref="L48" r:id="rId20"/>
+    <hyperlink ref="L49" r:id="rId21"/>
+    <hyperlink ref="L51" r:id="rId22"/>
+    <hyperlink ref="L52" r:id="rId23"/>
+    <hyperlink ref="L53" r:id="rId24"/>
+    <hyperlink ref="L54" r:id="rId25"/>
+    <hyperlink ref="L55" r:id="rId26" location="348=95"/>
+    <hyperlink ref="L56" r:id="rId27" location="348=107"/>
+    <hyperlink ref="L57" r:id="rId28" location="348=96"/>
+    <hyperlink ref="L58" r:id="rId29" location="371=276"/>
+    <hyperlink ref="L59" r:id="rId30"/>
+    <hyperlink ref="L60" r:id="rId31" location="371=455"/>
+    <hyperlink ref="L61" r:id="rId32" location="371=246"/>
+    <hyperlink ref="L62" r:id="rId33"/>
+    <hyperlink ref="L63" r:id="rId34"/>
+    <hyperlink ref="L64" r:id="rId35"/>
+    <hyperlink ref="L65" r:id="rId36" location="348=123"/>
+    <hyperlink ref="L66" r:id="rId37"/>
+    <hyperlink ref="L67" r:id="rId38"/>
+    <hyperlink ref="L68" r:id="rId39" location="199=15"/>
+    <hyperlink ref="L69" r:id="rId40"/>
+    <hyperlink ref="L70" r:id="rId41"/>
+    <hyperlink ref="L71" r:id="rId42"/>
+    <hyperlink ref="L72" r:id="rId43"/>
+    <hyperlink ref="L74" r:id="rId44"/>
+    <hyperlink ref="L75" r:id="rId45"/>
+    <hyperlink ref="L76" r:id="rId46"/>
+    <hyperlink ref="L77" r:id="rId47"/>
+    <hyperlink ref="L78" r:id="rId48"/>
+    <hyperlink ref="L79" r:id="rId49" location="371=256"/>
+    <hyperlink ref="L80" r:id="rId50"/>
+    <hyperlink ref="L81" r:id="rId51"/>
+    <hyperlink ref="L82" r:id="rId52"/>
+    <hyperlink ref="L88" r:id="rId53"/>
+    <hyperlink ref="L89" r:id="rId54"/>
+    <hyperlink ref="L92" r:id="rId55"/>
+    <hyperlink ref="L93" r:id="rId56"/>
+    <hyperlink ref="L94" r:id="rId57"/>
+    <hyperlink ref="L95" r:id="rId58"/>
+    <hyperlink ref="L96" r:id="rId59"/>
+    <hyperlink ref="L98" r:id="rId60"/>
+    <hyperlink ref="L100" r:id="rId61"/>
+    <hyperlink ref="L101" r:id="rId62"/>
+    <hyperlink ref="L102" r:id="rId63"/>
+    <hyperlink ref="L73" r:id="rId64"/>
+    <hyperlink ref="L24" r:id="rId65" location="92949a144/=18njs1n"/>
+    <hyperlink ref="L30" r:id="rId66" location="92949A150"/>
+    <hyperlink ref="L34" r:id="rId67" location="92949a106/=18njrx6"/>
+    <hyperlink ref="L104" r:id="rId68" location="93330A252"/>
+    <hyperlink ref="L27" r:id="rId69" location="90631A005"/>
+    <hyperlink ref="L28" r:id="rId70" location="92949A146"/>
+    <hyperlink ref="L29" r:id="rId71" location="92949A148"/>
+    <hyperlink ref="L31" r:id="rId72" location="92949A151"/>
+    <hyperlink ref="L32" r:id="rId73" location="92949A153"/>
+    <hyperlink ref="L33" r:id="rId74" location="92949A160"/>
+    <hyperlink ref="L39" r:id="rId75" location="92510A442"/>
+    <hyperlink ref="L41" r:id="rId76" location="91780A162"/>
+    <hyperlink ref="L42" r:id="rId77" location="91780A164"/>
+    <hyperlink ref="L43" r:id="rId78" location="91780A166"/>
+    <hyperlink ref="L47" r:id="rId79" location="91545A280"/>
+    <hyperlink ref="L45" r:id="rId80" location="92141A008"/>
+    <hyperlink ref="L105" r:id="rId81"/>
+    <hyperlink ref="L106" r:id="rId82"/>
+    <hyperlink ref="L91" r:id="rId83"/>
+    <hyperlink ref="L17" r:id="rId84"/>
+    <hyperlink ref="L18" r:id="rId85"/>
+    <hyperlink ref="L50" r:id="rId86"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId86"/>
+  <pageSetup orientation="portrait" r:id="rId87"/>
 </worksheet>
 </file>
--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10709"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ejunkins\Desktop\JPL Open Source Rover\open-source-rover\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eddy/Documents/Development/Personal/open-source-rover/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{DB9499A7-5D26-0E4B-BF2C-CA908A5693C1}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="458" windowWidth="33600" windowHeight="19560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="366">
   <si>
     <t>Part</t>
   </si>
@@ -1117,12 +1118,15 @@
   </si>
   <si>
     <t>https://www.pololu.com/product/3268</t>
+  </si>
+  <si>
+    <t>4.50” Aluminum Channel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
@@ -2005,15 +2009,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L50" sqref="L50"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="31" customWidth="1"/>
     <col min="2" max="2" width="8.6640625" customWidth="1"/>
@@ -2023,16 +2027,16 @@
     <col min="6" max="6" width="8.6640625" style="20" customWidth="1"/>
     <col min="7" max="7" width="22.33203125" style="20" customWidth="1"/>
     <col min="8" max="8" width="15.6640625" style="20" customWidth="1"/>
-    <col min="9" max="9" width="26.1328125" style="14" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="26.1640625" style="14" hidden="1" customWidth="1"/>
     <col min="10" max="10" width="13" customWidth="1"/>
     <col min="11" max="11" width="21.6640625" customWidth="1"/>
     <col min="12" max="12" width="86.33203125" customWidth="1"/>
-    <col min="13" max="13" width="12.796875" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" customWidth="1"/>
     <col min="14" max="14" width="58.6640625" customWidth="1"/>
     <col min="15" max="27" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="109" customFormat="1" ht="32.75" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:27" s="109" customFormat="1" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
         <v>355</v>
       </c>
@@ -2048,7 +2052,7 @@
       <c r="K1" s="126"/>
       <c r="L1" s="124"/>
     </row>
-    <row r="2" spans="1:27" s="111" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:27" s="111" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="127" t="s">
         <v>356</v>
       </c>
@@ -2065,11 +2069,11 @@
       </c>
       <c r="K2" s="120">
         <f>SUM(K5:K150)</f>
-        <v>2496.3000000000002</v>
+        <v>2448.6925000000001</v>
       </c>
       <c r="L2" s="114"/>
     </row>
-    <row r="3" spans="1:27" s="111" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:27" s="111" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="115" t="s">
         <v>357</v>
       </c>
@@ -2083,7 +2087,7 @@
       <c r="I3" s="113"/>
       <c r="J3" s="112"/>
     </row>
-    <row r="4" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
         <v>0</v>
       </c>
@@ -2136,7 +2140,7 @@
       <c r="Z4" s="6"/>
       <c r="AA4" s="6"/>
     </row>
-    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="53" t="s">
         <v>31</v>
       </c>
@@ -2180,7 +2184,7 @@
       <c r="Z5" s="9"/>
       <c r="AA5" s="9"/>
     </row>
-    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="21" t="s">
         <v>34</v>
       </c>
@@ -2221,7 +2225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="62" t="s">
         <v>39</v>
       </c>
@@ -2263,7 +2267,7 @@
       <c r="Z7" s="12"/>
       <c r="AA7" s="12"/>
     </row>
-    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="21" t="s">
         <v>43</v>
       </c>
@@ -2301,7 +2305,7 @@
       </c>
       <c r="M8" s="9"/>
     </row>
-    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="21" t="s">
         <v>45</v>
       </c>
@@ -2339,7 +2343,7 @@
       </c>
       <c r="M9" s="9"/>
     </row>
-    <row r="10" spans="1:27" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:27" s="37" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="62" t="s">
         <v>49</v>
       </c>
@@ -2380,7 +2384,7 @@
       <c r="Z10" s="38"/>
       <c r="AA10" s="38"/>
     </row>
-    <row r="11" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="29" t="s">
         <v>52</v>
       </c>
@@ -2418,7 +2422,7 @@
       </c>
       <c r="M11" s="9"/>
     </row>
-    <row r="12" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="21" t="s">
         <v>55</v>
       </c>
@@ -2458,7 +2462,7 @@
       </c>
       <c r="M12" s="13"/>
     </row>
-    <row r="13" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="21" t="s">
         <v>60</v>
       </c>
@@ -2499,7 +2503,7 @@
       <c r="Z13" s="12"/>
       <c r="AA13" s="12"/>
     </row>
-    <row r="14" spans="1:27" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="21" t="s">
         <v>64</v>
       </c>
@@ -2537,7 +2541,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:27" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.2">
       <c r="A15" s="21" t="s">
         <v>67</v>
       </c>
@@ -2575,7 +2579,7 @@
       </c>
       <c r="M15" s="9"/>
     </row>
-    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="21" t="s">
         <v>72</v>
       </c>
@@ -2613,7 +2617,7 @@
       </c>
       <c r="M16" s="9"/>
     </row>
-    <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
         <v>340</v>
       </c>
@@ -2651,7 +2655,7 @@
       </c>
       <c r="M17" s="9"/>
     </row>
-    <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
         <v>347</v>
       </c>
@@ -2689,7 +2693,7 @@
       </c>
       <c r="M18" s="9"/>
     </row>
-    <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="21" t="s">
         <v>75</v>
       </c>
@@ -2727,7 +2731,7 @@
       </c>
       <c r="M19" s="9"/>
     </row>
-    <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="21" t="s">
         <v>78</v>
       </c>
@@ -2765,7 +2769,7 @@
       </c>
       <c r="M20" s="9"/>
     </row>
-    <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="21" t="s">
         <v>80</v>
       </c>
@@ -2805,7 +2809,7 @@
       </c>
       <c r="M21" s="9"/>
     </row>
-    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="21" t="s">
         <v>84</v>
       </c>
@@ -2845,7 +2849,7 @@
       </c>
       <c r="M22" s="9"/>
     </row>
-    <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="21" t="s">
         <v>88</v>
       </c>
@@ -2886,7 +2890,7 @@
       </c>
       <c r="M23" s="9"/>
     </row>
-    <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
         <v>319</v>
       </c>
@@ -2927,7 +2931,7 @@
       </c>
       <c r="M24" s="9"/>
     </row>
-    <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="21" t="s">
         <v>95</v>
       </c>
@@ -2971,7 +2975,7 @@
       <c r="Z25" s="9"/>
       <c r="AA25" s="9"/>
     </row>
-    <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="21" t="s">
         <v>98</v>
       </c>
@@ -3014,7 +3018,7 @@
       <c r="Z26" s="9"/>
       <c r="AA26" s="9"/>
     </row>
-    <row r="27" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="21" t="s">
         <v>102</v>
       </c>
@@ -3057,7 +3061,7 @@
       <c r="Z27" s="9"/>
       <c r="AA27" s="9"/>
     </row>
-    <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
         <v>322</v>
       </c>
@@ -3101,7 +3105,7 @@
       <c r="Z28" s="9"/>
       <c r="AA28" s="9"/>
     </row>
-    <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
         <v>323</v>
       </c>
@@ -3144,7 +3148,7 @@
       <c r="Z29" s="9"/>
       <c r="AA29" s="9"/>
     </row>
-    <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
         <v>326</v>
       </c>
@@ -3184,7 +3188,7 @@
       </c>
       <c r="M30" s="9"/>
     </row>
-    <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
         <v>327</v>
       </c>
@@ -3224,7 +3228,7 @@
       </c>
       <c r="M31" s="9"/>
     </row>
-    <row r="32" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
         <v>329</v>
       </c>
@@ -3264,7 +3268,7 @@
       </c>
       <c r="M32" s="9"/>
     </row>
-    <row r="33" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
         <v>331</v>
       </c>
@@ -3304,7 +3308,7 @@
       </c>
       <c r="M33" s="9"/>
     </row>
-    <row r="34" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
         <v>332</v>
       </c>
@@ -3344,7 +3348,7 @@
       </c>
       <c r="M34" s="9"/>
     </row>
-    <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
         <v>333</v>
       </c>
@@ -3384,7 +3388,7 @@
       </c>
       <c r="M35" s="9"/>
     </row>
-    <row r="36" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="21" t="s">
         <v>125</v>
       </c>
@@ -3424,7 +3428,7 @@
       </c>
       <c r="M36" s="9"/>
     </row>
-    <row r="37" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="21" t="s">
         <v>127</v>
       </c>
@@ -3464,7 +3468,7 @@
       </c>
       <c r="M37" s="9"/>
     </row>
-    <row r="38" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
         <v>131</v>
       </c>
@@ -3504,7 +3508,7 @@
       </c>
       <c r="M38" s="9"/>
     </row>
-    <row r="39" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
         <v>135</v>
       </c>
@@ -3544,7 +3548,7 @@
       </c>
       <c r="M39" s="9"/>
     </row>
-    <row r="40" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
         <v>139</v>
       </c>
@@ -3585,7 +3589,7 @@
       </c>
       <c r="M40" s="9"/>
     </row>
-    <row r="41" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
         <v>142</v>
       </c>
@@ -3625,7 +3629,7 @@
       </c>
       <c r="M41" s="9"/>
     </row>
-    <row r="42" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
         <v>146</v>
       </c>
@@ -3668,7 +3672,7 @@
       <c r="Z42" s="9"/>
       <c r="AA42" s="9"/>
     </row>
-    <row r="43" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
         <v>150</v>
       </c>
@@ -3711,7 +3715,7 @@
       <c r="Z43" s="9"/>
       <c r="AA43" s="9"/>
     </row>
-    <row r="44" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
         <v>154</v>
       </c>
@@ -3754,7 +3758,7 @@
       <c r="Z44" s="9"/>
       <c r="AA44" s="9"/>
     </row>
-    <row r="45" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
         <v>158</v>
       </c>
@@ -3797,7 +3801,7 @@
       <c r="Z45" s="9"/>
       <c r="AA45" s="9"/>
     </row>
-    <row r="46" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
         <v>162</v>
       </c>
@@ -3837,7 +3841,7 @@
       </c>
       <c r="M46" s="9"/>
     </row>
-    <row r="47" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
         <v>166</v>
       </c>
@@ -3877,7 +3881,7 @@
       </c>
       <c r="M47" s="9"/>
     </row>
-    <row r="48" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
         <v>171</v>
       </c>
@@ -3915,7 +3919,7 @@
       </c>
       <c r="M48" s="9"/>
     </row>
-    <row r="49" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
         <v>173</v>
       </c>
@@ -3953,7 +3957,7 @@
       </c>
       <c r="M49" s="9"/>
     </row>
-    <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
         <v>175</v>
       </c>
@@ -3991,7 +3995,7 @@
       </c>
       <c r="M50" s="9"/>
     </row>
-    <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
         <v>176</v>
       </c>
@@ -4029,7 +4033,7 @@
       </c>
       <c r="M51" s="9"/>
     </row>
-    <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
         <v>179</v>
       </c>
@@ -4069,7 +4073,7 @@
       </c>
       <c r="M52" s="9"/>
     </row>
-    <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
         <v>182</v>
       </c>
@@ -4109,7 +4113,7 @@
       </c>
       <c r="M53" s="9"/>
     </row>
-    <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
         <v>185</v>
       </c>
@@ -4149,7 +4153,7 @@
       </c>
       <c r="M54" s="9"/>
     </row>
-    <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
         <v>188</v>
       </c>
@@ -4189,7 +4193,7 @@
       </c>
       <c r="M55" s="9"/>
     </row>
-    <row r="56" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
         <v>191</v>
       </c>
@@ -4229,7 +4233,7 @@
       </c>
       <c r="M56" s="9"/>
     </row>
-    <row r="57" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
         <v>194</v>
       </c>
@@ -4269,7 +4273,7 @@
       </c>
       <c r="M57" s="9"/>
     </row>
-    <row r="58" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
         <v>196</v>
       </c>
@@ -4309,7 +4313,7 @@
       </c>
       <c r="M58" s="9"/>
     </row>
-    <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
         <v>199</v>
       </c>
@@ -4349,7 +4353,7 @@
       </c>
       <c r="M59" s="9"/>
     </row>
-    <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="29" t="s">
         <v>202</v>
       </c>
@@ -4389,7 +4393,7 @@
       </c>
       <c r="M60" s="9"/>
     </row>
-    <row r="61" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="29" t="s">
         <v>205</v>
       </c>
@@ -4429,7 +4433,7 @@
       </c>
       <c r="M61" s="9"/>
     </row>
-    <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
         <v>208</v>
       </c>
@@ -4469,7 +4473,7 @@
       </c>
       <c r="M62" s="9"/>
     </row>
-    <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
         <v>211</v>
       </c>
@@ -4509,12 +4513,12 @@
       </c>
       <c r="M63" s="9"/>
     </row>
-    <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
         <v>213</v>
       </c>
       <c r="B64" s="39">
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="C64" s="39">
         <v>8</v>
@@ -4542,14 +4546,14 @@
       </c>
       <c r="K64" s="23">
         <f t="shared" si="2"/>
-        <v>9.56</v>
+        <v>4.78</v>
       </c>
       <c r="L64" s="28" t="s">
         <v>215</v>
       </c>
       <c r="M64" s="9"/>
     </row>
-    <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
         <v>216</v>
       </c>
@@ -4589,7 +4593,7 @@
       </c>
       <c r="M65" s="9"/>
     </row>
-    <row r="66" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
         <v>218</v>
       </c>
@@ -4629,7 +4633,7 @@
       </c>
       <c r="M66" s="9"/>
     </row>
-    <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
         <v>220</v>
       </c>
@@ -4669,7 +4673,7 @@
       </c>
       <c r="M67" s="9"/>
     </row>
-    <row r="68" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
         <v>222</v>
       </c>
@@ -4709,7 +4713,7 @@
       </c>
       <c r="M68" s="9"/>
     </row>
-    <row r="69" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
         <v>226</v>
       </c>
@@ -4749,7 +4753,7 @@
       </c>
       <c r="M69" s="9"/>
     </row>
-    <row r="70" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
         <v>229</v>
       </c>
@@ -4789,7 +4793,7 @@
       </c>
       <c r="M70" s="9"/>
     </row>
-    <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
         <v>232</v>
       </c>
@@ -4829,7 +4833,7 @@
       </c>
       <c r="M71" s="9"/>
     </row>
-    <row r="72" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
         <v>235</v>
       </c>
@@ -4869,7 +4873,7 @@
       </c>
       <c r="M72" s="9"/>
     </row>
-    <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="29" t="s">
         <v>238</v>
       </c>
@@ -4904,12 +4908,12 @@
         <f t="shared" si="2"/>
         <v>19.96</v>
       </c>
-      <c r="L73" s="28" t="s">
-        <v>237</v>
+      <c r="L73" s="110" t="s">
+        <v>365</v>
       </c>
       <c r="M73" s="9"/>
     </row>
-    <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
         <v>240</v>
       </c>
@@ -4949,12 +4953,12 @@
       </c>
       <c r="M74" s="9"/>
     </row>
-    <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
         <v>243</v>
       </c>
       <c r="B75" s="39">
-        <v>34</v>
+        <v>15</v>
       </c>
       <c r="C75" s="39">
         <f>16+6+8</f>
@@ -4983,14 +4987,14 @@
       </c>
       <c r="K75" s="23">
         <f t="shared" si="2"/>
-        <v>67.83</v>
+        <v>29.925000000000001</v>
       </c>
       <c r="L75" s="28" t="s">
         <v>243</v>
       </c>
       <c r="M75" s="9"/>
     </row>
-    <row r="76" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
         <v>245</v>
       </c>
@@ -5030,7 +5034,7 @@
       </c>
       <c r="M76" s="9"/>
     </row>
-    <row r="77" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
         <v>248</v>
       </c>
@@ -5070,7 +5074,7 @@
       </c>
       <c r="M77" s="9"/>
     </row>
-    <row r="78" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
         <v>250</v>
       </c>
@@ -5110,12 +5114,12 @@
       </c>
       <c r="M78" s="9"/>
     </row>
-    <row r="79" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="29" t="s">
         <v>253</v>
       </c>
       <c r="B79" s="41">
-        <v>16</v>
+        <v>5</v>
       </c>
       <c r="C79" s="41">
         <v>20</v>
@@ -5143,13 +5147,13 @@
       </c>
       <c r="K79" s="23">
         <f t="shared" si="2"/>
-        <v>7.16</v>
+        <v>2.2374999999999998</v>
       </c>
       <c r="L79" s="30" t="s">
         <v>255</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
         <v>256</v>
       </c>
@@ -5186,7 +5190,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
         <v>259</v>
       </c>
@@ -5223,7 +5227,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
         <v>261</v>
       </c>
@@ -5261,7 +5265,7 @@
       </c>
       <c r="M82" s="15"/>
     </row>
-    <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
         <v>264</v>
       </c>
@@ -5298,7 +5302,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
         <v>267</v>
       </c>
@@ -5335,7 +5339,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
         <v>270</v>
       </c>
@@ -5372,7 +5376,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
         <v>273</v>
       </c>
@@ -5410,7 +5414,7 @@
       </c>
       <c r="M86" s="15"/>
     </row>
-    <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
         <v>276</v>
       </c>
@@ -5447,7 +5451,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="76" t="s">
         <v>279</v>
       </c>
@@ -5482,7 +5486,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="78" t="s">
         <v>282</v>
       </c>
@@ -5517,7 +5521,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="81" t="s">
         <v>285</v>
       </c>
@@ -5550,7 +5554,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="81" t="s">
         <v>287</v>
       </c>
@@ -5583,7 +5587,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="87" t="s">
         <v>289</v>
       </c>
@@ -5618,7 +5622,7 @@
         <v>291</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="87" t="s">
         <v>292</v>
       </c>
@@ -5653,7 +5657,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="87" t="s">
         <v>295</v>
       </c>
@@ -5688,7 +5692,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="87" t="s">
         <v>298</v>
       </c>
@@ -5723,7 +5727,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="87" t="s">
         <v>301</v>
       </c>
@@ -5758,7 +5762,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="97" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="62" t="s">
         <v>10</v>
       </c>
@@ -5793,7 +5797,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="92" t="s">
         <v>14</v>
       </c>
@@ -5828,7 +5832,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="99" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="92" t="s">
         <v>18</v>
       </c>
@@ -5863,7 +5867,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="100" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="92" t="s">
         <v>22</v>
       </c>
@@ -5900,7 +5904,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="101" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="92" t="s">
         <v>25</v>
       </c>
@@ -5937,7 +5941,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="102" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="97" t="s">
         <v>27</v>
       </c>
@@ -5970,7 +5974,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="103" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A103" s="31" t="s">
         <v>334</v>
       </c>
@@ -6009,7 +6013,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="104" spans="1:12" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A104" s="34" t="s">
         <v>337</v>
       </c>
@@ -6048,7 +6052,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="105" spans="1:12" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A105" s="34" t="s">
         <v>342</v>
       </c>
@@ -6083,7 +6087,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="106" spans="1:12" s="35" customFormat="1" ht="14.25" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:12" s="35" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A106" s="34" t="s">
         <v>346</v>
       </c>
@@ -6118,7 +6122,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="107" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="16"/>
       <c r="B107" s="17"/>
       <c r="C107" s="17"/>
@@ -6129,7 +6133,7 @@
       <c r="K107" s="19"/>
       <c r="L107" s="20"/>
     </row>
-    <row r="108" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="16"/>
       <c r="B108" s="17"/>
       <c r="C108" s="17"/>
@@ -6140,7 +6144,7 @@
       <c r="K108" s="19"/>
       <c r="L108" s="20"/>
     </row>
-    <row r="109" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="16"/>
       <c r="B109" s="17"/>
       <c r="C109" s="17"/>
@@ -6157,7 +6161,7 @@
       <c r="K109" s="19"/>
       <c r="L109" s="20"/>
     </row>
-    <row r="110" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="16"/>
       <c r="B110" s="17"/>
       <c r="C110" s="17"/>
@@ -6174,7 +6178,7 @@
       <c r="K110" s="19"/>
       <c r="L110" s="20"/>
     </row>
-    <row r="111" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="16"/>
       <c r="B111" s="17"/>
       <c r="C111" s="17"/>
@@ -6185,7 +6189,7 @@
       <c r="K111" s="19"/>
       <c r="L111" s="20"/>
     </row>
-    <row r="112" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="16"/>
       <c r="B112" s="17"/>
       <c r="C112" s="17"/>
@@ -6196,7 +6200,7 @@
       <c r="K112" s="19"/>
       <c r="L112" s="20"/>
     </row>
-    <row r="113" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="16"/>
       <c r="B113" s="17"/>
       <c r="C113" s="17"/>
@@ -6207,7 +6211,7 @@
       <c r="K113" s="19"/>
       <c r="L113" s="20"/>
     </row>
-    <row r="114" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="16"/>
       <c r="B114" s="17"/>
       <c r="C114" s="17"/>
@@ -6218,7 +6222,7 @@
       <c r="K114" s="19"/>
       <c r="L114" s="20"/>
     </row>
-    <row r="115" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="16"/>
       <c r="B115" s="17"/>
       <c r="C115" s="17"/>
@@ -6229,7 +6233,7 @@
       <c r="K115" s="19"/>
       <c r="L115" s="20"/>
     </row>
-    <row r="116" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="16"/>
       <c r="B116" s="17"/>
       <c r="C116" s="17"/>
@@ -6240,7 +6244,7 @@
       <c r="K116" s="19"/>
       <c r="L116" s="20"/>
     </row>
-    <row r="117" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="16"/>
       <c r="B117" s="17"/>
       <c r="C117" s="17"/>
@@ -6251,7 +6255,7 @@
       <c r="K117" s="19"/>
       <c r="L117" s="20"/>
     </row>
-    <row r="118" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="16"/>
       <c r="B118" s="17"/>
       <c r="C118" s="17"/>
@@ -6262,7 +6266,7 @@
       <c r="K118" s="19"/>
       <c r="L118" s="20"/>
     </row>
-    <row r="119" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="16"/>
       <c r="B119" s="17"/>
       <c r="C119" s="17"/>
@@ -6273,7 +6277,7 @@
       <c r="K119" s="19"/>
       <c r="L119" s="20"/>
     </row>
-    <row r="120" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="16"/>
       <c r="B120" s="17"/>
       <c r="C120" s="17"/>
@@ -6284,7 +6288,7 @@
       <c r="K120" s="19"/>
       <c r="L120" s="20"/>
     </row>
-    <row r="121" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="16"/>
       <c r="B121" s="17"/>
       <c r="C121" s="17"/>
@@ -6295,7 +6299,7 @@
       <c r="K121" s="19"/>
       <c r="L121" s="20"/>
     </row>
-    <row r="122" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="16"/>
       <c r="B122" s="17"/>
       <c r="C122" s="17"/>
@@ -6306,7 +6310,7 @@
       <c r="K122" s="19"/>
       <c r="L122" s="20"/>
     </row>
-    <row r="123" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="16"/>
       <c r="B123" s="17"/>
       <c r="C123" s="17"/>
@@ -6317,7 +6321,7 @@
       <c r="K123" s="19"/>
       <c r="L123" s="20"/>
     </row>
-    <row r="124" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="16"/>
       <c r="B124" s="17"/>
       <c r="C124" s="17"/>
@@ -6328,7 +6332,7 @@
       <c r="K124" s="19"/>
       <c r="L124" s="20"/>
     </row>
-    <row r="125" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="16"/>
       <c r="B125" s="17"/>
       <c r="C125" s="17"/>
@@ -6339,7 +6343,7 @@
       <c r="K125" s="19"/>
       <c r="L125" s="20"/>
     </row>
-    <row r="126" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="16"/>
       <c r="B126" s="17"/>
       <c r="C126" s="17"/>
@@ -6350,7 +6354,7 @@
       <c r="K126" s="19"/>
       <c r="L126" s="20"/>
     </row>
-    <row r="127" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="16"/>
       <c r="B127" s="17"/>
       <c r="C127" s="17"/>
@@ -6361,7 +6365,7 @@
       <c r="K127" s="19"/>
       <c r="L127" s="20"/>
     </row>
-    <row r="128" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="128" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="16"/>
       <c r="B128" s="17"/>
       <c r="C128" s="17"/>
@@ -6372,7 +6376,7 @@
       <c r="K128" s="19"/>
       <c r="L128" s="20"/>
     </row>
-    <row r="129" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="129" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="16"/>
       <c r="B129" s="17"/>
       <c r="C129" s="17"/>
@@ -6383,7 +6387,7 @@
       <c r="K129" s="19"/>
       <c r="L129" s="20"/>
     </row>
-    <row r="130" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="130" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="16"/>
       <c r="B130" s="17"/>
       <c r="C130" s="17"/>
@@ -6394,7 +6398,7 @@
       <c r="K130" s="19"/>
       <c r="L130" s="20"/>
     </row>
-    <row r="131" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="131" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="16"/>
       <c r="B131" s="17"/>
       <c r="C131" s="17"/>
@@ -6405,7 +6409,7 @@
       <c r="K131" s="19"/>
       <c r="L131" s="20"/>
     </row>
-    <row r="132" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="132" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="16"/>
       <c r="B132" s="17"/>
       <c r="C132" s="17"/>
@@ -6416,7 +6420,7 @@
       <c r="K132" s="19"/>
       <c r="L132" s="20"/>
     </row>
-    <row r="133" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="133" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="16"/>
       <c r="B133" s="17"/>
       <c r="C133" s="17"/>
@@ -6427,7 +6431,7 @@
       <c r="K133" s="19"/>
       <c r="L133" s="20"/>
     </row>
-    <row r="134" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="134" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="16"/>
       <c r="B134" s="17"/>
       <c r="C134" s="17"/>
@@ -6438,7 +6442,7 @@
       <c r="K134" s="19"/>
       <c r="L134" s="20"/>
     </row>
-    <row r="135" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="135" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="16"/>
       <c r="B135" s="17"/>
       <c r="C135" s="17"/>
@@ -6449,7 +6453,7 @@
       <c r="K135" s="19"/>
       <c r="L135" s="20"/>
     </row>
-    <row r="136" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="136" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="16"/>
       <c r="B136" s="17"/>
       <c r="C136" s="17"/>
@@ -6460,7 +6464,7 @@
       <c r="K136" s="19"/>
       <c r="L136" s="20"/>
     </row>
-    <row r="137" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="137" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="16"/>
       <c r="B137" s="17"/>
       <c r="C137" s="17"/>
@@ -6471,7 +6475,7 @@
       <c r="K137" s="19"/>
       <c r="L137" s="20"/>
     </row>
-    <row r="138" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="138" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="16"/>
       <c r="B138" s="17"/>
       <c r="C138" s="17"/>
@@ -6482,7 +6486,7 @@
       <c r="K138" s="19"/>
       <c r="L138" s="20"/>
     </row>
-    <row r="139" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="139" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="16"/>
       <c r="B139" s="17"/>
       <c r="C139" s="17"/>
@@ -6493,7 +6497,7 @@
       <c r="K139" s="19"/>
       <c r="L139" s="20"/>
     </row>
-    <row r="140" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="140" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="16"/>
       <c r="B140" s="17"/>
       <c r="C140" s="17"/>
@@ -6504,7 +6508,7 @@
       <c r="K140" s="19"/>
       <c r="L140" s="20"/>
     </row>
-    <row r="141" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="141" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="16"/>
       <c r="B141" s="17"/>
       <c r="C141" s="17"/>
@@ -6515,7 +6519,7 @@
       <c r="K141" s="19"/>
       <c r="L141" s="20"/>
     </row>
-    <row r="142" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="142" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="16"/>
       <c r="B142" s="17"/>
       <c r="C142" s="17"/>
@@ -6526,7 +6530,7 @@
       <c r="K142" s="19"/>
       <c r="L142" s="20"/>
     </row>
-    <row r="143" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="143" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="16"/>
       <c r="B143" s="17"/>
       <c r="C143" s="17"/>
@@ -6537,7 +6541,7 @@
       <c r="K143" s="19"/>
       <c r="L143" s="20"/>
     </row>
-    <row r="144" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="144" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="16"/>
       <c r="B144" s="17"/>
       <c r="C144" s="17"/>
@@ -6548,7 +6552,7 @@
       <c r="K144" s="19"/>
       <c r="L144" s="20"/>
     </row>
-    <row r="145" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="145" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="16"/>
       <c r="B145" s="17"/>
       <c r="C145" s="17"/>
@@ -6559,7 +6563,7 @@
       <c r="K145" s="19"/>
       <c r="L145" s="20"/>
     </row>
-    <row r="146" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="146" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="16"/>
       <c r="B146" s="17"/>
       <c r="C146" s="17"/>
@@ -6570,7 +6574,7 @@
       <c r="K146" s="19"/>
       <c r="L146" s="20"/>
     </row>
-    <row r="147" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="147" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="16"/>
       <c r="B147" s="17"/>
       <c r="C147" s="17"/>
@@ -6581,7 +6585,7 @@
       <c r="K147" s="19"/>
       <c r="L147" s="20"/>
     </row>
-    <row r="148" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="148" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="16"/>
       <c r="B148" s="17"/>
       <c r="C148" s="17"/>
@@ -6592,7 +6596,7 @@
       <c r="K148" s="19"/>
       <c r="L148" s="20"/>
     </row>
-    <row r="149" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="149" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="16"/>
       <c r="B149" s="17"/>
       <c r="C149" s="17"/>
@@ -6603,7 +6607,7 @@
       <c r="K149" s="19"/>
       <c r="L149" s="20"/>
     </row>
-    <row r="150" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="150" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="16"/>
       <c r="B150" s="17"/>
       <c r="C150" s="17"/>
@@ -6614,7 +6618,7 @@
       <c r="K150" s="19"/>
       <c r="L150" s="20"/>
     </row>
-    <row r="151" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="151" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="16"/>
       <c r="B151" s="17"/>
       <c r="C151" s="17"/>
@@ -6625,7 +6629,7 @@
       <c r="K151" s="19"/>
       <c r="L151" s="20"/>
     </row>
-    <row r="152" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="152" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="16"/>
       <c r="B152" s="17"/>
       <c r="C152" s="17"/>
@@ -6636,7 +6640,7 @@
       <c r="K152" s="19"/>
       <c r="L152" s="20"/>
     </row>
-    <row r="153" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="153" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="16"/>
       <c r="B153" s="17"/>
       <c r="C153" s="17"/>
@@ -6647,7 +6651,7 @@
       <c r="K153" s="19"/>
       <c r="L153" s="20"/>
     </row>
-    <row r="154" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="154" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="16"/>
       <c r="B154" s="17"/>
       <c r="C154" s="17"/>
@@ -6658,7 +6662,7 @@
       <c r="K154" s="19"/>
       <c r="L154" s="20"/>
     </row>
-    <row r="155" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="155" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A155" s="16"/>
       <c r="B155" s="17"/>
       <c r="C155" s="17"/>
@@ -6669,7 +6673,7 @@
       <c r="K155" s="19"/>
       <c r="L155" s="20"/>
     </row>
-    <row r="156" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="156" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A156" s="16"/>
       <c r="B156" s="17"/>
       <c r="C156" s="17"/>
@@ -6680,7 +6684,7 @@
       <c r="K156" s="19"/>
       <c r="L156" s="20"/>
     </row>
-    <row r="157" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="157" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A157" s="16"/>
       <c r="B157" s="17"/>
       <c r="C157" s="17"/>
@@ -6691,7 +6695,7 @@
       <c r="K157" s="19"/>
       <c r="L157" s="20"/>
     </row>
-    <row r="158" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="158" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A158" s="16"/>
       <c r="B158" s="17"/>
       <c r="C158" s="17"/>
@@ -6702,7 +6706,7 @@
       <c r="K158" s="19"/>
       <c r="L158" s="20"/>
     </row>
-    <row r="159" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="159" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A159" s="16"/>
       <c r="B159" s="17"/>
       <c r="C159" s="17"/>
@@ -6713,7 +6717,7 @@
       <c r="K159" s="19"/>
       <c r="L159" s="20"/>
     </row>
-    <row r="160" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="160" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A160" s="16"/>
       <c r="B160" s="17"/>
       <c r="C160" s="17"/>
@@ -6724,7 +6728,7 @@
       <c r="K160" s="19"/>
       <c r="L160" s="20"/>
     </row>
-    <row r="161" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="161" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A161" s="16"/>
       <c r="B161" s="17"/>
       <c r="C161" s="17"/>
@@ -6735,7 +6739,7 @@
       <c r="K161" s="19"/>
       <c r="L161" s="20"/>
     </row>
-    <row r="162" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="162" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A162" s="16"/>
       <c r="B162" s="17"/>
       <c r="C162" s="17"/>
@@ -6746,7 +6750,7 @@
       <c r="K162" s="19"/>
       <c r="L162" s="20"/>
     </row>
-    <row r="163" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="163" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A163" s="16"/>
       <c r="B163" s="17"/>
       <c r="C163" s="17"/>
@@ -6757,7 +6761,7 @@
       <c r="K163" s="19"/>
       <c r="L163" s="20"/>
     </row>
-    <row r="164" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="164" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A164" s="16"/>
       <c r="B164" s="17"/>
       <c r="C164" s="17"/>
@@ -6768,7 +6772,7 @@
       <c r="K164" s="19"/>
       <c r="L164" s="20"/>
     </row>
-    <row r="165" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="165" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A165" s="16"/>
       <c r="B165" s="17"/>
       <c r="C165" s="17"/>
@@ -6779,7 +6783,7 @@
       <c r="K165" s="19"/>
       <c r="L165" s="20"/>
     </row>
-    <row r="166" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="166" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A166" s="16"/>
       <c r="B166" s="17"/>
       <c r="C166" s="17"/>
@@ -6790,7 +6794,7 @@
       <c r="K166" s="19"/>
       <c r="L166" s="20"/>
     </row>
-    <row r="167" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="167" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A167" s="16"/>
       <c r="B167" s="17"/>
       <c r="C167" s="17"/>
@@ -6801,7 +6805,7 @@
       <c r="K167" s="19"/>
       <c r="L167" s="20"/>
     </row>
-    <row r="168" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="168" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A168" s="16"/>
       <c r="B168" s="17"/>
       <c r="C168" s="17"/>
@@ -6812,7 +6816,7 @@
       <c r="K168" s="19"/>
       <c r="L168" s="20"/>
     </row>
-    <row r="169" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="169" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A169" s="16"/>
       <c r="B169" s="17"/>
       <c r="C169" s="17"/>
@@ -6823,7 +6827,7 @@
       <c r="K169" s="19"/>
       <c r="L169" s="20"/>
     </row>
-    <row r="170" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="170" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A170" s="16"/>
       <c r="B170" s="17"/>
       <c r="C170" s="17"/>
@@ -6834,7 +6838,7 @@
       <c r="K170" s="19"/>
       <c r="L170" s="20"/>
     </row>
-    <row r="171" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="171" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A171" s="16"/>
       <c r="B171" s="17"/>
       <c r="C171" s="17"/>
@@ -6845,7 +6849,7 @@
       <c r="K171" s="19"/>
       <c r="L171" s="20"/>
     </row>
-    <row r="172" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="172" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A172" s="16"/>
       <c r="B172" s="17"/>
       <c r="C172" s="17"/>
@@ -6856,7 +6860,7 @@
       <c r="K172" s="19"/>
       <c r="L172" s="20"/>
     </row>
-    <row r="173" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="173" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A173" s="16"/>
       <c r="B173" s="17"/>
       <c r="C173" s="17"/>
@@ -6867,7 +6871,7 @@
       <c r="K173" s="19"/>
       <c r="L173" s="20"/>
     </row>
-    <row r="174" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="174" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A174" s="16"/>
       <c r="B174" s="17"/>
       <c r="C174" s="17"/>
@@ -6878,7 +6882,7 @@
       <c r="K174" s="19"/>
       <c r="L174" s="20"/>
     </row>
-    <row r="175" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="175" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A175" s="16"/>
       <c r="B175" s="17"/>
       <c r="C175" s="17"/>
@@ -6889,7 +6893,7 @@
       <c r="K175" s="19"/>
       <c r="L175" s="20"/>
     </row>
-    <row r="176" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="176" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A176" s="16"/>
       <c r="B176" s="17"/>
       <c r="C176" s="17"/>
@@ -6900,7 +6904,7 @@
       <c r="K176" s="19"/>
       <c r="L176" s="20"/>
     </row>
-    <row r="177" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="177" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A177" s="16"/>
       <c r="B177" s="17"/>
       <c r="C177" s="17"/>
@@ -6911,7 +6915,7 @@
       <c r="K177" s="19"/>
       <c r="L177" s="20"/>
     </row>
-    <row r="178" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="178" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A178" s="16"/>
       <c r="B178" s="17"/>
       <c r="C178" s="17"/>
@@ -6922,7 +6926,7 @@
       <c r="K178" s="19"/>
       <c r="L178" s="20"/>
     </row>
-    <row r="179" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="179" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A179" s="16"/>
       <c r="B179" s="17"/>
       <c r="C179" s="17"/>
@@ -6933,7 +6937,7 @@
       <c r="K179" s="19"/>
       <c r="L179" s="20"/>
     </row>
-    <row r="180" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="180" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A180" s="16"/>
       <c r="B180" s="17"/>
       <c r="C180" s="17"/>
@@ -6944,7 +6948,7 @@
       <c r="K180" s="19"/>
       <c r="L180" s="20"/>
     </row>
-    <row r="181" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="181" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A181" s="16"/>
       <c r="B181" s="17"/>
       <c r="C181" s="17"/>
@@ -6955,7 +6959,7 @@
       <c r="K181" s="19"/>
       <c r="L181" s="20"/>
     </row>
-    <row r="182" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="182" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A182" s="16"/>
       <c r="B182" s="17"/>
       <c r="C182" s="17"/>
@@ -6966,7 +6970,7 @@
       <c r="K182" s="19"/>
       <c r="L182" s="20"/>
     </row>
-    <row r="183" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="183" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A183" s="16"/>
       <c r="B183" s="17"/>
       <c r="C183" s="17"/>
@@ -6977,7 +6981,7 @@
       <c r="K183" s="19"/>
       <c r="L183" s="20"/>
     </row>
-    <row r="184" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="184" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A184" s="16"/>
       <c r="B184" s="17"/>
       <c r="C184" s="17"/>
@@ -6988,7 +6992,7 @@
       <c r="K184" s="19"/>
       <c r="L184" s="20"/>
     </row>
-    <row r="185" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="185" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A185" s="16"/>
       <c r="B185" s="17"/>
       <c r="C185" s="17"/>
@@ -6999,7 +7003,7 @@
       <c r="K185" s="19"/>
       <c r="L185" s="20"/>
     </row>
-    <row r="186" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="186" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A186" s="16"/>
       <c r="B186" s="17"/>
       <c r="C186" s="17"/>
@@ -7010,7 +7014,7 @@
       <c r="K186" s="19"/>
       <c r="L186" s="20"/>
     </row>
-    <row r="187" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="187" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A187" s="16"/>
       <c r="B187" s="17"/>
       <c r="C187" s="17"/>
@@ -7021,7 +7025,7 @@
       <c r="K187" s="19"/>
       <c r="L187" s="20"/>
     </row>
-    <row r="188" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="188" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A188" s="16"/>
       <c r="B188" s="17"/>
       <c r="C188" s="17"/>
@@ -7032,7 +7036,7 @@
       <c r="K188" s="19"/>
       <c r="L188" s="20"/>
     </row>
-    <row r="189" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="189" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A189" s="16"/>
       <c r="B189" s="17"/>
       <c r="C189" s="17"/>
@@ -7043,7 +7047,7 @@
       <c r="K189" s="19"/>
       <c r="L189" s="20"/>
     </row>
-    <row r="190" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="190" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A190" s="16"/>
       <c r="B190" s="17"/>
       <c r="C190" s="17"/>
@@ -7054,7 +7058,7 @@
       <c r="K190" s="19"/>
       <c r="L190" s="20"/>
     </row>
-    <row r="191" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="191" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A191" s="16"/>
       <c r="B191" s="17"/>
       <c r="C191" s="17"/>
@@ -7065,7 +7069,7 @@
       <c r="K191" s="19"/>
       <c r="L191" s="20"/>
     </row>
-    <row r="192" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="192" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A192" s="16"/>
       <c r="B192" s="17"/>
       <c r="C192" s="17"/>
@@ -7076,7 +7080,7 @@
       <c r="K192" s="19"/>
       <c r="L192" s="20"/>
     </row>
-    <row r="193" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="193" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A193" s="16"/>
       <c r="B193" s="17"/>
       <c r="C193" s="17"/>
@@ -7087,7 +7091,7 @@
       <c r="K193" s="19"/>
       <c r="L193" s="20"/>
     </row>
-    <row r="194" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="194" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A194" s="16"/>
       <c r="B194" s="17"/>
       <c r="C194" s="17"/>
@@ -7098,7 +7102,7 @@
       <c r="K194" s="19"/>
       <c r="L194" s="20"/>
     </row>
-    <row r="195" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="195" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A195" s="16"/>
       <c r="B195" s="17"/>
       <c r="C195" s="17"/>
@@ -7109,7 +7113,7 @@
       <c r="K195" s="19"/>
       <c r="L195" s="20"/>
     </row>
-    <row r="196" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="196" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A196" s="16"/>
       <c r="B196" s="17"/>
       <c r="C196" s="17"/>
@@ -7120,7 +7124,7 @@
       <c r="K196" s="19"/>
       <c r="L196" s="20"/>
     </row>
-    <row r="197" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="197" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A197" s="16"/>
       <c r="B197" s="17"/>
       <c r="C197" s="17"/>
@@ -7131,7 +7135,7 @@
       <c r="K197" s="19"/>
       <c r="L197" s="20"/>
     </row>
-    <row r="198" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="198" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A198" s="16"/>
       <c r="B198" s="17"/>
       <c r="C198" s="17"/>
@@ -7142,7 +7146,7 @@
       <c r="K198" s="19"/>
       <c r="L198" s="20"/>
     </row>
-    <row r="199" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="199" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A199" s="16"/>
       <c r="B199" s="17"/>
       <c r="C199" s="17"/>
@@ -7153,7 +7157,7 @@
       <c r="K199" s="19"/>
       <c r="L199" s="20"/>
     </row>
-    <row r="200" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="200" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A200" s="16"/>
       <c r="B200" s="17"/>
       <c r="C200" s="17"/>
@@ -7164,7 +7168,7 @@
       <c r="K200" s="19"/>
       <c r="L200" s="20"/>
     </row>
-    <row r="201" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="201" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A201" s="16"/>
       <c r="B201" s="17"/>
       <c r="C201" s="17"/>
@@ -7175,7 +7179,7 @@
       <c r="K201" s="19"/>
       <c r="L201" s="20"/>
     </row>
-    <row r="202" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="202" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A202" s="16"/>
       <c r="B202" s="17"/>
       <c r="C202" s="17"/>
@@ -7186,7 +7190,7 @@
       <c r="K202" s="19"/>
       <c r="L202" s="20"/>
     </row>
-    <row r="203" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="203" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A203" s="16"/>
       <c r="B203" s="17"/>
       <c r="C203" s="17"/>
@@ -7197,7 +7201,7 @@
       <c r="K203" s="19"/>
       <c r="L203" s="20"/>
     </row>
-    <row r="204" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="204" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A204" s="16"/>
       <c r="B204" s="17"/>
       <c r="C204" s="17"/>
@@ -7208,7 +7212,7 @@
       <c r="K204" s="19"/>
       <c r="L204" s="20"/>
     </row>
-    <row r="205" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="205" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A205" s="16"/>
       <c r="B205" s="17"/>
       <c r="C205" s="17"/>
@@ -7219,7 +7223,7 @@
       <c r="K205" s="19"/>
       <c r="L205" s="20"/>
     </row>
-    <row r="206" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="206" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A206" s="16"/>
       <c r="B206" s="17"/>
       <c r="C206" s="17"/>
@@ -7230,7 +7234,7 @@
       <c r="K206" s="19"/>
       <c r="L206" s="20"/>
     </row>
-    <row r="207" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="207" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A207" s="16"/>
       <c r="B207" s="17"/>
       <c r="C207" s="17"/>
@@ -7241,7 +7245,7 @@
       <c r="K207" s="19"/>
       <c r="L207" s="20"/>
     </row>
-    <row r="208" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="208" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A208" s="16"/>
       <c r="B208" s="17"/>
       <c r="C208" s="17"/>
@@ -7252,7 +7256,7 @@
       <c r="K208" s="19"/>
       <c r="L208" s="20"/>
     </row>
-    <row r="209" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="209" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A209" s="16"/>
       <c r="B209" s="17"/>
       <c r="C209" s="17"/>
@@ -7263,7 +7267,7 @@
       <c r="K209" s="19"/>
       <c r="L209" s="20"/>
     </row>
-    <row r="210" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="210" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A210" s="16"/>
       <c r="B210" s="17"/>
       <c r="C210" s="17"/>
@@ -7274,7 +7278,7 @@
       <c r="K210" s="19"/>
       <c r="L210" s="20"/>
     </row>
-    <row r="211" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="211" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A211" s="16"/>
       <c r="B211" s="17"/>
       <c r="C211" s="17"/>
@@ -7285,7 +7289,7 @@
       <c r="K211" s="19"/>
       <c r="L211" s="20"/>
     </row>
-    <row r="212" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="212" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A212" s="16"/>
       <c r="B212" s="17"/>
       <c r="C212" s="17"/>
@@ -7296,7 +7300,7 @@
       <c r="K212" s="19"/>
       <c r="L212" s="20"/>
     </row>
-    <row r="213" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="213" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A213" s="16"/>
       <c r="B213" s="17"/>
       <c r="C213" s="17"/>
@@ -7307,7 +7311,7 @@
       <c r="K213" s="19"/>
       <c r="L213" s="20"/>
     </row>
-    <row r="214" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="214" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A214" s="16"/>
       <c r="B214" s="17"/>
       <c r="C214" s="17"/>
@@ -7318,7 +7322,7 @@
       <c r="K214" s="19"/>
       <c r="L214" s="20"/>
     </row>
-    <row r="215" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="215" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A215" s="16"/>
       <c r="B215" s="17"/>
       <c r="C215" s="17"/>
@@ -7329,7 +7333,7 @@
       <c r="K215" s="19"/>
       <c r="L215" s="20"/>
     </row>
-    <row r="216" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="216" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A216" s="16"/>
       <c r="B216" s="17"/>
       <c r="C216" s="17"/>
@@ -7340,7 +7344,7 @@
       <c r="K216" s="19"/>
       <c r="L216" s="20"/>
     </row>
-    <row r="217" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="217" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A217" s="16"/>
       <c r="B217" s="17"/>
       <c r="C217" s="17"/>
@@ -7351,7 +7355,7 @@
       <c r="K217" s="19"/>
       <c r="L217" s="20"/>
     </row>
-    <row r="218" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="218" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A218" s="16"/>
       <c r="B218" s="17"/>
       <c r="C218" s="17"/>
@@ -7362,7 +7366,7 @@
       <c r="K218" s="19"/>
       <c r="L218" s="20"/>
     </row>
-    <row r="219" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="219" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A219" s="16"/>
       <c r="B219" s="17"/>
       <c r="C219" s="17"/>
@@ -7373,7 +7377,7 @@
       <c r="K219" s="19"/>
       <c r="L219" s="20"/>
     </row>
-    <row r="220" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="220" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A220" s="16"/>
       <c r="B220" s="17"/>
       <c r="C220" s="17"/>
@@ -7384,7 +7388,7 @@
       <c r="K220" s="19"/>
       <c r="L220" s="20"/>
     </row>
-    <row r="221" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="221" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A221" s="16"/>
       <c r="B221" s="17"/>
       <c r="C221" s="17"/>
@@ -7395,7 +7399,7 @@
       <c r="K221" s="19"/>
       <c r="L221" s="20"/>
     </row>
-    <row r="222" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="222" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A222" s="16"/>
       <c r="B222" s="17"/>
       <c r="C222" s="17"/>
@@ -7406,7 +7410,7 @@
       <c r="K222" s="19"/>
       <c r="L222" s="20"/>
     </row>
-    <row r="223" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="223" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A223" s="16"/>
       <c r="B223" s="17"/>
       <c r="C223" s="17"/>
@@ -7417,7 +7421,7 @@
       <c r="K223" s="19"/>
       <c r="L223" s="20"/>
     </row>
-    <row r="224" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="224" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A224" s="16"/>
       <c r="B224" s="17"/>
       <c r="C224" s="17"/>
@@ -7428,7 +7432,7 @@
       <c r="K224" s="19"/>
       <c r="L224" s="20"/>
     </row>
-    <row r="225" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="225" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A225" s="16"/>
       <c r="B225" s="17"/>
       <c r="C225" s="17"/>
@@ -7439,7 +7443,7 @@
       <c r="K225" s="19"/>
       <c r="L225" s="20"/>
     </row>
-    <row r="226" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="226" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A226" s="16"/>
       <c r="B226" s="17"/>
       <c r="C226" s="17"/>
@@ -7450,7 +7454,7 @@
       <c r="K226" s="19"/>
       <c r="L226" s="20"/>
     </row>
-    <row r="227" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="227" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A227" s="16"/>
       <c r="B227" s="17"/>
       <c r="C227" s="17"/>
@@ -7461,7 +7465,7 @@
       <c r="K227" s="19"/>
       <c r="L227" s="20"/>
     </row>
-    <row r="228" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="228" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A228" s="16"/>
       <c r="B228" s="17"/>
       <c r="C228" s="17"/>
@@ -7472,7 +7476,7 @@
       <c r="K228" s="19"/>
       <c r="L228" s="20"/>
     </row>
-    <row r="229" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="229" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A229" s="16"/>
       <c r="B229" s="17"/>
       <c r="C229" s="17"/>
@@ -7483,7 +7487,7 @@
       <c r="K229" s="19"/>
       <c r="L229" s="20"/>
     </row>
-    <row r="230" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="230" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A230" s="16"/>
       <c r="B230" s="17"/>
       <c r="C230" s="17"/>
@@ -7494,7 +7498,7 @@
       <c r="K230" s="19"/>
       <c r="L230" s="20"/>
     </row>
-    <row r="231" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="231" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A231" s="16"/>
       <c r="B231" s="17"/>
       <c r="C231" s="17"/>
@@ -7505,7 +7509,7 @@
       <c r="K231" s="19"/>
       <c r="L231" s="20"/>
     </row>
-    <row r="232" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="232" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A232" s="16"/>
       <c r="B232" s="17"/>
       <c r="C232" s="17"/>
@@ -7516,7 +7520,7 @@
       <c r="K232" s="19"/>
       <c r="L232" s="20"/>
     </row>
-    <row r="233" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="233" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A233" s="16"/>
       <c r="B233" s="17"/>
       <c r="C233" s="17"/>
@@ -7527,7 +7531,7 @@
       <c r="K233" s="19"/>
       <c r="L233" s="20"/>
     </row>
-    <row r="234" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="234" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A234" s="16"/>
       <c r="B234" s="17"/>
       <c r="C234" s="17"/>
@@ -7538,7 +7542,7 @@
       <c r="K234" s="19"/>
       <c r="L234" s="20"/>
     </row>
-    <row r="235" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="235" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A235" s="16"/>
       <c r="B235" s="17"/>
       <c r="C235" s="17"/>
@@ -7549,7 +7553,7 @@
       <c r="K235" s="19"/>
       <c r="L235" s="20"/>
     </row>
-    <row r="236" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="236" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A236" s="16"/>
       <c r="B236" s="17"/>
       <c r="C236" s="17"/>
@@ -7560,7 +7564,7 @@
       <c r="K236" s="19"/>
       <c r="L236" s="20"/>
     </row>
-    <row r="237" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="237" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A237" s="16"/>
       <c r="B237" s="17"/>
       <c r="C237" s="17"/>
@@ -7571,7 +7575,7 @@
       <c r="K237" s="19"/>
       <c r="L237" s="20"/>
     </row>
-    <row r="238" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="238" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A238" s="16"/>
       <c r="B238" s="17"/>
       <c r="C238" s="17"/>
@@ -7582,7 +7586,7 @@
       <c r="K238" s="19"/>
       <c r="L238" s="20"/>
     </row>
-    <row r="239" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="239" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A239" s="16"/>
       <c r="B239" s="17"/>
       <c r="C239" s="17"/>
@@ -7593,7 +7597,7 @@
       <c r="K239" s="19"/>
       <c r="L239" s="20"/>
     </row>
-    <row r="240" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="240" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A240" s="16"/>
       <c r="B240" s="17"/>
       <c r="C240" s="17"/>
@@ -7604,7 +7608,7 @@
       <c r="K240" s="19"/>
       <c r="L240" s="20"/>
     </row>
-    <row r="241" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="241" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A241" s="16"/>
       <c r="B241" s="17"/>
       <c r="C241" s="17"/>
@@ -7615,7 +7619,7 @@
       <c r="K241" s="19"/>
       <c r="L241" s="20"/>
     </row>
-    <row r="242" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="242" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A242" s="16"/>
       <c r="B242" s="17"/>
       <c r="C242" s="17"/>
@@ -7626,7 +7630,7 @@
       <c r="K242" s="19"/>
       <c r="L242" s="20"/>
     </row>
-    <row r="243" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="243" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A243" s="16"/>
       <c r="B243" s="17"/>
       <c r="C243" s="17"/>
@@ -7637,7 +7641,7 @@
       <c r="K243" s="19"/>
       <c r="L243" s="20"/>
     </row>
-    <row r="244" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="244" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A244" s="16"/>
       <c r="B244" s="17"/>
       <c r="C244" s="17"/>
@@ -7648,7 +7652,7 @@
       <c r="K244" s="19"/>
       <c r="L244" s="20"/>
     </row>
-    <row r="245" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="245" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A245" s="16"/>
       <c r="B245" s="17"/>
       <c r="C245" s="17"/>
@@ -7659,7 +7663,7 @@
       <c r="K245" s="19"/>
       <c r="L245" s="20"/>
     </row>
-    <row r="246" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="246" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A246" s="16"/>
       <c r="B246" s="17"/>
       <c r="C246" s="17"/>
@@ -7670,7 +7674,7 @@
       <c r="K246" s="19"/>
       <c r="L246" s="20"/>
     </row>
-    <row r="247" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="247" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A247" s="16"/>
       <c r="B247" s="17"/>
       <c r="C247" s="17"/>
@@ -7681,7 +7685,7 @@
       <c r="K247" s="19"/>
       <c r="L247" s="20"/>
     </row>
-    <row r="248" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="248" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A248" s="16"/>
       <c r="B248" s="17"/>
       <c r="C248" s="17"/>
@@ -7692,7 +7696,7 @@
       <c r="K248" s="19"/>
       <c r="L248" s="20"/>
     </row>
-    <row r="249" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="249" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A249" s="16"/>
       <c r="B249" s="17"/>
       <c r="C249" s="17"/>
@@ -7703,7 +7707,7 @@
       <c r="K249" s="19"/>
       <c r="L249" s="20"/>
     </row>
-    <row r="250" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="250" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A250" s="16"/>
       <c r="B250" s="17"/>
       <c r="C250" s="17"/>
@@ -7714,7 +7718,7 @@
       <c r="K250" s="19"/>
       <c r="L250" s="20"/>
     </row>
-    <row r="251" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="251" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A251" s="16"/>
       <c r="B251" s="17"/>
       <c r="C251" s="17"/>
@@ -7725,7 +7729,7 @@
       <c r="K251" s="19"/>
       <c r="L251" s="20"/>
     </row>
-    <row r="252" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="252" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A252" s="16"/>
       <c r="B252" s="17"/>
       <c r="C252" s="17"/>
@@ -7736,7 +7740,7 @@
       <c r="K252" s="19"/>
       <c r="L252" s="20"/>
     </row>
-    <row r="253" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="253" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A253" s="16"/>
       <c r="B253" s="17"/>
       <c r="C253" s="17"/>
@@ -7747,7 +7751,7 @@
       <c r="K253" s="19"/>
       <c r="L253" s="20"/>
     </row>
-    <row r="254" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="254" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A254" s="16"/>
       <c r="B254" s="17"/>
       <c r="C254" s="17"/>
@@ -7758,7 +7762,7 @@
       <c r="K254" s="19"/>
       <c r="L254" s="20"/>
     </row>
-    <row r="255" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="255" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A255" s="16"/>
       <c r="B255" s="17"/>
       <c r="C255" s="17"/>
@@ -7769,7 +7773,7 @@
       <c r="K255" s="19"/>
       <c r="L255" s="20"/>
     </row>
-    <row r="256" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="256" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A256" s="16"/>
       <c r="B256" s="17"/>
       <c r="C256" s="17"/>
@@ -7780,7 +7784,7 @@
       <c r="K256" s="19"/>
       <c r="L256" s="20"/>
     </row>
-    <row r="257" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="257" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A257" s="16"/>
       <c r="B257" s="17"/>
       <c r="C257" s="17"/>
@@ -7791,7 +7795,7 @@
       <c r="K257" s="19"/>
       <c r="L257" s="20"/>
     </row>
-    <row r="258" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="258" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A258" s="16"/>
       <c r="B258" s="17"/>
       <c r="C258" s="17"/>
@@ -7802,7 +7806,7 @@
       <c r="K258" s="19"/>
       <c r="L258" s="20"/>
     </row>
-    <row r="259" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="259" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A259" s="16"/>
       <c r="B259" s="17"/>
       <c r="C259" s="17"/>
@@ -7813,7 +7817,7 @@
       <c r="K259" s="19"/>
       <c r="L259" s="20"/>
     </row>
-    <row r="260" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="260" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A260" s="16"/>
       <c r="B260" s="17"/>
       <c r="C260" s="17"/>
@@ -7824,7 +7828,7 @@
       <c r="K260" s="19"/>
       <c r="L260" s="20"/>
     </row>
-    <row r="261" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="261" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A261" s="16"/>
       <c r="B261" s="17"/>
       <c r="C261" s="17"/>
@@ -7835,7 +7839,7 @@
       <c r="K261" s="19"/>
       <c r="L261" s="20"/>
     </row>
-    <row r="262" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="262" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A262" s="16"/>
       <c r="B262" s="17"/>
       <c r="C262" s="17"/>
@@ -7846,7 +7850,7 @@
       <c r="K262" s="19"/>
       <c r="L262" s="20"/>
     </row>
-    <row r="263" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="263" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A263" s="16"/>
       <c r="B263" s="17"/>
       <c r="C263" s="17"/>
@@ -7857,7 +7861,7 @@
       <c r="K263" s="19"/>
       <c r="L263" s="20"/>
     </row>
-    <row r="264" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="264" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A264" s="16"/>
       <c r="B264" s="17"/>
       <c r="C264" s="17"/>
@@ -7868,7 +7872,7 @@
       <c r="K264" s="19"/>
       <c r="L264" s="20"/>
     </row>
-    <row r="265" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="265" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A265" s="16"/>
       <c r="B265" s="17"/>
       <c r="C265" s="17"/>
@@ -7879,7 +7883,7 @@
       <c r="K265" s="19"/>
       <c r="L265" s="20"/>
     </row>
-    <row r="266" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="266" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A266" s="16"/>
       <c r="B266" s="17"/>
       <c r="C266" s="17"/>
@@ -7890,7 +7894,7 @@
       <c r="K266" s="19"/>
       <c r="L266" s="20"/>
     </row>
-    <row r="267" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="267" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A267" s="16"/>
       <c r="B267" s="17"/>
       <c r="C267" s="17"/>
@@ -7901,7 +7905,7 @@
       <c r="K267" s="19"/>
       <c r="L267" s="20"/>
     </row>
-    <row r="268" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="268" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A268" s="16"/>
       <c r="B268" s="17"/>
       <c r="C268" s="17"/>
@@ -7912,7 +7916,7 @@
       <c r="K268" s="19"/>
       <c r="L268" s="20"/>
     </row>
-    <row r="269" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="269" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A269" s="16"/>
       <c r="B269" s="17"/>
       <c r="C269" s="17"/>
@@ -7923,7 +7927,7 @@
       <c r="K269" s="19"/>
       <c r="L269" s="20"/>
     </row>
-    <row r="270" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="270" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A270" s="16"/>
       <c r="B270" s="17"/>
       <c r="C270" s="17"/>
@@ -7934,7 +7938,7 @@
       <c r="K270" s="19"/>
       <c r="L270" s="20"/>
     </row>
-    <row r="271" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="271" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A271" s="16"/>
       <c r="B271" s="17"/>
       <c r="C271" s="17"/>
@@ -7945,7 +7949,7 @@
       <c r="K271" s="19"/>
       <c r="L271" s="20"/>
     </row>
-    <row r="272" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="272" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A272" s="16"/>
       <c r="B272" s="17"/>
       <c r="C272" s="17"/>
@@ -7956,7 +7960,7 @@
       <c r="K272" s="19"/>
       <c r="L272" s="20"/>
     </row>
-    <row r="273" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="273" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A273" s="16"/>
       <c r="B273" s="17"/>
       <c r="C273" s="17"/>
@@ -7967,7 +7971,7 @@
       <c r="K273" s="19"/>
       <c r="L273" s="20"/>
     </row>
-    <row r="274" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="274" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A274" s="16"/>
       <c r="B274" s="17"/>
       <c r="C274" s="17"/>
@@ -7978,7 +7982,7 @@
       <c r="K274" s="19"/>
       <c r="L274" s="20"/>
     </row>
-    <row r="275" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="275" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A275" s="16"/>
       <c r="B275" s="17"/>
       <c r="C275" s="17"/>
@@ -7989,7 +7993,7 @@
       <c r="K275" s="19"/>
       <c r="L275" s="20"/>
     </row>
-    <row r="276" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="276" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A276" s="16"/>
       <c r="B276" s="17"/>
       <c r="C276" s="17"/>
@@ -8000,7 +8004,7 @@
       <c r="K276" s="19"/>
       <c r="L276" s="20"/>
     </row>
-    <row r="277" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="277" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A277" s="16"/>
       <c r="B277" s="17"/>
       <c r="C277" s="17"/>
@@ -8011,7 +8015,7 @@
       <c r="K277" s="19"/>
       <c r="L277" s="20"/>
     </row>
-    <row r="278" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="278" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A278" s="16"/>
       <c r="B278" s="17"/>
       <c r="C278" s="17"/>
@@ -8022,7 +8026,7 @@
       <c r="K278" s="19"/>
       <c r="L278" s="20"/>
     </row>
-    <row r="279" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="279" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A279" s="16"/>
       <c r="B279" s="17"/>
       <c r="C279" s="17"/>
@@ -8033,7 +8037,7 @@
       <c r="K279" s="19"/>
       <c r="L279" s="20"/>
     </row>
-    <row r="280" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="280" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A280" s="16"/>
       <c r="B280" s="17"/>
       <c r="C280" s="17"/>
@@ -8044,7 +8048,7 @@
       <c r="K280" s="19"/>
       <c r="L280" s="20"/>
     </row>
-    <row r="281" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="281" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A281" s="16"/>
       <c r="B281" s="17"/>
       <c r="C281" s="17"/>
@@ -8055,7 +8059,7 @@
       <c r="K281" s="19"/>
       <c r="L281" s="20"/>
     </row>
-    <row r="282" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="282" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A282" s="16"/>
       <c r="B282" s="17"/>
       <c r="C282" s="17"/>
@@ -8066,7 +8070,7 @@
       <c r="K282" s="19"/>
       <c r="L282" s="20"/>
     </row>
-    <row r="283" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="283" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A283" s="16"/>
       <c r="B283" s="17"/>
       <c r="C283" s="17"/>
@@ -8077,7 +8081,7 @@
       <c r="K283" s="19"/>
       <c r="L283" s="20"/>
     </row>
-    <row r="284" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="284" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A284" s="16"/>
       <c r="B284" s="17"/>
       <c r="C284" s="17"/>
@@ -8088,7 +8092,7 @@
       <c r="K284" s="19"/>
       <c r="L284" s="20"/>
     </row>
-    <row r="285" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="285" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A285" s="16"/>
       <c r="B285" s="17"/>
       <c r="C285" s="17"/>
@@ -8099,7 +8103,7 @@
       <c r="K285" s="19"/>
       <c r="L285" s="20"/>
     </row>
-    <row r="286" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="286" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A286" s="16"/>
       <c r="B286" s="17"/>
       <c r="C286" s="17"/>
@@ -8110,7 +8114,7 @@
       <c r="K286" s="19"/>
       <c r="L286" s="20"/>
     </row>
-    <row r="287" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="287" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A287" s="16"/>
       <c r="B287" s="17"/>
       <c r="C287" s="17"/>
@@ -8121,7 +8125,7 @@
       <c r="K287" s="19"/>
       <c r="L287" s="20"/>
     </row>
-    <row r="288" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="288" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A288" s="16"/>
       <c r="B288" s="17"/>
       <c r="C288" s="17"/>
@@ -8132,7 +8136,7 @@
       <c r="K288" s="19"/>
       <c r="L288" s="20"/>
     </row>
-    <row r="289" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="289" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A289" s="16"/>
       <c r="B289" s="17"/>
       <c r="C289" s="17"/>
@@ -8143,7 +8147,7 @@
       <c r="K289" s="19"/>
       <c r="L289" s="20"/>
     </row>
-    <row r="290" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="290" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A290" s="16"/>
       <c r="B290" s="17"/>
       <c r="C290" s="17"/>
@@ -8154,7 +8158,7 @@
       <c r="K290" s="19"/>
       <c r="L290" s="20"/>
     </row>
-    <row r="291" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="291" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A291" s="16"/>
       <c r="B291" s="17"/>
       <c r="C291" s="17"/>
@@ -8165,7 +8169,7 @@
       <c r="K291" s="19"/>
       <c r="L291" s="20"/>
     </row>
-    <row r="292" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="292" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A292" s="16"/>
       <c r="B292" s="17"/>
       <c r="C292" s="17"/>
@@ -8176,7 +8180,7 @@
       <c r="K292" s="19"/>
       <c r="L292" s="20"/>
     </row>
-    <row r="293" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="293" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A293" s="16"/>
       <c r="B293" s="17"/>
       <c r="C293" s="17"/>
@@ -8187,7 +8191,7 @@
       <c r="K293" s="19"/>
       <c r="L293" s="20"/>
     </row>
-    <row r="294" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="294" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A294" s="16"/>
       <c r="B294" s="17"/>
       <c r="C294" s="17"/>
@@ -8198,7 +8202,7 @@
       <c r="K294" s="19"/>
       <c r="L294" s="20"/>
     </row>
-    <row r="295" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="295" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A295" s="16"/>
       <c r="B295" s="17"/>
       <c r="C295" s="17"/>
@@ -8209,7 +8213,7 @@
       <c r="K295" s="19"/>
       <c r="L295" s="20"/>
     </row>
-    <row r="296" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="296" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A296" s="16"/>
       <c r="B296" s="17"/>
       <c r="C296" s="17"/>
@@ -8220,7 +8224,7 @@
       <c r="K296" s="19"/>
       <c r="L296" s="20"/>
     </row>
-    <row r="297" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="297" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A297" s="16"/>
       <c r="B297" s="17"/>
       <c r="C297" s="17"/>
@@ -8231,7 +8235,7 @@
       <c r="K297" s="19"/>
       <c r="L297" s="20"/>
     </row>
-    <row r="298" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="298" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A298" s="16"/>
       <c r="B298" s="17"/>
       <c r="C298" s="17"/>
@@ -8242,7 +8246,7 @@
       <c r="K298" s="19"/>
       <c r="L298" s="20"/>
     </row>
-    <row r="299" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="299" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A299" s="16"/>
       <c r="B299" s="17"/>
       <c r="C299" s="17"/>
@@ -8253,7 +8257,7 @@
       <c r="K299" s="19"/>
       <c r="L299" s="20"/>
     </row>
-    <row r="300" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="300" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A300" s="16"/>
       <c r="B300" s="17"/>
       <c r="C300" s="17"/>
@@ -8264,7 +8268,7 @@
       <c r="K300" s="19"/>
       <c r="L300" s="20"/>
     </row>
-    <row r="301" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="301" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A301" s="16"/>
       <c r="B301" s="17"/>
       <c r="C301" s="17"/>
@@ -8275,7 +8279,7 @@
       <c r="K301" s="19"/>
       <c r="L301" s="20"/>
     </row>
-    <row r="302" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="302" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A302" s="16"/>
       <c r="B302" s="17"/>
       <c r="C302" s="17"/>
@@ -8286,7 +8290,7 @@
       <c r="K302" s="19"/>
       <c r="L302" s="20"/>
     </row>
-    <row r="303" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="303" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A303" s="16"/>
       <c r="B303" s="17"/>
       <c r="C303" s="17"/>
@@ -8297,7 +8301,7 @@
       <c r="K303" s="19"/>
       <c r="L303" s="20"/>
     </row>
-    <row r="304" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="304" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A304" s="16"/>
       <c r="B304" s="17"/>
       <c r="C304" s="17"/>
@@ -8308,7 +8312,7 @@
       <c r="K304" s="19"/>
       <c r="L304" s="20"/>
     </row>
-    <row r="305" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="305" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A305" s="16"/>
       <c r="B305" s="17"/>
       <c r="C305" s="17"/>
@@ -8319,7 +8323,7 @@
       <c r="K305" s="19"/>
       <c r="L305" s="20"/>
     </row>
-    <row r="306" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="306" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A306" s="16"/>
       <c r="B306" s="17"/>
       <c r="C306" s="17"/>
@@ -8330,7 +8334,7 @@
       <c r="K306" s="19"/>
       <c r="L306" s="20"/>
     </row>
-    <row r="307" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="307" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A307" s="16"/>
       <c r="B307" s="17"/>
       <c r="C307" s="17"/>
@@ -8341,7 +8345,7 @@
       <c r="K307" s="19"/>
       <c r="L307" s="20"/>
     </row>
-    <row r="308" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="308" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A308" s="16"/>
       <c r="B308" s="17"/>
       <c r="C308" s="17"/>
@@ -8352,7 +8356,7 @@
       <c r="K308" s="19"/>
       <c r="L308" s="20"/>
     </row>
-    <row r="309" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="309" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A309" s="16"/>
       <c r="B309" s="17"/>
       <c r="C309" s="17"/>
@@ -8363,7 +8367,7 @@
       <c r="K309" s="19"/>
       <c r="L309" s="20"/>
     </row>
-    <row r="310" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="310" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A310" s="16"/>
       <c r="B310" s="17"/>
       <c r="C310" s="17"/>
@@ -8374,7 +8378,7 @@
       <c r="K310" s="19"/>
       <c r="L310" s="20"/>
     </row>
-    <row r="311" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="311" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A311" s="16"/>
       <c r="B311" s="17"/>
       <c r="C311" s="17"/>
@@ -8385,7 +8389,7 @@
       <c r="K311" s="19"/>
       <c r="L311" s="20"/>
     </row>
-    <row r="312" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="312" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A312" s="16"/>
       <c r="B312" s="17"/>
       <c r="C312" s="17"/>
@@ -8396,7 +8400,7 @@
       <c r="K312" s="19"/>
       <c r="L312" s="20"/>
     </row>
-    <row r="313" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="313" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A313" s="16"/>
       <c r="B313" s="17"/>
       <c r="C313" s="17"/>
@@ -8407,7 +8411,7 @@
       <c r="K313" s="19"/>
       <c r="L313" s="20"/>
     </row>
-    <row r="314" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="314" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A314" s="16"/>
       <c r="B314" s="17"/>
       <c r="C314" s="17"/>
@@ -8418,7 +8422,7 @@
       <c r="K314" s="19"/>
       <c r="L314" s="20"/>
     </row>
-    <row r="315" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="315" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A315" s="16"/>
       <c r="B315" s="17"/>
       <c r="C315" s="17"/>
@@ -8429,7 +8433,7 @@
       <c r="K315" s="19"/>
       <c r="L315" s="20"/>
     </row>
-    <row r="316" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="316" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A316" s="16"/>
       <c r="B316" s="17"/>
       <c r="C316" s="17"/>
@@ -8440,7 +8444,7 @@
       <c r="K316" s="19"/>
       <c r="L316" s="20"/>
     </row>
-    <row r="317" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="317" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A317" s="16"/>
       <c r="B317" s="17"/>
       <c r="C317" s="17"/>
@@ -8451,7 +8455,7 @@
       <c r="K317" s="19"/>
       <c r="L317" s="20"/>
     </row>
-    <row r="318" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="318" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A318" s="16"/>
       <c r="B318" s="17"/>
       <c r="C318" s="17"/>
@@ -8462,7 +8466,7 @@
       <c r="K318" s="19"/>
       <c r="L318" s="20"/>
     </row>
-    <row r="319" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="319" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A319" s="16"/>
       <c r="B319" s="17"/>
       <c r="C319" s="17"/>
@@ -8473,7 +8477,7 @@
       <c r="K319" s="19"/>
       <c r="L319" s="20"/>
     </row>
-    <row r="320" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="320" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A320" s="16"/>
       <c r="B320" s="17"/>
       <c r="C320" s="17"/>
@@ -8484,7 +8488,7 @@
       <c r="K320" s="19"/>
       <c r="L320" s="20"/>
     </row>
-    <row r="321" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="321" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A321" s="16"/>
       <c r="B321" s="17"/>
       <c r="C321" s="17"/>
@@ -8495,7 +8499,7 @@
       <c r="K321" s="19"/>
       <c r="L321" s="20"/>
     </row>
-    <row r="322" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="322" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A322" s="16"/>
       <c r="B322" s="17"/>
       <c r="C322" s="17"/>
@@ -8506,7 +8510,7 @@
       <c r="K322" s="19"/>
       <c r="L322" s="20"/>
     </row>
-    <row r="323" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="323" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A323" s="16"/>
       <c r="B323" s="17"/>
       <c r="C323" s="17"/>
@@ -8517,7 +8521,7 @@
       <c r="K323" s="19"/>
       <c r="L323" s="20"/>
     </row>
-    <row r="324" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="324" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A324" s="16"/>
       <c r="B324" s="17"/>
       <c r="C324" s="17"/>
@@ -8528,7 +8532,7 @@
       <c r="K324" s="19"/>
       <c r="L324" s="20"/>
     </row>
-    <row r="325" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="325" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A325" s="16"/>
       <c r="B325" s="17"/>
       <c r="C325" s="17"/>
@@ -8539,7 +8543,7 @@
       <c r="K325" s="19"/>
       <c r="L325" s="20"/>
     </row>
-    <row r="326" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="326" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A326" s="16"/>
       <c r="B326" s="17"/>
       <c r="C326" s="17"/>
@@ -8550,7 +8554,7 @@
       <c r="K326" s="19"/>
       <c r="L326" s="20"/>
     </row>
-    <row r="327" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="327" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A327" s="16"/>
       <c r="B327" s="17"/>
       <c r="C327" s="17"/>
@@ -8561,7 +8565,7 @@
       <c r="K327" s="19"/>
       <c r="L327" s="20"/>
     </row>
-    <row r="328" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="328" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A328" s="16"/>
       <c r="B328" s="17"/>
       <c r="C328" s="17"/>
@@ -8572,7 +8576,7 @@
       <c r="K328" s="19"/>
       <c r="L328" s="20"/>
     </row>
-    <row r="329" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="329" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A329" s="16"/>
       <c r="B329" s="17"/>
       <c r="C329" s="17"/>
@@ -8583,7 +8587,7 @@
       <c r="K329" s="19"/>
       <c r="L329" s="20"/>
     </row>
-    <row r="330" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="330" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A330" s="16"/>
       <c r="B330" s="17"/>
       <c r="C330" s="17"/>
@@ -8594,7 +8598,7 @@
       <c r="K330" s="19"/>
       <c r="L330" s="20"/>
     </row>
-    <row r="331" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="331" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A331" s="16"/>
       <c r="B331" s="17"/>
       <c r="C331" s="17"/>
@@ -8605,7 +8609,7 @@
       <c r="K331" s="19"/>
       <c r="L331" s="20"/>
     </row>
-    <row r="332" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="332" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A332" s="16"/>
       <c r="B332" s="17"/>
       <c r="C332" s="17"/>
@@ -8616,7 +8620,7 @@
       <c r="K332" s="19"/>
       <c r="L332" s="20"/>
     </row>
-    <row r="333" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="333" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A333" s="16"/>
       <c r="B333" s="17"/>
       <c r="C333" s="17"/>
@@ -8627,7 +8631,7 @@
       <c r="K333" s="19"/>
       <c r="L333" s="20"/>
     </row>
-    <row r="334" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="334" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A334" s="16"/>
       <c r="B334" s="17"/>
       <c r="C334" s="17"/>
@@ -8638,7 +8642,7 @@
       <c r="K334" s="19"/>
       <c r="L334" s="20"/>
     </row>
-    <row r="335" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="335" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A335" s="16"/>
       <c r="B335" s="17"/>
       <c r="C335" s="17"/>
@@ -8649,7 +8653,7 @@
       <c r="K335" s="19"/>
       <c r="L335" s="20"/>
     </row>
-    <row r="336" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="336" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A336" s="16"/>
       <c r="B336" s="17"/>
       <c r="C336" s="17"/>
@@ -8660,7 +8664,7 @@
       <c r="K336" s="19"/>
       <c r="L336" s="20"/>
     </row>
-    <row r="337" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="337" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="16"/>
       <c r="B337" s="17"/>
       <c r="C337" s="17"/>
@@ -8671,7 +8675,7 @@
       <c r="K337" s="19"/>
       <c r="L337" s="20"/>
     </row>
-    <row r="338" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="338" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="16"/>
       <c r="B338" s="17"/>
       <c r="C338" s="17"/>
@@ -8682,7 +8686,7 @@
       <c r="K338" s="19"/>
       <c r="L338" s="20"/>
     </row>
-    <row r="339" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="339" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="16"/>
       <c r="B339" s="17"/>
       <c r="C339" s="17"/>
@@ -8693,7 +8697,7 @@
       <c r="K339" s="19"/>
       <c r="L339" s="20"/>
     </row>
-    <row r="340" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="340" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="16"/>
       <c r="B340" s="17"/>
       <c r="C340" s="17"/>
@@ -8704,7 +8708,7 @@
       <c r="K340" s="19"/>
       <c r="L340" s="20"/>
     </row>
-    <row r="341" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="341" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="16"/>
       <c r="B341" s="17"/>
       <c r="C341" s="17"/>
@@ -8715,7 +8719,7 @@
       <c r="K341" s="19"/>
       <c r="L341" s="20"/>
     </row>
-    <row r="342" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="342" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="16"/>
       <c r="B342" s="17"/>
       <c r="C342" s="17"/>
@@ -8726,7 +8730,7 @@
       <c r="K342" s="19"/>
       <c r="L342" s="20"/>
     </row>
-    <row r="343" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="343" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="16"/>
       <c r="B343" s="17"/>
       <c r="C343" s="17"/>
@@ -8737,7 +8741,7 @@
       <c r="K343" s="19"/>
       <c r="L343" s="20"/>
     </row>
-    <row r="344" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="344" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A344" s="16"/>
       <c r="B344" s="17"/>
       <c r="C344" s="17"/>
@@ -8748,7 +8752,7 @@
       <c r="K344" s="19"/>
       <c r="L344" s="20"/>
     </row>
-    <row r="345" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="345" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A345" s="16"/>
       <c r="B345" s="17"/>
       <c r="C345" s="17"/>
@@ -8759,7 +8763,7 @@
       <c r="K345" s="19"/>
       <c r="L345" s="20"/>
     </row>
-    <row r="346" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="346" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A346" s="16"/>
       <c r="B346" s="17"/>
       <c r="C346" s="17"/>
@@ -8770,7 +8774,7 @@
       <c r="K346" s="19"/>
       <c r="L346" s="20"/>
     </row>
-    <row r="347" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="347" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A347" s="16"/>
       <c r="B347" s="17"/>
       <c r="C347" s="17"/>
@@ -8781,7 +8785,7 @@
       <c r="K347" s="19"/>
       <c r="L347" s="20"/>
     </row>
-    <row r="348" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="348" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A348" s="16"/>
       <c r="B348" s="17"/>
       <c r="C348" s="17"/>
@@ -8792,7 +8796,7 @@
       <c r="K348" s="19"/>
       <c r="L348" s="20"/>
     </row>
-    <row r="349" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="349" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A349" s="16"/>
       <c r="B349" s="17"/>
       <c r="C349" s="17"/>
@@ -8803,7 +8807,7 @@
       <c r="K349" s="19"/>
       <c r="L349" s="20"/>
     </row>
-    <row r="350" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="350" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A350" s="16"/>
       <c r="B350" s="17"/>
       <c r="C350" s="17"/>
@@ -8814,7 +8818,7 @@
       <c r="K350" s="19"/>
       <c r="L350" s="20"/>
     </row>
-    <row r="351" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="351" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A351" s="16"/>
       <c r="B351" s="17"/>
       <c r="C351" s="17"/>
@@ -8825,7 +8829,7 @@
       <c r="K351" s="19"/>
       <c r="L351" s="20"/>
     </row>
-    <row r="352" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="352" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A352" s="16"/>
       <c r="B352" s="17"/>
       <c r="C352" s="17"/>
@@ -8836,7 +8840,7 @@
       <c r="K352" s="19"/>
       <c r="L352" s="20"/>
     </row>
-    <row r="353" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="353" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A353" s="16"/>
       <c r="B353" s="17"/>
       <c r="C353" s="17"/>
@@ -8847,7 +8851,7 @@
       <c r="K353" s="19"/>
       <c r="L353" s="20"/>
     </row>
-    <row r="354" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="354" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A354" s="16"/>
       <c r="B354" s="17"/>
       <c r="C354" s="17"/>
@@ -8858,7 +8862,7 @@
       <c r="K354" s="19"/>
       <c r="L354" s="20"/>
     </row>
-    <row r="355" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="355" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A355" s="16"/>
       <c r="B355" s="17"/>
       <c r="C355" s="17"/>
@@ -8869,7 +8873,7 @@
       <c r="K355" s="19"/>
       <c r="L355" s="20"/>
     </row>
-    <row r="356" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="356" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A356" s="16"/>
       <c r="B356" s="17"/>
       <c r="C356" s="17"/>
@@ -8880,7 +8884,7 @@
       <c r="K356" s="19"/>
       <c r="L356" s="20"/>
     </row>
-    <row r="357" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="357" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A357" s="16"/>
       <c r="B357" s="17"/>
       <c r="C357" s="17"/>
@@ -8891,7 +8895,7 @@
       <c r="K357" s="19"/>
       <c r="L357" s="20"/>
     </row>
-    <row r="358" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="358" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A358" s="16"/>
       <c r="B358" s="17"/>
       <c r="C358" s="17"/>
@@ -8902,7 +8906,7 @@
       <c r="K358" s="19"/>
       <c r="L358" s="20"/>
     </row>
-    <row r="359" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="359" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A359" s="16"/>
       <c r="B359" s="17"/>
       <c r="C359" s="17"/>
@@ -8913,7 +8917,7 @@
       <c r="K359" s="19"/>
       <c r="L359" s="20"/>
     </row>
-    <row r="360" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="360" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A360" s="16"/>
       <c r="B360" s="17"/>
       <c r="C360" s="17"/>
@@ -8924,7 +8928,7 @@
       <c r="K360" s="19"/>
       <c r="L360" s="20"/>
     </row>
-    <row r="361" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="361" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A361" s="16"/>
       <c r="B361" s="17"/>
       <c r="C361" s="17"/>
@@ -8935,7 +8939,7 @@
       <c r="K361" s="19"/>
       <c r="L361" s="20"/>
     </row>
-    <row r="362" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="362" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A362" s="16"/>
       <c r="B362" s="17"/>
       <c r="C362" s="17"/>
@@ -8946,7 +8950,7 @@
       <c r="K362" s="19"/>
       <c r="L362" s="20"/>
     </row>
-    <row r="363" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="363" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A363" s="16"/>
       <c r="B363" s="17"/>
       <c r="C363" s="17"/>
@@ -8957,7 +8961,7 @@
       <c r="K363" s="19"/>
       <c r="L363" s="20"/>
     </row>
-    <row r="364" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="364" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A364" s="16"/>
       <c r="B364" s="17"/>
       <c r="C364" s="17"/>
@@ -8968,7 +8972,7 @@
       <c r="K364" s="19"/>
       <c r="L364" s="20"/>
     </row>
-    <row r="365" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="365" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A365" s="16"/>
       <c r="B365" s="17"/>
       <c r="C365" s="17"/>
@@ -8979,7 +8983,7 @@
       <c r="K365" s="19"/>
       <c r="L365" s="20"/>
     </row>
-    <row r="366" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="366" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A366" s="16"/>
       <c r="B366" s="17"/>
       <c r="C366" s="17"/>
@@ -8990,7 +8994,7 @@
       <c r="K366" s="19"/>
       <c r="L366" s="20"/>
     </row>
-    <row r="367" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="367" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A367" s="16"/>
       <c r="B367" s="17"/>
       <c r="C367" s="17"/>
@@ -9001,7 +9005,7 @@
       <c r="K367" s="19"/>
       <c r="L367" s="20"/>
     </row>
-    <row r="368" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="368" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A368" s="16"/>
       <c r="B368" s="17"/>
       <c r="C368" s="17"/>
@@ -9012,7 +9016,7 @@
       <c r="K368" s="19"/>
       <c r="L368" s="20"/>
     </row>
-    <row r="369" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="369" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A369" s="16"/>
       <c r="B369" s="17"/>
       <c r="C369" s="17"/>
@@ -9023,7 +9027,7 @@
       <c r="K369" s="19"/>
       <c r="L369" s="20"/>
     </row>
-    <row r="370" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="370" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A370" s="16"/>
       <c r="B370" s="17"/>
       <c r="C370" s="17"/>
@@ -9034,7 +9038,7 @@
       <c r="K370" s="19"/>
       <c r="L370" s="20"/>
     </row>
-    <row r="371" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="371" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A371" s="16"/>
       <c r="B371" s="17"/>
       <c r="C371" s="17"/>
@@ -9045,7 +9049,7 @@
       <c r="K371" s="19"/>
       <c r="L371" s="20"/>
     </row>
-    <row r="372" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="372" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A372" s="16"/>
       <c r="B372" s="17"/>
       <c r="C372" s="17"/>
@@ -9056,7 +9060,7 @@
       <c r="K372" s="19"/>
       <c r="L372" s="20"/>
     </row>
-    <row r="373" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="373" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A373" s="16"/>
       <c r="B373" s="17"/>
       <c r="C373" s="17"/>
@@ -9067,7 +9071,7 @@
       <c r="K373" s="19"/>
       <c r="L373" s="20"/>
     </row>
-    <row r="374" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="374" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A374" s="16"/>
       <c r="B374" s="17"/>
       <c r="C374" s="17"/>
@@ -9078,7 +9082,7 @@
       <c r="K374" s="19"/>
       <c r="L374" s="20"/>
     </row>
-    <row r="375" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="375" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A375" s="16"/>
       <c r="B375" s="17"/>
       <c r="C375" s="17"/>
@@ -9089,7 +9093,7 @@
       <c r="K375" s="19"/>
       <c r="L375" s="20"/>
     </row>
-    <row r="376" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="376" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A376" s="16"/>
       <c r="B376" s="17"/>
       <c r="C376" s="17"/>
@@ -9100,7 +9104,7 @@
       <c r="K376" s="19"/>
       <c r="L376" s="20"/>
     </row>
-    <row r="377" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="377" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A377" s="16"/>
       <c r="B377" s="17"/>
       <c r="C377" s="17"/>
@@ -9111,7 +9115,7 @@
       <c r="K377" s="19"/>
       <c r="L377" s="20"/>
     </row>
-    <row r="378" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="378" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A378" s="16"/>
       <c r="B378" s="17"/>
       <c r="C378" s="17"/>
@@ -9122,7 +9126,7 @@
       <c r="K378" s="19"/>
       <c r="L378" s="20"/>
     </row>
-    <row r="379" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="379" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A379" s="16"/>
       <c r="B379" s="17"/>
       <c r="C379" s="17"/>
@@ -9133,7 +9137,7 @@
       <c r="K379" s="19"/>
       <c r="L379" s="20"/>
     </row>
-    <row r="380" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="380" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A380" s="16"/>
       <c r="B380" s="17"/>
       <c r="C380" s="17"/>
@@ -9144,7 +9148,7 @@
       <c r="K380" s="19"/>
       <c r="L380" s="20"/>
     </row>
-    <row r="381" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="381" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A381" s="16"/>
       <c r="B381" s="17"/>
       <c r="C381" s="17"/>
@@ -9155,7 +9159,7 @@
       <c r="K381" s="19"/>
       <c r="L381" s="20"/>
     </row>
-    <row r="382" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="382" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A382" s="16"/>
       <c r="B382" s="17"/>
       <c r="C382" s="17"/>
@@ -9166,7 +9170,7 @@
       <c r="K382" s="19"/>
       <c r="L382" s="20"/>
     </row>
-    <row r="383" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="383" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A383" s="16"/>
       <c r="B383" s="17"/>
       <c r="C383" s="17"/>
@@ -9177,7 +9181,7 @@
       <c r="K383" s="19"/>
       <c r="L383" s="20"/>
     </row>
-    <row r="384" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="384" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A384" s="16"/>
       <c r="B384" s="17"/>
       <c r="C384" s="17"/>
@@ -9188,7 +9192,7 @@
       <c r="K384" s="19"/>
       <c r="L384" s="20"/>
     </row>
-    <row r="385" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="385" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A385" s="16"/>
       <c r="B385" s="17"/>
       <c r="C385" s="17"/>
@@ -9199,7 +9203,7 @@
       <c r="K385" s="19"/>
       <c r="L385" s="20"/>
     </row>
-    <row r="386" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="386" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A386" s="16"/>
       <c r="B386" s="17"/>
       <c r="C386" s="17"/>
@@ -9210,7 +9214,7 @@
       <c r="K386" s="19"/>
       <c r="L386" s="20"/>
     </row>
-    <row r="387" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="387" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A387" s="16"/>
       <c r="B387" s="17"/>
       <c r="C387" s="17"/>
@@ -9221,7 +9225,7 @@
       <c r="K387" s="19"/>
       <c r="L387" s="20"/>
     </row>
-    <row r="388" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="388" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A388" s="16"/>
       <c r="B388" s="17"/>
       <c r="C388" s="17"/>
@@ -9232,7 +9236,7 @@
       <c r="K388" s="19"/>
       <c r="L388" s="20"/>
     </row>
-    <row r="389" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="389" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A389" s="16"/>
       <c r="B389" s="17"/>
       <c r="C389" s="17"/>
@@ -9243,7 +9247,7 @@
       <c r="K389" s="19"/>
       <c r="L389" s="20"/>
     </row>
-    <row r="390" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="390" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A390" s="16"/>
       <c r="B390" s="17"/>
       <c r="C390" s="17"/>
@@ -9254,7 +9258,7 @@
       <c r="K390" s="19"/>
       <c r="L390" s="20"/>
     </row>
-    <row r="391" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="391" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A391" s="16"/>
       <c r="B391" s="17"/>
       <c r="C391" s="17"/>
@@ -9265,7 +9269,7 @@
       <c r="K391" s="19"/>
       <c r="L391" s="20"/>
     </row>
-    <row r="392" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="392" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A392" s="16"/>
       <c r="B392" s="17"/>
       <c r="C392" s="17"/>
@@ -9276,7 +9280,7 @@
       <c r="K392" s="19"/>
       <c r="L392" s="20"/>
     </row>
-    <row r="393" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="393" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A393" s="16"/>
       <c r="B393" s="17"/>
       <c r="C393" s="17"/>
@@ -9287,7 +9291,7 @@
       <c r="K393" s="19"/>
       <c r="L393" s="20"/>
     </row>
-    <row r="394" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="394" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A394" s="16"/>
       <c r="B394" s="17"/>
       <c r="C394" s="17"/>
@@ -9298,7 +9302,7 @@
       <c r="K394" s="19"/>
       <c r="L394" s="20"/>
     </row>
-    <row r="395" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="395" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A395" s="16"/>
       <c r="B395" s="17"/>
       <c r="C395" s="17"/>
@@ -9309,7 +9313,7 @@
       <c r="K395" s="19"/>
       <c r="L395" s="20"/>
     </row>
-    <row r="396" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="396" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A396" s="16"/>
       <c r="B396" s="17"/>
       <c r="C396" s="17"/>
@@ -9320,7 +9324,7 @@
       <c r="K396" s="19"/>
       <c r="L396" s="20"/>
     </row>
-    <row r="397" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="397" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A397" s="16"/>
       <c r="B397" s="17"/>
       <c r="C397" s="17"/>
@@ -9331,7 +9335,7 @@
       <c r="K397" s="19"/>
       <c r="L397" s="20"/>
     </row>
-    <row r="398" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="398" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A398" s="16"/>
       <c r="B398" s="17"/>
       <c r="C398" s="17"/>
@@ -9342,7 +9346,7 @@
       <c r="K398" s="19"/>
       <c r="L398" s="20"/>
     </row>
-    <row r="399" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="399" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A399" s="16"/>
       <c r="B399" s="17"/>
       <c r="C399" s="17"/>
@@ -9353,7 +9357,7 @@
       <c r="K399" s="19"/>
       <c r="L399" s="20"/>
     </row>
-    <row r="400" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="400" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A400" s="16"/>
       <c r="B400" s="17"/>
       <c r="C400" s="17"/>
@@ -9364,7 +9368,7 @@
       <c r="K400" s="19"/>
       <c r="L400" s="20"/>
     </row>
-    <row r="401" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="401" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A401" s="16"/>
       <c r="B401" s="17"/>
       <c r="C401" s="17"/>
@@ -9375,7 +9379,7 @@
       <c r="K401" s="19"/>
       <c r="L401" s="20"/>
     </row>
-    <row r="402" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="402" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A402" s="16"/>
       <c r="B402" s="17"/>
       <c r="C402" s="17"/>
@@ -9386,7 +9390,7 @@
       <c r="K402" s="19"/>
       <c r="L402" s="20"/>
     </row>
-    <row r="403" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="403" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A403" s="16"/>
       <c r="B403" s="17"/>
       <c r="C403" s="17"/>
@@ -9397,7 +9401,7 @@
       <c r="K403" s="19"/>
       <c r="L403" s="20"/>
     </row>
-    <row r="404" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="404" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A404" s="16"/>
       <c r="B404" s="17"/>
       <c r="C404" s="17"/>
@@ -9408,7 +9412,7 @@
       <c r="K404" s="19"/>
       <c r="L404" s="20"/>
     </row>
-    <row r="405" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="405" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A405" s="16"/>
       <c r="B405" s="17"/>
       <c r="C405" s="17"/>
@@ -9419,7 +9423,7 @@
       <c r="K405" s="19"/>
       <c r="L405" s="20"/>
     </row>
-    <row r="406" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="406" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A406" s="16"/>
       <c r="B406" s="17"/>
       <c r="C406" s="17"/>
@@ -9430,7 +9434,7 @@
       <c r="K406" s="19"/>
       <c r="L406" s="20"/>
     </row>
-    <row r="407" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="407" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A407" s="16"/>
       <c r="B407" s="17"/>
       <c r="C407" s="17"/>
@@ -9441,7 +9445,7 @@
       <c r="K407" s="19"/>
       <c r="L407" s="20"/>
     </row>
-    <row r="408" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="408" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A408" s="16"/>
       <c r="B408" s="17"/>
       <c r="C408" s="17"/>
@@ -9452,7 +9456,7 @@
       <c r="K408" s="19"/>
       <c r="L408" s="20"/>
     </row>
-    <row r="409" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="409" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A409" s="16"/>
       <c r="B409" s="17"/>
       <c r="C409" s="17"/>
@@ -9463,7 +9467,7 @@
       <c r="K409" s="19"/>
       <c r="L409" s="20"/>
     </row>
-    <row r="410" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="410" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A410" s="16"/>
       <c r="B410" s="17"/>
       <c r="C410" s="17"/>
@@ -9474,7 +9478,7 @@
       <c r="K410" s="19"/>
       <c r="L410" s="20"/>
     </row>
-    <row r="411" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="411" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A411" s="16"/>
       <c r="B411" s="17"/>
       <c r="C411" s="17"/>
@@ -9485,7 +9489,7 @@
       <c r="K411" s="19"/>
       <c r="L411" s="20"/>
     </row>
-    <row r="412" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="412" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A412" s="16"/>
       <c r="B412" s="17"/>
       <c r="C412" s="17"/>
@@ -9496,7 +9500,7 @@
       <c r="K412" s="19"/>
       <c r="L412" s="20"/>
     </row>
-    <row r="413" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="413" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A413" s="16"/>
       <c r="B413" s="17"/>
       <c r="C413" s="17"/>
@@ -9507,7 +9511,7 @@
       <c r="K413" s="19"/>
       <c r="L413" s="20"/>
     </row>
-    <row r="414" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="414" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A414" s="16"/>
       <c r="B414" s="17"/>
       <c r="C414" s="17"/>
@@ -9518,7 +9522,7 @@
       <c r="K414" s="19"/>
       <c r="L414" s="20"/>
     </row>
-    <row r="415" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="415" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A415" s="16"/>
       <c r="B415" s="17"/>
       <c r="C415" s="17"/>
@@ -9529,7 +9533,7 @@
       <c r="K415" s="19"/>
       <c r="L415" s="20"/>
     </row>
-    <row r="416" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="416" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A416" s="16"/>
       <c r="B416" s="17"/>
       <c r="C416" s="17"/>
@@ -9540,7 +9544,7 @@
       <c r="K416" s="19"/>
       <c r="L416" s="20"/>
     </row>
-    <row r="417" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="417" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A417" s="16"/>
       <c r="B417" s="17"/>
       <c r="C417" s="17"/>
@@ -9551,7 +9555,7 @@
       <c r="K417" s="19"/>
       <c r="L417" s="20"/>
     </row>
-    <row r="418" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="418" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A418" s="16"/>
       <c r="B418" s="17"/>
       <c r="C418" s="17"/>
@@ -9562,7 +9566,7 @@
       <c r="K418" s="19"/>
       <c r="L418" s="20"/>
     </row>
-    <row r="419" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="419" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A419" s="16"/>
       <c r="B419" s="17"/>
       <c r="C419" s="17"/>
@@ -9573,7 +9577,7 @@
       <c r="K419" s="19"/>
       <c r="L419" s="20"/>
     </row>
-    <row r="420" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="420" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A420" s="16"/>
       <c r="B420" s="17"/>
       <c r="C420" s="17"/>
@@ -9584,7 +9588,7 @@
       <c r="K420" s="19"/>
       <c r="L420" s="20"/>
     </row>
-    <row r="421" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="421" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A421" s="16"/>
       <c r="B421" s="17"/>
       <c r="C421" s="17"/>
@@ -9595,7 +9599,7 @@
       <c r="K421" s="19"/>
       <c r="L421" s="20"/>
     </row>
-    <row r="422" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="422" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A422" s="16"/>
       <c r="B422" s="17"/>
       <c r="C422" s="17"/>
@@ -9606,7 +9610,7 @@
       <c r="K422" s="19"/>
       <c r="L422" s="20"/>
     </row>
-    <row r="423" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="423" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A423" s="16"/>
       <c r="B423" s="17"/>
       <c r="C423" s="17"/>
@@ -9617,7 +9621,7 @@
       <c r="K423" s="19"/>
       <c r="L423" s="20"/>
     </row>
-    <row r="424" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="424" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A424" s="16"/>
       <c r="B424" s="17"/>
       <c r="C424" s="17"/>
@@ -9628,7 +9632,7 @@
       <c r="K424" s="19"/>
       <c r="L424" s="20"/>
     </row>
-    <row r="425" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="425" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A425" s="16"/>
       <c r="B425" s="17"/>
       <c r="C425" s="17"/>
@@ -9639,7 +9643,7 @@
       <c r="K425" s="19"/>
       <c r="L425" s="20"/>
     </row>
-    <row r="426" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="426" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A426" s="16"/>
       <c r="B426" s="17"/>
       <c r="C426" s="17"/>
@@ -9650,7 +9654,7 @@
       <c r="K426" s="19"/>
       <c r="L426" s="20"/>
     </row>
-    <row r="427" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="427" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A427" s="16"/>
       <c r="B427" s="17"/>
       <c r="C427" s="17"/>
@@ -9661,7 +9665,7 @@
       <c r="K427" s="19"/>
       <c r="L427" s="20"/>
     </row>
-    <row r="428" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="428" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A428" s="16"/>
       <c r="B428" s="17"/>
       <c r="C428" s="17"/>
@@ -9672,7 +9676,7 @@
       <c r="K428" s="19"/>
       <c r="L428" s="20"/>
     </row>
-    <row r="429" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="429" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A429" s="16"/>
       <c r="B429" s="17"/>
       <c r="C429" s="17"/>
@@ -9683,7 +9687,7 @@
       <c r="K429" s="19"/>
       <c r="L429" s="20"/>
     </row>
-    <row r="430" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="430" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A430" s="16"/>
       <c r="B430" s="17"/>
       <c r="C430" s="17"/>
@@ -9694,7 +9698,7 @@
       <c r="K430" s="19"/>
       <c r="L430" s="20"/>
     </row>
-    <row r="431" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="431" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A431" s="16"/>
       <c r="B431" s="17"/>
       <c r="C431" s="17"/>
@@ -9705,7 +9709,7 @@
       <c r="K431" s="19"/>
       <c r="L431" s="20"/>
     </row>
-    <row r="432" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="432" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A432" s="16"/>
       <c r="B432" s="17"/>
       <c r="C432" s="17"/>
@@ -9716,7 +9720,7 @@
       <c r="K432" s="19"/>
       <c r="L432" s="20"/>
     </row>
-    <row r="433" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="433" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A433" s="16"/>
       <c r="B433" s="17"/>
       <c r="C433" s="17"/>
@@ -9727,7 +9731,7 @@
       <c r="K433" s="19"/>
       <c r="L433" s="20"/>
     </row>
-    <row r="434" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="434" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A434" s="16"/>
       <c r="B434" s="17"/>
       <c r="C434" s="17"/>
@@ -9738,7 +9742,7 @@
       <c r="K434" s="19"/>
       <c r="L434" s="20"/>
     </row>
-    <row r="435" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="435" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A435" s="16"/>
       <c r="B435" s="17"/>
       <c r="C435" s="17"/>
@@ -9749,7 +9753,7 @@
       <c r="K435" s="19"/>
       <c r="L435" s="20"/>
     </row>
-    <row r="436" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="436" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A436" s="16"/>
       <c r="B436" s="17"/>
       <c r="C436" s="17"/>
@@ -9760,7 +9764,7 @@
       <c r="K436" s="19"/>
       <c r="L436" s="20"/>
     </row>
-    <row r="437" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="437" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A437" s="16"/>
       <c r="B437" s="17"/>
       <c r="C437" s="17"/>
@@ -9771,7 +9775,7 @@
       <c r="K437" s="19"/>
       <c r="L437" s="20"/>
     </row>
-    <row r="438" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="438" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A438" s="16"/>
       <c r="B438" s="17"/>
       <c r="C438" s="17"/>
@@ -9782,7 +9786,7 @@
       <c r="K438" s="19"/>
       <c r="L438" s="20"/>
     </row>
-    <row r="439" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="439" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A439" s="16"/>
       <c r="B439" s="17"/>
       <c r="C439" s="17"/>
@@ -9793,7 +9797,7 @@
       <c r="K439" s="19"/>
       <c r="L439" s="20"/>
     </row>
-    <row r="440" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="440" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A440" s="16"/>
       <c r="B440" s="17"/>
       <c r="C440" s="17"/>
@@ -9804,7 +9808,7 @@
       <c r="K440" s="19"/>
       <c r="L440" s="20"/>
     </row>
-    <row r="441" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="441" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A441" s="16"/>
       <c r="B441" s="17"/>
       <c r="C441" s="17"/>
@@ -9815,7 +9819,7 @@
       <c r="K441" s="19"/>
       <c r="L441" s="20"/>
     </row>
-    <row r="442" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="442" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A442" s="16"/>
       <c r="B442" s="17"/>
       <c r="C442" s="17"/>
@@ -9826,7 +9830,7 @@
       <c r="K442" s="19"/>
       <c r="L442" s="20"/>
     </row>
-    <row r="443" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="443" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A443" s="16"/>
       <c r="B443" s="17"/>
       <c r="C443" s="17"/>
@@ -9837,7 +9841,7 @@
       <c r="K443" s="19"/>
       <c r="L443" s="20"/>
     </row>
-    <row r="444" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="444" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A444" s="16"/>
       <c r="B444" s="17"/>
       <c r="C444" s="17"/>
@@ -9848,7 +9852,7 @@
       <c r="K444" s="19"/>
       <c r="L444" s="20"/>
     </row>
-    <row r="445" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="445" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A445" s="16"/>
       <c r="B445" s="17"/>
       <c r="C445" s="17"/>
@@ -9859,7 +9863,7 @@
       <c r="K445" s="19"/>
       <c r="L445" s="20"/>
     </row>
-    <row r="446" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="446" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A446" s="16"/>
       <c r="B446" s="17"/>
       <c r="C446" s="17"/>
@@ -9870,7 +9874,7 @@
       <c r="K446" s="19"/>
       <c r="L446" s="20"/>
     </row>
-    <row r="447" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="447" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A447" s="16"/>
       <c r="B447" s="17"/>
       <c r="C447" s="17"/>
@@ -9881,7 +9885,7 @@
       <c r="K447" s="19"/>
       <c r="L447" s="20"/>
     </row>
-    <row r="448" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="448" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A448" s="16"/>
       <c r="B448" s="17"/>
       <c r="C448" s="17"/>
@@ -9892,7 +9896,7 @@
       <c r="K448" s="19"/>
       <c r="L448" s="20"/>
     </row>
-    <row r="449" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="449" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A449" s="16"/>
       <c r="B449" s="17"/>
       <c r="C449" s="17"/>
@@ -9903,7 +9907,7 @@
       <c r="K449" s="19"/>
       <c r="L449" s="20"/>
     </row>
-    <row r="450" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="450" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A450" s="16"/>
       <c r="B450" s="17"/>
       <c r="C450" s="17"/>
@@ -9914,7 +9918,7 @@
       <c r="K450" s="19"/>
       <c r="L450" s="20"/>
     </row>
-    <row r="451" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="451" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A451" s="16"/>
       <c r="B451" s="17"/>
       <c r="C451" s="17"/>
@@ -9925,7 +9929,7 @@
       <c r="K451" s="19"/>
       <c r="L451" s="20"/>
     </row>
-    <row r="452" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="452" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A452" s="16"/>
       <c r="B452" s="17"/>
       <c r="C452" s="17"/>
@@ -9936,7 +9940,7 @@
       <c r="K452" s="19"/>
       <c r="L452" s="20"/>
     </row>
-    <row r="453" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="453" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A453" s="16"/>
       <c r="B453" s="17"/>
       <c r="C453" s="17"/>
@@ -9947,7 +9951,7 @@
       <c r="K453" s="19"/>
       <c r="L453" s="20"/>
     </row>
-    <row r="454" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="454" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A454" s="16"/>
       <c r="B454" s="17"/>
       <c r="C454" s="17"/>
@@ -9958,7 +9962,7 @@
       <c r="K454" s="19"/>
       <c r="L454" s="20"/>
     </row>
-    <row r="455" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="455" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A455" s="16"/>
       <c r="B455" s="17"/>
       <c r="C455" s="17"/>
@@ -9969,7 +9973,7 @@
       <c r="K455" s="19"/>
       <c r="L455" s="20"/>
     </row>
-    <row r="456" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="456" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A456" s="16"/>
       <c r="B456" s="17"/>
       <c r="C456" s="17"/>
@@ -9980,7 +9984,7 @@
       <c r="K456" s="19"/>
       <c r="L456" s="20"/>
     </row>
-    <row r="457" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="457" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A457" s="16"/>
       <c r="B457" s="17"/>
       <c r="C457" s="17"/>
@@ -9991,7 +9995,7 @@
       <c r="K457" s="19"/>
       <c r="L457" s="20"/>
     </row>
-    <row r="458" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="458" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A458" s="16"/>
       <c r="B458" s="17"/>
       <c r="C458" s="17"/>
@@ -10002,7 +10006,7 @@
       <c r="K458" s="19"/>
       <c r="L458" s="20"/>
     </row>
-    <row r="459" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="459" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A459" s="16"/>
       <c r="B459" s="17"/>
       <c r="C459" s="17"/>
@@ -10013,7 +10017,7 @@
       <c r="K459" s="19"/>
       <c r="L459" s="20"/>
     </row>
-    <row r="460" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="460" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A460" s="16"/>
       <c r="B460" s="17"/>
       <c r="C460" s="17"/>
@@ -10024,7 +10028,7 @@
       <c r="K460" s="19"/>
       <c r="L460" s="20"/>
     </row>
-    <row r="461" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="461" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A461" s="16"/>
       <c r="B461" s="17"/>
       <c r="C461" s="17"/>
@@ -10035,7 +10039,7 @@
       <c r="K461" s="19"/>
       <c r="L461" s="20"/>
     </row>
-    <row r="462" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="462" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A462" s="16"/>
       <c r="B462" s="17"/>
       <c r="C462" s="17"/>
@@ -10046,7 +10050,7 @@
       <c r="K462" s="19"/>
       <c r="L462" s="20"/>
     </row>
-    <row r="463" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="463" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A463" s="16"/>
       <c r="B463" s="17"/>
       <c r="C463" s="17"/>
@@ -10057,7 +10061,7 @@
       <c r="K463" s="19"/>
       <c r="L463" s="20"/>
     </row>
-    <row r="464" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="464" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A464" s="16"/>
       <c r="B464" s="17"/>
       <c r="C464" s="17"/>
@@ -10068,7 +10072,7 @@
       <c r="K464" s="19"/>
       <c r="L464" s="20"/>
     </row>
-    <row r="465" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="465" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A465" s="16"/>
       <c r="B465" s="17"/>
       <c r="C465" s="17"/>
@@ -10079,7 +10083,7 @@
       <c r="K465" s="19"/>
       <c r="L465" s="20"/>
     </row>
-    <row r="466" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="466" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A466" s="16"/>
       <c r="B466" s="17"/>
       <c r="C466" s="17"/>
@@ -10090,7 +10094,7 @@
       <c r="K466" s="19"/>
       <c r="L466" s="20"/>
     </row>
-    <row r="467" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="467" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A467" s="16"/>
       <c r="B467" s="17"/>
       <c r="C467" s="17"/>
@@ -10101,7 +10105,7 @@
       <c r="K467" s="19"/>
       <c r="L467" s="20"/>
     </row>
-    <row r="468" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="468" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A468" s="16"/>
       <c r="B468" s="17"/>
       <c r="C468" s="17"/>
@@ -10112,7 +10116,7 @@
       <c r="K468" s="19"/>
       <c r="L468" s="20"/>
     </row>
-    <row r="469" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="469" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A469" s="16"/>
       <c r="B469" s="17"/>
       <c r="C469" s="17"/>
@@ -10123,7 +10127,7 @@
       <c r="K469" s="19"/>
       <c r="L469" s="20"/>
     </row>
-    <row r="470" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="470" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A470" s="16"/>
       <c r="B470" s="17"/>
       <c r="C470" s="17"/>
@@ -10134,7 +10138,7 @@
       <c r="K470" s="19"/>
       <c r="L470" s="20"/>
     </row>
-    <row r="471" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="471" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A471" s="16"/>
       <c r="B471" s="17"/>
       <c r="C471" s="17"/>
@@ -10145,7 +10149,7 @@
       <c r="K471" s="19"/>
       <c r="L471" s="20"/>
     </row>
-    <row r="472" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="472" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A472" s="16"/>
       <c r="B472" s="17"/>
       <c r="C472" s="17"/>
@@ -10156,7 +10160,7 @@
       <c r="K472" s="19"/>
       <c r="L472" s="20"/>
     </row>
-    <row r="473" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="473" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A473" s="16"/>
       <c r="B473" s="17"/>
       <c r="C473" s="17"/>
@@ -10167,7 +10171,7 @@
       <c r="K473" s="19"/>
       <c r="L473" s="20"/>
     </row>
-    <row r="474" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="474" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A474" s="16"/>
       <c r="B474" s="17"/>
       <c r="C474" s="17"/>
@@ -10178,7 +10182,7 @@
       <c r="K474" s="19"/>
       <c r="L474" s="20"/>
     </row>
-    <row r="475" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="475" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A475" s="16"/>
       <c r="B475" s="17"/>
       <c r="C475" s="17"/>
@@ -10189,7 +10193,7 @@
       <c r="K475" s="19"/>
       <c r="L475" s="20"/>
     </row>
-    <row r="476" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="476" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A476" s="16"/>
       <c r="B476" s="17"/>
       <c r="C476" s="17"/>
@@ -10200,7 +10204,7 @@
       <c r="K476" s="19"/>
       <c r="L476" s="20"/>
     </row>
-    <row r="477" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="477" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A477" s="16"/>
       <c r="B477" s="17"/>
       <c r="C477" s="17"/>
@@ -10211,7 +10215,7 @@
       <c r="K477" s="19"/>
       <c r="L477" s="20"/>
     </row>
-    <row r="478" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="478" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A478" s="16"/>
       <c r="B478" s="17"/>
       <c r="C478" s="17"/>
@@ -10222,7 +10226,7 @@
       <c r="K478" s="19"/>
       <c r="L478" s="20"/>
     </row>
-    <row r="479" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="479" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A479" s="16"/>
       <c r="B479" s="17"/>
       <c r="C479" s="17"/>
@@ -10233,7 +10237,7 @@
       <c r="K479" s="19"/>
       <c r="L479" s="20"/>
     </row>
-    <row r="480" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="480" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A480" s="16"/>
       <c r="B480" s="17"/>
       <c r="C480" s="17"/>
@@ -10244,7 +10248,7 @@
       <c r="K480" s="19"/>
       <c r="L480" s="20"/>
     </row>
-    <row r="481" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="481" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A481" s="16"/>
       <c r="B481" s="17"/>
       <c r="C481" s="17"/>
@@ -10255,7 +10259,7 @@
       <c r="K481" s="19"/>
       <c r="L481" s="20"/>
     </row>
-    <row r="482" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="482" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A482" s="16"/>
       <c r="B482" s="17"/>
       <c r="C482" s="17"/>
@@ -10266,7 +10270,7 @@
       <c r="K482" s="19"/>
       <c r="L482" s="20"/>
     </row>
-    <row r="483" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="483" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A483" s="16"/>
       <c r="B483" s="17"/>
       <c r="C483" s="17"/>
@@ -10277,7 +10281,7 @@
       <c r="K483" s="19"/>
       <c r="L483" s="20"/>
     </row>
-    <row r="484" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="484" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A484" s="16"/>
       <c r="B484" s="17"/>
       <c r="C484" s="17"/>
@@ -10288,7 +10292,7 @@
       <c r="K484" s="19"/>
       <c r="L484" s="20"/>
     </row>
-    <row r="485" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="485" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A485" s="16"/>
       <c r="B485" s="17"/>
       <c r="C485" s="17"/>
@@ -10299,7 +10303,7 @@
       <c r="K485" s="19"/>
       <c r="L485" s="20"/>
     </row>
-    <row r="486" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="486" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A486" s="16"/>
       <c r="B486" s="17"/>
       <c r="C486" s="17"/>
@@ -10310,7 +10314,7 @@
       <c r="K486" s="19"/>
       <c r="L486" s="20"/>
     </row>
-    <row r="487" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="487" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A487" s="16"/>
       <c r="B487" s="17"/>
       <c r="C487" s="17"/>
@@ -10321,7 +10325,7 @@
       <c r="K487" s="19"/>
       <c r="L487" s="20"/>
     </row>
-    <row r="488" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="488" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A488" s="16"/>
       <c r="B488" s="17"/>
       <c r="C488" s="17"/>
@@ -10332,7 +10336,7 @@
       <c r="K488" s="19"/>
       <c r="L488" s="20"/>
     </row>
-    <row r="489" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="489" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A489" s="16"/>
       <c r="B489" s="17"/>
       <c r="C489" s="17"/>
@@ -10343,7 +10347,7 @@
       <c r="K489" s="19"/>
       <c r="L489" s="20"/>
     </row>
-    <row r="490" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="490" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A490" s="16"/>
       <c r="B490" s="17"/>
       <c r="C490" s="17"/>
@@ -10354,7 +10358,7 @@
       <c r="K490" s="19"/>
       <c r="L490" s="20"/>
     </row>
-    <row r="491" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="491" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A491" s="16"/>
       <c r="B491" s="17"/>
       <c r="C491" s="17"/>
@@ -10365,7 +10369,7 @@
       <c r="K491" s="19"/>
       <c r="L491" s="20"/>
     </row>
-    <row r="492" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="492" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A492" s="16"/>
       <c r="B492" s="17"/>
       <c r="C492" s="17"/>
@@ -10376,7 +10380,7 @@
       <c r="K492" s="19"/>
       <c r="L492" s="20"/>
     </row>
-    <row r="493" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="493" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A493" s="16"/>
       <c r="B493" s="17"/>
       <c r="C493" s="17"/>
@@ -10387,7 +10391,7 @@
       <c r="K493" s="19"/>
       <c r="L493" s="20"/>
     </row>
-    <row r="494" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="494" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A494" s="16"/>
       <c r="B494" s="17"/>
       <c r="C494" s="17"/>
@@ -10398,7 +10402,7 @@
       <c r="K494" s="19"/>
       <c r="L494" s="20"/>
     </row>
-    <row r="495" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="495" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A495" s="16"/>
       <c r="B495" s="17"/>
       <c r="C495" s="17"/>
@@ -10409,7 +10413,7 @@
       <c r="K495" s="19"/>
       <c r="L495" s="20"/>
     </row>
-    <row r="496" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="496" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A496" s="16"/>
       <c r="B496" s="17"/>
       <c r="C496" s="17"/>
@@ -10420,7 +10424,7 @@
       <c r="K496" s="19"/>
       <c r="L496" s="20"/>
     </row>
-    <row r="497" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="497" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A497" s="16"/>
       <c r="B497" s="17"/>
       <c r="C497" s="17"/>
@@ -10431,7 +10435,7 @@
       <c r="K497" s="19"/>
       <c r="L497" s="20"/>
     </row>
-    <row r="498" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="498" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A498" s="16"/>
       <c r="B498" s="17"/>
       <c r="C498" s="17"/>
@@ -10442,7 +10446,7 @@
       <c r="K498" s="19"/>
       <c r="L498" s="20"/>
     </row>
-    <row r="499" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="499" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A499" s="16"/>
       <c r="B499" s="17"/>
       <c r="C499" s="17"/>
@@ -10453,7 +10457,7 @@
       <c r="K499" s="19"/>
       <c r="L499" s="20"/>
     </row>
-    <row r="500" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="500" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A500" s="16"/>
       <c r="B500" s="17"/>
       <c r="C500" s="17"/>
@@ -10464,7 +10468,7 @@
       <c r="K500" s="19"/>
       <c r="L500" s="20"/>
     </row>
-    <row r="501" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="501" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A501" s="16"/>
       <c r="B501" s="17"/>
       <c r="C501" s="17"/>
@@ -10475,7 +10479,7 @@
       <c r="K501" s="19"/>
       <c r="L501" s="20"/>
     </row>
-    <row r="502" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="502" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A502" s="16"/>
       <c r="B502" s="17"/>
       <c r="C502" s="17"/>
@@ -10486,7 +10490,7 @@
       <c r="K502" s="19"/>
       <c r="L502" s="20"/>
     </row>
-    <row r="503" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="503" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A503" s="16"/>
       <c r="B503" s="17"/>
       <c r="C503" s="17"/>
@@ -10497,7 +10501,7 @@
       <c r="K503" s="19"/>
       <c r="L503" s="20"/>
     </row>
-    <row r="504" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="504" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A504" s="16"/>
       <c r="B504" s="17"/>
       <c r="C504" s="17"/>
@@ -10508,7 +10512,7 @@
       <c r="K504" s="19"/>
       <c r="L504" s="20"/>
     </row>
-    <row r="505" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="505" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A505" s="16"/>
       <c r="B505" s="17"/>
       <c r="C505" s="17"/>
@@ -10519,7 +10523,7 @@
       <c r="K505" s="19"/>
       <c r="L505" s="20"/>
     </row>
-    <row r="506" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="506" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A506" s="16"/>
       <c r="B506" s="17"/>
       <c r="C506" s="17"/>
@@ -10530,7 +10534,7 @@
       <c r="K506" s="19"/>
       <c r="L506" s="20"/>
     </row>
-    <row r="507" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="507" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A507" s="16"/>
       <c r="B507" s="17"/>
       <c r="C507" s="17"/>
@@ -10541,7 +10545,7 @@
       <c r="K507" s="19"/>
       <c r="L507" s="20"/>
     </row>
-    <row r="508" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="508" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A508" s="16"/>
       <c r="B508" s="17"/>
       <c r="C508" s="17"/>
@@ -10552,7 +10556,7 @@
       <c r="K508" s="19"/>
       <c r="L508" s="20"/>
     </row>
-    <row r="509" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="509" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A509" s="16"/>
       <c r="B509" s="17"/>
       <c r="C509" s="17"/>
@@ -10563,7 +10567,7 @@
       <c r="K509" s="19"/>
       <c r="L509" s="20"/>
     </row>
-    <row r="510" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="510" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A510" s="16"/>
       <c r="B510" s="17"/>
       <c r="C510" s="17"/>
@@ -10574,7 +10578,7 @@
       <c r="K510" s="19"/>
       <c r="L510" s="20"/>
     </row>
-    <row r="511" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="511" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A511" s="16"/>
       <c r="B511" s="17"/>
       <c r="C511" s="17"/>
@@ -10585,7 +10589,7 @@
       <c r="K511" s="19"/>
       <c r="L511" s="20"/>
     </row>
-    <row r="512" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="512" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A512" s="16"/>
       <c r="B512" s="17"/>
       <c r="C512" s="17"/>
@@ -10596,7 +10600,7 @@
       <c r="K512" s="19"/>
       <c r="L512" s="20"/>
     </row>
-    <row r="513" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="513" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A513" s="16"/>
       <c r="B513" s="17"/>
       <c r="C513" s="17"/>
@@ -10607,7 +10611,7 @@
       <c r="K513" s="19"/>
       <c r="L513" s="20"/>
     </row>
-    <row r="514" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="514" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A514" s="16"/>
       <c r="B514" s="17"/>
       <c r="C514" s="17"/>
@@ -10618,7 +10622,7 @@
       <c r="K514" s="19"/>
       <c r="L514" s="20"/>
     </row>
-    <row r="515" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="515" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A515" s="16"/>
       <c r="B515" s="17"/>
       <c r="C515" s="17"/>
@@ -10629,7 +10633,7 @@
       <c r="K515" s="19"/>
       <c r="L515" s="20"/>
     </row>
-    <row r="516" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="516" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A516" s="16"/>
       <c r="B516" s="17"/>
       <c r="C516" s="17"/>
@@ -10640,7 +10644,7 @@
       <c r="K516" s="19"/>
       <c r="L516" s="20"/>
     </row>
-    <row r="517" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="517" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A517" s="16"/>
       <c r="B517" s="17"/>
       <c r="C517" s="17"/>
@@ -10651,7 +10655,7 @@
       <c r="K517" s="19"/>
       <c r="L517" s="20"/>
     </row>
-    <row r="518" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="518" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A518" s="16"/>
       <c r="B518" s="17"/>
       <c r="C518" s="17"/>
@@ -10662,7 +10666,7 @@
       <c r="K518" s="19"/>
       <c r="L518" s="20"/>
     </row>
-    <row r="519" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="519" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A519" s="16"/>
       <c r="B519" s="17"/>
       <c r="C519" s="17"/>
@@ -10673,7 +10677,7 @@
       <c r="K519" s="19"/>
       <c r="L519" s="20"/>
     </row>
-    <row r="520" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="520" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A520" s="16"/>
       <c r="B520" s="17"/>
       <c r="C520" s="17"/>
@@ -10684,7 +10688,7 @@
       <c r="K520" s="19"/>
       <c r="L520" s="20"/>
     </row>
-    <row r="521" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="521" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A521" s="16"/>
       <c r="B521" s="17"/>
       <c r="C521" s="17"/>
@@ -10695,7 +10699,7 @@
       <c r="K521" s="19"/>
       <c r="L521" s="20"/>
     </row>
-    <row r="522" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="522" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A522" s="16"/>
       <c r="B522" s="17"/>
       <c r="C522" s="17"/>
@@ -10706,7 +10710,7 @@
       <c r="K522" s="19"/>
       <c r="L522" s="20"/>
     </row>
-    <row r="523" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="523" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A523" s="16"/>
       <c r="B523" s="17"/>
       <c r="C523" s="17"/>
@@ -10717,7 +10721,7 @@
       <c r="K523" s="19"/>
       <c r="L523" s="20"/>
     </row>
-    <row r="524" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="524" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A524" s="16"/>
       <c r="B524" s="17"/>
       <c r="C524" s="17"/>
@@ -10728,7 +10732,7 @@
       <c r="K524" s="19"/>
       <c r="L524" s="20"/>
     </row>
-    <row r="525" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="525" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A525" s="16"/>
       <c r="B525" s="17"/>
       <c r="C525" s="17"/>
@@ -10739,7 +10743,7 @@
       <c r="K525" s="19"/>
       <c r="L525" s="20"/>
     </row>
-    <row r="526" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="526" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A526" s="16"/>
       <c r="B526" s="17"/>
       <c r="C526" s="17"/>
@@ -10750,7 +10754,7 @@
       <c r="K526" s="19"/>
       <c r="L526" s="20"/>
     </row>
-    <row r="527" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="527" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A527" s="16"/>
       <c r="B527" s="17"/>
       <c r="C527" s="17"/>
@@ -10761,7 +10765,7 @@
       <c r="K527" s="19"/>
       <c r="L527" s="20"/>
     </row>
-    <row r="528" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="528" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A528" s="16"/>
       <c r="B528" s="17"/>
       <c r="C528" s="17"/>
@@ -10772,7 +10776,7 @@
       <c r="K528" s="19"/>
       <c r="L528" s="20"/>
     </row>
-    <row r="529" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="529" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A529" s="16"/>
       <c r="B529" s="17"/>
       <c r="C529" s="17"/>
@@ -10783,7 +10787,7 @@
       <c r="K529" s="19"/>
       <c r="L529" s="20"/>
     </row>
-    <row r="530" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="530" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A530" s="16"/>
       <c r="B530" s="17"/>
       <c r="C530" s="17"/>
@@ -10794,7 +10798,7 @@
       <c r="K530" s="19"/>
       <c r="L530" s="20"/>
     </row>
-    <row r="531" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="531" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A531" s="16"/>
       <c r="B531" s="17"/>
       <c r="C531" s="17"/>
@@ -10805,7 +10809,7 @@
       <c r="K531" s="19"/>
       <c r="L531" s="20"/>
     </row>
-    <row r="532" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="532" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A532" s="16"/>
       <c r="B532" s="17"/>
       <c r="C532" s="17"/>
@@ -10816,7 +10820,7 @@
       <c r="K532" s="19"/>
       <c r="L532" s="20"/>
     </row>
-    <row r="533" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="533" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A533" s="16"/>
       <c r="B533" s="17"/>
       <c r="C533" s="17"/>
@@ -10827,7 +10831,7 @@
       <c r="K533" s="19"/>
       <c r="L533" s="20"/>
     </row>
-    <row r="534" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="534" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A534" s="16"/>
       <c r="B534" s="17"/>
       <c r="C534" s="17"/>
@@ -10838,7 +10842,7 @@
       <c r="K534" s="19"/>
       <c r="L534" s="20"/>
     </row>
-    <row r="535" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="535" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A535" s="16"/>
       <c r="B535" s="17"/>
       <c r="C535" s="17"/>
@@ -10849,7 +10853,7 @@
       <c r="K535" s="19"/>
       <c r="L535" s="20"/>
     </row>
-    <row r="536" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="536" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A536" s="16"/>
       <c r="B536" s="17"/>
       <c r="C536" s="17"/>
@@ -10860,7 +10864,7 @@
       <c r="K536" s="19"/>
       <c r="L536" s="20"/>
     </row>
-    <row r="537" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="537" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A537" s="16"/>
       <c r="B537" s="17"/>
       <c r="C537" s="17"/>
@@ -10871,7 +10875,7 @@
       <c r="K537" s="19"/>
       <c r="L537" s="20"/>
     </row>
-    <row r="538" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="538" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A538" s="16"/>
       <c r="B538" s="17"/>
       <c r="C538" s="17"/>
@@ -10882,7 +10886,7 @@
       <c r="K538" s="19"/>
       <c r="L538" s="20"/>
     </row>
-    <row r="539" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="539" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A539" s="16"/>
       <c r="B539" s="17"/>
       <c r="C539" s="17"/>
@@ -10893,7 +10897,7 @@
       <c r="K539" s="19"/>
       <c r="L539" s="20"/>
     </row>
-    <row r="540" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="540" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A540" s="16"/>
       <c r="B540" s="17"/>
       <c r="C540" s="17"/>
@@ -10904,7 +10908,7 @@
       <c r="K540" s="19"/>
       <c r="L540" s="20"/>
     </row>
-    <row r="541" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="541" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A541" s="16"/>
       <c r="B541" s="17"/>
       <c r="C541" s="17"/>
@@ -10915,7 +10919,7 @@
       <c r="K541" s="19"/>
       <c r="L541" s="20"/>
     </row>
-    <row r="542" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="542" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A542" s="16"/>
       <c r="B542" s="17"/>
       <c r="C542" s="17"/>
@@ -10926,7 +10930,7 @@
       <c r="K542" s="19"/>
       <c r="L542" s="20"/>
     </row>
-    <row r="543" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="543" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A543" s="16"/>
       <c r="B543" s="17"/>
       <c r="C543" s="17"/>
@@ -10937,7 +10941,7 @@
       <c r="K543" s="19"/>
       <c r="L543" s="20"/>
     </row>
-    <row r="544" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="544" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A544" s="16"/>
       <c r="B544" s="17"/>
       <c r="C544" s="17"/>
@@ -10948,7 +10952,7 @@
       <c r="K544" s="19"/>
       <c r="L544" s="20"/>
     </row>
-    <row r="545" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="545" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A545" s="16"/>
       <c r="B545" s="17"/>
       <c r="C545" s="17"/>
@@ -10959,7 +10963,7 @@
       <c r="K545" s="19"/>
       <c r="L545" s="20"/>
     </row>
-    <row r="546" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="546" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A546" s="16"/>
       <c r="B546" s="17"/>
       <c r="C546" s="17"/>
@@ -10970,7 +10974,7 @@
       <c r="K546" s="19"/>
       <c r="L546" s="20"/>
     </row>
-    <row r="547" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="547" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A547" s="16"/>
       <c r="B547" s="17"/>
       <c r="C547" s="17"/>
@@ -10981,7 +10985,7 @@
       <c r="K547" s="19"/>
       <c r="L547" s="20"/>
     </row>
-    <row r="548" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="548" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A548" s="16"/>
       <c r="B548" s="17"/>
       <c r="C548" s="17"/>
@@ -10992,7 +10996,7 @@
       <c r="K548" s="19"/>
       <c r="L548" s="20"/>
     </row>
-    <row r="549" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="549" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A549" s="16"/>
       <c r="B549" s="17"/>
       <c r="C549" s="17"/>
@@ -11003,7 +11007,7 @@
       <c r="K549" s="19"/>
       <c r="L549" s="20"/>
     </row>
-    <row r="550" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="550" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A550" s="16"/>
       <c r="B550" s="17"/>
       <c r="C550" s="17"/>
@@ -11014,7 +11018,7 @@
       <c r="K550" s="19"/>
       <c r="L550" s="20"/>
     </row>
-    <row r="551" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="551" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A551" s="16"/>
       <c r="B551" s="17"/>
       <c r="C551" s="17"/>
@@ -11025,7 +11029,7 @@
       <c r="K551" s="19"/>
       <c r="L551" s="20"/>
     </row>
-    <row r="552" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="552" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A552" s="16"/>
       <c r="B552" s="17"/>
       <c r="C552" s="17"/>
@@ -11036,7 +11040,7 @@
       <c r="K552" s="19"/>
       <c r="L552" s="20"/>
     </row>
-    <row r="553" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="553" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A553" s="16"/>
       <c r="B553" s="17"/>
       <c r="C553" s="17"/>
@@ -11047,7 +11051,7 @@
       <c r="K553" s="19"/>
       <c r="L553" s="20"/>
     </row>
-    <row r="554" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="554" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A554" s="16"/>
       <c r="B554" s="17"/>
       <c r="C554" s="17"/>
@@ -11058,7 +11062,7 @@
       <c r="K554" s="19"/>
       <c r="L554" s="20"/>
     </row>
-    <row r="555" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="555" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A555" s="16"/>
       <c r="B555" s="17"/>
       <c r="C555" s="17"/>
@@ -11069,7 +11073,7 @@
       <c r="K555" s="19"/>
       <c r="L555" s="20"/>
     </row>
-    <row r="556" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="556" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A556" s="16"/>
       <c r="B556" s="17"/>
       <c r="C556" s="17"/>
@@ -11080,7 +11084,7 @@
       <c r="K556" s="19"/>
       <c r="L556" s="20"/>
     </row>
-    <row r="557" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="557" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A557" s="16"/>
       <c r="B557" s="17"/>
       <c r="C557" s="17"/>
@@ -11091,7 +11095,7 @@
       <c r="K557" s="19"/>
       <c r="L557" s="20"/>
     </row>
-    <row r="558" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="558" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A558" s="16"/>
       <c r="B558" s="17"/>
       <c r="C558" s="17"/>
@@ -11102,7 +11106,7 @@
       <c r="K558" s="19"/>
       <c r="L558" s="20"/>
     </row>
-    <row r="559" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="559" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A559" s="16"/>
       <c r="B559" s="17"/>
       <c r="C559" s="17"/>
@@ -11113,7 +11117,7 @@
       <c r="K559" s="19"/>
       <c r="L559" s="20"/>
     </row>
-    <row r="560" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="560" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A560" s="16"/>
       <c r="B560" s="17"/>
       <c r="C560" s="17"/>
@@ -11124,7 +11128,7 @@
       <c r="K560" s="19"/>
       <c r="L560" s="20"/>
     </row>
-    <row r="561" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="561" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A561" s="16"/>
       <c r="B561" s="17"/>
       <c r="C561" s="17"/>
@@ -11135,7 +11139,7 @@
       <c r="K561" s="19"/>
       <c r="L561" s="20"/>
     </row>
-    <row r="562" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="562" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A562" s="16"/>
       <c r="B562" s="17"/>
       <c r="C562" s="17"/>
@@ -11146,7 +11150,7 @@
       <c r="K562" s="19"/>
       <c r="L562" s="20"/>
     </row>
-    <row r="563" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="563" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A563" s="16"/>
       <c r="B563" s="17"/>
       <c r="C563" s="17"/>
@@ -11157,7 +11161,7 @@
       <c r="K563" s="19"/>
       <c r="L563" s="20"/>
     </row>
-    <row r="564" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="564" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A564" s="16"/>
       <c r="B564" s="17"/>
       <c r="C564" s="17"/>
@@ -11168,7 +11172,7 @@
       <c r="K564" s="19"/>
       <c r="L564" s="20"/>
     </row>
-    <row r="565" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="565" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A565" s="16"/>
       <c r="B565" s="17"/>
       <c r="C565" s="17"/>
@@ -11179,7 +11183,7 @@
       <c r="K565" s="19"/>
       <c r="L565" s="20"/>
     </row>
-    <row r="566" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="566" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A566" s="16"/>
       <c r="B566" s="17"/>
       <c r="C566" s="17"/>
@@ -11190,7 +11194,7 @@
       <c r="K566" s="19"/>
       <c r="L566" s="20"/>
     </row>
-    <row r="567" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="567" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A567" s="16"/>
       <c r="B567" s="17"/>
       <c r="C567" s="17"/>
@@ -11201,7 +11205,7 @@
       <c r="K567" s="19"/>
       <c r="L567" s="20"/>
     </row>
-    <row r="568" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="568" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A568" s="16"/>
       <c r="B568" s="17"/>
       <c r="C568" s="17"/>
@@ -11212,7 +11216,7 @@
       <c r="K568" s="19"/>
       <c r="L568" s="20"/>
     </row>
-    <row r="569" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="569" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A569" s="16"/>
       <c r="B569" s="17"/>
       <c r="C569" s="17"/>
@@ -11223,7 +11227,7 @@
       <c r="K569" s="19"/>
       <c r="L569" s="20"/>
     </row>
-    <row r="570" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="570" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A570" s="16"/>
       <c r="B570" s="17"/>
       <c r="C570" s="17"/>
@@ -11234,7 +11238,7 @@
       <c r="K570" s="19"/>
       <c r="L570" s="20"/>
     </row>
-    <row r="571" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="571" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A571" s="16"/>
       <c r="B571" s="17"/>
       <c r="C571" s="17"/>
@@ -11245,7 +11249,7 @@
       <c r="K571" s="19"/>
       <c r="L571" s="20"/>
     </row>
-    <row r="572" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="572" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A572" s="16"/>
       <c r="B572" s="17"/>
       <c r="C572" s="17"/>
@@ -11256,7 +11260,7 @@
       <c r="K572" s="19"/>
       <c r="L572" s="20"/>
     </row>
-    <row r="573" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="573" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A573" s="16"/>
       <c r="B573" s="17"/>
       <c r="C573" s="17"/>
@@ -11267,7 +11271,7 @@
       <c r="K573" s="19"/>
       <c r="L573" s="20"/>
     </row>
-    <row r="574" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="574" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A574" s="16"/>
       <c r="B574" s="17"/>
       <c r="C574" s="17"/>
@@ -11278,7 +11282,7 @@
       <c r="K574" s="19"/>
       <c r="L574" s="20"/>
     </row>
-    <row r="575" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="575" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A575" s="16"/>
       <c r="B575" s="17"/>
       <c r="C575" s="17"/>
@@ -11289,7 +11293,7 @@
       <c r="K575" s="19"/>
       <c r="L575" s="20"/>
     </row>
-    <row r="576" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="576" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A576" s="16"/>
       <c r="B576" s="17"/>
       <c r="C576" s="17"/>
@@ -11300,7 +11304,7 @@
       <c r="K576" s="19"/>
       <c r="L576" s="20"/>
     </row>
-    <row r="577" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="577" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A577" s="16"/>
       <c r="B577" s="17"/>
       <c r="C577" s="17"/>
@@ -11311,7 +11315,7 @@
       <c r="K577" s="19"/>
       <c r="L577" s="20"/>
     </row>
-    <row r="578" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="578" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A578" s="16"/>
       <c r="B578" s="17"/>
       <c r="C578" s="17"/>
@@ -11322,7 +11326,7 @@
       <c r="K578" s="19"/>
       <c r="L578" s="20"/>
     </row>
-    <row r="579" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="579" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A579" s="16"/>
       <c r="B579" s="17"/>
       <c r="C579" s="17"/>
@@ -11333,7 +11337,7 @@
       <c r="K579" s="19"/>
       <c r="L579" s="20"/>
     </row>
-    <row r="580" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="580" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A580" s="16"/>
       <c r="B580" s="17"/>
       <c r="C580" s="17"/>
@@ -11344,7 +11348,7 @@
       <c r="K580" s="19"/>
       <c r="L580" s="20"/>
     </row>
-    <row r="581" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="581" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A581" s="16"/>
       <c r="B581" s="17"/>
       <c r="C581" s="17"/>
@@ -11355,7 +11359,7 @@
       <c r="K581" s="19"/>
       <c r="L581" s="20"/>
     </row>
-    <row r="582" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="582" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A582" s="16"/>
       <c r="B582" s="17"/>
       <c r="C582" s="17"/>
@@ -11366,7 +11370,7 @@
       <c r="K582" s="19"/>
       <c r="L582" s="20"/>
     </row>
-    <row r="583" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="583" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A583" s="16"/>
       <c r="B583" s="17"/>
       <c r="C583" s="17"/>
@@ -11377,7 +11381,7 @@
       <c r="K583" s="19"/>
       <c r="L583" s="20"/>
     </row>
-    <row r="584" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="584" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A584" s="16"/>
       <c r="B584" s="17"/>
       <c r="C584" s="17"/>
@@ -11388,7 +11392,7 @@
       <c r="K584" s="19"/>
       <c r="L584" s="20"/>
     </row>
-    <row r="585" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="585" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A585" s="16"/>
       <c r="B585" s="17"/>
       <c r="C585" s="17"/>
@@ -11399,7 +11403,7 @@
       <c r="K585" s="19"/>
       <c r="L585" s="20"/>
     </row>
-    <row r="586" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="586" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A586" s="16"/>
       <c r="B586" s="17"/>
       <c r="C586" s="17"/>
@@ -11410,7 +11414,7 @@
       <c r="K586" s="19"/>
       <c r="L586" s="20"/>
     </row>
-    <row r="587" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="587" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A587" s="16"/>
       <c r="B587" s="17"/>
       <c r="C587" s="17"/>
@@ -11421,7 +11425,7 @@
       <c r="K587" s="19"/>
       <c r="L587" s="20"/>
     </row>
-    <row r="588" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="588" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A588" s="16"/>
       <c r="B588" s="17"/>
       <c r="C588" s="17"/>
@@ -11432,7 +11436,7 @@
       <c r="K588" s="19"/>
       <c r="L588" s="20"/>
     </row>
-    <row r="589" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="589" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A589" s="16"/>
       <c r="B589" s="17"/>
       <c r="C589" s="17"/>
@@ -11443,7 +11447,7 @@
       <c r="K589" s="19"/>
       <c r="L589" s="20"/>
     </row>
-    <row r="590" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="590" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A590" s="16"/>
       <c r="B590" s="17"/>
       <c r="C590" s="17"/>
@@ -11454,7 +11458,7 @@
       <c r="K590" s="19"/>
       <c r="L590" s="20"/>
     </row>
-    <row r="591" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="591" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A591" s="16"/>
       <c r="B591" s="17"/>
       <c r="C591" s="17"/>
@@ -11465,7 +11469,7 @@
       <c r="K591" s="19"/>
       <c r="L591" s="20"/>
     </row>
-    <row r="592" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="592" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A592" s="16"/>
       <c r="B592" s="17"/>
       <c r="C592" s="17"/>
@@ -11476,7 +11480,7 @@
       <c r="K592" s="19"/>
       <c r="L592" s="20"/>
     </row>
-    <row r="593" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="593" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A593" s="16"/>
       <c r="B593" s="17"/>
       <c r="C593" s="17"/>
@@ -11487,7 +11491,7 @@
       <c r="K593" s="19"/>
       <c r="L593" s="20"/>
     </row>
-    <row r="594" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="594" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A594" s="16"/>
       <c r="B594" s="17"/>
       <c r="C594" s="17"/>
@@ -11498,7 +11502,7 @@
       <c r="K594" s="19"/>
       <c r="L594" s="20"/>
     </row>
-    <row r="595" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="595" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A595" s="16"/>
       <c r="B595" s="17"/>
       <c r="C595" s="17"/>
@@ -11509,7 +11513,7 @@
       <c r="K595" s="19"/>
       <c r="L595" s="20"/>
     </row>
-    <row r="596" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="596" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A596" s="16"/>
       <c r="B596" s="17"/>
       <c r="C596" s="17"/>
@@ -11520,7 +11524,7 @@
       <c r="K596" s="19"/>
       <c r="L596" s="20"/>
     </row>
-    <row r="597" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="597" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A597" s="16"/>
       <c r="B597" s="17"/>
       <c r="C597" s="17"/>
@@ -11531,7 +11535,7 @@
       <c r="K597" s="19"/>
       <c r="L597" s="20"/>
     </row>
-    <row r="598" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="598" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A598" s="16"/>
       <c r="B598" s="17"/>
       <c r="C598" s="17"/>
@@ -11542,7 +11546,7 @@
       <c r="K598" s="19"/>
       <c r="L598" s="20"/>
     </row>
-    <row r="599" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="599" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A599" s="16"/>
       <c r="B599" s="17"/>
       <c r="C599" s="17"/>
@@ -11553,7 +11557,7 @@
       <c r="K599" s="19"/>
       <c r="L599" s="20"/>
     </row>
-    <row r="600" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="600" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A600" s="16"/>
       <c r="B600" s="17"/>
       <c r="C600" s="17"/>
@@ -11564,7 +11568,7 @@
       <c r="K600" s="19"/>
       <c r="L600" s="20"/>
     </row>
-    <row r="601" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="601" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A601" s="16"/>
       <c r="B601" s="17"/>
       <c r="C601" s="17"/>
@@ -11575,7 +11579,7 @@
       <c r="K601" s="19"/>
       <c r="L601" s="20"/>
     </row>
-    <row r="602" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="602" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A602" s="16"/>
       <c r="B602" s="17"/>
       <c r="C602" s="17"/>
@@ -11586,7 +11590,7 @@
       <c r="K602" s="19"/>
       <c r="L602" s="20"/>
     </row>
-    <row r="603" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="603" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A603" s="16"/>
       <c r="B603" s="17"/>
       <c r="C603" s="17"/>
@@ -11597,7 +11601,7 @@
       <c r="K603" s="19"/>
       <c r="L603" s="20"/>
     </row>
-    <row r="604" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="604" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A604" s="16"/>
       <c r="B604" s="17"/>
       <c r="C604" s="17"/>
@@ -11608,7 +11612,7 @@
       <c r="K604" s="19"/>
       <c r="L604" s="20"/>
     </row>
-    <row r="605" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="605" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A605" s="16"/>
       <c r="B605" s="17"/>
       <c r="C605" s="17"/>
@@ -11619,7 +11623,7 @@
       <c r="K605" s="19"/>
       <c r="L605" s="20"/>
     </row>
-    <row r="606" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="606" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A606" s="16"/>
       <c r="B606" s="17"/>
       <c r="C606" s="17"/>
@@ -11630,7 +11634,7 @@
       <c r="K606" s="19"/>
       <c r="L606" s="20"/>
     </row>
-    <row r="607" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="607" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A607" s="16"/>
       <c r="B607" s="17"/>
       <c r="C607" s="17"/>
@@ -11641,7 +11645,7 @@
       <c r="K607" s="19"/>
       <c r="L607" s="20"/>
     </row>
-    <row r="608" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="608" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A608" s="16"/>
       <c r="B608" s="17"/>
       <c r="C608" s="17"/>
@@ -11652,7 +11656,7 @@
       <c r="K608" s="19"/>
       <c r="L608" s="20"/>
     </row>
-    <row r="609" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="609" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A609" s="16"/>
       <c r="B609" s="17"/>
       <c r="C609" s="17"/>
@@ -11663,7 +11667,7 @@
       <c r="K609" s="19"/>
       <c r="L609" s="20"/>
     </row>
-    <row r="610" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="610" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A610" s="16"/>
       <c r="B610" s="17"/>
       <c r="C610" s="17"/>
@@ -11674,7 +11678,7 @@
       <c r="K610" s="19"/>
       <c r="L610" s="20"/>
     </row>
-    <row r="611" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="611" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A611" s="16"/>
       <c r="B611" s="17"/>
       <c r="C611" s="17"/>
@@ -11685,7 +11689,7 @@
       <c r="K611" s="19"/>
       <c r="L611" s="20"/>
     </row>
-    <row r="612" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="612" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A612" s="16"/>
       <c r="B612" s="17"/>
       <c r="C612" s="17"/>
@@ -11696,7 +11700,7 @@
       <c r="K612" s="19"/>
       <c r="L612" s="20"/>
     </row>
-    <row r="613" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="613" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A613" s="16"/>
       <c r="B613" s="17"/>
       <c r="C613" s="17"/>
@@ -11707,7 +11711,7 @@
       <c r="K613" s="19"/>
       <c r="L613" s="20"/>
     </row>
-    <row r="614" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="614" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A614" s="16"/>
       <c r="B614" s="17"/>
       <c r="C614" s="17"/>
@@ -11718,7 +11722,7 @@
       <c r="K614" s="19"/>
       <c r="L614" s="20"/>
     </row>
-    <row r="615" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="615" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A615" s="16"/>
       <c r="B615" s="17"/>
       <c r="C615" s="17"/>
@@ -11729,7 +11733,7 @@
       <c r="K615" s="19"/>
       <c r="L615" s="20"/>
     </row>
-    <row r="616" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="616" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A616" s="16"/>
       <c r="B616" s="17"/>
       <c r="C616" s="17"/>
@@ -11740,7 +11744,7 @@
       <c r="K616" s="19"/>
       <c r="L616" s="20"/>
     </row>
-    <row r="617" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="617" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A617" s="16"/>
       <c r="B617" s="17"/>
       <c r="C617" s="17"/>
@@ -11751,7 +11755,7 @@
       <c r="K617" s="19"/>
       <c r="L617" s="20"/>
     </row>
-    <row r="618" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="618" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A618" s="16"/>
       <c r="B618" s="17"/>
       <c r="C618" s="17"/>
@@ -11762,7 +11766,7 @@
       <c r="K618" s="19"/>
       <c r="L618" s="20"/>
     </row>
-    <row r="619" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="619" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A619" s="16"/>
       <c r="B619" s="17"/>
       <c r="C619" s="17"/>
@@ -11773,7 +11777,7 @@
       <c r="K619" s="19"/>
       <c r="L619" s="20"/>
     </row>
-    <row r="620" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="620" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A620" s="16"/>
       <c r="B620" s="17"/>
       <c r="C620" s="17"/>
@@ -11784,7 +11788,7 @@
       <c r="K620" s="19"/>
       <c r="L620" s="20"/>
     </row>
-    <row r="621" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="621" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A621" s="16"/>
       <c r="B621" s="17"/>
       <c r="C621" s="17"/>
@@ -11795,7 +11799,7 @@
       <c r="K621" s="19"/>
       <c r="L621" s="20"/>
     </row>
-    <row r="622" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="622" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A622" s="16"/>
       <c r="B622" s="17"/>
       <c r="C622" s="17"/>
@@ -11806,7 +11810,7 @@
       <c r="K622" s="19"/>
       <c r="L622" s="20"/>
     </row>
-    <row r="623" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="623" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A623" s="16"/>
       <c r="B623" s="17"/>
       <c r="C623" s="17"/>
@@ -11817,7 +11821,7 @@
       <c r="K623" s="19"/>
       <c r="L623" s="20"/>
     </row>
-    <row r="624" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="624" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A624" s="16"/>
       <c r="B624" s="17"/>
       <c r="C624" s="17"/>
@@ -11828,7 +11832,7 @@
       <c r="K624" s="19"/>
       <c r="L624" s="20"/>
     </row>
-    <row r="625" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="625" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A625" s="16"/>
       <c r="B625" s="17"/>
       <c r="C625" s="17"/>
@@ -11839,7 +11843,7 @@
       <c r="K625" s="19"/>
       <c r="L625" s="20"/>
     </row>
-    <row r="626" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="626" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A626" s="16"/>
       <c r="B626" s="17"/>
       <c r="C626" s="17"/>
@@ -11850,7 +11854,7 @@
       <c r="K626" s="19"/>
       <c r="L626" s="20"/>
     </row>
-    <row r="627" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="627" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A627" s="16"/>
       <c r="B627" s="17"/>
       <c r="C627" s="17"/>
@@ -11861,7 +11865,7 @@
       <c r="K627" s="19"/>
       <c r="L627" s="20"/>
     </row>
-    <row r="628" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="628" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A628" s="16"/>
       <c r="B628" s="17"/>
       <c r="C628" s="17"/>
@@ -11872,7 +11876,7 @@
       <c r="K628" s="19"/>
       <c r="L628" s="20"/>
     </row>
-    <row r="629" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="629" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A629" s="16"/>
       <c r="B629" s="17"/>
       <c r="C629" s="17"/>
@@ -11883,7 +11887,7 @@
       <c r="K629" s="19"/>
       <c r="L629" s="20"/>
     </row>
-    <row r="630" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="630" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A630" s="16"/>
       <c r="B630" s="17"/>
       <c r="C630" s="17"/>
@@ -11894,7 +11898,7 @@
       <c r="K630" s="19"/>
       <c r="L630" s="20"/>
     </row>
-    <row r="631" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="631" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A631" s="16"/>
       <c r="B631" s="17"/>
       <c r="C631" s="17"/>
@@ -11905,7 +11909,7 @@
       <c r="K631" s="19"/>
       <c r="L631" s="20"/>
     </row>
-    <row r="632" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="632" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A632" s="16"/>
       <c r="B632" s="17"/>
       <c r="C632" s="17"/>
@@ -11916,7 +11920,7 @@
       <c r="K632" s="19"/>
       <c r="L632" s="20"/>
     </row>
-    <row r="633" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="633" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A633" s="16"/>
       <c r="B633" s="17"/>
       <c r="C633" s="17"/>
@@ -11927,7 +11931,7 @@
       <c r="K633" s="19"/>
       <c r="L633" s="20"/>
     </row>
-    <row r="634" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="634" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A634" s="16"/>
       <c r="B634" s="17"/>
       <c r="C634" s="17"/>
@@ -11938,7 +11942,7 @@
       <c r="K634" s="19"/>
       <c r="L634" s="20"/>
     </row>
-    <row r="635" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="635" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A635" s="16"/>
       <c r="B635" s="17"/>
       <c r="C635" s="17"/>
@@ -11949,7 +11953,7 @@
       <c r="K635" s="19"/>
       <c r="L635" s="20"/>
     </row>
-    <row r="636" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="636" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A636" s="16"/>
       <c r="B636" s="17"/>
       <c r="C636" s="17"/>
@@ -11960,7 +11964,7 @@
       <c r="K636" s="19"/>
       <c r="L636" s="20"/>
     </row>
-    <row r="637" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="637" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A637" s="16"/>
       <c r="B637" s="17"/>
       <c r="C637" s="17"/>
@@ -11971,7 +11975,7 @@
       <c r="K637" s="19"/>
       <c r="L637" s="20"/>
     </row>
-    <row r="638" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="638" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A638" s="16"/>
       <c r="B638" s="17"/>
       <c r="C638" s="17"/>
@@ -11982,7 +11986,7 @@
       <c r="K638" s="19"/>
       <c r="L638" s="20"/>
     </row>
-    <row r="639" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="639" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A639" s="16"/>
       <c r="B639" s="17"/>
       <c r="C639" s="17"/>
@@ -11993,7 +11997,7 @@
       <c r="K639" s="19"/>
       <c r="L639" s="20"/>
     </row>
-    <row r="640" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="640" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A640" s="16"/>
       <c r="B640" s="17"/>
       <c r="C640" s="17"/>
@@ -12004,7 +12008,7 @@
       <c r="K640" s="19"/>
       <c r="L640" s="20"/>
     </row>
-    <row r="641" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="641" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A641" s="16"/>
       <c r="B641" s="17"/>
       <c r="C641" s="17"/>
@@ -12015,7 +12019,7 @@
       <c r="K641" s="19"/>
       <c r="L641" s="20"/>
     </row>
-    <row r="642" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="642" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A642" s="16"/>
       <c r="B642" s="17"/>
       <c r="C642" s="17"/>
@@ -12026,7 +12030,7 @@
       <c r="K642" s="19"/>
       <c r="L642" s="20"/>
     </row>
-    <row r="643" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="643" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A643" s="16"/>
       <c r="B643" s="17"/>
       <c r="C643" s="17"/>
@@ -12037,7 +12041,7 @@
       <c r="K643" s="19"/>
       <c r="L643" s="20"/>
     </row>
-    <row r="644" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="644" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A644" s="16"/>
       <c r="B644" s="17"/>
       <c r="C644" s="17"/>
@@ -12048,7 +12052,7 @@
       <c r="K644" s="19"/>
       <c r="L644" s="20"/>
     </row>
-    <row r="645" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="645" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A645" s="16"/>
       <c r="B645" s="17"/>
       <c r="C645" s="17"/>
@@ -12059,7 +12063,7 @@
       <c r="K645" s="19"/>
       <c r="L645" s="20"/>
     </row>
-    <row r="646" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="646" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A646" s="16"/>
       <c r="B646" s="17"/>
       <c r="C646" s="17"/>
@@ -12070,7 +12074,7 @@
       <c r="K646" s="19"/>
       <c r="L646" s="20"/>
     </row>
-    <row r="647" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="647" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A647" s="16"/>
       <c r="B647" s="17"/>
       <c r="C647" s="17"/>
@@ -12081,7 +12085,7 @@
       <c r="K647" s="19"/>
       <c r="L647" s="20"/>
     </row>
-    <row r="648" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="648" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A648" s="16"/>
       <c r="B648" s="17"/>
       <c r="C648" s="17"/>
@@ -12092,7 +12096,7 @@
       <c r="K648" s="19"/>
       <c r="L648" s="20"/>
     </row>
-    <row r="649" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="649" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A649" s="16"/>
       <c r="B649" s="17"/>
       <c r="C649" s="17"/>
@@ -12103,7 +12107,7 @@
       <c r="K649" s="19"/>
       <c r="L649" s="20"/>
     </row>
-    <row r="650" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="650" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A650" s="16"/>
       <c r="B650" s="17"/>
       <c r="C650" s="17"/>
@@ -12114,7 +12118,7 @@
       <c r="K650" s="19"/>
       <c r="L650" s="20"/>
     </row>
-    <row r="651" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="651" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A651" s="16"/>
       <c r="B651" s="17"/>
       <c r="C651" s="17"/>
@@ -12125,7 +12129,7 @@
       <c r="K651" s="19"/>
       <c r="L651" s="20"/>
     </row>
-    <row r="652" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="652" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A652" s="16"/>
       <c r="B652" s="17"/>
       <c r="C652" s="17"/>
@@ -12136,7 +12140,7 @@
       <c r="K652" s="19"/>
       <c r="L652" s="20"/>
     </row>
-    <row r="653" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="653" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A653" s="16"/>
       <c r="B653" s="17"/>
       <c r="C653" s="17"/>
@@ -12147,7 +12151,7 @@
       <c r="K653" s="19"/>
       <c r="L653" s="20"/>
     </row>
-    <row r="654" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="654" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A654" s="16"/>
       <c r="B654" s="17"/>
       <c r="C654" s="17"/>
@@ -12158,7 +12162,7 @@
       <c r="K654" s="19"/>
       <c r="L654" s="20"/>
     </row>
-    <row r="655" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="655" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A655" s="16"/>
       <c r="B655" s="17"/>
       <c r="C655" s="17"/>
@@ -12169,7 +12173,7 @@
       <c r="K655" s="19"/>
       <c r="L655" s="20"/>
     </row>
-    <row r="656" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="656" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A656" s="16"/>
       <c r="B656" s="17"/>
       <c r="C656" s="17"/>
@@ -12180,7 +12184,7 @@
       <c r="K656" s="19"/>
       <c r="L656" s="20"/>
     </row>
-    <row r="657" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="657" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A657" s="16"/>
       <c r="B657" s="17"/>
       <c r="C657" s="17"/>
@@ -12191,7 +12195,7 @@
       <c r="K657" s="19"/>
       <c r="L657" s="20"/>
     </row>
-    <row r="658" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="658" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A658" s="16"/>
       <c r="B658" s="17"/>
       <c r="C658" s="17"/>
@@ -12202,7 +12206,7 @@
       <c r="K658" s="19"/>
       <c r="L658" s="20"/>
     </row>
-    <row r="659" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="659" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A659" s="16"/>
       <c r="B659" s="17"/>
       <c r="C659" s="17"/>
@@ -12213,7 +12217,7 @@
       <c r="K659" s="19"/>
       <c r="L659" s="20"/>
     </row>
-    <row r="660" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="660" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A660" s="16"/>
       <c r="B660" s="17"/>
       <c r="C660" s="17"/>
@@ -12224,7 +12228,7 @@
       <c r="K660" s="19"/>
       <c r="L660" s="20"/>
     </row>
-    <row r="661" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="661" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A661" s="16"/>
       <c r="B661" s="17"/>
       <c r="C661" s="17"/>
@@ -12235,7 +12239,7 @@
       <c r="K661" s="19"/>
       <c r="L661" s="20"/>
     </row>
-    <row r="662" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="662" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A662" s="16"/>
       <c r="B662" s="17"/>
       <c r="C662" s="17"/>
@@ -12246,7 +12250,7 @@
       <c r="K662" s="19"/>
       <c r="L662" s="20"/>
     </row>
-    <row r="663" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="663" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A663" s="16"/>
       <c r="B663" s="17"/>
       <c r="C663" s="17"/>
@@ -12257,7 +12261,7 @@
       <c r="K663" s="19"/>
       <c r="L663" s="20"/>
     </row>
-    <row r="664" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="664" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A664" s="16"/>
       <c r="B664" s="17"/>
       <c r="C664" s="17"/>
@@ -12268,7 +12272,7 @@
       <c r="K664" s="19"/>
       <c r="L664" s="20"/>
     </row>
-    <row r="665" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="665" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A665" s="16"/>
       <c r="B665" s="17"/>
       <c r="C665" s="17"/>
@@ -12279,7 +12283,7 @@
       <c r="K665" s="19"/>
       <c r="L665" s="20"/>
     </row>
-    <row r="666" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="666" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A666" s="16"/>
       <c r="B666" s="17"/>
       <c r="C666" s="17"/>
@@ -12290,7 +12294,7 @@
       <c r="K666" s="19"/>
       <c r="L666" s="20"/>
     </row>
-    <row r="667" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="667" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A667" s="16"/>
       <c r="B667" s="17"/>
       <c r="C667" s="17"/>
@@ -12301,7 +12305,7 @@
       <c r="K667" s="19"/>
       <c r="L667" s="20"/>
     </row>
-    <row r="668" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="668" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A668" s="16"/>
       <c r="B668" s="17"/>
       <c r="C668" s="17"/>
@@ -12312,7 +12316,7 @@
       <c r="K668" s="19"/>
       <c r="L668" s="20"/>
     </row>
-    <row r="669" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="669" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A669" s="16"/>
       <c r="B669" s="17"/>
       <c r="C669" s="17"/>
@@ -12323,7 +12327,7 @@
       <c r="K669" s="19"/>
       <c r="L669" s="20"/>
     </row>
-    <row r="670" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="670" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A670" s="16"/>
       <c r="B670" s="17"/>
       <c r="C670" s="17"/>
@@ -12334,7 +12338,7 @@
       <c r="K670" s="19"/>
       <c r="L670" s="20"/>
     </row>
-    <row r="671" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="671" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A671" s="16"/>
       <c r="B671" s="17"/>
       <c r="C671" s="17"/>
@@ -12345,7 +12349,7 @@
       <c r="K671" s="19"/>
       <c r="L671" s="20"/>
     </row>
-    <row r="672" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="672" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A672" s="16"/>
       <c r="B672" s="17"/>
       <c r="C672" s="17"/>
@@ -12356,7 +12360,7 @@
       <c r="K672" s="19"/>
       <c r="L672" s="20"/>
     </row>
-    <row r="673" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="673" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A673" s="16"/>
       <c r="B673" s="17"/>
       <c r="C673" s="17"/>
@@ -12367,7 +12371,7 @@
       <c r="K673" s="19"/>
       <c r="L673" s="20"/>
     </row>
-    <row r="674" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="674" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A674" s="16"/>
       <c r="B674" s="17"/>
       <c r="C674" s="17"/>
@@ -12378,7 +12382,7 @@
       <c r="K674" s="19"/>
       <c r="L674" s="20"/>
     </row>
-    <row r="675" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="675" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A675" s="16"/>
       <c r="B675" s="17"/>
       <c r="C675" s="17"/>
@@ -12389,7 +12393,7 @@
       <c r="K675" s="19"/>
       <c r="L675" s="20"/>
     </row>
-    <row r="676" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="676" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A676" s="16"/>
       <c r="B676" s="17"/>
       <c r="C676" s="17"/>
@@ -12400,7 +12404,7 @@
       <c r="K676" s="19"/>
       <c r="L676" s="20"/>
     </row>
-    <row r="677" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="677" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A677" s="16"/>
       <c r="B677" s="17"/>
       <c r="C677" s="17"/>
@@ -12411,7 +12415,7 @@
       <c r="K677" s="19"/>
       <c r="L677" s="20"/>
     </row>
-    <row r="678" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="678" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A678" s="16"/>
       <c r="B678" s="17"/>
       <c r="C678" s="17"/>
@@ -12422,7 +12426,7 @@
       <c r="K678" s="19"/>
       <c r="L678" s="20"/>
     </row>
-    <row r="679" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="679" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A679" s="16"/>
       <c r="B679" s="17"/>
       <c r="C679" s="17"/>
@@ -12433,7 +12437,7 @@
       <c r="K679" s="19"/>
       <c r="L679" s="20"/>
     </row>
-    <row r="680" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="680" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A680" s="16"/>
       <c r="B680" s="17"/>
       <c r="C680" s="17"/>
@@ -12444,7 +12448,7 @@
       <c r="K680" s="19"/>
       <c r="L680" s="20"/>
     </row>
-    <row r="681" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="681" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A681" s="16"/>
       <c r="B681" s="17"/>
       <c r="C681" s="17"/>
@@ -12455,7 +12459,7 @@
       <c r="K681" s="19"/>
       <c r="L681" s="20"/>
     </row>
-    <row r="682" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="682" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A682" s="16"/>
       <c r="B682" s="17"/>
       <c r="C682" s="17"/>
@@ -12466,7 +12470,7 @@
       <c r="K682" s="19"/>
       <c r="L682" s="20"/>
     </row>
-    <row r="683" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="683" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A683" s="16"/>
       <c r="B683" s="17"/>
       <c r="C683" s="17"/>
@@ -12477,7 +12481,7 @@
       <c r="K683" s="19"/>
       <c r="L683" s="20"/>
     </row>
-    <row r="684" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="684" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A684" s="16"/>
       <c r="B684" s="17"/>
       <c r="C684" s="17"/>
@@ -12488,7 +12492,7 @@
       <c r="K684" s="19"/>
       <c r="L684" s="20"/>
     </row>
-    <row r="685" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="685" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A685" s="16"/>
       <c r="B685" s="17"/>
       <c r="C685" s="17"/>
@@ -12499,7 +12503,7 @@
       <c r="K685" s="19"/>
       <c r="L685" s="20"/>
     </row>
-    <row r="686" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="686" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A686" s="16"/>
       <c r="B686" s="17"/>
       <c r="C686" s="17"/>
@@ -12510,7 +12514,7 @@
       <c r="K686" s="19"/>
       <c r="L686" s="20"/>
     </row>
-    <row r="687" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="687" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A687" s="16"/>
       <c r="B687" s="17"/>
       <c r="C687" s="17"/>
@@ -12521,7 +12525,7 @@
       <c r="K687" s="19"/>
       <c r="L687" s="20"/>
     </row>
-    <row r="688" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="688" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A688" s="16"/>
       <c r="B688" s="17"/>
       <c r="C688" s="17"/>
@@ -12532,7 +12536,7 @@
       <c r="K688" s="19"/>
       <c r="L688" s="20"/>
     </row>
-    <row r="689" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="689" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A689" s="16"/>
       <c r="B689" s="17"/>
       <c r="C689" s="17"/>
@@ -12543,7 +12547,7 @@
       <c r="K689" s="19"/>
       <c r="L689" s="20"/>
     </row>
-    <row r="690" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="690" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A690" s="16"/>
       <c r="B690" s="17"/>
       <c r="C690" s="17"/>
@@ -12554,7 +12558,7 @@
       <c r="K690" s="19"/>
       <c r="L690" s="20"/>
     </row>
-    <row r="691" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="691" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A691" s="16"/>
       <c r="B691" s="17"/>
       <c r="C691" s="17"/>
@@ -12565,7 +12569,7 @@
       <c r="K691" s="19"/>
       <c r="L691" s="20"/>
     </row>
-    <row r="692" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="692" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A692" s="16"/>
       <c r="B692" s="17"/>
       <c r="C692" s="17"/>
@@ -12576,7 +12580,7 @@
       <c r="K692" s="19"/>
       <c r="L692" s="20"/>
     </row>
-    <row r="693" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="693" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A693" s="16"/>
       <c r="B693" s="17"/>
       <c r="C693" s="17"/>
@@ -12587,7 +12591,7 @@
       <c r="K693" s="19"/>
       <c r="L693" s="20"/>
     </row>
-    <row r="694" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="694" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A694" s="16"/>
       <c r="B694" s="17"/>
       <c r="C694" s="17"/>
@@ -12598,7 +12602,7 @@
       <c r="K694" s="19"/>
       <c r="L694" s="20"/>
     </row>
-    <row r="695" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="695" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A695" s="16"/>
       <c r="B695" s="17"/>
       <c r="C695" s="17"/>
@@ -12609,7 +12613,7 @@
       <c r="K695" s="19"/>
       <c r="L695" s="20"/>
     </row>
-    <row r="696" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="696" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A696" s="16"/>
       <c r="B696" s="17"/>
       <c r="C696" s="17"/>
@@ -12620,7 +12624,7 @@
       <c r="K696" s="19"/>
       <c r="L696" s="20"/>
     </row>
-    <row r="697" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="697" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A697" s="16"/>
       <c r="B697" s="17"/>
       <c r="C697" s="17"/>
@@ -12631,7 +12635,7 @@
       <c r="K697" s="19"/>
       <c r="L697" s="20"/>
     </row>
-    <row r="698" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="698" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A698" s="16"/>
       <c r="B698" s="17"/>
       <c r="C698" s="17"/>
@@ -12642,7 +12646,7 @@
       <c r="K698" s="19"/>
       <c r="L698" s="20"/>
     </row>
-    <row r="699" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="699" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A699" s="16"/>
       <c r="B699" s="17"/>
       <c r="C699" s="17"/>
@@ -12653,7 +12657,7 @@
       <c r="K699" s="19"/>
       <c r="L699" s="20"/>
     </row>
-    <row r="700" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="700" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A700" s="16"/>
       <c r="B700" s="17"/>
       <c r="C700" s="17"/>
@@ -12664,7 +12668,7 @@
       <c r="K700" s="19"/>
       <c r="L700" s="20"/>
     </row>
-    <row r="701" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="701" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A701" s="16"/>
       <c r="B701" s="17"/>
       <c r="C701" s="17"/>
@@ -12675,7 +12679,7 @@
       <c r="K701" s="19"/>
       <c r="L701" s="20"/>
     </row>
-    <row r="702" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="702" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A702" s="16"/>
       <c r="B702" s="17"/>
       <c r="C702" s="17"/>
@@ -12686,7 +12690,7 @@
       <c r="K702" s="19"/>
       <c r="L702" s="20"/>
     </row>
-    <row r="703" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="703" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A703" s="16"/>
       <c r="B703" s="17"/>
       <c r="C703" s="17"/>
@@ -12697,7 +12701,7 @@
       <c r="K703" s="19"/>
       <c r="L703" s="20"/>
     </row>
-    <row r="704" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="704" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A704" s="16"/>
       <c r="B704" s="17"/>
       <c r="C704" s="17"/>
@@ -12708,7 +12712,7 @@
       <c r="K704" s="19"/>
       <c r="L704" s="20"/>
     </row>
-    <row r="705" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="705" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A705" s="16"/>
       <c r="B705" s="17"/>
       <c r="C705" s="17"/>
@@ -12719,7 +12723,7 @@
       <c r="K705" s="19"/>
       <c r="L705" s="20"/>
     </row>
-    <row r="706" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="706" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A706" s="16"/>
       <c r="B706" s="17"/>
       <c r="C706" s="17"/>
@@ -12730,7 +12734,7 @@
       <c r="K706" s="19"/>
       <c r="L706" s="20"/>
     </row>
-    <row r="707" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="707" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A707" s="16"/>
       <c r="B707" s="17"/>
       <c r="C707" s="17"/>
@@ -12741,7 +12745,7 @@
       <c r="K707" s="19"/>
       <c r="L707" s="20"/>
     </row>
-    <row r="708" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="708" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A708" s="16"/>
       <c r="B708" s="17"/>
       <c r="C708" s="17"/>
@@ -12752,7 +12756,7 @@
       <c r="K708" s="19"/>
       <c r="L708" s="20"/>
     </row>
-    <row r="709" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="709" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A709" s="16"/>
       <c r="B709" s="17"/>
       <c r="C709" s="17"/>
@@ -12763,7 +12767,7 @@
       <c r="K709" s="19"/>
       <c r="L709" s="20"/>
     </row>
-    <row r="710" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="710" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A710" s="16"/>
       <c r="B710" s="17"/>
       <c r="C710" s="17"/>
@@ -12774,7 +12778,7 @@
       <c r="K710" s="19"/>
       <c r="L710" s="20"/>
     </row>
-    <row r="711" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="711" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A711" s="16"/>
       <c r="B711" s="17"/>
       <c r="C711" s="17"/>
@@ -12785,7 +12789,7 @@
       <c r="K711" s="19"/>
       <c r="L711" s="20"/>
     </row>
-    <row r="712" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="712" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A712" s="16"/>
       <c r="B712" s="17"/>
       <c r="C712" s="17"/>
@@ -12796,7 +12800,7 @@
       <c r="K712" s="19"/>
       <c r="L712" s="20"/>
     </row>
-    <row r="713" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="713" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A713" s="16"/>
       <c r="B713" s="17"/>
       <c r="C713" s="17"/>
@@ -12807,7 +12811,7 @@
       <c r="K713" s="19"/>
       <c r="L713" s="20"/>
     </row>
-    <row r="714" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="714" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A714" s="16"/>
       <c r="B714" s="17"/>
       <c r="C714" s="17"/>
@@ -12818,7 +12822,7 @@
       <c r="K714" s="19"/>
       <c r="L714" s="20"/>
     </row>
-    <row r="715" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="715" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A715" s="16"/>
       <c r="B715" s="17"/>
       <c r="C715" s="17"/>
@@ -12829,7 +12833,7 @@
       <c r="K715" s="19"/>
       <c r="L715" s="20"/>
     </row>
-    <row r="716" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="716" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A716" s="16"/>
       <c r="B716" s="17"/>
       <c r="C716" s="17"/>
@@ -12840,7 +12844,7 @@
       <c r="K716" s="19"/>
       <c r="L716" s="20"/>
     </row>
-    <row r="717" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="717" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A717" s="16"/>
       <c r="B717" s="17"/>
       <c r="C717" s="17"/>
@@ -12851,7 +12855,7 @@
       <c r="K717" s="19"/>
       <c r="L717" s="20"/>
     </row>
-    <row r="718" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="718" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A718" s="16"/>
       <c r="B718" s="17"/>
       <c r="C718" s="17"/>
@@ -12862,7 +12866,7 @@
       <c r="K718" s="19"/>
       <c r="L718" s="20"/>
     </row>
-    <row r="719" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="719" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A719" s="16"/>
       <c r="B719" s="17"/>
       <c r="C719" s="17"/>
@@ -12873,7 +12877,7 @@
       <c r="K719" s="19"/>
       <c r="L719" s="20"/>
     </row>
-    <row r="720" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="720" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A720" s="16"/>
       <c r="B720" s="17"/>
       <c r="C720" s="17"/>
@@ -12884,7 +12888,7 @@
       <c r="K720" s="19"/>
       <c r="L720" s="20"/>
     </row>
-    <row r="721" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="721" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A721" s="16"/>
       <c r="B721" s="17"/>
       <c r="C721" s="17"/>
@@ -12895,7 +12899,7 @@
       <c r="K721" s="19"/>
       <c r="L721" s="20"/>
     </row>
-    <row r="722" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="722" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A722" s="16"/>
       <c r="B722" s="17"/>
       <c r="C722" s="17"/>
@@ -12906,7 +12910,7 @@
       <c r="K722" s="19"/>
       <c r="L722" s="20"/>
     </row>
-    <row r="723" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="723" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A723" s="16"/>
       <c r="B723" s="17"/>
       <c r="C723" s="17"/>
@@ -12917,7 +12921,7 @@
       <c r="K723" s="19"/>
       <c r="L723" s="20"/>
     </row>
-    <row r="724" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="724" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A724" s="16"/>
       <c r="B724" s="17"/>
       <c r="C724" s="17"/>
@@ -12928,7 +12932,7 @@
       <c r="K724" s="19"/>
       <c r="L724" s="20"/>
     </row>
-    <row r="725" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="725" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A725" s="16"/>
       <c r="B725" s="17"/>
       <c r="C725" s="17"/>
@@ -12939,7 +12943,7 @@
       <c r="K725" s="19"/>
       <c r="L725" s="20"/>
     </row>
-    <row r="726" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="726" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A726" s="16"/>
       <c r="B726" s="17"/>
       <c r="C726" s="17"/>
@@ -12950,7 +12954,7 @@
       <c r="K726" s="19"/>
       <c r="L726" s="20"/>
     </row>
-    <row r="727" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="727" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A727" s="16"/>
       <c r="B727" s="17"/>
       <c r="C727" s="17"/>
@@ -12961,7 +12965,7 @@
       <c r="K727" s="19"/>
       <c r="L727" s="20"/>
     </row>
-    <row r="728" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="728" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A728" s="16"/>
       <c r="B728" s="17"/>
       <c r="C728" s="17"/>
@@ -12972,7 +12976,7 @@
       <c r="K728" s="19"/>
       <c r="L728" s="20"/>
     </row>
-    <row r="729" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="729" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A729" s="16"/>
       <c r="B729" s="17"/>
       <c r="C729" s="17"/>
@@ -12983,7 +12987,7 @@
       <c r="K729" s="19"/>
       <c r="L729" s="20"/>
     </row>
-    <row r="730" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="730" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A730" s="16"/>
       <c r="B730" s="17"/>
       <c r="C730" s="17"/>
@@ -12994,7 +12998,7 @@
       <c r="K730" s="19"/>
       <c r="L730" s="20"/>
     </row>
-    <row r="731" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="731" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A731" s="16"/>
       <c r="B731" s="17"/>
       <c r="C731" s="17"/>
@@ -13005,7 +13009,7 @@
       <c r="K731" s="19"/>
       <c r="L731" s="20"/>
     </row>
-    <row r="732" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="732" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A732" s="16"/>
       <c r="B732" s="17"/>
       <c r="C732" s="17"/>
@@ -13016,7 +13020,7 @@
       <c r="K732" s="19"/>
       <c r="L732" s="20"/>
     </row>
-    <row r="733" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="733" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A733" s="16"/>
       <c r="B733" s="17"/>
       <c r="C733" s="17"/>
@@ -13027,7 +13031,7 @@
       <c r="K733" s="19"/>
       <c r="L733" s="20"/>
     </row>
-    <row r="734" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="734" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A734" s="16"/>
       <c r="B734" s="17"/>
       <c r="C734" s="17"/>
@@ -13038,7 +13042,7 @@
       <c r="K734" s="19"/>
       <c r="L734" s="20"/>
     </row>
-    <row r="735" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="735" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A735" s="16"/>
       <c r="B735" s="17"/>
       <c r="C735" s="17"/>
@@ -13049,7 +13053,7 @@
       <c r="K735" s="19"/>
       <c r="L735" s="20"/>
     </row>
-    <row r="736" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="736" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A736" s="16"/>
       <c r="B736" s="17"/>
       <c r="C736" s="17"/>
@@ -13060,7 +13064,7 @@
       <c r="K736" s="19"/>
       <c r="L736" s="20"/>
     </row>
-    <row r="737" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="737" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A737" s="16"/>
       <c r="B737" s="17"/>
       <c r="C737" s="17"/>
@@ -13071,7 +13075,7 @@
       <c r="K737" s="19"/>
       <c r="L737" s="20"/>
     </row>
-    <row r="738" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="738" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A738" s="16"/>
       <c r="B738" s="17"/>
       <c r="C738" s="17"/>
@@ -13082,7 +13086,7 @@
       <c r="K738" s="19"/>
       <c r="L738" s="20"/>
     </row>
-    <row r="739" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="739" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A739" s="16"/>
       <c r="B739" s="17"/>
       <c r="C739" s="17"/>
@@ -13093,7 +13097,7 @@
       <c r="K739" s="19"/>
       <c r="L739" s="20"/>
     </row>
-    <row r="740" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="740" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A740" s="16"/>
       <c r="B740" s="17"/>
       <c r="C740" s="17"/>
@@ -13104,7 +13108,7 @@
       <c r="K740" s="19"/>
       <c r="L740" s="20"/>
     </row>
-    <row r="741" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="741" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A741" s="16"/>
       <c r="B741" s="17"/>
       <c r="C741" s="17"/>
@@ -13115,7 +13119,7 @@
       <c r="K741" s="19"/>
       <c r="L741" s="20"/>
     </row>
-    <row r="742" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="742" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A742" s="16"/>
       <c r="B742" s="17"/>
       <c r="C742" s="17"/>
@@ -13126,7 +13130,7 @@
       <c r="K742" s="19"/>
       <c r="L742" s="20"/>
     </row>
-    <row r="743" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="743" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A743" s="16"/>
       <c r="B743" s="17"/>
       <c r="C743" s="17"/>
@@ -13137,7 +13141,7 @@
       <c r="K743" s="19"/>
       <c r="L743" s="20"/>
     </row>
-    <row r="744" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="744" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A744" s="16"/>
       <c r="B744" s="17"/>
       <c r="C744" s="17"/>
@@ -13148,7 +13152,7 @@
       <c r="K744" s="19"/>
       <c r="L744" s="20"/>
     </row>
-    <row r="745" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="745" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A745" s="16"/>
       <c r="B745" s="17"/>
       <c r="C745" s="17"/>
@@ -13159,7 +13163,7 @@
       <c r="K745" s="19"/>
       <c r="L745" s="20"/>
     </row>
-    <row r="746" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="746" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A746" s="16"/>
       <c r="B746" s="17"/>
       <c r="C746" s="17"/>
@@ -13170,7 +13174,7 @@
       <c r="K746" s="19"/>
       <c r="L746" s="20"/>
     </row>
-    <row r="747" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="747" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A747" s="16"/>
       <c r="B747" s="17"/>
       <c r="C747" s="17"/>
@@ -13181,7 +13185,7 @@
       <c r="K747" s="19"/>
       <c r="L747" s="20"/>
     </row>
-    <row r="748" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="748" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A748" s="16"/>
       <c r="B748" s="17"/>
       <c r="C748" s="17"/>
@@ -13192,7 +13196,7 @@
       <c r="K748" s="19"/>
       <c r="L748" s="20"/>
     </row>
-    <row r="749" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="749" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A749" s="16"/>
       <c r="B749" s="17"/>
       <c r="C749" s="17"/>
@@ -13203,7 +13207,7 @@
       <c r="K749" s="19"/>
       <c r="L749" s="20"/>
     </row>
-    <row r="750" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="750" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A750" s="16"/>
       <c r="B750" s="17"/>
       <c r="C750" s="17"/>
@@ -13214,7 +13218,7 @@
       <c r="K750" s="19"/>
       <c r="L750" s="20"/>
     </row>
-    <row r="751" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="751" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A751" s="16"/>
       <c r="B751" s="17"/>
       <c r="C751" s="17"/>
@@ -13225,7 +13229,7 @@
       <c r="K751" s="19"/>
       <c r="L751" s="20"/>
     </row>
-    <row r="752" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="752" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A752" s="16"/>
       <c r="B752" s="17"/>
       <c r="C752" s="17"/>
@@ -13236,7 +13240,7 @@
       <c r="K752" s="19"/>
       <c r="L752" s="20"/>
     </row>
-    <row r="753" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="753" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A753" s="16"/>
       <c r="B753" s="17"/>
       <c r="C753" s="17"/>
@@ -13247,7 +13251,7 @@
       <c r="K753" s="19"/>
       <c r="L753" s="20"/>
     </row>
-    <row r="754" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="754" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A754" s="16"/>
       <c r="B754" s="17"/>
       <c r="C754" s="17"/>
@@ -13258,7 +13262,7 @@
       <c r="K754" s="19"/>
       <c r="L754" s="20"/>
     </row>
-    <row r="755" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="755" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A755" s="16"/>
       <c r="B755" s="17"/>
       <c r="C755" s="17"/>
@@ -13269,7 +13273,7 @@
       <c r="K755" s="19"/>
       <c r="L755" s="20"/>
     </row>
-    <row r="756" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="756" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A756" s="16"/>
       <c r="B756" s="17"/>
       <c r="C756" s="17"/>
@@ -13280,7 +13284,7 @@
       <c r="K756" s="19"/>
       <c r="L756" s="20"/>
     </row>
-    <row r="757" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="757" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A757" s="16"/>
       <c r="B757" s="17"/>
       <c r="C757" s="17"/>
@@ -13291,7 +13295,7 @@
       <c r="K757" s="19"/>
       <c r="L757" s="20"/>
     </row>
-    <row r="758" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="758" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A758" s="16"/>
       <c r="B758" s="17"/>
       <c r="C758" s="17"/>
@@ -13302,7 +13306,7 @@
       <c r="K758" s="19"/>
       <c r="L758" s="20"/>
     </row>
-    <row r="759" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="759" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A759" s="16"/>
       <c r="B759" s="17"/>
       <c r="C759" s="17"/>
@@ -13313,7 +13317,7 @@
       <c r="K759" s="19"/>
       <c r="L759" s="20"/>
     </row>
-    <row r="760" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="760" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A760" s="16"/>
       <c r="B760" s="17"/>
       <c r="C760" s="17"/>
@@ -13324,7 +13328,7 @@
       <c r="K760" s="19"/>
       <c r="L760" s="20"/>
     </row>
-    <row r="761" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="761" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A761" s="16"/>
       <c r="B761" s="17"/>
       <c r="C761" s="17"/>
@@ -13335,7 +13339,7 @@
       <c r="K761" s="19"/>
       <c r="L761" s="20"/>
     </row>
-    <row r="762" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="762" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A762" s="16"/>
       <c r="B762" s="17"/>
       <c r="C762" s="17"/>
@@ -13346,7 +13350,7 @@
       <c r="K762" s="19"/>
       <c r="L762" s="20"/>
     </row>
-    <row r="763" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="763" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A763" s="16"/>
       <c r="B763" s="17"/>
       <c r="C763" s="17"/>
@@ -13357,7 +13361,7 @@
       <c r="K763" s="19"/>
       <c r="L763" s="20"/>
     </row>
-    <row r="764" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="764" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A764" s="16"/>
       <c r="B764" s="17"/>
       <c r="C764" s="17"/>
@@ -13368,7 +13372,7 @@
       <c r="K764" s="19"/>
       <c r="L764" s="20"/>
     </row>
-    <row r="765" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="765" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A765" s="16"/>
       <c r="B765" s="17"/>
       <c r="C765" s="17"/>
@@ -13379,7 +13383,7 @@
       <c r="K765" s="19"/>
       <c r="L765" s="20"/>
     </row>
-    <row r="766" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="766" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A766" s="16"/>
       <c r="B766" s="17"/>
       <c r="C766" s="17"/>
@@ -13390,7 +13394,7 @@
       <c r="K766" s="19"/>
       <c r="L766" s="20"/>
     </row>
-    <row r="767" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="767" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A767" s="16"/>
       <c r="B767" s="17"/>
       <c r="C767" s="17"/>
@@ -13401,7 +13405,7 @@
       <c r="K767" s="19"/>
       <c r="L767" s="20"/>
     </row>
-    <row r="768" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="768" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A768" s="16"/>
       <c r="B768" s="17"/>
       <c r="C768" s="17"/>
@@ -13412,7 +13416,7 @@
       <c r="K768" s="19"/>
       <c r="L768" s="20"/>
     </row>
-    <row r="769" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="769" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A769" s="16"/>
       <c r="B769" s="17"/>
       <c r="C769" s="17"/>
@@ -13423,7 +13427,7 @@
       <c r="K769" s="19"/>
       <c r="L769" s="20"/>
     </row>
-    <row r="770" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="770" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A770" s="16"/>
       <c r="B770" s="17"/>
       <c r="C770" s="17"/>
@@ -13434,7 +13438,7 @@
       <c r="K770" s="19"/>
       <c r="L770" s="20"/>
     </row>
-    <row r="771" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="771" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A771" s="16"/>
       <c r="B771" s="17"/>
       <c r="C771" s="17"/>
@@ -13445,7 +13449,7 @@
       <c r="K771" s="19"/>
       <c r="L771" s="20"/>
     </row>
-    <row r="772" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="772" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A772" s="16"/>
       <c r="B772" s="17"/>
       <c r="C772" s="17"/>
@@ -13456,7 +13460,7 @@
       <c r="K772" s="19"/>
       <c r="L772" s="20"/>
     </row>
-    <row r="773" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="773" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A773" s="16"/>
       <c r="B773" s="17"/>
       <c r="C773" s="17"/>
@@ -13467,7 +13471,7 @@
       <c r="K773" s="19"/>
       <c r="L773" s="20"/>
     </row>
-    <row r="774" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="774" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A774" s="16"/>
       <c r="B774" s="17"/>
       <c r="C774" s="17"/>
@@ -13478,7 +13482,7 @@
       <c r="K774" s="19"/>
       <c r="L774" s="20"/>
     </row>
-    <row r="775" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="775" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A775" s="16"/>
       <c r="B775" s="17"/>
       <c r="C775" s="17"/>
@@ -13489,7 +13493,7 @@
       <c r="K775" s="19"/>
       <c r="L775" s="20"/>
     </row>
-    <row r="776" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="776" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A776" s="16"/>
       <c r="B776" s="17"/>
       <c r="C776" s="17"/>
@@ -13500,7 +13504,7 @@
       <c r="K776" s="19"/>
       <c r="L776" s="20"/>
     </row>
-    <row r="777" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="777" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A777" s="16"/>
       <c r="B777" s="17"/>
       <c r="C777" s="17"/>
@@ -13511,7 +13515,7 @@
       <c r="K777" s="19"/>
       <c r="L777" s="20"/>
     </row>
-    <row r="778" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="778" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A778" s="16"/>
       <c r="B778" s="17"/>
       <c r="C778" s="17"/>
@@ -13522,7 +13526,7 @@
       <c r="K778" s="19"/>
       <c r="L778" s="20"/>
     </row>
-    <row r="779" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="779" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A779" s="16"/>
       <c r="B779" s="17"/>
       <c r="C779" s="17"/>
@@ -13533,7 +13537,7 @@
       <c r="K779" s="19"/>
       <c r="L779" s="20"/>
     </row>
-    <row r="780" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="780" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A780" s="16"/>
       <c r="B780" s="17"/>
       <c r="C780" s="17"/>
@@ -13544,7 +13548,7 @@
       <c r="K780" s="19"/>
       <c r="L780" s="20"/>
     </row>
-    <row r="781" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="781" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A781" s="16"/>
       <c r="B781" s="17"/>
       <c r="C781" s="17"/>
@@ -13555,7 +13559,7 @@
       <c r="K781" s="19"/>
       <c r="L781" s="20"/>
     </row>
-    <row r="782" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="782" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A782" s="16"/>
       <c r="B782" s="17"/>
       <c r="C782" s="17"/>
@@ -13566,7 +13570,7 @@
       <c r="K782" s="19"/>
       <c r="L782" s="20"/>
     </row>
-    <row r="783" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="783" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A783" s="16"/>
       <c r="B783" s="17"/>
       <c r="C783" s="17"/>
@@ -13577,7 +13581,7 @@
       <c r="K783" s="19"/>
       <c r="L783" s="20"/>
     </row>
-    <row r="784" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="784" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A784" s="16"/>
       <c r="B784" s="17"/>
       <c r="C784" s="17"/>
@@ -13588,7 +13592,7 @@
       <c r="K784" s="19"/>
       <c r="L784" s="20"/>
     </row>
-    <row r="785" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="785" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A785" s="16"/>
       <c r="B785" s="17"/>
       <c r="C785" s="17"/>
@@ -13599,7 +13603,7 @@
       <c r="K785" s="19"/>
       <c r="L785" s="20"/>
     </row>
-    <row r="786" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="786" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A786" s="16"/>
       <c r="B786" s="17"/>
       <c r="C786" s="17"/>
@@ -13610,7 +13614,7 @@
       <c r="K786" s="19"/>
       <c r="L786" s="20"/>
     </row>
-    <row r="787" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="787" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A787" s="16"/>
       <c r="B787" s="17"/>
       <c r="C787" s="17"/>
@@ -13621,7 +13625,7 @@
       <c r="K787" s="19"/>
       <c r="L787" s="20"/>
     </row>
-    <row r="788" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="788" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A788" s="16"/>
       <c r="B788" s="17"/>
       <c r="C788" s="17"/>
@@ -13632,7 +13636,7 @@
       <c r="K788" s="19"/>
       <c r="L788" s="20"/>
     </row>
-    <row r="789" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="789" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A789" s="16"/>
       <c r="B789" s="17"/>
       <c r="C789" s="17"/>
@@ -13643,7 +13647,7 @@
       <c r="K789" s="19"/>
       <c r="L789" s="20"/>
     </row>
-    <row r="790" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="790" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A790" s="16"/>
       <c r="B790" s="17"/>
       <c r="C790" s="17"/>
@@ -13654,7 +13658,7 @@
       <c r="K790" s="19"/>
       <c r="L790" s="20"/>
     </row>
-    <row r="791" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="791" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A791" s="16"/>
       <c r="B791" s="17"/>
       <c r="C791" s="17"/>
@@ -13665,7 +13669,7 @@
       <c r="K791" s="19"/>
       <c r="L791" s="20"/>
     </row>
-    <row r="792" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="792" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A792" s="16"/>
       <c r="B792" s="17"/>
       <c r="C792" s="17"/>
@@ -13676,7 +13680,7 @@
       <c r="K792" s="19"/>
       <c r="L792" s="20"/>
     </row>
-    <row r="793" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="793" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A793" s="16"/>
       <c r="B793" s="17"/>
       <c r="C793" s="17"/>
@@ -13687,7 +13691,7 @@
       <c r="K793" s="19"/>
       <c r="L793" s="20"/>
     </row>
-    <row r="794" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="794" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A794" s="16"/>
       <c r="B794" s="17"/>
       <c r="C794" s="17"/>
@@ -13698,7 +13702,7 @@
       <c r="K794" s="19"/>
       <c r="L794" s="20"/>
     </row>
-    <row r="795" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="795" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A795" s="16"/>
       <c r="B795" s="17"/>
       <c r="C795" s="17"/>
@@ -13709,7 +13713,7 @@
       <c r="K795" s="19"/>
       <c r="L795" s="20"/>
     </row>
-    <row r="796" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="796" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A796" s="16"/>
       <c r="B796" s="17"/>
       <c r="C796" s="17"/>
@@ -13720,7 +13724,7 @@
       <c r="K796" s="19"/>
       <c r="L796" s="20"/>
     </row>
-    <row r="797" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="797" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A797" s="16"/>
       <c r="B797" s="17"/>
       <c r="C797" s="17"/>
@@ -13731,7 +13735,7 @@
       <c r="K797" s="19"/>
       <c r="L797" s="20"/>
     </row>
-    <row r="798" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="798" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A798" s="16"/>
       <c r="B798" s="17"/>
       <c r="C798" s="17"/>
@@ -13742,7 +13746,7 @@
       <c r="K798" s="19"/>
       <c r="L798" s="20"/>
     </row>
-    <row r="799" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="799" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A799" s="16"/>
       <c r="B799" s="17"/>
       <c r="C799" s="17"/>
@@ -13753,7 +13757,7 @@
       <c r="K799" s="19"/>
       <c r="L799" s="20"/>
     </row>
-    <row r="800" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="800" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A800" s="16"/>
       <c r="B800" s="17"/>
       <c r="C800" s="17"/>
@@ -13764,7 +13768,7 @@
       <c r="K800" s="19"/>
       <c r="L800" s="20"/>
     </row>
-    <row r="801" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="801" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A801" s="16"/>
       <c r="B801" s="17"/>
       <c r="C801" s="17"/>
@@ -13775,7 +13779,7 @@
       <c r="K801" s="19"/>
       <c r="L801" s="20"/>
     </row>
-    <row r="802" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="802" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A802" s="16"/>
       <c r="B802" s="17"/>
       <c r="C802" s="17"/>
@@ -13786,7 +13790,7 @@
       <c r="K802" s="19"/>
       <c r="L802" s="20"/>
     </row>
-    <row r="803" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="803" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A803" s="16"/>
       <c r="B803" s="17"/>
       <c r="C803" s="17"/>
@@ -13797,7 +13801,7 @@
       <c r="K803" s="19"/>
       <c r="L803" s="20"/>
     </row>
-    <row r="804" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="804" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A804" s="16"/>
       <c r="B804" s="17"/>
       <c r="C804" s="17"/>
@@ -13808,7 +13812,7 @@
       <c r="K804" s="19"/>
       <c r="L804" s="20"/>
     </row>
-    <row r="805" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="805" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A805" s="16"/>
       <c r="B805" s="17"/>
       <c r="C805" s="17"/>
@@ -13819,7 +13823,7 @@
       <c r="K805" s="19"/>
       <c r="L805" s="20"/>
     </row>
-    <row r="806" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="806" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A806" s="16"/>
       <c r="B806" s="17"/>
       <c r="C806" s="17"/>
@@ -13830,7 +13834,7 @@
       <c r="K806" s="19"/>
       <c r="L806" s="20"/>
     </row>
-    <row r="807" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="807" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A807" s="16"/>
       <c r="B807" s="17"/>
       <c r="C807" s="17"/>
@@ -13841,7 +13845,7 @@
       <c r="K807" s="19"/>
       <c r="L807" s="20"/>
     </row>
-    <row r="808" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="808" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A808" s="16"/>
       <c r="B808" s="17"/>
       <c r="C808" s="17"/>
@@ -13852,7 +13856,7 @@
       <c r="K808" s="19"/>
       <c r="L808" s="20"/>
     </row>
-    <row r="809" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="809" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A809" s="16"/>
       <c r="B809" s="17"/>
       <c r="C809" s="17"/>
@@ -13863,7 +13867,7 @@
       <c r="K809" s="19"/>
       <c r="L809" s="20"/>
     </row>
-    <row r="810" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="810" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A810" s="16"/>
       <c r="B810" s="17"/>
       <c r="C810" s="17"/>
@@ -13874,7 +13878,7 @@
       <c r="K810" s="19"/>
       <c r="L810" s="20"/>
     </row>
-    <row r="811" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="811" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A811" s="16"/>
       <c r="B811" s="17"/>
       <c r="C811" s="17"/>
@@ -13885,7 +13889,7 @@
       <c r="K811" s="19"/>
       <c r="L811" s="20"/>
     </row>
-    <row r="812" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="812" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A812" s="16"/>
       <c r="B812" s="17"/>
       <c r="C812" s="17"/>
@@ -13896,7 +13900,7 @@
       <c r="K812" s="19"/>
       <c r="L812" s="20"/>
     </row>
-    <row r="813" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="813" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A813" s="16"/>
       <c r="B813" s="17"/>
       <c r="C813" s="17"/>
@@ -13907,7 +13911,7 @@
       <c r="K813" s="19"/>
       <c r="L813" s="20"/>
     </row>
-    <row r="814" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="814" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A814" s="16"/>
       <c r="B814" s="17"/>
       <c r="C814" s="17"/>
@@ -13918,7 +13922,7 @@
       <c r="K814" s="19"/>
       <c r="L814" s="20"/>
     </row>
-    <row r="815" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="815" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A815" s="16"/>
       <c r="B815" s="17"/>
       <c r="C815" s="17"/>
@@ -13929,7 +13933,7 @@
       <c r="K815" s="19"/>
       <c r="L815" s="20"/>
     </row>
-    <row r="816" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="816" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A816" s="16"/>
       <c r="B816" s="17"/>
       <c r="C816" s="17"/>
@@ -13940,7 +13944,7 @@
       <c r="K816" s="19"/>
       <c r="L816" s="20"/>
     </row>
-    <row r="817" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="817" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A817" s="16"/>
       <c r="B817" s="17"/>
       <c r="C817" s="17"/>
@@ -13951,7 +13955,7 @@
       <c r="K817" s="19"/>
       <c r="L817" s="20"/>
     </row>
-    <row r="818" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="818" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A818" s="16"/>
       <c r="B818" s="17"/>
       <c r="C818" s="17"/>
@@ -13962,7 +13966,7 @@
       <c r="K818" s="19"/>
       <c r="L818" s="20"/>
     </row>
-    <row r="819" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="819" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A819" s="16"/>
       <c r="B819" s="17"/>
       <c r="C819" s="17"/>
@@ -13973,7 +13977,7 @@
       <c r="K819" s="19"/>
       <c r="L819" s="20"/>
     </row>
-    <row r="820" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="820" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A820" s="16"/>
       <c r="B820" s="17"/>
       <c r="C820" s="17"/>
@@ -13984,7 +13988,7 @@
       <c r="K820" s="19"/>
       <c r="L820" s="20"/>
     </row>
-    <row r="821" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="821" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A821" s="16"/>
       <c r="B821" s="17"/>
       <c r="C821" s="17"/>
@@ -13995,7 +13999,7 @@
       <c r="K821" s="19"/>
       <c r="L821" s="20"/>
     </row>
-    <row r="822" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="822" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A822" s="16"/>
       <c r="B822" s="17"/>
       <c r="C822" s="17"/>
@@ -14006,7 +14010,7 @@
       <c r="K822" s="19"/>
       <c r="L822" s="20"/>
     </row>
-    <row r="823" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="823" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A823" s="16"/>
       <c r="B823" s="17"/>
       <c r="C823" s="17"/>
@@ -14017,7 +14021,7 @@
       <c r="K823" s="19"/>
       <c r="L823" s="20"/>
     </row>
-    <row r="824" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="824" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A824" s="16"/>
       <c r="B824" s="17"/>
       <c r="C824" s="17"/>
@@ -14028,7 +14032,7 @@
       <c r="K824" s="19"/>
       <c r="L824" s="20"/>
     </row>
-    <row r="825" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="825" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A825" s="16"/>
       <c r="B825" s="17"/>
       <c r="C825" s="17"/>
@@ -14039,7 +14043,7 @@
       <c r="K825" s="19"/>
       <c r="L825" s="20"/>
     </row>
-    <row r="826" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="826" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A826" s="16"/>
       <c r="B826" s="17"/>
       <c r="C826" s="17"/>
@@ -14050,7 +14054,7 @@
       <c r="K826" s="19"/>
       <c r="L826" s="20"/>
     </row>
-    <row r="827" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="827" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A827" s="16"/>
       <c r="B827" s="17"/>
       <c r="C827" s="17"/>
@@ -14061,7 +14065,7 @@
       <c r="K827" s="19"/>
       <c r="L827" s="20"/>
     </row>
-    <row r="828" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="828" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A828" s="16"/>
       <c r="B828" s="17"/>
       <c r="C828" s="17"/>
@@ -14072,7 +14076,7 @@
       <c r="K828" s="19"/>
       <c r="L828" s="20"/>
     </row>
-    <row r="829" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="829" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A829" s="16"/>
       <c r="B829" s="17"/>
       <c r="C829" s="17"/>
@@ -14083,7 +14087,7 @@
       <c r="K829" s="19"/>
       <c r="L829" s="20"/>
     </row>
-    <row r="830" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="830" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A830" s="16"/>
       <c r="B830" s="17"/>
       <c r="C830" s="17"/>
@@ -14094,7 +14098,7 @@
       <c r="K830" s="19"/>
       <c r="L830" s="20"/>
     </row>
-    <row r="831" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="831" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A831" s="16"/>
       <c r="B831" s="17"/>
       <c r="C831" s="17"/>
@@ -14105,7 +14109,7 @@
       <c r="K831" s="19"/>
       <c r="L831" s="20"/>
     </row>
-    <row r="832" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="832" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A832" s="16"/>
       <c r="B832" s="17"/>
       <c r="C832" s="17"/>
@@ -14116,7 +14120,7 @@
       <c r="K832" s="19"/>
       <c r="L832" s="20"/>
     </row>
-    <row r="833" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="833" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A833" s="16"/>
       <c r="B833" s="17"/>
       <c r="C833" s="17"/>
@@ -14127,7 +14131,7 @@
       <c r="K833" s="19"/>
       <c r="L833" s="20"/>
     </row>
-    <row r="834" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="834" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A834" s="16"/>
       <c r="B834" s="17"/>
       <c r="C834" s="17"/>
@@ -14138,7 +14142,7 @@
       <c r="K834" s="19"/>
       <c r="L834" s="20"/>
     </row>
-    <row r="835" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="835" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A835" s="16"/>
       <c r="B835" s="17"/>
       <c r="C835" s="17"/>
@@ -14149,7 +14153,7 @@
       <c r="K835" s="19"/>
       <c r="L835" s="20"/>
     </row>
-    <row r="836" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="836" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A836" s="16"/>
       <c r="B836" s="17"/>
       <c r="C836" s="17"/>
@@ -14160,7 +14164,7 @@
       <c r="K836" s="19"/>
       <c r="L836" s="20"/>
     </row>
-    <row r="837" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="837" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A837" s="16"/>
       <c r="B837" s="17"/>
       <c r="C837" s="17"/>
@@ -14171,7 +14175,7 @@
       <c r="K837" s="19"/>
       <c r="L837" s="20"/>
     </row>
-    <row r="838" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="838" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A838" s="16"/>
       <c r="B838" s="17"/>
       <c r="C838" s="17"/>
@@ -14182,7 +14186,7 @@
       <c r="K838" s="19"/>
       <c r="L838" s="20"/>
     </row>
-    <row r="839" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="839" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A839" s="16"/>
       <c r="B839" s="17"/>
       <c r="C839" s="17"/>
@@ -14193,7 +14197,7 @@
       <c r="K839" s="19"/>
       <c r="L839" s="20"/>
     </row>
-    <row r="840" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="840" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A840" s="16"/>
       <c r="B840" s="17"/>
       <c r="C840" s="17"/>
@@ -14204,7 +14208,7 @@
       <c r="K840" s="19"/>
       <c r="L840" s="20"/>
     </row>
-    <row r="841" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="841" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A841" s="16"/>
       <c r="B841" s="17"/>
       <c r="C841" s="17"/>
@@ -14215,7 +14219,7 @@
       <c r="K841" s="19"/>
       <c r="L841" s="20"/>
     </row>
-    <row r="842" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="842" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A842" s="16"/>
       <c r="B842" s="17"/>
       <c r="C842" s="17"/>
@@ -14226,7 +14230,7 @@
       <c r="K842" s="19"/>
       <c r="L842" s="20"/>
     </row>
-    <row r="843" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="843" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A843" s="16"/>
       <c r="B843" s="17"/>
       <c r="C843" s="17"/>
@@ -14237,7 +14241,7 @@
       <c r="K843" s="19"/>
       <c r="L843" s="20"/>
     </row>
-    <row r="844" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="844" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A844" s="16"/>
       <c r="B844" s="17"/>
       <c r="C844" s="17"/>
@@ -14248,7 +14252,7 @@
       <c r="K844" s="19"/>
       <c r="L844" s="20"/>
     </row>
-    <row r="845" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="845" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A845" s="16"/>
       <c r="B845" s="17"/>
       <c r="C845" s="17"/>
@@ -14259,7 +14263,7 @@
       <c r="K845" s="19"/>
       <c r="L845" s="20"/>
     </row>
-    <row r="846" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="846" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A846" s="16"/>
       <c r="B846" s="17"/>
       <c r="C846" s="17"/>
@@ -14270,7 +14274,7 @@
       <c r="K846" s="19"/>
       <c r="L846" s="20"/>
     </row>
-    <row r="847" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="847" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A847" s="16"/>
       <c r="B847" s="17"/>
       <c r="C847" s="17"/>
@@ -14281,7 +14285,7 @@
       <c r="K847" s="19"/>
       <c r="L847" s="20"/>
     </row>
-    <row r="848" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="848" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A848" s="16"/>
       <c r="B848" s="17"/>
       <c r="C848" s="17"/>
@@ -14292,7 +14296,7 @@
       <c r="K848" s="19"/>
       <c r="L848" s="20"/>
     </row>
-    <row r="849" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="849" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A849" s="16"/>
       <c r="B849" s="17"/>
       <c r="C849" s="17"/>
@@ -14303,7 +14307,7 @@
       <c r="K849" s="19"/>
       <c r="L849" s="20"/>
     </row>
-    <row r="850" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="850" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A850" s="16"/>
       <c r="B850" s="17"/>
       <c r="C850" s="17"/>
@@ -14314,7 +14318,7 @@
       <c r="K850" s="19"/>
       <c r="L850" s="20"/>
     </row>
-    <row r="851" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="851" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A851" s="16"/>
       <c r="B851" s="17"/>
       <c r="C851" s="17"/>
@@ -14325,7 +14329,7 @@
       <c r="K851" s="19"/>
       <c r="L851" s="20"/>
     </row>
-    <row r="852" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="852" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A852" s="16"/>
       <c r="B852" s="17"/>
       <c r="C852" s="17"/>
@@ -14336,7 +14340,7 @@
       <c r="K852" s="19"/>
       <c r="L852" s="20"/>
     </row>
-    <row r="853" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="853" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A853" s="16"/>
       <c r="B853" s="17"/>
       <c r="C853" s="17"/>
@@ -14347,7 +14351,7 @@
       <c r="K853" s="19"/>
       <c r="L853" s="20"/>
     </row>
-    <row r="854" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="854" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A854" s="16"/>
       <c r="B854" s="17"/>
       <c r="C854" s="17"/>
@@ -14358,7 +14362,7 @@
       <c r="K854" s="19"/>
       <c r="L854" s="20"/>
     </row>
-    <row r="855" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="855" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A855" s="16"/>
       <c r="B855" s="17"/>
       <c r="C855" s="17"/>
@@ -14369,7 +14373,7 @@
       <c r="K855" s="19"/>
       <c r="L855" s="20"/>
     </row>
-    <row r="856" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="856" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A856" s="16"/>
       <c r="B856" s="17"/>
       <c r="C856" s="17"/>
@@ -14380,7 +14384,7 @@
       <c r="K856" s="19"/>
       <c r="L856" s="20"/>
     </row>
-    <row r="857" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="857" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A857" s="16"/>
       <c r="B857" s="17"/>
       <c r="C857" s="17"/>
@@ -14391,7 +14395,7 @@
       <c r="K857" s="19"/>
       <c r="L857" s="20"/>
     </row>
-    <row r="858" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="858" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A858" s="16"/>
       <c r="B858" s="17"/>
       <c r="C858" s="17"/>
@@ -14402,7 +14406,7 @@
       <c r="K858" s="19"/>
       <c r="L858" s="20"/>
     </row>
-    <row r="859" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="859" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A859" s="16"/>
       <c r="B859" s="17"/>
       <c r="C859" s="17"/>
@@ -14413,7 +14417,7 @@
       <c r="K859" s="19"/>
       <c r="L859" s="20"/>
     </row>
-    <row r="860" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="860" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A860" s="16"/>
       <c r="B860" s="17"/>
       <c r="C860" s="17"/>
@@ -14424,7 +14428,7 @@
       <c r="K860" s="19"/>
       <c r="L860" s="20"/>
     </row>
-    <row r="861" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="861" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A861" s="16"/>
       <c r="B861" s="17"/>
       <c r="C861" s="17"/>
@@ -14435,7 +14439,7 @@
       <c r="K861" s="19"/>
       <c r="L861" s="20"/>
     </row>
-    <row r="862" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="862" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A862" s="16"/>
       <c r="B862" s="17"/>
       <c r="C862" s="17"/>
@@ -14446,7 +14450,7 @@
       <c r="K862" s="19"/>
       <c r="L862" s="20"/>
     </row>
-    <row r="863" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="863" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A863" s="16"/>
       <c r="B863" s="17"/>
       <c r="C863" s="17"/>
@@ -14457,7 +14461,7 @@
       <c r="K863" s="19"/>
       <c r="L863" s="20"/>
     </row>
-    <row r="864" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="864" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A864" s="16"/>
       <c r="B864" s="17"/>
       <c r="C864" s="17"/>
@@ -14468,7 +14472,7 @@
       <c r="K864" s="19"/>
       <c r="L864" s="20"/>
     </row>
-    <row r="865" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="865" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A865" s="16"/>
       <c r="B865" s="17"/>
       <c r="C865" s="17"/>
@@ -14479,7 +14483,7 @@
       <c r="K865" s="19"/>
       <c r="L865" s="20"/>
     </row>
-    <row r="866" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="866" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A866" s="16"/>
       <c r="B866" s="17"/>
       <c r="C866" s="17"/>
@@ -14490,7 +14494,7 @@
       <c r="K866" s="19"/>
       <c r="L866" s="20"/>
     </row>
-    <row r="867" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="867" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A867" s="16"/>
       <c r="B867" s="17"/>
       <c r="C867" s="17"/>
@@ -14501,7 +14505,7 @@
       <c r="K867" s="19"/>
       <c r="L867" s="20"/>
     </row>
-    <row r="868" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="868" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A868" s="16"/>
       <c r="B868" s="17"/>
       <c r="C868" s="17"/>
@@ -14512,7 +14516,7 @@
       <c r="K868" s="19"/>
       <c r="L868" s="20"/>
     </row>
-    <row r="869" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="869" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A869" s="16"/>
       <c r="B869" s="17"/>
       <c r="C869" s="17"/>
@@ -14523,7 +14527,7 @@
       <c r="K869" s="19"/>
       <c r="L869" s="20"/>
     </row>
-    <row r="870" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="870" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A870" s="16"/>
       <c r="B870" s="17"/>
       <c r="C870" s="17"/>
@@ -14534,7 +14538,7 @@
       <c r="K870" s="19"/>
       <c r="L870" s="20"/>
     </row>
-    <row r="871" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="871" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A871" s="16"/>
       <c r="B871" s="17"/>
       <c r="C871" s="17"/>
@@ -14545,7 +14549,7 @@
       <c r="K871" s="19"/>
       <c r="L871" s="20"/>
     </row>
-    <row r="872" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="872" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A872" s="16"/>
       <c r="B872" s="17"/>
       <c r="C872" s="17"/>
@@ -14556,7 +14560,7 @@
       <c r="K872" s="19"/>
       <c r="L872" s="20"/>
     </row>
-    <row r="873" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="873" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A873" s="16"/>
       <c r="B873" s="17"/>
       <c r="C873" s="17"/>
@@ -14567,7 +14571,7 @@
       <c r="K873" s="19"/>
       <c r="L873" s="20"/>
     </row>
-    <row r="874" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="874" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A874" s="16"/>
       <c r="B874" s="17"/>
       <c r="C874" s="17"/>
@@ -14578,7 +14582,7 @@
       <c r="K874" s="19"/>
       <c r="L874" s="20"/>
     </row>
-    <row r="875" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="875" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A875" s="16"/>
       <c r="B875" s="17"/>
       <c r="C875" s="17"/>
@@ -14589,7 +14593,7 @@
       <c r="K875" s="19"/>
       <c r="L875" s="20"/>
     </row>
-    <row r="876" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="876" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A876" s="16"/>
       <c r="B876" s="17"/>
       <c r="C876" s="17"/>
@@ -14600,7 +14604,7 @@
       <c r="K876" s="19"/>
       <c r="L876" s="20"/>
     </row>
-    <row r="877" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="877" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A877" s="16"/>
       <c r="B877" s="17"/>
       <c r="C877" s="17"/>
@@ -14611,7 +14615,7 @@
       <c r="K877" s="19"/>
       <c r="L877" s="20"/>
     </row>
-    <row r="878" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="878" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A878" s="16"/>
       <c r="B878" s="17"/>
       <c r="C878" s="17"/>
@@ -14622,7 +14626,7 @@
       <c r="K878" s="19"/>
       <c r="L878" s="20"/>
     </row>
-    <row r="879" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="879" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A879" s="16"/>
       <c r="B879" s="17"/>
       <c r="C879" s="17"/>
@@ -14633,7 +14637,7 @@
       <c r="K879" s="19"/>
       <c r="L879" s="20"/>
     </row>
-    <row r="880" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="880" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A880" s="16"/>
       <c r="B880" s="17"/>
       <c r="C880" s="17"/>
@@ -14644,7 +14648,7 @@
       <c r="K880" s="19"/>
       <c r="L880" s="20"/>
     </row>
-    <row r="881" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="881" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A881" s="16"/>
       <c r="B881" s="17"/>
       <c r="C881" s="17"/>
@@ -14655,7 +14659,7 @@
       <c r="K881" s="19"/>
       <c r="L881" s="20"/>
     </row>
-    <row r="882" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="882" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A882" s="16"/>
       <c r="B882" s="17"/>
       <c r="C882" s="17"/>
@@ -14666,7 +14670,7 @@
       <c r="K882" s="19"/>
       <c r="L882" s="20"/>
     </row>
-    <row r="883" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="883" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A883" s="16"/>
       <c r="B883" s="17"/>
       <c r="C883" s="17"/>
@@ -14677,7 +14681,7 @@
       <c r="K883" s="19"/>
       <c r="L883" s="20"/>
     </row>
-    <row r="884" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="884" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A884" s="16"/>
       <c r="B884" s="17"/>
       <c r="C884" s="17"/>
@@ -14688,7 +14692,7 @@
       <c r="K884" s="19"/>
       <c r="L884" s="20"/>
     </row>
-    <row r="885" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="885" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A885" s="16"/>
       <c r="B885" s="17"/>
       <c r="C885" s="17"/>
@@ -14699,7 +14703,7 @@
       <c r="K885" s="19"/>
       <c r="L885" s="20"/>
     </row>
-    <row r="886" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="886" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A886" s="16"/>
       <c r="B886" s="17"/>
       <c r="C886" s="17"/>
@@ -14710,7 +14714,7 @@
       <c r="K886" s="19"/>
       <c r="L886" s="20"/>
     </row>
-    <row r="887" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="887" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A887" s="16"/>
       <c r="B887" s="17"/>
       <c r="C887" s="17"/>
@@ -14721,7 +14725,7 @@
       <c r="K887" s="19"/>
       <c r="L887" s="20"/>
     </row>
-    <row r="888" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="888" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A888" s="16"/>
       <c r="B888" s="17"/>
       <c r="C888" s="17"/>
@@ -14732,7 +14736,7 @@
       <c r="K888" s="19"/>
       <c r="L888" s="20"/>
     </row>
-    <row r="889" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="889" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A889" s="16"/>
       <c r="B889" s="17"/>
       <c r="C889" s="17"/>
@@ -14743,7 +14747,7 @@
       <c r="K889" s="19"/>
       <c r="L889" s="20"/>
     </row>
-    <row r="890" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="890" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A890" s="16"/>
       <c r="B890" s="17"/>
       <c r="C890" s="17"/>
@@ -14754,7 +14758,7 @@
       <c r="K890" s="19"/>
       <c r="L890" s="20"/>
     </row>
-    <row r="891" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="891" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A891" s="16"/>
       <c r="B891" s="17"/>
       <c r="C891" s="17"/>
@@ -14765,7 +14769,7 @@
       <c r="K891" s="19"/>
       <c r="L891" s="20"/>
     </row>
-    <row r="892" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="892" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A892" s="16"/>
       <c r="B892" s="17"/>
       <c r="C892" s="17"/>
@@ -14776,7 +14780,7 @@
       <c r="K892" s="19"/>
       <c r="L892" s="20"/>
     </row>
-    <row r="893" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="893" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A893" s="16"/>
       <c r="B893" s="17"/>
       <c r="C893" s="17"/>
@@ -14787,7 +14791,7 @@
       <c r="K893" s="19"/>
       <c r="L893" s="20"/>
     </row>
-    <row r="894" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="894" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A894" s="16"/>
       <c r="B894" s="17"/>
       <c r="C894" s="17"/>
@@ -14798,7 +14802,7 @@
       <c r="K894" s="19"/>
       <c r="L894" s="20"/>
     </row>
-    <row r="895" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="895" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A895" s="16"/>
       <c r="B895" s="17"/>
       <c r="C895" s="17"/>
@@ -14809,7 +14813,7 @@
       <c r="K895" s="19"/>
       <c r="L895" s="20"/>
     </row>
-    <row r="896" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="896" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A896" s="16"/>
       <c r="B896" s="17"/>
       <c r="C896" s="17"/>
@@ -14820,7 +14824,7 @@
       <c r="K896" s="19"/>
       <c r="L896" s="20"/>
     </row>
-    <row r="897" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="897" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A897" s="16"/>
       <c r="B897" s="17"/>
       <c r="C897" s="17"/>
@@ -14831,7 +14835,7 @@
       <c r="K897" s="19"/>
       <c r="L897" s="20"/>
     </row>
-    <row r="898" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="898" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A898" s="16"/>
       <c r="B898" s="17"/>
       <c r="C898" s="17"/>
@@ -14842,7 +14846,7 @@
       <c r="K898" s="19"/>
       <c r="L898" s="20"/>
     </row>
-    <row r="899" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="899" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A899" s="16"/>
       <c r="B899" s="17"/>
       <c r="C899" s="17"/>
@@ -14853,7 +14857,7 @@
       <c r="K899" s="19"/>
       <c r="L899" s="20"/>
     </row>
-    <row r="900" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="900" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A900" s="16"/>
       <c r="B900" s="17"/>
       <c r="C900" s="17"/>
@@ -14864,7 +14868,7 @@
       <c r="K900" s="19"/>
       <c r="L900" s="20"/>
     </row>
-    <row r="901" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="901" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A901" s="16"/>
       <c r="B901" s="17"/>
       <c r="C901" s="17"/>
@@ -14875,7 +14879,7 @@
       <c r="K901" s="19"/>
       <c r="L901" s="20"/>
     </row>
-    <row r="902" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="902" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A902" s="16"/>
       <c r="B902" s="17"/>
       <c r="C902" s="17"/>
@@ -14886,7 +14890,7 @@
       <c r="K902" s="19"/>
       <c r="L902" s="20"/>
     </row>
-    <row r="903" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="903" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A903" s="16"/>
       <c r="B903" s="17"/>
       <c r="C903" s="17"/>
@@ -14897,7 +14901,7 @@
       <c r="K903" s="19"/>
       <c r="L903" s="20"/>
     </row>
-    <row r="904" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="904" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A904" s="16"/>
       <c r="B904" s="17"/>
       <c r="C904" s="17"/>
@@ -14908,7 +14912,7 @@
       <c r="K904" s="19"/>
       <c r="L904" s="20"/>
     </row>
-    <row r="905" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="905" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A905" s="16"/>
       <c r="B905" s="17"/>
       <c r="C905" s="17"/>
@@ -14919,7 +14923,7 @@
       <c r="K905" s="19"/>
       <c r="L905" s="20"/>
     </row>
-    <row r="906" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="906" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A906" s="16"/>
       <c r="B906" s="17"/>
       <c r="C906" s="17"/>
@@ -14930,7 +14934,7 @@
       <c r="K906" s="19"/>
       <c r="L906" s="20"/>
     </row>
-    <row r="907" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="907" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A907" s="16"/>
       <c r="B907" s="17"/>
       <c r="C907" s="17"/>
@@ -14941,7 +14945,7 @@
       <c r="K907" s="19"/>
       <c r="L907" s="20"/>
     </row>
-    <row r="908" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="908" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A908" s="16"/>
       <c r="B908" s="17"/>
       <c r="C908" s="17"/>
@@ -14952,7 +14956,7 @@
       <c r="K908" s="19"/>
       <c r="L908" s="20"/>
     </row>
-    <row r="909" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="909" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A909" s="16"/>
       <c r="B909" s="17"/>
       <c r="C909" s="17"/>
@@ -14963,7 +14967,7 @@
       <c r="K909" s="19"/>
       <c r="L909" s="20"/>
     </row>
-    <row r="910" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="910" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A910" s="16"/>
       <c r="B910" s="17"/>
       <c r="C910" s="17"/>
@@ -14974,7 +14978,7 @@
       <c r="K910" s="19"/>
       <c r="L910" s="20"/>
     </row>
-    <row r="911" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="911" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A911" s="16"/>
       <c r="B911" s="17"/>
       <c r="C911" s="17"/>
@@ -14985,7 +14989,7 @@
       <c r="K911" s="19"/>
       <c r="L911" s="20"/>
     </row>
-    <row r="912" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="912" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A912" s="16"/>
       <c r="B912" s="17"/>
       <c r="C912" s="17"/>
@@ -14996,7 +15000,7 @@
       <c r="K912" s="19"/>
       <c r="L912" s="20"/>
     </row>
-    <row r="913" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="913" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A913" s="16"/>
       <c r="B913" s="17"/>
       <c r="C913" s="17"/>
@@ -15007,7 +15011,7 @@
       <c r="K913" s="19"/>
       <c r="L913" s="20"/>
     </row>
-    <row r="914" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="914" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A914" s="16"/>
       <c r="B914" s="17"/>
       <c r="C914" s="17"/>
@@ -15018,7 +15022,7 @@
       <c r="K914" s="19"/>
       <c r="L914" s="20"/>
     </row>
-    <row r="915" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="915" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A915" s="16"/>
       <c r="B915" s="17"/>
       <c r="C915" s="17"/>
@@ -15029,7 +15033,7 @@
       <c r="K915" s="19"/>
       <c r="L915" s="20"/>
     </row>
-    <row r="916" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="916" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A916" s="16"/>
       <c r="B916" s="17"/>
       <c r="C916" s="17"/>
@@ -15040,7 +15044,7 @@
       <c r="K916" s="19"/>
       <c r="L916" s="20"/>
     </row>
-    <row r="917" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="917" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A917" s="16"/>
       <c r="B917" s="17"/>
       <c r="C917" s="17"/>
@@ -15051,7 +15055,7 @@
       <c r="K917" s="19"/>
       <c r="L917" s="20"/>
     </row>
-    <row r="918" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="918" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A918" s="16"/>
       <c r="B918" s="17"/>
       <c r="C918" s="17"/>
@@ -15062,7 +15066,7 @@
       <c r="K918" s="19"/>
       <c r="L918" s="20"/>
     </row>
-    <row r="919" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="919" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A919" s="16"/>
       <c r="B919" s="17"/>
       <c r="C919" s="17"/>
@@ -15073,7 +15077,7 @@
       <c r="K919" s="19"/>
       <c r="L919" s="20"/>
     </row>
-    <row r="920" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="920" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A920" s="16"/>
       <c r="B920" s="17"/>
       <c r="C920" s="17"/>
@@ -15084,7 +15088,7 @@
       <c r="K920" s="19"/>
       <c r="L920" s="20"/>
     </row>
-    <row r="921" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="921" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A921" s="16"/>
       <c r="B921" s="17"/>
       <c r="C921" s="17"/>
@@ -15095,7 +15099,7 @@
       <c r="K921" s="19"/>
       <c r="L921" s="20"/>
     </row>
-    <row r="922" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="922" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A922" s="16"/>
       <c r="B922" s="17"/>
       <c r="C922" s="17"/>
@@ -15106,7 +15110,7 @@
       <c r="K922" s="19"/>
       <c r="L922" s="20"/>
     </row>
-    <row r="923" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="923" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A923" s="16"/>
       <c r="B923" s="17"/>
       <c r="C923" s="17"/>
@@ -15117,7 +15121,7 @@
       <c r="K923" s="19"/>
       <c r="L923" s="20"/>
     </row>
-    <row r="924" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="924" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A924" s="16"/>
       <c r="B924" s="17"/>
       <c r="C924" s="17"/>
@@ -15128,7 +15132,7 @@
       <c r="K924" s="19"/>
       <c r="L924" s="20"/>
     </row>
-    <row r="925" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="925" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A925" s="16"/>
       <c r="B925" s="17"/>
       <c r="C925" s="17"/>
@@ -15139,7 +15143,7 @@
       <c r="K925" s="19"/>
       <c r="L925" s="20"/>
     </row>
-    <row r="926" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="926" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A926" s="16"/>
       <c r="B926" s="17"/>
       <c r="C926" s="17"/>
@@ -15150,7 +15154,7 @@
       <c r="K926" s="19"/>
       <c r="L926" s="20"/>
     </row>
-    <row r="927" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="927" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A927" s="16"/>
       <c r="B927" s="17"/>
       <c r="C927" s="17"/>
@@ -15161,7 +15165,7 @@
       <c r="K927" s="19"/>
       <c r="L927" s="20"/>
     </row>
-    <row r="928" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="928" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A928" s="16"/>
       <c r="B928" s="17"/>
       <c r="C928" s="17"/>
@@ -15172,7 +15176,7 @@
       <c r="K928" s="19"/>
       <c r="L928" s="20"/>
     </row>
-    <row r="929" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="929" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A929" s="16"/>
       <c r="B929" s="17"/>
       <c r="C929" s="17"/>
@@ -15183,7 +15187,7 @@
       <c r="K929" s="19"/>
       <c r="L929" s="20"/>
     </row>
-    <row r="930" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="930" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A930" s="16"/>
       <c r="B930" s="17"/>
       <c r="C930" s="17"/>
@@ -15194,7 +15198,7 @@
       <c r="K930" s="19"/>
       <c r="L930" s="20"/>
     </row>
-    <row r="931" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="931" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A931" s="16"/>
       <c r="B931" s="17"/>
       <c r="C931" s="17"/>
@@ -15205,7 +15209,7 @@
       <c r="K931" s="19"/>
       <c r="L931" s="20"/>
     </row>
-    <row r="932" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="932" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A932" s="16"/>
       <c r="B932" s="17"/>
       <c r="C932" s="17"/>
@@ -15216,7 +15220,7 @@
       <c r="K932" s="19"/>
       <c r="L932" s="20"/>
     </row>
-    <row r="933" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="933" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A933" s="16"/>
       <c r="B933" s="17"/>
       <c r="C933" s="17"/>
@@ -15227,7 +15231,7 @@
       <c r="K933" s="19"/>
       <c r="L933" s="20"/>
     </row>
-    <row r="934" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="934" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A934" s="16"/>
       <c r="B934" s="17"/>
       <c r="C934" s="17"/>
@@ -15238,7 +15242,7 @@
       <c r="K934" s="19"/>
       <c r="L934" s="20"/>
     </row>
-    <row r="935" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="935" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A935" s="16"/>
       <c r="B935" s="17"/>
       <c r="C935" s="17"/>
@@ -15249,7 +15253,7 @@
       <c r="K935" s="19"/>
       <c r="L935" s="20"/>
     </row>
-    <row r="936" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="936" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A936" s="16"/>
       <c r="B936" s="17"/>
       <c r="C936" s="17"/>
@@ -15260,7 +15264,7 @@
       <c r="K936" s="19"/>
       <c r="L936" s="20"/>
     </row>
-    <row r="937" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="937" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A937" s="16"/>
       <c r="B937" s="17"/>
       <c r="C937" s="17"/>
@@ -15271,7 +15275,7 @@
       <c r="K937" s="19"/>
       <c r="L937" s="20"/>
     </row>
-    <row r="938" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="938" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A938" s="16"/>
       <c r="B938" s="17"/>
       <c r="C938" s="17"/>
@@ -15282,7 +15286,7 @@
       <c r="K938" s="19"/>
       <c r="L938" s="20"/>
     </row>
-    <row r="939" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="939" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A939" s="16"/>
       <c r="B939" s="17"/>
       <c r="C939" s="17"/>
@@ -15293,7 +15297,7 @@
       <c r="K939" s="19"/>
       <c r="L939" s="20"/>
     </row>
-    <row r="940" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="940" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A940" s="16"/>
       <c r="B940" s="17"/>
       <c r="C940" s="17"/>
@@ -15304,7 +15308,7 @@
       <c r="K940" s="19"/>
       <c r="L940" s="20"/>
     </row>
-    <row r="941" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="941" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A941" s="16"/>
       <c r="B941" s="17"/>
       <c r="C941" s="17"/>
@@ -15315,7 +15319,7 @@
       <c r="K941" s="19"/>
       <c r="L941" s="20"/>
     </row>
-    <row r="942" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="942" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A942" s="16"/>
       <c r="B942" s="17"/>
       <c r="C942" s="17"/>
@@ -15326,7 +15330,7 @@
       <c r="K942" s="19"/>
       <c r="L942" s="20"/>
     </row>
-    <row r="943" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="943" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A943" s="16"/>
       <c r="B943" s="17"/>
       <c r="C943" s="17"/>
@@ -15337,7 +15341,7 @@
       <c r="K943" s="19"/>
       <c r="L943" s="20"/>
     </row>
-    <row r="944" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="944" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A944" s="16"/>
       <c r="B944" s="17"/>
       <c r="C944" s="17"/>
@@ -15348,7 +15352,7 @@
       <c r="K944" s="19"/>
       <c r="L944" s="20"/>
     </row>
-    <row r="945" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="945" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A945" s="16"/>
       <c r="B945" s="17"/>
       <c r="C945" s="17"/>
@@ -15359,7 +15363,7 @@
       <c r="K945" s="19"/>
       <c r="L945" s="20"/>
     </row>
-    <row r="946" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="946" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A946" s="16"/>
       <c r="B946" s="17"/>
       <c r="C946" s="17"/>
@@ -15370,7 +15374,7 @@
       <c r="K946" s="19"/>
       <c r="L946" s="20"/>
     </row>
-    <row r="947" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="947" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A947" s="16"/>
       <c r="B947" s="17"/>
       <c r="C947" s="17"/>
@@ -15381,7 +15385,7 @@
       <c r="K947" s="19"/>
       <c r="L947" s="20"/>
     </row>
-    <row r="948" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="948" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A948" s="16"/>
       <c r="B948" s="17"/>
       <c r="C948" s="17"/>
@@ -15392,7 +15396,7 @@
       <c r="K948" s="19"/>
       <c r="L948" s="20"/>
     </row>
-    <row r="949" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="949" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A949" s="16"/>
       <c r="B949" s="17"/>
       <c r="C949" s="17"/>
@@ -15403,7 +15407,7 @@
       <c r="K949" s="19"/>
       <c r="L949" s="20"/>
     </row>
-    <row r="950" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="950" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A950" s="16"/>
       <c r="B950" s="17"/>
       <c r="C950" s="17"/>
@@ -15414,7 +15418,7 @@
       <c r="K950" s="19"/>
       <c r="L950" s="20"/>
     </row>
-    <row r="951" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="951" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A951" s="16"/>
       <c r="B951" s="17"/>
       <c r="C951" s="17"/>
@@ -15425,7 +15429,7 @@
       <c r="K951" s="19"/>
       <c r="L951" s="20"/>
     </row>
-    <row r="952" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="952" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A952" s="16"/>
       <c r="B952" s="17"/>
       <c r="C952" s="17"/>
@@ -15436,7 +15440,7 @@
       <c r="K952" s="19"/>
       <c r="L952" s="20"/>
     </row>
-    <row r="953" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="953" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A953" s="16"/>
       <c r="B953" s="17"/>
       <c r="C953" s="17"/>
@@ -15447,7 +15451,7 @@
       <c r="K953" s="19"/>
       <c r="L953" s="20"/>
     </row>
-    <row r="954" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="954" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A954" s="16"/>
       <c r="B954" s="17"/>
       <c r="C954" s="17"/>
@@ -15458,7 +15462,7 @@
       <c r="K954" s="19"/>
       <c r="L954" s="20"/>
     </row>
-    <row r="955" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="955" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A955" s="16"/>
       <c r="B955" s="17"/>
       <c r="C955" s="17"/>
@@ -15469,7 +15473,7 @@
       <c r="K955" s="19"/>
       <c r="L955" s="20"/>
     </row>
-    <row r="956" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="956" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A956" s="16"/>
       <c r="B956" s="17"/>
       <c r="C956" s="17"/>
@@ -15480,7 +15484,7 @@
       <c r="K956" s="19"/>
       <c r="L956" s="20"/>
     </row>
-    <row r="957" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="957" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A957" s="16"/>
       <c r="B957" s="17"/>
       <c r="C957" s="17"/>
@@ -15491,7 +15495,7 @@
       <c r="K957" s="19"/>
       <c r="L957" s="20"/>
     </row>
-    <row r="958" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="958" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A958" s="16"/>
       <c r="B958" s="17"/>
       <c r="C958" s="17"/>
@@ -15502,7 +15506,7 @@
       <c r="K958" s="19"/>
       <c r="L958" s="20"/>
     </row>
-    <row r="959" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="959" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A959" s="16"/>
       <c r="B959" s="17"/>
       <c r="C959" s="17"/>
@@ -15513,7 +15517,7 @@
       <c r="K959" s="19"/>
       <c r="L959" s="20"/>
     </row>
-    <row r="960" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="960" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A960" s="16"/>
       <c r="B960" s="17"/>
       <c r="C960" s="17"/>
@@ -15524,7 +15528,7 @@
       <c r="K960" s="19"/>
       <c r="L960" s="20"/>
     </row>
-    <row r="961" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="961" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A961" s="16"/>
       <c r="B961" s="17"/>
       <c r="C961" s="17"/>
@@ -15535,7 +15539,7 @@
       <c r="K961" s="19"/>
       <c r="L961" s="20"/>
     </row>
-    <row r="962" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="962" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A962" s="16"/>
       <c r="B962" s="17"/>
       <c r="C962" s="17"/>
@@ -15546,7 +15550,7 @@
       <c r="K962" s="19"/>
       <c r="L962" s="20"/>
     </row>
-    <row r="963" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="963" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A963" s="16"/>
       <c r="B963" s="17"/>
       <c r="C963" s="17"/>
@@ -15557,7 +15561,7 @@
       <c r="K963" s="19"/>
       <c r="L963" s="20"/>
     </row>
-    <row r="964" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="964" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A964" s="16"/>
       <c r="B964" s="17"/>
       <c r="C964" s="17"/>
@@ -15568,7 +15572,7 @@
       <c r="K964" s="19"/>
       <c r="L964" s="20"/>
     </row>
-    <row r="965" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="965" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A965" s="16"/>
       <c r="B965" s="17"/>
       <c r="C965" s="17"/>
@@ -15579,7 +15583,7 @@
       <c r="K965" s="19"/>
       <c r="L965" s="20"/>
     </row>
-    <row r="966" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="966" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A966" s="16"/>
       <c r="B966" s="17"/>
       <c r="C966" s="17"/>
@@ -15590,7 +15594,7 @@
       <c r="K966" s="19"/>
       <c r="L966" s="20"/>
     </row>
-    <row r="967" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="967" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A967" s="16"/>
       <c r="B967" s="17"/>
       <c r="C967" s="17"/>
@@ -15601,7 +15605,7 @@
       <c r="K967" s="19"/>
       <c r="L967" s="20"/>
     </row>
-    <row r="968" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="968" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A968" s="16"/>
       <c r="B968" s="17"/>
       <c r="C968" s="17"/>
@@ -15612,7 +15616,7 @@
       <c r="K968" s="19"/>
       <c r="L968" s="20"/>
     </row>
-    <row r="969" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="969" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A969" s="16"/>
       <c r="B969" s="17"/>
       <c r="C969" s="17"/>
@@ -15623,7 +15627,7 @@
       <c r="K969" s="19"/>
       <c r="L969" s="20"/>
     </row>
-    <row r="970" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="970" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A970" s="16"/>
       <c r="B970" s="17"/>
       <c r="C970" s="17"/>
@@ -15635,99 +15639,99 @@
       <c r="L970" s="20"/>
     </row>
   </sheetData>
-  <autoFilter ref="A4:L106"/>
+  <autoFilter ref="A4:L106" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="3">
     <mergeCell ref="N6:N7"/>
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="A2:F2"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="L5" r:id="rId1"/>
-    <hyperlink ref="L6" r:id="rId2"/>
-    <hyperlink ref="L7" r:id="rId3"/>
-    <hyperlink ref="L8" r:id="rId4"/>
-    <hyperlink ref="L9" r:id="rId5"/>
-    <hyperlink ref="L10" r:id="rId6"/>
-    <hyperlink ref="L11" r:id="rId7"/>
-    <hyperlink ref="L12" r:id="rId8"/>
-    <hyperlink ref="L13" r:id="rId9"/>
-    <hyperlink ref="L14" r:id="rId10" location="Ask"/>
-    <hyperlink ref="L15" r:id="rId11"/>
-    <hyperlink ref="L16" r:id="rId12"/>
-    <hyperlink ref="L21" r:id="rId13"/>
-    <hyperlink ref="L22" r:id="rId14"/>
-    <hyperlink ref="L26" r:id="rId15" location="90631A007"/>
-    <hyperlink ref="L37" r:id="rId16" location="368=229"/>
-    <hyperlink ref="L38" r:id="rId17" location="48925k93/=18nja2z"/>
-    <hyperlink ref="L44" r:id="rId18" location="95947A007"/>
-    <hyperlink ref="L46" r:id="rId19" location="92141A005"/>
-    <hyperlink ref="L48" r:id="rId20"/>
-    <hyperlink ref="L49" r:id="rId21"/>
-    <hyperlink ref="L51" r:id="rId22"/>
-    <hyperlink ref="L52" r:id="rId23"/>
-    <hyperlink ref="L53" r:id="rId24"/>
-    <hyperlink ref="L54" r:id="rId25"/>
-    <hyperlink ref="L55" r:id="rId26" location="348=95"/>
-    <hyperlink ref="L56" r:id="rId27" location="348=107"/>
-    <hyperlink ref="L57" r:id="rId28" location="348=96"/>
-    <hyperlink ref="L58" r:id="rId29" location="371=276"/>
-    <hyperlink ref="L59" r:id="rId30"/>
-    <hyperlink ref="L60" r:id="rId31" location="371=455"/>
-    <hyperlink ref="L61" r:id="rId32" location="371=246"/>
-    <hyperlink ref="L62" r:id="rId33"/>
-    <hyperlink ref="L63" r:id="rId34"/>
-    <hyperlink ref="L64" r:id="rId35"/>
-    <hyperlink ref="L65" r:id="rId36" location="348=123"/>
-    <hyperlink ref="L66" r:id="rId37"/>
-    <hyperlink ref="L67" r:id="rId38"/>
-    <hyperlink ref="L68" r:id="rId39" location="199=15"/>
-    <hyperlink ref="L69" r:id="rId40"/>
-    <hyperlink ref="L70" r:id="rId41"/>
-    <hyperlink ref="L71" r:id="rId42"/>
-    <hyperlink ref="L72" r:id="rId43"/>
-    <hyperlink ref="L74" r:id="rId44"/>
-    <hyperlink ref="L75" r:id="rId45"/>
-    <hyperlink ref="L76" r:id="rId46"/>
-    <hyperlink ref="L77" r:id="rId47"/>
-    <hyperlink ref="L78" r:id="rId48"/>
-    <hyperlink ref="L79" r:id="rId49" location="371=256"/>
-    <hyperlink ref="L80" r:id="rId50"/>
-    <hyperlink ref="L81" r:id="rId51"/>
-    <hyperlink ref="L82" r:id="rId52"/>
-    <hyperlink ref="L88" r:id="rId53"/>
-    <hyperlink ref="L89" r:id="rId54"/>
-    <hyperlink ref="L92" r:id="rId55"/>
-    <hyperlink ref="L93" r:id="rId56"/>
-    <hyperlink ref="L94" r:id="rId57"/>
-    <hyperlink ref="L95" r:id="rId58"/>
-    <hyperlink ref="L96" r:id="rId59"/>
-    <hyperlink ref="L98" r:id="rId60"/>
-    <hyperlink ref="L100" r:id="rId61"/>
-    <hyperlink ref="L101" r:id="rId62"/>
-    <hyperlink ref="L102" r:id="rId63"/>
-    <hyperlink ref="L73" r:id="rId64"/>
-    <hyperlink ref="L24" r:id="rId65" location="92949a144/=18njs1n"/>
-    <hyperlink ref="L30" r:id="rId66" location="92949A150"/>
-    <hyperlink ref="L34" r:id="rId67" location="92949a106/=18njrx6"/>
-    <hyperlink ref="L104" r:id="rId68" location="93330A252"/>
-    <hyperlink ref="L27" r:id="rId69" location="90631A005"/>
-    <hyperlink ref="L28" r:id="rId70" location="92949A146"/>
-    <hyperlink ref="L29" r:id="rId71" location="92949A148"/>
-    <hyperlink ref="L31" r:id="rId72" location="92949A151"/>
-    <hyperlink ref="L32" r:id="rId73" location="92949A153"/>
-    <hyperlink ref="L33" r:id="rId74" location="92949A160"/>
-    <hyperlink ref="L39" r:id="rId75" location="92510A442"/>
-    <hyperlink ref="L41" r:id="rId76" location="91780A162"/>
-    <hyperlink ref="L42" r:id="rId77" location="91780A164"/>
-    <hyperlink ref="L43" r:id="rId78" location="91780A166"/>
-    <hyperlink ref="L47" r:id="rId79" location="91545A280"/>
-    <hyperlink ref="L45" r:id="rId80" location="92141A008"/>
-    <hyperlink ref="L105" r:id="rId81"/>
-    <hyperlink ref="L106" r:id="rId82"/>
-    <hyperlink ref="L91" r:id="rId83"/>
-    <hyperlink ref="L17" r:id="rId84"/>
-    <hyperlink ref="L18" r:id="rId85"/>
-    <hyperlink ref="L50" r:id="rId86"/>
+    <hyperlink ref="L5" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="L6" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="L7" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="L8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
+    <hyperlink ref="L9" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="L10" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="L11" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
+    <hyperlink ref="L12" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
+    <hyperlink ref="L13" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="L14" r:id="rId10" location="Ask" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
+    <hyperlink ref="L15" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="L16" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="L21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="L22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="L26" r:id="rId15" location="90631A007" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
+    <hyperlink ref="L37" r:id="rId16" location="368=229" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L38" r:id="rId17" location="48925k93/=18nja2z" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
+    <hyperlink ref="L44" r:id="rId18" location="95947A007" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
+    <hyperlink ref="L46" r:id="rId19" location="92141A005" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
+    <hyperlink ref="L48" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
+    <hyperlink ref="L49" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="L51" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="L52" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
+    <hyperlink ref="L53" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="L54" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="L55" r:id="rId26" location="348=95" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="L56" r:id="rId27" location="348=107" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="L57" r:id="rId28" location="348=96" xr:uid="{00000000-0004-0000-0000-00001B000000}"/>
+    <hyperlink ref="L58" r:id="rId29" location="371=276" xr:uid="{00000000-0004-0000-0000-00001C000000}"/>
+    <hyperlink ref="L59" r:id="rId30" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="L60" r:id="rId31" location="371=455" xr:uid="{00000000-0004-0000-0000-00001E000000}"/>
+    <hyperlink ref="L61" r:id="rId32" location="371=246" xr:uid="{00000000-0004-0000-0000-00001F000000}"/>
+    <hyperlink ref="L62" r:id="rId33" xr:uid="{00000000-0004-0000-0000-000020000000}"/>
+    <hyperlink ref="L63" r:id="rId34" xr:uid="{00000000-0004-0000-0000-000021000000}"/>
+    <hyperlink ref="L64" r:id="rId35" xr:uid="{00000000-0004-0000-0000-000022000000}"/>
+    <hyperlink ref="L65" r:id="rId36" location="348=123" xr:uid="{00000000-0004-0000-0000-000023000000}"/>
+    <hyperlink ref="L66" r:id="rId37" xr:uid="{00000000-0004-0000-0000-000024000000}"/>
+    <hyperlink ref="L67" r:id="rId38" xr:uid="{00000000-0004-0000-0000-000025000000}"/>
+    <hyperlink ref="L68" r:id="rId39" location="199=15" xr:uid="{00000000-0004-0000-0000-000026000000}"/>
+    <hyperlink ref="L69" r:id="rId40" xr:uid="{00000000-0004-0000-0000-000027000000}"/>
+    <hyperlink ref="L70" r:id="rId41" xr:uid="{00000000-0004-0000-0000-000028000000}"/>
+    <hyperlink ref="L71" r:id="rId42" xr:uid="{00000000-0004-0000-0000-000029000000}"/>
+    <hyperlink ref="L72" r:id="rId43" xr:uid="{00000000-0004-0000-0000-00002A000000}"/>
+    <hyperlink ref="L74" r:id="rId44" xr:uid="{00000000-0004-0000-0000-00002B000000}"/>
+    <hyperlink ref="L75" r:id="rId45" xr:uid="{00000000-0004-0000-0000-00002C000000}"/>
+    <hyperlink ref="L76" r:id="rId46" xr:uid="{00000000-0004-0000-0000-00002D000000}"/>
+    <hyperlink ref="L77" r:id="rId47" xr:uid="{00000000-0004-0000-0000-00002E000000}"/>
+    <hyperlink ref="L78" r:id="rId48" xr:uid="{00000000-0004-0000-0000-00002F000000}"/>
+    <hyperlink ref="L79" r:id="rId49" location="371=256" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
+    <hyperlink ref="L80" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
+    <hyperlink ref="L81" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
+    <hyperlink ref="L82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
+    <hyperlink ref="L88" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L89" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L92" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="L93" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L94" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="L95" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="L96" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L98" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="L100" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="L101" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="L102" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="L24" r:id="rId64" location="92949a144/=18njs1n" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="L30" r:id="rId65" location="92949A150" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="L34" r:id="rId66" location="92949a106/=18njrx6" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="L104" r:id="rId67" location="93330A252" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="L27" r:id="rId68" location="90631A005" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="L28" r:id="rId69" location="92949A146" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="L29" r:id="rId70" location="92949A148" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="L31" r:id="rId71" location="92949A151" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="L32" r:id="rId72" location="92949A153" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="L33" r:id="rId73" location="92949A160" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="L39" r:id="rId74" location="92510A442" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="L41" r:id="rId75" location="91780A162" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="L42" r:id="rId76" location="91780A164" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="L43" r:id="rId77" location="91780A166" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="L47" r:id="rId78" location="91545A280" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="L45" r:id="rId79" location="92141A008" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="L105" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="L106" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="L91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="L17" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="L18" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="L50" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="L73" r:id="rId86" xr:uid="{D3FCBB08-62FA-0F45-BB8F-6C2F001FE1AF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId87"/>

--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/eddy/Documents/Development/Personal/open-source-rover/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{8DC9723C-173E-D945-AF45-E5216D3C2181}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{EF0CBBAA-F93B-5E4D-A359-A4DD09EA7AB9}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="33600" windowHeight="21000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1130,7 +1130,7 @@
   <numFmts count="1">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1206,14 +1206,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF333333"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1375,9 +1367,9 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="15" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="127">
+  <cellXfs count="125">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1578,9 +1570,6 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -1623,10 +1612,10 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1655,7 +1644,7 @@
     <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -1683,28 +1672,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="44" fontId="6" fillId="0" borderId="2" xfId="2" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="44" fontId="15" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="14" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1716,11 +1704,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2029,7 +2015,7 @@
     <col min="15" max="27" width="20.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="106" customFormat="1" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:27" s="105" customFormat="1" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="120" t="s">
         <v>355</v>
       </c>
@@ -2045,7 +2031,7 @@
       <c r="K1" s="123"/>
       <c r="L1" s="121"/>
     </row>
-    <row r="2" spans="1:27" s="108" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:27" s="107" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="124" t="s">
         <v>356</v>
       </c>
@@ -2054,31 +2040,31 @@
       <c r="D2" s="124"/>
       <c r="E2" s="124"/>
       <c r="F2" s="124"/>
-      <c r="G2" s="111"/>
-      <c r="H2" s="111"/>
-      <c r="I2" s="111"/>
-      <c r="J2" s="116" t="s">
+      <c r="G2" s="110"/>
+      <c r="H2" s="110"/>
+      <c r="I2" s="110"/>
+      <c r="J2" s="114" t="s">
         <v>362</v>
       </c>
-      <c r="K2" s="117">
+      <c r="K2" s="115">
         <f>SUM(K5:K150)</f>
-        <v>2297.8784000000001</v>
-      </c>
-      <c r="L2" s="111"/>
-    </row>
-    <row r="3" spans="1:27" s="108" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="112" t="s">
+        <v>2466.1200000000003</v>
+      </c>
+      <c r="L2" s="110"/>
+    </row>
+    <row r="3" spans="1:27" s="107" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="111" t="s">
         <v>357</v>
       </c>
-      <c r="B3" s="112"/>
-      <c r="C3" s="112"/>
-      <c r="D3" s="112"/>
-      <c r="E3" s="112"/>
-      <c r="F3" s="112"/>
-      <c r="G3" s="109"/>
-      <c r="H3" s="109"/>
-      <c r="I3" s="110"/>
-      <c r="J3" s="109"/>
+      <c r="B3" s="111"/>
+      <c r="C3" s="111"/>
+      <c r="D3" s="111"/>
+      <c r="E3" s="111"/>
+      <c r="F3" s="111"/>
+      <c r="G3" s="108"/>
+      <c r="H3" s="108"/>
+      <c r="I3" s="109"/>
+      <c r="J3" s="108"/>
     </row>
     <row r="4" spans="1:27" ht="45" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -2163,7 +2149,7 @@
         <v>1.5</v>
       </c>
       <c r="K5" s="56">
-        <f t="shared" ref="K5:K13" si="0">B5/D5*J5</f>
+        <f>B5*J5</f>
         <v>3</v>
       </c>
       <c r="L5" s="57" t="s">
@@ -2206,8 +2192,8 @@
       <c r="J6" s="22">
         <v>34.99</v>
       </c>
-      <c r="K6" s="22">
-        <f t="shared" si="0"/>
+      <c r="K6" s="56">
+        <f t="shared" ref="K6:K69" si="0">B6*J6</f>
         <v>34.99</v>
       </c>
       <c r="L6" s="27" t="s">
@@ -2247,7 +2233,7 @@
       <c r="J7" s="64">
         <v>25</v>
       </c>
-      <c r="K7" s="64">
+      <c r="K7" s="56">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -2256,9 +2242,9 @@
       </c>
       <c r="M7" s="11"/>
       <c r="N7" s="119"/>
-      <c r="Y7" s="126"/>
-      <c r="Z7" s="126"/>
-      <c r="AA7" s="126"/>
+      <c r="Y7" s="117"/>
+      <c r="Z7" s="117"/>
+      <c r="AA7" s="117"/>
     </row>
     <row r="8" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="20" t="s">
@@ -2289,7 +2275,7 @@
       <c r="J8" s="22">
         <v>13.24</v>
       </c>
-      <c r="K8" s="22">
+      <c r="K8" s="56">
         <f t="shared" si="0"/>
         <v>13.24</v>
       </c>
@@ -2297,9 +2283,9 @@
         <v>43</v>
       </c>
       <c r="M8" s="9"/>
-      <c r="Y8" s="126"/>
-      <c r="Z8" s="126"/>
-      <c r="AA8" s="126"/>
+      <c r="Y8" s="117"/>
+      <c r="Z8" s="117"/>
+      <c r="AA8" s="117"/>
     </row>
     <row r="9" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="20" t="s">
@@ -2330,7 +2316,7 @@
       <c r="J9" s="22">
         <v>9.98</v>
       </c>
-      <c r="K9" s="22">
+      <c r="K9" s="56">
         <f t="shared" si="0"/>
         <v>9.98</v>
       </c>
@@ -2338,9 +2324,9 @@
         <v>48</v>
       </c>
       <c r="M9" s="9"/>
-      <c r="Y9" s="126"/>
-      <c r="Z9" s="126"/>
-      <c r="AA9" s="126"/>
+      <c r="Y9" s="117"/>
+      <c r="Z9" s="117"/>
+      <c r="AA9" s="117"/>
     </row>
     <row r="10" spans="1:27" s="36" customFormat="1" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="60" t="s">
@@ -2371,7 +2357,7 @@
       <c r="J10" s="64">
         <v>6.79</v>
       </c>
-      <c r="K10" s="64">
+      <c r="K10" s="56">
         <f t="shared" si="0"/>
         <v>6.79</v>
       </c>
@@ -2379,9 +2365,9 @@
         <v>51</v>
       </c>
       <c r="M10" s="35"/>
-      <c r="Y10" s="126"/>
-      <c r="Z10" s="126"/>
-      <c r="AA10" s="126"/>
+      <c r="Y10" s="117"/>
+      <c r="Z10" s="117"/>
+      <c r="AA10" s="117"/>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A11" s="28" t="s">
@@ -2412,7 +2398,7 @@
       <c r="J11" s="22">
         <v>5.57</v>
       </c>
-      <c r="K11" s="22">
+      <c r="K11" s="56">
         <f t="shared" si="0"/>
         <v>5.57</v>
       </c>
@@ -2420,9 +2406,9 @@
         <v>54</v>
       </c>
       <c r="M11" s="9"/>
-      <c r="Y11" s="126"/>
-      <c r="Z11" s="126"/>
-      <c r="AA11" s="126"/>
+      <c r="Y11" s="117"/>
+      <c r="Z11" s="117"/>
+      <c r="AA11" s="117"/>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A12" s="20" t="s">
@@ -2455,17 +2441,17 @@
       <c r="J12" s="22">
         <v>9.25</v>
       </c>
-      <c r="K12" s="22">
+      <c r="K12" s="56">
         <f t="shared" si="0"/>
-        <v>9.25</v>
+        <v>18.5</v>
       </c>
       <c r="L12" s="27" t="s">
         <v>59</v>
       </c>
       <c r="M12" s="12"/>
-      <c r="Y12" s="126"/>
-      <c r="Z12" s="126"/>
-      <c r="AA12" s="126"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="117"/>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A13" s="20" t="s">
@@ -2496,7 +2482,7 @@
       <c r="J13" s="22">
         <v>6.49</v>
       </c>
-      <c r="K13" s="22">
+      <c r="K13" s="56">
         <f t="shared" si="0"/>
         <v>6.49</v>
       </c>
@@ -2504,9 +2490,9 @@
         <v>63</v>
       </c>
       <c r="M13" s="9"/>
-      <c r="Y13" s="126"/>
-      <c r="Z13" s="126"/>
-      <c r="AA13" s="126"/>
+      <c r="Y13" s="117"/>
+      <c r="Z13" s="117"/>
+      <c r="AA13" s="117"/>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.2">
       <c r="A14" s="20" t="s">
@@ -2537,8 +2523,8 @@
       <c r="J14" s="22">
         <v>5.42</v>
       </c>
-      <c r="K14" s="22">
-        <f>J14</f>
+      <c r="K14" s="56">
+        <f t="shared" si="0"/>
         <v>5.42</v>
       </c>
       <c r="L14" s="27" t="s">
@@ -2546,7 +2532,7 @@
       </c>
       <c r="M14" s="9"/>
     </row>
-    <row r="15" spans="1:27" ht="30" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:27" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="20" t="s">
         <v>67</v>
       </c>
@@ -2575,8 +2561,8 @@
       <c r="J15" s="22">
         <v>86.95</v>
       </c>
-      <c r="K15" s="22">
-        <f t="shared" ref="K15:K59" si="1">B15/D15*J15</f>
+      <c r="K15" s="56">
+        <f t="shared" si="0"/>
         <v>86.95</v>
       </c>
       <c r="L15" s="27" t="s">
@@ -2613,8 +2599,8 @@
       <c r="J16" s="22">
         <v>41.95</v>
       </c>
-      <c r="K16" s="22">
-        <f t="shared" si="1"/>
+      <c r="K16" s="56">
+        <f t="shared" si="0"/>
         <v>41.95</v>
       </c>
       <c r="L16" s="27" t="s">
@@ -2641,7 +2627,7 @@
       <c r="F17" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="G17" s="113" t="s">
+      <c r="G17" s="112" t="s">
         <v>358</v>
       </c>
       <c r="H17" s="37" t="s">
@@ -2651,11 +2637,11 @@
       <c r="J17" s="22">
         <v>0.04</v>
       </c>
-      <c r="K17" s="22">
-        <f t="shared" si="1"/>
+      <c r="K17" s="56">
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="L17" s="114" t="s">
+      <c r="L17" s="113" t="s">
         <v>359</v>
       </c>
       <c r="M17" s="9"/>
@@ -2679,7 +2665,7 @@
       <c r="F18" s="37" t="s">
         <v>53</v>
       </c>
-      <c r="G18" s="113" t="s">
+      <c r="G18" s="112" t="s">
         <v>361</v>
       </c>
       <c r="H18" s="37" t="s">
@@ -2689,11 +2675,11 @@
       <c r="J18" s="22">
         <v>0.04</v>
       </c>
-      <c r="K18" s="22">
-        <f t="shared" si="1"/>
+      <c r="K18" s="56">
+        <f t="shared" si="0"/>
         <v>0.4</v>
       </c>
-      <c r="L18" s="107" t="s">
+      <c r="L18" s="106" t="s">
         <v>360</v>
       </c>
       <c r="M18" s="9"/>
@@ -2727,8 +2713,8 @@
       <c r="J19" s="22">
         <v>24.95</v>
       </c>
-      <c r="K19" s="22">
-        <f t="shared" si="1"/>
+      <c r="K19" s="56">
+        <f t="shared" si="0"/>
         <v>24.95</v>
       </c>
       <c r="L19" s="27" t="s">
@@ -2765,8 +2751,8 @@
       <c r="J20" s="22">
         <v>4.49</v>
       </c>
-      <c r="K20" s="22">
-        <f t="shared" si="1"/>
+      <c r="K20" s="56">
+        <f t="shared" si="0"/>
         <v>4.49</v>
       </c>
       <c r="L20" s="29" t="s">
@@ -2805,9 +2791,9 @@
       <c r="J21" s="22">
         <v>25.27</v>
       </c>
-      <c r="K21" s="22">
-        <f t="shared" si="1"/>
-        <v>37.905000000000001</v>
+      <c r="K21" s="56">
+        <f t="shared" si="0"/>
+        <v>75.81</v>
       </c>
       <c r="L21" s="27" t="s">
         <v>83</v>
@@ -2845,8 +2831,8 @@
       <c r="J22" s="22">
         <v>12.9</v>
       </c>
-      <c r="K22" s="22">
-        <f t="shared" si="1"/>
+      <c r="K22" s="56">
+        <f t="shared" si="0"/>
         <v>51.6</v>
       </c>
       <c r="L22" s="27" t="s">
@@ -2886,8 +2872,8 @@
         <f>38.9+36.9</f>
         <v>75.8</v>
       </c>
-      <c r="K23" s="22">
-        <f t="shared" si="1"/>
+      <c r="K23" s="56">
+        <f t="shared" si="0"/>
         <v>75.8</v>
       </c>
       <c r="L23" s="27" t="s">
@@ -2927,9 +2913,9 @@
       <c r="J24" s="22">
         <v>3.45</v>
       </c>
-      <c r="K24" s="22">
-        <f t="shared" si="1"/>
-        <v>6.9000000000000006E-2</v>
+      <c r="K24" s="56">
+        <f t="shared" si="0"/>
+        <v>6.9</v>
       </c>
       <c r="L24" s="23" t="s">
         <v>94</v>
@@ -2967,9 +2953,9 @@
       <c r="J25" s="22">
         <v>5.61</v>
       </c>
-      <c r="K25" s="22">
-        <f t="shared" si="1"/>
-        <v>0.22440000000000002</v>
+      <c r="K25" s="56">
+        <f t="shared" si="0"/>
+        <v>5.61</v>
       </c>
       <c r="L25" s="25" t="str">
         <f>HYPERLINK("https://www.mcmaster.com/#91292A015","https://www.mcmaster.com/#91292A015")</f>
@@ -3011,9 +2997,9 @@
       <c r="J26" s="22">
         <v>2.72</v>
       </c>
-      <c r="K26" s="22">
-        <f t="shared" si="1"/>
-        <v>2.7200000000000002E-2</v>
+      <c r="K26" s="56">
+        <f t="shared" si="0"/>
+        <v>2.72</v>
       </c>
       <c r="L26" s="26" t="s">
         <v>101</v>
@@ -3054,9 +3040,9 @@
       <c r="J27" s="22">
         <v>2.79</v>
       </c>
-      <c r="K27" s="22">
-        <f t="shared" si="1"/>
-        <v>2.7900000000000001E-2</v>
+      <c r="K27" s="56">
+        <f t="shared" si="0"/>
+        <v>2.79</v>
       </c>
       <c r="L27" s="25" t="s">
         <v>105</v>
@@ -3098,9 +3084,9 @@
       <c r="J28" s="22">
         <v>3.72</v>
       </c>
-      <c r="K28" s="22">
-        <f t="shared" si="1"/>
-        <v>3.7200000000000004E-2</v>
+      <c r="K28" s="56">
+        <f t="shared" si="0"/>
+        <v>3.72</v>
       </c>
       <c r="L28" s="26" t="s">
         <v>324</v>
@@ -3141,9 +3127,9 @@
       <c r="J29" s="22">
         <v>3.72</v>
       </c>
-      <c r="K29" s="22">
-        <f t="shared" si="1"/>
-        <v>3.7200000000000004E-2</v>
+      <c r="K29" s="56">
+        <f t="shared" si="0"/>
+        <v>3.72</v>
       </c>
       <c r="L29" s="26" t="s">
         <v>321</v>
@@ -3184,9 +3170,9 @@
       <c r="J30" s="22">
         <v>4.07</v>
       </c>
-      <c r="K30" s="22">
-        <f t="shared" si="1"/>
-        <v>4.0700000000000007E-2</v>
+      <c r="K30" s="56">
+        <f t="shared" si="0"/>
+        <v>4.07</v>
       </c>
       <c r="L30" s="25" t="s">
         <v>325</v>
@@ -3224,9 +3210,9 @@
       <c r="J31" s="22">
         <v>4.41</v>
       </c>
-      <c r="K31" s="22">
-        <f t="shared" si="1"/>
-        <v>4.41E-2</v>
+      <c r="K31" s="56">
+        <f t="shared" si="0"/>
+        <v>4.41</v>
       </c>
       <c r="L31" s="25" t="s">
         <v>320</v>
@@ -3264,9 +3250,9 @@
       <c r="J32" s="22">
         <v>5.42</v>
       </c>
-      <c r="K32" s="22">
-        <f t="shared" si="1"/>
-        <v>0.1084</v>
+      <c r="K32" s="56">
+        <f t="shared" si="0"/>
+        <v>5.42</v>
       </c>
       <c r="L32" s="25" t="s">
         <v>328</v>
@@ -3304,9 +3290,9 @@
       <c r="J33" s="22">
         <v>6.51</v>
       </c>
-      <c r="K33" s="22">
-        <f t="shared" si="1"/>
-        <v>0.13020000000000001</v>
+      <c r="K33" s="56">
+        <f t="shared" si="0"/>
+        <v>6.51</v>
       </c>
       <c r="L33" s="26" t="s">
         <v>330</v>
@@ -3344,9 +3330,9 @@
       <c r="J34" s="22">
         <v>2.87</v>
       </c>
-      <c r="K34" s="22">
-        <f t="shared" si="1"/>
-        <v>2.8700000000000003E-2</v>
+      <c r="K34" s="56">
+        <f t="shared" si="0"/>
+        <v>2.87</v>
       </c>
       <c r="L34" s="26" t="s">
         <v>122</v>
@@ -3384,9 +3370,9 @@
       <c r="J35" s="22">
         <v>7.7</v>
       </c>
-      <c r="K35" s="22">
-        <f t="shared" si="1"/>
-        <v>7.6999999999999999E-2</v>
+      <c r="K35" s="56">
+        <f t="shared" si="0"/>
+        <v>7.7</v>
       </c>
       <c r="L35" s="25" t="s">
         <v>336</v>
@@ -3424,11 +3410,11 @@
       <c r="J36" s="22">
         <v>23.16</v>
       </c>
-      <c r="K36" s="22">
-        <f t="shared" si="1"/>
+      <c r="K36" s="56">
+        <f t="shared" si="0"/>
         <v>23.16</v>
       </c>
-      <c r="L36" s="107" t="s">
+      <c r="L36" s="106" t="s">
         <v>354</v>
       </c>
       <c r="M36" s="9"/>
@@ -3464,8 +3450,8 @@
       <c r="J37" s="22">
         <v>2.2599999999999998</v>
       </c>
-      <c r="K37" s="22">
-        <f t="shared" si="1"/>
+      <c r="K37" s="56">
+        <f t="shared" si="0"/>
         <v>24.86</v>
       </c>
       <c r="L37" s="27" t="s">
@@ -3504,8 +3490,8 @@
       <c r="J38" s="22">
         <v>4.92</v>
       </c>
-      <c r="K38" s="22">
-        <f t="shared" si="1"/>
+      <c r="K38" s="56">
+        <f t="shared" si="0"/>
         <v>4.92</v>
       </c>
       <c r="L38" s="27" t="s">
@@ -3544,8 +3530,8 @@
       <c r="J39" s="22">
         <v>0.23</v>
       </c>
-      <c r="K39" s="22">
-        <f t="shared" si="1"/>
+      <c r="K39" s="56">
+        <f t="shared" si="0"/>
         <v>15.64</v>
       </c>
       <c r="L39" s="25" t="s">
@@ -3584,8 +3570,8 @@
       <c r="J40" s="22">
         <v>0.3</v>
       </c>
-      <c r="K40" s="22">
-        <f t="shared" si="1"/>
+      <c r="K40" s="56">
+        <f t="shared" si="0"/>
         <v>1.2</v>
       </c>
       <c r="L40" s="27" t="str">
@@ -3625,8 +3611,8 @@
       <c r="J41" s="22">
         <v>0.23</v>
       </c>
-      <c r="K41" s="22">
-        <f t="shared" si="1"/>
+      <c r="K41" s="56">
+        <f t="shared" si="0"/>
         <v>2.3000000000000003</v>
       </c>
       <c r="L41" s="25" t="s">
@@ -3665,8 +3651,8 @@
       <c r="J42" s="22">
         <v>0.27</v>
       </c>
-      <c r="K42" s="22">
-        <f t="shared" si="1"/>
+      <c r="K42" s="56">
+        <f t="shared" si="0"/>
         <v>4.0500000000000007</v>
       </c>
       <c r="L42" s="25" t="s">
@@ -3708,8 +3694,8 @@
       <c r="J43" s="22">
         <v>0.37</v>
       </c>
-      <c r="K43" s="22">
-        <f t="shared" si="1"/>
+      <c r="K43" s="56">
+        <f t="shared" si="0"/>
         <v>3.7</v>
       </c>
       <c r="L43" s="26" t="s">
@@ -3751,8 +3737,8 @@
       <c r="J44" s="22">
         <v>0.48</v>
       </c>
-      <c r="K44" s="22">
-        <f t="shared" si="1"/>
+      <c r="K44" s="56">
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="L44" s="27" t="s">
@@ -3794,9 +3780,9 @@
       <c r="J45" s="22">
         <v>1.17</v>
       </c>
-      <c r="K45" s="22">
-        <f t="shared" si="1"/>
-        <v>1.17E-2</v>
+      <c r="K45" s="56">
+        <f t="shared" si="0"/>
+        <v>1.17</v>
       </c>
       <c r="L45" s="26" t="s">
         <v>161</v>
@@ -3837,9 +3823,9 @@
       <c r="J46" s="22">
         <v>1.4</v>
       </c>
-      <c r="K46" s="22">
-        <f t="shared" si="1"/>
-        <v>1.3999999999999999E-2</v>
+      <c r="K46" s="56">
+        <f t="shared" si="0"/>
+        <v>1.4</v>
       </c>
       <c r="L46" s="29" t="s">
         <v>165</v>
@@ -3877,9 +3863,9 @@
       <c r="J47" s="22">
         <v>2.4700000000000002</v>
       </c>
-      <c r="K47" s="22">
-        <f t="shared" si="1"/>
-        <v>1.482</v>
+      <c r="K47" s="56">
+        <f t="shared" si="0"/>
+        <v>7.41</v>
       </c>
       <c r="L47" s="26" t="s">
         <v>169</v>
@@ -3915,8 +3901,8 @@
       <c r="J48" s="22">
         <v>69.95</v>
       </c>
-      <c r="K48" s="22">
-        <f t="shared" si="1"/>
+      <c r="K48" s="56">
+        <f t="shared" si="0"/>
         <v>349.75</v>
       </c>
       <c r="L48" s="27" t="s">
@@ -3953,8 +3939,8 @@
       <c r="J49" s="22">
         <v>14.95</v>
       </c>
-      <c r="K49" s="22">
-        <f t="shared" si="1"/>
+      <c r="K49" s="56">
+        <f t="shared" si="0"/>
         <v>14.95</v>
       </c>
       <c r="L49" s="27" t="s">
@@ -3991,11 +3977,11 @@
       <c r="J50" s="22">
         <v>34.950000000000003</v>
       </c>
-      <c r="K50" s="22">
-        <f t="shared" si="1"/>
+      <c r="K50" s="56">
+        <f t="shared" si="0"/>
         <v>209.70000000000002</v>
       </c>
-      <c r="L50" s="107" t="s">
+      <c r="L50" s="106" t="s">
         <v>364</v>
       </c>
       <c r="M50" s="9"/>
@@ -4029,8 +4015,8 @@
       <c r="J51" s="22">
         <v>19.95</v>
       </c>
-      <c r="K51" s="22">
-        <f t="shared" si="1"/>
+      <c r="K51" s="56">
+        <f t="shared" si="0"/>
         <v>79.8</v>
       </c>
       <c r="L51" s="27" t="s">
@@ -4069,8 +4055,8 @@
       <c r="J52" s="22">
         <v>2.99</v>
       </c>
-      <c r="K52" s="22">
-        <f t="shared" si="1"/>
+      <c r="K52" s="56">
+        <f t="shared" si="0"/>
         <v>17.940000000000001</v>
       </c>
       <c r="L52" s="27" t="s">
@@ -4109,8 +4095,8 @@
       <c r="J53" s="22">
         <v>5.99</v>
       </c>
-      <c r="K53" s="22">
-        <f t="shared" si="1"/>
+      <c r="K53" s="56">
+        <f t="shared" si="0"/>
         <v>47.92</v>
       </c>
       <c r="L53" s="27" t="s">
@@ -4149,8 +4135,8 @@
       <c r="J54" s="22">
         <v>6.99</v>
       </c>
-      <c r="K54" s="22">
-        <f t="shared" si="1"/>
+      <c r="K54" s="56">
+        <f t="shared" si="0"/>
         <v>41.94</v>
       </c>
       <c r="L54" s="27" t="s">
@@ -4189,8 +4175,8 @@
       <c r="J55" s="22">
         <v>5.99</v>
       </c>
-      <c r="K55" s="22">
-        <f t="shared" si="1"/>
+      <c r="K55" s="56">
+        <f t="shared" si="0"/>
         <v>23.96</v>
       </c>
       <c r="L55" s="27" t="s">
@@ -4229,8 +4215,8 @@
       <c r="J56" s="22">
         <v>5.99</v>
       </c>
-      <c r="K56" s="22">
-        <f t="shared" si="1"/>
+      <c r="K56" s="56">
+        <f t="shared" si="0"/>
         <v>17.97</v>
       </c>
       <c r="L56" s="27" t="s">
@@ -4269,8 +4255,8 @@
       <c r="J57" s="22">
         <v>5.99</v>
       </c>
-      <c r="K57" s="22">
-        <f t="shared" si="1"/>
+      <c r="K57" s="56">
+        <f t="shared" si="0"/>
         <v>35.94</v>
       </c>
       <c r="L57" s="27" t="s">
@@ -4309,8 +4295,8 @@
       <c r="J58" s="22">
         <v>1.49</v>
       </c>
-      <c r="K58" s="22">
-        <f t="shared" si="1"/>
+      <c r="K58" s="56">
+        <f t="shared" si="0"/>
         <v>5.96</v>
       </c>
       <c r="L58" s="27" t="s">
@@ -4349,9 +4335,9 @@
       <c r="J59" s="22">
         <v>5.99</v>
       </c>
-      <c r="K59" s="115">
-        <f t="shared" si="1"/>
-        <v>11.98</v>
+      <c r="K59" s="56">
+        <f t="shared" si="0"/>
+        <v>23.96</v>
       </c>
       <c r="L59" s="29" t="s">
         <v>201</v>
@@ -4389,8 +4375,8 @@
       <c r="J60" s="22">
         <v>2.09</v>
       </c>
-      <c r="K60" s="22">
-        <f>B60/D60*J60</f>
+      <c r="K60" s="56">
+        <f t="shared" si="0"/>
         <v>8.36</v>
       </c>
       <c r="L60" s="29" t="s">
@@ -4429,8 +4415,8 @@
       <c r="J61" s="22">
         <v>1.49</v>
       </c>
-      <c r="K61" s="22">
-        <f t="shared" ref="K61:K104" si="2">B61/D61*J61</f>
+      <c r="K61" s="56">
+        <f t="shared" si="0"/>
         <v>1.49</v>
       </c>
       <c r="L61" s="29" t="s">
@@ -4469,8 +4455,8 @@
       <c r="J62" s="22">
         <v>3.99</v>
       </c>
-      <c r="K62" s="22">
-        <f t="shared" si="2"/>
+      <c r="K62" s="56">
+        <f t="shared" si="0"/>
         <v>71.820000000000007</v>
       </c>
       <c r="L62" s="27" t="s">
@@ -4509,8 +4495,8 @@
       <c r="J63" s="22">
         <v>5.99</v>
       </c>
-      <c r="K63" s="22">
-        <f t="shared" si="2"/>
+      <c r="K63" s="56">
+        <f t="shared" si="0"/>
         <v>11.98</v>
       </c>
       <c r="L63" s="27" t="s">
@@ -4549,9 +4535,9 @@
       <c r="J64" s="22">
         <v>2.39</v>
       </c>
-      <c r="K64" s="22">
-        <f t="shared" si="2"/>
-        <v>4.78</v>
+      <c r="K64" s="56">
+        <f t="shared" si="0"/>
+        <v>9.56</v>
       </c>
       <c r="L64" s="27" t="s">
         <v>215</v>
@@ -4589,8 +4575,8 @@
       <c r="J65" s="22">
         <v>4.99</v>
       </c>
-      <c r="K65" s="22">
-        <f t="shared" si="2"/>
+      <c r="K65" s="56">
+        <f t="shared" si="0"/>
         <v>19.96</v>
       </c>
       <c r="L65" s="27" t="s">
@@ -4629,8 +4615,8 @@
       <c r="J66" s="22">
         <v>9.99</v>
       </c>
-      <c r="K66" s="22">
-        <f t="shared" si="2"/>
+      <c r="K66" s="56">
+        <f t="shared" si="0"/>
         <v>19.98</v>
       </c>
       <c r="L66" s="27" t="s">
@@ -4669,8 +4655,8 @@
       <c r="J67" s="22">
         <v>5.99</v>
       </c>
-      <c r="K67" s="22">
-        <f t="shared" si="2"/>
+      <c r="K67" s="56">
+        <f t="shared" si="0"/>
         <v>35.94</v>
       </c>
       <c r="L67" s="27" t="s">
@@ -4709,8 +4695,8 @@
       <c r="J68" s="22">
         <v>3.69</v>
       </c>
-      <c r="K68" s="22">
-        <f t="shared" si="2"/>
+      <c r="K68" s="56">
+        <f t="shared" si="0"/>
         <v>14.76</v>
       </c>
       <c r="L68" s="27" t="s">
@@ -4749,8 +4735,8 @@
       <c r="J69" s="22">
         <v>7.99</v>
       </c>
-      <c r="K69" s="22">
-        <f t="shared" si="2"/>
+      <c r="K69" s="56">
+        <f t="shared" si="0"/>
         <v>31.96</v>
       </c>
       <c r="L69" s="27" t="s">
@@ -4789,8 +4775,8 @@
       <c r="J70" s="22">
         <v>4.49</v>
       </c>
-      <c r="K70" s="22">
-        <f t="shared" si="2"/>
+      <c r="K70" s="56">
+        <f t="shared" ref="K70:K106" si="1">B70*J70</f>
         <v>17.96</v>
       </c>
       <c r="L70" s="27" t="s">
@@ -4829,8 +4815,8 @@
       <c r="J71" s="22">
         <v>16.989999999999998</v>
       </c>
-      <c r="K71" s="22">
-        <f t="shared" si="2"/>
+      <c r="K71" s="56">
+        <f t="shared" si="1"/>
         <v>33.979999999999997</v>
       </c>
       <c r="L71" s="27" t="s">
@@ -4869,8 +4855,8 @@
       <c r="J72" s="22">
         <v>13.99</v>
       </c>
-      <c r="K72" s="22">
-        <f t="shared" si="2"/>
+      <c r="K72" s="56">
+        <f t="shared" si="1"/>
         <v>41.97</v>
       </c>
       <c r="L72" s="27" t="s">
@@ -4909,11 +4895,11 @@
       <c r="J73" s="22">
         <v>4.99</v>
       </c>
-      <c r="K73" s="22">
-        <f t="shared" si="2"/>
+      <c r="K73" s="56">
+        <f t="shared" si="1"/>
         <v>19.96</v>
       </c>
-      <c r="L73" s="107" t="s">
+      <c r="L73" s="106" t="s">
         <v>365</v>
       </c>
       <c r="M73" s="9"/>
@@ -4949,8 +4935,8 @@
       <c r="J74" s="22">
         <v>7.99</v>
       </c>
-      <c r="K74" s="22">
-        <f t="shared" si="2"/>
+      <c r="K74" s="56">
+        <f t="shared" si="1"/>
         <v>15.98</v>
       </c>
       <c r="L74" s="27" t="s">
@@ -4990,9 +4976,9 @@
       <c r="J75" s="22">
         <v>3.99</v>
       </c>
-      <c r="K75" s="22">
-        <f t="shared" si="2"/>
-        <v>29.925000000000001</v>
+      <c r="K75" s="56">
+        <f t="shared" si="1"/>
+        <v>59.85</v>
       </c>
       <c r="L75" s="27" t="s">
         <v>243</v>
@@ -5030,8 +5016,8 @@
       <c r="J76" s="22">
         <v>2.79</v>
       </c>
-      <c r="K76" s="22">
-        <f t="shared" si="2"/>
+      <c r="K76" s="56">
+        <f t="shared" si="1"/>
         <v>22.32</v>
       </c>
       <c r="L76" s="27" t="s">
@@ -5070,8 +5056,8 @@
       <c r="J77" s="22">
         <v>1.29</v>
       </c>
-      <c r="K77" s="22">
-        <f t="shared" si="2"/>
+      <c r="K77" s="56">
+        <f t="shared" si="1"/>
         <v>1.29</v>
       </c>
       <c r="L77" s="27" t="s">
@@ -5110,8 +5096,8 @@
       <c r="J78" s="22">
         <v>3.99</v>
       </c>
-      <c r="K78" s="22">
-        <f t="shared" si="2"/>
+      <c r="K78" s="56">
+        <f t="shared" si="1"/>
         <v>15.96</v>
       </c>
       <c r="L78" s="29" t="s">
@@ -5150,9 +5136,9 @@
       <c r="J79" s="22">
         <v>1.79</v>
       </c>
-      <c r="K79" s="22">
-        <f t="shared" si="2"/>
-        <v>2.2374999999999998</v>
+      <c r="K79" s="56">
+        <f t="shared" si="1"/>
+        <v>8.9499999999999993</v>
       </c>
       <c r="L79" s="29" t="s">
         <v>255</v>
@@ -5187,8 +5173,8 @@
       <c r="J80" s="22">
         <v>6.8</v>
       </c>
-      <c r="K80" s="22">
-        <f t="shared" si="2"/>
+      <c r="K80" s="56">
+        <f t="shared" si="1"/>
         <v>27.2</v>
       </c>
       <c r="L80" s="27" t="s">
@@ -5211,7 +5197,7 @@
       <c r="E81" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="F81" s="72" t="s">
+      <c r="F81" s="37" t="s">
         <v>260</v>
       </c>
       <c r="G81" s="41" t="s">
@@ -5221,11 +5207,11 @@
         <v>12</v>
       </c>
       <c r="I81" s="59"/>
-      <c r="J81" s="73">
+      <c r="J81" s="72">
         <v>55.5</v>
       </c>
-      <c r="K81" s="22">
-        <f t="shared" si="2"/>
+      <c r="K81" s="56">
+        <f t="shared" si="1"/>
         <v>222</v>
       </c>
       <c r="L81" s="27" t="s">
@@ -5261,8 +5247,8 @@
       <c r="J82" s="22">
         <v>6.32</v>
       </c>
-      <c r="K82" s="22">
-        <f t="shared" si="2"/>
+      <c r="K82" s="56">
+        <f t="shared" si="1"/>
         <v>6.32</v>
       </c>
       <c r="L82" s="29" t="s">
@@ -5299,8 +5285,8 @@
       <c r="J83" s="22">
         <v>6.14</v>
       </c>
-      <c r="K83" s="22">
-        <f t="shared" si="2"/>
+      <c r="K83" s="56">
+        <f t="shared" si="1"/>
         <v>6.14</v>
       </c>
       <c r="L83" s="29" t="s">
@@ -5336,8 +5322,8 @@
       <c r="J84" s="22">
         <v>4.95</v>
       </c>
-      <c r="K84" s="22">
-        <f t="shared" si="2"/>
+      <c r="K84" s="56">
+        <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
       <c r="L84" s="39" t="s">
@@ -5373,8 +5359,8 @@
       <c r="J85" s="22">
         <v>4.95</v>
       </c>
-      <c r="K85" s="22">
-        <f t="shared" si="2"/>
+      <c r="K85" s="56">
+        <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
       <c r="L85" s="39" t="s">
@@ -5410,8 +5396,8 @@
       <c r="J86" s="22">
         <v>4.95</v>
       </c>
-      <c r="K86" s="22">
-        <f t="shared" si="2"/>
+      <c r="K86" s="56">
+        <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
       <c r="L86" s="39" t="s">
@@ -5448,8 +5434,8 @@
       <c r="J87" s="22">
         <v>4.95</v>
       </c>
-      <c r="K87" s="22">
-        <f t="shared" si="2"/>
+      <c r="K87" s="56">
+        <f t="shared" si="1"/>
         <v>4.95</v>
       </c>
       <c r="L87" s="39" t="s">
@@ -5457,7 +5443,7 @@
       </c>
     </row>
     <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="74" t="s">
+      <c r="A88" s="73" t="s">
         <v>279</v>
       </c>
       <c r="B88" s="39">
@@ -5473,7 +5459,7 @@
         <v>15</v>
       </c>
       <c r="F88" s="39"/>
-      <c r="G88" s="103" t="s">
+      <c r="G88" s="102" t="s">
         <v>280</v>
       </c>
       <c r="H88" s="39" t="s">
@@ -5483,16 +5469,16 @@
       <c r="J88" s="22">
         <v>0.36699999999999999</v>
       </c>
-      <c r="K88" s="22">
-        <f t="shared" si="2"/>
+      <c r="K88" s="56">
+        <f t="shared" si="1"/>
         <v>3.67</v>
       </c>
-      <c r="L88" s="75" t="s">
+      <c r="L88" s="74" t="s">
         <v>281</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A89" s="76" t="s">
+      <c r="A89" s="75" t="s">
         <v>282</v>
       </c>
       <c r="B89" s="70">
@@ -5508,92 +5494,92 @@
         <v>15</v>
       </c>
       <c r="F89" s="70"/>
-      <c r="G89" s="104" t="s">
+      <c r="G89" s="103" t="s">
         <v>283</v>
       </c>
       <c r="H89" s="70" t="s">
         <v>12</v>
       </c>
       <c r="I89" s="71"/>
-      <c r="J89" s="77">
+      <c r="J89" s="76">
         <v>0.04</v>
       </c>
-      <c r="K89" s="77">
-        <f t="shared" si="2"/>
+      <c r="K89" s="56">
+        <f t="shared" si="1"/>
         <v>0.4</v>
       </c>
-      <c r="L89" s="78" t="s">
+      <c r="L89" s="77" t="s">
         <v>284</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="79" t="s">
+      <c r="A90" s="78" t="s">
         <v>285</v>
       </c>
-      <c r="B90" s="80">
+      <c r="B90" s="79">
         <v>0</v>
       </c>
-      <c r="C90" s="80">
-        <v>1</v>
-      </c>
-      <c r="D90" s="80">
-        <v>1</v>
-      </c>
-      <c r="E90" s="80" t="s">
+      <c r="C90" s="79">
+        <v>1</v>
+      </c>
+      <c r="D90" s="79">
+        <v>1</v>
+      </c>
+      <c r="E90" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F90" s="80"/>
-      <c r="G90" s="81"/>
-      <c r="H90" s="80" t="s">
+      <c r="F90" s="79"/>
+      <c r="G90" s="80"/>
+      <c r="H90" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="I90" s="82"/>
-      <c r="J90" s="83">
+      <c r="I90" s="81"/>
+      <c r="J90" s="82">
         <v>12.99</v>
       </c>
-      <c r="K90" s="83">
-        <f t="shared" si="2"/>
+      <c r="K90" s="56">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L90" s="80" t="s">
+      <c r="L90" s="79" t="s">
         <v>286</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A91" s="79" t="s">
+      <c r="A91" s="78" t="s">
         <v>287</v>
       </c>
-      <c r="B91" s="80">
+      <c r="B91" s="79">
         <v>0</v>
       </c>
-      <c r="C91" s="80">
-        <v>1</v>
-      </c>
-      <c r="D91" s="80">
-        <v>1</v>
-      </c>
-      <c r="E91" s="80" t="s">
+      <c r="C91" s="79">
+        <v>1</v>
+      </c>
+      <c r="D91" s="79">
+        <v>1</v>
+      </c>
+      <c r="E91" s="79" t="s">
         <v>11</v>
       </c>
-      <c r="F91" s="80"/>
-      <c r="G91" s="81"/>
-      <c r="H91" s="80" t="s">
+      <c r="F91" s="79"/>
+      <c r="G91" s="80"/>
+      <c r="H91" s="79" t="s">
         <v>62</v>
       </c>
-      <c r="I91" s="82"/>
-      <c r="J91" s="83">
+      <c r="I91" s="81"/>
+      <c r="J91" s="82">
         <v>25.99</v>
       </c>
-      <c r="K91" s="83">
-        <f t="shared" si="2"/>
+      <c r="K91" s="56">
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="L91" s="84" t="s">
+      <c r="L91" s="83" t="s">
         <v>288</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A92" s="85" t="s">
+      <c r="A92" s="84" t="s">
         <v>289</v>
       </c>
       <c r="B92" s="70">
@@ -5609,26 +5595,26 @@
         <v>11</v>
       </c>
       <c r="F92" s="70"/>
-      <c r="G92" s="86" t="s">
+      <c r="G92" s="85" t="s">
         <v>290</v>
       </c>
       <c r="H92" s="70" t="s">
         <v>12</v>
       </c>
       <c r="I92" s="71"/>
-      <c r="J92" s="77">
+      <c r="J92" s="76">
         <v>7.99</v>
       </c>
-      <c r="K92" s="77">
-        <f t="shared" si="2"/>
+      <c r="K92" s="56">
+        <f t="shared" si="1"/>
         <v>7.99</v>
       </c>
-      <c r="L92" s="87" t="s">
+      <c r="L92" s="86" t="s">
         <v>291</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A93" s="85" t="s">
+      <c r="A93" s="84" t="s">
         <v>292</v>
       </c>
       <c r="B93" s="70">
@@ -5644,26 +5630,26 @@
         <v>15</v>
       </c>
       <c r="F93" s="70"/>
-      <c r="G93" s="86" t="s">
+      <c r="G93" s="85" t="s">
         <v>293</v>
       </c>
       <c r="H93" s="70" t="s">
         <v>12</v>
       </c>
       <c r="I93" s="71"/>
-      <c r="J93" s="77">
+      <c r="J93" s="76">
         <v>15.59</v>
       </c>
-      <c r="K93" s="77">
-        <f t="shared" si="2"/>
+      <c r="K93" s="56">
+        <f t="shared" si="1"/>
         <v>15.59</v>
       </c>
-      <c r="L93" s="87" t="s">
+      <c r="L93" s="86" t="s">
         <v>294</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A94" s="85" t="s">
+      <c r="A94" s="84" t="s">
         <v>295</v>
       </c>
       <c r="B94" s="70">
@@ -5679,26 +5665,26 @@
         <v>15</v>
       </c>
       <c r="F94" s="70"/>
-      <c r="G94" s="86" t="s">
+      <c r="G94" s="85" t="s">
         <v>296</v>
       </c>
       <c r="H94" s="70" t="s">
         <v>12</v>
       </c>
       <c r="I94" s="71"/>
-      <c r="J94" s="77">
+      <c r="J94" s="76">
         <v>12.56</v>
       </c>
-      <c r="K94" s="77">
-        <f t="shared" si="2"/>
+      <c r="K94" s="56">
+        <f t="shared" si="1"/>
         <v>12.56</v>
       </c>
-      <c r="L94" s="88" t="s">
+      <c r="L94" s="87" t="s">
         <v>297</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A95" s="85" t="s">
+      <c r="A95" s="84" t="s">
         <v>298</v>
       </c>
       <c r="B95" s="70">
@@ -5714,26 +5700,26 @@
         <v>15</v>
       </c>
       <c r="F95" s="70"/>
-      <c r="G95" s="86" t="s">
+      <c r="G95" s="85" t="s">
         <v>299</v>
       </c>
       <c r="H95" s="70" t="s">
         <v>12</v>
       </c>
       <c r="I95" s="71"/>
-      <c r="J95" s="77">
+      <c r="J95" s="76">
         <v>15.59</v>
       </c>
-      <c r="K95" s="77">
-        <f t="shared" si="2"/>
+      <c r="K95" s="56">
+        <f t="shared" si="1"/>
         <v>15.59</v>
       </c>
-      <c r="L95" s="87" t="s">
+      <c r="L95" s="86" t="s">
         <v>300</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A96" s="85" t="s">
+      <c r="A96" s="84" t="s">
         <v>301</v>
       </c>
       <c r="B96" s="70">
@@ -5749,21 +5735,21 @@
         <v>15</v>
       </c>
       <c r="F96" s="70"/>
-      <c r="G96" s="86" t="s">
+      <c r="G96" s="85" t="s">
         <v>302</v>
       </c>
       <c r="H96" s="70" t="s">
         <v>12</v>
       </c>
       <c r="I96" s="71"/>
-      <c r="J96" s="77">
+      <c r="J96" s="76">
         <v>15.59</v>
       </c>
-      <c r="K96" s="77">
-        <f t="shared" si="2"/>
+      <c r="K96" s="56">
+        <f t="shared" si="1"/>
         <v>15.59</v>
       </c>
-      <c r="L96" s="87" t="s">
+      <c r="L96" s="86" t="s">
         <v>303</v>
       </c>
     </row>
@@ -5790,12 +5776,12 @@
       <c r="H97" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I97" s="89"/>
+      <c r="I97" s="88"/>
       <c r="J97" s="64">
         <v>3.95</v>
       </c>
-      <c r="K97" s="64">
-        <f t="shared" si="2"/>
+      <c r="K97" s="56">
+        <f t="shared" si="1"/>
         <v>19.75</v>
       </c>
       <c r="L97" s="67" t="s">
@@ -5803,106 +5789,108 @@
       </c>
     </row>
     <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A98" s="90" t="s">
+      <c r="A98" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="B98" s="91">
+      <c r="B98" s="90">
         <v>10</v>
       </c>
-      <c r="C98" s="91">
+      <c r="C98" s="90">
         <v>5</v>
       </c>
-      <c r="D98" s="91">
-        <v>1</v>
-      </c>
-      <c r="E98" s="91" t="s">
+      <c r="D98" s="90">
+        <v>1</v>
+      </c>
+      <c r="E98" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F98" s="91"/>
+      <c r="F98" s="90"/>
       <c r="G98" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="H98" s="91" t="s">
+      <c r="H98" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I98" s="92"/>
-      <c r="J98" s="93">
+      <c r="I98" s="91"/>
+      <c r="J98" s="92">
         <v>0.59</v>
       </c>
-      <c r="K98" s="93">
-        <f t="shared" si="2"/>
+      <c r="K98" s="56">
+        <f t="shared" si="1"/>
         <v>5.8999999999999995</v>
       </c>
-      <c r="L98" s="94" t="s">
+      <c r="L98" s="93" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="99" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A99" s="90" t="s">
+      <c r="A99" s="89" t="s">
         <v>18</v>
       </c>
-      <c r="B99" s="91">
+      <c r="B99" s="90">
         <v>20</v>
       </c>
-      <c r="C99" s="91"/>
-      <c r="D99" s="91">
-        <v>1</v>
-      </c>
-      <c r="E99" s="91" t="s">
+      <c r="C99" s="90">
+        <v>20</v>
+      </c>
+      <c r="D99" s="90">
+        <v>1</v>
+      </c>
+      <c r="E99" s="90" t="s">
         <v>15</v>
       </c>
-      <c r="F99" s="91" t="s">
+      <c r="F99" s="90" t="s">
         <v>19</v>
       </c>
       <c r="G99" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="H99" s="91" t="s">
+      <c r="H99" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I99" s="92"/>
-      <c r="J99" s="93">
+      <c r="I99" s="91"/>
+      <c r="J99" s="92">
         <v>0.35</v>
       </c>
-      <c r="K99" s="93">
-        <f t="shared" si="2"/>
+      <c r="K99" s="56">
+        <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="L99" s="91" t="s">
+      <c r="L99" s="90" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="100" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A100" s="90" t="s">
+      <c r="A100" s="89" t="s">
         <v>22</v>
       </c>
-      <c r="B100" s="91">
-        <v>1</v>
-      </c>
-      <c r="C100" s="91">
-        <v>1</v>
-      </c>
-      <c r="D100" s="91">
-        <v>1</v>
-      </c>
-      <c r="E100" s="91" t="s">
+      <c r="B100" s="90">
+        <v>1</v>
+      </c>
+      <c r="C100" s="90">
+        <v>1</v>
+      </c>
+      <c r="D100" s="90">
+        <v>1</v>
+      </c>
+      <c r="E100" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="F100" s="91" t="s">
+      <c r="F100" s="90" t="s">
         <v>13</v>
       </c>
       <c r="G100" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H100" s="91" t="s">
+      <c r="H100" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I100" s="92"/>
-      <c r="J100" s="93">
+      <c r="I100" s="91"/>
+      <c r="J100" s="92">
         <v>20.2</v>
       </c>
-      <c r="K100" s="93">
-        <f t="shared" si="2"/>
+      <c r="K100" s="56">
+        <f t="shared" si="1"/>
         <v>20.2</v>
       </c>
       <c r="L100" s="65" t="s">
@@ -5910,36 +5898,36 @@
       </c>
     </row>
     <row r="101" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A101" s="90" t="s">
+      <c r="A101" s="89" t="s">
         <v>25</v>
       </c>
-      <c r="B101" s="91">
-        <v>1</v>
-      </c>
-      <c r="C101" s="91">
-        <v>1</v>
-      </c>
-      <c r="D101" s="91">
-        <v>1</v>
-      </c>
-      <c r="E101" s="91" t="s">
+      <c r="B101" s="90">
+        <v>1</v>
+      </c>
+      <c r="C101" s="90">
+        <v>1</v>
+      </c>
+      <c r="D101" s="90">
+        <v>1</v>
+      </c>
+      <c r="E101" s="90" t="s">
         <v>23</v>
       </c>
-      <c r="F101" s="91" t="s">
+      <c r="F101" s="90" t="s">
         <v>26</v>
       </c>
       <c r="G101" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="H101" s="91" t="s">
+      <c r="H101" s="90" t="s">
         <v>12</v>
       </c>
-      <c r="I101" s="92"/>
-      <c r="J101" s="93">
+      <c r="I101" s="91"/>
+      <c r="J101" s="92">
         <v>19.649999999999999</v>
       </c>
-      <c r="K101" s="93">
-        <f t="shared" si="2"/>
+      <c r="K101" s="56">
+        <f t="shared" si="1"/>
         <v>19.649999999999999</v>
       </c>
       <c r="L101" s="65" t="s">
@@ -5947,35 +5935,35 @@
       </c>
     </row>
     <row r="102" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A102" s="95" t="s">
+      <c r="A102" s="94" t="s">
         <v>27</v>
       </c>
-      <c r="B102" s="96">
+      <c r="B102" s="95">
         <v>5</v>
       </c>
-      <c r="C102" s="96">
+      <c r="C102" s="95">
         <v>5</v>
       </c>
-      <c r="D102" s="91">
+      <c r="D102" s="90">
         <v>1</v>
       </c>
       <c r="E102" s="61" t="s">
         <v>11</v>
       </c>
-      <c r="F102" s="96"/>
-      <c r="G102" s="97"/>
+      <c r="F102" s="95"/>
+      <c r="G102" s="96"/>
       <c r="H102" s="61" t="s">
         <v>12</v>
       </c>
-      <c r="I102" s="98"/>
-      <c r="J102" s="125">
+      <c r="I102" s="97"/>
+      <c r="J102" s="116">
         <v>5.99</v>
       </c>
-      <c r="K102" s="93">
-        <f t="shared" si="2"/>
+      <c r="K102" s="56">
+        <f t="shared" si="1"/>
         <v>29.950000000000003</v>
       </c>
-      <c r="L102" s="99" t="s">
+      <c r="L102" s="98" t="s">
         <v>28</v>
       </c>
     </row>
@@ -5998,7 +5986,7 @@
       <c r="F103" s="40" t="s">
         <v>316</v>
       </c>
-      <c r="G103" s="105" t="s">
+      <c r="G103" s="104" t="s">
         <v>339</v>
       </c>
       <c r="H103" s="47" t="s">
@@ -6010,11 +5998,11 @@
       <c r="J103" s="32">
         <v>3.78</v>
       </c>
-      <c r="K103" s="32">
-        <f t="shared" si="2"/>
-        <v>0.1512</v>
-      </c>
-      <c r="L103" s="100" t="s">
+      <c r="K103" s="56">
+        <f t="shared" si="1"/>
+        <v>3.78</v>
+      </c>
+      <c r="L103" s="99" t="s">
         <v>338</v>
       </c>
     </row>
@@ -6049,11 +6037,11 @@
       <c r="J104" s="32">
         <v>0.96</v>
       </c>
-      <c r="K104" s="32">
-        <f t="shared" si="2"/>
+      <c r="K104" s="56">
+        <f t="shared" si="1"/>
         <v>3.84</v>
       </c>
-      <c r="L104" s="100" t="s">
+      <c r="L104" s="99" t="s">
         <v>317</v>
       </c>
     </row>
@@ -6076,19 +6064,19 @@
       <c r="F105" s="40" t="s">
         <v>344</v>
       </c>
-      <c r="G105" s="101"/>
+      <c r="G105" s="100"/>
       <c r="H105" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I105" s="102"/>
+      <c r="I105" s="101"/>
       <c r="J105" s="32">
         <v>11.75</v>
       </c>
-      <c r="K105" s="32">
-        <f>B105/D105*J105</f>
+      <c r="K105" s="56">
+        <f t="shared" si="1"/>
         <v>11.75</v>
       </c>
-      <c r="L105" s="100" t="s">
+      <c r="L105" s="99" t="s">
         <v>345</v>
       </c>
     </row>
@@ -6111,19 +6099,19 @@
       <c r="F106" s="40" t="s">
         <v>170</v>
       </c>
-      <c r="G106" s="101"/>
+      <c r="G106" s="100"/>
       <c r="H106" s="49" t="s">
         <v>58</v>
       </c>
-      <c r="I106" s="102"/>
+      <c r="I106" s="101"/>
       <c r="J106" s="32">
         <v>15.25</v>
       </c>
-      <c r="K106" s="32">
-        <f>B106/D106*J106</f>
+      <c r="K106" s="56">
+        <f t="shared" si="1"/>
         <v>15.25</v>
       </c>
-      <c r="L106" s="100" t="s">
+      <c r="L106" s="99" t="s">
         <v>345</v>
       </c>
     </row>

--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cox/Documents/open source rover/osr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E7F4A3B-29EC-B744-BB75-9FB098DEBA74}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ECEBFA-672B-4342-96F7-6ECD47783B6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="57180" yWindow="2360" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -415,9 +415,6 @@
     <t>6157K14</t>
   </si>
   <si>
-    <t>.5”D Collared Clamp</t>
-  </si>
-  <si>
     <t>1 Inch PVC</t>
   </si>
   <si>
@@ -1118,6 +1115,9 @@
   </si>
   <si>
     <t>https://www.pololu.com/product/3256</t>
+  </si>
+  <si>
+    <t>https://www.mcmaster.com/6157k14</t>
   </si>
 </sst>
 </file>
@@ -2010,8 +2010,8 @@
   <dimension ref="A1:AA970"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A40" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A50" sqref="A50"/>
+      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2035,7 +2035,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="109" customFormat="1" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="2" spans="1:27" s="111" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="127" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="127"/>
@@ -2062,17 +2062,17 @@
       <c r="H2" s="114"/>
       <c r="I2" s="114"/>
       <c r="J2" s="119" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="K2" s="120">
         <f>SUM(K5:K150)</f>
-        <v>2496.3000000000002</v>
+        <v>2501.36</v>
       </c>
       <c r="L2" s="114"/>
     </row>
     <row r="3" spans="1:27" s="111" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="115" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B3" s="115"/>
       <c r="C3" s="115"/>
@@ -2110,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>7</v>
@@ -2445,7 +2445,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J12" s="23">
         <v>9.25</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B17" s="39">
         <v>25</v>
@@ -2634,7 +2634,7 @@
         <v>74</v>
       </c>
       <c r="G17" s="116" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>12</v>
@@ -2648,13 +2648,13 @@
         <v>0.72</v>
       </c>
       <c r="L17" s="117" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B18" s="39">
         <v>25</v>
@@ -2672,7 +2672,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="116" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>12</v>
@@ -2686,7 +2686,7 @@
         <v>0.72</v>
       </c>
       <c r="L18" s="110" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2762,7 +2762,7 @@
         <v>4.49</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2792,7 +2792,7 @@
         <v>58</v>
       </c>
       <c r="I21" s="61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J21" s="23">
         <v>25.27</v>
@@ -2832,7 +2832,7 @@
         <v>58</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J22" s="23">
         <v>12.9</v>
@@ -2872,7 +2872,7 @@
         <v>58</v>
       </c>
       <c r="I23" s="61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J23" s="23">
         <f>38.9+36.9</f>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B24" s="39">
         <v>300</v>
@@ -2914,7 +2914,7 @@
         <v>93</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J24" s="23">
         <v>3.45</v>
@@ -2954,7 +2954,7 @@
         <v>93</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J25" s="23">
         <v>5.61</v>
@@ -2998,7 +2998,7 @@
         <v>93</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J26" s="23">
         <v>2.72</v>
@@ -3041,7 +3041,7 @@
         <v>93</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J27" s="23">
         <v>2.79</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B28" s="39">
         <v>100</v>
@@ -3085,7 +3085,7 @@
         <v>93</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J28" s="23">
         <v>3.72</v>
@@ -3095,7 +3095,7 @@
         <v>3.72</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="M28" s="9"/>
       <c r="Y28" s="9"/>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B29" s="39">
         <v>100</v>
@@ -3128,7 +3128,7 @@
         <v>93</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J29" s="23">
         <v>3.72</v>
@@ -3138,7 +3138,7 @@
         <v>3.72</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="M29" s="9"/>
       <c r="Y29" s="9"/>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B30" s="41">
         <v>100</v>
@@ -3171,7 +3171,7 @@
         <v>93</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J30" s="23">
         <v>4.07</v>
@@ -3181,13 +3181,13 @@
         <v>4.07</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B31" s="41">
         <v>100</v>
@@ -3211,7 +3211,7 @@
         <v>93</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J31" s="23">
         <v>4.41</v>
@@ -3221,13 +3221,13 @@
         <v>4.41</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B32" s="41">
         <v>50</v>
@@ -3251,7 +3251,7 @@
         <v>93</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J32" s="23">
         <v>5.42</v>
@@ -3261,13 +3261,13 @@
         <v>5.42</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B33" s="39">
         <v>50</v>
@@ -3291,7 +3291,7 @@
         <v>93</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J33" s="23">
         <v>6.51</v>
@@ -3301,13 +3301,13 @@
         <v>6.51</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B34" s="39">
         <v>100</v>
@@ -3331,7 +3331,7 @@
         <v>93</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J34" s="23">
         <v>2.87</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B35" s="41">
         <v>100</v>
@@ -3371,7 +3371,7 @@
         <v>93</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J35" s="23">
         <v>7.7</v>
@@ -3381,7 +3381,7 @@
         <v>7.7</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="M35" s="9"/>
     </row>
@@ -3405,13 +3405,13 @@
         <v>126</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="H36" s="39" t="s">
         <v>58</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J36" s="23">
         <v>23.16</v>
@@ -3421,7 +3421,7 @@
         <v>23.16</v>
       </c>
       <c r="L36" s="110" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="M36" s="9"/>
     </row>
@@ -3451,23 +3451,23 @@
         <v>58</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="J37" s="23">
-        <v>2.2599999999999998</v>
+        <v>2.72</v>
       </c>
       <c r="K37" s="23">
         <f t="shared" si="1"/>
-        <v>24.86</v>
-      </c>
-      <c r="L37" s="28" t="s">
-        <v>130</v>
+        <v>29.92</v>
+      </c>
+      <c r="L37" s="110" t="s">
+        <v>364</v>
       </c>
       <c r="M37" s="9"/>
     </row>
     <row r="38" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="21" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="B38" s="39">
         <v>1</v>
@@ -3482,16 +3482,16 @@
         <v>90</v>
       </c>
       <c r="F38" s="39" t="s">
+        <v>131</v>
+      </c>
+      <c r="G38" s="43" t="s">
         <v>132</v>
-      </c>
-      <c r="G38" s="43" t="s">
-        <v>133</v>
       </c>
       <c r="H38" s="60" t="s">
         <v>58</v>
       </c>
       <c r="I38" s="61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J38" s="23">
         <v>4.92</v>
@@ -3501,13 +3501,13 @@
         <v>4.92</v>
       </c>
       <c r="L38" s="28" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="M38" s="9"/>
     </row>
     <row r="39" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B39" s="41">
         <v>68</v>
@@ -3522,16 +3522,16 @@
         <v>90</v>
       </c>
       <c r="F39" s="41" t="s">
+        <v>135</v>
+      </c>
+      <c r="G39" s="45" t="s">
         <v>136</v>
-      </c>
-      <c r="G39" s="45" t="s">
-        <v>137</v>
       </c>
       <c r="H39" s="39" t="s">
         <v>93</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J39" s="23">
         <v>0.23</v>
@@ -3541,13 +3541,13 @@
         <v>15.64</v>
       </c>
       <c r="L39" s="26" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="M39" s="9"/>
     </row>
     <row r="40" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="21" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B40" s="39">
         <v>4</v>
@@ -3562,16 +3562,16 @@
         <v>90</v>
       </c>
       <c r="F40" s="39" t="s">
+        <v>139</v>
+      </c>
+      <c r="G40" s="46" t="s">
         <v>140</v>
-      </c>
-      <c r="G40" s="46" t="s">
-        <v>141</v>
       </c>
       <c r="H40" s="39" t="s">
         <v>93</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J40" s="23">
         <v>0.3</v>
@@ -3588,7 +3588,7 @@
     </row>
     <row r="41" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="21" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B41" s="41">
         <v>10</v>
@@ -3603,16 +3603,16 @@
         <v>90</v>
       </c>
       <c r="F41" s="41" t="s">
+        <v>142</v>
+      </c>
+      <c r="G41" s="45" t="s">
         <v>143</v>
-      </c>
-      <c r="G41" s="45" t="s">
-        <v>144</v>
       </c>
       <c r="H41" s="39" t="s">
         <v>93</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J41" s="23">
         <v>0.23</v>
@@ -3622,13 +3622,13 @@
         <v>2.3000000000000003</v>
       </c>
       <c r="L41" s="26" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="M41" s="9"/>
     </row>
     <row r="42" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="21" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="B42" s="41">
         <v>15</v>
@@ -3643,16 +3643,16 @@
         <v>90</v>
       </c>
       <c r="F42" s="41" t="s">
+        <v>146</v>
+      </c>
+      <c r="G42" s="45" t="s">
         <v>147</v>
-      </c>
-      <c r="G42" s="45" t="s">
-        <v>148</v>
       </c>
       <c r="H42" s="39" t="s">
         <v>93</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J42" s="23">
         <v>0.27</v>
@@ -3662,7 +3662,7 @@
         <v>4.0500000000000007</v>
       </c>
       <c r="L42" s="26" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="M42" s="9"/>
       <c r="Y42" s="9"/>
@@ -3671,7 +3671,7 @@
     </row>
     <row r="43" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="21" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B43" s="39">
         <v>10</v>
@@ -3686,16 +3686,16 @@
         <v>90</v>
       </c>
       <c r="F43" s="39" t="s">
+        <v>150</v>
+      </c>
+      <c r="G43" s="45" t="s">
         <v>151</v>
-      </c>
-      <c r="G43" s="45" t="s">
-        <v>152</v>
       </c>
       <c r="H43" s="39" t="s">
         <v>93</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J43" s="23">
         <v>0.37</v>
@@ -3705,7 +3705,7 @@
         <v>3.7</v>
       </c>
       <c r="L43" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="M43" s="9"/>
       <c r="Y43" s="9"/>
@@ -3714,7 +3714,7 @@
     </row>
     <row r="44" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B44" s="41">
         <v>10</v>
@@ -3729,16 +3729,16 @@
         <v>90</v>
       </c>
       <c r="F44" s="41" t="s">
+        <v>154</v>
+      </c>
+      <c r="G44" s="47" t="s">
         <v>155</v>
-      </c>
-      <c r="G44" s="47" t="s">
-        <v>156</v>
       </c>
       <c r="H44" s="39" t="s">
         <v>93</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J44" s="23">
         <v>0.48</v>
@@ -3748,7 +3748,7 @@
         <v>4.8</v>
       </c>
       <c r="L44" s="28" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="M44" s="9"/>
       <c r="Y44" s="9"/>
@@ -3757,7 +3757,7 @@
     </row>
     <row r="45" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="21" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B45" s="39">
         <v>100</v>
@@ -3772,16 +3772,16 @@
         <v>90</v>
       </c>
       <c r="F45" s="39" t="s">
+        <v>158</v>
+      </c>
+      <c r="G45" s="45" t="s">
         <v>159</v>
-      </c>
-      <c r="G45" s="45" t="s">
-        <v>160</v>
       </c>
       <c r="H45" s="39" t="s">
         <v>93</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J45" s="23">
         <v>1.17</v>
@@ -3791,7 +3791,7 @@
         <v>1.17</v>
       </c>
       <c r="L45" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="M45" s="9"/>
       <c r="Y45" s="9"/>
@@ -3800,7 +3800,7 @@
     </row>
     <row r="46" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="21" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B46" s="41">
         <v>100</v>
@@ -3815,16 +3815,16 @@
         <v>90</v>
       </c>
       <c r="F46" s="41" t="s">
+        <v>162</v>
+      </c>
+      <c r="G46" s="45" t="s">
         <v>163</v>
-      </c>
-      <c r="G46" s="45" t="s">
-        <v>164</v>
       </c>
       <c r="H46" s="39" t="s">
         <v>93</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J46" s="23">
         <v>1.4</v>
@@ -3834,13 +3834,13 @@
         <v>1.4</v>
       </c>
       <c r="L46" s="30" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="M46" s="9"/>
     </row>
     <row r="47" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="21" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B47" s="39">
         <v>20</v>
@@ -3855,16 +3855,16 @@
         <v>90</v>
       </c>
       <c r="F47" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="G47" s="43" t="s">
         <v>167</v>
-      </c>
-      <c r="G47" s="43" t="s">
-        <v>168</v>
       </c>
       <c r="H47" s="39" t="s">
         <v>93</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J47" s="23">
         <v>2.4700000000000002</v>
@@ -3874,13 +3874,13 @@
         <v>9.8800000000000008</v>
       </c>
       <c r="L47" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="M47" s="9"/>
     </row>
     <row r="48" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="21" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B48" s="39">
         <v>5</v>
@@ -3895,7 +3895,7 @@
         <v>110</v>
       </c>
       <c r="F48" s="39" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G48" s="43" t="s">
         <v>19</v>
@@ -3912,13 +3912,13 @@
         <v>349.75</v>
       </c>
       <c r="L48" s="28" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="M48" s="9"/>
     </row>
     <row r="49" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="21" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B49" s="39">
         <v>1</v>
@@ -3933,7 +3933,7 @@
         <v>110</v>
       </c>
       <c r="F49" s="39" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="G49" s="43" t="s">
         <v>19</v>
@@ -3950,13 +3950,13 @@
         <v>14.95</v>
       </c>
       <c r="L49" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="M49" s="9"/>
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B50" s="39">
         <v>6</v>
@@ -3988,7 +3988,7 @@
         <v>209.70000000000002</v>
       </c>
       <c r="L50" s="110" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="M50" s="9">
         <v>0</v>
@@ -3996,7 +3996,7 @@
     </row>
     <row r="51" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="21" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B51" s="39">
         <v>4</v>
@@ -4011,7 +4011,7 @@
         <v>110</v>
       </c>
       <c r="F51" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="G51" s="43" t="s">
         <v>19</v>
@@ -4028,13 +4028,13 @@
         <v>79.8</v>
       </c>
       <c r="L51" s="110" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="M51" s="9"/>
     </row>
     <row r="52" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="21" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B52" s="39">
         <v>6</v>
@@ -4046,10 +4046,10 @@
         <v>1</v>
       </c>
       <c r="E52" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="F52" s="39" t="s">
         <v>178</v>
-      </c>
-      <c r="F52" s="39" t="s">
-        <v>179</v>
       </c>
       <c r="G52" s="43">
         <v>585440</v>
@@ -4058,7 +4058,7 @@
         <v>58</v>
       </c>
       <c r="I52" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J52" s="23">
         <v>2.99</v>
@@ -4068,13 +4068,13 @@
         <v>17.940000000000001</v>
       </c>
       <c r="L52" s="28" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="M52" s="9"/>
     </row>
     <row r="53" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="21" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B53" s="39">
         <v>8</v>
@@ -4086,10 +4086,10 @@
         <v>1</v>
       </c>
       <c r="E53" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F53" s="39" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="G53" s="43">
         <v>535110</v>
@@ -4098,7 +4098,7 @@
         <v>58</v>
       </c>
       <c r="I53" s="61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J53" s="23">
         <v>5.99</v>
@@ -4108,13 +4108,13 @@
         <v>47.92</v>
       </c>
       <c r="L53" s="28" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="M53" s="9"/>
     </row>
     <row r="54" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="21" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B54" s="39">
         <v>6</v>
@@ -4126,10 +4126,10 @@
         <v>1</v>
       </c>
       <c r="E54" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F54" s="39" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G54" s="43">
         <v>535118</v>
@@ -4138,7 +4138,7 @@
         <v>58</v>
       </c>
       <c r="I54" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J54" s="23">
         <v>6.99</v>
@@ -4148,13 +4148,13 @@
         <v>41.94</v>
       </c>
       <c r="L54" s="28" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="M54" s="9"/>
     </row>
     <row r="55" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="21" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B55" s="39">
         <v>4</v>
@@ -4166,10 +4166,10 @@
         <v>1</v>
       </c>
       <c r="E55" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F55" s="39" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="G55" s="48">
         <v>545588</v>
@@ -4178,7 +4178,7 @@
         <v>58</v>
       </c>
       <c r="I55" s="61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J55" s="23">
         <v>5.99</v>
@@ -4188,13 +4188,13 @@
         <v>23.96</v>
       </c>
       <c r="L55" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="M55" s="9"/>
     </row>
     <row r="56" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="21" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B56" s="39">
         <v>3</v>
@@ -4206,10 +4206,10 @@
         <v>1</v>
       </c>
       <c r="E56" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F56" s="39" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="G56" s="43">
         <v>545600</v>
@@ -4218,7 +4218,7 @@
         <v>58</v>
       </c>
       <c r="I56" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J56" s="23">
         <v>5.99</v>
@@ -4228,13 +4228,13 @@
         <v>17.97</v>
       </c>
       <c r="L56" s="28" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="M56" s="9"/>
     </row>
     <row r="57" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="21" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B57" s="39">
         <v>6</v>
@@ -4246,10 +4246,10 @@
         <v>1</v>
       </c>
       <c r="E57" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F57" s="39" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G57" s="43">
         <v>545608</v>
@@ -4258,7 +4258,7 @@
         <v>58</v>
       </c>
       <c r="I57" s="61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J57" s="23">
         <v>5.99</v>
@@ -4268,13 +4268,13 @@
         <v>35.94</v>
       </c>
       <c r="L57" s="28" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="M57" s="9"/>
     </row>
     <row r="58" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="21" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B58" s="39">
         <v>4</v>
@@ -4286,10 +4286,10 @@
         <v>1</v>
       </c>
       <c r="E58" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F58" s="39" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="G58" s="43">
         <v>634066</v>
@@ -4298,7 +4298,7 @@
         <v>58</v>
       </c>
       <c r="I58" s="61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J58" s="23">
         <v>1.49</v>
@@ -4308,13 +4308,13 @@
         <v>5.96</v>
       </c>
       <c r="L58" s="28" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="M58" s="9"/>
     </row>
     <row r="59" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="21" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B59" s="41">
         <v>16</v>
@@ -4326,10 +4326,10 @@
         <v>2</v>
       </c>
       <c r="E59" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F59" s="41" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="G59" s="47">
         <v>585470</v>
@@ -4338,7 +4338,7 @@
         <v>58</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J59" s="23">
         <v>5.99</v>
@@ -4348,13 +4348,13 @@
         <v>47.92</v>
       </c>
       <c r="L59" s="30" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="M59" s="9"/>
     </row>
     <row r="60" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="29" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B60" s="41">
         <v>4</v>
@@ -4366,10 +4366,10 @@
         <v>1</v>
       </c>
       <c r="E60" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F60" s="41" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="G60" s="48">
         <v>635254</v>
@@ -4378,7 +4378,7 @@
         <v>58</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J60" s="23">
         <v>2.09</v>
@@ -4388,13 +4388,13 @@
         <v>8.36</v>
       </c>
       <c r="L60" s="30" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="M60" s="9"/>
     </row>
     <row r="61" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="29" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B61" s="41">
         <v>1</v>
@@ -4406,10 +4406,10 @@
         <v>1</v>
       </c>
       <c r="E61" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F61" s="41" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="G61" s="48">
         <v>635252</v>
@@ -4418,7 +4418,7 @@
         <v>58</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J61" s="23">
         <v>1.49</v>
@@ -4428,13 +4428,13 @@
         <v>1.49</v>
       </c>
       <c r="L61" s="30" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="M61" s="9"/>
     </row>
     <row r="62" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="21" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="B62" s="39">
         <v>18</v>
@@ -4446,10 +4446,10 @@
         <v>1</v>
       </c>
       <c r="E62" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F62" s="39" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G62" s="43">
         <v>585442</v>
@@ -4458,7 +4458,7 @@
         <v>58</v>
       </c>
       <c r="I62" s="61" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="J62" s="23">
         <v>3.99</v>
@@ -4468,13 +4468,13 @@
         <v>71.820000000000007</v>
       </c>
       <c r="L62" s="28" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="M62" s="9"/>
     </row>
     <row r="63" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="21" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="B63" s="39">
         <v>2</v>
@@ -4486,10 +4486,10 @@
         <v>1</v>
       </c>
       <c r="E63" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F63" s="39" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="G63" s="43">
         <v>585546</v>
@@ -4498,7 +4498,7 @@
         <v>58</v>
       </c>
       <c r="I63" s="61" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="J63" s="23">
         <v>5.99</v>
@@ -4508,13 +4508,13 @@
         <v>11.98</v>
       </c>
       <c r="L63" s="28" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="M63" s="9"/>
     </row>
     <row r="64" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="21" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B64" s="39">
         <v>8</v>
@@ -4526,10 +4526,10 @@
         <v>2</v>
       </c>
       <c r="E64" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F64" s="39" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="G64" s="43">
         <v>585404</v>
@@ -4538,7 +4538,7 @@
         <v>58</v>
       </c>
       <c r="I64" s="61" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="J64" s="23">
         <v>2.39</v>
@@ -4548,13 +4548,13 @@
         <v>9.56</v>
       </c>
       <c r="L64" s="28" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="M64" s="9"/>
     </row>
     <row r="65" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="21" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B65" s="39">
         <v>4</v>
@@ -4566,10 +4566,10 @@
         <v>1</v>
       </c>
       <c r="E65" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F65" s="39" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="G65" s="43">
         <v>625049</v>
@@ -4578,7 +4578,7 @@
         <v>58</v>
       </c>
       <c r="I65" s="61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J65" s="23">
         <v>4.99</v>
@@ -4588,13 +4588,13 @@
         <v>19.96</v>
       </c>
       <c r="L65" s="28" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="M65" s="9"/>
     </row>
     <row r="66" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="21" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B66" s="39">
         <v>2</v>
@@ -4606,10 +4606,10 @@
         <v>1</v>
       </c>
       <c r="E66" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F66" s="39" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="G66" s="43">
         <v>545512</v>
@@ -4618,7 +4618,7 @@
         <v>58</v>
       </c>
       <c r="I66" s="61" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="J66" s="23">
         <v>9.99</v>
@@ -4628,13 +4628,13 @@
         <v>19.98</v>
       </c>
       <c r="L66" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="M66" s="9"/>
     </row>
     <row r="67" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="21" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B67" s="39">
         <v>6</v>
@@ -4646,10 +4646,10 @@
         <v>1</v>
       </c>
       <c r="E67" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F67" s="39" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="G67" s="43">
         <v>545680</v>
@@ -4658,7 +4658,7 @@
         <v>58</v>
       </c>
       <c r="I67" s="61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J67" s="23">
         <v>5.99</v>
@@ -4668,13 +4668,13 @@
         <v>35.94</v>
       </c>
       <c r="L67" s="28" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="M67" s="9"/>
     </row>
     <row r="68" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="21" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B68" s="39">
         <v>4</v>
@@ -4686,19 +4686,19 @@
         <v>1</v>
       </c>
       <c r="E68" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F68" s="39" t="s">
+        <v>220</v>
+      </c>
+      <c r="G68" s="70" t="s">
         <v>221</v>
-      </c>
-      <c r="G68" s="70" t="s">
-        <v>222</v>
       </c>
       <c r="H68" s="60" t="s">
         <v>58</v>
       </c>
       <c r="I68" s="61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J68" s="23">
         <v>3.69</v>
@@ -4708,13 +4708,13 @@
         <v>14.76</v>
       </c>
       <c r="L68" s="28" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="M68" s="9"/>
     </row>
     <row r="69" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B69" s="39">
         <v>4</v>
@@ -4726,10 +4726,10 @@
         <v>1</v>
       </c>
       <c r="E69" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F69" s="39" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="G69" s="70">
         <v>615362</v>
@@ -4738,7 +4738,7 @@
         <v>58</v>
       </c>
       <c r="I69" s="61" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J69" s="23">
         <v>7.99</v>
@@ -4748,13 +4748,13 @@
         <v>31.96</v>
       </c>
       <c r="L69" s="28" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="M69" s="9"/>
     </row>
     <row r="70" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="21" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B70" s="39">
         <v>4</v>
@@ -4766,10 +4766,10 @@
         <v>1</v>
       </c>
       <c r="E70" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F70" s="39" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G70" s="43">
         <v>585443</v>
@@ -4778,7 +4778,7 @@
         <v>58</v>
       </c>
       <c r="I70" s="61" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J70" s="23">
         <v>4.49</v>
@@ -4788,13 +4788,13 @@
         <v>17.96</v>
       </c>
       <c r="L70" s="28" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="M70" s="9"/>
     </row>
     <row r="71" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="21" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B71" s="39">
         <v>2</v>
@@ -4806,10 +4806,10 @@
         <v>1</v>
       </c>
       <c r="E71" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F71" s="39" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="G71" s="43">
         <v>585006</v>
@@ -4818,7 +4818,7 @@
         <v>58</v>
       </c>
       <c r="I71" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J71" s="23">
         <v>16.989999999999998</v>
@@ -4828,13 +4828,13 @@
         <v>33.979999999999997</v>
       </c>
       <c r="L71" s="28" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="M71" s="9"/>
     </row>
     <row r="72" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="21" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B72" s="39">
         <v>3</v>
@@ -4846,10 +4846,10 @@
         <v>1</v>
       </c>
       <c r="E72" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F72" s="39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G72" s="71">
         <v>585004</v>
@@ -4858,7 +4858,7 @@
         <v>58</v>
       </c>
       <c r="I72" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J72" s="23">
         <v>13.99</v>
@@ -4868,13 +4868,13 @@
         <v>41.97</v>
       </c>
       <c r="L72" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M72" s="9"/>
     </row>
     <row r="73" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="29" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B73" s="41">
         <v>4</v>
@@ -4886,10 +4886,10 @@
         <v>1</v>
       </c>
       <c r="E73" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F73" s="41" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="G73" s="47">
         <v>585444</v>
@@ -4898,7 +4898,7 @@
         <v>58</v>
       </c>
       <c r="I73" s="73" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="J73" s="23">
         <v>4.99</v>
@@ -4908,13 +4908,13 @@
         <v>19.96</v>
       </c>
       <c r="L73" s="28" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="M73" s="9"/>
     </row>
     <row r="74" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="21" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B74" s="39">
         <v>2</v>
@@ -4926,10 +4926,10 @@
         <v>1</v>
       </c>
       <c r="E74" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F74" s="39" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="G74" s="43">
         <v>585450</v>
@@ -4938,7 +4938,7 @@
         <v>58</v>
       </c>
       <c r="I74" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J74" s="23">
         <v>7.99</v>
@@ -4948,13 +4948,13 @@
         <v>15.98</v>
       </c>
       <c r="L74" s="28" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="M74" s="9"/>
     </row>
     <row r="75" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="21" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B75" s="39">
         <v>34</v>
@@ -4967,10 +4967,10 @@
         <v>2</v>
       </c>
       <c r="E75" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F75" s="39" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="G75" s="43">
         <v>545532</v>
@@ -4979,7 +4979,7 @@
         <v>58</v>
       </c>
       <c r="I75" s="61" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="J75" s="23">
         <v>3.99</v>
@@ -4989,13 +4989,13 @@
         <v>67.83</v>
       </c>
       <c r="L75" s="28" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="M75" s="9"/>
     </row>
     <row r="76" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="21" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B76" s="39">
         <v>8</v>
@@ -5007,10 +5007,10 @@
         <v>1</v>
       </c>
       <c r="E76" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F76" s="39" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="G76" s="43">
         <v>585592</v>
@@ -5019,7 +5019,7 @@
         <v>58</v>
       </c>
       <c r="I76" s="61" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="J76" s="23">
         <v>2.79</v>
@@ -5029,13 +5029,13 @@
         <v>22.32</v>
       </c>
       <c r="L76" s="28" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="M76" s="9"/>
     </row>
     <row r="77" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="21" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B77" s="39">
         <v>1</v>
@@ -5047,10 +5047,10 @@
         <v>1</v>
       </c>
       <c r="E77" s="39" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F77" s="39" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G77" s="43">
         <v>585468</v>
@@ -5059,7 +5059,7 @@
         <v>58</v>
       </c>
       <c r="I77" s="61" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="J77" s="23">
         <v>1.29</v>
@@ -5069,13 +5069,13 @@
         <v>1.29</v>
       </c>
       <c r="L77" s="28" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="M77" s="9"/>
     </row>
     <row r="78" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="21" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B78" s="41">
         <v>4</v>
@@ -5087,10 +5087,10 @@
         <v>1</v>
       </c>
       <c r="E78" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F78" s="41" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="G78" s="47">
         <v>555104</v>
@@ -5099,7 +5099,7 @@
         <v>58</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J78" s="23">
         <v>3.99</v>
@@ -5109,13 +5109,13 @@
         <v>15.96</v>
       </c>
       <c r="L78" s="30" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="M78" s="9"/>
     </row>
     <row r="79" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="29" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B79" s="41">
         <v>16</v>
@@ -5127,10 +5127,10 @@
         <v>4</v>
       </c>
       <c r="E79" s="41" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="F79" s="41" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="G79" s="48">
         <v>633126</v>
@@ -5139,7 +5139,7 @@
         <v>93</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="J79" s="23">
         <v>1.79</v>
@@ -5149,12 +5149,12 @@
         <v>7.16</v>
       </c>
       <c r="L79" s="30" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="80" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="21" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B80" s="39">
         <v>4</v>
@@ -5166,13 +5166,13 @@
         <v>1</v>
       </c>
       <c r="E80" s="39" t="s">
+        <v>254</v>
+      </c>
+      <c r="F80" s="39" t="s">
         <v>255</v>
       </c>
-      <c r="F80" s="39" t="s">
-        <v>256</v>
-      </c>
       <c r="G80" s="43" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="H80" s="60" t="s">
         <v>12</v>
@@ -5186,12 +5186,12 @@
         <v>27.2</v>
       </c>
       <c r="L80" s="28" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="21" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B81" s="39">
         <v>4</v>
@@ -5203,13 +5203,13 @@
         <v>1</v>
       </c>
       <c r="E81" s="39" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F81" s="74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="G81" s="43" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="H81" s="60" t="s">
         <v>12</v>
@@ -5223,12 +5223,12 @@
         <v>222</v>
       </c>
       <c r="L81" s="28" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B82" s="41">
         <v>1</v>
@@ -5246,7 +5246,7 @@
         <v>19</v>
       </c>
       <c r="G82" s="47" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="H82" s="41" t="s">
         <v>12</v>
@@ -5260,13 +5260,13 @@
         <v>6.32</v>
       </c>
       <c r="L82" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="M82" s="15"/>
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B83" s="41">
         <v>1</v>
@@ -5284,7 +5284,7 @@
         <v>19</v>
       </c>
       <c r="G83" s="43" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="H83" s="41" t="s">
         <v>12</v>
@@ -5298,12 +5298,12 @@
         <v>6.14</v>
       </c>
       <c r="L83" s="30" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B84" s="41">
         <v>1</v>
@@ -5321,7 +5321,7 @@
         <v>19</v>
       </c>
       <c r="G84" s="47" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="H84" s="41" t="s">
         <v>12</v>
@@ -5335,12 +5335,12 @@
         <v>4.95</v>
       </c>
       <c r="L84" s="41" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B85" s="41">
         <v>1</v>
@@ -5358,7 +5358,7 @@
         <v>19</v>
       </c>
       <c r="G85" s="47" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="H85" s="41" t="s">
         <v>12</v>
@@ -5372,12 +5372,12 @@
         <v>4.95</v>
       </c>
       <c r="L85" s="41" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B86" s="41">
         <v>1</v>
@@ -5395,7 +5395,7 @@
         <v>19</v>
       </c>
       <c r="G86" s="47" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="H86" s="41" t="s">
         <v>12</v>
@@ -5409,13 +5409,13 @@
         <v>4.95</v>
       </c>
       <c r="L86" s="41" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="M86" s="15"/>
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B87" s="41">
         <v>1</v>
@@ -5433,7 +5433,7 @@
         <v>19</v>
       </c>
       <c r="G87" s="47" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H87" s="41" t="s">
         <v>12</v>
@@ -5447,12 +5447,12 @@
         <v>4.95</v>
       </c>
       <c r="L87" s="41" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="76" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B88" s="41">
         <v>10</v>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="F88" s="41"/>
       <c r="G88" s="106" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="H88" s="41" t="s">
         <v>12</v>
@@ -5482,12 +5482,12 @@
         <v>3.67</v>
       </c>
       <c r="L88" s="77" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="78" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B89" s="72">
         <v>10</v>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="F89" s="72"/>
       <c r="G89" s="107" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="H89" s="72" t="s">
         <v>12</v>
@@ -5517,12 +5517,12 @@
         <v>0.4</v>
       </c>
       <c r="L89" s="80" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="81" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B90" s="82">
         <v>0</v>
@@ -5550,12 +5550,12 @@
         <v>0</v>
       </c>
       <c r="L90" s="82" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="81" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B91" s="82">
         <v>0</v>
@@ -5583,12 +5583,12 @@
         <v>0</v>
       </c>
       <c r="L91" s="86" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="87" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B92" s="72">
         <v>1</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="F92" s="72"/>
       <c r="G92" s="88" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="H92" s="72" t="s">
         <v>12</v>
@@ -5618,12 +5618,12 @@
         <v>7.99</v>
       </c>
       <c r="L92" s="89" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="87" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B93" s="72">
         <v>1</v>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="F93" s="72"/>
       <c r="G93" s="88" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="H93" s="72" t="s">
         <v>12</v>
@@ -5653,12 +5653,12 @@
         <v>15.59</v>
       </c>
       <c r="L93" s="89" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="87" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B94" s="72">
         <v>1</v>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="F94" s="72"/>
       <c r="G94" s="88" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="H94" s="72" t="s">
         <v>12</v>
@@ -5688,12 +5688,12 @@
         <v>12.56</v>
       </c>
       <c r="L94" s="90" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="87" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B95" s="72">
         <v>1</v>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="F95" s="72"/>
       <c r="G95" s="88" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="H95" s="72" t="s">
         <v>12</v>
@@ -5723,12 +5723,12 @@
         <v>15.59</v>
       </c>
       <c r="L95" s="89" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="87" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B96" s="72">
         <v>1</v>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="F96" s="72"/>
       <c r="G96" s="88" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="H96" s="72" t="s">
         <v>12</v>
@@ -5758,7 +5758,7 @@
         <v>15.59</v>
       </c>
       <c r="L96" s="89" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="F97" s="63"/>
       <c r="G97" s="68" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="H97" s="63" t="s">
         <v>12</v>
@@ -5793,7 +5793,7 @@
         <v>19.75</v>
       </c>
       <c r="L97" s="69" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5975,7 +5975,7 @@
     </row>
     <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="31" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B103" s="42">
         <v>25</v>
@@ -5990,16 +5990,16 @@
         <v>90</v>
       </c>
       <c r="F103" s="42" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="G103" s="108" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H103" s="49" t="s">
         <v>93</v>
       </c>
       <c r="I103" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J103" s="33">
         <v>3.78</v>
@@ -6009,12 +6009,12 @@
         <v>3.78</v>
       </c>
       <c r="L103" s="103" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="34" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B104" s="42">
         <v>4</v>
@@ -6029,16 +6029,16 @@
         <v>90</v>
       </c>
       <c r="F104" s="42" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G104" s="50" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="H104" s="51" t="s">
         <v>93</v>
       </c>
       <c r="I104" s="32" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="J104" s="33">
         <v>0.96</v>
@@ -6048,12 +6048,12 @@
         <v>3.84</v>
       </c>
       <c r="L104" s="103" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
     </row>
     <row r="105" spans="1:12" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="34" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B105" s="42">
         <v>1</v>
@@ -6065,10 +6065,10 @@
         <v>1</v>
       </c>
       <c r="E105" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="F105" s="42" t="s">
         <v>341</v>
-      </c>
-      <c r="F105" s="42" t="s">
-        <v>342</v>
       </c>
       <c r="G105" s="104"/>
       <c r="H105" s="51" t="s">
@@ -6083,12 +6083,12 @@
         <v>11.75</v>
       </c>
       <c r="L105" s="103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="106" spans="1:12" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="34" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B106" s="42">
         <v>1</v>
@@ -6100,10 +6100,10 @@
         <v>1</v>
       </c>
       <c r="E106" s="42" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="F106" s="42" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G106" s="104"/>
       <c r="H106" s="51" t="s">
@@ -6118,7 +6118,7 @@
         <v>15.25</v>
       </c>
       <c r="L106" s="103" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6149,7 +6149,7 @@
       <c r="C109" s="17"/>
       <c r="D109" s="18"/>
       <c r="E109" s="20" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F109" s="20">
         <v>10</v>
@@ -6166,7 +6166,7 @@
       <c r="C110" s="17"/>
       <c r="D110" s="18"/>
       <c r="E110" s="20" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F110" s="20">
         <v>10</v>
@@ -15660,7 +15660,7 @@
     <hyperlink ref="L21" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
     <hyperlink ref="L22" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
     <hyperlink ref="L26" r:id="rId15" location="90631A007" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="L37" r:id="rId16" location="368=229" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
+    <hyperlink ref="L37" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
     <hyperlink ref="L38" r:id="rId17" location="48925k93/=18nja2z" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
     <hyperlink ref="L44" r:id="rId18" location="95947A007" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
     <hyperlink ref="L46" r:id="rId19" location="92141A005" xr:uid="{00000000-0004-0000-0000-000012000000}"/>

--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cox/Documents/open source rover/osr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/fork/open-source-rover/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ECEBFA-672B-4342-96F7-6ECD47783B6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B54E9ECE-428B-A34D-93CD-4ED4A178D56A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57180" yWindow="2360" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -799,18 +799,12 @@
     <t>E7</t>
   </si>
   <si>
-    <t>Black Wire 30AWG</t>
-  </si>
-  <si>
     <t>C2003B-50-ND</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/general-cable-carol-brand/C2003A.11.01/C2003B-50-ND/5226402</t>
   </si>
   <si>
-    <t>Red Wire 30AWG</t>
-  </si>
-  <si>
     <t>C2015R-50-ND</t>
   </si>
   <si>
@@ -1118,6 +1112,12 @@
   </si>
   <si>
     <t>https://www.mcmaster.com/6157k14</t>
+  </si>
+  <si>
+    <t>Red Wire 24AWG</t>
+  </si>
+  <si>
+    <t>Black Wire 24AWG</t>
   </si>
 </sst>
 </file>
@@ -2010,8 +2010,8 @@
   <dimension ref="A1:AA970"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
+      <pane ySplit="4" topLeftCell="A70" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A83" sqref="A83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2035,7 +2035,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="109" customFormat="1" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -2051,7 +2051,7 @@
     </row>
     <row r="2" spans="1:27" s="111" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="127" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="127"/>
@@ -2062,7 +2062,7 @@
       <c r="H2" s="114"/>
       <c r="I2" s="114"/>
       <c r="J2" s="119" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K2" s="120">
         <f>SUM(K5:K150)</f>
@@ -2072,7 +2072,7 @@
     </row>
     <row r="3" spans="1:27" s="111" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="115" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B3" s="115"/>
       <c r="C3" s="115"/>
@@ -2110,7 +2110,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>7</v>
@@ -2445,7 +2445,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J12" s="23">
         <v>9.25</v>
@@ -2616,7 +2616,7 @@
     </row>
     <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B17" s="39">
         <v>25</v>
@@ -2634,7 +2634,7 @@
         <v>74</v>
       </c>
       <c r="G17" s="116" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>12</v>
@@ -2648,13 +2648,13 @@
         <v>0.72</v>
       </c>
       <c r="L17" s="117" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B18" s="39">
         <v>25</v>
@@ -2672,7 +2672,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="116" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>12</v>
@@ -2686,7 +2686,7 @@
         <v>0.72</v>
       </c>
       <c r="L18" s="110" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2762,7 +2762,7 @@
         <v>4.49</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2792,7 +2792,7 @@
         <v>58</v>
       </c>
       <c r="I21" s="61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J21" s="23">
         <v>25.27</v>
@@ -2832,7 +2832,7 @@
         <v>58</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J22" s="23">
         <v>12.9</v>
@@ -2872,7 +2872,7 @@
         <v>58</v>
       </c>
       <c r="I23" s="61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J23" s="23">
         <f>38.9+36.9</f>
@@ -2889,7 +2889,7 @@
     </row>
     <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B24" s="39">
         <v>300</v>
@@ -2914,7 +2914,7 @@
         <v>93</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J24" s="23">
         <v>3.45</v>
@@ -2954,7 +2954,7 @@
         <v>93</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J25" s="23">
         <v>5.61</v>
@@ -2998,7 +2998,7 @@
         <v>93</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J26" s="23">
         <v>2.72</v>
@@ -3041,7 +3041,7 @@
         <v>93</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J27" s="23">
         <v>2.79</v>
@@ -3060,7 +3060,7 @@
     </row>
     <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B28" s="39">
         <v>100</v>
@@ -3085,7 +3085,7 @@
         <v>93</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J28" s="23">
         <v>3.72</v>
@@ -3095,7 +3095,7 @@
         <v>3.72</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M28" s="9"/>
       <c r="Y28" s="9"/>
@@ -3104,7 +3104,7 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B29" s="39">
         <v>100</v>
@@ -3128,7 +3128,7 @@
         <v>93</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J29" s="23">
         <v>3.72</v>
@@ -3138,7 +3138,7 @@
         <v>3.72</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M29" s="9"/>
       <c r="Y29" s="9"/>
@@ -3147,7 +3147,7 @@
     </row>
     <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B30" s="41">
         <v>100</v>
@@ -3171,7 +3171,7 @@
         <v>93</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J30" s="23">
         <v>4.07</v>
@@ -3181,13 +3181,13 @@
         <v>4.07</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B31" s="41">
         <v>100</v>
@@ -3211,7 +3211,7 @@
         <v>93</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J31" s="23">
         <v>4.41</v>
@@ -3221,13 +3221,13 @@
         <v>4.41</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B32" s="41">
         <v>50</v>
@@ -3251,7 +3251,7 @@
         <v>93</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J32" s="23">
         <v>5.42</v>
@@ -3261,13 +3261,13 @@
         <v>5.42</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B33" s="39">
         <v>50</v>
@@ -3291,7 +3291,7 @@
         <v>93</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J33" s="23">
         <v>6.51</v>
@@ -3301,13 +3301,13 @@
         <v>6.51</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B34" s="39">
         <v>100</v>
@@ -3331,7 +3331,7 @@
         <v>93</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J34" s="23">
         <v>2.87</v>
@@ -3347,7 +3347,7 @@
     </row>
     <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B35" s="41">
         <v>100</v>
@@ -3371,7 +3371,7 @@
         <v>93</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J35" s="23">
         <v>7.7</v>
@@ -3381,7 +3381,7 @@
         <v>7.7</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M35" s="9"/>
     </row>
@@ -3405,13 +3405,13 @@
         <v>126</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H36" s="39" t="s">
         <v>58</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J36" s="23">
         <v>23.16</v>
@@ -3421,7 +3421,7 @@
         <v>23.16</v>
       </c>
       <c r="L36" s="110" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M36" s="9"/>
     </row>
@@ -3451,7 +3451,7 @@
         <v>58</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J37" s="23">
         <v>2.72</v>
@@ -3461,7 +3461,7 @@
         <v>29.92</v>
       </c>
       <c r="L37" s="110" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M37" s="9"/>
     </row>
@@ -3491,7 +3491,7 @@
         <v>58</v>
       </c>
       <c r="I38" s="61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J38" s="23">
         <v>4.92</v>
@@ -3531,7 +3531,7 @@
         <v>93</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J39" s="23">
         <v>0.23</v>
@@ -3571,7 +3571,7 @@
         <v>93</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J40" s="23">
         <v>0.3</v>
@@ -3612,7 +3612,7 @@
         <v>93</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J41" s="23">
         <v>0.23</v>
@@ -3652,7 +3652,7 @@
         <v>93</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J42" s="23">
         <v>0.27</v>
@@ -3695,7 +3695,7 @@
         <v>93</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J43" s="23">
         <v>0.37</v>
@@ -3738,7 +3738,7 @@
         <v>93</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J44" s="23">
         <v>0.48</v>
@@ -3781,7 +3781,7 @@
         <v>93</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J45" s="23">
         <v>1.17</v>
@@ -3824,7 +3824,7 @@
         <v>93</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J46" s="23">
         <v>1.4</v>
@@ -3864,7 +3864,7 @@
         <v>93</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J47" s="23">
         <v>2.4700000000000002</v>
@@ -3956,7 +3956,7 @@
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B50" s="39">
         <v>6</v>
@@ -3988,7 +3988,7 @@
         <v>209.70000000000002</v>
       </c>
       <c r="L50" s="110" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M50" s="9">
         <v>0</v>
@@ -4028,7 +4028,7 @@
         <v>79.8</v>
       </c>
       <c r="L51" s="110" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M51" s="9"/>
     </row>
@@ -4058,7 +4058,7 @@
         <v>58</v>
       </c>
       <c r="I52" s="61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J52" s="23">
         <v>2.99</v>
@@ -4098,7 +4098,7 @@
         <v>58</v>
       </c>
       <c r="I53" s="61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J53" s="23">
         <v>5.99</v>
@@ -4138,7 +4138,7 @@
         <v>58</v>
       </c>
       <c r="I54" s="61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J54" s="23">
         <v>6.99</v>
@@ -4178,7 +4178,7 @@
         <v>58</v>
       </c>
       <c r="I55" s="61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J55" s="23">
         <v>5.99</v>
@@ -4218,7 +4218,7 @@
         <v>58</v>
       </c>
       <c r="I56" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J56" s="23">
         <v>5.99</v>
@@ -4258,7 +4258,7 @@
         <v>58</v>
       </c>
       <c r="I57" s="61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J57" s="23">
         <v>5.99</v>
@@ -4298,7 +4298,7 @@
         <v>58</v>
       </c>
       <c r="I58" s="61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J58" s="23">
         <v>1.49</v>
@@ -4338,7 +4338,7 @@
         <v>58</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J59" s="23">
         <v>5.99</v>
@@ -4378,7 +4378,7 @@
         <v>58</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J60" s="23">
         <v>2.09</v>
@@ -4418,7 +4418,7 @@
         <v>58</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J61" s="23">
         <v>1.49</v>
@@ -4458,7 +4458,7 @@
         <v>58</v>
       </c>
       <c r="I62" s="61" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J62" s="23">
         <v>3.99</v>
@@ -4498,7 +4498,7 @@
         <v>58</v>
       </c>
       <c r="I63" s="61" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J63" s="23">
         <v>5.99</v>
@@ -4538,7 +4538,7 @@
         <v>58</v>
       </c>
       <c r="I64" s="61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J64" s="23">
         <v>2.39</v>
@@ -4578,7 +4578,7 @@
         <v>58</v>
       </c>
       <c r="I65" s="61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J65" s="23">
         <v>4.99</v>
@@ -4618,7 +4618,7 @@
         <v>58</v>
       </c>
       <c r="I66" s="61" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J66" s="23">
         <v>9.99</v>
@@ -4658,7 +4658,7 @@
         <v>58</v>
       </c>
       <c r="I67" s="61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J67" s="23">
         <v>5.99</v>
@@ -4698,7 +4698,7 @@
         <v>58</v>
       </c>
       <c r="I68" s="61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J68" s="23">
         <v>3.69</v>
@@ -4738,7 +4738,7 @@
         <v>58</v>
       </c>
       <c r="I69" s="61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J69" s="23">
         <v>7.99</v>
@@ -4778,7 +4778,7 @@
         <v>58</v>
       </c>
       <c r="I70" s="61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J70" s="23">
         <v>4.49</v>
@@ -4818,7 +4818,7 @@
         <v>58</v>
       </c>
       <c r="I71" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J71" s="23">
         <v>16.989999999999998</v>
@@ -4858,7 +4858,7 @@
         <v>58</v>
       </c>
       <c r="I72" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J72" s="23">
         <v>13.99</v>
@@ -4898,7 +4898,7 @@
         <v>58</v>
       </c>
       <c r="I73" s="73" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J73" s="23">
         <v>4.99</v>
@@ -4938,7 +4938,7 @@
         <v>58</v>
       </c>
       <c r="I74" s="61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J74" s="23">
         <v>7.99</v>
@@ -4979,7 +4979,7 @@
         <v>58</v>
       </c>
       <c r="I75" s="61" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J75" s="23">
         <v>3.99</v>
@@ -5019,7 +5019,7 @@
         <v>58</v>
       </c>
       <c r="I76" s="61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J76" s="23">
         <v>2.79</v>
@@ -5059,7 +5059,7 @@
         <v>58</v>
       </c>
       <c r="I77" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J77" s="23">
         <v>1.29</v>
@@ -5099,7 +5099,7 @@
         <v>58</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J78" s="23">
         <v>3.99</v>
@@ -5139,7 +5139,7 @@
         <v>93</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J79" s="23">
         <v>1.79</v>
@@ -5172,7 +5172,7 @@
         <v>255</v>
       </c>
       <c r="G80" s="43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H80" s="60" t="s">
         <v>12</v>
@@ -5209,7 +5209,7 @@
         <v>257</v>
       </c>
       <c r="G81" s="43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H81" s="60" t="s">
         <v>12</v>
@@ -5228,7 +5228,7 @@
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="21" t="s">
-        <v>258</v>
+        <v>364</v>
       </c>
       <c r="B82" s="41">
         <v>1</v>
@@ -5246,7 +5246,7 @@
         <v>19</v>
       </c>
       <c r="G82" s="47" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="H82" s="41" t="s">
         <v>12</v>
@@ -5260,13 +5260,13 @@
         <v>6.32</v>
       </c>
       <c r="L82" s="30" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="M82" s="15"/>
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>261</v>
+        <v>363</v>
       </c>
       <c r="B83" s="41">
         <v>1</v>
@@ -5284,7 +5284,7 @@
         <v>19</v>
       </c>
       <c r="G83" s="43" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="H83" s="41" t="s">
         <v>12</v>
@@ -5298,12 +5298,12 @@
         <v>6.14</v>
       </c>
       <c r="L83" s="30" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B84" s="41">
         <v>1</v>
@@ -5321,7 +5321,7 @@
         <v>19</v>
       </c>
       <c r="G84" s="47" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H84" s="41" t="s">
         <v>12</v>
@@ -5335,12 +5335,12 @@
         <v>4.95</v>
       </c>
       <c r="L84" s="41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B85" s="41">
         <v>1</v>
@@ -5358,7 +5358,7 @@
         <v>19</v>
       </c>
       <c r="G85" s="47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H85" s="41" t="s">
         <v>12</v>
@@ -5372,12 +5372,12 @@
         <v>4.95</v>
       </c>
       <c r="L85" s="41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B86" s="41">
         <v>1</v>
@@ -5395,7 +5395,7 @@
         <v>19</v>
       </c>
       <c r="G86" s="47" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H86" s="41" t="s">
         <v>12</v>
@@ -5409,13 +5409,13 @@
         <v>4.95</v>
       </c>
       <c r="L86" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M86" s="15"/>
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B87" s="41">
         <v>1</v>
@@ -5433,7 +5433,7 @@
         <v>19</v>
       </c>
       <c r="G87" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H87" s="41" t="s">
         <v>12</v>
@@ -5447,12 +5447,12 @@
         <v>4.95</v>
       </c>
       <c r="L87" s="41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="76" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B88" s="41">
         <v>10</v>
@@ -5468,7 +5468,7 @@
       </c>
       <c r="F88" s="41"/>
       <c r="G88" s="106" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H88" s="41" t="s">
         <v>12</v>
@@ -5482,12 +5482,12 @@
         <v>3.67</v>
       </c>
       <c r="L88" s="77" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="78" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B89" s="72">
         <v>10</v>
@@ -5503,7 +5503,7 @@
       </c>
       <c r="F89" s="72"/>
       <c r="G89" s="107" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H89" s="72" t="s">
         <v>12</v>
@@ -5517,12 +5517,12 @@
         <v>0.4</v>
       </c>
       <c r="L89" s="80" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="81" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B90" s="82">
         <v>0</v>
@@ -5550,12 +5550,12 @@
         <v>0</v>
       </c>
       <c r="L90" s="82" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="81" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B91" s="82">
         <v>0</v>
@@ -5583,12 +5583,12 @@
         <v>0</v>
       </c>
       <c r="L91" s="86" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="87" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B92" s="72">
         <v>1</v>
@@ -5604,7 +5604,7 @@
       </c>
       <c r="F92" s="72"/>
       <c r="G92" s="88" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H92" s="72" t="s">
         <v>12</v>
@@ -5618,12 +5618,12 @@
         <v>7.99</v>
       </c>
       <c r="L92" s="89" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="87" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B93" s="72">
         <v>1</v>
@@ -5639,7 +5639,7 @@
       </c>
       <c r="F93" s="72"/>
       <c r="G93" s="88" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H93" s="72" t="s">
         <v>12</v>
@@ -5653,12 +5653,12 @@
         <v>15.59</v>
       </c>
       <c r="L93" s="89" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="87" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B94" s="72">
         <v>1</v>
@@ -5674,7 +5674,7 @@
       </c>
       <c r="F94" s="72"/>
       <c r="G94" s="88" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H94" s="72" t="s">
         <v>12</v>
@@ -5688,12 +5688,12 @@
         <v>12.56</v>
       </c>
       <c r="L94" s="90" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="87" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B95" s="72">
         <v>1</v>
@@ -5709,7 +5709,7 @@
       </c>
       <c r="F95" s="72"/>
       <c r="G95" s="88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H95" s="72" t="s">
         <v>12</v>
@@ -5723,12 +5723,12 @@
         <v>15.59</v>
       </c>
       <c r="L95" s="89" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="87" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B96" s="72">
         <v>1</v>
@@ -5744,7 +5744,7 @@
       </c>
       <c r="F96" s="72"/>
       <c r="G96" s="88" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H96" s="72" t="s">
         <v>12</v>
@@ -5758,7 +5758,7 @@
         <v>15.59</v>
       </c>
       <c r="L96" s="89" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5779,7 +5779,7 @@
       </c>
       <c r="F97" s="63"/>
       <c r="G97" s="68" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H97" s="63" t="s">
         <v>12</v>
@@ -5793,7 +5793,7 @@
         <v>19.75</v>
       </c>
       <c r="L97" s="69" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5975,7 +5975,7 @@
     </row>
     <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B103" s="42">
         <v>25</v>
@@ -5990,16 +5990,16 @@
         <v>90</v>
       </c>
       <c r="F103" s="42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G103" s="108" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H103" s="49" t="s">
         <v>93</v>
       </c>
       <c r="I103" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J103" s="33">
         <v>3.78</v>
@@ -6009,12 +6009,12 @@
         <v>3.78</v>
       </c>
       <c r="L103" s="103" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="34" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B104" s="42">
         <v>4</v>
@@ -6029,16 +6029,16 @@
         <v>90</v>
       </c>
       <c r="F104" s="42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G104" s="50" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H104" s="51" t="s">
         <v>93</v>
       </c>
       <c r="I104" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J104" s="33">
         <v>0.96</v>
@@ -6048,12 +6048,12 @@
         <v>3.84</v>
       </c>
       <c r="L104" s="103" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:12" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="34" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B105" s="42">
         <v>1</v>
@@ -6065,10 +6065,10 @@
         <v>1</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F105" s="42" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G105" s="104"/>
       <c r="H105" s="51" t="s">
@@ -6083,12 +6083,12 @@
         <v>11.75</v>
       </c>
       <c r="L105" s="103" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="106" spans="1:12" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="34" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B106" s="42">
         <v>1</v>
@@ -6100,7 +6100,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="42" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F106" s="42" t="s">
         <v>169</v>
@@ -6118,7 +6118,7 @@
         <v>15.25</v>
       </c>
       <c r="L106" s="103" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6149,7 +6149,7 @@
       <c r="C109" s="17"/>
       <c r="D109" s="18"/>
       <c r="E109" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F109" s="20">
         <v>10</v>
@@ -6166,7 +6166,7 @@
       <c r="C110" s="17"/>
       <c r="D110" s="18"/>
       <c r="E110" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F110" s="20">
         <v>10</v>

--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11015"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cox/Documents/open source rover/osr/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/fork/open-source-rover/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97ECEBFA-672B-4342-96F7-6ECD47783B6B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1247A89-427C-6F4B-B4EE-0B5AD6967518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="57180" yWindow="2360" windowWidth="33600" windowHeight="19560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="365">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="366">
   <si>
     <t>Part</t>
   </si>
@@ -1118,6 +1118,9 @@
   </si>
   <si>
     <t>https://www.mcmaster.com/6157k14</t>
+  </si>
+  <si>
+    <t>4.50” Aluminum Channel</t>
   </si>
 </sst>
 </file>
@@ -2009,9 +2012,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA970"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L32" sqref="L32"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -4907,8 +4910,8 @@
         <f t="shared" si="2"/>
         <v>19.96</v>
       </c>
-      <c r="L73" s="28" t="s">
-        <v>234</v>
+      <c r="L73" s="110" t="s">
+        <v>365</v>
       </c>
       <c r="M73" s="9"/>
     </row>
@@ -15708,29 +15711,29 @@
     <hyperlink ref="L100" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
     <hyperlink ref="L101" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
     <hyperlink ref="L102" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="L73" r:id="rId64" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
-    <hyperlink ref="L24" r:id="rId65" location="92949a144/=18njs1n" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="L30" r:id="rId66" location="92949A150" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="L34" r:id="rId67" location="92949a106/=18njrx6" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="L104" r:id="rId68" location="93330A252" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="L27" r:id="rId69" location="90631A005" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="L28" r:id="rId70" location="92949A146" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="L29" r:id="rId71" location="92949A148" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="L31" r:id="rId72" location="92949A151" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="L32" r:id="rId73" location="92949A153" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="L33" r:id="rId74" location="92949A160" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="L39" r:id="rId75" location="92510A442" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="L41" r:id="rId76" location="91780A162" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="L42" r:id="rId77" location="91780A164" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="L43" r:id="rId78" location="91780A166" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="L47" r:id="rId79" location="91545A280" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="L45" r:id="rId80" location="92141A008" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="L105" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="L106" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="L91" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="L17" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="L18" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="L50" r:id="rId86" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="L24" r:id="rId64" location="92949a144/=18njs1n" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="L30" r:id="rId65" location="92949A150" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="L34" r:id="rId66" location="92949a106/=18njrx6" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="L104" r:id="rId67" location="93330A252" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="L27" r:id="rId68" location="90631A005" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="L28" r:id="rId69" location="92949A146" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="L29" r:id="rId70" location="92949A148" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="L31" r:id="rId71" location="92949A151" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="L32" r:id="rId72" location="92949A153" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="L33" r:id="rId73" location="92949A160" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="L39" r:id="rId74" location="92510A442" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="L41" r:id="rId75" location="91780A162" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="L42" r:id="rId76" location="91780A164" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="L43" r:id="rId77" location="91780A166" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="L47" r:id="rId78" location="91545A280" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="L45" r:id="rId79" location="92141A008" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="L105" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="L106" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="L91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="L17" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="L18" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="L50" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="L73" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId87"/>

--- a/osr_Master_parts_list.xlsx
+++ b/osr_Master_parts_list.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10910"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11110"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kevin/Desktop/fork/open-source-rover/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cox/Documents/open source rover/osr/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1247A89-427C-6F4B-B4EE-0B5AD6967518}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16577C81-4F95-C048-8CB1-AD562E6F0D6E}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="440" windowWidth="25600" windowHeight="13900" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="55300" yWindow="3140" windowWidth="37400" windowHeight="22880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -805,18 +805,12 @@
     <t>C2003B-50-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/general-cable-carol-brand/C2003A.11.01/C2003B-50-ND/5226402</t>
-  </si>
-  <si>
     <t>Red Wire 30AWG</t>
   </si>
   <si>
     <t>C2015R-50-ND</t>
   </si>
   <si>
-    <t>https://www.digikey.com/product-detail/en/general-cable-carol-brand/C2015A.11.03/C2015R-50-ND/5226390</t>
-  </si>
-  <si>
     <t>White Wire 30AWG</t>
   </si>
   <si>
@@ -1121,6 +1115,12 @@
   </si>
   <si>
     <t>4.50” Aluminum Channel</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/adafruit-industries-llc/3165/1528-1733-ND/6193585</t>
+  </si>
+  <si>
+    <t>https://www.digikey.com/product-detail/en/adafruit-industries-llc/3164/1528-1732-ND/6193584</t>
   </si>
 </sst>
 </file>
@@ -1383,7 +1383,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="44" fontId="16" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="128">
+  <cellXfs count="129">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1728,6 +1728,9 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Currency" xfId="2" builtinId="4"/>
@@ -2012,9 +2015,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AA970"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A67" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G73" sqref="G73"/>
+      <selection pane="bottomLeft" activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -2038,7 +2041,7 @@
   <sheetData>
     <row r="1" spans="1:27" s="109" customFormat="1" ht="32.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="123" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B1" s="124"/>
       <c r="C1" s="124"/>
@@ -2054,7 +2057,7 @@
     </row>
     <row r="2" spans="1:27" s="111" customFormat="1" ht="27.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="127" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B2" s="127"/>
       <c r="C2" s="127"/>
@@ -2065,17 +2068,17 @@
       <c r="H2" s="114"/>
       <c r="I2" s="114"/>
       <c r="J2" s="119" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="K2" s="120">
         <f>SUM(K5:K150)</f>
-        <v>2501.36</v>
+        <v>2498.7999999999997</v>
       </c>
       <c r="L2" s="114"/>
     </row>
     <row r="3" spans="1:27" s="111" customFormat="1" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="115" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B3" s="115"/>
       <c r="C3" s="115"/>
@@ -2113,7 +2116,7 @@
         <v>6</v>
       </c>
       <c r="I4" s="4" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="J4" s="2" t="s">
         <v>7</v>
@@ -2448,7 +2451,7 @@
         <v>58</v>
       </c>
       <c r="I12" s="61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J12" s="23">
         <v>9.25</v>
@@ -2619,7 +2622,7 @@
     </row>
     <row r="17" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="21" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B17" s="39">
         <v>25</v>
@@ -2637,7 +2640,7 @@
         <v>74</v>
       </c>
       <c r="G17" s="116" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H17" s="39" t="s">
         <v>12</v>
@@ -2651,13 +2654,13 @@
         <v>0.72</v>
       </c>
       <c r="L17" s="117" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="M17" s="9"/>
     </row>
     <row r="18" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="21" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B18" s="39">
         <v>25</v>
@@ -2675,7 +2678,7 @@
         <v>53</v>
       </c>
       <c r="G18" s="116" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="H18" s="39" t="s">
         <v>12</v>
@@ -2689,7 +2692,7 @@
         <v>0.72</v>
       </c>
       <c r="L18" s="110" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="M18" s="9"/>
     </row>
@@ -2765,7 +2768,7 @@
         <v>4.49</v>
       </c>
       <c r="L20" s="30" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="M20" s="9"/>
     </row>
@@ -2795,7 +2798,7 @@
         <v>58</v>
       </c>
       <c r="I21" s="61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J21" s="23">
         <v>25.27</v>
@@ -2835,7 +2838,7 @@
         <v>58</v>
       </c>
       <c r="I22" s="61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J22" s="23">
         <v>12.9</v>
@@ -2875,7 +2878,7 @@
         <v>58</v>
       </c>
       <c r="I23" s="61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J23" s="23">
         <f>38.9+36.9</f>
@@ -2892,7 +2895,7 @@
     </row>
     <row r="24" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="21" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B24" s="39">
         <v>300</v>
@@ -2917,7 +2920,7 @@
         <v>93</v>
       </c>
       <c r="I24" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J24" s="23">
         <v>3.45</v>
@@ -2957,7 +2960,7 @@
         <v>93</v>
       </c>
       <c r="I25" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J25" s="23">
         <v>5.61</v>
@@ -3001,7 +3004,7 @@
         <v>93</v>
       </c>
       <c r="I26" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J26" s="23">
         <v>2.72</v>
@@ -3044,7 +3047,7 @@
         <v>93</v>
       </c>
       <c r="I27" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J27" s="23">
         <v>2.79</v>
@@ -3063,7 +3066,7 @@
     </row>
     <row r="28" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="21" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B28" s="39">
         <v>100</v>
@@ -3088,7 +3091,7 @@
         <v>93</v>
       </c>
       <c r="I28" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J28" s="23">
         <v>3.72</v>
@@ -3098,7 +3101,7 @@
         <v>3.72</v>
       </c>
       <c r="L28" s="27" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="M28" s="9"/>
       <c r="Y28" s="9"/>
@@ -3107,7 +3110,7 @@
     </row>
     <row r="29" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="21" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B29" s="39">
         <v>100</v>
@@ -3131,7 +3134,7 @@
         <v>93</v>
       </c>
       <c r="I29" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J29" s="23">
         <v>3.72</v>
@@ -3141,7 +3144,7 @@
         <v>3.72</v>
       </c>
       <c r="L29" s="27" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="M29" s="9"/>
       <c r="Y29" s="9"/>
@@ -3150,7 +3153,7 @@
     </row>
     <row r="30" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="21" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B30" s="41">
         <v>100</v>
@@ -3174,7 +3177,7 @@
         <v>93</v>
       </c>
       <c r="I30" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J30" s="23">
         <v>4.07</v>
@@ -3184,13 +3187,13 @@
         <v>4.07</v>
       </c>
       <c r="L30" s="26" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="M30" s="9"/>
     </row>
     <row r="31" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="21" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B31" s="41">
         <v>100</v>
@@ -3214,7 +3217,7 @@
         <v>93</v>
       </c>
       <c r="I31" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J31" s="23">
         <v>4.41</v>
@@ -3224,13 +3227,13 @@
         <v>4.41</v>
       </c>
       <c r="L31" s="26" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="M31" s="9"/>
     </row>
     <row r="32" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="21" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B32" s="41">
         <v>50</v>
@@ -3254,7 +3257,7 @@
         <v>93</v>
       </c>
       <c r="I32" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J32" s="23">
         <v>5.42</v>
@@ -3264,13 +3267,13 @@
         <v>5.42</v>
       </c>
       <c r="L32" s="26" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="M32" s="9"/>
     </row>
     <row r="33" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="21" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B33" s="39">
         <v>50</v>
@@ -3294,7 +3297,7 @@
         <v>93</v>
       </c>
       <c r="I33" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J33" s="23">
         <v>6.51</v>
@@ -3304,13 +3307,13 @@
         <v>6.51</v>
       </c>
       <c r="L33" s="27" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="M33" s="9"/>
     </row>
     <row r="34" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="21" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B34" s="39">
         <v>100</v>
@@ -3334,7 +3337,7 @@
         <v>93</v>
       </c>
       <c r="I34" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J34" s="23">
         <v>2.87</v>
@@ -3350,7 +3353,7 @@
     </row>
     <row r="35" spans="1:27" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="21" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B35" s="41">
         <v>100</v>
@@ -3374,7 +3377,7 @@
         <v>93</v>
       </c>
       <c r="I35" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J35" s="23">
         <v>7.7</v>
@@ -3384,7 +3387,7 @@
         <v>7.7</v>
       </c>
       <c r="L35" s="26" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="M35" s="9"/>
     </row>
@@ -3408,13 +3411,13 @@
         <v>126</v>
       </c>
       <c r="G36" s="43" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="H36" s="39" t="s">
         <v>58</v>
       </c>
       <c r="I36" s="22" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J36" s="23">
         <v>23.16</v>
@@ -3424,7 +3427,7 @@
         <v>23.16</v>
       </c>
       <c r="L36" s="110" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="M36" s="9"/>
     </row>
@@ -3454,7 +3457,7 @@
         <v>58</v>
       </c>
       <c r="I37" s="61" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="J37" s="23">
         <v>2.72</v>
@@ -3464,7 +3467,7 @@
         <v>29.92</v>
       </c>
       <c r="L37" s="110" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="M37" s="9"/>
     </row>
@@ -3494,7 +3497,7 @@
         <v>58</v>
       </c>
       <c r="I38" s="61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J38" s="23">
         <v>4.92</v>
@@ -3534,7 +3537,7 @@
         <v>93</v>
       </c>
       <c r="I39" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J39" s="23">
         <v>0.23</v>
@@ -3574,7 +3577,7 @@
         <v>93</v>
       </c>
       <c r="I40" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J40" s="23">
         <v>0.3</v>
@@ -3615,7 +3618,7 @@
         <v>93</v>
       </c>
       <c r="I41" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J41" s="23">
         <v>0.23</v>
@@ -3655,7 +3658,7 @@
         <v>93</v>
       </c>
       <c r="I42" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J42" s="23">
         <v>0.27</v>
@@ -3698,7 +3701,7 @@
         <v>93</v>
       </c>
       <c r="I43" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J43" s="23">
         <v>0.37</v>
@@ -3741,7 +3744,7 @@
         <v>93</v>
       </c>
       <c r="I44" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J44" s="23">
         <v>0.48</v>
@@ -3784,7 +3787,7 @@
         <v>93</v>
       </c>
       <c r="I45" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J45" s="23">
         <v>1.17</v>
@@ -3827,7 +3830,7 @@
         <v>93</v>
       </c>
       <c r="I46" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J46" s="23">
         <v>1.4</v>
@@ -3867,7 +3870,7 @@
         <v>93</v>
       </c>
       <c r="I47" s="22" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J47" s="23">
         <v>2.4700000000000002</v>
@@ -3959,7 +3962,7 @@
     </row>
     <row r="50" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="21" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B50" s="39">
         <v>6</v>
@@ -3991,7 +3994,7 @@
         <v>209.70000000000002</v>
       </c>
       <c r="L50" s="110" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="M50" s="9">
         <v>0</v>
@@ -4031,7 +4034,7 @@
         <v>79.8</v>
       </c>
       <c r="L51" s="110" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="M51" s="9"/>
     </row>
@@ -4061,7 +4064,7 @@
         <v>58</v>
       </c>
       <c r="I52" s="61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J52" s="23">
         <v>2.99</v>
@@ -4101,7 +4104,7 @@
         <v>58</v>
       </c>
       <c r="I53" s="61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J53" s="23">
         <v>5.99</v>
@@ -4141,7 +4144,7 @@
         <v>58</v>
       </c>
       <c r="I54" s="61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J54" s="23">
         <v>6.99</v>
@@ -4181,7 +4184,7 @@
         <v>58</v>
       </c>
       <c r="I55" s="61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J55" s="23">
         <v>5.99</v>
@@ -4221,7 +4224,7 @@
         <v>58</v>
       </c>
       <c r="I56" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J56" s="23">
         <v>5.99</v>
@@ -4261,7 +4264,7 @@
         <v>58</v>
       </c>
       <c r="I57" s="61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J57" s="23">
         <v>5.99</v>
@@ -4301,7 +4304,7 @@
         <v>58</v>
       </c>
       <c r="I58" s="61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J58" s="23">
         <v>1.49</v>
@@ -4341,7 +4344,7 @@
         <v>58</v>
       </c>
       <c r="I59" s="25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J59" s="23">
         <v>5.99</v>
@@ -4381,7 +4384,7 @@
         <v>58</v>
       </c>
       <c r="I60" s="25" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J60" s="23">
         <v>2.09</v>
@@ -4421,7 +4424,7 @@
         <v>58</v>
       </c>
       <c r="I61" s="25" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J61" s="23">
         <v>1.49</v>
@@ -4461,7 +4464,7 @@
         <v>58</v>
       </c>
       <c r="I62" s="61" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="J62" s="23">
         <v>3.99</v>
@@ -4501,7 +4504,7 @@
         <v>58</v>
       </c>
       <c r="I63" s="61" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="J63" s="23">
         <v>5.99</v>
@@ -4541,7 +4544,7 @@
         <v>58</v>
       </c>
       <c r="I64" s="61" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="J64" s="23">
         <v>2.39</v>
@@ -4581,7 +4584,7 @@
         <v>58</v>
       </c>
       <c r="I65" s="61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J65" s="23">
         <v>4.99</v>
@@ -4621,7 +4624,7 @@
         <v>58</v>
       </c>
       <c r="I66" s="61" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="J66" s="23">
         <v>9.99</v>
@@ -4661,7 +4664,7 @@
         <v>58</v>
       </c>
       <c r="I67" s="61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J67" s="23">
         <v>5.99</v>
@@ -4701,7 +4704,7 @@
         <v>58</v>
       </c>
       <c r="I68" s="61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J68" s="23">
         <v>3.69</v>
@@ -4741,7 +4744,7 @@
         <v>58</v>
       </c>
       <c r="I69" s="61" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J69" s="23">
         <v>7.99</v>
@@ -4781,7 +4784,7 @@
         <v>58</v>
       </c>
       <c r="I70" s="61" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J70" s="23">
         <v>4.49</v>
@@ -4821,7 +4824,7 @@
         <v>58</v>
       </c>
       <c r="I71" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J71" s="23">
         <v>16.989999999999998</v>
@@ -4861,7 +4864,7 @@
         <v>58</v>
       </c>
       <c r="I72" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J72" s="23">
         <v>13.99</v>
@@ -4901,7 +4904,7 @@
         <v>58</v>
       </c>
       <c r="I73" s="73" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="J73" s="23">
         <v>4.99</v>
@@ -4911,7 +4914,7 @@
         <v>19.96</v>
       </c>
       <c r="L73" s="110" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="M73" s="9"/>
     </row>
@@ -4941,7 +4944,7 @@
         <v>58</v>
       </c>
       <c r="I74" s="61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J74" s="23">
         <v>7.99</v>
@@ -4982,7 +4985,7 @@
         <v>58</v>
       </c>
       <c r="I75" s="61" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="J75" s="23">
         <v>3.99</v>
@@ -5022,7 +5025,7 @@
         <v>58</v>
       </c>
       <c r="I76" s="61" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="J76" s="23">
         <v>2.79</v>
@@ -5062,7 +5065,7 @@
         <v>58</v>
       </c>
       <c r="I77" s="61" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="J77" s="23">
         <v>1.29</v>
@@ -5102,7 +5105,7 @@
         <v>58</v>
       </c>
       <c r="I78" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J78" s="23">
         <v>3.99</v>
@@ -5142,7 +5145,7 @@
         <v>93</v>
       </c>
       <c r="I79" s="25" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="J79" s="23">
         <v>1.79</v>
@@ -5175,7 +5178,7 @@
         <v>255</v>
       </c>
       <c r="G80" s="43" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="H80" s="60" t="s">
         <v>12</v>
@@ -5212,7 +5215,7 @@
         <v>257</v>
       </c>
       <c r="G81" s="43" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="H81" s="60" t="s">
         <v>12</v>
@@ -5256,20 +5259,20 @@
       </c>
       <c r="I82" s="25"/>
       <c r="J82" s="23">
-        <v>6.32</v>
+        <v>4.95</v>
       </c>
       <c r="K82" s="23">
         <f t="shared" si="2"/>
-        <v>6.32</v>
+        <v>4.95</v>
       </c>
       <c r="L82" s="30" t="s">
-        <v>260</v>
+        <v>365</v>
       </c>
       <c r="M82" s="15"/>
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="21" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B83" s="41">
         <v>1</v>
@@ -5287,26 +5290,26 @@
         <v>19</v>
       </c>
       <c r="G83" s="43" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="H83" s="41" t="s">
         <v>12</v>
       </c>
       <c r="I83" s="25"/>
       <c r="J83" s="23">
-        <v>6.14</v>
+        <v>4.95</v>
       </c>
       <c r="K83" s="23">
         <f t="shared" si="2"/>
-        <v>6.14</v>
-      </c>
-      <c r="L83" s="30" t="s">
-        <v>263</v>
+        <v>4.95</v>
+      </c>
+      <c r="L83" s="128" t="s">
+        <v>364</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="21" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B84" s="41">
         <v>1</v>
@@ -5324,7 +5327,7 @@
         <v>19</v>
       </c>
       <c r="G84" s="47" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="H84" s="41" t="s">
         <v>12</v>
@@ -5338,12 +5341,12 @@
         <v>4.95</v>
       </c>
       <c r="L84" s="41" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="21" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B85" s="41">
         <v>1</v>
@@ -5361,7 +5364,7 @@
         <v>19</v>
       </c>
       <c r="G85" s="47" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="H85" s="41" t="s">
         <v>12</v>
@@ -5375,12 +5378,12 @@
         <v>4.95</v>
       </c>
       <c r="L85" s="41" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="21" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B86" s="41">
         <v>1</v>
@@ -5398,7 +5401,7 @@
         <v>19</v>
       </c>
       <c r="G86" s="47" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="H86" s="41" t="s">
         <v>12</v>
@@ -5412,13 +5415,13 @@
         <v>4.95</v>
       </c>
       <c r="L86" s="41" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="M86" s="15"/>
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="21" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B87" s="41">
         <v>1</v>
@@ -5436,7 +5439,7 @@
         <v>19</v>
       </c>
       <c r="G87" s="47" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="H87" s="41" t="s">
         <v>12</v>
@@ -5450,12 +5453,12 @@
         <v>4.95</v>
       </c>
       <c r="L87" s="41" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="76" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B88" s="41">
         <v>10</v>
@@ -5471,7 +5474,7 @@
       </c>
       <c r="F88" s="41"/>
       <c r="G88" s="106" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="H88" s="41" t="s">
         <v>12</v>
@@ -5485,12 +5488,12 @@
         <v>3.67</v>
       </c>
       <c r="L88" s="77" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="78" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B89" s="72">
         <v>10</v>
@@ -5506,7 +5509,7 @@
       </c>
       <c r="F89" s="72"/>
       <c r="G89" s="107" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="H89" s="72" t="s">
         <v>12</v>
@@ -5520,12 +5523,12 @@
         <v>0.4</v>
       </c>
       <c r="L89" s="80" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="81" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B90" s="82">
         <v>0</v>
@@ -5553,12 +5556,12 @@
         <v>0</v>
       </c>
       <c r="L90" s="82" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="81" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B91" s="82">
         <v>0</v>
@@ -5586,12 +5589,12 @@
         <v>0</v>
       </c>
       <c r="L91" s="86" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="87" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B92" s="72">
         <v>1</v>
@@ -5607,7 +5610,7 @@
       </c>
       <c r="F92" s="72"/>
       <c r="G92" s="88" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="H92" s="72" t="s">
         <v>12</v>
@@ -5621,12 +5624,12 @@
         <v>7.99</v>
       </c>
       <c r="L92" s="89" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="87" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B93" s="72">
         <v>1</v>
@@ -5642,7 +5645,7 @@
       </c>
       <c r="F93" s="72"/>
       <c r="G93" s="88" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="H93" s="72" t="s">
         <v>12</v>
@@ -5656,12 +5659,12 @@
         <v>15.59</v>
       </c>
       <c r="L93" s="89" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="87" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B94" s="72">
         <v>1</v>
@@ -5677,7 +5680,7 @@
       </c>
       <c r="F94" s="72"/>
       <c r="G94" s="88" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="H94" s="72" t="s">
         <v>12</v>
@@ -5691,12 +5694,12 @@
         <v>12.56</v>
       </c>
       <c r="L94" s="90" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="87" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B95" s="72">
         <v>1</v>
@@ -5712,7 +5715,7 @@
       </c>
       <c r="F95" s="72"/>
       <c r="G95" s="88" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="H95" s="72" t="s">
         <v>12</v>
@@ -5726,12 +5729,12 @@
         <v>15.59</v>
       </c>
       <c r="L95" s="89" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="87" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B96" s="72">
         <v>1</v>
@@ -5747,7 +5750,7 @@
       </c>
       <c r="F96" s="72"/>
       <c r="G96" s="88" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="H96" s="72" t="s">
         <v>12</v>
@@ -5761,7 +5764,7 @@
         <v>15.59</v>
       </c>
       <c r="L96" s="89" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
     </row>
     <row r="97" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5782,7 +5785,7 @@
       </c>
       <c r="F97" s="63"/>
       <c r="G97" s="68" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="H97" s="63" t="s">
         <v>12</v>
@@ -5796,7 +5799,7 @@
         <v>19.75</v>
       </c>
       <c r="L97" s="69" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
     </row>
     <row r="98" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5978,7 +5981,7 @@
     </row>
     <row r="103" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A103" s="31" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B103" s="42">
         <v>25</v>
@@ -5993,16 +5996,16 @@
         <v>90</v>
       </c>
       <c r="F103" s="42" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="G103" s="108" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="H103" s="49" t="s">
         <v>93</v>
       </c>
       <c r="I103" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J103" s="33">
         <v>3.78</v>
@@ -6012,12 +6015,12 @@
         <v>3.78</v>
       </c>
       <c r="L103" s="103" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="104" spans="1:12" ht="16" x14ac:dyDescent="0.2">
       <c r="A104" s="34" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B104" s="42">
         <v>4</v>
@@ -6032,16 +6035,16 @@
         <v>90</v>
       </c>
       <c r="F104" s="42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="G104" s="50" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="H104" s="51" t="s">
         <v>93</v>
       </c>
       <c r="I104" s="32" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="J104" s="33">
         <v>0.96</v>
@@ -6051,12 +6054,12 @@
         <v>3.84</v>
       </c>
       <c r="L104" s="103" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="105" spans="1:12" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A105" s="34" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B105" s="42">
         <v>1</v>
@@ -6068,10 +6071,10 @@
         <v>1</v>
       </c>
       <c r="E105" s="42" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F105" s="42" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="G105" s="104"/>
       <c r="H105" s="51" t="s">
@@ -6086,12 +6089,12 @@
         <v>11.75</v>
       </c>
       <c r="L105" s="103" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="106" spans="1:12" s="35" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="A106" s="34" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B106" s="42">
         <v>1</v>
@@ -6103,7 +6106,7 @@
         <v>1</v>
       </c>
       <c r="E106" s="42" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="F106" s="42" t="s">
         <v>169</v>
@@ -6121,7 +6124,7 @@
         <v>15.25</v>
       </c>
       <c r="L106" s="103" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="107" spans="1:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -6152,7 +6155,7 @@
       <c r="C109" s="17"/>
       <c r="D109" s="18"/>
       <c r="E109" s="20" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="F109" s="20">
         <v>10</v>
@@ -6169,7 +6172,7 @@
       <c r="C110" s="17"/>
       <c r="D110" s="18"/>
       <c r="E110" s="20" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="F110" s="20">
         <v>10</v>
@@ -15699,41 +15702,41 @@
     <hyperlink ref="L79" r:id="rId49" location="371=256" xr:uid="{00000000-0004-0000-0000-000030000000}"/>
     <hyperlink ref="L80" r:id="rId50" xr:uid="{00000000-0004-0000-0000-000031000000}"/>
     <hyperlink ref="L81" r:id="rId51" xr:uid="{00000000-0004-0000-0000-000032000000}"/>
-    <hyperlink ref="L82" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000033000000}"/>
-    <hyperlink ref="L88" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
-    <hyperlink ref="L89" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
-    <hyperlink ref="L92" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
-    <hyperlink ref="L93" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
-    <hyperlink ref="L94" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
-    <hyperlink ref="L95" r:id="rId58" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
-    <hyperlink ref="L96" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
-    <hyperlink ref="L98" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
-    <hyperlink ref="L100" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
-    <hyperlink ref="L101" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
-    <hyperlink ref="L102" r:id="rId63" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
-    <hyperlink ref="L24" r:id="rId64" location="92949a144/=18njs1n" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
-    <hyperlink ref="L30" r:id="rId65" location="92949A150" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
-    <hyperlink ref="L34" r:id="rId66" location="92949a106/=18njrx6" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
-    <hyperlink ref="L104" r:id="rId67" location="93330A252" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
-    <hyperlink ref="L27" r:id="rId68" location="90631A005" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
-    <hyperlink ref="L28" r:id="rId69" location="92949A146" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
-    <hyperlink ref="L29" r:id="rId70" location="92949A148" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
-    <hyperlink ref="L31" r:id="rId71" location="92949A151" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
-    <hyperlink ref="L32" r:id="rId72" location="92949A153" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
-    <hyperlink ref="L33" r:id="rId73" location="92949A160" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
-    <hyperlink ref="L39" r:id="rId74" location="92510A442" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
-    <hyperlink ref="L41" r:id="rId75" location="91780A162" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
-    <hyperlink ref="L42" r:id="rId76" location="91780A164" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
-    <hyperlink ref="L43" r:id="rId77" location="91780A166" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
-    <hyperlink ref="L47" r:id="rId78" location="91545A280" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
-    <hyperlink ref="L45" r:id="rId79" location="92141A008" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
-    <hyperlink ref="L105" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
-    <hyperlink ref="L106" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
-    <hyperlink ref="L91" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
-    <hyperlink ref="L17" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
-    <hyperlink ref="L18" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
-    <hyperlink ref="L50" r:id="rId85" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
-    <hyperlink ref="L73" r:id="rId86" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="L88" r:id="rId52" xr:uid="{00000000-0004-0000-0000-000034000000}"/>
+    <hyperlink ref="L89" r:id="rId53" xr:uid="{00000000-0004-0000-0000-000035000000}"/>
+    <hyperlink ref="L92" r:id="rId54" xr:uid="{00000000-0004-0000-0000-000036000000}"/>
+    <hyperlink ref="L93" r:id="rId55" xr:uid="{00000000-0004-0000-0000-000037000000}"/>
+    <hyperlink ref="L94" r:id="rId56" xr:uid="{00000000-0004-0000-0000-000038000000}"/>
+    <hyperlink ref="L95" r:id="rId57" xr:uid="{00000000-0004-0000-0000-000039000000}"/>
+    <hyperlink ref="L96" r:id="rId58" xr:uid="{00000000-0004-0000-0000-00003A000000}"/>
+    <hyperlink ref="L98" r:id="rId59" xr:uid="{00000000-0004-0000-0000-00003B000000}"/>
+    <hyperlink ref="L100" r:id="rId60" xr:uid="{00000000-0004-0000-0000-00003C000000}"/>
+    <hyperlink ref="L101" r:id="rId61" xr:uid="{00000000-0004-0000-0000-00003D000000}"/>
+    <hyperlink ref="L102" r:id="rId62" xr:uid="{00000000-0004-0000-0000-00003E000000}"/>
+    <hyperlink ref="L24" r:id="rId63" location="92949a144/=18njs1n" xr:uid="{00000000-0004-0000-0000-000040000000}"/>
+    <hyperlink ref="L30" r:id="rId64" location="92949A150" xr:uid="{00000000-0004-0000-0000-000041000000}"/>
+    <hyperlink ref="L34" r:id="rId65" location="92949a106/=18njrx6" xr:uid="{00000000-0004-0000-0000-000042000000}"/>
+    <hyperlink ref="L104" r:id="rId66" location="93330A252" xr:uid="{00000000-0004-0000-0000-000043000000}"/>
+    <hyperlink ref="L27" r:id="rId67" location="90631A005" xr:uid="{00000000-0004-0000-0000-000044000000}"/>
+    <hyperlink ref="L28" r:id="rId68" location="92949A146" xr:uid="{00000000-0004-0000-0000-000045000000}"/>
+    <hyperlink ref="L29" r:id="rId69" location="92949A148" xr:uid="{00000000-0004-0000-0000-000046000000}"/>
+    <hyperlink ref="L31" r:id="rId70" location="92949A151" xr:uid="{00000000-0004-0000-0000-000047000000}"/>
+    <hyperlink ref="L32" r:id="rId71" location="92949A153" xr:uid="{00000000-0004-0000-0000-000048000000}"/>
+    <hyperlink ref="L33" r:id="rId72" location="92949A160" xr:uid="{00000000-0004-0000-0000-000049000000}"/>
+    <hyperlink ref="L39" r:id="rId73" location="92510A442" xr:uid="{00000000-0004-0000-0000-00004A000000}"/>
+    <hyperlink ref="L41" r:id="rId74" location="91780A162" xr:uid="{00000000-0004-0000-0000-00004B000000}"/>
+    <hyperlink ref="L42" r:id="rId75" location="91780A164" xr:uid="{00000000-0004-0000-0000-00004C000000}"/>
+    <hyperlink ref="L43" r:id="rId76" location="91780A166" xr:uid="{00000000-0004-0000-0000-00004D000000}"/>
+    <hyperlink ref="L47" r:id="rId77" location="91545A280" xr:uid="{00000000-0004-0000-0000-00004E000000}"/>
+    <hyperlink ref="L45" r:id="rId78" location="92141A008" xr:uid="{00000000-0004-0000-0000-00004F000000}"/>
+    <hyperlink ref="L105" r:id="rId79" xr:uid="{00000000-0004-0000-0000-000050000000}"/>
+    <hyperlink ref="L106" r:id="rId80" xr:uid="{00000000-0004-0000-0000-000051000000}"/>
+    <hyperlink ref="L91" r:id="rId81" xr:uid="{00000000-0004-0000-0000-000052000000}"/>
+    <hyperlink ref="L17" r:id="rId82" xr:uid="{00000000-0004-0000-0000-000053000000}"/>
+    <hyperlink ref="L18" r:id="rId83" xr:uid="{00000000-0004-0000-0000-000054000000}"/>
+    <hyperlink ref="L50" r:id="rId84" xr:uid="{00000000-0004-0000-0000-000055000000}"/>
+    <hyperlink ref="L73" r:id="rId85" xr:uid="{00000000-0004-0000-0000-00003F000000}"/>
+    <hyperlink ref="L83" r:id="rId86" xr:uid="{19FFA03C-8776-5240-AE2B-168ED226E079}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId87"/>
